--- a/Excel/Clase del 29-Agosto-2021.xlsx
+++ b/Excel/Clase del 29-Agosto-2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Luis\Documents\GitProjects\Clases-octave\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terra\Documents\proyectosdegit\Clases-octave\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF8283F-3E18-45E7-B235-39382C332FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F4615E-E259-477A-B487-6E41FDA53396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{CC3D101B-E66C-4855-B08C-391E4460BE90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{CC3D101B-E66C-4855-B08C-391E4460BE90}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -103,8 +103,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>97320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Entrada de lápiz 13">
@@ -123,7 +123,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Entrada de lápiz 13">
@@ -168,8 +168,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>145740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="43" name="Entrada de lápiz 42">
@@ -188,7 +188,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="43" name="Entrada de lápiz 42">
@@ -233,8 +233,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>88020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="Entrada de lápiz 43">
@@ -253,7 +253,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="44" name="Entrada de lápiz 43">
@@ -298,8 +298,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>39060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Entrada de lápiz 44">
@@ -318,7 +318,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Entrada de lápiz 44">
@@ -363,8 +363,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>147180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="46" name="Entrada de lápiz 45">
@@ -383,7 +383,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="46" name="Entrada de lápiz 45">
@@ -428,8 +428,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>30780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="58" name="Entrada de lápiz 57">
@@ -448,7 +448,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="58" name="Entrada de lápiz 57">
@@ -493,8 +493,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>143040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="61" name="Entrada de lápiz 60">
@@ -513,7 +513,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="61" name="Entrada de lápiz 60">
@@ -558,8 +558,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>116820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="65" name="Entrada de lápiz 64">
@@ -578,7 +578,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="65" name="Entrada de lápiz 64">
@@ -623,8 +623,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>111000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="78" name="Entrada de lápiz 77">
@@ -643,7 +643,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="78" name="Entrada de lápiz 77">
@@ -688,8 +688,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>163560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="79" name="Entrada de lápiz 78">
@@ -708,7 +708,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="79" name="Entrada de lápiz 78">
@@ -753,8 +753,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="80" name="Entrada de lápiz 79">
@@ -773,7 +773,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="80" name="Entrada de lápiz 79">
@@ -818,8 +818,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>143040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="81" name="Entrada de lápiz 80">
@@ -838,7 +838,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="81" name="Entrada de lápiz 80">
@@ -883,8 +883,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>123960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Entrada de lápiz 83">
@@ -903,7 +903,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Entrada de lápiz 83">
@@ -948,8 +948,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>122160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="85" name="Entrada de lápiz 84">
@@ -968,7 +968,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="85" name="Entrada de lápiz 84">
@@ -1013,8 +1013,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>38040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="86" name="Entrada de lápiz 85">
@@ -1033,7 +1033,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="86" name="Entrada de lápiz 85">
@@ -1078,8 +1078,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>125040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="87" name="Entrada de lápiz 86">
@@ -1098,7 +1098,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="87" name="Entrada de lápiz 86">
@@ -1143,8 +1143,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>170400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="88" name="Entrada de lápiz 87">
@@ -1163,7 +1163,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="88" name="Entrada de lápiz 87">
@@ -1208,8 +1208,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>176160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="91" name="Entrada de lápiz 90">
@@ -1228,7 +1228,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="91" name="Entrada de lápiz 90">
@@ -1273,8 +1273,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>101700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="95" name="Entrada de lápiz 94">
@@ -1293,7 +1293,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="95" name="Entrada de lápiz 94">
@@ -1338,8 +1338,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>81240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="102" name="Entrada de lápiz 101">
@@ -1358,7 +1358,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="102" name="Entrada de lápiz 101">
@@ -1403,8 +1403,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>171600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="119" name="Entrada de lápiz 118">
@@ -1423,7 +1423,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="119" name="Entrada de lápiz 118">
@@ -1468,8 +1468,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>157560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="130" name="Entrada de lápiz 129">
@@ -1488,7 +1488,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="130" name="Entrada de lápiz 129">
@@ -1533,8 +1533,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>110220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="131" name="Entrada de lápiz 130">
@@ -1553,7 +1553,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="131" name="Entrada de lápiz 130">
@@ -1598,8 +1598,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>137400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="132" name="Entrada de lápiz 131">
@@ -1618,7 +1618,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="132" name="Entrada de lápiz 131">
@@ -1663,8 +1663,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>153780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="149" name="Entrada de lápiz 148">
@@ -1683,7 +1683,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="149" name="Entrada de lápiz 148">
@@ -1728,8 +1728,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>91620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="166" name="Entrada de lápiz 165">
@@ -1748,7 +1748,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="166" name="Entrada de lápiz 165">
@@ -1793,8 +1793,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>10320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="186" name="Entrada de lápiz 185">
@@ -1813,7 +1813,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="186" name="Entrada de lápiz 185">
@@ -1858,8 +1858,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>152520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="194" name="Entrada de lápiz 193">
@@ -1878,7 +1878,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="194" name="Entrada de lápiz 193">
@@ -1923,8 +1923,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>17700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="207" name="Entrada de lápiz 206">
@@ -1943,7 +1943,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="207" name="Entrada de lápiz 206">
@@ -1988,8 +1988,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>81060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="213" name="Entrada de lápiz 212">
@@ -2008,7 +2008,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="213" name="Entrada de lápiz 212">
@@ -2053,8 +2053,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>64560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="222" name="Entrada de lápiz 221">
@@ -2073,7 +2073,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="222" name="Entrada de lápiz 221">
@@ -2118,8 +2118,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>66660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="223" name="Entrada de lápiz 222">
@@ -2138,7 +2138,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="223" name="Entrada de lápiz 222">
@@ -2183,8 +2183,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>19560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="229" name="Entrada de lápiz 228">
@@ -2203,7 +2203,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="229" name="Entrada de lápiz 228">
@@ -2248,8 +2248,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>79620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="230" name="Entrada de lápiz 229">
@@ -2268,7 +2268,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="230" name="Entrada de lápiz 229">
@@ -2313,8 +2313,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>58080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="239" name="Entrada de lápiz 238">
@@ -2333,7 +2333,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="239" name="Entrada de lápiz 238">
@@ -2378,8 +2378,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>112200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="243" name="Entrada de lápiz 242">
@@ -2398,7 +2398,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="243" name="Entrada de lápiz 242">
@@ -2443,8 +2443,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="244" name="Entrada de lápiz 243">
@@ -2463,7 +2463,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="244" name="Entrada de lápiz 243">
@@ -2508,8 +2508,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="251" name="Entrada de lápiz 250">
@@ -2528,7 +2528,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="251" name="Entrada de lápiz 250">
@@ -2573,8 +2573,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>100380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="265" name="Entrada de lápiz 264">
@@ -2593,7 +2593,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="265" name="Entrada de lápiz 264">
@@ -2638,8 +2638,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>20820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="275" name="Entrada de lápiz 274">
@@ -2658,7 +2658,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="275" name="Entrada de lápiz 274">
@@ -2703,8 +2703,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="280" name="Entrada de lápiz 279">
@@ -2723,7 +2723,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="280" name="Entrada de lápiz 279">
@@ -2768,8 +2768,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="286" name="Entrada de lápiz 285">
@@ -2788,7 +2788,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="286" name="Entrada de lápiz 285">
@@ -2833,8 +2833,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="298" name="Entrada de lápiz 297">
@@ -2853,7 +2853,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="298" name="Entrada de lápiz 297">
@@ -2898,8 +2898,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>123660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="299" name="Entrada de lápiz 298">
@@ -2918,7 +2918,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="299" name="Entrada de lápiz 298">
@@ -2963,8 +2963,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>135180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId88">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="313" name="Entrada de lápiz 312">
@@ -2983,7 +2983,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="313" name="Entrada de lápiz 312">
@@ -3028,8 +3028,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>147900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId90">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="320" name="Entrada de lápiz 319">
@@ -3048,7 +3048,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="320" name="Entrada de lápiz 319">
@@ -3093,8 +3093,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>21780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId92">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="333" name="Entrada de lápiz 332">
@@ -3113,7 +3113,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="333" name="Entrada de lápiz 332">
@@ -3158,8 +3158,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId94">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="340" name="Entrada de lápiz 339">
@@ -3178,7 +3178,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="340" name="Entrada de lápiz 339">
@@ -3223,8 +3223,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>98460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId96">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="349" name="Entrada de lápiz 348">
@@ -3243,7 +3243,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="349" name="Entrada de lápiz 348">
@@ -3288,8 +3288,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId98">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="358" name="Entrada de lápiz 357">
@@ -3308,7 +3308,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="358" name="Entrada de lápiz 357">
@@ -3353,8 +3353,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId100">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="359" name="Entrada de lápiz 358">
@@ -3373,7 +3373,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="359" name="Entrada de lápiz 358">
@@ -3418,8 +3418,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId102">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="368" name="Entrada de lápiz 367">
@@ -3438,7 +3438,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="368" name="Entrada de lápiz 367">
@@ -3483,8 +3483,8 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>126900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId104">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="376" name="Entrada de lápiz 375">
@@ -3503,7 +3503,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="376" name="Entrada de lápiz 375">
@@ -3548,8 +3548,8 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>171540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId106">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="377" name="Entrada de lápiz 376">
@@ -3568,7 +3568,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="377" name="Entrada de lápiz 376">
@@ -3662,8 +3662,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
@@ -3682,7 +3682,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Entrada de lápiz 2">
@@ -3727,8 +3727,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>77640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Entrada de lápiz 5">
@@ -3747,7 +3747,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Entrada de lápiz 5">
@@ -3792,8 +3792,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>4020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Entrada de lápiz 10">
@@ -3812,7 +3812,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Entrada de lápiz 10">
@@ -3857,8 +3857,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>170100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Entrada de lápiz 14">
@@ -3877,7 +3877,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Entrada de lápiz 14">
@@ -3922,8 +3922,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>34320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="Entrada de lápiz 18">
@@ -3942,7 +3942,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="Entrada de lápiz 18">
@@ -3987,8 +3987,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Entrada de lápiz 19">
@@ -4007,7 +4007,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Entrada de lápiz 19">
@@ -4052,8 +4052,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Entrada de lápiz 20">
@@ -4072,7 +4072,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Entrada de lápiz 20">
@@ -4117,8 +4117,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>145980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Entrada de lápiz 26">
@@ -4137,7 +4137,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="Entrada de lápiz 26">
@@ -4182,8 +4182,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>106260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Entrada de lápiz 27">
@@ -4202,7 +4202,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Entrada de lápiz 27">
@@ -4247,8 +4247,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>29640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Entrada de lápiz 31">
@@ -4267,7 +4267,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Entrada de lápiz 31">
@@ -4312,8 +4312,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="36" name="Entrada de lápiz 35">
@@ -4332,7 +4332,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="36" name="Entrada de lápiz 35">
@@ -4377,8 +4377,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="37" name="Entrada de lápiz 36">
@@ -4397,7 +4397,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="37" name="Entrada de lápiz 36">
@@ -4442,8 +4442,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="49" name="Entrada de lápiz 48">
@@ -4462,7 +4462,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="49" name="Entrada de lápiz 48">
@@ -4507,8 +4507,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="60" name="Entrada de lápiz 59">
@@ -4527,7 +4527,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="60" name="Entrada de lápiz 59">
@@ -4572,8 +4572,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="65" name="Entrada de lápiz 64">
@@ -4592,7 +4592,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="65" name="Entrada de lápiz 64">
@@ -4637,8 +4637,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>171060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="71" name="Entrada de lápiz 70">
@@ -4657,7 +4657,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="71" name="Entrada de lápiz 70">
@@ -4702,8 +4702,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="79" name="Entrada de lápiz 78">
@@ -4722,7 +4722,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="79" name="Entrada de lápiz 78">
@@ -4767,8 +4767,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>35940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="88" name="Entrada de lápiz 87">
@@ -4787,7 +4787,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="88" name="Entrada de lápiz 87">
@@ -4832,8 +4832,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>168600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="94" name="Entrada de lápiz 93">
@@ -4852,7 +4852,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="94" name="Entrada de lápiz 93">
@@ -4897,8 +4897,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>105600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="99" name="Entrada de lápiz 98">
@@ -4917,7 +4917,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="99" name="Entrada de lápiz 98">
@@ -4962,8 +4962,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>16800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="105" name="Entrada de lápiz 104">
@@ -4982,7 +4982,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="105" name="Entrada de lápiz 104">
@@ -5027,8 +5027,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>159060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="110" name="Entrada de lápiz 109">
@@ -5047,7 +5047,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="110" name="Entrada de lápiz 109">
@@ -5092,8 +5092,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="115" name="Entrada de lápiz 114">
@@ -5112,7 +5112,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="115" name="Entrada de lápiz 114">
@@ -5157,8 +5157,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="122" name="Entrada de lápiz 121">
@@ -5177,7 +5177,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="122" name="Entrada de lápiz 121">
@@ -5222,8 +5222,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>166980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="123" name="Entrada de lápiz 122">
@@ -5242,7 +5242,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="123" name="Entrada de lápiz 122">
@@ -5287,8 +5287,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>46140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="127" name="Entrada de lápiz 126">
@@ -5307,7 +5307,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="127" name="Entrada de lápiz 126">
@@ -5352,8 +5352,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="128" name="Entrada de lápiz 127">
@@ -5372,7 +5372,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="128" name="Entrada de lápiz 127">
@@ -5417,8 +5417,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>35580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="129" name="Entrada de lápiz 128">
@@ -5437,7 +5437,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="129" name="Entrada de lápiz 128">
@@ -5482,8 +5482,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>113700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="130" name="Entrada de lápiz 129">
@@ -5502,7 +5502,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="130" name="Entrada de lápiz 129">
@@ -5547,8 +5547,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>105090</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="131" name="Entrada de lápiz 130">
@@ -5567,7 +5567,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="131" name="Entrada de lápiz 130">
@@ -5612,8 +5612,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>190050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="132" name="Entrada de lápiz 131">
@@ -5632,7 +5632,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="132" name="Entrada de lápiz 131">
@@ -5677,8 +5677,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>147930</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="133" name="Entrada de lápiz 132">
@@ -5697,7 +5697,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="133" name="Entrada de lápiz 132">
@@ -5742,8 +5742,8 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>65190</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="134" name="Entrada de lápiz 133">
@@ -5762,7 +5762,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="134" name="Entrada de lápiz 133">
@@ -5807,8 +5807,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114810</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="135" name="Entrada de lápiz 134">
@@ -5827,7 +5827,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="135" name="Entrada de lápiz 134">
@@ -5872,8 +5872,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>132750</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="137" name="Entrada de lápiz 136">
@@ -5892,7 +5892,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="137" name="Entrada de lápiz 136">
@@ -5937,8 +5937,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="138" name="Entrada de lápiz 137">
@@ -5957,7 +5957,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="138" name="Entrada de lápiz 137">
@@ -6002,8 +6002,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>131880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="139" name="Entrada de lápiz 138">
@@ -6022,7 +6022,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="139" name="Entrada de lápiz 138">
@@ -6067,8 +6067,8 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId72">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="140" name="Entrada de lápiz 139">
@@ -6087,7 +6087,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="140" name="Entrada de lápiz 139">
@@ -6132,8 +6132,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId74">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="143" name="Entrada de lápiz 142">
@@ -6152,7 +6152,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="143" name="Entrada de lápiz 142">
@@ -6197,8 +6197,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>32700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId76">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="146" name="Entrada de lápiz 145">
@@ -6217,7 +6217,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="146" name="Entrada de lápiz 145">
@@ -6262,8 +6262,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId78">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="151" name="Entrada de lápiz 150">
@@ -6282,7 +6282,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="151" name="Entrada de lápiz 150">
@@ -6327,8 +6327,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>93420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId80">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="162" name="Entrada de lápiz 161">
@@ -6347,7 +6347,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="162" name="Entrada de lápiz 161">
@@ -6392,8 +6392,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>50940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId82">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="163" name="Entrada de lápiz 162">
@@ -6412,7 +6412,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="163" name="Entrada de lápiz 162">
@@ -6457,8 +6457,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId84">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="164" name="Entrada de lápiz 163">
@@ -6477,7 +6477,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="164" name="Entrada de lápiz 163">
@@ -6522,8 +6522,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>142800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="170" name="Entrada de lápiz 169">
@@ -6542,7 +6542,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="170" name="Entrada de lápiz 169">
@@ -6587,8 +6587,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>8100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="183" name="Entrada de lápiz 182">
@@ -6607,7 +6607,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="183" name="Entrada de lápiz 182">
@@ -6652,8 +6652,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>152460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="184" name="Entrada de lápiz 183">
@@ -6672,7 +6672,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="184" name="Entrada de lápiz 183">
@@ -6717,8 +6717,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId91">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="185" name="Entrada de lápiz 184">
@@ -6737,7 +6737,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="185" name="Entrada de lápiz 184">
@@ -6782,8 +6782,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId93">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="186" name="Entrada de lápiz 185">
@@ -6802,7 +6802,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="186" name="Entrada de lápiz 185">
@@ -6847,8 +6847,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId95">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="201" name="Entrada de lápiz 200">
@@ -6867,7 +6867,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="201" name="Entrada de lápiz 200">
@@ -6912,8 +6912,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>25620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId97">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="202" name="Entrada de lápiz 201">
@@ -6932,7 +6932,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="202" name="Entrada de lápiz 201">
@@ -6977,8 +6977,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>67860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId99">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="229" name="Entrada de lápiz 228">
@@ -6997,7 +6997,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="229" name="Entrada de lápiz 228">
@@ -7042,8 +7042,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId101">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="232" name="Entrada de lápiz 231">
@@ -7062,7 +7062,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="232" name="Entrada de lápiz 231">
@@ -7151,8 +7151,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>104700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId104">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="243" name="Entrada de lápiz 242">
@@ -7171,7 +7171,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="243" name="Entrada de lápiz 242">
@@ -7216,8 +7216,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>127320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId106">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="246" name="Entrada de lápiz 245">
@@ -7236,7 +7236,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="246" name="Entrada de lápiz 245">
@@ -7281,8 +7281,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId108">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="247" name="Entrada de lápiz 246">
@@ -7301,7 +7301,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="247" name="Entrada de lápiz 246">
@@ -7346,8 +7346,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>58920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId110">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="250" name="Entrada de lápiz 249">
@@ -7366,7 +7366,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="250" name="Entrada de lápiz 249">
@@ -7411,8 +7411,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>38280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId112">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="251" name="Entrada de lápiz 250">
@@ -7431,7 +7431,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="251" name="Entrada de lápiz 250">
@@ -7476,8 +7476,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>93000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId114">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="254" name="Entrada de lápiz 253">
@@ -7496,7 +7496,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="254" name="Entrada de lápiz 253">
@@ -7541,8 +7541,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>76140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId116">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="255" name="Entrada de lápiz 254">
@@ -7561,7 +7561,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="255" name="Entrada de lápiz 254">
@@ -7606,8 +7606,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>33660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId118">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="260" name="Entrada de lápiz 259">
@@ -7626,7 +7626,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="260" name="Entrada de lápiz 259">
@@ -7671,8 +7671,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>21420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId120">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="267" name="Entrada de lápiz 266">
@@ -7691,7 +7691,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="267" name="Entrada de lápiz 266">
@@ -7736,8 +7736,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>37680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId122">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="268" name="Entrada de lápiz 267">
@@ -7756,7 +7756,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="268" name="Entrada de lápiz 267">
@@ -7801,8 +7801,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>93780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId124">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="275" name="Entrada de lápiz 274">
@@ -7821,7 +7821,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="275" name="Entrada de lápiz 274">
@@ -7866,8 +7866,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>18960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId126">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="280" name="Entrada de lápiz 279">
@@ -7886,7 +7886,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="280" name="Entrada de lápiz 279">
@@ -7931,8 +7931,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>70080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId128">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="281" name="Entrada de lápiz 280">
@@ -7951,7 +7951,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="281" name="Entrada de lápiz 280">
@@ -7996,8 +7996,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>11280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId130">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="286" name="Entrada de lápiz 285">
@@ -8016,7 +8016,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="286" name="Entrada de lápiz 285">
@@ -8061,8 +8061,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>56700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId132">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="291" name="Entrada de lápiz 290">
@@ -8081,7 +8081,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="291" name="Entrada de lápiz 290">
@@ -8126,8 +8126,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>21000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId134">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="304" name="Entrada de lápiz 303">
@@ -8146,7 +8146,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="304" name="Entrada de lápiz 303">
@@ -8191,8 +8191,8 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>170100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId136">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="317" name="Entrada de lápiz 316">
@@ -8211,7 +8211,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="317" name="Entrada de lápiz 316">
@@ -8256,8 +8256,8 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>14160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId138">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="320" name="Entrada de lápiz 319">
@@ -8276,7 +8276,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="320" name="Entrada de lápiz 319">
@@ -8321,8 +8321,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>85620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId140">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="321" name="Entrada de lápiz 320">
@@ -8341,7 +8341,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="321" name="Entrada de lápiz 320">
@@ -8386,8 +8386,8 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>175800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId141">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="326" name="Entrada de lápiz 325">
@@ -8406,7 +8406,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="326" name="Entrada de lápiz 325">
@@ -8451,8 +8451,8 @@
       <xdr:row>62</xdr:row>
       <xdr:rowOff>189960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId143">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="337" name="Entrada de lápiz 336">
@@ -8471,7 +8471,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="337" name="Entrada de lápiz 336">
@@ -8516,8 +8516,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>123780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId145">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="339" name="Entrada de lápiz 338">
@@ -8536,7 +8536,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="339" name="Entrada de lápiz 338">
@@ -8581,8 +8581,8 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>28920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId146">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="343" name="Entrada de lápiz 342">
@@ -8601,7 +8601,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="343" name="Entrada de lápiz 342">
@@ -8646,8 +8646,8 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId148">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="359" name="Entrada de lápiz 358">
@@ -8666,7 +8666,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="359" name="Entrada de lápiz 358">
@@ -8711,8 +8711,8 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>37980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId150">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="372" name="Entrada de lápiz 371">
@@ -8731,7 +8731,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="372" name="Entrada de lápiz 371">
@@ -8776,8 +8776,8 @@
       <xdr:row>70</xdr:row>
       <xdr:rowOff>20220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId152">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="379" name="Entrada de lápiz 378">
@@ -8796,7 +8796,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="379" name="Entrada de lápiz 378">
@@ -8841,8 +8841,8 @@
       <xdr:row>72</xdr:row>
       <xdr:rowOff>176340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId154">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="387" name="Entrada de lápiz 386">
@@ -8861,7 +8861,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="387" name="Entrada de lápiz 386">
@@ -8906,8 +8906,8 @@
       <xdr:row>76</xdr:row>
       <xdr:rowOff>173460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId156">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="394" name="Entrada de lápiz 393">
@@ -8926,7 +8926,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="394" name="Entrada de lápiz 393">
@@ -8971,8 +8971,8 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>90540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId158">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="395" name="Entrada de lápiz 394">
@@ -8991,7 +8991,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="395" name="Entrada de lápiz 394">
@@ -9036,8 +9036,8 @@
       <xdr:row>76</xdr:row>
       <xdr:rowOff>161940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId160">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="396" name="Entrada de lápiz 395">
@@ -9056,7 +9056,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="396" name="Entrada de lápiz 395">
@@ -9101,8 +9101,8 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>66780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId161">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="400" name="Entrada de lápiz 399">
@@ -9121,7 +9121,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="400" name="Entrada de lápiz 399">
@@ -9166,8 +9166,8 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>174060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId163">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="410" name="Entrada de lápiz 409">
@@ -9186,7 +9186,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="410" name="Entrada de lápiz 409">
@@ -9231,8 +9231,8 @@
       <xdr:row>79</xdr:row>
       <xdr:rowOff>81240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId165">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="416" name="Entrada de lápiz 415">
@@ -9251,7 +9251,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="416" name="Entrada de lápiz 415">
@@ -9296,8 +9296,8 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>75900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId167">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="421" name="Entrada de lápiz 420">
@@ -9316,7 +9316,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="421" name="Entrada de lápiz 420">
@@ -9361,8 +9361,8 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>122880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId169">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="426" name="Entrada de lápiz 425">
@@ -9381,7 +9381,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="426" name="Entrada de lápiz 425">
@@ -9426,8 +9426,8 @@
       <xdr:row>70</xdr:row>
       <xdr:rowOff>19140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId171">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="427" name="Entrada de lápiz 426">
@@ -9446,7 +9446,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="427" name="Entrada de lápiz 426">
@@ -9491,8 +9491,8 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>1440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId173">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="430" name="Entrada de lápiz 429">
@@ -9511,7 +9511,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="430" name="Entrada de lápiz 429">
@@ -9556,8 +9556,8 @@
       <xdr:row>72</xdr:row>
       <xdr:rowOff>75540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId175">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="444" name="Entrada de lápiz 443">
@@ -9576,7 +9576,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="444" name="Entrada de lápiz 443">
@@ -9670,8 +9670,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Entrada de lápiz 5">
@@ -9690,7 +9690,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Entrada de lápiz 5">
@@ -9735,8 +9735,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>48120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Entrada de lápiz 6">
@@ -9755,7 +9755,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Entrada de lápiz 6">
@@ -9800,8 +9800,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>143520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Entrada de lápiz 7">
@@ -9820,7 +9820,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Entrada de lápiz 7">
@@ -9865,8 +9865,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>8160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="9" name="Entrada de lápiz 8">
@@ -9885,7 +9885,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="9" name="Entrada de lápiz 8">
@@ -9930,8 +9930,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>170760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Entrada de lápiz 12">
@@ -9950,7 +9950,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Entrada de lápiz 12">
@@ -9995,8 +9995,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>36120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="Entrada de lápiz 16">
@@ -10015,7 +10015,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="Entrada de lápiz 16">
@@ -10060,8 +10060,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>106320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Entrada de lápiz 31">
@@ -10080,7 +10080,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Entrada de lápiz 31">
@@ -10125,8 +10125,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>7800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="42" name="Entrada de lápiz 41">
@@ -10145,7 +10145,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="42" name="Entrada de lápiz 41">
@@ -10190,8 +10190,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="53" name="Entrada de lápiz 52">
@@ -10210,7 +10210,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="53" name="Entrada de lápiz 52">
@@ -10255,8 +10255,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>136920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="54" name="Entrada de lápiz 53">
@@ -10275,7 +10275,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="54" name="Entrada de lápiz 53">
@@ -10320,8 +10320,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>44760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="55" name="Entrada de lápiz 54">
@@ -10340,7 +10340,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="55" name="Entrada de lápiz 54">
@@ -10385,8 +10385,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>145500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="56" name="Entrada de lápiz 55">
@@ -10405,7 +10405,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="56" name="Entrada de lápiz 55">
@@ -10450,8 +10450,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>56460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="60" name="Entrada de lápiz 59">
@@ -10470,7 +10470,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="60" name="Entrada de lápiz 59">
@@ -10515,8 +10515,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="61" name="Entrada de lápiz 60">
@@ -10535,7 +10535,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="61" name="Entrada de lápiz 60">
@@ -10580,8 +10580,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>74460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="64" name="Entrada de lápiz 63">
@@ -10600,7 +10600,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="64" name="Entrada de lápiz 63">
@@ -10689,8 +10689,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>19200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="66" name="Entrada de lápiz 65">
@@ -10709,7 +10709,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="66" name="Entrada de lápiz 65">
@@ -10754,8 +10754,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>57360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="72" name="Entrada de lápiz 71">
@@ -10774,7 +10774,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="72" name="Entrada de lápiz 71">
@@ -10819,8 +10819,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="73" name="Entrada de lápiz 72">
@@ -10839,7 +10839,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="73" name="Entrada de lápiz 72">
@@ -10884,8 +10884,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="76" name="Entrada de lápiz 75">
@@ -10904,7 +10904,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="76" name="Entrada de lápiz 75">
@@ -10949,8 +10949,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>142860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="77" name="Entrada de lápiz 76">
@@ -10969,7 +10969,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="77" name="Entrada de lápiz 76">
@@ -11014,8 +11014,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>77940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="80" name="Entrada de lápiz 79">
@@ -11034,7 +11034,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="80" name="Entrada de lápiz 79">
@@ -11079,8 +11079,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>187260</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="81" name="Entrada de lápiz 80">
@@ -11099,7 +11099,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="81" name="Entrada de lápiz 80">
@@ -11144,8 +11144,8 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Entrada de lápiz 83">
@@ -11164,7 +11164,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Entrada de lápiz 83">
@@ -11209,8 +11209,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>90660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="85" name="Entrada de lápiz 84">
@@ -11229,7 +11229,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="85" name="Entrada de lápiz 84">
@@ -11274,8 +11274,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>38580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="95" name="Entrada de lápiz 94">
@@ -11294,7 +11294,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="95" name="Entrada de lápiz 94">
@@ -11339,8 +11339,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>68460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="96" name="Entrada de lápiz 95">
@@ -11359,7 +11359,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="96" name="Entrada de lápiz 95">
@@ -11404,8 +11404,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>149460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="101" name="Entrada de lápiz 100">
@@ -11424,7 +11424,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="101" name="Entrada de lápiz 100">
@@ -11469,8 +11469,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>77460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="115" name="Entrada de lápiz 114">
@@ -11489,7 +11489,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="115" name="Entrada de lápiz 114">
@@ -11534,8 +11534,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>90420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="120" name="Entrada de lápiz 119">
@@ -11554,7 +11554,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="120" name="Entrada de lápiz 119">
@@ -11599,8 +11599,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>104820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="124" name="Entrada de lápiz 123">
@@ -11619,7 +11619,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="124" name="Entrada de lápiz 123">
@@ -11664,8 +11664,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>100200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="125" name="Entrada de lápiz 124">
@@ -11684,7 +11684,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="125" name="Entrada de lápiz 124">
@@ -11729,8 +11729,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>159780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="127" name="Entrada de lápiz 126">
@@ -11749,7 +11749,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="127" name="Entrada de lápiz 126">
@@ -11794,8 +11794,8 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="137" name="Entrada de lápiz 136">
@@ -11814,7 +11814,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="137" name="Entrada de lápiz 136">
@@ -11859,8 +11859,8 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>140160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="148" name="Entrada de lápiz 147">
@@ -11879,7 +11879,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="148" name="Entrada de lápiz 147">
@@ -11924,8 +11924,8 @@
       <xdr:row>44</xdr:row>
       <xdr:rowOff>166380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="153" name="Entrada de lápiz 152">
@@ -11944,7 +11944,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="153" name="Entrada de lápiz 152">
@@ -11989,8 +11989,8 @@
       <xdr:row>63</xdr:row>
       <xdr:rowOff>85800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="162" name="Entrada de lápiz 161">
@@ -12009,7 +12009,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="162" name="Entrada de lápiz 161">
@@ -12103,8 +12103,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>76140</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="4" name="Entrada de lápiz 3">
@@ -12123,7 +12123,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="4" name="Entrada de lápiz 3">
@@ -12168,8 +12168,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>24000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Entrada de lápiz 4">
@@ -12188,7 +12188,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Entrada de lápiz 4">
@@ -12233,8 +12233,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>14220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="8" name="Entrada de lápiz 7">
@@ -12253,7 +12253,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="8" name="Entrada de lápiz 7">
@@ -12298,8 +12298,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>75180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="Entrada de lápiz 11">
@@ -12318,7 +12318,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="Entrada de lápiz 11">
@@ -12363,8 +12363,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Entrada de lápiz 12">
@@ -12383,7 +12383,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Entrada de lápiz 12">
@@ -12428,8 +12428,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>58740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="24" name="Entrada de lápiz 23">
@@ -12448,7 +12448,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="24" name="Entrada de lápiz 23">
@@ -12493,8 +12493,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>117960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Entrada de lápiz 44">
@@ -12513,7 +12513,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Entrada de lápiz 44">
@@ -12558,8 +12558,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>122940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="48" name="Entrada de lápiz 47">
@@ -12578,7 +12578,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="48" name="Entrada de lápiz 47">
@@ -12623,8 +12623,8 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>111360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="63" name="Entrada de lápiz 62">
@@ -12643,7 +12643,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="63" name="Entrada de lápiz 62">
@@ -12688,8 +12688,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>4200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="74" name="Entrada de lápiz 73">
@@ -12708,7 +12708,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="74" name="Entrada de lápiz 73">
@@ -12753,8 +12753,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>17580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="77" name="Entrada de lápiz 76">
@@ -12773,7 +12773,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="77" name="Entrada de lápiz 76">
@@ -12818,8 +12818,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>57780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="80" name="Entrada de lápiz 79">
@@ -12838,7 +12838,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="80" name="Entrada de lápiz 79">
@@ -12883,8 +12883,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>40980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="84" name="Entrada de lápiz 83">
@@ -12903,7 +12903,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="84" name="Entrada de lápiz 83">
@@ -12948,8 +12948,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="85" name="Entrada de lápiz 84">
@@ -12968,7 +12968,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="85" name="Entrada de lápiz 84">
@@ -13013,8 +13013,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>119820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="88" name="Entrada de lápiz 87">
@@ -13033,7 +13033,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="88" name="Entrada de lápiz 87">
@@ -13078,8 +13078,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>149340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="96" name="Entrada de lápiz 95">
@@ -13098,7 +13098,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="96" name="Entrada de lápiz 95">
@@ -13143,8 +13143,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>51600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="100" name="Entrada de lápiz 99">
@@ -13163,7 +13163,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="100" name="Entrada de lápiz 99">
@@ -13208,8 +13208,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>172380</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="109" name="Entrada de lápiz 108">
@@ -13228,7 +13228,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="109" name="Entrada de lápiz 108">
@@ -13273,8 +13273,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>173760</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="110" name="Entrada de lápiz 109">
@@ -13293,7 +13293,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="110" name="Entrada de lápiz 109">
@@ -13338,8 +13338,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>92460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="119" name="Entrada de lápiz 118">
@@ -13358,7 +13358,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="119" name="Entrada de lápiz 118">
@@ -13447,8 +13447,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>152340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="121" name="Entrada de lápiz 120">
@@ -13467,7 +13467,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="121" name="Entrada de lápiz 120">
@@ -13512,8 +13512,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>42240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="124" name="Entrada de lápiz 123">
@@ -13532,7 +13532,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="124" name="Entrada de lápiz 123">
@@ -13577,8 +13577,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>96780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="129" name="Entrada de lápiz 128">
@@ -13597,7 +13597,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="129" name="Entrada de lápiz 128">
@@ -13642,8 +13642,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="130" name="Entrada de lápiz 129">
@@ -13662,7 +13662,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="130" name="Entrada de lápiz 129">
@@ -13707,8 +13707,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>183180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="134" name="Entrada de lápiz 133">
@@ -13727,7 +13727,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="134" name="Entrada de lápiz 133">
@@ -13772,8 +13772,8 @@
       <xdr:row>32</xdr:row>
       <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="142" name="Entrada de lápiz 141">
@@ -13792,7 +13792,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="142" name="Entrada de lápiz 141">
@@ -13837,8 +13837,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>166620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="143" name="Entrada de lápiz 142">
@@ -13857,7 +13857,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="143" name="Entrada de lápiz 142">
@@ -13902,8 +13902,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="144" name="Entrada de lápiz 143">
@@ -13922,7 +13922,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="144" name="Entrada de lápiz 143">
@@ -13967,8 +13967,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="154" name="Entrada de lápiz 153">
@@ -13987,7 +13987,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="154" name="Entrada de lápiz 153">
@@ -14032,8 +14032,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="155" name="Entrada de lápiz 154">
@@ -14052,7 +14052,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="155" name="Entrada de lápiz 154">
@@ -14097,8 +14097,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>24900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="161" name="Entrada de lápiz 160">
@@ -14117,7 +14117,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="161" name="Entrada de lápiz 160">
@@ -14162,8 +14162,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="164" name="Entrada de lápiz 163">
@@ -14182,7 +14182,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="164" name="Entrada de lápiz 163">
@@ -14227,8 +14227,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>18060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="170" name="Entrada de lápiz 169">
@@ -14247,7 +14247,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="170" name="Entrada de lápiz 169">
@@ -14292,8 +14292,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>176100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="174" name="Entrada de lápiz 173">
@@ -14312,7 +14312,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="174" name="Entrada de lápiz 173">
@@ -14357,8 +14357,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>110460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="178" name="Entrada de lápiz 177">
@@ -14377,7 +14377,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="178" name="Entrada de lápiz 177">
@@ -14422,8 +14422,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>107580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="187" name="Entrada de lápiz 186">
@@ -14442,7 +14442,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="187" name="Entrada de lápiz 186">
@@ -14487,8 +14487,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>37020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="193" name="Entrada de lápiz 192">
@@ -14507,7 +14507,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="193" name="Entrada de lápiz 192">
@@ -14552,8 +14552,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="208" name="Entrada de lápiz 207">
@@ -14572,7 +14572,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="208" name="Entrada de lápiz 207">
@@ -14666,8 +14666,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>104940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
@@ -14686,7 +14686,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="3" name="Entrada de lápiz 2">
@@ -14731,8 +14731,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>87660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="7" name="Entrada de lápiz 6">
@@ -14751,7 +14751,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="7" name="Entrada de lápiz 6">
@@ -14796,8 +14796,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>95940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Entrada de lápiz 12">
@@ -14816,7 +14816,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Entrada de lápiz 12">
@@ -14861,8 +14861,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>133500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Entrada de lápiz 13">
@@ -14881,7 +14881,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Entrada de lápiz 13">
@@ -14926,8 +14926,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>107100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Entrada de lápiz 14">
@@ -14946,7 +14946,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Entrada de lápiz 14">
@@ -14991,8 +14991,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>6600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="Entrada de lápiz 18">
@@ -15011,7 +15011,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="Entrada de lápiz 18">
@@ -15056,8 +15056,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="Entrada de lápiz 19">
@@ -15076,7 +15076,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="Entrada de lápiz 19">
@@ -15121,8 +15121,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>8580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="Entrada de lápiz 20">
@@ -15141,7 +15141,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="Entrada de lápiz 20">
@@ -15186,8 +15186,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>55680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="26" name="Entrada de lápiz 25">
@@ -15206,7 +15206,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="26" name="Entrada de lápiz 25">
@@ -15251,8 +15251,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>154020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="Entrada de lápiz 26">
@@ -15271,7 +15271,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="Entrada de lápiz 26">
@@ -15316,8 +15316,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>104820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Entrada de lápiz 27">
@@ -15336,7 +15336,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Entrada de lápiz 27">
@@ -15381,8 +15381,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>24060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Entrada de lápiz 28">
@@ -15401,7 +15401,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Entrada de lápiz 28">
@@ -15446,8 +15446,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>138480</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="Entrada de lápiz 32">
@@ -15466,7 +15466,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="33" name="Entrada de lápiz 32">
@@ -15511,8 +15511,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>30120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Entrada de lápiz 34">
@@ -15531,7 +15531,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="Entrada de lápiz 34">
@@ -15576,8 +15576,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>108420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="36" name="Entrada de lápiz 35">
@@ -15596,7 +15596,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="36" name="Entrada de lápiz 35">
@@ -15641,8 +15641,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>120</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="37" name="Entrada de lápiz 36">
@@ -15661,7 +15661,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="37" name="Entrada de lápiz 36">
@@ -15706,8 +15706,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>95880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Entrada de lápiz 37">
@@ -15726,7 +15726,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="38" name="Entrada de lápiz 37">
@@ -15771,8 +15771,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>38220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="39" name="Entrada de lápiz 38">
@@ -15791,7 +15791,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="39" name="Entrada de lápiz 38">
@@ -15836,8 +15836,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="48" name="Entrada de lápiz 47">
@@ -15856,7 +15856,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="48" name="Entrada de lápiz 47">
@@ -15901,8 +15901,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>26040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="55" name="Entrada de lápiz 54">
@@ -15921,7 +15921,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="55" name="Entrada de lápiz 54">
@@ -15966,8 +15966,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>185880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="63" name="Entrada de lápiz 62">
@@ -15986,7 +15986,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="63" name="Entrada de lápiz 62">
@@ -16031,8 +16031,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>31440</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="67" name="Entrada de lápiz 66">
@@ -16051,7 +16051,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="67" name="Entrada de lápiz 66">
@@ -16096,8 +16096,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>142800</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="68" name="Entrada de lápiz 67">
@@ -16116,7 +16116,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="68" name="Entrada de lápiz 67">
@@ -16161,8 +16161,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>66660</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="69" name="Entrada de lápiz 68">
@@ -16181,7 +16181,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="69" name="Entrada de lápiz 68">
@@ -16226,8 +16226,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>38040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="70" name="Entrada de lápiz 69">
@@ -16246,7 +16246,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="70" name="Entrada de lápiz 69">
@@ -16291,8 +16291,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>21720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="79" name="Entrada de lápiz 78">
@@ -16311,7 +16311,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="79" name="Entrada de lápiz 78">
@@ -16356,8 +16356,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="89" name="Entrada de lápiz 88">
@@ -16376,7 +16376,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="89" name="Entrada de lápiz 88">
@@ -16421,8 +16421,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>75780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="90" name="Entrada de lápiz 89">
@@ -16441,7 +16441,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="90" name="Entrada de lápiz 89">
@@ -16486,8 +16486,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>42180</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="100" name="Entrada de lápiz 99">
@@ -16506,7 +16506,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="100" name="Entrada de lápiz 99">
@@ -16551,8 +16551,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>60900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="102" name="Entrada de lápiz 101">
@@ -16571,7 +16571,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="102" name="Entrada de lápiz 101">
@@ -16616,8 +16616,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>107040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="113" name="Entrada de lápiz 112">
@@ -16636,7 +16636,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="113" name="Entrada de lápiz 112">
@@ -16681,8 +16681,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>95460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="114" name="Entrada de lápiz 113">
@@ -16701,7 +16701,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="114" name="Entrada de lápiz 113">
@@ -16746,8 +16746,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="118" name="Entrada de lápiz 117">
@@ -16766,7 +16766,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="118" name="Entrada de lápiz 117">
@@ -16811,8 +16811,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>163020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="123" name="Entrada de lápiz 122">
@@ -16831,7 +16831,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="123" name="Entrada de lápiz 122">
@@ -16876,8 +16876,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>19680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="124" name="Entrada de lápiz 123">
@@ -16896,7 +16896,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="124" name="Entrada de lápiz 123">
@@ -16941,8 +16941,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="131" name="Entrada de lápiz 130">
@@ -16961,7 +16961,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="131" name="Entrada de lápiz 130">
@@ -17006,8 +17006,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>162900</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="141" name="Entrada de lápiz 140">
@@ -17026,7 +17026,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="141" name="Entrada de lápiz 140">
@@ -17071,8 +17071,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>155700</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="145" name="Entrada de lápiz 144">
@@ -17091,7 +17091,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="145" name="Entrada de lápiz 144">
@@ -17136,8 +17136,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>48000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="155" name="Entrada de lápiz 154">
@@ -17156,7 +17156,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="155" name="Entrada de lápiz 154">
@@ -17201,8 +17201,8 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="157" name="Entrada de lápiz 156">
@@ -17221,7 +17221,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="157" name="Entrada de lápiz 156">
@@ -17266,8 +17266,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>50880</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="173" name="Entrada de lápiz 172">
@@ -17286,7 +17286,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="173" name="Entrada de lápiz 172">
@@ -17331,8 +17331,8 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>160740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="184" name="Entrada de lápiz 183">
@@ -17351,7 +17351,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="184" name="Entrada de lápiz 183">
@@ -17396,8 +17396,8 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>85620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="185" name="Entrada de lápiz 184">
@@ -17416,7 +17416,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="185" name="Entrada de lápiz 184">
@@ -17505,8 +17505,8 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="187" name="Entrada de lápiz 186">
@@ -17525,7 +17525,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="187" name="Entrada de lápiz 186">
@@ -17570,8 +17570,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId82">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="188" name="Entrada de lápiz 187">
@@ -17590,7 +17590,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="188" name="Entrada de lápiz 187">
@@ -17635,8 +17635,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>78720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId84">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="201" name="Entrada de lápiz 200">
@@ -17655,7 +17655,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="201" name="Entrada de lápiz 200">
@@ -17700,8 +17700,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>10740</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId86">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="202" name="Entrada de lápiz 201">
@@ -17720,7 +17720,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="202" name="Entrada de lápiz 201">
@@ -17765,8 +17765,8 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId88">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="205" name="Entrada de lápiz 204">
@@ -17785,7 +17785,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="205" name="Entrada de lápiz 204">
@@ -17830,8 +17830,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>6060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId90">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="214" name="Entrada de lápiz 213">
@@ -17850,7 +17850,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="214" name="Entrada de lápiz 213">
@@ -17895,8 +17895,8 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>185940</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId92">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="225" name="Entrada de lápiz 224">
@@ -17915,7 +17915,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="225" name="Entrada de lápiz 224">
@@ -17960,8 +17960,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>163200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId94">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="226" name="Entrada de lápiz 225">
@@ -17980,7 +17980,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="226" name="Entrada de lápiz 225">
@@ -18025,8 +18025,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>76620</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId96">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="232" name="Entrada de lápiz 231">
@@ -18045,7 +18045,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="232" name="Entrada de lápiz 231">
@@ -18090,8 +18090,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>98820</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId98">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="236" name="Entrada de lápiz 235">
@@ -18110,7 +18110,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="236" name="Entrada de lápiz 235">
@@ -18155,8 +18155,8 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>94920</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId100">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="237" name="Entrada de lápiz 236">
@@ -18175,7 +18175,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="237" name="Entrada de lápiz 236">
@@ -18220,8 +18220,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>136980</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId102">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="248" name="Entrada de lápiz 247">
@@ -18240,7 +18240,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="248" name="Entrada de lápiz 247">
@@ -18285,8 +18285,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>140160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId104">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="250" name="Entrada de lápiz 249">
@@ -18305,7 +18305,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="250" name="Entrada de lápiz 249">
@@ -18350,8 +18350,8 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>11640</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId106">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="251" name="Entrada de lápiz 250">
@@ -18370,7 +18370,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="251" name="Entrada de lápiz 250">
@@ -18415,8 +18415,8 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>66540</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId108">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="252" name="Entrada de lápiz 251">
@@ -18435,7 +18435,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="252" name="Entrada de lápiz 251">
@@ -18480,8 +18480,8 @@
       <xdr:row>47</xdr:row>
       <xdr:rowOff>122340</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId110">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="266" name="Entrada de lápiz 265">
@@ -18500,7 +18500,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="266" name="Entrada de lápiz 265">
@@ -18589,8 +18589,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId113">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="268" name="Entrada de lápiz 267">
@@ -18609,7 +18609,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="268" name="Entrada de lápiz 267">
@@ -18654,8 +18654,8 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>64020</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId114">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="277" name="Entrada de lápiz 276">
@@ -18674,7 +18674,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="277" name="Entrada de lápiz 276">
@@ -18719,8 +18719,8 @@
       <xdr:row>65</xdr:row>
       <xdr:rowOff>105780</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId116">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="278" name="Entrada de lápiz 277">
@@ -18739,7 +18739,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="278" name="Entrada de lápiz 277">
@@ -18784,8 +18784,8 @@
       <xdr:row>56</xdr:row>
       <xdr:rowOff>174720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId118">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="279" name="Entrada de lápiz 278">
@@ -18804,7 +18804,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="279" name="Entrada de lápiz 278">
@@ -18849,8 +18849,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId120">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="282" name="Entrada de lápiz 281">
@@ -18869,7 +18869,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="282" name="Entrada de lápiz 281">
@@ -18914,8 +18914,8 @@
       <xdr:row>64</xdr:row>
       <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId122">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="297" name="Entrada de lápiz 296">
@@ -18934,7 +18934,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="297" name="Entrada de lápiz 296">
@@ -18979,8 +18979,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId124">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="341" name="Entrada de lápiz 340">
@@ -18999,7 +18999,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="341" name="Entrada de lápiz 340">
@@ -19044,8 +19044,8 @@
       <xdr:row>68</xdr:row>
       <xdr:rowOff>75360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId126">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="342" name="Entrada de lápiz 341">
@@ -19064,7 +19064,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="342" name="Entrada de lápiz 341">
@@ -19109,8 +19109,8 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>42420</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId128">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="363" name="Entrada de lápiz 362">
@@ -19129,7 +19129,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="363" name="Entrada de lápiz 362">
@@ -19174,8 +19174,8 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>143220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId130">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="368" name="Entrada de lápiz 367">
@@ -19194,7 +19194,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="368" name="Entrada de lápiz 367">
@@ -19239,8 +19239,8 @@
       <xdr:row>75</xdr:row>
       <xdr:rowOff>182460</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId132">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="372" name="Entrada de lápiz 371">
@@ -19259,7 +19259,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="372" name="Entrada de lápiz 371">
@@ -19304,8 +19304,8 @@
       <xdr:row>76</xdr:row>
       <xdr:rowOff>39840</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId134">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="376" name="Entrada de lápiz 375">
@@ -19324,7 +19324,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="376" name="Entrada de lápiz 375">
@@ -19369,8 +19369,8 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>30360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId136">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="377" name="Entrada de lápiz 376">
@@ -19389,7 +19389,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="377" name="Entrada de lápiz 376">
@@ -19434,8 +19434,8 @@
       <xdr:row>81</xdr:row>
       <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId138">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="378" name="Entrada de lápiz 377">
@@ -19454,7 +19454,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="378" name="Entrada de lápiz 377">
@@ -19499,8 +19499,8 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>71160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId140">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="379" name="Entrada de lápiz 378">
@@ -19519,7 +19519,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="379" name="Entrada de lápiz 378">
@@ -19564,8 +19564,8 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>76860</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId142">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="380" name="Entrada de lápiz 379">
@@ -19584,7 +19584,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="380" name="Entrada de lápiz 379">
@@ -19629,8 +19629,8 @@
       <xdr:row>78</xdr:row>
       <xdr:rowOff>140220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId144">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="399" name="Entrada de lápiz 398">
@@ -19649,7 +19649,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="399" name="Entrada de lápiz 398">
@@ -19694,8 +19694,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>122220</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId146">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="406" name="Entrada de lápiz 405">
@@ -19714,7 +19714,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="406" name="Entrada de lápiz 405">
@@ -19759,8 +19759,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>95580</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId148">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="407" name="Entrada de lápiz 406">
@@ -19779,7 +19779,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="407" name="Entrada de lápiz 406">
@@ -19824,8 +19824,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>183000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId150">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="417" name="Entrada de lápiz 416">
@@ -19844,7 +19844,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="417" name="Entrada de lápiz 416">
@@ -19889,8 +19889,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>179520</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId152">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="418" name="Entrada de lápiz 417">
@@ -19909,7 +19909,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="418" name="Entrada de lápiz 417">
@@ -19990,6 +19990,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9168B352-C133-4C29-85B1-C101C474922A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="12879"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="137160" y="2499360"/>
+          <a:ext cx="7543800" cy="8763000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -20072,14 +20121,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">371 0,'-26'42,"-48"133,62-143,1 1,2 1,-7 48,16-79,-1 0,1 0,0 0,-1 0,2 0,-1 0,0 0,0 0,1 0,0 0,0 0,0-1,0 1,0 0,0 0,1-1,-1 1,1-1,0 1,-1-1,1 0,0 0,1 1,-1-1,0-1,1 1,-1 0,1-1,-1 1,4 1,7 1,0 0,0-1,0-1,0 0,23 0,15 4,78 17,-97-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="661.89">715 291,'0'18,"0"15,0 25,0 10,0 4,0-2,0-8,0-10,0-10,0-7,0-1,4-5,11-9,3-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1331.75">1006 397,'-2'136,"4"141,-1-270,0-1,1 0,-1 0,1 0,0 0,1-1,3 9,-5-13,-1 0,0 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 1,-1-1,1 0,-1 0,1 0,0 1,-1-1,0 0,1 0,-1 0,1-1,29-50,-1-2,24-67,-26 57,99-231,-121 286,-4 7,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0 0,-1-2,-8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2488.49">1 1164,'212'2,"231"-4,94-58,-489 53,59-14,-73 13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12281.61">27 1534,'0'27,"0"18,0 20,0 11,0 3,0-4,0-1,0 5,0-1,0-11,0-2,4-13,11-14,3-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13666.8">557 1693,'-7'0,"1"1,0-1,0 1,0 0,0 0,0 1,0 0,0 0,0 0,0 1,1 0,0 0,-1 0,1 1,0-1,0 1,1 1,-1-1,1 0,0 1,0 0,1 0,0 0,-1 1,1-1,1 1,-1 0,-1 8,-2 1,1 0,1 0,1 0,0 1,0 0,2 0,0-1,2 26,0-32,0 0,0 0,1 0,0 0,0-1,1 1,0-1,1 1,0-1,0 0,1-1,0 1,0-1,1 0,0 0,9 8,5 0,1-1,0 0,1-2,0-1,38 14,-44-19,1-1,0 0,0-2,0 0,0 0,1-2,-1 0,34-4,-44 2,-1 0,0 0,0-1,0 0,0-1,0 1,-1-1,1 0,-1 0,0-1,1 0,-2 0,1 0,6-7,-5 4,0-1,-1-1,0 1,0-1,-1 0,0 0,0 0,3-15,-3 4,0 0,-2-1,0 1,-1 0,-1-1,-1 1,-1 0,-7-30,8 44,-1 0,0 1,-1-1,1 1,-1-1,0 1,-1 0,1 0,-1 0,0 0,0 1,0 0,-1 0,0 0,0 0,0 1,-6-4,-10-4,-1 1,0 1,-28-7,-4-2,-194-70,244 87,0-1,0 2,0-1,0 0,0 1,0 0,-1-1,1 2,-6 0,10-1,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 1,-1-1,1 0,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 1,1-1,0 1,-1-1,1 1,0-1,0 1,0-1,-1 2,1-1,1 1,-1-1,0 0,1 1,-1-1,1 1,-1-1,1 0,0 1,0-1,-1 0,1 0,0 0,0 0,2 2,12 12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14269.76">1086 2090,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15687.76">1165 1429,'15'-1,"0"0,-1-2,1 0,20-7,19-4,-1 5,1 1,0 3,0 3,62 4,-113-1,0-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0 3,0 10,1 0,-2 0,-3 33,2-26,1-17,0-1,0 1,0-1,-1 1,0-1,0 1,0-1,-1 0,0 1,0-1,0 0,-1 0,1 0,-1-1,-1 1,1-1,0 1,-1-1,0 0,0 0,-6 4,0-2,-30 27,39-32,0-1,0 1,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,0 0,1 1,-1-1,0 0,0 0,0 1,1-1,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,1 2,44 39,-39-37,-1-1,0 2,0-1,0 1,-1 0,1 0,-2 0,1 1,-1 0,0 0,0 0,0 0,2 8,-2 4,0 0,-1 0,-1 1,0-1,-2 0,0 1,-1-1,-1 0,-5 22,5-36,0-1,1 1,-2-1,1 0,-1 1,1-1,-1 0,0 0,0-1,-1 1,1-1,-1 1,0-1,0 0,-7 4,8-6,0 1,1-1,-1 1,0-1,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0-1,1 1,-5-3,-3-9,7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">389 0,'-27'40,"-51"127,66-136,0 1,3 0,-8 46,17-75,-1 0,1 0,0 0,-1 0,2 0,-1-1,0 1,0 0,1 0,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,2-1,-1 1,-1-1,1 0,0 0,1 1,-1-2,0 0,1 1,0 0,0-1,-1 1,4 1,8 1,-1 0,1-2,0 0,-1 0,25 0,16 4,81 16,-101-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="661.89">751 278,'0'17,"0"15,0 23,0 10,0 4,0-2,0-8,0-9,0-10,0-6,0-2,4-4,11-9,4-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1331.75">1056 379,'-2'130,"4"135,-1-258,0-1,1-1,-1 1,1 0,0 0,2-2,2 10,-5-13,-1 0,0 0,1 0,-1-1,1 1,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1-1,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,1 0,-2-1,1 1,0-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 1,-1-1,1 0,-1 1,1-1,0 1,-1-1,0 0,1 0,-1 0,1-1,31-48,-2-1,26-65,-28 55,104-221,-126 273,-5 7,0 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1-2,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2488.49">1 1113,'223'2,"242"-4,98-56,-512 52,61-15,-76 14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12281.61">28 1466,'0'26,"0"17,0 19,0 11,0 2,0-3,0-1,0 4,0 0,0-11,0-2,4-12,12-14,3-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13666.8">585 1618,'-8'0,"2"1,0-1,-1 1,1 0,0 0,0 1,-1 0,1 0,0 0,-1 1,2-1,0 1,-1 0,0 1,1-1,0 1,1 0,-2 0,2 0,0 1,0 0,1-1,-1 1,0 1,1-1,1 0,-1 1,-1 8,-3 0,2 0,1 1,1-1,0 1,-1 1,3-1,0-1,2 25,0-30,1 0,-1-1,1 1,0-1,0 0,1 1,0-2,1 2,1-1,-1-1,1 0,0 1,1-2,0 1,0 0,10 7,5 0,1 0,0-1,1-2,0 0,40 13,-46-18,1-2,0 1,-1-2,1 0,0 0,1-2,-1 0,35-4,-45 2,-2 0,0 0,1-1,-1 0,0-1,1 1,-2 0,1-1,-1 0,1-1,0 0,-2 0,1 0,7-6,-6 3,0 0,0-2,-1 1,0 0,-1-1,1 1,-1-1,3-14,-3 4,1 0,-3-1,0 1,-1-1,-1 0,-1 1,-1 0,-8-29,9 43,-1-1,0 1,-1-1,1 2,-1-2,-1 1,0 0,1 1,-1-1,0 0,-1 1,1 0,-1 1,0-1,0 0,-1 1,-5-4,-11-3,-1 0,0 2,-30-8,-4-1,-203-67,256 83,0-1,-1 2,1-1,0 0,0 1,0 0,-2-1,2 2,-6 0,10-1,-1 0,1 0,-1 0,1 0,-1 0,1 1,-2-1,2 0,-1 0,1 1,-1-1,1 0,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 1,1-1,0 1,-1-1,1 1,0-1,0 1,0-1,-1 2,1-1,1 1,-1-1,0 0,1 0,-1 0,1 1,-1-1,1 0,0 1,0-1,-1 0,1 0,1 0,-1 0,2 2,12 11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14269.76">1140 1998,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15687.76">1223 1366,'16'-1,"-1"0,0-2,1 0,21-6,19-5,0 6,1 0,-1 3,1 3,65 4,-119-1,0-1,-1 1,1-1,-1 1,2 0,-2 0,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,-1 0,1 0,0 0,-1 1,0-1,0 1,0-1,0 0,0 0,0 1,-1-1,2 1,-1 3,0 9,1 0,-2 1,-3 30,2-24,1-16,0-1,0 1,0-2,-2 2,1-1,0 1,0-2,-1 1,0 1,0-1,0 0,-1-1,1 1,-1-1,-2 1,2-1,0 0,-1 0,0 0,-1 0,-5 3,-1-1,-31 26,41-31,0-1,0 1,0 0,0 0,1-1,-1 1,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,0 0,1 1,-1-1,0 0,0-1,0 2,1-1,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,1 2,47 37,-42-35,-1-1,1 1,-1 0,0 1,-1 0,2-1,-3 1,1 1,-1-1,1 1,-1 0,0 0,2 7,-2 4,1 0,-2 0,-1 1,0 0,-2-1,0 1,-1-1,-1 0,-6 21,6-34,0-1,1 1,-2-1,1-1,-1 2,1-1,-1 0,-1 0,1-1,-1 0,1 0,-1 1,0-1,-1 0,-6 3,8-5,-1 1,2-1,-1 1,0-1,0 0,0 0,0 0,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,-1 0,1-1,1 1,-5-2,-4-10,8 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20187,14 +20236,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 608,'4'0,"6"0,7 0,3 0,4 0,2 0,2 5,4 1,1 0,5 8,4 1,0-2,-3-2,-3-4,-4-3,-7-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2454.7">1033 423,'3'-3,"1"1,1-1,-1 0,0 1,1 0,-1 0,1 0,-1 1,1-1,0 1,0 0,8 0,67-1,-54 2,6 0,-12-2,-1 2,1 1,0 0,38 8,-54-8,0 0,0 0,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,-1 0,0 0,1 1,-1-1,0 0,0 1,-1 0,1-1,-1 1,0 0,0 0,0 0,0 0,-1-1,0 1,0 6,0-7,0-1,0 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1-1,-1 1,1 0,-1-1,1 0,-1 1,-2 0,-3 2,0-1,0 0,0-1,0 1,-9 1,-15 5,28-4,13 2,23 7,-19-8,-7-2,-1 0,0 0,0 1,0 0,0 0,-1 0,0 1,0 0,0 0,-1 0,0 0,0 1,0 0,-1-1,0 1,-1 1,1-1,-1 0,-1 1,1-1,-1 1,-1-1,0 13,0 2,-1 1,-1-1,-1 0,-1 0,-1 0,-15 42,17-55,-1 0,0-1,0 1,-1-1,0 0,0 0,-1 0,0-1,0 0,-1 0,-14 11,16-15,0-1,0 1,0-1,-1 1,1-1,-1-1,1 1,-1-1,1 0,-1-1,0 1,0-1,1 0,-1 0,0-1,0 0,1 0,-1 0,1-1,-10-3,9 3,-1 0,0 0,1-1,0 0,0-1,0 1,0-1,0 0,1-1,-1 1,1-1,0 0,1 0,-1-1,-3-5,3-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3775.12">1720 212,'59'-1,"52"0,-99 2,0 0,0 1,0 0,0 1,0 1,17 7,-27-11,0 1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0 0,-1 0,1 0,1 4,-3-4,1 1,-1 0,1 0,-1-1,0 1,0-1,0 1,0 0,-1-1,1 0,-1 1,1-1,-1 0,0 0,0 0,-3 3,3-4,1 0,-1 1,1-1,0 0,-1 1,1-1,0 1,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0 0,0-1,0 1,0-1,2 3,5 4,0 0,1-1,0-1,0 1,15 7,23 18,-39-22,-1 1,0 1,0-1,-1 1,-1 0,0 0,-1 1,0 0,0-1,0 15,2-3,2 7,-2 0,-1 0,-1 1,-2 0,-1 0,-4 44,2-73,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,-1-1,1 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0-1,0 0,0 0,-1 0,1-1,0 1,0-1,0 1,-1-1,1 0,0 0,0-1,-6 0,-1 0,0-1,-1 0,1-1,0 0,0 0,1-1,-1-1,1 1,0-2,-10-6,1-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4834.58">2567 185,'-16'0,"1"0,-1 1,1 1,0 0,-29 9,37-9,1 1,-1 0,1 1,0-1,0 1,1 1,-1-1,1 1,0 0,0 0,0 0,0 1,1 0,0 0,-3 6,0 5,0 1,1 0,1 0,1 0,1 0,0 1,1 0,1-1,1 1,0 0,7 34,-7-50,1 1,-1-1,1 1,0-1,0 1,0-1,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,0-1,1 1,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,6 2,4 0,0 0,1-1,-1-1,0 0,15 0,11 2,-34-4,-1 1,1 0,0-1,0 0,-1 0,1-1,0 1,-1-1,1 0,0 0,-1-1,1 1,-1-1,0 0,0 0,1 0,6-6,-7 4,0-1,0 0,0 0,0 0,-1-1,0 1,0-1,0 0,-1 0,1 0,-2 0,3-12,-2 9,0-1,-1 1,-1-1,0 1,0-1,0 1,-2-1,1 1,-1-1,0 1,-1 0,-5-14,6 19,0 0,-1-1,1 1,-1 1,0-1,0 0,0 1,0-1,0 1,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,-1 0,1 1,0-1,-1 1,1 0,-1 0,0 0,1 1,-1-1,0 1,-6 1,-13 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6405.65">2567 688,'0'-5,"0"1,0-1,0 0,-1 0,0 0,0 0,0 0,0 0,-1 1,0-1,0 0,0 1,0 0,-1-1,-3-3,2 4,1 1,-1 0,0 1,0-1,-1 1,1 0,0 0,-1 0,1 0,-1 1,0 0,1 0,-1 0,0 0,-9 1,10-1,0 1,0 0,-1 0,1 0,0 1,0-1,0 1,-1 0,1 0,0 0,0 1,0-1,1 1,-1 0,0 0,1 1,-1-1,1 1,-4 2,4 0,-1 0,1 0,0 0,1 0,-1 0,1 1,0-1,0 1,1 0,-1-1,1 1,1 0,-1 6,-3 46,3-1,6 65,-5-118,1-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,1-1,0 1,0 0,0 0,0-1,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1-1,0 0,5 0,8 0,0-1,0 0,-1-2,1 1,29-10,-28 6,-1-1,0 0,0-1,0 0,-1-2,0 0,-1 0,18-18,-25 22,-1 0,0-1,-1 0,1 0,-1 0,-1 0,1-1,-1 0,-1 0,0 0,0-1,0 1,-1-1,0 1,-1-1,0 0,0 1,-1-17,-1 20,-1 0,1 1,-1-1,0 1,0-1,-1 1,1 0,-1 0,0 0,0 0,0 0,-1 1,1 0,-1-1,0 1,0 0,0 1,-6-4,-6-3,0 1,-1 0,-25-8,11 7,3 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8194.62">3096 688,'1'22,"2"-1,1 1,0-1,10 27,2 10,-15-50,9 32,-10-38,1-1,-1 1,1 0,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,1-1,-1 0,0 1,0-1,0 0,3 2,-3-3,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 1,0-1,0 0,0 1,0-2,3-7,26-56,3 0,3 3,60-85,-91 141,0 1,1-1,-1 1,1 0,0 0,0 1,1 0,-1 0,1 0,0 0,0 1,0 0,1 0,-1 1,11-4,-13 6,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,0 1,0-1,-1 1,1-1,-1 1,1 0,-1 0,0 1,0-1,0 1,0-1,0 1,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 6,5 10,-1 0,-1 1,0 0,-2 0,3 34,-3-29,-3 0,0 37,-1-64,5-19,2 0,0 0,10-21,-15 39,-1-1,1 0,0 1,0 0,0-1,0 1,0 0,1 0,-1 0,1 0,0 0,0 1,0 0,0-1,1 1,-1 0,1 0,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,6 0,-7 2,0-1,-1 1,1 0,0 0,0 0,0 0,-1 1,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0 1,0-1,-1 0,1 1,0-1,-1 1,1-1,-1 1,0 0,0 0,0 0,0-1,-1 1,1 4,2 11,0-1,-2 1,0 26,-1-36,-2 65,2-73,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0-1,12-10,19-34,-16 23,123-172,-71 91</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9465.02">4340 0,'-3'45,"-9"59,1-25,-3 34,-5-1,-67 213,77-309,3-29,3-34,3 45,23-454,-15 369,-6 62,6-58,-7 77,0 1,1-1,-1 0,1 1,0-1,0 1,1 0,0-1,0 1,7-8,-9 11,0 1,1 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 1,0-1,0 1,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 1,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,1 3,2 1,1 0,-1 1,0 0,-1 0,1 0,-1 0,-1 1,5 8,-1 6,0 1,-1 0,-1 0,4 37,-3 97,-7-115,2 0,2 1,1-1,18 71,-14-90,0-1,16 27,-7-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10272.36">4208 635,'0'-4,"4"-2,11 0,7 1,4 2,3 1,0 1,0 0,0 1,-1-4,4-2,1 1,-5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 585,'4'0,"7"0,7 0,3 0,4 0,3 0,1 4,5 2,1 0,5 7,4 2,1-3,-4-1,-3-4,-4-4,-8-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2454.69">1091 407,'3'-3,"2"1,0-1,-1 0,0 1,2 0,-2 0,1 0,-1 1,2 0,-1 0,0 0,9 0,71-1,-58 2,7 0,-13-2,-1 2,1 1,0 0,41 7,-58-7,0 0,0 0,-1 1,2-1,-2 1,1 0,-1 0,1 0,0 0,-1 1,0-1,0 0,0 1,0 0,0 0,-1 0,1 1,-1-1,0 0,0 0,-1 1,1-1,-1 1,0 0,1 0,-1 0,0-1,-1 0,0 1,0 6,0-7,0-1,0 0,0-1,0 1,-1 0,1 0,-1 1,1-1,-2 0,1 0,0 0,0 0,0-1,0 1,0 0,-1-1,1 0,-1 1,1 0,-1-1,1 0,-1 1,-3 0,-2 2,0-1,-1 0,1-1,-1 0,-9 2,-15 5,29-4,13 1,25 8,-20-8,-8-2,-1-1,1 1,-1 1,0 0,1 0,-2-1,0 2,1 0,-1 0,-1 0,0-1,1 2,-1 0,-1-1,0 0,-1 2,1-1,0-1,-2 2,1-1,-1 1,-1-2,0 14,0 1,-1 1,-1-1,-2 0,0 0,-1 0,-16 41,18-53,-2-1,1 0,0 1,-1-2,-1 1,1 0,-1-1,-1 0,1 0,-1 0,-15 10,16-14,1-1,0 1,-1-2,0 2,1-1,-2-1,2 1,-1-1,1 0,-2-1,1 1,0-1,0 0,0 0,0-1,-1 0,2 0,-1 0,0-1,-10-3,10 4,-1-1,-1 0,2-1,0 0,-1-1,1 1,0-1,-1 1,2-2,-1 1,0-1,1 0,1 0,-1 0,-4-6,4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3775.12">1817 204,'62'-1,"56"0,-106 2,1 0,0 1,-1 0,1 1,0 0,17 8,-27-11,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,2 1,-2-1,1 0,-1 0,1 1,-1 0,0-1,1 1,-1 0,0 0,0 0,-1 0,1 0,1 4,-3-5,1 2,-1 0,1 0,-1-1,0 1,0-1,0 1,0 0,-1-1,1-1,-1 2,1-1,-1 0,-1 0,1 0,-3 3,3-4,1 0,-1 1,1-1,0 0,-1 1,1-1,-1 0,1 0,0 1,0 0,0-1,0 1,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0-1,0 0,0 1,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0 0,0-1,0 1,0-1,3 2,4 5,1 0,0-1,1-2,-1 2,16 6,25 18,-41-21,-2 0,0 2,1-1,-2 0,-1 1,1-1,-2 2,0-1,0 0,1 14,1-3,2 7,-1-1,-2 1,-1 1,-2 0,-1-1,-4 44,2-72,1 1,-1 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1-1,0 1,0-1,0 1,0 0,-1-1,1 0,0 0,-1 0,0 0,0 0,0-1,1 1,-1-1,0 1,0-1,-1 0,1 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,0 0,0-1,-7 0,-1 0,1-1,-2 0,2-1,-1 1,1-1,0-1,0-1,0 1,0-2,-10-5,1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4834.58">2712 178,'-17'0,"1"0,-1 1,2 1,-1 0,-31 8,40-8,0 1,0 0,1 1,-1-1,1 1,1 0,-2 0,2 1,0 0,0 0,-1-1,1 2,1 0,0 0,-4 5,1 6,-1 0,2 0,1 1,1-1,0 0,1 1,1 1,1-2,1 1,0 1,7 31,-7-47,1 1,-1-1,2 1,-1-1,0 1,0-1,1-1,-1 2,1-1,0 0,0 0,0 0,0 0,1-1,0 1,-1-2,1 2,0-1,0 0,0 0,1 0,-1 0,6 2,5 0,0-1,1 0,-2-1,1 0,16 0,11 2,-36-4,-1 1,2 0,-1-1,0 0,-1 0,2-1,-1 1,-1-1,2 0,-1 0,-1-1,1 1,0-1,-1 0,0 0,1 0,7-5,-8 3,0-1,1 0,-1 1,0-1,-1-1,0 1,1-1,-1 1,-1-1,1 0,-2 0,3-11,-2 8,0 0,0 0,-2-1,0 2,0-2,0 2,-3-2,2 1,-1 0,0 0,-1 0,-5-13,5 18,1 1,-1-2,1 1,-1 1,0-1,0 0,-1 1,1 0,0 0,-1 0,1 0,-2 0,1 1,0-1,0 1,-1 0,0 0,1 1,0 0,-2 0,2 0,-1 0,0 0,0 1,0-1,0 1,-7 1,-13 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6405.65">2712 662,'0'-5,"0"1,0-1,0 0,-1 0,0 1,0-1,0 0,0 0,-1 1,0 0,-1-1,1 1,0 0,-1-1,-3-2,1 3,2 1,-1 0,0 1,0-1,-2 1,2 0,0 0,-1 0,0 1,0 0,0 0,1 0,-2 0,1 0,-10 1,11-1,0 1,0 0,-2 0,2 0,0 1,0-1,-1 1,0 0,1 0,0 0,-1 0,1 0,1 1,-1 0,0 0,0 1,0-1,1 1,-4 2,3 0,0-1,1 1,0 0,1 0,-1 0,0 0,1 0,0 1,1 0,-1-2,1 2,1 0,-1 6,-3 43,3 0,6 62,-5-113,1-1,0 0,0 0,0 1,0-1,0 0,1-1,-1 1,2-1,-1 1,0 0,0 0,0-1,0 0,1 1,-1-1,2-1,-1 1,-1 0,1 0,0-1,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,1-1,0 1,-1-1,0 0,6 0,8 0,-1-1,1 0,-1-2,1 1,31-9,-30 5,-2-1,1 0,0 0,0-1,-1-2,0 1,-1-1,18-17,-25 21,-2 1,1-2,-2 0,1 0,-1 1,0-1,0-1,-1 1,-1-1,1 0,-1 0,0 0,-1-1,0 2,-1-2,0 0,0 2,-1-17,-1 19,-1 0,1 1,-1-1,0 1,0 0,-1 0,0 0,0 0,0 0,0 0,0 1,-1 0,0 0,0-1,0 1,0 0,-1 1,-5-4,-7-2,0 0,-1 0,-26-7,11 6,3 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8194.62">3271 662,'1'21,"2"-1,1 1,1-1,9 26,3 10,-16-48,10 30,-11-36,1-1,-1 1,1 0,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,1-1,-1 0,1 0,-1 0,0 0,3 2,-3-3,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,1 0,-1 0,0-1,0 1,1-1,-1 0,0 1,0-1,0 1,0-1,0 0,0 1,0-2,4-7,26-53,4-1,3 4,63-83,-95 136,-1 2,1-2,-1 1,2 0,-1 0,0 2,1-1,0 0,0 0,0 0,1 1,-1 0,2 1,-2 0,12-4,-14 6,0 0,1 0,-1 0,0 0,0 0,0 1,1-1,-2 1,1 0,0 1,0-1,0 1,0-1,-1 0,1 1,-1 0,1 1,-1-1,0 1,0-1,0 1,-1 0,2 0,-2-1,1 2,-1-1,0 0,1 6,6 9,-2 0,-1 1,1 1,-3-1,3 33,-2-28,-4 0,0 36,-1-62,5-19,2 1,1 0,10-20,-16 37,-1-1,1 0,0 1,0 0,0-1,1 2,-1-1,1 0,-1 0,1 0,0 0,0 1,1 0,-1-1,1 2,-1-1,1 0,0 1,0-1,0 1,-1 0,1 0,1 0,-1 0,6 0,-6 2,-1-1,-1 1,1 0,0 0,0 0,1 0,-2 1,1-1,-1 1,1 0,-1-2,0 2,2 0,-2 0,0 1,0-1,-1 0,1 1,0-1,-1 1,1-1,-1 0,0 1,0 0,1 0,-1-1,-1 1,1 4,2 10,0-1,-2 2,0 24,-1-34,-2 62,2-70,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0-1,13-10,20-32,-18 22,131-166,-75 88</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9465.02">4585 0,'-3'43,"-10"57,2-24,-4 33,-5-1,-71 204,82-297,2-27,4-33,3 43,24-437,-15 356,-7 59,6-56,-7 74,0 1,2 0,-2-1,1 1,0-1,0 1,1 1,0-2,0 1,8-8,-10 12,0 0,1 0,-1 0,1 0,-1 0,2 1,-1-1,-1 0,1 1,0-1,0 1,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 1,-1-1,2 1,-1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1-1,1 4,3 1,0 0,-1 1,1-1,-2 1,1 0,-1 0,0 1,4 7,-1 6,1 1,-2 0,-1 1,5 34,-4 94,-7-110,2-1,2 2,2-2,18 69,-15-87,1-1,16 26,-7-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10272.35">4446 611,'0'-4,"4"-2,12 0,7 1,5 2,2 2,1 0,-1 0,1 1,-1-4,3-2,2 1,-5 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20248,22 +20297,22 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1165 2758,'346'14,"6"0,-160-17,207 5,-266 21,-133-23,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-9-8,-4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1702.14">1562 1991,'0'2,"0"-1,0 1,0-1,1 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,2 0,40 11,-32-9,114 26,2-6,188 12,-286-34</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3400.44">477 2493,'0'5,"0"6,0 5,0 5,0 43,0 21,0 8,0-6,0-14,4-15,7-12,-4-20,-3-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4035.51">266 2917,'0'-4,"4"-2,6 0,11 1,5 2,4 1,1 1,-1 0,0 1,-1 0,-1 1,-1-1,-1 0,1 0,-1 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5036.66">239 2017,'0'-4,"4"-2,7 1,5 0,5 2,3 1,6 1,3 0,10 1,10-4,5-2,20-13,2-3,-9 1,-12 6,-11 4,-10 4,-11 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15167.9">2012 1938,'-2'-40,"-7"-42,-1-15,5 4,4-1,5 0,26-157,-11 131,-12 65,21-78,-20 101,-6 23,0 0,1 0,0 0,0 0,8-14,-9 20,0 0,1 1,-1-1,0 0,1 1,0 0,0 0,-1 0,1 0,0 0,1 0,-1 1,0 0,0-1,1 1,-1 0,1 1,-1-1,6 0,38-2,83 6,-36 1,94-5,0-9,222-40,-43 12,-1 31,-321 7,1985 0,-1772-13,-74 1,-174 11,48 3,-56-1,0-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,0-1,-1 1,1 0,-1 0,0 0,0 0,1 0,0 3,3 18,-1 0,-1 1,-1-1,-1 1,-1-1,-3 30,0-1,-19 381,22-425,1-1,0 1,0-1,0 0,1 1,0-1,1 0,0 0,0 0,0-1,1 1,-1-1,2 0,7 10,-6-8,1 2,-2-1,1 1,-1-1,-1 2,4 10,-6-15,-1 0,1 0,-1 0,-1 0,1 0,-1 0,0 1,-1-1,1 0,-1 0,-1 0,-1 7,1-10,1 0,-1 0,1 0,-1-1,0 1,-1 0,1-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,0-1,0 0,-1 0,1 0,0 0,0-1,-1 1,-3-1,-72 5,-128-9,61-2,114 5,20 0,1 1,-1-1,1 2,0 0,-1 0,-12 4,20 0,13 1,19 4,-26-10,125 34,50 15,-72-19,-66-21,-1 2,64 29,-101-40,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,-1 0,1 0,-24 5,-30-4,-333-24,367 21,-36-2,52 4,1 0,0 0,0 1,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-3 3,5-3,1-1,-1 1,1-1,-1 1,1-1,0 1,-1 0,1-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1-1,-1 1,0 0,0-1,0 1,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 1,33 19,-26-15,11 5,0 0,1-1,0 0,1-2,-1-1,2 0,-1-2,0 0,33 1,-52-5,0-1,0 1,-1 0,1 0,0 0,0 0,0 1,-1-1,1 0,0 1,-1-1,1 1,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,0 0,2 2,-2 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,-1 0,-1 6,-8 85,4 177,7-160,0 857,2-920,2 0,2 0,23 82,10 55,-39-182,-1 1,1 0,-1 0,1 0,-1 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,0-1,-1 1,1 0,-1-1,1 1,-1-1,0 1,0-1,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 1,0-1,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,0 0,0 0,0-1,1 1,-6-1,-229 19,45 15,107-17,-2-4,-102 3,-821-19,933-1,0-3,-89-20,68 9,-661-109,574 89,122 23,-1 3,-72-5,60 10,-83-19,4 0,-41-4,91 12,-212-9,315 27,0 1,1-1,-1 0,0 0,0 0,0-1,0 1,0-1,1 1,-1-1,0 0,1 0,-1 0,0-1,1 1,-1-1,1 1,0-1,0 0,-4-3,5 2,0 0,0 0,0-1,0 1,1 0,-1 0,1-1,0 1,0 0,0 0,0-1,1 1,-1 0,1 0,0 0,0-1,0 1,2-3,30-76,-18 48,12-44,-11 6,-3-2,-3 1,-3-2,-5-130,-1 169,2 1,1 0,2 0,18-59,-22 88,0-1,0 1,0 0,1 1,0-1,0 0,6-7,5-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17233.74">7145 1356,'1'139,"-2"132,-2-218,-3 0,-23 100,15-119,7-28,4-23,8-32,3 1,1 0,3 0,29-75,-25 72,27-77,100-209,-138 329,1-1,-1 1,1 0,0 1,1-1,0 1,0 0,0 1,1 0,0 0,13-7,5 1,0 0,44-12,-13 5,-52 17,1 0,0 0,-1 0,1 1,0 0,0 1,0-1,0 1,0 0,0 0,0 1,0 0,0 0,0 0,10 5,-12-4,-1 0,0 0,0 0,0 1,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,-1 1,1-1,0 1,-1-1,0 1,0 0,0-1,0 1,-1 0,1 0,-1 0,0 0,0-1,-1 6,-2 20,-1 0,-2 0,-1-1,-1 0,-1 0,-1-1,-26 46,2-12,-4-1,-48 59,76-106,0 0,-1-1,-1 0,0-1,0 0,-1-1,0 0,-21 10,28-17,-1 0,1-1,-1 0,1 0,-1 0,1-1,-1 0,0 0,0-1,0 0,1 0,-1-1,0 0,0 0,1 0,-1-1,1 0,-1 0,1-1,0 1,0-2,-9-5,0 0,1 0,0-1,1-1,-24-23,36 33,1 1,0 0,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0 0,0-1,-1 1,1-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,1 1,-1-1,0 1,0-1,1 0,18 2,27 14,-45-15,87 39,141 87,-198-108,7 5,-7-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17903.4">7780 1673,'4'0,"6"0,7 0,8 0,5 0,6 0,2 0,3 0,4 0,-2 0,-3 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18577.97">8018 1700,'0'9,"0"44,-5 80,-1 35,-9-6,-2-18,3-28,2-34</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19906.97">1 403,'21'680,"-20"-661,0 9,9 47,-9-70,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,1-1,0 1,-1-1,2 0,-1 0,0 0,1 0,7 5,-11-8,1-1,0 1,-1-1,1 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0-1,0 1,-1 0,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,16-31,-15 27,44-117,31-129,-40 124,81-310,-63 224,-32 140,-13 55</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20730.25">636 800,'4'-4,"6"-2,11 1,6 0,3 2,0 1,1 1,-1 0,-2 1,0 0,-1 1,0-6,-5-5,-6-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22443.09">795 774,'0'5,"0"28,0 35,0 16,0-3,0-10,0-12,0-13,0-18,0-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29083.97">901 2811,'33'3,"0"0,0 2,0 2,35 11,-23-6,49 7,60-6,240-10,-184-7,763 4,-955 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31744.78">4869 2017,'4'9,"2"12,0 12,-1 13,-2 4,-1-3,-1 0,0-3,-1 4,0 3,-1-3,1-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34117.25">3784 2996,'0'1,"0"0,0 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,0 0,0 1,0-1,1 1,28 7,-19-5,45 16,1-2,0-3,1-2,0-3,71 2,-79-11,185-3,-225 1,1 0,0 0,-1-1,0 0,0 0,0-1,0-1,0 0,-1 0,0-1,0 0,0-1,-1 0,0 0,0 0,-1-1,0 0,0-1,10-18,-2 1,-1 0,-1-2,-1 0,-2 0,13-58,10-37,-17 66,15-97,-17 30,-5-1,-9-174,-1 295,1 0,-1 1,0-1,0 0,0 1,-1-1,1 1,-1 0,0 0,0-1,0 1,0 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,0 0,-1 0,-3-2,-9-4,0 1,-1 1,-24-7,-7-2,-117-54,-228-82,286 114,76 24,-1 1,0 2,-1 2,0 0,-1 2,-61-2,70 8,3 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35441.06">3890 668,'-1'5,"0"0,0-1,0 0,0 1,-1-1,0 0,1 1,-2-1,1 0,0 0,-1-1,0 1,0 0,-6 5,-59 49,42-38,-36 27,-3-3,-92 47,-69 46,222-134,0-1,1 1,-1 0,1 0,0 0,-1 0,2 1,-1-1,0 1,1 0,-1-1,1 1,0 0,-2 9,4-11,0 0,0 0,0 1,0-1,1 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0-1,-1 1,1-1,0 0,0 0,0 0,0 1,0-2,4 3,85 42,-2 5,100 73,-180-116,-1 0,1 0,-1 1,-1 0,1 0,-2 0,1 1,-1 1,0-1,-1 1,0 0,0 0,-1 0,-1 0,1 1,-2 0,2 13,2 16,-1 51,-3-51,7 50,0-58,2-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1213 2646,'361'13,"6"1,-167-17,215 5,-276 20,-139-22,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-9-8,-5 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1702.14">1627 1910,'0'2,"0"-1,0 1,0-1,1 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,1-1,0 2,0-1,0 0,0 0,0 0,0 0,1 0,0 0,-1 0,0 0,0-1,1 1,-1 0,2 0,42 10,-34-8,119 25,3-6,195 12,-298-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3400.44">497 2392,'0'5,"0"5,0 6,0 4,0 41,0 21,0 7,0-6,0-13,4-14,7-12,-3-19,-4-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4035.51">277 2799,'0'-4,"4"-2,7 0,10 1,7 3,3 0,1 1,-1 0,1 1,-2 0,-1 1,-1-1,-1 0,1 0,-1 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5036.66">249 1935,'0'-4,"4"-1,8 0,4 0,6 2,3 1,6 1,4 0,9 1,12-4,4-1,21-14,3-2,-10 1,-13 6,-11 3,-10 4,-12 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15167.9">2096 1859,'-2'-38,"-8"-41,0-14,5 4,4-1,5 0,27-151,-11 126,-13 62,22-75,-20 98,-7 21,0 0,1 1,0-1,0 0,9-13,-10 20,0-1,1 1,-1-1,0 0,1 1,0 0,0 0,0 0,0 0,0 0,1 1,-1 0,0 0,0-1,1 1,0 0,0 1,-1-1,6 0,40-2,87 6,-38 1,97-5,1-9,231-38,-44 12,-2 29,-334 7,2067 0,-1845-12,-77 0,-182 11,50 3,-57-1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-2 0,1 1,0-1,-1 1,1 0,-1 0,0 0,0 0,1 0,0 3,3 17,0 0,-2 1,-1-1,-1 1,-1-1,-3 29,0-1,-20 365,23-407,1-1,0 0,0 0,0 0,1 0,0 0,1 0,0-1,0 1,0-1,2 1,-2-2,2 1,7 9,-5-7,0 2,-2-2,1 2,0-1,-2 1,4 10,-6-14,-1 0,1 0,-1-1,-1 1,1 0,-1 0,0 0,-1 0,1 0,-1 0,-1-1,-1 8,1-10,1 0,-1-1,1 1,-1-1,0 1,-1 0,1-1,-1 1,0-1,1 0,-1 0,1-1,-1 1,0 0,0-1,0 1,-1-1,1 0,-1 0,1 0,0 0,0-1,-1 1,-4-1,-74 5,-134-9,64-2,119 5,21 0,0 1,0-1,0 2,1 0,-2 0,-12 4,21 0,13 1,21 3,-28-9,130 33,52 14,-74-18,-70-21,0 3,66 27,-105-38,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,-1 0,1 0,-25 5,-31-5,-347-22,382 20,-37-1,54 3,0 0,1 0,0 1,-1-1,1 1,0 0,0-1,0 1,-1 0,1 0,0 1,0-1,-3 3,5-3,1-1,-1 1,1-1,-1 1,1-1,0 1,-1 0,1-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 0,0 1,1-1,-1 1,0 0,0-1,0 1,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 1,34 18,-26-14,10 5,1-1,1 0,0-1,1-1,-1-1,2 0,-2-3,1 1,35 1,-55-5,0-1,0 1,-1 0,1 0,0 0,0 0,0 1,-1-1,1 0,0 1,-1-1,1 1,1 0,-2-1,1 1,0 0,-1 0,1 0,-1 0,0 0,2 2,-2 0,0-1,-1 1,1 0,-1 0,0 1,0-1,0 0,0-1,0 1,-1 0,-1 6,-8 81,3 170,8-153,1 821,1-882,2 0,2 0,24 79,11 53,-41-176,-1 2,1 0,-1 0,1 0,-1 0,0 0,-1-2,1 2,-1 0,1 0,-1 0,0-1,-1 0,1 1,-1-1,1 1,-1-1,0 1,0-1,-2-1,2 1,-1 0,1 0,-1-1,0 1,0-1,0 1,-1-1,0 0,1-1,-1 0,1 1,-1-1,1 1,-2-1,1 0,0 0,0-1,1 1,-7-1,-237 18,45 15,113-17,-3-3,-106 2,-855-18,972-1,0-2,-93-20,71 8,-689-103,598 84,128 23,-2 2,-75-4,63 9,-87-18,5 0,-43-3,94 10,-220-8,328 26,0 1,1-1,-2 0,1 0,0 0,0-1,0 1,0-1,1 1,-1-1,0 0,0 1,0-1,0-1,1 1,-1-1,1 1,0-1,0 0,-5-3,6 2,0 0,0 1,0-2,0 1,1 0,-1 0,1-1,0 1,0 0,0 1,0-2,1 1,-1 0,1 0,0 0,0-1,0 2,3-4,30-73,-18 46,12-41,-12 5,-2-2,-4 1,-2-2,-6-125,-1 162,2 2,1-1,2 1,19-58,-23 86,0-2,1 1,-1 0,1 2,0-2,0 0,6-6,6-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17233.74">7442 1301,'2'133,"-4"127,-1-209,-3 0,-24 96,15-115,8-26,4-22,8-31,3 1,2 0,2 0,31-72,-26 69,27-74,105-200,-143 315,0-1,-1 2,1-1,1 1,0 0,0 0,0 0,1 1,0 1,0-1,14-7,5 2,0-1,46-11,-13 5,-55 16,1 0,0 0,0 0,0 2,0-1,0 1,1-1,-1 1,0 0,0 0,1 1,-1 0,0-1,0 1,11 5,-13-4,-1 0,1 0,-1 0,0 1,0-1,0 1,-1-1,1 1,-1 0,1 0,0 0,-1 0,-1 1,1-1,0 0,-1 0,0 1,0 0,0-1,0 1,-1-1,1 1,-1 0,0 0,0-1,-1 6,-2 18,-1 1,-3 0,0-1,-1 0,-2 0,0-2,-27 45,1-11,-3-1,-51 56,80-102,-1 1,0-2,-2 1,1-2,-1 1,0-2,-1 1,-21 9,28-16,0 0,1-1,-1 0,0 0,0 0,1-1,-1 0,-1 0,1-1,0 0,0 0,0-1,0 0,0 0,0 0,0-1,1 0,-2 0,2-1,0 1,0-2,-10-4,0-1,2 0,-1 0,2-2,-26-21,38 31,1 1,0 0,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0 0,0-1,-1 1,1-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,1 1,-1-1,0 1,0-1,1 0,19 2,28 14,-47-15,90 37,148 84,-207-104,8 5,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17903.4">8104 1605,'4'0,"7"0,6 0,9 0,6 0,5 0,3 0,2 0,5 0,-2 0,-3 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18577.97">8352 1631,'0'9,"0"41,-5 78,-2 33,-8-5,-3-18,3-27,3-32</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19906.97">1 387,'22'652,"-21"-634,0 9,9 45,-9-67,0 0,2-1,-2 1,1 0,0 0,0 0,0-1,1 0,0 1,-1-1,2 0,0 0,-1-1,1 1,7 5,-11-8,1-1,0 1,-1-1,1 0,0 1,0-1,-1 0,2 0,-1 1,0-1,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0-1,0 1,-1 0,1-1,-1 1,1-1,0 0,-1 1,1-1,0 0,17-30,-16 27,46-113,32-124,-41 119,84-297,-66 214,-33 135,-14 53</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20730.25">662 768,'5'-4,"5"-2,12 1,6 0,3 2,1 2,0 0,-1 0,-2 1,0 0,0 1,-1-6,-5-5,-7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22443.09">828 743,'0'4,"0"28,0 33,0 16,0-3,0-10,0-12,0-12,0-17,0-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="29083.97">938 2697,'35'3,"-1"0,1 1,-1 3,37 10,-24-5,51 6,62-5,250-10,-191-7,795 4,-996 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31744.78">5072 1935,'4'9,"2"11,0 12,0 12,-3 4,-1-3,-1 0,0-3,-1 4,0 3,-1-3,1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34117.25">3942 2874,'0'1,"0"0,0 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,-1-1,1 1,0-1,0 0,0 1,0-1,1 1,29 6,-19-4,46 16,2-3,-1-3,1-1,1-4,73 3,-82-11,193-3,-235 1,2 0,-1 0,0-1,-1 1,1-1,-1-1,0-1,1 0,-2 0,1 0,-1-1,0-1,0 1,-1-1,0 0,0-1,-1 1,0-2,11-17,-2 1,-2 0,0-2,-2 1,-1-1,13-56,10-35,-17 64,15-94,-18 29,-4-1,-10-167,-1 283,1 0,-1 1,0 0,0-1,0 1,-1-1,1 1,-2 0,1 0,0 0,0 0,0 0,-1 1,1-1,-1 0,0 1,1-1,-2 1,1 1,-1-1,-3-2,-10-4,1 1,-2 2,-25-8,-7-1,-122-52,-237-79,297 109,80 24,-1 0,-1 3,0 1,0 0,-2 3,-63-3,73 8,3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35441.06">4052 641,'-1'5,"0"0,0-2,0 1,0 1,-1-1,0 0,1 0,-3 0,2 0,0 0,-1-1,0 1,0 0,-7 4,-60 48,43-37,-38 26,-3-3,-95 46,-73 43,232-128,0-1,1 1,-1 0,1-1,-1 1,0 0,2 1,-1-1,0 1,1 0,-1-2,1 2,0 0,-3 9,5-11,0-1,0 1,0 1,0-1,1 0,-1 0,2 1,-1-1,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,1-1,-1 1,1 0,0-1,-1 1,1-1,0 0,1 0,-1 0,0 1,0-2,4 2,89 42,-3 4,105 70,-187-112,-2 1,1 0,0 0,-2 1,1 0,-1-1,0 2,-1 1,0-2,0 2,-1 0,0-1,-1 1,-1-1,2 2,-3-1,2 13,2 16,-1 48,-3-49,8 49,-1-56,3-10</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20291,7 +20340,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">204 265,'-6'7,"0"0,1 1,1-1,-1 1,1 0,-5 12,-5 10,-39 58,32-55,1 1,-27 62,45-93,1 1,-1-1,1 1,0-1,0 1,0 0,1 0,-1-1,1 1,0 0,0 0,1-1,-1 1,1 0,-1 0,1-1,0 1,1 0,2 5,-1-6,-1 0,1 0,0-1,0 1,0-1,1 0,-1 0,0 0,1-1,0 1,-1-1,1 1,0-1,0-1,-1 1,1 0,0-1,7 0,110-2,-67-1,-31 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="624.83">256 0,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="624.82">256 0,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20568,7 +20617,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 926,'397'-20,"-355"17,48 3,-57 1,1-2,56-7,-57-2,-6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="616.06">1218 0,'0'0,"1"0,-1 0,1 0,-1 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 1,0-1,1 0,-1 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,9 34,-2 0,7 72,-6 84,-6-130,-1 296,1 27,-2-378,0 9,1 0,1 0,0 1,5 16,-7-29,1-1,0 1,-1-1,1 0,0 0,0 1,0-1,1 0,-1 0,0 0,1 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,0-1,1 0,-1 1,1-1,-1 0,5-1,14-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="616.05">1218 0,'0'0,"1"0,-1 0,1 0,-1 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 1,0-1,1 0,-1 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,9 34,-2 0,7 72,-6 84,-6-130,-1 296,1 27,-2-378,0 9,1 0,1 0,0 1,5 16,-7-29,1-1,0 1,-1-1,1 0,0 0,0 1,0-1,1 0,-1 0,0 0,1 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,0-1,1 0,-1 1,1-1,-1 0,5-1,14-4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1975.88">1906 530,'-15'11,"2"1,-1 0,2 1,0 0,-21 30,16-21,-24 34,2 1,3 2,2 1,-51 129,77-164,2 0,0 0,2 1,1 0,0 35,12 129,-9-187,0-1,0 1,1-1,-1 1,0-1,1 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,0 1,1-1,-1 0,3 1,0-1,1 0,-1-1,0 0,1 0,-1-1,0 1,1-1,-1 0,0-1,0 1,10-5,-2 1,0-1,0-1,-1 0,0-1,0 0,0 0,-1-1,-1-1,1 0,9-12,-7 4,-1 1,-1-2,0 1,-1-2,-1 1,7-22,1-22,-2 0,-3-1,6-95,-8-16,-10 150,-1-1,-1 0,-2 0,-11-44,-6 24,20 44,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 0,1 1,-1-1,0 1,0 0,0-1,0 1,-2 0,3 0,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 1,0 31,1-27,1 26</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3389.98">2223 979,'26'24,"-21"-21,0 1,-1 0,1 0,-1 0,0 0,0 1,0 0,-1 0,0 0,0 0,3 8,1 9,-2 0,0 0,-1 1,1 35,8 47,-11-99,0 0,0-1,0 1,0-1,1 1,0-1,0 0,1 0,-1 0,1-1,0 1,0-1,1 0,4 4,-6-6,0 0,-1 0,1-1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,0 0,0 0,0 0,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,4-4,-4 3,0-1,-1 0,1 0,0 0,-1-1,0 1,0-1,0 1,0-1,0 0,-1 1,1-1,-1 0,0 0,0-6,6-69,-6 52,3-9,1 0,2 0,1 1,2-1,1 2,19-38,-20 52</inkml:trace>
 </inkml:ink>
@@ -20793,13 +20842,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1006,'9'0,"7"0,6 0,3 0,3 0,0 0,0 0,0 0,0 0,3 0,2 0,8 0,12 0,9 0,-1 0,-7 0,-7 0,-13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="940">1059 503,'2'30,"1"0,1-1,2 0,1 0,17 45,-2-6,147 414,-167-478,7 17,1 0,13 21,-21-38,1 0,0 1,0-2,0 1,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,1-1,-1 0,1 0,7 3,-10-5,1 0,0 0,0 0,0-1,-1 1,1-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,0 1,0-1,0 0,0 0,3-4,4-4,21-19,-2-1,-1-1,-2-2,-1-1,22-42,86-192,-116 231,10-21,-2-2,-3 0,-3-2,-3 1,-2-2,-3 0,-3-1,-2 1,-7-105,0 144</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2487">2038 1165,'0'38,"-11"297,7-286,7-37,3-14,7-22,-13 24,98-236,-16 32,-73 186,53-105,-53 108,0 1,1 0,0 0,1 1,24-21,-29 29,1 1,0 1,1-1,-1 1,1 0,-1 1,1-1,0 2,0-1,0 1,0 0,0 1,0 0,0 0,0 1,0 0,0 0,12 4,-17-4,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,-1-1,0 1,1 0,-1 0,0 1,0-1,-1 0,1 0,-1 1,0-1,1 1,-1-1,-1 1,1 0,0 6,1 13,0-1,-3 45,1-57,-2 20,-2 0,-1-1,-1 1,-1-1,-2 0,0-1,-2 0,-2-1,0 0,-32 46,40-67,0 0,-1 0,1 0,-2-1,1 0,0 0,-1 0,0-1,0 0,0-1,0 1,-1-1,1-1,-1 1,-8 0,-11 1,0-1,0-1,-30-2,18 0,27 0,1-1,-1 0,0-1,-20-6,29 8,0-2,0 1,0 0,0-1,0 1,1-1,-1 0,1 0,-1 0,-2-3,4 4,0 0,0 0,0 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,0 1,-1 0,1-1,0 1,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,1-1,0-1,1 0,-1 1,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,-1 1,1 0,-1 0,1 0,0 0,4 1,-1 0,0-1,0 1,0 0,0 1,0 0,-1 0,1 0,-1 0,1 1,-1 0,8 5,-5 1,1-1,-1 1,-1 1,0-1,0 1,-1 0,0 1,0-1,5 19,1 8,11 63,-18-72,1-1,1 1,2-2,21 49,-5-36,-1-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3848">2726 1561,'4'-6,"2"0,-1 0,0 1,1-1,0 1,1 0,-1 1,1-1,0 1,0 1,8-4,15-9,8-9,-12 8,1 1,42-18,-62 30,0 2,1-1,-1 1,1 0,0 0,-1 1,1 0,0 1,0 0,0 0,0 0,-1 1,1 1,0-1,7 3,-11-2,-1 0,0 0,1 0,-1 0,0 0,0 1,-1-1,1 1,0 0,-1 0,0 0,0 0,1 0,-2 1,1-1,0 1,-1-1,0 1,1-1,-2 1,1 0,1 6,0 10,-1 0,0 1,-3 21,1-20,1-14,-1 1,0-1,-1 0,0 0,0 0,0-1,-1 1,0-1,-1 1,0-1,-7 10,8-12,-1 0,0-1,0 0,0 0,0 0,0-1,-1 1,0-1,0 0,0 0,0-1,0 1,0-1,-1 0,1-1,-11 3,9-4,15-3,20-2,-17 6,-1 1,0-1,0 2,0-1,0 1,0 1,16 7,-22-9,0 1,0-1,-1 1,1-1,-1 1,1 0,-1 0,0 1,0-1,0 1,0-1,-1 1,0 0,1 0,-1 0,-1 0,1 1,-1-1,2 9,-1 7,-1 1,0 0,-2 0,-1 0,0-1,-2 1,0-1,-2 1,0-1,-12 26,6-19,-2-1,-1 0,-1-1,-1 0,-1-1,-36 36,43-51,0 0,-1 0,0-1,0 0,0-1,-1-1,0 0,-1-1,1 0,-1-1,0-1,0 0,0 0,0-2,-1 0,-26-1,8-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4630">3282 477,'9'0,"7"0,10 0,6 0,5 0,2 0,2 0,0 0,-3 0,-4 0,-3 0,-2 0,-1 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5285">3202 926,'453'0,"-443"1,0-1,0 1,0 1,16 4,8 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6749.93">4261 0,'-67'69,"-107"144,143-169,2 2,2 1,3 1,-35 92,52-110,0-1,2 1,1 1,2-1,0 0,2 1,8 58,-7-82,1 0,-1 0,1 0,0 0,1 0,0-1,0 1,0-1,1 0,0 0,0 0,0 0,1-1,0 1,0-1,0-1,1 1,-1-1,1 0,0 0,0 0,10 3,13 4,0 0,1-3,0 0,33 3,28 8,-79-15,0-1,1 0,-1-1,1 0,-1-1,1 0,0-2,17-1,-23 0,0 0,0 0,0 0,0-1,-1 0,0-1,1 0,-1 1,0-2,-1 1,1-1,-1 0,0 0,0 0,0-1,6-11,10-13,-1-1,-2 0,-1-2,-1 0,-2-1,17-66,-19 25,-4 0,-2-142,-5 133,-3-86,1 166,0 0,0 0,0 0,0 0,0 1,-1-1,0 0,0 0,0 1,0 0,-1-1,1 1,-1 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,-1 0,1 0,-7-2,-5-1,0 0,-1 1,1 0,-29-2,18 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 961,'9'0,"8"0,6 0,3 0,3 0,0 0,0 0,0 0,0 0,3 0,2 0,9 0,12 0,9 0,-1 0,-7 0,-7 0,-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="940">1098 481,'2'28,"1"1,2-1,1-1,1 1,18 43,-2-6,152 395,-173-456,7 16,2 0,13 21,-22-38,1 1,0 1,0-2,0 1,0 0,1-2,0 2,0-1,0 0,0 0,0 0,1-1,0-1,0 1,7 3,-10-5,1 0,0 0,1 0,-1-1,-1 1,1-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,2 0,-2 0,1-1,-1 0,0 1,0-1,0 0,0 0,3-4,5-3,21-19,-2-1,-1 0,-2-3,-1 0,22-41,90-183,-120 221,10-21,-2-1,-4 0,-2-3,-3 2,-3-2,-2 0,-4-2,-2 2,-7-100,0 137</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2487">2114 1113,'0'37,"-12"283,8-273,7-36,3-13,8-21,-14 23,102-225,-17 30,-76 178,55-101,-54 104,-1 0,1 1,1 0,0 0,25-19,-29 27,0 1,0 1,1-1,0 1,0 1,-1 0,1-1,1 2,-1-1,0 1,1 0,-1 1,0 0,1 0,-1 1,0 0,0 0,13 4,-18-4,0 1,2-2,-2 2,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,-1 0,1 1,-1 0,0 1,0-1,-1 0,1 0,-1 0,0 0,1 1,-1-1,-1 1,1 0,0 5,1 13,0-1,-3 43,1-54,-2 18,-2 1,-1-1,-1 1,-1-2,-3 1,1-1,-3-1,-1 0,-1 0,-32 44,41-64,-1-1,0 1,1 0,-2-1,1-1,-1 1,0 0,0-1,0 0,-1-2,1 2,-1-1,0-1,0 1,-8 0,-12 1,0-2,0 0,-32-2,20 0,28 0,0-1,0 0,-1-1,-20-5,30 7,0-2,0 1,0 0,0-1,-1 1,2-1,-1 0,1 0,-1 1,-2-4,4 4,0 0,0 0,0 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,0 1,-1 0,1 0,0 0,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,1-1,0-1,1 0,-1 1,0 1,1-1,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 1,1-1,0 1,-1 0,0 0,1 1,-1-1,1 0,-1 0,1 1,0-1,-1 1,2 0,-2 0,1 0,0 0,4 1,-1 0,1-1,-1 1,0 0,0 0,0 1,0 0,0 0,-1 0,1 1,-1 0,9 4,-6 2,2-1,-2 0,-1 2,0-2,1 2,-2 0,0 0,0 0,6 17,0 9,12 59,-19-68,1-1,2 1,1-3,22 48,-5-35,-1-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3848">2827 1492,'4'-6,"3"0,-2 1,0 0,1-1,0 1,2 0,-2 2,1-2,0 1,1 1,7-4,16-8,9-9,-13 8,1 1,43-18,-64 29,1 3,0-2,-1 1,2 0,-1 0,-1 1,1 0,1 1,-1 0,0 0,1 0,-2 1,1 1,0-1,8 3,-12-2,-1 0,0-1,2 1,-2 0,0 0,0 1,-1-1,1 1,0 0,-1 0,0-1,0 1,2 0,-3 1,1-1,0 1,-1-1,0 0,1 0,-2 1,1 0,1 5,0 11,-1-1,0 1,-3 20,1-19,1-14,-1 2,0-1,-1-1,0 1,0 0,0-2,-1 2,-1-1,0 0,0 0,-7 9,8-11,-2 0,1-1,0-1,0 1,0 0,0-1,-1 1,-1-1,1 0,0-1,0 0,0 1,-1-1,0 0,1-1,-12 3,10-4,15-3,21-2,-17 6,-2 1,1-1,-1 2,0-1,1 1,-1 0,17 8,-23-9,0 1,1-1,-2 1,1-2,-1 2,1 0,-1 0,0 1,0-1,1 1,-1-2,-1 2,0 0,1 0,-1 0,-1 0,1 0,-1 0,2 9,-1 6,-1 1,0 0,-2 0,-1 0,0-1,-2 1,0-1,-2 1,-1-1,-11 25,5-18,-1-1,-2 0,0-1,-2 0,-1-1,-37 34,45-48,0-1,-2 1,1-2,-1 1,1-1,-2-2,1 1,-2-1,2 0,-2-1,1-2,-1 1,1 0,-1-2,0 0,-28-1,9-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4630">3404 456,'9'0,"8"0,10 0,6 0,5 0,3 0,1 0,1 0,-4 0,-4 0,-2 0,-3 0,-1 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5285">3321 885,'470'0,"-460"1,0-1,1 1,-1 1,17 3,8 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6749.92">4419 0,'-69'66,"-112"137,149-160,2 0,2 2,3 1,-36 88,54-105,-1-2,3 2,1 1,2-2,0 1,2 1,8 55,-7-79,1 1,-1 0,1 0,0-1,2 1,-1-1,0 0,0 0,1 0,0 0,0-1,1 1,0-1,0 0,0 0,0-1,1 1,0-1,0 0,0-1,0 1,11 3,13 3,0 1,1-3,0-1,35 4,28 7,-82-14,1-1,0-1,0 0,0 0,0-1,0 0,1-2,17-1,-24 0,0 0,1 1,-1-1,0-1,-1 0,1-1,0 0,-1 1,0-1,0 0,0-1,-1 0,0 0,0 1,0-2,7-10,10-13,-2-1,-1 1,-1-3,-2 1,-1-2,17-62,-20 23,-3 0,-3-135,-5 127,-3-83,1 159,0 1,0-1,0 0,0 0,0 1,-1-1,0 1,-1-1,1 1,0 0,-1-1,1 1,-1 0,0 1,0-1,0 1,0-1,-1 1,0-1,1 1,-1 0,1 0,-7-1,-6-2,0 0,0 1,0 0,-29-1,18 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20826,11 +20875,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 317,'4'0,"7"0,9 0,7 0,3 0,1 0,3 0,24 0,11 0,3 0,-7 0,-10 0,-9 0,-13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2017.41">848 132,'5'-3,"1"0,0 0,1 0,-1 1,0 0,1 0,0 1,-1-1,1 1,0 1,-1-1,11 2,-2-2,410-42,-414 41,1 1,0 0,0 1,0 0,0 1,0 0,22 6,-30-6,0 0,0 1,0 0,0-1,-1 1,1 1,-1-1,1 0,-1 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,-1 0,1 0,0 5,-1 6,0 1,-1 0,0 0,-1-1,-1 1,-8 21,-37 95,35-102,-66 154,62-150,-1-1,-2-1,-29 37,44-63,-1 0,0-1,0 0,0 0,0 0,-1-1,1 0,-1 0,0 0,-1-1,1 0,-1-1,1 0,-1 0,1 0,-1-1,0 0,0-1,0 0,0 0,0 0,1-1,-1-1,0 1,0-1,1 0,-1-1,1 0,0 0,0 0,0-1,0 0,-7-7,10 8,0-1,0 0,0 0,1-1,0 1,0-1,-3-4,6 8,-1 0,1 0,-1 0,1 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,1-1,17-4,0 0,1 2,-1 0,31-1,-22 3,44-9,3-12,-56 15,0 1,1 1,-1 1,38-3,-50 7,-1 0,1 1,0 0,-1 0,1 1,-1-1,1 2,-1-1,0 0,0 1,0 0,0 1,0 0,-1-1,0 1,0 1,0-1,8 10,2 4,-7-8,0-1,1 0,-1-1,14 10,-3-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3463.18">2091 132,'-21'56,"4"138,13-168,0-12,2 1,-1-1,2 1,0-1,1 1,0 0,5 25,-4-37,0-1,0 1,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,1-1,-1 0,1 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1-1,4 0,12 1,-1-1,36-4,-27 2,-3 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4284.11">2330 53,'4'0,"2"5,-1 5,0 6,-2 5,-1 16,-1 30,-5 43,-2 12,-4-5,-1-19,2-21,-2-19,0-15,3-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5605.82">2594 0,'3'1,"0"-1,1 0,-1 1,0 0,0 0,0 0,0 0,1 0,-1 1,-1-1,1 1,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,0 0,-1 0,3 4,3 9,-1 0,-1 0,6 28,-4-16,23 91,31 103,-54-204,0-1,2-1,12 18,-12-20,-1 0,-1 0,0 1,8 22,10 27,-24-62,1 1,-1-1,0 0,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,2 1,-3-3,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 1,-1-2,1 1,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0-1,-1 1,1-1,-1 1,1-1,0 0,-1 1,1-1,-1 0,1 1,-1-2,12-16,-1 0,0-1,-2 0,0-1,9-33,23-116,-25 96,3-5,-6 33,-2-2,-3 1,6-82,-16 99</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 309,'4'0,"8"0,9 0,7 0,4 0,1 0,2 0,27 0,10 0,4 0,-7 0,-11 0,-10 0,-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2017.41">894 129,'5'-3,"1"0,1 0,0 0,-1 1,1 0,0 0,1 1,-2-1,1 1,1 1,-2-1,12 2,-2-2,432-41,-437 40,2 1,0 1,-1 0,1 0,-1 0,1 1,23 6,-32-6,0 0,1 1,-1 0,0-1,-1 1,1 1,0-1,0 0,-1 1,0 0,0 0,0 0,1 0,-1-1,-1 1,1 1,-1-1,0 1,0 0,-1 0,2 0,-2 0,1 0,-1 0,-1-1,1 1,0 5,-1 6,0 0,-1 1,0 0,-1-2,-2 2,-7 20,-40 93,38-100,-71 151,66-147,-1-1,-2-1,-30 37,45-63,0 1,0-1,-1 0,1 0,0 0,-2-1,2 0,-1 0,-1-1,0 0,1 0,-2-1,2 0,-2 0,2 0,-2-1,1 0,0-1,-1 0,1 0,-1 0,2-1,-2-1,1 1,0-1,0 0,0-1,0 0,1 0,0 1,-1-2,1 0,-8-7,11 8,0-1,0 0,-1 0,2-1,0 2,0-2,-4-4,7 8,-1 0,1 0,-1 0,1 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 1,-1-1,1 0,1 0,-2 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,1-1,18-4,0 0,1 2,0 0,31-1,-22 3,46-8,3-13,-59 15,0 1,1 2,-1 0,40-3,-53 7,0 0,0 1,0 0,0 0,0 1,-1-1,2 2,-2-1,0 0,1 0,-1 1,0 1,1 0,-2-1,0 1,1 1,-1-1,9 9,1 5,-6-8,-1-1,2-1,-2 0,15 10,-3-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3463.18">2204 129,'-22'54,"4"136,14-165,0-11,1 0,0 0,2 1,0-2,1 2,0 0,5 24,-3-36,-1-1,0 1,1-2,-1 1,1 1,0-1,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,-1 0,1-1,-1 0,1 0,1 0,-2 0,1 0,0 0,0-1,-1 1,1-1,5 0,12 1,-1-1,38-4,-29 2,-3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4284.11">2456 52,'4'0,"3"5,-2 4,0 7,-2 4,-1 17,-1 28,-5 42,-2 12,-5-4,0-20,1-20,-1-18,-1-15,4-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5605.82">2734 0,'3'1,"1"-1,0 0,-1 1,0 0,0 0,0 0,1 0,0 0,-1 1,-1-1,1 1,0 0,1 0,-2 0,1 0,-1-1,1 2,-1-1,0 1,0-1,1 1,-1 0,-1 0,3 4,3 8,0 1,-2 0,6 27,-3-16,23 89,34 101,-58-200,1 0,1-2,13 19,-12-21,-2 1,-1 0,1 0,8 22,10 27,-25-61,1 1,-1-1,0 0,1 0,1 0,-2-1,1 1,0 0,0-1,0 1,2 1,-3-3,0 1,0-1,-1 0,1 0,0 0,1 0,-1 0,0 1,-1-2,1 1,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0-1,-1 1,1-1,-1 1,1-1,0 0,-1 1,2-1,-2 0,1 1,-1-2,12-15,0-1,-1 0,-1-1,-1 0,10-33,25-113,-28 94,4-5,-6 32,-2-2,-4 1,7-80,-17 97</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -20941,13 +20990,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'6,"1"0,0 0,0 0,0 0,1 0,0 0,0 0,0-1,1 1,0-1,0 0,0 0,1 0,0 0,5 5,10 8,0-1,31 22,12 11,-22-9,45 62,-49-56,49 47,-74-84,1 0,-1-1,1 0,1-1,0-1,0 0,0 0,1-1,0-1,26 6,1-4,0-2,62 1,-66-5,21 4,67 13,17 4,185 24,-157-19,-58-16,198-5,-173-8,154 4,398-5,-473-8,249-44,-337 22,-124 32,0 1,0 0,0 0,0 0,0 0,0 1,0 0,0 0,0 0,0 0,0 0,0 1,-1 0,1 0,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,0 1,0-1,0 1,0-1,0 1,2 6,1 6,1 0,-2 0,0 1,-1-1,-1 1,1 18,1 120,9 136,-8-237,3 0,2 0,22 65,-18-87,-14-31,0-1,0 0,0 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 0,0 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,0 0,0-1,1 1,-1 0,8-24,-8 24,37-132,5 2,5 2,7 2,109-188,-158 304,1 2,0-1,0 1,0 0,15-13,-20 20,1-1,-1 1,1 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,-1 1,1-1,0 0,-1 0,1 1,2 2,55 62,-50-54,0 0,1 0,1-1,0 0,0-1,1 0,1-1,25 14,32 6,76 19,-21-7,11 2,220 40,-224-56,-78-16,627 128,5-35,-656-101,9 2,1-1,68-4,-98-1,0 0,1-1,-1 0,0 0,0-1,0-1,-1 1,1-2,-1 1,0-1,0-1,0 0,-1 0,0 0,8-9,21-28,49-76,-65 85,2 1,1 1,2 1,1 2,36-31,-32 36,-21 18,0-1,0 0,-1 0,0-1,0 0,-1-1,0 0,0-1,-1 1,-1-1,0 0,0-1,6-14,-7 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1063.08">3070 2090,'4'0,"6"0,7 0,8 0,5 0,15 5,9 1,9 0,3-1,-1-2,-7-1,-9-1,-9 0,-5 3,-10 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1723.8">4207 2011,'-5'4,"0"-1,0 1,1-1,0 1,0 1,0-1,0 0,1 1,-1 0,1 0,1 0,-1 0,1 0,-1 1,0 6,-5 13,-9 51,14-57,-2 9,-12 73,15-90,2-1,-1 1,1 0,1 0,0-1,5 22,-4-29,0 0,0 0,0 0,1-1,-1 1,1 0,-1-1,1 0,0 1,0-1,0 0,0 0,0-1,1 1,-1-1,0 0,1 0,-1 0,1 0,7 1,7 1,0-1,31 0,-44-3,-1 0,1 0,-1 0,1-1,-1 1,0-1,1 0,-1 0,0-1,0 1,-1-1,1 0,-1 0,1 0,-1-1,0 1,0-1,3-4,8-12,-1-1,12-23,-19 32,9-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2148.56">4419 1984,'0'-4,"-5"-2,-1 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3762.72">4816 1958,'-1'70,"-2"0,-3-1,-27 123,20-137,4-15,-1-1,-21 52,31-91,0 1,0 0,0-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-2 0,-5-12,1-32,3-39,3 0,4 0,4 0,3 1,4 0,4 1,3 1,44-105,-63 177,1 0,0 1,1 0,-1 0,1 0,1 0,-1 1,1-1,0 2,1-1,-1 1,1 0,0 0,1 1,-1-1,1 2,0-1,0 1,15-4,-8 4,-1 1,1 0,-1 1,1 0,0 1,-1 1,1 1,-1 0,1 0,25 9,-37-10,1 1,0-1,-1 1,1 0,-1-1,0 2,1-1,-1 0,0 1,0-1,-1 1,1 0,0 0,-1 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,-1 0,0-1,0 1,0 0,-1 0,1 0,-1 4,-1 10,0-1,-1 0,-1 1,-10 32,10-37,-17 54,-3 0,-3-2,-2 0,-4-2,-2-2,-55 76,83-128,0-1,-1 0,-1 0,1-1,-1 0,-1 0,-15 10,21-15,0 0,-1-1,1 1,0-1,0 0,-1 0,1 0,0 0,-1-1,1 1,-1-1,1 0,-1 0,1 0,0 0,-1-1,1 0,-1 1,1-1,0 0,-1 0,1-1,0 1,0-1,0 0,0 0,-3-2,5 4,0-1,0 0,0 1,0-1,1 0,-1 0,0 0,0 1,0-1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,2-1,3-3,0 1,1 0,0 0,0 1,0 0,14-3,-13 5,1 0,0 0,-1 1,1 0,-1 1,1 0,-1 0,12 5,66 34,-58-27,28 14,-30-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4310.96">5319 2117,'4'0,"7"0,5 0,4 0,4 0,7 0,7 0,5 0,1 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4979.08">5477 2117,'0'5,"0"5,0 38,0 24,0 17,0 8,0 0,0-12,0-10,0-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'0'6,"1"-1,0 1,0 0,0 0,1-1,0 1,0 0,0-1,1 0,1 0,-1 0,0 0,1-1,0 1,5 5,11 7,-1-1,33 21,12 11,-23-9,47 59,-51-53,51 45,-77-81,1 1,0-2,0 1,2-2,-1 0,0 0,1-1,0 0,1-1,26 5,1-3,1-2,63 1,-68-5,22 3,69 14,17 2,192 24,-163-18,-60-15,205-6,-179-7,160 4,409-5,-487-7,257-42,-348 20,-128 31,0 1,0 0,0 0,0 0,1 0,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,0 0,0 0,-1-1,1 1,-1 0,0 1,0-1,0 1,0 0,0 0,1-1,-2 1,0 1,0-1,0 1,0-1,0 0,2 7,1 5,1 1,-1-1,-1 1,-1-1,-1 1,1 18,1 114,9 129,-7-225,2-1,2 1,23 61,-18-82,-15-31,0 0,0 0,0 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 0,0 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,0 0,0-1,1 1,-1 0,8-23,-8 23,38-125,6 1,4 2,8 1,112-178,-163 290,1 1,1-1,-1 2,0-1,16-12,-21 19,1-1,-1 1,1 0,0 0,0 0,-1 0,1 0,0 1,0 0,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0 0,0-1,0 1,-1 1,1-1,1 0,-2 0,1 1,2 2,57 59,-52-52,0 1,1-1,2 0,-1-1,1 0,0-1,1 0,26 13,34 5,77 19,-21-7,12 2,226 38,-231-53,-80-15,646 121,6-33,-677-96,9 2,1-1,70-4,-100-1,-1 0,1-1,0 0,-1 0,0-1,1-1,-2 1,1-1,0 0,-1-1,0-1,0 1,0-1,-1 0,8-8,23-27,49-73,-66 82,2 1,0 0,3 2,1 1,37-29,-33 34,-22 17,1-1,-1 1,-1-1,1-1,-1 1,-1-2,0 1,1-2,-2 2,-1-2,0 0,0 0,7-14,-8 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1063.08">3167 1993,'4'0,"6"0,8 0,7 0,6 0,16 5,8 0,10 1,4-1,-2-2,-8-1,-8-2,-10 1,-5 3,-10 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1723.8">4339 1917,'-5'4,"0"-1,0 1,1-1,0 1,0 0,-1 0,1 0,1 1,-1 0,1-1,1 1,-1 0,1 0,-1 0,0 7,-6 12,-8 48,14-54,-2 9,-13 69,16-85,2-2,-1 2,1-1,1 1,0-2,5 22,-4-28,0-1,0 1,0 0,2-1,-2 1,1 0,-1-1,1 0,0 0,0 0,0 0,0 0,0-1,1 1,0-1,-1 0,1 0,-1 0,1 0,7 1,8 1,-1-1,33-1,-46-2,-1 1,1-1,0 0,0-1,-1 1,0-1,1 0,-1 0,0-1,1 1,-2-1,1 1,-1-1,1 0,-1-1,0 1,0-1,3-3,9-12,-2-1,13-22,-20 30,10-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2148.56">4558 1892,'0'-4,"-5"-2,-1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3762.72">4968 1867,'-1'67,"-2"-1,-4 0,-27 117,21-130,4-15,-2-1,-21 50,32-87,0 1,0 0,0-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-2 0,-5-11,1-31,2-37,4 0,5-1,3 1,3 1,5 0,3 1,4 0,45-99,-65 168,1 1,0 0,2 0,-2 1,1-1,1 0,-1 2,1-2,1 2,0 0,-1 0,1 0,0 0,2 1,-2 0,1 1,0-1,1 1,14-4,-7 5,-2 0,2 0,-2 1,2 0,-1 1,0 1,0 1,-1 0,2 0,25 8,-38-9,1 1,1-1,-2 1,1 0,-1-1,0 1,1 0,-1 0,0 1,0-1,-1 1,2 0,-1 0,-1-1,0 1,0 0,0 1,0-1,0 1,-1-1,1 0,-1 1,0-1,0 1,0 0,-1-1,1 1,-1 4,-1 9,0-1,-1 0,-1 2,-10 29,10-34,-18 51,-3-1,-3-1,-2 0,-4-1,-2-3,-56 72,84-121,1-1,-1-1,-1 1,1-2,-2 1,0 0,-16 9,22-14,0 0,-1-1,1 1,0-1,0 0,-2 0,2-1,0 1,-1-1,1 1,-1-1,1 0,-1 0,1 0,0 0,-2-1,2 0,-1 1,1 0,0-1,-1 0,1-1,0 1,0-1,0 0,-1 0,-2-2,5 4,0-1,0 0,0 1,0-1,1 0,-1 0,0 1,0 0,0-1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 1,0-1,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,2 0,4-4,-1 1,1 0,0 0,0 1,1 0,13-2,-12 4,0 0,0 0,-1 0,2 1,-2 1,1 0,-1 0,13 5,68 32,-60-26,28 14,-30-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4310.96">5486 2019,'5'0,"6"0,5 0,5 0,4 0,7 0,7 0,5 0,2 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4979.08">5649 2019,'0'4,"0"6,0 36,0 22,0 17,0 8,0-1,0-11,0-9,0-19</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21030,7 +21079,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'1'1,"-1"-1,1 1,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 1,4 35,-3-32,6 124,-5 0,-21 173,18-292,0 1,0 0,1-1,0 1,1 0,0-1,1 1,3 11,-3-18,-1 0,1 0,0 0,0-1,1 1,-1-1,1 1,0-1,0 0,0 0,0 0,0-1,1 1,-1-1,1 0,0 0,0 0,0 0,-1-1,2 1,-1-1,0 0,4 0,77 20,-55-13,1 0,1-2,-1-1,56 0,-85-5,0 0,0 0,1 0,-1 0,0-1,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,0-1,-1 0,1 1,1-4,10-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1102.39">768 292,'4'0,"11"0,16-4,8-2,1 0,12-3,6-9,-2-2,-2 3,-5 4,-3 4,1 4,-4 3,1 2,-4 0,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1102.38">768 292,'4'0,"11"0,16-4,8-2,1 0,12-3,6-9,-2-2,-2 3,-5 4,-3 4,1 4,-4 3,1 2,-4 0,-8 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1889.27">1006 635,'9'0,"16"0,22 0,13 0,13 0,8 0,-5 0,-12 0,-11 0,-10 0,-9 0,-5 0,-3 0,-1 0,-1 0,0 0,1 0,-5 0</inkml:trace>
 </inkml:ink>
 </file>
@@ -21058,15 +21107,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">186 534,'19'0,"0"-2,0-1,0 0,0-1,0-1,-1-1,27-12,121-72,-38 18,-121 69,5-3,0 0,0 1,1 0,24-5,-35 10,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,-1 0,1 0,-1 0,0-1,0 1,1 0,-1 0,-1 3,1 15,0 1,-2-1,0 0,-2 0,0 0,-1 0,-1-1,-16 36,2-15,-1-1,-51 70,64-98,-1 0,0 0,0-1,-1-1,-1 1,1-2,-22 14,27-19,1-1,-1 0,0 0,0 0,0-1,0 0,0 1,0-2,0 1,0-1,0 0,0 0,0 0,-1-1,1 1,0-1,0-1,0 1,0-1,1 1,-1-1,0-1,-7-4,4 2,-71-50,74 51,0 0,1 0,-1 0,1-1,0 1,0-1,1 0,0 0,-1 0,2-1,-1 1,-3-10,6 13,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 1,62 5,-58-5,32 9,0 1,-1 2,0 1,-1 3,52 30,48 23,-84-54,-29-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="766.1">1429 5,'-2'15,"1"-1,-2 0,0 0,0 0,-2-1,-7 20,-2 4,-51 135,-23 73,85-237,1 0,1 0,-1 0,1 0,0 0,1 12,0-19,0 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 1,1-1,-1 1,0 0,1-1,-1 1,0-1,1 1,-1-1,1 1,-1-1,0 0,1 1,-1-1,1 0,0 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,0 0,0 1,1-2,1 1,-1-1,1 1,-1-1,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,4-4,107-91,-41 32,-55 50</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1350.1">1615 31,'0'14,"0"22,0 23,0 20,0 14,-9 14,-8 15,-1 1,-1-11,2-21,4-21,9-22,4-25,12-37,18-36,3-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2229.1">1932 323,'2'-4,"3"12,4 15,-3 34,-3 94,-5-101,3 1,13 87,-12-131,0 0,0-1,0 1,1-1,0 1,0-1,8 11,-10-16,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,0 0,1 0,-1 0,0 0,1-1,-1 1,1 0,0-1,-1 1,1-1,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 0,1-1,0 1,-1 0,1 0,0-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,2-2,5-5,0 0,0-1,-1 0,-1-1,0 1,0-1,7-18,-3 8,55-116,-6-3,80-286,-126 370</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4470.21">1 1275,'5'4,"0"-1,1 0,0-1,0 1,0-1,0 0,0-1,0 1,0-1,1 0,-1-1,0 0,0 0,8-1,5 2,713 4,-386-8,682 3,-963-3,65-11,-112 11,9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5908.67">239 1963,'0'5,"4"1,11-1,7 0,9 3,4 0,9-1,2 2,1 0,8-1,2-3,-4-1,-6-3,-6 0,-11-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7624.78">1165 1751,'0'748,"2"-812,3 1,2 0,18-68,1 31,45-115,-59 187,2 1,1 0,1 0,1 2,1 0,1 1,42-40,-58 61,0 1,0 0,-1-1,2 1,-1 0,0 0,0 1,1-1,-1 1,0-1,1 1,0 0,-1 1,1-1,3 0,-5 2,0-1,0 0,0 1,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 2,4 34,-2-1,-1 1,-5 42,2-60,-1 0,-1-1,0 0,-1 1,-2-2,0 1,-15 29,19-43,-1 0,1 1,-1-2,0 1,-1 0,1-1,-1 0,0 0,0 0,0 0,0-1,-12 5,3-3,-1 0,1-1,-27 3,-16 4,43-3,20 2,29 7,-28-15,19 9,-1 1,0 0,41 30,-57-35,0 0,0 1,-1 0,0 1,0 0,-1 0,0 1,-1-1,0 1,-1 1,9 20,-9-13,-5-14,1 0,-1-1,1 1,0-1,1 1,-1-1,1 1,-1-1,1 0,0 0,0 0,4 5,1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8138.95">1773 1884,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,1 0,4 0,1 0,0 0,-1 0,-2 5,-2 1,-5-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8757.97">2012 1910,'-5'0,"-1"5,0 28,1 17,2 10,1 3,1 5,0-1,1-6,1-10,-1-9,0-7,0-5,0-3,-4-6,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">192 512,'20'0,"0"-2,-1-1,1 0,0 0,-1-2,0-1,27-11,126-69,-39 16,-126 68,5-4,1 0,-1 1,2 0,24-4,-36 9,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,1 1,-1-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,-1 0,1-1,0 1,-1 0,1 0,-1 0,0-2,0 2,1 0,-1 0,-1 3,1 14,0 1,-2 0,0-1,-3 0,1 0,-1 0,-1-1,-17 35,2-14,0-2,-54 68,67-95,-1 1,-1-1,1 0,-1-2,-2 2,2-2,-23 13,28-18,1-1,-2-1,1 1,0 0,0-1,0 0,-1 1,1-2,0 1,0-1,0 0,0 0,-1 0,0-1,1 1,0-1,0-1,0 1,-1-1,2 1,-1-1,0 0,-8-5,5 2,-74-48,77 50,0-1,1 0,-1 0,1-1,0 1,-1 0,2-1,0 0,-1 0,2-1,-1 2,-3-11,6 13,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0 0,0 0,1-1,-1 1,0 0,0-1,0 1,1 0,0 0,-1 0,0 0,0 0,1 0,-1 0,1 1,64 4,-60-4,34 9,-1 0,-1 3,0 0,0 4,53 28,49 22,-86-52,-30-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="766.1">1478 5,'-2'14,"1"0,-2-1,0 0,0 1,-2-2,-8 20,-1 4,-53 128,-24 71,87-227,2 0,1-1,-1 1,1 0,0-1,1 13,0-19,0 0,0-1,1 1,-1-1,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,1-1,-1 1,0-1,1 1,-1-1,1 1,-1-1,0 0,1 1,-1-1,1 0,0 1,-1-1,1 0,-1 1,2-1,-2 0,1 0,0 0,0 1,1-2,1 1,-1-1,1 1,-1-1,0 0,1 0,-1 0,0 0,0-1,0 1,1 0,3-3,111-88,-43 30,-56 49</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1350.1">1671 30,'0'13,"0"22,0 21,0 20,0 13,-10 14,-7 14,-2 1,0-11,1-20,4-19,10-22,4-24,13-36,18-34,3-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2229.1">1999 310,'2'-4,"3"12,4 14,-3 32,-2 91,-7-97,4 1,14 83,-13-125,0 0,0-1,0 0,1 0,0 1,1-2,7 12,-10-16,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1-1,0 1,0 0,0-1,-1 1,1-1,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 0,1-1,0 1,-1 0,1 0,0-1,-1 1,2-1,-2 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,2-2,5-4,1-1,-1 0,-1-1,-1-1,0 2,1-2,6-17,-3 8,58-111,-7-4,83-273,-131 354</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4470.21">1 1223,'5'4,"0"-2,2 1,-1-1,0 1,0-1,0 0,1-1,-1 1,0-1,1 0,-1-1,1 0,-1 0,8-1,6 2,737 4,-399-8,706 3,-997-3,67-11,-115 12,9-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5908.67">247 1883,'0'4,"4"2,12-1,7 0,9 2,4 1,9-1,3 1,1 1,8-1,1-4,-3 0,-6-3,-7 0,-11-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7624.78">1205 1679,'0'718,"2"-780,3 2,3-1,18-64,0 29,48-110,-62 179,3 1,0 0,2 0,0 2,2 0,1 1,43-38,-60 58,0 1,0 0,-1-1,2 1,-1 0,1 0,-1 1,1 0,-1 0,0-1,1 1,0 0,-1 1,1-1,4 0,-6 2,0-1,0 0,0 1,-1 0,1-1,0 1,-1 0,1 0,0 0,-1 0,1-1,-1 1,1 1,0-1,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,-1-1,1 0,-1 1,0 0,0 0,0 0,0 2,4 32,-2 0,-1 0,-5 41,2-58,-1 0,-1 0,0-1,-2 1,-1-2,0 2,-16 27,20-42,-1 1,1 1,-1-2,0 1,-2-1,2 0,-1 0,0 0,0 0,0 0,-1-2,-11 6,2-3,0 0,0-2,-27 4,-17 4,44-4,22 3,29 6,-29-14,20 9,-1 0,0 1,42 28,-59-33,1 0,-1 0,-1 1,1 0,-1 1,-1 0,0 0,-1 0,1 1,-2 0,9 20,-8-13,-6-13,1 0,-1-1,1 0,0 0,1 1,-1-1,1 1,-1-1,1 0,0 0,0-1,4 6,1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8138.95">1834 1807,'4'0,"8"0,4 0,6 0,3 0,2 0,1 0,1 0,4 0,1 0,0 0,-1 0,-2 5,-2 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8757.96">2081 1832,'-5'0,"-1"5,0 26,1 17,2 10,0 2,2 5,0 0,1-7,1-9,-1-9,0-6,0-5,0-4,-4-4,-2-8</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21093,14 +21142,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 264,'4'0,"6"0,11 0,6 0,2 0,2 0,17 0,11 0,-2 0,-5 0,-3 0,-4 0,-2 0,-4 0,-3 0,-4 0,-2 5,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="668.44">398 793,'8'0,"9"0,9 0,5 0,2 0,0 0,-1 0,2 0,1 0,3 0,-1 0,-1 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1462.36">953 714,'0'-4,"9"-2,7 1,11 0,4 2,7 1,0 1,4 0,-1 1,-4 0,-2 5,-9 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2821.1">2355 185,'1'-3,"1"-1,1 1,-1-1,0 1,1 0,0-1,0 1,0 1,0-1,0 0,0 1,1 0,-1-1,5-1,-6 3,8-4,1 0,0 0,0 1,0 1,0-1,1 2,-1 0,14-1,6 1,56 3,-84-1,-1 0,1 0,-1 0,1 0,-1 1,0-1,1 1,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,-1 0,1 0,0-1,-1 1,0 0,2 3,-2-2,-1 1,1 0,-1 0,0-1,1 1,-2 0,1 0,0 0,-1-1,0 1,0 0,0-1,0 1,0 0,-3 4,-11 22,-1-2,-2 1,0-2,-2 0,-1-2,-1 0,-1-1,-1-1,-1-1,-44 29,51-38,-2 2,-1 0,-25 12,41-24,0-1,-1 1,1-1,-1 0,1-1,-1 1,0-1,0 0,1-1,-1 1,0-1,0 0,0-1,-10-1,15 2,0 0,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1-1,0 1,0-1,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1-1,-1 1,0 0,1-1,-1 1,1 0,0 0,-1 0,1-1,1 0,2-4,0 1,1-1,-1 1,1 1,0-1,1 1,-1 0,11-6,-6 4,0 0,1 1,-1 0,1 1,0 1,0 0,1 0,-1 1,1 0,-1 1,1 0,-1 1,1 0,0 1,-1 1,1-1,-1 2,0 0,1 0,-1 1,-1 0,1 1,-1 0,0 1,14 9,74 55,-70-52</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3689.24">3123 26,'-5'18,"-6"15,-5 7,0 0,2 3,0-6,1-5,9 2,8-6,9-7,6-8,5-5,2-5,2-2,0-2,0 0,0-1,-5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4249.16">3387 0,'0'23,"0"29,0 24,0 13,0 23,0 6,0-5,-5-11,-1-15,1-17,0-12,2-11,1-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5081.13">3678 423,'11'26,"-2"-9,1 13,-2 1,-2 0,4 34,-5-25,13 45,-18-82,1 0,0 0,0 0,0 0,0 0,0 0,1-1,0 1,-1 0,1-1,0 1,0-1,0 0,1 1,2 1,-3-3,-1-1,1 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1-1,1 1,0-1,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,2-3,12-13,-1-1,-1 0,-1-1,0 0,-2-1,16-37,-6 11,165-368,-160 361</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6693.13">1826 1137,'90'-4,"0"-5,124-28,26-4,-188 35,146-24,-131 17,1 3,92-2,141 13,-121 2,591-3,-728 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 254,'4'0,"7"0,10 0,7 0,3 0,1 0,18 0,11 0,-2 0,-5 0,-3 0,-4 0,-2 0,-5 0,-2 0,-5 0,-2 5,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="668.44">414 764,'8'0,"10"0,9 0,5 0,2 0,1 0,-2 0,2 0,2 0,2 0,0 0,-2 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1462.36">991 688,'0'-4,"9"-2,8 1,11 0,4 2,8 2,-1 0,5 0,-2 1,-3 0,-3 4,-9 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2821.1">2449 178,'1'-3,"1"-1,1 2,-1-2,0 1,1 0,0-1,0 1,0 1,1-1,-1 0,0 2,1-1,-1-1,5-1,-5 3,7-4,1 0,1 0,-1 2,1 0,-1-1,2 2,-2 0,15-1,6 1,59 3,-88-1,-1 0,1 0,-1 0,1 0,-1 1,0-1,2 1,-2-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,0 0,2 3,-2-2,-1 1,1 0,-1 0,0-2,1 2,-2 0,1 0,0 0,-1-1,0 1,0-1,0 0,0 1,0 0,-3 4,-12 21,-1-2,-1 0,-1-1,-2 0,-1-1,-1-1,-1-1,0-1,-2-1,-46 28,53-36,-2 1,-1 1,-25 11,41-23,1-2,-1 2,1-1,-1 0,0-1,0 1,0-1,0 0,0-1,0 1,0-1,0 0,-1-1,-9-1,15 2,0 0,-1 0,1 0,0-1,-1 1,0 0,1-1,-1 1,1-1,0 1,0-1,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,1-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,1-1,-1 1,1 0,0 0,-1 0,1-1,1 0,2-4,0 1,1 0,0 0,0 1,0-1,1 1,-1 0,12-5,-7 3,1 0,0 1,0 1,0 0,1 1,-1 0,1 0,0 1,0 0,0 1,0 0,0 1,0 0,1 1,-2 1,2-1,-2 2,0 0,2 0,-2 1,0 0,0 0,0 1,-1 1,15 8,77 54,-73-51</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3689.24">3247 25,'-5'17,"-6"15,-6 7,0-1,3 4,-1-7,2-4,8 2,10-6,8-7,7-7,5-6,2-4,2-2,0-2,0 0,0-1,-5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4249.16">3522 0,'0'22,"0"28,0 23,0 13,0 22,0 6,0-6,-6-9,0-15,1-17,0-11,2-11,1-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5081.13">3824 407,'12'25,"-3"-8,1 12,-1 1,-3-1,4 34,-4-24,12 42,-18-78,1 0,0 0,0 0,0 0,0 0,1 0,0-1,0 0,-1 1,1-1,0 1,0-1,0 0,1 1,2 1,-3-3,-1-1,2 1,-1-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1-1,1 1,0-1,1 1,-2-1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,2-3,13-12,-2-1,0-1,-2 0,1 0,-3-2,17-34,-6 9,171-353,-166 346</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6693.13">1899 1095,'93'-4,"1"-4,128-28,28-4,-196 35,152-24,-137 16,2 4,95-3,147 13,-125 2,613-3,-756 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21128,7 +21177,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">571 0,'-2'10,"1"-1,-1 1,0-1,-1 0,0 0,-1 0,0-1,-9 17,-2 3,-256 431,209-361,-1-7,33-49,-46 86,72-121,1 0,0 0,1 0,0 0,0 1,-1 10,2-15,1-1,0 0,0 0,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,1-1,0 1,-1-1,1 0,0 1,3 0,14 7,1-1,0-1,0-1,0-1,25 3,109 5,-143-12,-1-1,1 0,-1-1,18-4,-27 5,1 0,-1 0,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,2-2,-2 2,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0 0,0 0,-2-2,-1-3,-35-48,-51-51,81 96,-1 1,0 0,-16-9,11 8,-2-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="395.23">809 1005</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="395.22">809 1005</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1877.07">1392 105,'-8'1,"1"0,0 0,0 0,0 1,0 0,0 0,0 1,1 0,-1 0,1 1,0-1,-1 1,2 1,-7 5,7-7,1 1,0 0,1 0,-1 1,0-1,1 1,0 0,0 0,1 0,-1 0,1 0,0 0,1 1,-1-1,1 1,0-1,0 1,1 8,0-10,1 1,0-1,1 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,1 1,0-1,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,-1 0,1 0,0 0,0 0,0-1,0 1,7 0,7 3,1-1,-1-1,0-1,35 0,-43-2,-1 0,0-1,0 0,1 0,-1-1,0-1,13-4,-19 5,0 1,1-1,-1 0,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,-1 1,0 0,0-1,0 1,0-7,2-12,0 9,-1 0,0 0,-1-1,-1 1,0 0,0-1,-2 1,-4-24,-3 22</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3119.24">1365 502,'-14'0,"-39"4,51-3,-1-1,0 1,1 1,-1-1,0 0,1 0,0 1,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,-1 3,-4 11,0-1,1 1,0 1,1-1,-2 21,-12 94,14-87,2-21,-1 0,2-1,0 1,1 0,4 40,-2-59,-1 0,1 0,0 0,0 0,0 0,1 0,-1-1,1 1,0 0,0-1,0 1,0-1,1 0,0 1,-1-1,1 0,0-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 0,-1-1,1 1,0-1,0 0,0 0,0 0,0-1,8 1,-6-1,1 0,-1 0,1 0,0-1,-1 0,1 0,-1 0,8-3,-10 2,-1 0,0 0,1 0,-1-1,0 1,0-1,0 1,-1-1,1 0,-1 0,1 0,-1-1,0 1,0-1,1-3,42-77,-26 53,-2-2,25-68,-41 96,1-1,-1 1,-1-1,1 0,-1 1,0-1,0 0,-1 1,0-1,0 1,0-1,0 1,-1-1,0 1,-4-8,1 4,0 0,-1 0,0 0,-1 1,0 0,0 0,-11-8,-2-1</inkml:trace>
 </inkml:ink>
@@ -21302,11 +21351,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 107,'7'-7,"1"0,0 1,1 0,-1 0,1 0,0 1,1 1,13-6,2 3,0 1,29-4,-26 6,20-5,1 3,0 1,66 3,-113 2,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,1 0,-1-1,0 1,0 0,0-1,0 1,0 0,0 0,-1 0,2 3,0 5,0-1,-1 1,0 0,0 15,-1-11,3 38,-3 0,-2 0,-2 0,-3 0,-14 55,20-101,-1 0,0 0,-1 0,1 0,-1 0,0-1,0 1,-1-1,0 0,0 0,0 0,0 0,-1-1,-8 7,7-8,-1 0,1 1,-1-2,0 1,0-1,0 0,0-1,0 0,0 0,-1 0,1-1,-12-1,0 0,0 0,-1-2,-22-5,38 7,-1 0,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,-3-7,6 9,-1 1,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,0 0,0 1,1-3,1 0,0 0,1 0,-1 0,1 1,0-1,0 1,8-4,1-1,1 1,1 0,-1 1,19-5,-24 9,0-1,1 2,-1-1,0 1,1 0,-1 1,1 0,-1 1,1 0,-1 0,0 1,1 0,14 6,-11-1,0 0,0 1,0 0,-1 1,0 0,-1 1,18 20,-8-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1135.92">1086 610,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4932.57">2117 81,'-2'28,"-1"-1,-1 0,-12 39,-5 39,19-86,-1-5,1 1,1 0,1 0,0 0,3 18,-3-30,1 1,0-1,0 0,0 1,1-1,-1 0,1 0,0 0,-1 0,1 0,1 0,-1 0,0 0,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,6 1,0 0,-1-1,1 0,0 0,0 0,-1-2,1 1,0-1,0 0,-1-1,1 0,-1 0,1-1,-1 0,0 0,0-1,14-8,-15 6,1-1,-1 1,0-1,-1 0,0 0,0-1,-1 0,0 0,0 0,0-1,-1 0,-1 0,0 0,0 0,2-14,0-12,-1 0,-3-1,0 0,-8-55,7 86,-1-1,0 0,-1 1,1-1,-1 1,0 0,-1-1,1 1,-1 0,0 0,0 0,0 1,-1-1,0 1,0 0,0 0,0 0,-1 0,-5-3,-7-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6405.56">2303 478,'-10'0,"1"0,0 0,0 1,0 0,0 1,0 0,-13 5,18-6,1 1,0 0,0 0,0 1,0-1,1 0,-1 1,1 0,-1-1,1 1,0 0,0 0,0 0,1 1,-1-1,1 0,-1 1,1-1,0 1,0-1,0 7,-3 12,2 1,0-1,1 0,1 1,1-1,2 0,6 34,-7-52,0 0,1-1,-1 1,1-1,-1 1,1-1,0 0,0 0,1 0,-1 0,1-1,-1 0,1 1,0-1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,1 0,-1-1,5 1,12 0,0 0,0-1,33-5,-51 5,1-1,0 0,-1 0,1 0,-1 0,1-1,-1 0,0 1,1-1,-1 0,0 0,0-1,0 1,-1-1,1 1,-1-1,1 0,1-3,0 0,-1 0,0 0,-1 0,1 0,-1 0,0 0,-1-1,1 1,-1-1,0-7,-1 8,1 0,-1-1,0 1,-1-1,1 1,-1 0,-1-1,1 1,-1 0,0 0,0 0,-1 0,0 1,0-1,0 0,-1 1,0 0,0 0,0 0,0 1,-1-1,-8-5,-67-19,51 17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14051.17">1641 134,'-1'-2,"1"1,-1-1,0 0,1 0,-1 0,0 0,0 1,0-1,-1 0,1 1,0-1,0 1,-1-1,1 1,-1 0,0-1,1 1,-1 0,0 0,1 0,-1 0,0 1,0-1,0 0,-2 0,-1-1,-1 1,0-1,1 1,-1 0,0 0,1 1,-11 0,11 1,1-1,-1 1,1 0,-1 1,1-1,0 1,0 0,-1 0,1 1,1-1,-1 1,0-1,1 1,-1 0,1 1,0-1,0 1,0-1,1 1,-1 0,1 0,0 0,0 0,0 0,0 1,1-1,0 0,-1 6,-2 12,2 0,1 1,0-1,4 36,0-14,-4 0,0-28,1 1,0-1,5 28,-4-39,1-1,-1 1,0-1,1 0,0 1,0-1,0 0,1 0,-1-1,1 1,0 0,0-1,0 0,1 1,-1-1,1-1,6 5,13 7,1-2,29 12,-47-21,0-1,1 0,-1 0,1-1,-1 0,1 0,0 0,-1-1,1 0,0 0,-1-1,1 0,0 0,9-3,-13 2,-1 1,1-1,-1 0,1 0,-1 0,0 0,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0-3,1-14,-1 0,-3-30,1 21,2-32,0 27,-5-53,3 78,1 0,-1-1,-1 1,1 0,-2 1,1-1,-1 0,0 1,-1 0,-8-10,10 14,-1 1,1 0,-1 0,0 0,0 0,-1 1,1 0,0 0,-1 0,1 0,-1 1,0 0,0 0,1 0,-1 0,0 1,-7 0,-10-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 104,'7'-7,"2"1,0 0,0 0,0 0,0 0,1 1,1 2,13-7,3 3,0 1,30-4,-27 6,22-4,0 2,0 1,71 3,-121 2,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,1 0,-1 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,0 1,0 0,-1-1,0 0,0 1,0-1,0 1,0 0,0 0,-1 0,2 3,0 5,1-1,-2 0,0 1,0 14,-1-10,3 37,-3-1,-2 1,-2 0,-4 0,-14 53,21-98,-2 0,1-1,-1 1,1 0,-1 0,0-1,-1 1,0-2,0 1,0 0,-1 0,1 0,-1-1,-9 7,7-8,0-1,0 2,0-2,-1 1,1-1,-1 0,1-1,0 0,-1 0,-1 0,2-1,-13-1,-1 0,1 0,-1-2,-24-5,41 7,-2 0,2-1,-1 2,0-2,1 0,0 0,-1 0,1 0,0-1,0 1,0-1,0 0,1 0,0-1,0 1,-1-1,1 1,0 0,-3-8,6 9,-2 1,2-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,2-1,-2 1,1-1,0 0,0 0,0 1,1-3,1 0,0 0,2 0,-2 0,1 1,0-1,1 2,7-5,2-1,1 1,1 0,-1 1,21-4,-27 8,1-1,1 2,-2-1,1 1,0 0,0 1,1 0,-2 1,2 0,-1 0,-1 1,2 0,15 6,-12-2,-1 1,1 1,0 0,-1 1,0-1,-1 2,19 19,-9-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1135.92">1161 595,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4932.57">2263 79,'-2'27,"-2"0,0-1,-13 38,-5 39,19-85,0-4,1 0,1 1,1 0,0-1,3 18,-3-29,1 1,0-1,0 0,1 1,0-1,-1 0,1 0,0 0,-1 0,1 0,1-1,0 1,-1 0,1-1,-1 0,1 1,0-1,1 0,-1 0,0 0,0-1,0 1,1-1,-1 0,1 0,-1 0,7 1,0 0,-2-1,2 0,-1 0,1 0,-1-2,0 1,1-1,-1 0,0-1,1 0,-2 0,2-1,-2 0,1 0,-1-1,16-8,-17 7,2-2,-2 1,1-1,-2 0,1 0,-1 0,0-1,-1 0,0 0,1-1,-2 1,-1-1,0 0,0 0,3-13,-1-12,-1 0,-3-1,1 0,-10-54,8 84,-1-1,0 0,-1 1,1 0,-1 0,-1 0,0-1,1 1,-1 0,0 0,-1 0,1 2,-1-2,0 1,-1 0,1 0,0 0,-1 0,-6-3,-7-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6405.56">2462 466,'-11'0,"1"0,1 0,-1 1,0 0,1 1,-1 0,-13 5,18-6,2 1,0-1,0 1,0 1,-1-1,2 0,-1 1,1 0,-1-1,1 1,-1 0,1 0,0 0,1 1,-1-1,1-1,-1 2,1-1,0 1,-1-1,1 7,-3 11,2 2,0-2,1 1,1 0,1-1,2 1,7 33,-8-52,0 1,1-1,-1 1,2-1,-2 1,1-1,0 0,0 0,2 0,-2 0,1-1,-1-1,2 2,-1-1,0 0,0-1,1 1,-1-1,0 0,0 0,1 0,0 0,-1-1,6 1,12 0,1 0,-1-1,36-5,-55 5,1-1,1 0,-2 0,1 0,-1 0,2-1,-2 0,0 1,1-1,0 1,-1-1,0-1,0 1,-1-1,2 1,-2-1,1 0,1-3,0 0,0 0,-1 1,-1-1,1 0,-1 0,1 0,-2-1,1 2,-1-2,0-7,-1 8,1 0,-1 0,0 0,-1-1,1 1,-1 0,-1-1,1 1,-2 1,1-1,0 0,-1 0,0 1,0-1,-1 1,0 0,0 0,0 0,-1 0,1 1,-1-1,-9-4,-72-20,55 18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14051.17">1754 131,'-1'-2,"1"1,-1-1,0 0,1 0,-1 0,0 0,0 1,-1-1,0 0,1 1,0-1,0 1,-1-1,1 1,-1 0,0-1,1 1,-2 0,1 0,1 0,-1 0,0 1,0-1,0 1,-3-1,0-1,-1 1,-1-1,2 1,-2 0,1 0,1 1,-12 0,11 1,2-1,-1 1,0 0,0 1,1-1,-1 1,1-1,-1 1,1 1,0-1,0 1,0-1,1 1,-2 0,2 1,0-1,0 1,0-1,0 1,0-1,1 1,0 0,0 0,0 0,-1 1,2-1,0 0,-1 5,-2 13,2-1,1 2,0-2,4 36,0-14,-4 0,0-28,1 2,0-2,5 28,-4-38,1-1,0 1,-1-1,1 0,0 1,0-2,0 1,1 0,0-1,0 1,0 0,0-1,0 0,2 1,-2-1,1-1,7 4,13 8,2-2,31 11,-51-20,1-1,0 0,-1 0,2-1,-2 0,2 0,-1 0,0-1,0 0,1 0,-2-1,2 0,-1 0,10-3,-14 2,-1 1,2-1,-2 0,1 0,-1 0,0 0,0-1,1 1,-1-1,0 2,0-2,-1 1,1-1,-1 0,0 0,0 0,0 0,1 0,-1 0,-1 0,1 0,-1 0,0-2,1-15,-1 1,-3-30,0 21,3-32,0 27,-5-52,3 76,1 1,-1-2,-1 1,0 0,-1 2,1-2,-1 0,-1 1,0 0,-9-9,11 13,-1 1,0 0,0 0,0 0,0 0,-2 1,2 0,0 1,-2-1,2 0,-1 1,-1 0,1 0,1 0,-2 0,1 1,-8 0,-10-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21360,7 +21409,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2805,'12'307,"0"-66,-11-170,0 50,6-1,28 163,-17-194,-4-15,44 135,-55-200,0-1,0 1,1-1,0 0,0 0,1 0,0 0,0-1,1 0,0 0,0 0,1-1,0 0,0 0,0-1,1 0,0 0,0-1,0 0,0 0,1-1,-1 0,1 0,9 1,407 104,-320-76,-73-20,-1-2,1-2,60 9,174 16,777 14,-277-22,-652-19,844 93,-812-77,164 22,-308-44,0 1,0-1,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1-1,-1 1,0-1,0 0,0 0,0 1,0-1,0-1,0 1,0 0,0 0,0-1,-1 1,1-1,0 1,-1-1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-4,0-6,0-1,-1 1,0-1,-1 1,-3-20,1 2,-2-71,5-1,5 1,3 1,6-1,32-124,45-210,-29 135,-31 144,-19 73,-3 1,-5-2,-7-112,0 46,4 90,0 21,-2 1,-6-52,6 86,1 0,-1 0,0 1,-1-1,1 0,-1 0,1 1,-1-1,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,-1 0,0 1,0-1,-6-1,-7-1,-1 2,0 0,0 0,-32 3,33 0,-1-1,1-1,0 0,-19-5,0-6,1-1,0-1,-48-29,82 42,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1-2,1 2,1 1,-1-1,1 0,-1 1,0-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,1 0,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,1 0,57-4,-52 4,264 2,88-2,-358 0,45-5,-44 5,0-1,0 1,-1 0,1-1,0 1,0-1,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,0-1,1 1,-1-2,-1 2,0-1,-1 1,1 0,-1 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,-3-1,-2-1,-276-122,184 77,-303-136,392 179,-9-3,0-1,-25-15,42 23,0 0,1 0,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,0 0,0-1,1 2,0-1,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,2-1,58-5,-58 6,209-2,178-13,-388 16,0-1,0 0,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0-1,2-1,-2-1,-1 1,0-1,0 1,0-1,0 1,-1-1,1 1,-1-1,0 1,-3-7,-7-41,2 0,3-1,-1-63,1 10,-16-735,21 795,-2-1,-2 1,-2 0,-18-62,24 104,1 0,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,1 1,-1 0,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,-1 0,0 1,1-1,-5-1,1 2,0 1,0-1,0 1,0 0,-1 1,1-1,0 1,0 1,-11 3,-33 4,0-2,0-2,-1-2,-83-6,18 0,-1976 3,355 0,1732 0,-1 0,1 0,-1 0,1 1,0 0,-1 0,1 0,0 0,-10 5,12-4,1 0,0 0,0 0,-1 0,2 1,-1-1,0 1,0-1,1 1,-1 0,1 0,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,0 5,-8 108,7-68,-12 68,-48 240,54-324,-2 1,-21 50,18-55,2 1,1 1,-8 42,9-11,-4 0,-21 64,19-79,1 0,2 1,3 1,1 0,3 0,2 57,1-30,0-49,1 0,0 1,9 42,-4-49</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2697,'12'295,"1"-63,-12-164,0 49,6-2,29 157,-17-186,-5-15,46 130,-57-193,0 0,0 1,2-2,-1 1,0 0,1 0,0-1,0 0,2 0,-1-1,0 1,1-1,0 0,1-1,-1 0,1 0,0 0,1-1,-1 0,0-1,1 0,0 0,0 0,10 1,419 100,-329-73,-76-20,-1-1,1-3,62 10,180 14,801 15,-285-22,-673-19,871 91,-838-75,169 21,-318-42,0 1,0-1,1 0,-1 0,0 0,2 0,-2 0,0 0,0 0,1-1,-1 1,0-1,0 0,0 0,0 1,0-1,0-1,0 1,0 0,0 0,1 0,-2 0,1-1,0 1,-1-1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-5,0-6,0 0,-1 0,0 0,-1 0,-3-19,1 3,-2-70,5 0,5 1,3 1,7-1,32-119,47-203,-30 131,-32 138,-19 70,-4 1,-5-2,-7-107,0 44,4 86,0 21,-2 0,-6-49,6 82,1 0,-1 0,-1 1,0-1,1 0,-1 1,1 0,-1-1,0 1,-1-1,1 1,-1 0,1 0,-1 1,0-1,0 0,-1 1,1-1,-1 1,1 0,0 0,-1 0,0 1,0-1,-7 0,-6-2,-2 2,1 0,-1 0,-33 3,35 0,-2-1,2-1,-1 0,-19-5,0-5,1-2,-1 0,-48-29,84 41,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1-2,1 2,1 1,-1-1,1 0,-1 1,0-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,1 0,1 0,-2-1,1 1,0 0,0 0,-1-1,1 1,1 0,59-3,-54 3,273 1,90-1,-369 0,47-4,-46 4,0-1,0 1,-1 0,1-1,0 1,0-1,-1 1,1-1,0 0,-1 0,2 0,-2 0,1 0,-1 0,1 0,-1-1,0 1,0 0,0-1,1 1,-1-2,-1 3,0-2,-1 1,1 0,-1 0,0 0,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,-1-1,1 0,-1 1,1-1,0 1,-3-1,-2-1,-285-117,190 74,-313-131,404 172,-8-3,-1 0,-25-15,43 22,0 0,1 0,-1-1,0 1,1-1,-1 1,0 0,1-1,-1 1,-1-1,2 1,-1-1,1 0,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,0 0,0-1,1 2,0-1,-1 0,1 0,0 0,0 1,1 0,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,2-1,60-5,-60 6,216-2,184-12,-401 15,0-1,0 0,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,0 0,0-1,2-1,-2-1,-1 2,0-2,0 1,0-1,0 1,-1-1,1 1,-1-1,0 2,-3-8,-8-39,3 0,3-1,-1-61,0 10,-15-706,21 763,-3 0,-1 1,-2 0,-19-60,25 100,1 0,-1 0,0 0,0 0,0 0,0 1,-1 0,1-1,-1 0,1 1,-1 0,0-1,0 1,0 0,0 0,-2 0,2 1,0-1,-1 0,0 1,1-1,-5-1,1 2,-1 1,1-1,0 1,0 0,-1 1,0-1,1 1,0 1,-11 3,-35 3,0-1,1-2,-2-2,-85-6,18 0,-2040 3,366 0,1789 0,-1 0,1 0,-1 0,0 1,1 0,-1 0,1 0,0 0,-11 5,13-5,1 1,0 0,0 0,-1 0,2 1,-1-1,0 1,0-1,1 1,-1 0,1-1,-1 0,1 1,0 0,0 0,1 0,-1 0,1 0,0 4,-8 105,7-66,-12 66,-50 230,55-311,-1 0,-22 49,19-53,1 1,2 1,-8 40,8-10,-3-1,-22 63,19-77,2 0,2 1,2 1,2 1,3-1,2 55,1-29,0-47,1 0,0 1,9 40,-4-47</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21387,13 +21436,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4234 2832,'17'2,"1"0,-1 1,0 1,0 1,0 0,-1 1,18 9,3 0,166 70,223 77,-355-140,-36-10,0-2,44 8,-64-17,0 1,0-2,0 0,0-1,0 0,0-1,-1-1,1 0,14-6,118-47,-3-7,259-154,-393 210,-1-1,-1 0,0 0,0-1,0 0,-1-1,-1 0,1 0,-2 0,1-1,-2 1,6-17,27-48,20-17,20-32,67-143,-125 223,-1 0,-2 0,-3-2,-1 0,-2 0,-3-1,4-72,-17-458,5 564,0 0,0 1,-1-1,-1 0,0 1,-1-1,0 1,-1 0,-8-15,8 18,-1 1,0 0,-1 1,0-1,0 1,0 0,-1 1,0 0,0 0,-1 0,0 1,-14-6,-111-41,-175-44,270 88,0 2,0 2,-1 2,-78 4,31 0,-245-2,-183 2,373 8,108-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="868.12">4763 0,'-6'10,"0"-1,0 0,-1-1,0 1,-10 8,-10 13,-126 158,-113 133,249-302,-46 57,59-71,1 0,0 0,0 0,0 0,1 1,-1-1,1 1,1 0,-1-1,1 1,0 0,0 0,1 6,1-8,0 0,0 0,0 0,1 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,0-1,1 1,-1-1,1 0,-1 0,7 3,9 4,0-1,33 9,-51-16,543 180,-493-161,82 28,-107-41</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2418.83">1774 821,'85'0,"1"4,-1 3,0 4,88 23,-102-18,1-3,1-4,0-3,0-3,0-3,73-10,-81 3,0 4,0 2,119 14,-124-4,-36-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3802.28">2171 1509,'4'0,"6"0,11 0,5 0,13 0,4 0,3 0,-1 0,1 0,-4 0,1 5,-3 1,-4-1,-2 4,-4 1,-2-2,-1-3,-6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17827.96">1 741,'18'0,"0"-2,0 0,-1-1,1-1,0-1,29-12,97-54,-80 36,-12 7,88-41,-125 62,1 1,0 1,0 0,0 2,1-1,31 0,-45 4,-1 0,1 0,0 1,-1-1,1 1,-1 0,1-1,-1 1,1 1,-1-1,0 0,1 0,-1 1,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,-1 0,0 1,1-1,-1 0,0 1,0-1,0 1,0 3,3 9,-2 0,0 0,0 0,-1 17,-1-13,2 458,-4-313,2-143,-1 0,-1 0,0 0,-9 31,7-41,0 0,-1 0,0-1,0 0,-1 0,-1 0,0-1,0 0,-15 15,11-13,-1 1,0-2,-1 1,-1-2,1 0,-19 9,26-15,0-1,-1 0,0 0,1 0,-1-1,0 0,0 0,0-1,0 0,0 0,1 0,-1-1,0 0,0-1,1 1,-1-1,-9-5,13 6,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0-1,1 1,-1-1,0 0,1 0,-2-3,3 5,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,1-1,0 0,1 0,-1 0,1 0,0 0,0 0,0 1,0 0,0-1,0 1,4-1,8-2,1 1,0 0,0 1,0 1,0 0,0 1,0 1,0 1,0 0,0 1,0 0,29 12,3 5,-2 2,73 46,-114-65,31 20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18684.34">1297 768,'-73'112,"6"3,-71 164,129-258,-19 53,26-69,0 0,1 1,0-1,0 0,1 1,-1-1,1 1,0-1,1 1,1 10,-1-15,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0 0,0-1,0 0,-1 1,5-1,47 2,-41-3,366-8,-353 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19461.2">1668 1006,'0'-4,"-14"7,-9 21,0 20,-1 16,4 7,5 1,-4-6,2-10,3-4,4 3,4 1,3-2,-3-2,0 0,1-3,1-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4396 2720,'17'2,"2"0,-1 0,-1 2,1 1,0 0,-2 1,20 8,2 0,173 68,231 74,-368-135,-38-10,0-1,46 7,-66-16,0 1,-1-2,1 0,-1-1,1 0,-1-1,0-1,1 0,14-5,122-46,-2-6,268-149,-407 202,-2 0,-1-1,1 0,-1 0,0-1,-1-1,0 1,0-1,-2 1,1-2,-2 1,7-15,27-47,21-17,21-30,70-137,-130 213,-2 1,-1 0,-4-2,0 0,-3-1,-2 0,3-69,-17-440,5 541,0 1,0 0,-1 0,-2-1,1 2,-1-2,0 2,-1-1,-9-14,9 18,-1 0,0 0,-2 2,1-2,0 1,0 1,-2 0,1 0,0 0,-2 1,1 0,-15-6,-115-39,-182-42,281 84,-1 3,1 1,-2 2,-80 4,31 0,-253-2,-191 2,388 7,111-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="868.12">4945 0,'-6'10,"0"-2,-1 1,0-1,0 0,-11 9,-10 11,-131 153,-117 127,258-290,-47 55,61-68,1 0,0 0,0 0,-1-1,2 2,-1-1,1 1,1-1,-1 0,1 1,0 0,0 0,1 5,1-7,0 0,0 0,0-1,1 1,0 0,0-1,0 1,0-1,1 1,0-2,-1 1,1 0,0 0,0 0,0-1,1 1,-1-1,2 0,-2 0,7 2,10 5,0-1,34 8,-53-15,563 173,-511-155,85 27,-111-39</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2418.83">1842 788,'88'0,"1"4,0 3,-1 4,91 21,-105-16,1-4,1-3,-1-4,1-2,0-3,76-9,-85 2,1 4,-1 2,124 14,-129-5,-37-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3802.28">2254 1449,'4'0,"6"0,12 0,5 0,14 0,3 0,4 0,-1 0,1 0,-5 0,2 5,-4 1,-3-1,-3 3,-4 2,-2-3,-1-2,-6-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17827.96">1 712,'19'0,"-1"-2,1 0,-1-1,0-1,1-1,30-11,100-52,-82 34,-13 7,91-39,-129 59,0 1,1 2,0-1,-1 2,2-1,32 0,-47 4,-1 0,1 0,0 1,-1-1,1 1,-1 0,1-1,0 1,0 1,-1-1,0 0,1 0,-1 1,0 0,0-1,0 1,0 0,0 0,-1-1,2 1,-1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,0 1,0 2,3 10,-2-1,0 1,0-1,-1 17,-1-13,2 440,-4-300,2-138,-1 0,-1 0,0 0,-9 30,7-39,-1-1,0 1,0-2,0 1,-1 0,-2-1,1 0,0 0,-16 14,12-13,-2 2,1-3,-2 2,0-3,0 1,-19 8,27-14,-1-1,0 0,0 0,1 0,-2-1,1 0,0 0,0-1,-1 0,1 0,1 0,-1-1,-1 0,1-1,1 1,-1-1,-10-5,14 6,0 1,0-1,-1 0,1-1,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,-1-1,2 2,-1-2,0 0,1 0,-2-3,3 5,0 0,0 0,0 0,0-1,0 1,0 0,0 1,0-1,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,1-1,0 0,2 0,-2 0,1 0,0 1,0-1,0 1,0 0,0-1,0 1,5-1,7-2,2 1,0 0,-1 1,1 1,-1 0,1 1,0 1,-1 1,1 0,-1 1,1 0,30 11,3 6,-3 1,77 44,-119-62,32 19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18684.34">1347 738,'-76'107,"6"4,-73 156,134-246,-21 50,28-66,0-1,1 2,0-1,0 0,1 0,-1 0,1 1,0-1,1 1,1 9,-1-14,0 1,0 0,0-1,0 1,1-1,-1 0,0 0,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0 0,0-1,0 0,0 1,4-1,49 2,-43-3,381-8,-367 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19461.2">1732 966,'0'-4,"-15"7,-9 20,0 19,-1 16,5 6,4 2,-4-7,3-9,2-4,5 3,4 1,3-2,-4-2,1 0,1-2,1-11</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21421,7 +21470,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">322 399,'-2'62,"-3"0,-22 105,-45 113,63-248,-171 556,162-541,12-43,4-13,2-21,23-89,75-225,-40 161,-7 16,125-278,-134 356,58-111,-98 196,0 0,0 1,1-1,-1 1,1-1,0 1,0 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1 0,0 0,0 0,8-2,-8 4,1 0,-1 0,0 0,0 1,-1-1,1 1,0 0,0 0,0 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,0 1,0 0,3 3,3 2,-1 2,-1-1,1 1,-2 0,1 0,-1 1,-1 0,0 0,-1 1,0-1,-1 1,0 0,2 16,0 19,-1 0,-4 53,-1-56,0 62,-17 112,10-167,-2-1,-2 0,-2 0,-26 61,34-98,0-1,-1 1,0-1,-1 0,0-1,-1 0,0 0,-1-1,0 0,0-1,-1 0,-16 10,11-10,0-2,0 0,-1 0,0-1,0-1,0-1,-1-1,0 0,-22 0,4-4,30 0,1 0,-1 1,0-1,0 1,0 1,0-1,0 1,0 0,1 0,-1 1,0 0,-5 2,10-3,1-1,0 1,-1 0,1-1,-1 1,1-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1-1,-1 1,0 0,0-1,1 1,-1 0,0-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 1,23 21,-20-18,107 84,-71-59,-2 2,-1 2,35 40,-3 15,-53-66</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="536.95">904 1193,'4'0,"7"0,5 0,5 0,7-4,5-2,4 1,1 0,3 2,13 1,10 1,-1 0,-7 1,-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="536.94">904 1193,'4'0,"7"0,5 0,5 0,7-4,5-2,4 1,1 0,3 2,13 1,10 1,-1 0,-7 1,-12 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1157.7">1116 1167,'-5'5,"-1"37,1 25,0 19,2 0,1-7,1-7,0-11,1-12,1-9,3-12,2-11</inkml:trace>
 </inkml:ink>
 </file>
@@ -21476,8 +21525,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 954,'0'-2,"0"0,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,1 0,-1 1,0-1,1 0,-1 1,1 0,-1-1,1 1,0 0,0 0,0 0,2-1,48-21,-42 19,35-8,-36 11,0-1,-1 0,1-1,-1 0,0 0,8-5,34-23,-3-2,-1-2,-1-2,-2-3,62-71,-26 12,100-165,-177 259,1 0,0 0,0 0,1 0,-1 1,1-1,0 1,0 0,0 0,1 0,0 1,-1-1,1 1,0 0,1 1,-1-1,0 1,1 0,-1 0,1 1,0 0,0 0,-1 0,1 0,9 1,9-3,0-1,-1-2,0 0,0-2,36-16,-33 12,0 2,1 1,44-10,19 6,0 4,1 4,107 8,-170 0,0 2,0 1,-1 1,50 19,-24-3,70 40,-37-14,120 91,-181-120,-1 1,-1 1,-1 1,-1 1,-1 1,-1 0,-1 2,26 52,-21-27,-2 0,19 73,8 42,9 39,-49-165,-1 0,-2 1,0 49,-7 616,0-687,0 1,0 0,-2-1,-1 1,-1-1,0-1,-1 1,-1-1,-18 30,3-11,-2-1,-1-2,-46 49,55-70,1 0,-2-1,0-1,0-1,-1-1,0 0,-1-1,0-1,-24 6,-35 15,35-10,-259 96,261-103,-1-1,-1-3,1-1,-1-2,-62-2,101-3,-336-19,282 11,0-2,0-2,-96-35,99 27,22 9,0-1,1-2,1-1,-55-36,61 28</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1049.85">874 2462,'-1'0,"-31"2,1-2,-1-2,0-1,1-1,-1-2,-37-12,23 1,-68-20,113 36,1 1,-1 0,0-1,1 1,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1-1,-1 1,0-1,0 1,1 0,-1-1,1 1,0 0,28 48,-25-43,19 27,2-1,1-1,1-1,52 43,-43-40,-27-24,0 0,1 0,0-1,0-1,14 8,-9-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 912,'0'-2,"0"0,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 1,2-1,-2 1,0-1,1 0,-1 1,1 0,-1-1,1 1,0 0,0 0,1 0,1-1,51-20,-44 18,36-7,-37 10,-1-1,0 0,0-1,0 1,-1-1,9-5,36-22,-3-1,-1-3,-1-1,-3-3,67-68,-29 11,107-157,-188 247,2 0,-1 0,0 1,1-1,-1 1,2-1,-1 2,0-1,0 0,2 0,-1 1,-1-1,1 1,1 1,0 0,-1-1,1 1,0 0,-1 0,2 1,-1 0,0 0,0 0,0 0,10 1,10-3,-1 0,-1-3,1 0,-1-1,39-16,-36 11,1 3,0 0,48-9,19 5,1 5,0 3,114 8,-180 0,0 2,-1 0,0 2,53 18,-26-3,74 38,-39-13,128 87,-193-115,0 1,-2 1,0 1,-2 1,-1 1,-1-1,-1 3,28 50,-23-27,-1 1,19 70,9 39,9 38,-51-158,-2 0,-1 2,-1 46,-7 588,0-656,0 1,-1 0,-1 0,-1 0,-1-1,-1-1,0 1,-2-1,-18 29,2-11,-1 0,-2-3,-48 47,58-66,1-1,-2 0,0-2,0 0,-2-2,1 1,-1-2,0 0,-26 5,-37 15,38-10,-276 92,278-98,-2-2,0-2,0-2,-1-1,-65-2,107-3,-357-18,299 10,1-1,-1-3,-101-33,104 26,24 9,0-2,1-1,1-2,-58-33,65 26</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1049.84">927 2353,'-1'0,"-33"2,1-2,-1-2,0-1,1-1,-1-2,-39-11,24 1,-72-19,120 34,1 1,-1 0,0-1,1 1,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 0,-1 0,2 1,-1-1,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,1-1,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 1,1-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1-1,-1 1,0-1,0 1,1 0,-1-1,1 1,0 0,30 45,-27-40,21 26,1-2,2 0,0-1,56 40,-46-37,-28-24,-1 1,2 0,0-2,-1 0,16 7,-11-7</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21538,9 +21587,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 327,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2950">663 512,'37'-21,"-1"-3,0-1,-2-1,-1-2,45-50,-30 31,3-4,-13 13,0 1,3 2,47-31,-79 60,1 1,-1 1,1 0,-1 0,1 1,0 0,1 1,-1 0,0 1,1 0,-1 0,0 1,18 2,-13 0,-1 1,0 1,1 0,-1 0,-1 2,1 0,-1 0,24 16,33 20,23 16,-85-51,1-1,-2 1,1 1,-1-1,0 2,0-1,-1 0,5 11,58 132,-17-31,-39-90,-2 0,0 1,-2 1,5 33,13 135,-12-69,4 63,-7 270,-13-377,1-85,1 9,-1-1,-1 0,0 0,0 0,-4 12,4-19,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,0 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0-1,-4 2,-157 43,39-13,73-20,0-2,0-2,-1-2,0-3,-83-4,104 0,4 0,0-1,1-1,-54-11,72 11,0-1,0-1,0 0,0 0,1 0,0-1,0-1,0 1,1-1,0 0,0-1,0 0,1 0,0 0,-8-14,-24-44,18 32</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4185.99">1245 1676,'-74'1,"35"2,1-3,-1-1,1-2,0-2,-67-16,103 20,-1 1,1-1,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,1 1,-1-1,1 1,-1 0,1-1,0 1,0 0,0 0,-2 3,-2 7,0 1,0 0,1 0,-3 19,2-11,-18 78,-15 163,37-255,0 0,1-1,-1 1,2 0,-1-1,1 1,0 0,0-1,1 1,2 6,-2-10,0-1,0 1,0 0,0-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,5-1,24 2,-1-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 312,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2950">691 488,'39'-20,"-2"-3,1-1,-3 0,-1-3,48-48,-32 31,3-5,-14 13,1 1,3 1,49-29,-83 58,1 0,0 1,0 0,0 0,0 2,0-1,2 1,-2 0,1 1,0 0,0 0,-1 1,19 2,-13 0,-2 1,1 0,1 1,-2 0,0 2,0 0,0-1,24 16,35 19,24 16,-88-50,0 0,-2 1,2 0,-2 0,0 1,1 0,-2 0,5 10,61 126,-18-30,-40-85,-3-1,1 2,-3 0,6 32,13 129,-12-66,3 60,-6 257,-14-359,1-81,1 8,-1 0,-1-1,0 1,0 0,-4 11,4-19,0 1,-1 0,0 0,1 0,-1 0,0-1,0 0,0 1,0-1,-1 1,1-1,-1 0,1 0,-2 0,1 0,1 0,-1-2,0 2,0-1,-4 2,-164 41,40-13,77-18,0-3,0-1,-2-2,1-4,-87-3,109 0,4 0,0-1,1 0,-57-12,76 11,-1-1,1 0,0-1,-1 0,2 0,0-1,-1 0,1 0,1-1,-1 0,1 0,0-1,1 0,-1 1,-7-14,-26-42,19 30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4185.99">1298 1598,'-78'1,"38"1,0-2,0-1,0-1,0-3,-69-15,107 19,-1 1,1-1,0 1,-1-1,1 1,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 1,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 1,-1-1,1 1,-2 0,2-1,0 1,0 0,0 0,-2 2,-2 8,0 0,0 1,0-1,-2 19,2-11,-19 74,-16 156,39-244,0 1,1-1,-1 0,2 1,-1-1,1 1,0-1,0 0,1 1,3 5,-3-9,0-1,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,2 0,-2 0,1 0,0-1,0 1,0-2,0 1,0 0,0 0,1 0,-1 0,1-1,-1 1,5-1,26 2,-2-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21704,9 +21753,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 533,'751'0,"-714"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1713.03">1668 136,'0'-1,"1"-1,0 1,0-1,0 1,0-1,0 1,1 0,-1 0,0 0,1-1,-1 1,1 0,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 0,0 1,-1 0,4-1,3-1,72-29,89-29,-147 54,0 2,0 0,0 1,0 1,0 1,24 2,-41 0,1 0,0 1,-1-1,1 1,-1 0,0 1,1-1,-1 1,-1 0,1 0,0 1,-1-1,1 1,-1 0,0 1,0-1,-1 0,1 1,-1 0,0 0,-1 0,3 6,2 4,-1 0,0 1,-2 0,0 0,-1 0,3 26,-1 12,-3-1,-1 1,-3 0,-15 88,15-136,0-1,0 0,0 0,-1 0,0 0,0 0,0-1,0 1,-1-1,1 0,-1 0,0 0,-1-1,1 1,-1-1,1 0,-8 3,-10 5,-1-1,-41 12,11-5,-367 116,407-130,0 0,-1 0,-21 0,33-3,0 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 0,0 0,-2-2,4 2,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,0-2,2-2,1 0,-1 0,1 1,0-1,0 1,0 0,0 0,1 0,0 1,0-1,0 1,0 0,0 1,1-1,-1 1,1 0,0 0,6 0,4-2,1 1,-1 0,1 1,0 1,22 2,-26 0,-1 1,1 0,-1 1,0 1,0 0,22 11,65 45,-67-39,48 24,-33-22,4 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2800.02">2541 851,'7'10,"0"1,0-1,0 1,-2 0,1 0,-1 1,-1 0,5 22,4 7,-8-29,21 52,-24-60,0 0,0-1,1 1,-1 0,1-1,0 0,0 0,0 0,0 0,0 0,1 0,6 3,-8-6,-1 1,1-1,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,0-1,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,0-1,1 1,-1 0,2-2,35-41,-28 31,78-84,-41 48,-3-2,-1-1,50-84,-86 123,-1 0,-1 0,0-1,-1 1,0-1,3-24,-4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 513,'792'0,"-753"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1713.03">1759 131,'0'-1,"1"-1,0 1,0-1,0 1,0-1,0 1,2 0,-2 0,0 0,1-1,-1 1,1 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,1 0,1 1,-2 0,4-1,3-1,77-28,93-28,-155 52,0 3,1-1,-1 1,0 1,0 1,26 2,-44 0,1 0,1 1,-2-1,1 1,-1 0,1 1,0-2,-1 2,0 0,0 0,0 1,-1-1,2 1,-2 0,0 0,0 0,-1 0,2 1,-2 0,0-1,-1 1,3 6,3 3,-2 1,0 0,-1 1,-1-1,-1 0,3 26,0 11,-4-1,-1 1,-3 0,-16 84,16-130,0-1,-1 0,1-1,-1 1,0 0,0 0,0-1,-1 1,0-2,1 1,-1 0,0 0,-2-1,2 1,-1-1,1-1,-9 4,-10 5,-1-2,-44 13,12-6,-387 112,430-125,-1 0,-1 0,-22-1,35-2,0 0,0 0,1 0,-1 0,0 0,-1 0,1-1,0 1,0-1,1 1,-1-1,0 0,0 0,-3-2,5 2,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,0-2,3-2,0 0,-1 1,1 0,0-1,1 1,-1 0,0 0,1 0,1 2,-1-2,0 1,0 0,1 1,0-1,-1 1,2 0,-1 0,7 0,4-1,0 0,0 0,1 1,0 1,23 2,-27 0,-1 1,0 0,0 1,0 0,-1 1,24 11,69 42,-72-36,52 22,-36-21,5 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2800.02">2680 819,'7'9,"1"2,-1-1,0 0,-1 1,0-1,-1 2,-1 0,6 20,4 8,-9-29,22 51,-25-58,1 0,-1-2,1 2,-1 0,1-1,0 0,0 0,1 0,-1 0,0-1,1 1,7 3,-9-6,-1 1,1-1,0 0,0 0,0 0,0 0,-1-1,2 1,-1 0,0-1,-1 1,1-1,0 0,-1 1,1-1,0 0,-1 0,1 0,-1 0,1-1,0 1,-1 1,2-3,37-40,-30 31,83-82,-43 47,-4-2,0-1,52-81,-91 119,-1-1,0 1,-1-2,-1 2,0-2,4-22,-5 3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21733,17 +21782,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 582,'4'0,"6"0,7 0,3 0,4 0,3 0,0 0,0 0,6 0,0 0,4 0,1 0,-2 0,-3 0,-2 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1788">583 370,'5'0,"0"-2,0 1,1 0,-1-1,0 0,0-1,0 1,8-6,5-2,110-61,-91 48,0 2,2 2,69-25,-96 40,70-16,-77 19,0 0,1 0,-1 1,1 0,-1 0,0 0,1 1,-1 0,0 0,0 0,1 1,6 3,-10-5,0 2,0-1,0 0,-1 0,1 0,-1 1,1-1,-1 1,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 4,0-1,0-1,0 0,-1 1,0-1,0 0,0 1,0-1,-1 0,-3 8,-3 2,-1 1,-1-2,0 0,-15 17,-10 4,22-23,1 1,-1 1,2 0,0 0,1 1,0 1,-9 17,19-31,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1 0,1-1,0 1,0-1,-1 1,1-1,0 1,0-1,2 1,41 12,-20-7,-19-3,1-1,-1 1,1-1,-1 2,0-1,0 0,0 1,-1 0,0 0,1 1,3 5,-6-8,0 2,-1-1,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,-1-1,0 1,1-1,-1 1,-1-1,1 1,0-1,-1 0,0 1,1-1,-2 0,0 4,-9 19,-2 0,0-1,-28 39,-60 67,97-127,-1 3,-1 0,1 0,-1 0,-1-1,1 0,-1-1,0 1,-1-1,1-1,-1 1,0-1,0-1,0 1,0-1,-1-1,0 1,1-2,-1 1,0-1,-13 0,0-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2836">1297 793,'-1'81,"2"85,0-160,0-1,0 1,0-1,1 0,-1 1,1-1,0 0,1 0,3 6,-5-10,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0-1,0 1,0-1,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,13-13,-1-1,-1 0,15-27,3-3,166-228,-163 228</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5790.55">2065 476,'4'-4,"6"-2,7 0,8 1,5 2,2 1,8 1,12-4,6-1,-3 1,-2 0,-5 2,-1 2,-5 0,-5 0,-4 1,-4 1,-6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8040.43">3202 158,'40'59,"-32"-49,0 0,-1 0,0 1,0 0,-1 0,6 19,65 255,1 6,-76-286,0 1,0 0,1-1,0 1,0-1,0 0,0 0,1 0,8 8,-11-12,1 0,-1 0,1 1,-1-2,1 1,0 0,-1 0,1 0,0-1,-1 1,1-1,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,2-3,9-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9215.43">3679 0,'1'1,"0"-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 1,-1-1,0 0,0 2,5 41,-5-40,0 67,-3 0,-4-1,-2 0,-25 89,20-89,-12 41,-51 135,64-198,10-30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10895.43">3785 1005,'-7'1,"1"0,-1 0,1 0,-1 1,1 0,0 0,0 0,0 1,0 0,0 0,0 1,-5 4,2-1,1 0,0 0,0 1,1 0,0 1,0-1,-8 16,12-19,-1 1,1 1,1-1,-1 0,1 1,1-1,-1 1,1 0,0-1,0 1,1 0,0 8,1-11,0 0,0 0,0 0,0 0,1 1,-1-2,1 1,0 0,0 0,1-1,-1 1,1-1,0 1,-1-1,2 0,-1 0,0-1,0 1,1 0,5 2,-4-2,1-1,0 1,0-1,0 0,0 0,0-1,0 1,1-2,-1 1,0-1,1 1,10-3,-14 2,0 0,0-1,0 0,0 1,-1-1,1 0,0-1,0 1,-1 0,1-1,-1 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0-1,-1 1,1-1,0 1,-1-1,0 1,1-1,-1 0,0 0,0 0,0-3,2-23,-1 1,-1-1,-5-47,1 8,5 81,1-1,0 1,9 21,-4-13,-2 0,6 26,-8-3,-1 49,-1-3,2-72,-3-18,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,0-1,1 1,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 1,1 0,-1-1,0 1,0-1,0 1,1-1,-1 0,17-28</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12356.44">4261 555,'-4'62,"-3"-2,-2 1,-3-1,-33 99,21-78,1-1,3-18,-19 116,39-174,-1 1,1-1,1 0,-1 1,1-1,0 0,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,0-1,1 1,-1 0,1-1,0 0,0 0,3 4,-3-6,-1 1,0 0,0-1,0 0,1 1,-1-1,1 0,-1 0,1 0,-1-1,1 1,0-1,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,1-1,0 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,0 0,0-1,0 0,0 0,2-2,3-3,0-2,-1 1,0-1,0 0,-1 0,-1-1,1 1,-1-1,-1 0,0 0,3-17,-4 13,1 0,-2 0,0 0,-1 0,0 0,-1 0,-1 0,-5-19,7 30,-1 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,-1 0,1 0,0 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,-3 0,-16-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13277.43">4737 449,'4'0,"6"0,11 0,6 5,3 1,5 0,6-1,-4 2,-4 1,1-1,5 3,-1 3,-2 1,-7-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14024.43">4790 899,'4'0,"6"0,11 0,6 0,7 0,3 0,8 5,6 6,3 0,-4 0,-4-4,-3-1,2-3,-4-2,-3 4,-8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15810.43">5769 423,'-8'0,"-5"0,0 0,0 1,0 0,-22 6,32-6,-1 0,1 0,0 1,-1-1,1 1,0 0,0 0,0 0,0 0,1 1,-1-1,0 1,1-1,0 1,0 0,0 0,0 0,0 0,0 1,1-1,0 0,-2 5,-15 51,-29 116,43-155,1 0,0 0,2 0,1 1,0-1,6 35,-6-51,2 1,-1 0,0 0,1-1,0 1,0-1,0 1,1-1,0 0,0 0,0 0,0 0,0-1,1 1,-1-1,1 0,0 0,0 0,0 0,0-1,1 0,-1 0,6 2,9 1,0 0,0-2,0 0,32 1,24 4,-59-5,-5-1,0 1,0-2,20 1,-29-2,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,1-1,-1 0,0 1,1-1,-1 0,0 1,1-4,1-2,53-153,-50 136,0-1,-1 1,-2-1,2-43,-5 63,-1 0,1 0,-1 0,0 0,0 0,-1 0,0 0,1 0,-2 1,1-1,0 1,-1-1,0 1,0 0,0 0,0 1,-1-1,-6-5,-5-2,0 2,0 0,0 1,-19-7,-14-8,32 14,0 1,0 0,-1 2,0 0,-1 0,1 2,-27-3,21 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 557,'4'0,"7"0,6 0,4 0,4 0,3 0,0 0,1 0,5 0,0 0,5 0,1 0,-3 0,-3 0,-1 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1788">607 354,'6'0,"-1"-2,0 1,1 0,0-1,-1 0,0 0,0 0,9-6,5-2,114-58,-95 46,1 2,2 2,71-24,-99 38,72-15,-80 18,1 0,0 0,-1 1,1 0,0 0,-1 0,1 1,-1 0,0 0,1 0,0 1,6 3,-10-5,1 2,-1-1,0 0,-1 0,1-1,-1 2,1-1,-1 1,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,-1 1,2 0,-2 4,0-1,0-1,0-1,-2 2,1-1,0 0,0 1,0-1,-1-1,-3 9,-3 1,-2 2,0-3,-1 0,-15 17,-10 4,22-23,2 2,-2 0,3 1,-1-1,2 1,0 2,-10 15,20-29,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1-1,1 1,-1 0,1 0,-1-1,1 1,-1-1,1 1,0 0,-1 0,1-1,0 1,0-1,-1 1,1-1,0 1,0-1,2 1,43 12,-21-8,-20-2,2-1,-2 1,1-1,-1 2,1-1,-1-1,0 2,-1 0,0 0,2 1,2 4,-6-7,0 2,-1-1,1 0,-1 0,0-1,0 2,0-1,0 0,0 1,-1-1,0 1,1-2,-1 2,-1-1,1 1,0-1,-1 0,0 1,1-2,-2 1,0 4,-9 18,-3 0,1-1,-30 37,-62 64,100-121,0 3,-1-1,1 1,-1 0,-2-1,2-1,-1 0,-1 1,0-1,1-2,-2 2,1-1,0-1,-1 1,1-1,-1-1,-1 0,2-1,-1 1,-1-1,-13 0,0-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2836">1352 759,'-1'77,"2"82,0-153,0-1,0 0,0 0,1 0,-1 1,1-2,0 1,1 0,3 6,-5-10,-1-1,1 1,1 0,-1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,0-1,0 1,0-1,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,2 0,-2 0,0 0,0 0,1 0,-1-1,0 1,1 0,-1-1,0 1,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1-1,13-12,0-1,-2-1,16-25,4-3,172-218,-170 218</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5790.55">2152 455,'4'-3,"6"-3,8 0,8 1,6 2,1 2,9 0,12-4,6-1,-3 1,-1 1,-6 1,-1 2,-6 0,-4 0,-5 1,-3 1,-7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8040.42">3337 151,'41'57,"-32"-48,-1 1,-1-1,1 2,-1-1,-1 1,7 18,67 243,1 7,-79-274,0 0,1 1,0-1,0 1,0-2,0 1,0 0,1 0,9 7,-12-11,1 0,-1 0,1 1,-1-2,1 1,0 0,-1 0,1 0,1-1,-2 1,1-1,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0-1,-1 1,1-1,1 1,-1-1,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,2-3,10-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9215.43">3834 0,'1'1,"0"-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1-1,1 1,1 0,-2 0,1 1,-1-1,1 0,-1 0,0 0,1 1,-1-1,0 0,0 2,5 39,-5-38,0 64,-3 0,-5-1,-1 0,-26 85,20-85,-12 39,-53 129,66-189,11-29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10895.43">3944 962,'-7'1,"1"0,-2 0,2-1,-1 2,1 0,-1 0,1 0,0 1,0 0,-1 0,1 1,-5 3,1 0,2 0,0-1,-1 2,2 0,0 0,-1 0,-7 15,12-18,-2 0,2 2,1-1,-1 0,1 0,1 0,-1 1,1-1,0 0,0 1,1 0,0 7,1-10,0 0,0-1,0 1,0 0,1 1,-1-2,1 0,0 1,0 0,2-1,-2 1,1-1,0 1,-1-2,2 1,-1 0,0-1,0 1,2 0,4 2,-4-3,1 0,1 1,-1-1,0 0,0 0,1-1,-1 1,1-2,0 1,-1-1,1 1,11-3,-15 2,0 0,0-1,0 0,0 1,0-1,0 0,0-1,0 1,-1 0,1-1,-1 1,1-1,-1 1,0-1,2 0,-2 0,0 0,0-1,-1 1,1-1,0 1,-1-1,0 2,1-2,-1 0,0 0,0 0,0-3,3-21,-2 0,-1-1,-5-45,0 8,6 78,2-2,-1 2,9 19,-3-12,-3 0,6 25,-8-3,0 47,-2-3,2-68,-3-18,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1 0,0-1,1 1,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 1,1 0,-1-1,0 1,0-1,0 1,1-1,-1 0,18-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12356.44">4440 531,'-4'59,"-3"-1,-3 0,-2 0,-35 94,22-75,1 0,3-18,-19 111,40-166,-1 1,1-1,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,1-1,-1 1,1 0,0 0,0-1,1 1,-1-1,2 0,-1 0,0 0,3 4,-3-6,-1 1,0-1,0 0,1 0,0 1,-1-1,1 0,-1 0,1 0,-1-1,1 1,0-1,-1 1,2-1,-1 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,1-1,1 0,-2 0,1 0,-1 0,0 0,1-1,-1 1,0 1,0-2,0 0,1 0,1-2,3-3,0-1,0 0,-1-1,0 1,-1-1,-1 0,2 0,-2-1,-1 1,0-1,3-16,-4 13,2 0,-3-1,0 1,-1-1,0 1,-1 0,-2-1,-4-17,7 28,-1 0,0 0,-1 0,1 1,-1-1,1 2,-1-2,0 1,1-1,-1 1,-2 0,2 0,0 0,0 0,-1 0,1 1,-1-1,1 2,-1-2,-4 0,-16-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13277.43">4936 430,'5'0,"5"0,12 0,6 4,3 2,6 0,5-1,-3 1,-5 2,2-1,4 2,0 4,-2 0,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14024.43">4992 860,'4'0,"6"0,12 0,6 0,8 0,2 0,9 5,6 6,4-1,-5 1,-4-5,-4 0,3-3,-4-2,-3 4,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15810.43">6012 405,'-9'0,"-4"0,-1 0,1 1,-1 0,-22 5,33-5,-1 0,0 0,1 1,-1-1,1 1,0 0,0 0,0 0,-1 0,2 1,-1-2,0 2,1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-2 5,-15 48,-31 112,44-149,2 0,0 0,2 0,1 1,0-1,6 34,-6-49,2 1,0 0,-1-1,1 0,0 1,0-1,0 1,1-2,0 1,0 0,0 0,1 0,-1-1,1 0,-1 0,1 0,0 0,0 0,1 0,-1-1,1 0,-1-1,7 3,8 1,1 0,0-2,0 0,33 0,25 5,-61-5,-6-1,1 1,-1-2,21 1,-29-2,-1 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,1-1,-1 0,0 1,1 0,-1-1,0 1,1-4,2-2,54-146,-52 130,0-1,0 1,-3-1,2-41,-5 60,-1 1,1-1,-1 0,0 0,0 1,-1-1,0 0,1 0,-3 1,2 0,0 0,-1-1,0 1,0 0,0 0,0 2,-2-2,-5-5,-6-1,1 1,-1 0,1 2,-21-8,-14-7,33 14,1 0,-1 0,-1 3,1-1,-2 0,1 2,-28-2,22 4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -21770,15 +21819,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">305 193,'-40'0,"15"-1,0 1,-38 4,57-3,0 0,0 1,1-1,-1 1,0 0,0 0,1 1,0 0,-1 0,1 0,0 1,0-1,1 1,-1 0,-5 7,9-10,0 0,1 0,-1 0,0 0,0-1,1 1,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,2 0,7 3,-1 0,1 0,0-1,14 3,2 1,2 2,56 10,6 1,-84-19,0 1,-1 0,1 0,0 1,-1 0,0 0,1 0,-1 1,-1-1,1 1,0 0,-1 1,0-1,0 1,0 0,-1 0,5 6,-5-3,-1-1,1 1,-1-1,0 1,-1 0,0 0,0 0,0 0,-1 0,-1 0,-1 13,-4 5,0 0,-2 0,-1-1,-1 0,-1 0,-25 40,29-54,0 1,-1-1,0 0,0-1,-1 0,-1-1,0 0,-19 14,24-20,0 0,-1-1,1 1,-1-1,0 0,0-1,0 1,0-1,0-1,0 1,0-1,0 0,0 0,0 0,0-1,0 0,0-1,0 1,1-1,-1 0,-9-5,-10-4,-41-20,61 28,1 0,0 0,-1 0,1-1,0 1,0-1,1 0,-1 0,1 0,-5-9,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="949.98">702 431,'0'0,"0"-1,0 0,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,1 0,-1 1,0-1,1 1,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,1 0,-1 0,1 1,0-1,-1 0,1 0,0 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,3 1,1 4,0 0,-1 0,1 0,-1 1,0-1,-1 1,0 0,0 0,0 0,3 15,11 85,-9-49,-7-49,17 72,-16-75,0 0,0 0,0 0,1 0,0-1,0 1,0-1,1 0,0 0,6 6,-10-10,1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,0 0,0 1,1-1,-1 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,1-1,-1 1,0 0,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-3,4-4,0 0,-1 0,0-1,6-14,-6 10,6-9,113-291,-109 267</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1928.99">1363 325,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,0 0,1 0,0 0,-1 0,0 0,-1 0,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2938.76">2051 140,'0'5,"0"15,0 17,0 7,0 9,0 1,0-4,0-3,4-8,6-12,7-14,21-41,19-43,9-18,-3 1,-8 3,-12 11,-15 17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4377.94">2421 325,'-24'27,"1"0,2 2,0 0,3 1,0 1,-26 66,41-88,0 0,0 1,1-1,-1 13,2-21,1 0,0 1,-1-1,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,3 0,-2 0,-1-1,1 0,0 1,0-1,0 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 1,0-1,0 0,1 1,0-4,18-38,-13 29,6-15,0-1,-2-1,-1 0,-1 0,-2-1,6-57,-44 528,30-410</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5533.94">2633 220,'-4'77,"-21"124,7-76,12-70,3-1,5 83,-2-134,1 1,-1-1,1 0,-1 0,1 0,0 0,1 0,-1-1,0 1,1 0,-1 0,1-1,0 1,0-1,0 0,0 1,1-1,-1 0,4 2,-5-3,1 0,0-1,-1 1,1-1,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0-1,0 1,-1 0,1 0,0-1,-1 1,1-1,0 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0 0,0-1,0 1,0-1,1-2,2-4,0 1,-1-1,0 1,-1-1,0 0,0 0,0 0,-1 0,0-11,-2-75,1 88,-1 0,0 0,0 0,0 0,0 0,-1 1,0-1,-1 0,1 1,-7-11,6 13,1 0,-1 0,0 0,0 0,0 0,-1 1,1 0,-1-1,1 1,-1 1,0-1,0 0,0 1,0 0,0 0,-7-1,-17-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6550.94">2792 405,'4'0,"6"0,7-9,3-3,4 1,3 2,0 2,9 3,8 2,1 1,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7185.94">2712 722,'4'0,"7"0,5 0,9 0,6 0,0 0,1 0,8 0,38 0,50 0,35 0,-1 0,-33 0,-38 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8662.93">3877 34,'0'0,"0"0,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,-17 9,5 4,2 1,0 1,1-1,1 2,0-1,1 1,-7 29,-25 131,36-157,-10 45,4-25,2 0,1 0,3 1,1 52,3-89,0-1,0 1,0 0,1 0,0-1,-1 1,1-1,1 0,-1 1,0-1,1 0,-1 0,1 0,0-1,0 1,0-1,1 0,-1 1,1-2,-1 1,1 0,-1-1,1 1,0-1,0 0,0 0,-1 0,7-1,-5 1,0 0,0 0,1-1,-1 1,0-1,1-1,-1 1,0-1,1 0,-1 0,0-1,0 1,0-1,0 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,5-6,3-7,-1-1,-1-1,0 0,-1 0,-1-1,-1 0,-1 0,-1-1,0 0,2-26,-1-21,-6-120,-2 92,2 75,0-1,-1 1,-2 0,-8-40,-1 30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">318 184,'-42'0,"16"-1,0 1,-40 4,60-3,0 0,0 1,0-1,0 1,0 0,0-1,0 2,1 0,-1 0,1 0,0 1,-1-1,2 0,-1 1,-5 7,9-10,0 0,1 0,-2-1,1 1,0-1,1 1,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,-1 0,1 0,1 0,-1 0,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,2 0,7 2,0 1,0 0,1-1,14 3,2 0,2 3,58 9,7 1,-87-18,-1 1,-1 0,1 0,0 1,0-1,-1 1,1 0,-1 1,0-1,0 1,0 0,-1 0,0 0,0 1,1 0,-2-1,5 7,-5-3,-1-2,1 2,0-1,-1 0,-1 1,0-1,0 1,0 0,-1-1,-1 1,-1 12,-5 5,1 0,-2-1,-2 0,0 0,-1 0,-27 38,31-52,-1 2,0-2,0 1,-1-2,0 1,-1-2,-1 1,-19 13,25-19,0 0,-2-1,2 0,-1 0,0 0,-1-1,1 1,0-1,0-1,-1 1,1-1,0 0,0 0,-1 0,1-1,0 0,0-1,-1 1,2-1,-1 0,-10-4,-10-5,-43-18,64 26,1 0,0 0,-1 0,0-1,1 2,0-2,1 0,-1 0,1 0,-6-8,3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="949.98">732 411,'0'0,"0"-1,0 0,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,1 0,-1 1,0 0,1 0,-1-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,2 0,-2 0,1 1,0-1,-1 0,1 0,0 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,4 2,0 4,0 0,-1 0,1-1,0 2,-1-1,-1 0,0 1,0 0,0-1,3 15,12 81,-9-46,-8-48,17 70,-16-73,0 1,1 0,-1-1,1 1,0-1,0 1,0-2,1 1,1 0,5 5,-10-9,1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,-1 0,0 1,1-1,-1 0,0 0,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,1-1,-1 1,0 0,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 1,0-2,4-5,0 0,-1 1,1-2,5-13,-6 10,7-10,117-276,-114 254</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1928.99">1421 310,'4'0,"7"0,6 0,5 0,3 0,2 0,1 0,0 0,2 0,-1 0,-1 0,0 0,-1 0,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2938.76">2138 134,'0'4,"0"15,0 17,0 6,0 8,0 2,0-5,0-2,4-8,7-11,6-13,23-40,19-41,10-17,-3 1,-9 3,-12 11,-16 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4377.93">2524 310,'-25'26,"1"-1,2 3,0 0,3 0,0 2,-26 63,41-85,1 1,0 0,1 0,-1 12,2-20,1 0,0 1,-1-1,1 0,0-1,0 1,0 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,0 1,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,0 1,0-1,1 0,-1 1,0-1,0 0,0 0,3 0,-2 0,-1-1,1 0,0 1,0-1,1 0,-2 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 0,1 1,0-4,19-36,-13 28,5-15,1 0,-3-2,0 0,-2 1,-2-2,7-54,-47 504,32-391</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5533.94">2745 210,'-5'73,"-21"119,8-73,11-66,4-2,5 80,-2-128,1 1,-1-2,1 1,-1 0,2 0,-1 0,1 0,-1-1,0 0,1 1,-1 0,1-1,0 1,0-1,0 0,0 1,1-1,-1-1,5 3,-6-3,1 0,0-1,-1 1,1-1,0 1,-1-1,1 0,0 0,0 1,-1-1,2 0,-1-1,0 1,-1 0,1 0,0-1,-1 1,1-1,0 0,-1 1,1-1,-1 0,1 0,-1 0,2 0,-2 1,0-1,1 0,-1-1,0 1,0 0,0-1,0 1,0-1,1-2,2-3,0 0,0-1,-1 2,-1-2,0 0,0 1,0-1,-1 0,0-10,-2-71,1 83,-1 0,0 0,0 1,0-1,0 0,-1 2,0-2,-1 0,0 1,-6-10,6 12,1 0,-1 0,0 1,-1-1,1 0,-1 1,1 0,-1-1,1 1,-1 1,-1-1,1 1,0 0,0 0,0 0,-8-1,-17-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6550.94">2910 386,'5'0,"5"0,8-8,3-4,4 2,3 1,0 3,9 2,9 2,1 1,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7185.94">2827 689,'4'0,"8"0,4 0,10 0,7 0,-1 0,1 0,9 0,39 0,53 0,36 0,-1 0,-35 0,-39 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8662.93">4041 32,'0'0,"0"0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,-18 8,6 5,1 0,1 1,0-1,2 3,0-2,1 1,-8 28,-26 125,38-150,-10 43,3-24,3 0,1 0,3 1,0 50,4-85,1-1,-1 1,0-1,1 1,0-1,-1 1,1-1,1 0,-1 0,0 0,1 0,-1 0,2 0,-1-1,0 1,0-1,1 0,-1 0,1-1,0 1,0 0,-1-1,1 1,0-1,0 0,1 0,-2 0,7-1,-5 1,0 0,1 0,0-1,-1 1,0-1,2-1,-2 1,0-1,1 0,0 0,-1-1,0 1,0-1,0 0,1-1,-2 1,1 0,-1-1,1 0,0 0,4-6,3-6,0-1,-2-1,1 0,-2-1,-1 0,0 0,-2 0,-1-1,0 0,3-25,-2-20,-6-114,-2 87,2 72,0-1,-1 1,-2 0,-9-38,0 28</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22333,12 +22382,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 564,'540'21,"-524"-20,13 1,55 12,-62-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="521.99">1192 140,'4'0,"7"14,0 40,0 34,-3 32,-3 16,-2 1,3 0,5-9,5-27,4-31,-1-27</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1647.99">1959 193,'-5'0,"0"0,0 0,0 0,1 0,-1 1,0-1,0 1,1 1,-1-1,0 0,1 1,0 0,-1 0,1 1,0-1,0 1,0 0,0 0,1 0,-1 0,1 1,0 0,0-1,0 1,-3 7,-29 36,2 2,-34 70,58-102,0 1,2 1,0-1,2 1,0 0,0 0,2 1,1-1,0 1,1-1,3 25,0-34,1 0,0 0,0 0,1-1,1 1,0-1,0 0,0-1,1 1,1-1,-1 0,12 10,-1-2,0-1,1-1,1 0,30 15,-30-19,2-1,-1-1,1-1,0 0,0-2,1-1,0 0,-1-2,1 0,0-1,0-2,26-3,-37 3,0-1,0 0,-1-1,1 0,-1 0,1-1,-1-1,-1 1,1-2,-1 1,0-2,0 1,0-1,-1 0,0-1,0 0,-1 0,0-1,-1 1,0-2,0 1,-1-1,0 1,-1-1,0-1,3-11,1-20,-3-1,-1-1,-2 1,-8-84,2 17,2-147,1 252,1-1,0 1,-1 0,0-1,0 1,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,-1 0,0 0,-4-4,1 3,0 1,0 0,0 0,-1 1,1 0,-1 0,1 1,-1 0,0 0,0 1,-13-1,11 1,-1 0,1 0,-1 1,1 1,-1 0,0 0,1 1,0 0,-15 5,2 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2927">2727 696,'1'1,"0"-1,1 0,-1 0,0 0,1 1,-1-1,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,-1 0,1 0,0 0,0 0,0 0,0 2,14 31,-14-31,28 96,-20-59,2-2,2 1,2-2,1 0,26 44,-40-77,1 0,0 0,0 0,0 0,0 0,1-1,-1 0,1 1,0-1,0-1,0 1,0 0,1-1,-1 0,0 0,1 0,5 0,-6-1,0-1,1-1,-1 1,0-1,0 1,1-1,-1-1,0 1,0 0,0-1,0 0,-1 0,1 0,0-1,-1 1,1-1,-1 0,0 1,4-6,10-10,0-1,-1-1,-2 0,0-1,14-26,47-119,-54 116,33-105,-43 121</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5464.99">3732 511,'4'0,"7"0,9 0,7 0,3 0,5 0,15 0,12 0,5 0,5 0,-2 0,-8 0,-5 0,-8 0,1 0,-3 0,-6 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6065">4235 8,'4'9,"2"71,-1 35,0 15,-2 5,-1-4,-1-9,0-18,-1-21,0-21,4-16,6-16,11-22,1-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 543,'560'21,"-543"-20,13 1,57 11,-64-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="521.99">1237 135,'4'0,"8"13,-1 39,0 33,-2 31,-4 15,-2 1,3 0,6-9,4-25,5-31,-1-26</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1647.99">2033 186,'-5'0,"0"0,0 0,-1 0,2 0,-1 1,0-1,0 1,0 1,0-1,0 0,1 1,0 0,-1 0,0 0,1 0,0 1,0 0,0 0,1 0,-1 0,0 1,1 0,0-2,0 2,-3 7,-30 34,1 2,-34 68,59-99,1 2,2 0,0-1,1 2,1-1,0 0,2 2,1-2,0 1,1-1,3 25,0-34,1 1,0 0,0-1,1 0,2 1,-1-2,0 1,0-1,1 0,2 0,-2 0,13 9,-2-1,1-2,0 0,2-1,31 15,-31-18,2-2,-2 0,2-1,0-1,0-1,1-1,-1 0,0-2,1 0,0-1,0-2,26-3,-37 3,-1-1,1 0,-2-1,2 0,-2 1,1-2,0-1,-2 1,1-2,0 1,-1-1,0 0,1-1,-2 0,0 0,1-1,-2 0,0 0,-1 0,1-2,-1 2,-1-2,0 1,-1 0,1-2,2-10,1-20,-3 0,-1-1,-1 0,-10-80,3 16,2-142,1 243,1 0,0 0,-1 0,0-1,0 1,-1 0,1 1,-1-1,0 0,-1 0,1 0,-2 1,1 0,0-1,0 1,-1 0,0 0,-5-3,2 2,0 1,0 0,-1 0,0 1,1 0,-1 1,0 0,0 0,0 0,-1 1,-12-1,10 1,0 0,0 0,0 1,1 1,-2 0,1 0,0 1,1 0,-16 4,2 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2927">2830 671,'1'1,"0"-1,1 0,-1 0,0 0,1 1,0-1,-1 1,1-1,-1 0,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,-1 0,1 0,0 0,0 0,0 0,0 2,15 30,-15-30,29 92,-21-56,3-3,1 2,3-3,0 1,28 42,-42-74,1 0,0 0,0-1,0 1,1 0,0-1,-1 0,1 1,0-1,0-1,0 1,1-1,0 0,-1 0,0 0,1 0,6 0,-7-1,0-1,1-1,-1 1,0-1,1 1,0-1,-1-1,0 1,0 0,0-1,0 0,0 1,0-1,0-1,-1 1,1-1,-1 0,0 1,5-6,9-9,1-1,-1-2,-3 1,1-1,14-25,49-115,-57 112,35-102,-44 117</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5464.99">3873 492,'4'0,"8"0,9 0,7 0,3 0,5 0,16 0,12 0,6 0,5 0,-3 0,-7 0,-6 0,-8 0,0 0,-2 0,-6 0,-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6065">4395 8,'4'8,"3"69,-2 34,0 15,-2 4,-1-4,-1-9,0-16,-1-21,0-21,4-14,7-16,11-22,0-11</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22365,12 +22414,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">147 873,'-7'10,"0"-1,1 1,0 1,0-1,1 1,1 0,0 0,1 0,0 0,0 1,-1 14,-1 3,-13 49,-3 13,3 1,-8 143,25-227,1 0,1 0,-1 0,1 0,1-1,0 1,0 0,4 9,-6-17,0 1,1 0,-1 0,1-1,-1 1,0 0,1-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,0-1,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,2-1,0 0,-1-1,1 0,-1 1,1-1,-1 0,0 0,0 0,0 0,0-1,0 1,0 0,1-4,29-47,-1-1,28-73,16-30,136-211,-181 310</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1656 264,'0'5,"0"6,0 5,4 14,6 10,2 13,-1 10,1 35,-1 10,-2 0,-3-10,-2-16,-3-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1523 608,'4'0,"7"0,5 0,9 0,6 0,5 0,1 0,4-4,4-2,12 1,5 0,2-3,-2 0,-6 1,-5 2,-5 2,-11 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="793">2661 79,'26'-10,"1"1,1 1,0 2,0 0,40-2,-29 3,-21 3,63-9,150-2,-226 13,0 0,0 1,1 0,-1 0,0 0,0 0,0 1,0 0,-1 0,1 0,0 1,-1 0,1-1,-1 2,0-1,0 0,0 1,-1 0,1 0,-1 0,0 0,0 0,0 1,-1-1,1 1,-1 0,0 0,-1 0,1 0,0 7,3 14,-2 0,-1 1,-1-1,-4 48,1-45,2-17,0 15,-1 1,-1-1,-1 0,-2 1,-1-1,-1-1,-1 1,-12 27,-256 431,264-467,-1-1,0 0,-28 27,38-41,-1 0,1 1,-1-2,1 1,-1 0,0-1,0 0,0 1,-1-2,1 1,0 0,-1-1,1 0,-1 0,1 0,-1-1,0 1,1-1,-1 0,0-1,1 1,-1-1,1 0,-6-1,7 0,0 0,0-1,0 1,0 0,0-1,1 1,0-1,-1 0,1 0,0 0,0 0,1 0,-1-1,1 1,-1 0,1-1,0 1,0-1,0-5,-3-13,1 1,1-24,1 30,-1-22,-2-108,4 127,1 0,1 0,1 1,1-1,9-29,-11 43,-1 0,1 1,-1 0,1-1,0 1,0 0,1 0,-1 0,1 0,-1 1,1-1,0 0,0 1,0 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1 0,-1 0,1 0,0 0,0 1,-1-1,7 1,-5 0,1 1,0 0,0 0,-1 1,1-1,-1 1,1 1,-1-1,0 1,0-1,0 2,0-1,-1 0,1 1,-1 0,0 0,6 7,8 15,-2 0,-1 2,0-1,-3 2,17 49,-19-46,2 0,1-2,1 1,33 49,-43-76,0 1,0-1,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,9 3,-11-5,0 0,0 0,-1 0,1-1,0 1,0-1,0 0,0 1,0-1,0-1,0 1,0 0,0-1,0 1,0-1,-1 0,1 0,0 0,0-1,-1 1,1 0,4-4,21-31,0-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2083.08">3984 212,'0'0,"0"0,0-1,0 1,0 0,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,-1-1,1 1,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 1,0-1,-1 1,-20 16,5 1,1 1,1 0,1 1,-21 43,-32 97,37-86,16-42,-52 145,59-156,0 0,2 1,1 0,0-1,2 1,2 34,-1-49,2 1,-1-1,1 1,0-1,1 0,-1 1,2-1,-1-1,1 1,0 0,0-1,1 0,4 6,0-4,-1 0,1 0,1-1,-1 0,1-1,0 0,21 9,-10-7,0-1,0-1,0-1,1-1,0-1,0-1,0-1,38-2,-47-1,1 0,-1-1,0 0,0-1,-1 0,1-1,-1-1,0 0,0 0,11-10,-6 4,-1-2,-1 0,0 0,-1-2,23-31,-10 4,-2-2,-1 0,-3-2,23-72,-37 94,0 0,-2-1,-1 0,-1 0,-1 0,-2-1,0 1,-2 0,-1 0,-10-43,12 63,-1 0,0 1,-1-1,1 1,-1-1,0 1,-1 0,1 0,-1 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 1,-9-5,-5 0,-1 0,1 1,-39-7,38 10,0-1,0-1,1-1,-20-10,26 10,0 0,0 2,0-1,-1 1,0 1,0 1,-26-4,18 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3436.95">4857 952,'2'1,"-1"0,1 0,0 0,0 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 3,3 2,13 31,16 46,-26-61,1 0,1 0,1-1,1 0,1-1,1 0,21 24,-30-40,1 0,0-1,0 0,0 0,1-1,-1 1,1-1,0 0,0-1,0 1,0-1,0-1,0 1,1-1,-1 0,1 0,-1-1,1 0,-1 0,1 0,-1-1,13-3,-7 1,0-1,0-1,-1 0,1 0,-1-1,0 0,-1-1,0 0,0-1,17-17,1-5,-1-1,-1-2,-2 0,-2-2,-1 0,-1-1,-3-1,0-1,15-57,-24 59</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">154 840,'-8'9,"1"0,1 1,-1 0,1 0,1 1,1-1,0 1,0-1,1 1,0 0,-1 14,-1 3,-14 47,-3 13,3 0,-8 138,26-218,1 0,1 0,-1-1,1 1,1-1,0 0,0 1,5 8,-7-16,0 1,1 0,-1 0,1-1,-1 1,0 0,1-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,1 1,0-1,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,1-1,0 0,-1-1,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 0,0-1,0 1,0 0,1-4,30-45,0-1,29-70,16-29,143-203,-190 298</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1731 254,'0'5,"0"5,0 6,4 13,7 9,1 13,0 10,0 33,0 10,-3 0,-2-10,-3-15,-3-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1592 585,'4'0,"8"0,5 0,9 0,6 0,6 0,0 0,5-4,4-2,13 2,5-1,2-3,-3 0,-5 2,-6 1,-5 2,-11 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="793">2782 76,'27'-10,"1"2,2 0,-1 2,0 1,42-3,-30 3,-22 3,65-8,158-3,-237 13,0 0,1 1,0 0,-1 0,0 0,1 0,-1 1,0 0,-1 0,1 0,1 0,-2 1,1-1,-1 2,0-1,1 0,-1 1,-1 0,1-1,-1 1,0 0,0 0,1 1,-2-1,1 0,-1 1,0 0,-1 0,1 0,0 6,3 14,-1 0,-2 1,-1-1,-4 46,1-43,2-16,0 14,-2 1,0-1,-1 0,-2 1,-1-1,-2-1,0 1,-13 26,-267 414,275-449,-1 0,1-1,-30 26,40-39,-1 0,1 1,-2-2,2 1,-1 0,0-1,0 0,0 0,-2-1,2 1,0 0,-1-1,1 0,-2 0,2 0,-1-1,0 1,0-1,0 0,0-1,1 1,-1-1,0 0,-5-1,7 0,0 0,0 0,-1 0,1 0,0-1,1 1,0-1,-1 0,1 0,0 0,0 0,1 1,-2-2,2 1,-1 0,1-1,0 1,0-1,0-4,-3-13,1 0,1-22,1 29,-1-22,-3-103,5 121,1 1,2 0,0 0,1 0,9-28,-10 41,-2 0,1 1,-1 0,1-1,0 2,0-1,1 0,-1 0,1 0,-1 1,2-1,-1 0,0 1,0 0,0 1,0-1,1 0,0 1,0-1,-1 1,1 0,-1 0,1 0,1 0,-1 1,-1-1,7 1,-4 0,0 1,0 0,0 0,0 1,0-1,-1 1,1 1,0-1,-1 0,0 0,0 2,1-1,-2 0,1 1,-1 0,0-1,7 8,8 14,-3 0,0 2,0-1,-4 2,19 47,-21-44,3 0,0-3,2 2,34 47,-45-73,0 1,0-1,1-1,-1 0,1 0,-1 0,1 0,1 0,-1 0,10 3,-12-5,0 0,0-1,-1 1,1-1,0 1,0-1,1 0,-1 1,0-1,0-1,0 1,0 0,0-1,1 1,-1-1,-1 1,1-1,0 0,0-1,-1 1,1 0,5-4,21-30,0-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2083.08">4165 204,'0'0,"0"0,0-1,0 1,0 0,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,-1-1,1 1,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-2 0,2 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 1,0-1,-1 1,-21 16,5 0,2 1,0 0,2 2,-23 40,-33 94,39-83,16-40,-54 139,62-149,0-1,1 1,2 0,0-1,2 2,2 31,-1-46,2 1,-1-1,1 0,1 0,0 0,-1 0,2 0,-1-1,1 1,0-1,1 0,0 0,4 5,1-3,-2 0,1 0,2-2,-2 1,2-1,-1 0,23 8,-11-6,-1-2,1 0,0-1,1-1,0-1,0-1,0-1,40-2,-49-1,0 0,0-1,0 0,-1-1,0 0,0 0,0-2,-1 0,1 0,11-9,-6 3,-2-1,0-1,0 1,-2-2,25-31,-11 5,-2-2,0-1,-4-1,24-69,-39 90,0 0,-2-1,0 0,-2 0,-1-1,-2 1,0 0,-2-1,-1 1,-11-41,13 60,-1 1,0 0,-1-1,1 1,-2-1,1 2,-1-1,1 0,-1 1,0-1,-1 1,1 1,-1-1,1 0,-1 0,-1 1,-8-5,-6 1,-1-1,1 1,-41-6,41 9,-1-1,0-1,1 0,-21-11,27 11,1-1,-1 2,1-1,-2 2,0 0,1 1,-28-4,19 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3436.95">5078 916,'2'1,"-1"0,1 0,0 0,0 1,0-1,-1 0,1 0,-1 0,1 1,-1-1,0 1,1-1,0 1,-1 0,0 0,0 0,0 0,0 0,0 3,3 1,14 31,16 44,-26-59,0 0,1 0,2-1,0 0,2 0,0-1,23 23,-32-38,1 0,1-1,-1-1,0 1,1-1,0 1,0-1,0 0,0-1,1 1,-1-2,0 0,0 1,2-1,-2 0,1 0,0-1,0 0,-1 0,2 0,-2-1,14-3,-8 2,1-2,-1-1,0 0,0 0,0 0,-1-1,0-1,-1 0,1 0,17-17,1-5,-1-1,0-2,-3 0,-2-1,-1-1,-1-1,-4 0,1-2,16-54,-26 56</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22397,16 +22446,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 701,'4'0,"7"0,14 0,8 0,7 0,10 0,1 0,2 0,-5 0,-1 0,-4 0,-1 0,-2 0,-8 5,-10 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1895">795 278,'1'12,"1"-1,0 0,1 0,0-1,0 1,2 0,-1-1,7 10,11 29,0 24,-3 1,-3 1,-4 0,3 81,29 156,-43-305,0 0,1 0,0 0,0-1,1 1,0-1,0 0,1 0,-1 0,1 0,1 0,4 5,-6-9,0 0,1 0,-1 0,0 0,1 0,0-1,-1 0,1 1,0-1,-1-1,1 1,0 0,0-1,0 0,0 0,0 0,0 0,-1-1,1 0,0 0,0 0,4-2,-5 3,-1-1,1 0,-1 0,0 0,1 0,-1 0,0 0,0-1,0 1,0-1,0 1,0-1,2-3,17-37,-21 40,27-66,130-368,-10-246,-140 633</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3426.53">1695 913,'0'4,"-1"1,1-1,-1 0,0 0,0 0,0-1,-2 7,-5 16,-20 99,-37 152,55-248,9-29,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,1-1,-1 1,0 0,0-1,5-60,145-539,-150 600,4-13,0 0,0 1,1-1,1 1,10-17,-14 26,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,0 0,0 1,1-1,-1 0,1 1,-1 0,1 0,0 0,-1 0,1 1,0 0,0-1,-1 1,1 0,7 2,-4-2,-1 1,1 0,0 1,0 0,-1 0,1 0,-1 1,0-1,1 2,-1-1,-1 1,1 0,0 0,-1 0,10 11,-10-7,1 0,-1 0,0 1,-1 0,0 0,0 0,-1 0,0 1,-1-1,2 17,4 26,-2 0,-2 1,-3-1,-2 1,-10 69,10-118,0 0,1-1,-1 1,0 0,-1 0,1-1,-1 1,1-1,-1 0,0 1,0-1,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 1,0-1,-1 0,1-1,0 1,-1 0,0-1,1 0,-8 2,-2-2,0 0,0-1,1-1,-1 0,0-1,1 0,-16-5,19 5,-20-4,27 10,16 8,6 1,0 1,-2 0,0 1,0 1,-2 1,0 0,-1 2,-1-1,0 2,-2 0,0 0,-1 1,14 40,8 38,-18-65</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6303.53">2409 648,'4'-4,"11"-2,7 1,9 0,13 6,12 8,6 1,-4 0,-2 3,-2-2,0-2,-6-3,-2-2,-4-2,0-1,-3-1,-4-1,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9097.53">3679 331,'42'222,"11"40,-44-230,2-1,0 1,2-2,2 0,32 51,-41-73,0 0,0 0,1-1,0 1,1-2,0 1,0-1,15 9,-19-13,-1 0,1-1,0 1,-1-1,1 0,0 0,0 0,0 0,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,-1 0,1 0,3-4,14-11,-2-1,0-2,-1 0,-1 0,-1-2,15-26,73-149,-87 161,-2-1,-1 0,-2-1,-2 0,-1-1,-2 0,-2 0,1-57,-7 82,0-31,2-1,13-85,-14 127,1 1,0-1,0 1,0-1,1 1,-1 0,1 0,0 0,0 0,4-5,6-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10602.62">4631 1072,'-1'-2,"1"-1,-1 1,1-1,-1 1,0-1,0 1,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 1,0 0,0-1,0 1,-1 0,1 0,-1 0,1 0,-4 0,-11-4,-1 1,-33-4,31 5,9 2,0-1,0 0,0 1,1 0,-1 1,-16 1,24 0,1-1,0 1,-1 0,1-1,-1 1,1 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,0-1,1 0,-1 1,1 3,-1 2,0 0,1 0,0 0,1 0,-1 0,2 0,-1 0,1 0,0-1,1 1,-1-1,2 1,-1-1,1 0,0 0,0-1,1 1,0-1,0 0,1 0,0 0,-1-1,2 0,-1 0,9 4,5 3,0-1,1-1,0-1,1-1,-1-1,2-1,37 6,-54-11,-1-1,1 0,0 0,-1 0,1-1,-1 0,1 0,-1-1,1 1,-1-1,0-1,1 1,-1 0,0-1,-1 0,1-1,0 1,-1-1,0 1,0-1,0-1,0 1,-1 0,0-1,0 0,0 0,0 0,3-9,-1 4,-1 0,0-1,-1 0,0 1,-1-1,0 0,-1 0,0-1,0 1,-2 0,1 0,-1 0,-5-22,-10 4,9 26,8 19,24 158,-5-21,-15-126,0-1,16 49,-11-51</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11694.53">5160 569,'-21'258,"5"-101,6 30,-14 148,23-332,1 0,-1 0,1 1,0-1,0 0,0 1,1-1,-1 0,1 0,0 1,-1-1,1 0,1 0,-1 0,0 0,1 0,3 4,-3-5,0 0,0 0,1-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,4-2,-3 1,0 0,0 0,0 0,0-1,-1 0,1 0,0 0,-1 0,0 0,1-1,-1 1,0-1,0 0,-1 0,1 0,0-1,2-5,5-7,-1-1,10-27,-12 27,4-9,2 0,-2 0,-1-1,-1-1,-1 1,7-54,-15 78,0-1,0 0,0 1,-1-1,1 1,-1-1,0 1,1-1,-2 1,1 0,0-1,-1 1,0 0,1 0,-1 0,0 0,-1 0,-4-4,2 2,0 2,-1-1,1 1,-1 0,0 0,0 0,0 1,0 0,-11-3,-11 1,1 1,-1 1,-51 4,70-2,-17 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12214.53">5504 728,'4'-4,"20"-2,15 0,5 1,4 2,-1 1,4-4,12 0,8 0,-2 2,-15 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12755.53">5663 860,'4'0,"7"0,9 0,25 9,18 3,2 0,0 1,-12 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14137.53">6563 437,'0'0,"0"-1,0 0,-1 0,1 1,0-1,0 0,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1 0,0-1,0 1,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,0 0,0 1,0 0,-3 0,0 1,0-1,0 1,0 0,0 1,1-1,-1 1,-3 3,-2 5,0 0,1 1,1 0,0 0,1 0,-9 26,-21 88,17-50,6-33,-24 95,33-123,2 0,0 0,1 1,1-1,0 0,5 31,-3-38,0 0,1-1,0 1,0 0,0-1,1 0,0 1,1-2,0 1,0 0,0-1,1 0,0 0,0-1,0 0,1 0,0 0,0-1,0 0,0 0,1-1,0 0,9 3,4 0,1-2,-1 0,1-1,0-1,0-1,0-1,33-5,-50 5,0-1,0 0,0 0,-1-1,1 1,0-1,-1 0,0-1,1 1,-1-1,0 0,0 0,0 0,-1 0,1-1,-1 1,0-1,0 0,0 0,0 0,-1 0,0-1,0 1,0-1,0 1,0-1,-1 0,1-5,2-15,0 0,-2 0,-1 0,-3-34,1 27,2-33,1 24,-8-69,5 101,0-1,-1 1,0-1,-1 1,0 0,0 0,-1 0,0 0,-1 0,0 1,0 0,-10-11,10 15,0-1,0 2,0-1,0 1,-1 0,0 0,1 0,-1 1,0 0,0 0,0 0,-1 1,1 0,0 0,-12 0,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 674,'4'0,"8"0,14 0,8 0,7 0,11 0,1 0,2 0,-5 0,-1 0,-5 0,0 0,-3 0,-7 5,-12 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1895">825 267,'1'12,"1"-1,0-1,1 1,0-2,0 2,3 0,-2-2,7 10,12 29,0 22,-3 1,-4 1,-3 0,2 78,31 150,-45-293,0 0,1 0,0-1,0 0,1 1,0-1,0-1,2 1,-2 0,1 0,1 0,4 4,-6-8,1 0,0 0,-1 0,0 0,1 0,0-1,-1 0,2 0,-1 0,-1-1,1 1,0 0,0-1,0 0,1 0,-1 0,0 0,-1-1,1 0,0 0,0 1,5-3,-6 3,-1-1,1 0,-1 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0-1,0 1,0-1,2-3,18-35,-22 38,28-63,135-355,-11-236,-145 609</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3426.53">1759 878,'0'4,"-1"1,1-1,-1 0,0 0,0-1,0 0,-3 7,-4 15,-21 95,-38 147,56-240,10-27,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,1-1,-1 1,0 0,0-1,5-58,151-518,-156 577,4-13,0 1,0 0,2 0,0 0,10-16,-14 26,2-1,-2 0,1 1,0-1,0 1,0-1,0 1,0 0,0 0,1 1,0 0,-1-1,1 1,-1 0,1 0,0 0,-1 0,2 1,-1 0,0-1,-1 1,1 0,8 2,-5-2,-1 1,1 0,1 1,-1 0,-1-1,1 1,0 1,-1-1,1 2,-1-1,-1 1,2 0,-1-1,-1 1,11 11,-11-8,1 1,-1 0,0 0,0 1,-1 0,0-1,-1 1,0 1,-1-2,2 17,5 25,-3 0,-2 1,-3-1,-2 1,-10 67,10-114,0 0,1-2,-1 2,-1 0,0 0,1-1,-1 1,1-1,-1-1,0 2,0-1,-1 0,1 0,-1 0,1 0,-1-1,-1 1,1-2,0 2,0-1,-1 0,1-1,0 1,-1 0,-1-1,2 0,-8 2,-3-2,1 0,-1-1,2-1,-2 0,1-1,1 0,-18-5,21 5,-21-3,28 8,17 9,5 0,1 2,-2-1,-1 2,1 0,-2 2,-1-1,0 2,-2-1,1 3,-3-1,1 0,-2 1,15 39,8 36,-18-62</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6303.53">2500 623,'4'-3,"11"-3,8 1,9 0,14 6,12 8,6 0,-3 1,-3 3,-2-3,0-1,-6-3,-3-3,-3-1,-1-1,-2-1,-5-1,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9097.53">3817 318,'44'214,"11"38,-46-221,3-1,-1 0,3-1,1 0,34 49,-43-70,0-1,1 1,0-1,0 1,1-3,1 2,-1-1,16 8,-20-12,-1 0,1-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 0,1 0,-1 0,0 0,0 0,0-1,0 0,0 0,1 0,-1 0,0-1,-1 1,1-1,-1 0,1 0,4-3,14-12,-3 0,1-2,-1-1,-2 1,0-2,15-25,76-144,-90 156,-3-2,0 1,-3-2,-1 0,-2 0,-2-1,-2 1,2-55,-9 78,1-29,2-1,14-83,-15 124,1 0,0-1,0 1,0-1,1 1,-1 0,1 1,0-1,1 0,3-5,6-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10602.62">4805 1031,'-1'-2,"1"-1,-1 2,1-2,-1 1,0-1,0 1,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,-1 1,1-1,0 1,0-1,0 0,0 1,0 0,0-1,0 1,-1 0,1 0,-1 0,1 0,-5 0,-10-4,-2 2,-34-5,32 5,10 2,-1-1,1 0,0 1,0 0,0 1,-17 1,25 0,1-1,0 1,-2 0,2-1,-1 1,1 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0 0,0-1,0 0,0 1,1 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,1 4,-1 2,0 0,1-1,0 1,1 0,-1-1,2 1,-1 0,1-1,0 0,1 1,-1-1,3 0,-2 0,1 0,0 0,0-2,1 2,1-1,-1 0,1-1,0 1,-1-1,3 0,-2 0,9 3,6 4,0-2,1 0,-1-1,2-2,-1 0,2-1,38 5,-56-10,0-1,0 0,0 0,-1 0,1-1,0 0,0 0,-1-1,1 2,0-2,-1-1,1 1,-1 0,0-1,-1 0,2-1,-1 1,-1 0,0 0,0-1,0-1,1 1,-2 0,0-1,0 1,0-1,0 0,3-8,0 3,-2 0,0 0,-1-1,0 2,-1-2,0 0,-1 1,0-2,0 2,-2-1,1 1,-1-1,-5-21,-11 4,10 25,8 19,25 151,-5-20,-16-121,0-1,17 47,-12-48</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11694.53">5354 547,'-22'249,"6"-98,5 29,-14 142,24-319,1 0,-1-1,1 2,0-1,0 0,0 1,1-1,-1 0,1 0,0 0,-1 0,1 0,2 0,-2 0,0 0,1 0,3 3,-3-4,0 0,0 0,1-1,-1 1,1-1,-1 0,2 0,-1 0,-1 0,1 0,0 0,0-1,0 1,-1-1,1 0,1 0,-1 0,0 0,0 0,4-2,-3 1,0 0,1 0,-1 0,0-1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,0-1,0 0,-1 0,1 0,0-1,2-4,6-8,-2 0,11-26,-13 25,5-8,1 0,-2 0,0-1,-2-1,0 1,6-52,-15 75,0 0,0-1,0 1,-1-1,1 1,-1-1,0 1,1 0,-2 0,1 0,0-1,-1 1,0 0,1 0,-1 0,-1 1,0-1,-4-4,2 2,0 2,-2-1,2 1,-1 1,0-1,0 0,-1 1,1 0,-11-3,-13 1,2 1,-1 2,-53 2,73-1,-18 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12214.53">5711 700,'4'-4,"21"-1,15-1,6 1,4 2,-1 1,4-3,12-1,9 0,-3 2,-15 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12755.53">5876 827,'4'0,"8"0,8 0,27 9,18 3,3-1,-1 2,-12-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14137.53">6810 420,'0'0,"0"-1,0 0,-1 1,1 0,0-1,0 0,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,-1-1,0 1,1-1,-2 1,1-1,1 1,-1 0,0-1,0 1,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,0 0,0 1,0 0,-3 0,-1 1,1-1,0 1,0 0,0 1,1-2,-1 2,-4 3,-1 5,0-1,0 2,2-1,0 1,1-1,-10 26,-21 84,17-48,6-31,-24 90,34-117,2-1,0 1,1 0,1 0,0-1,5 30,-3-36,0 0,1-2,0 2,0 0,0-2,2 1,-1 1,1-2,0 0,0 1,1-1,0 0,0-1,0 0,0 0,2 0,-1 0,0-1,0-1,1 1,0-1,0 0,10 3,4 0,1-3,-2 1,2-1,0-1,0-1,0-1,34-5,-52 5,0-1,0 0,1 0,-2-1,1 1,0 0,-1-1,0-1,2 1,-2-1,0 0,0 0,0 0,-1 0,1 0,0 0,-1-1,0 0,0 0,0 0,-1 0,0 0,0 0,0-1,0 1,0-1,-1 0,2-4,1-15,0 0,-2 0,-1 0,-3-33,1 26,2-31,1 22,-8-66,5 98,0-2,-1 1,0 0,-2 0,1 0,0 1,-1-1,0 0,-1 1,-1 0,1 0,-10-10,10 14,-1-1,1 3,0-2,0 1,-1 0,-1 0,2 0,-1 1,0 0,-1 0,1 0,-1 2,1-1,0 0,-13 0,-6 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22463,9 +22512,9 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2570,'37'-1,"1"-3,-1-1,0-2,0-1,-1-2,0-1,64-31,3-11,115-79,-84 44,182-157,-252 187,-3-2,-3-2,-3-3,73-111,-53 68,136-152,-54 74,206-315,-340 465</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1329.99">1985 347,'143'-1,"160"3,-297-2,-1 0,1 1,0 0,0 0,-1 0,1 1,-1-1,1 1,-1 1,0-1,0 1,10 6,-12-6,1 1,-1 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 1,0 0,-1-1,1 1,-1 0,0-1,0 9,0 1,0 0,-1 0,0-1,-1 1,-1-1,0 1,-1-1,0 1,-8 17,-4 3,-2-1,-22 35,25-46,0 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3026">3123 30,'-1'-1,"1"1,-1-1,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,-34-5,31 4,-8 0,1 0,0 0,-1 2,1-1,0 1,0 1,0 0,0 1,-15 6,19-6,0 1,0 0,1 1,0 0,0 0,0 0,1 1,-1 0,1 1,1-1,-1 1,1 0,0 0,-4 10,-3 5,2 1,0 0,1 1,1 0,1 0,1 1,2 0,0 0,2 0,1 51,2-72,-1 1,1-1,0 1,0-1,1 0,-1 1,1-1,0 0,0 0,0 0,1-1,-1 1,1 0,0-1,0 1,0-1,1 0,-1 0,1-1,0 1,0-1,-1 1,1-1,1-1,-1 1,0 0,0-1,1 0,4 1,14 2,1-1,0-1,-1-1,34-3,-27 0,45 2,63-3,-135 2,1 0,-1 0,0 0,0 0,0-1,0 1,-1-1,1 0,0 1,-1-1,1-1,-1 1,1 0,-1 0,0-1,0 1,0-1,0 0,1-4,30-65,-21 42,-9 23,10-21,-1 0,-1-2,9-39,-18 63,-1-1,0 1,0-1,0 1,-1-1,0 0,0 0,-1 1,1-1,-2 1,1-1,-1 0,0 1,0 0,0 0,-1-1,0 2,-1-1,1 0,-1 1,-8-10,2 7,1 0,-1 1,0 0,-1 1,1 0,-1 0,0 2,-1-1,1 1,-1 1,-18-3,-2 2,-1 1,0 1,-34 4,44-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 2465,'39'-1,"1"-3,-1-1,0-1,-1-2,0-2,0 0,67-30,3-11,121-76,-88 43,191-151,-265 179,-3-1,-3-3,-3-2,76-107,-55 65,143-145,-57 71,216-303,-357 447</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1329.99">2085 333,'150'-1,"168"3,-311-2,-2 0,1 1,1 0,-1 0,-1 0,1 1,0-1,0 0,-1 2,1-1,-1 1,11 6,-13-6,1 0,-1 1,0 0,0 0,-1 0,2 0,-2-1,0 1,0 1,0 0,-1-1,1 1,-1-1,0 0,0 9,0 0,0 0,-1 1,0-2,-1 2,-1-2,0 2,-1-2,0 2,-9 15,-3 4,-3-1,-23 33,26-44,0 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3026">3280 29,'-1'-1,"1"1,-1-1,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,0 0,-1 0,-36-4,33 3,-9 0,2 0,-1 0,0 2,0-1,0 1,1 1,-1-1,1 2,-17 6,21-6,-1 1,1 0,1 0,-1 1,1 0,0 0,0 0,0 1,1 1,0-1,0 0,1 1,0 0,-5 9,-3 5,3 1,-1 0,2 1,1 0,0 0,2 1,2 0,0 0,1 0,2 49,2-69,-1 1,2-1,-1 0,0 0,1 0,-1 1,1-1,0 0,0-1,0 1,1-1,-1 1,2 0,-1-1,0 1,0-2,1 1,-1 0,2-1,-1 1,0-1,-1 1,1-1,2-1,-2 1,0 0,0-2,1 1,5 1,14 2,1-1,0-1,0-1,34-3,-27 0,47 2,66-3,-142 2,1 0,-1 0,0 0,1 0,-1 0,0 0,-1-1,1 0,0 1,-1-1,2-1,-2 1,1 0,-1 0,0-1,0 1,0 0,0-1,1-4,32-62,-22 40,-10 22,10-19,0-1,-1-2,9-37,-19 60,-1-1,0 2,0-2,0 1,-1-1,0 1,0-1,-1 1,1-1,-2 2,1-2,-1 0,0 1,-1 1,1-1,-1-1,0 2,-1 0,1-1,-2 1,-7-9,1 6,2 0,-2 2,1-1,-2 1,2 0,-2 1,1 1,-2-1,2 1,-2 1,-19-2,-1 1,-2 1,1 1,-37 4,47-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22519,11 +22568,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">974 292,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-585">894 556,'0'70,"-8"320,2-306,-4 0,-32 128,13-111,14-55,2 0,2 1,2 0,-4 58,13-99,1 1,-1-1,1 0,0 1,1-1,-1 0,1 1,1-1,-1 0,1 0,0-1,0 1,1-1,0 1,0-1,0 0,0-1,1 1,0-1,0 0,0 0,0 0,1-1,11 6,-3-2,0-2,1 0,-1 0,1-1,0-1,0-1,0 0,1-1,24-1,-33-1,-1 0,1 0,-1-1,0 0,0 0,0-1,0 0,0 0,0 0,-1 0,1-1,-1 0,0 0,-1-1,1 1,-1-1,1 0,-1-1,-1 1,1 0,-1-1,0 0,0 0,-1 0,0 0,0 0,2-11,3-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="523">1133 874,'8'0,"9"0,9 0,5 0,11 0,16 9,17 3,17 4,7-1,-4-2,-10 0,-14-2,-15-3,-13-2,-9-3,-10-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1155">1106 1614,'144'2,"157"-4,-136-23,-142 24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="183730.75">259 0,'0'174,"-7"512,-45-1,-125 360,170-1016,3-14,0 0,1 0,1 1,1-1,0 27,1-39,1 0,-1-1,1 1,0-1,0 1,0-1,1 0,-1 1,0-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 0,-1 0,1-1,-1 1,1-1,0 1,3-1,11 2,0-1,1-1,26-3,-26 2,77-4,127 11,304 4,-3-39,-249 12,191 14,-237 5,30-2,-222 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1004 281,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-585">921 535,'0'68,"-8"307,2-294,-5 0,-32 123,13-107,15-53,1 0,3 2,2-1,-5 56,14-95,1 0,-1 0,1 0,0 1,2-1,-2-1,1 2,1-1,-1 0,1-1,0 0,0 1,1-1,0 1,0-2,1 1,-1-1,1 1,0-1,0 0,0-1,0 1,2-1,10 6,-2-2,-1-3,1 1,0 0,0-1,1-1,-1-1,1 0,0-1,25-1,-33-1,-2 0,1 0,-1-1,0 0,0 0,1-1,-1 0,0 0,0 0,-1 0,2 0,-2-1,0 0,-1-1,1 1,-1-1,1 1,0-2,-2 1,1 0,-1-1,0 1,0-1,-1 0,0 0,0 1,2-12,4-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="523">1167 841,'9'0,"8"0,10 0,5 0,11 0,17 9,17 2,18 5,7-2,-4-1,-11-1,-13-1,-17-3,-12-3,-10-2,-11-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1155">1140 1553,'148'2,"162"-4,-140-22,-146 23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="183730.75">267 0,'0'167,"-7"494,-47-2,-128 347,174-978,4-14,0 1,1-1,1 2,1-2,0 26,1-37,1 0,-1-1,1 1,0-1,0 1,0-1,1 0,-1 1,0-2,1 1,0 0,-1 0,1 0,1 0,-1 0,0 0,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 0,-1-1,1 0,-1 1,2-1,-1 1,3-1,11 2,1-1,0-1,28-3,-28 2,80-3,131 9,313 5,-3-38,-257 12,197 13,-244 5,31-2,-229 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22550,14 +22599,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 259,'3'1,"-1"-1,1 1,0-1,0 1,0 0,0 0,-1 0,1 1,0-1,-1 0,1 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,1 1,-1-1,1 4,4 10,0-1,-2 1,4 21,-7-32,22 108,95 368,-94-411,10 34,4-2,59 112,-93-207,1 0,0-1,0 1,1-1,0 0,0-1,13 10,-18-14,1 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 0,1 0,0 0,-1 0,1 0,0 0,2-1,-2 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1-1,-1 1,0-1,0 1,0-1,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 0,-1 0,0-3,12-107,-10 70,9-41,130-490,-18 203,-57 192,-56 151</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1391.99">1032 947,'-1'-1,"1"0,-1-1,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 1,-1-1,-1 2,-1 0,1 0,0 0,0 0,0 0,1 1,-1 0,0-1,1 1,0 0,0 0,0 0,0 1,0-1,0 0,-1 5,-4 28,0 0,3 1,1-1,1 1,2 0,6 43,-5-75,0-1,0 1,0 0,0 0,1-1,0 1,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,1 0,-1-1,1 1,-1-1,1 0,0 0,0-1,1 1,-1-1,0 0,1 0,0 0,-1-1,1 1,0-1,0 0,0-1,0 1,-1-1,1 0,0 0,0-1,0 1,0-1,0 0,0 0,-1-1,1 1,-1-1,1 0,-1-1,8-4,-5 2,0-1,0 0,-1 0,0 0,0-1,-1 0,0 0,6-11,32-66,-39 75,1-2,0-1,-1 1,0-1,-1 0,0-1,-1 1,-1 0,0-1,0-12,-1 20,-1 0,0 0,1-1,-2 1,1 0,0 0,-1 0,0 1,0-1,-1 0,1 1,-1-1,0 1,0 0,0 0,-1 0,0 0,1 1,-1-1,0 1,-1 0,1 0,-9-4,-15-6,19 7,-1 1,1 0,-2 1,1 0,0 0,-1 1,0 1,1-1,-1 2,-17-1,11 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2254">1297 1000,'0'14,"0"17,0 9,0 1,0 4,0-3,0-3,0-3,0-5,0-2,0-1,4-7,6-5,7-7,-1-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2917.02">1800 338,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4768">1694 418,'-30'480,"-34"-12,57-423,4-22,8-45,5-16,-4 16,15-45,31-72,-44 122,0-1,1 1,1 1,1 0,0 0,1 1,1 1,0 0,19-16,-27 26,0 1,0-1,0 1,0 0,1 1,-1-1,1 1,0 0,0 0,0 1,0-1,0 2,0-1,0 0,0 1,0 0,0 1,0-1,0 1,0 1,10 2,-10-1,1 0,-1 0,0 1,0 0,0 0,-1 1,1 0,-1 0,0 0,-1 0,1 1,-1 0,0 0,0 0,-1 0,0 0,5 14,-3-5,-1 0,0 0,-1 0,0 0,-2 1,1-1,-2 1,0-1,-4 24,2-29,0 0,0 0,-1-1,-1 1,1 0,-2-1,1 0,-1 0,-1 0,1-1,-2 0,1 0,-1 0,0-1,-12 10,13-13,-1-1,0 1,0-1,0 0,0 0,-1-1,1 0,-1 0,0-1,1 0,-16 0,-10-1,-47-7,69 6,6 0,0 0,0 0,0 0,-1-1,1 0,1 0,-9-4,-4-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5348.99">2646 233,'55'-2,"87"-16,-100 11,18-4,-42 6,1 2,0 0,0 1,28 0,-45 2,1 1,-1-1,0 0,1 1,-1-1,0 1,0 0,1-1,-1 1,0 0,0 1,0-1,0 0,0 0,-1 1,1-1,3 4,7 12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6017.04">2488 682,'4'0,"11"0,7 0,9 0,17 0,9 0,0 0,-5 0,-8 0,-6 5,-9 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7526.99">3916 21,'-1'-1,"1"0,-1 0,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 1,0-1,-1 0,1 0,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0 0,-1-1,1 1,0 0,-1 0,-1 0,-42 2,24 5,0 0,0 1,1 2,0 0,1 1,0 1,1 0,0 2,1 0,0 1,1 0,1 1,1 1,0 1,-17 28,24-31,0 1,0 0,2 0,0 0,1 1,-3 25,3 5,3 52,1-87,0 28,1 49,0-81,0 1,0-1,1 0,0 0,0 1,1-1,7 14,-7-18,0 0,1 0,-1-1,1 0,-1 1,1-1,0 0,0-1,1 1,-1-1,0 0,1 0,-1 0,1-1,0 1,0-1,7 1,11 1,0-1,32-1,-46-1,72 0,144-4,-218 3,-1 0,1 1,-1-2,1 1,-1-1,1 0,-1-1,0 1,0-1,0 0,0-1,-1 1,1-1,-1-1,9-8,-7 5,-1 0,0 0,-1-1,0 0,0 0,-1-1,0 1,0-1,2-13,1-17,-2 1,-1 0,-3-1,-3-47,2 79,0-17,-2-1,0 1,-8-32,7 47,0 1,0 0,-1 0,0 1,-1-1,0 1,0 0,-1 0,0 1,0 0,-15-13,12 12,0 1,-1 0,0 1,0 0,-1 0,0 1,0 0,0 1,-1 0,1 1,-1 1,0-1,0 2,-21-1,9 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 248,'3'1,"-1"-1,1 1,0-1,1 1,-1 0,0 0,-1 0,1 1,0-1,-1 0,1 1,-1 0,2 0,-2 0,0 0,0 0,0-1,0 1,0 1,-1-1,1 1,-1-1,1 1,-1-1,1 4,5 9,-1-1,-2 2,4 19,-7-30,23 103,99 354,-98-395,11 33,3-3,62 109,-97-200,1 1,1-1,-1 1,1-2,0 1,1-1,12 9,-18-13,1 0,0 0,0 0,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 0,1 0,0 0,-1 0,1 0,1 0,1-1,-2 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0-1,0 1,0-1,-1 1,1-1,0 0,-1 0,2 1,-2-1,1 0,-1 0,0-2,12-104,-10 68,10-40,134-469,-18 194,-59 184,-59 145</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1391.99">1074 908,'-1'-1,"1"1,-1-2,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-2 0,2 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-2 0,2 1,-1-1,1 1,-1-1,-1 2,-1 0,1 0,0 0,0 0,-1 0,2 1,-1 0,0-1,1 0,0 1,0 0,0 0,0 1,0-1,0 0,-2 4,-3 28,0-1,3 2,1-2,0 2,3-1,7 42,-6-72,0-1,0 1,0-1,0 1,1-1,0 1,0-1,0 0,1 0,-1 0,2 0,-1 0,0 0,1-1,-1 0,1 1,-1-1,2 0,-1 0,0-1,1 1,-1-1,0-1,2 1,-1 0,-1-1,1 1,0-1,1 0,-1-1,0 1,-1-1,1 0,1 0,-1-1,0 1,0-1,0 0,1 0,-2-1,1 1,-1-1,1 0,-1 0,9-5,-6 2,1-1,-1 1,-1-1,0 0,1-1,-2 1,0-1,6-10,34-64,-41 72,2-1,-1-2,-1 2,0-2,-1 1,0-2,-1 2,-1-1,0 0,1-12,-2 19,-2 0,1 0,1 0,-2 0,1 0,0 0,-1 1,0 0,0-1,-1 0,1 1,-1-1,0 2,-1-1,1 0,-1 0,0 0,1 1,-1 0,0 0,-2 0,2 0,-9-4,-16-5,19 6,0 1,0 0,-1 2,1-1,-1 0,0 1,-1 1,2-1,-2 2,-17-1,12 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2254">1350 959,'0'14,"0"15,0 10,0 0,0 4,0-2,0-4,0-2,0-6,0-1,0-1,4-7,7-5,6-6,0-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2917.02">1873 324,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4768">1763 401,'-31'460,"-36"-11,60-405,4-22,8-44,6-14,-5 15,16-43,32-70,-46 118,0-1,2 0,0 2,2 0,-1-1,2 2,0 1,1-1,19-15,-28 26,0 0,1-1,-1 1,0 0,1 1,-1-1,2 1,-1 0,0 1,0 0,1-1,-1 2,0-1,0 0,1 1,-1 0,0 1,0-1,1 1,-1 1,10 1,-9 0,0 0,-1 0,1 1,-1 0,0 0,-1 0,1 1,0 0,-1 0,-1 0,1 0,-1 1,1 0,-1 0,-1-1,0 1,5 13,-3-4,0-1,-1 0,-1 1,0-1,-2 2,1-2,-2 1,0 0,-4 22,2-27,0-1,0 1,-1-2,-2 2,2 0,-2-2,1 1,-1 0,-1-1,0 0,-1 0,1-1,-1 1,-1-1,-12 9,14-12,-1-1,0 0,-1 0,1 0,0 0,-2-1,2 0,-1 0,0-1,0 0,-16 0,-10-1,-49-7,71 6,7 0,0 0,0 0,-1 0,0-1,1 0,1 0,-10-3,-3-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5348.99">2754 224,'57'-2,"91"-16,-104 12,18-5,-43 6,1 2,0 1,-1 0,30 0,-47 2,1 1,0-1,-1 0,1 1,-1-1,0 1,0 0,1-1,-1 0,0 1,0 1,0-1,1 0,-1 0,-1 1,1-1,3 4,7 11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6017.04">2590 654,'4'0,"11"0,8 0,10 0,16 0,11 0,-1 0,-5 0,-8 0,-6 5,-10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7526.99">4076 20,'-1'-1,"1"0,-1 0,1 0,-1-1,0 1,1 0,-1 1,0-1,0 0,0 0,1 0,-1 0,0 1,-1-1,0 0,1 0,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0 0,-1-1,1 1,0 0,-1 0,-1 0,-44 2,25 5,0-1,0 2,1 2,1-1,0 2,0 0,1 1,1 1,0 1,0 0,2 0,0 2,1 0,1 1,-19 27,26-29,0 0,0 1,1-1,1 0,1 2,-3 23,3 5,3 50,1-84,0 28,1 46,0-77,0 0,0 0,1 0,0-1,0 2,1-1,8 13,-8-17,0 0,1-1,-1 0,1 0,-1 1,1-1,1 0,-1-1,1 1,-1-2,0 1,2 0,-2 0,1-1,0 1,0-1,8 1,11 1,0-1,33-1,-48-1,76 0,149-4,-227 3,-1 0,2 1,-2-2,1 1,-1-1,2 0,-2-1,0 1,0 0,1-1,-1-1,-1 1,1-1,0-1,8-7,-7 4,0 1,-1-1,-1-1,0 1,1-1,-2-1,0 2,0-2,2-12,2-16,-3 0,-1 1,-3-1,-3-46,2 76,0-16,-2-1,0 1,-9-30,8 44,0 2,0-1,-1 0,0 2,-2-2,1 1,0 1,-1-1,0 1,-1 1,-15-14,13 13,0 0,-2 0,1 2,-1-1,0 0,0 1,-1 0,1 2,-2-1,2 1,-2 1,1-1,-1 2,-21-1,9 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22584,16 +22633,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 65,'6'8,"0"0,0 0,-1 0,0 1,0 0,3 10,7 10,12 28,37 111,-21-48,-25-72,-2-5,26 50,-37-82,1-2,0 1,0 0,1-1,0-1,1 1,0-1,0 0,1-1,12 9,-16-13,0-1,0 1,0-1,0-1,0 1,0-1,0 0,1 0,-1 0,1-1,4 1,-7-2,0 1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,-1-1,1 1,0 0,-1-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,-1-1,1 1,2-4,13-30,23-69,-14 33,185-405,-170 389</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1521">980 514,'-5'0,"1"0,0 0,-1 1,1-1,0 1,0 0,-1 0,1 0,-8 4,10-4,0 1,0 0,0-1,0 1,1 0,-1 0,0 0,1 0,0 1,-1-1,1 0,0 1,0-1,0 0,0 1,1-1,-1 1,0 4,-1 8,0 0,0 1,2-1,0 0,1 0,3 18,-4-28,1 0,1 0,-1 0,1 0,-1-1,1 1,1-1,-1 0,1 1,-1-1,1 0,0 0,1-1,-1 1,1-1,-1 1,1-1,0 0,0 0,1-1,-1 1,9 2,3 1,1-1,0-1,-1-1,1 0,0-1,1-1,-1-1,0 0,21-4,-36 4,1-1,-1 1,0-1,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,-1-1,1 0,0 1,-1-1,1 0,-1 0,2-2,-1-1,0 0,-1 1,1-1,-1 0,0 0,0 0,0 0,-1-9,-1-8,-1 1,-1-1,-7-28,7 37,2 10,0 0,0 0,0-1,0 1,-1 0,0 0,1 0,-1 1,0-1,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,0 0,0-1,0 1,0 0,-1 0,1 1,-4-1,-11-1,1 1,-1 1,0 0,-19 4,-3-1,17-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2443">1271 488,'0'5,"0"5,0 15,0 8,0 12,0 2,0 3,0-4,0-4,0-5,4-8,7-10,5-8,9-15,6-11,0-8,-3 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3534">1615 65,'-26'339,"1"-39,25-292,0-1,1 1,0 0,0 0,0 0,1-1,0 1,1-1,5 12,-7-17,0 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0-1,-1 1,1-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,1-1,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 0,0-1,1 1,-1-1,0 1,0-1,1 0,-1 0,4-2,8-6,0 0,-1-1,0 0,-1-1,0-1,0 0,15-21,-17 21,-3 3,59-74,-60 75,0-1,-1-1,0 1,0-1,-1 0,0 0,3-15,-6 23,-1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,0 1,1-1,-1 0,0 1,0 0,-1-1,1 1,-2-3,-1 2,1 0,0 0,-1 0,0 1,1-1,-1 1,0 0,0 0,0 0,-5 0,-4 0,-1 0,1 1,-1 1,1 0,-21 5,-35 18,42-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4115">2224 541,'4'-4,"11"-2,7 0,9 1,4 2,4 1,1 1,2 0,-1-3,-4-2,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4731.99">1959 1044,'4'0,"29"-9,23-7,0-6,1 1,-5 4,-7 5,-6 0,-6 2,-4 3,-2 2,-1 2,-6-2,-5-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5570">3309 144,'174'-11,"-15"0,-158 10,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 1,0-1,1 1,-1-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 0,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,0 1,0-1,-1 3,-1 7,-1 0,0 0,0 0,-9 18,9-21,-211 427,-3 7,186-372,27-64</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6027.99">3256 805,'4'0,"2"-4,4-2,5 1,5 0,2 2,4 1,0 1,6-4,24-6,20 0,20-4,12 2,-8-3,-17 3,-13 2,-19 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7138">4288 197,'-97'165,"76"-122,2 1,1 0,3 2,2 0,2 0,1 1,3 0,-1 62,7-104,1 1,1-1,-1 0,1 0,-1 1,2-1,-1 0,0 0,1 0,0 0,0 0,1 0,-1-1,1 1,0-1,0 0,1 0,-1 0,1 0,7 6,-4-6,1 0,0 0,-1 0,1-1,0-1,1 1,-1-1,0 0,1-1,-1 0,1-1,10 0,1 0,31 1,0-3,90-14,-136 15,0 0,-1-1,1 0,0 0,-1 0,0-1,1 1,-1-1,0 0,0 0,-1 0,1-1,0 1,-1-1,0 0,0 0,0 0,-1-1,1 1,-1 0,0-1,0 0,-1 1,1-1,-1 0,1-9,1-11,-1-1,-2 0,0 0,-4-28,0-1,3 22,-1 1,-10-54,9 75,0 0,0 0,-1 1,-1 0,1-1,-2 1,1 1,-2-1,1 1,-1 0,-10-10,11 13,0 1,0 0,0 0,0 0,-1 1,1 0,-1 0,0 0,-1 1,1 0,0 1,-1-1,0 2,0-1,1 1,-12-1,-3 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8297.99">5161 991,'2'35,"1"0,9 38,-8-50,0-7,0 0,0-1,2 1,0-1,1 0,11 20,-16-32,0 0,1 1,-1-1,1 0,0 0,0 0,0-1,0 1,0-1,1 1,-1-1,1 0,5 2,-6-3,0-1,-1 0,1 1,0-1,0 0,0-1,-1 1,1 0,0-1,0 1,-1-1,1 0,0 0,-1 0,1 0,-1-1,0 1,1-1,-1 1,0-1,0 0,3-3,4-4,0-2,0 1,-1-1,0 0,10-21,7-11,21-25,-3 6,40-78,-70 111</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 63,'6'8,"1"-1,-1 1,-1 0,0 1,0-1,4 11,7 9,12 27,39 108,-22-47,-27-70,-1-4,27 48,-39-79,2-3,-1 2,0 0,1-1,1-2,0 2,0-1,1 0,0-2,13 10,-17-13,1-1,-1 1,0-2,0 0,1 1,-1-1,0 0,1 0,-1 0,2-1,3 1,-7-2,0 1,1 0,-1-1,0 1,0-1,0 0,0 0,0 0,0-1,0 2,0-1,-1-1,1 0,-1 0,0 0,0 0,1 0,0 0,-1 0,-1-1,1 1,2-4,14-28,23-68,-13 32,192-392,-177 377</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1521">1024 498,'-5'0,"1"0,0 0,-1 1,0-1,1 1,0 0,-1 0,1 0,-9 3,11-3,0 1,0 0,0-1,0 1,1 0,-2 0,1 0,1 0,0 1,-1-1,1 0,0 1,0-1,0-1,0 2,1-1,-1 1,0 4,-1 8,0-1,0 2,2-2,0 1,1-1,3 18,-4-27,1 0,1 0,-1-1,1 1,-1-1,1 1,1-1,-1 0,2 1,-2-2,1 1,0 0,1-1,-1 1,1-1,0 1,0-1,0 0,0-1,1 0,0 1,8 2,4 1,1-1,-1-1,0-1,1 0,0-2,0 0,0-1,0 0,22-3,-38 3,1-1,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0-1,0 1,-1-1,1 0,0 1,-1-1,1 0,-1 0,3-2,-2 0,0-1,-1 1,1-1,-1 0,0 0,0 1,0-1,-1-9,-1-7,-1 0,-1 0,-8-27,8 35,2 10,0 0,0 0,0 0,0 0,-1 0,0 0,1 0,-1 1,0-1,-1 0,1 1,-1-1,1 1,-1 0,1 1,-1-1,0 0,-1 0,1 0,0 1,0 0,0-1,0 1,0 0,-2 0,2 1,-4-1,-12-1,1 1,0 1,-1 0,-20 4,-3-1,18-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2443">1328 473,'0'4,"0"6,0 14,0 8,0 12,0 1,0 4,0-5,0-3,0-5,5-8,6-10,6-7,9-15,6-10,1-9,-4 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3534">1688 63,'-27'328,"1"-37,26-284,0 0,1 1,0 0,0 0,0-1,1 0,0 1,1-1,6 11,-8-16,0 0,0 0,1 0,-1 0,1-1,-1 1,1-1,0 0,-1 1,1-1,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,0-1,0 1,1-1,-1 1,1-1,0 0,-1 0,0 0,1 0,-1 0,0-1,1 1,-1-1,0 1,1-1,0 0,-1 0,4-2,9-5,-1-1,0-1,-1 0,0 0,0-2,-1 1,16-21,-17 20,-4 3,62-71,-63 72,1-1,-2 0,0 0,0-1,0 1,-1-1,3-14,-6 22,-1 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 1,1-1,-1 1,1-1,-1 1,0-1,0 1,1-1,-1 0,0 1,0 0,-1-1,1 1,-3-3,0 2,1 0,0 0,-1 0,0 1,0-1,0 2,0-1,0 0,0 0,-6 0,-3 0,-2 0,2 1,-2 1,1 0,-21 4,-37 19,43-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4115">2325 524,'4'-4,"11"-2,8 0,10 2,3 1,5 1,1 1,2 0,-1-3,-5-2,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4731.99">2048 1011,'4'0,"30"-9,25-6,-1-7,2 2,-6 4,-7 4,-6 0,-6 3,-5 2,-2 2,-1 2,-6-2,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5570">3459 139,'182'-10,"-16"-1,-165 10,1 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,2 0,-2 1,0-1,1 1,-1-1,0 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 1,2-2,-2 1,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,0 1,0-1,-1 3,-2 7,0-1,0 1,0 0,-9 17,8-21,-219 415,-4 6,194-361,29-61</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6027.99">3403 780,'5'0,"1"-4,4-2,6 1,5 0,2 2,4 1,0 1,7-3,24-7,22 0,20-3,13 1,-9-2,-17 2,-14 2,-19 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7138">4482 191,'-101'160,"79"-119,2 2,1-1,3 3,3-1,1 1,2 1,3-1,-2 61,8-102,1 2,1-1,-1 0,1 0,-1 1,2-2,-1 1,0 0,1 0,1 0,-1 0,1 0,-1-2,1 2,0-1,0 0,1 0,0 0,0 0,7 5,-3-5,0 0,0 0,0 0,0-1,0-1,2 1,-2-2,0 1,2-1,-2 0,2-1,10 0,0 0,34 1,-1-3,94-13,-141 14,-1 0,-1-1,1 0,1 0,-2 0,0-1,1 1,-1-1,0 1,1-1,-2 0,1-1,0 1,-1-1,0 0,1 0,-1 0,-1 0,1 0,-1 0,0-1,0 0,-1 1,1-1,-1 1,1-10,2-10,-2-1,-2-1,0 1,-4-27,-1-1,4 21,-1 1,-10-52,9 72,-1 0,1 1,-1 0,-1 0,1 0,-3 0,2 1,-2-1,1 2,-2-1,-10-9,12 12,0 1,0 0,-1 0,1 0,-1 2,1-1,-2 0,1 0,-1 1,0 0,1 1,-1-1,-1 2,1-1,1 1,-13 0,-3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8297.99">5395 960,'2'34,"1"-1,9 38,-7-49,-1-6,0-1,0 0,2 0,1 0,0-1,12 20,-17-31,0 0,1 1,-1-1,1 0,0 0,1 0,-1-1,0 1,0-2,1 2,-1-1,1 0,6 2,-7-3,0-1,-1 0,1 1,1-1,-1 0,0-1,-1 1,1 0,0-1,0 1,-1-1,2 0,-1 0,-1 0,1 0,-1-1,0 1,1-1,-1 1,0 0,0-1,4-3,3-4,1-2,-1 2,-1-2,1 0,9-20,9-10,21-25,-3 6,41-76,-72 108</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22816,7 +22865,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">110 1839,'-2'0,"0"-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,1 1,0-1,-1 1,1-1,0 1,0-1,-2-3,-18-36,11 11,0-1,2 0,1-1,-4-52,1-137,10 183,3-686,-2 687,0-15,2 0,1 0,16-63,-19 112,0 0,0-1,1 1,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,1 1,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 1,1 0,-1 0,1 0,6 0,9-1,0 1,0 0,37 5,-9 0,1617 5,-1000-12,-217 5,480-4,-715-9,-180 7,0-2,0-1,-1-1,45-19,309-132,-385 159,1 0,-1-1,1 1,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 0,1 1,0-1,-1 1,1-1,-1 0,1 1,-1 0,0-1,1 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,-1 1,1 1,-16 54,12-43,-43 142,-65 242,46-169,34-127,-20 114,-50 260,93-436</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">114 1756,'-2'0,"0"-1,0 1,0-1,0 0,-1 0,2 0,-1 0,0 0,1 0,-1 0,0 0,1 0,0-1,-1 1,1-1,0 1,0-1,-2-3,-19-34,12 10,-1 0,3-1,1 0,-5-51,2-130,10 175,3-655,-2 655,0-13,2-1,1 0,17-59,-20 106,0 0,0-1,1 1,-1 0,1 1,0-1,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 2,0-1,0 0,0 0,1 0,-1 0,1 1,-1-1,0 1,1 0,-1 0,1 0,7 0,8-1,1 1,0 1,38 3,-10 1,1675 5,-1035-12,-225 5,497-4,-741-9,-186 8,0-3,1-1,-2 0,46-19,321-126,-399 152,1 0,-1-1,1 1,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,1 0,-2 0,1 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 0,1 1,0-1,-1 1,1-1,-1 0,1 1,-1 0,0-1,1 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,0 1,0-1,0 0,0 1,1 0,-1-1,0 1,0 0,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,0-1,-1 1,1 1,-17 51,13-40,-44 135,-68 231,47-161,36-122,-21 109,-51 249,95-417</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22843,15 +22892,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">768 2249,'0'1062,"-1"-1048,1 0,1-1,0 1,1 0,1 0,0-1,1 1,0-1,9 19,-8-22,-1 0,0 0,-1 0,0 1,-1-1,0 1,-1 0,1 12,-9 89,3-61,4-49,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,1 0,-1-1,3 1,11 2,0-1,0 0,23-1,-10-1,260 35,31 1,199-13,178 13,-562-23,480 25,-460-37,219-7,-365 5,-1 0,1-1,-1 0,0 0,1-1,-1 0,0-1,-1 0,1 0,-1-1,0 1,0-2,0 1,-1-1,1 0,-1 0,-1-1,1 1,-1-1,-1-1,1 1,4-12,4-10,-1 0,-1-2,-2 1,9-54,-3 4,-4 0,1-104,11-129,-20 282,20-99,-21 108</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1186.99">4181 1852,'1'0,"0"-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,-1-1,2 3,28 29,-28-29,8 11,0 0,-1 1,-1 0,0 0,-1 1,0 0,-2 0,8 33,-5 1,3 86,-9-82,12 66,-10-115,-1-16,2-28,-4 32,17-91,50-159,-3 17,-43 172,-10 44</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2460">4684 2222,'12'-1,"0"-1,0-1,-1 0,1 0,0-1,-1-1,0 0,0 0,0-1,-1-1,17-13,-14 11,1 0,0 0,0 1,1 1,26-9,-38 15,0 1,0-1,0 0,0 1,0 0,1 0,-1 0,0 0,0 0,0 1,0 0,0-1,0 1,0 0,0 0,0 1,0-1,0 1,3 1,-2 1,0-1,0 1,-1 0,1 0,-1 1,0-1,0 1,0-1,-1 1,3 7,2 7,-1 1,-1 1,-1-1,3 35,-1 21,-3 0,-8 97,4-171,1 1,-1 0,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,1 0,-1 0,1 0,-1 1,0-1,0-1,0 1,0 0,0 0,0-1,0 1,0-1,-3 1,0 1,-1-1,1-1,-1 1,1-1,-1 0,0 0,1 0,-1-1,0 0,-7-1,6 1,1-1,0 0,0-1,0 1,0-1,0 0,0-1,0 0,-7-4,11 6,0-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,1 1,-1-4,1 4,1-1,-1 1,0-1,1 1,-1-1,1 1,0-1,0 1,0-1,0 1,1 0,-1 0,0 0,1-1,0 1,-1 1,1-1,0 0,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,0 0,1 0,-1 0,1 1,-1-1,1 1,-1-1,1 1,0 0,-1 0,4 0,4 0,0 0,0 1,-1 0,1 1,0 0,-1 0,1 1,11 5,8 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3279">4393 0,'0'14,"0"31,0 39,0 15,0 8,0 27,0-1,0-18,0-24,0-24,0-18,0-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3931">4181 635,'9'0,"7"0,15 0,6 0,6 0,1 0,5 0,5 0,-4 0,-10 5,-6 1,-11-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5053">3758 2937,'4'0,"6"0,7 0,3 0,4 0,2 0,2 0,-1 0,1 0,-1 0,0 0,5 0,1 5,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6087.52">54 159,'4'9,"2"12,-1 21,0 20,-2 18,-1 14,-1 4,0-1,-1-13,4-15,2-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6750.52">1 635,'0'-4,"9"-2,7 0,6 1,7 2,5 1,4 5,-4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7715.52">106 2513,'9'0,"7"0,11 0,4 0,7 0,1 0,2 0,0 0,1 0,-2 0,2 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">794 2153,'0'1016,"-1"-1002,1-1,1 0,0 0,1 0,1 1,0-2,1 2,0-2,10 19,-9-22,-1 1,0-1,-1 1,0 1,-1-2,1 2,-2-1,1 12,-10 85,4-58,4-47,0 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,0 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1-1,1 1,-1-1,1 0,-1 1,1-1,0-1,0 1,0 0,0 0,0 0,-1-1,1 1,2 0,-2-1,3 1,11 2,1-1,-1 0,25-1,-11-1,268 33,33 2,206-13,183 12,-580-21,495 23,-475-35,227-7,-378 5,0 0,0-1,-1 1,0-1,2-1,-2 0,0-1,0 0,0 0,-1 0,0 0,0-2,1 1,-2 0,1-1,-1 0,0-1,0 2,-1-2,-1-1,1 2,4-13,5-8,-2-1,0-2,-3 1,10-51,-4 3,-4 1,2-100,11-124,-21 270,21-94,-22 103</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1186.99">4322 1773,'1'0,"0"-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1 0,1-1,0 1,1 0,-1 0,-1-1,2 2,29 29,-29-28,8 10,0 1,0 0,-2 0,0 1,-1 0,1 0,-3 1,8 31,-4 1,2 82,-9-79,12 64,-9-110,-2-15,2-28,-4 31,18-86,51-153,-3 16,-44 165,-11 42</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2460">4841 2127,'13'-1,"-1"-1,1-1,-2 0,1 0,1 0,-2-2,1 0,-1 0,0 0,0-2,17-12,-15 10,1 0,1 1,-1 0,2 2,26-10,-39 15,0 1,1-1,-1 0,0 1,0 0,1 0,-1 0,0 0,0 0,0 1,1 0,-1-1,0 1,0 0,0 0,0 1,0-1,0 1,3 1,-1 1,-1-2,0 2,-1 0,1 0,-1 1,0-1,0 0,0 0,0 1,2 6,2 8,-1 0,-1 1,-1-1,4 34,-2 19,-3 1,-8 93,4-164,1 1,-1-1,1 0,-1 1,0-1,0 1,0-1,0 1,-2-1,2 0,-1 0,1-1,-1 2,0-1,0-1,0 1,0 0,0 0,0-1,0 1,0-1,-3 1,-1 1,0-2,1 0,-1 1,1-1,-2 0,1 0,1 0,-1-1,0 0,-8-1,7 1,1-1,0 0,-1-1,1 1,0 0,0-1,0-1,-1 0,-6-4,11 6,0-1,0 1,0-1,0 0,0 1,0-1,-1 0,2 0,-1 0,1 0,-1-1,1 1,0 0,0-1,0 2,0-2,0 1,1-1,-1 0,1 1,-1-4,1 4,1 0,-1 0,0-1,1 1,-1-1,1 1,0-1,0 1,0-1,0 1,1 1,-1-1,0 0,1-1,0 1,0 1,0-1,0 0,0 0,0 1,0-1,0 1,0 0,1 0,-1 0,0 0,1 0,-1 0,1 1,0-1,0 1,-1-1,1 1,0 0,-1 0,4 0,5 0,-1 0,0 1,0 0,0 1,0 0,-1-1,2 2,11 5,7 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3279">4541 0,'0'13,"0"30,0 38,0 14,0 7,0 26,0 0,0-18,0-23,0-23,0-17,0-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3931">4322 608,'9'0,"7"0,16 0,7 0,5 0,2 0,4 0,6 0,-4 0,-11 5,-6 0,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5053">3884 2811,'4'0,"7"0,6 0,4 0,4 0,2 0,2 0,-1 0,0 0,0 0,0 0,5 0,1 5,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6087.52">56 152,'4'9,"2"11,-1 20,0 19,-1 18,-2 13,-1 4,0-1,-1-13,4-14,2-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6750.52">1 608,'0'-4,"9"-2,8 1,6 0,7 2,5 1,4 5,-4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7715.52">110 2406,'9'0,"7"0,12 0,4 0,8 0,0 0,2 0,1 0,0 0,-2 0,3 0,-8 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22878,22 +22927,22 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1374 590,'0'-38,"3"-1,1 0,1 1,3 0,1 0,18-48,-19 64,-6 14,0 1,1-1,0 1,0 0,1 0,6-9,-7 13,0 1,0-1,0 1,0-1,0 1,0 0,1 1,-1-1,1 0,-1 1,1 0,-1 0,1 0,0 0,0 1,6-1,17 0,1 1,-1 1,33 6,19 2,1114 7,-768-19,-129 5,285-4,-491-5,0-3,123-31,61-8,-242 43,0-1,-1-2,41-16,0-1,-63 24,-3-1,0 1,0 1,0-1,0 1,11-1,-15 2,0 0,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,0 0,0 1,1-1,-1 1,0 0,1 3,5 10,-1 1,-1 0,-1 0,0 1,2 25,5 105,-9-111,8 213,20 249,-17-389,4-1,50 167,-57-243</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2020.97">4681 1543,'1261'0,"-1256"0,0 0,0 0,1 0,-1 1,0-1,0 1,0 1,0-1,0 1,9 4,-11-4,-1 0,1 0,-1 1,0-1,0 1,0 0,-1 0,1-1,-1 1,1 0,-1 0,0 1,0-1,0 0,0 0,-1 0,0 1,1-1,-1 0,0 4,-1 87,-3 0,-27 148,7-69,10-48,1 175,13-297,0-1,0 1,-1 0,1-1,-1 1,0-1,1 1,-1 0,0-1,0 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,0 0,0-1,0 1,0 0,-1-1,1 1,0-1,-1 0,1 0,0 0,-1 0,0 0,1 0,-1-1,1 1,-6-1,-11 3,-1-2,1 0,-35-3,25 0,-57-1,-95-14,60 1,52 9,1-3,-69-20,126 27,1-1,0 0,1 0,-1-1,1 0,0-1,0 0,0 0,1-1,0 0,0-1,1 0,0 0,0 0,1-1,-10-18,8 10,1-1,1 0,0-1,1 0,2 1,-1-1,2-1,0-29,8-248,-1 239,2 0,3 1,19-64,-22 97,0 0,-2-1,-1 0,1-27,-5 30</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3162.96">5290 2575,'-3'59,"-2"0,-21 91,11-70,-38 197,-28 178,61-247,10 269,10-404,1-38</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5123.57">4311 4453,'12'-5,"0"1,0 0,1 0,0 1,-1 1,21-1,84 1,-59 3,994 44,-1034-43,-3-2,0 2,1 0,-1 0,-1 1,29 10,-41-12,-1 0,1 0,-1-1,1 1,0 0,-1 0,0 1,1-1,-1 0,0 0,0 1,1-1,-1 1,0-1,-1 1,1-1,0 1,0 0,-1-1,1 1,0 0,-1-1,0 1,1 0,-1 0,0 0,0-1,0 3,-2 4,1 1,-1-1,0 0,-1 0,-3 8,-6 17,-64 366,60-299,16-96,-1-1,1 1,-1-1,1 1,-1-1,0 1,0-1,0 1,-1-1,1 0,-1 1,0-1,0 0,0 0,0-1,-1 1,1 0,-1-1,0 1,1-1,-1 0,0 0,0 0,-1 0,1 0,0-1,0 0,-1 1,1-1,-1-1,1 1,-1 0,0-1,1 0,-1 1,1-2,-1 1,0 0,-3-1,-32 0,-59 6,3 1,-387 25,290-15,51-4,-173 8,312-19,-1-1,0 0,0 0,1 0,-1 0,0-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,0 1,0-1,0 0,-3-3,2 0,1 0,0-1,0 1,1 0,0 0,0-1,0 1,0-1,1-10,-1-113,6 0,29-179,-33 304,-1-4,1 0,0 0,1 1,-1-1,1 1,1-1,0 1,0 0,0 0,1 0,0 0,0 0,8-9,6 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7912.57">4813 5115,'-13'31,"1"1,2 0,1 0,-8 58,8-37,-17 108,-6 221,27 167,6-416,-1-110,1 3,-2 0,0 0,-7 32,8-53,-1 0,0 0,0 0,-1 0,1-1,-1 1,0 0,-1-1,1 0,-1 1,1-1,-1 0,-1-1,1 1,0 0,-1-1,0 0,0 0,0 0,0 0,0-1,-1 1,-7 2,1-3,-1 0,0-1,0 0,-13-1,-201-4,-878-36,-14-58,1114 97,-265-39,214 28,1-2,-87-34,21-11,72 34,-59-22,65 34,-81-13,10 3,-125-37,217 54,0-1,-37-17,42 16,-1 0,0 2,-1 0,-32-7,11 10,-70 2,-5 0,108 0,0-1,0 1,1-1,-1 0,0-1,1 0,0 0,-1 0,1 0,-8-8,-47-46,55 50,0 0,0-1,1 0,-1 0,2 0,-1 0,1 0,1-1,-1 1,1-1,1 0,-1 0,1-9,0-17,7-67,-5 94,7-45,2 1,3 0,30-77,-21 67,22-107,-41 146,-1 0,-1-1,-1 1,-1 0,-1 0,-1 0,-10-39,9 46,-1 0,-1 0,0 1,-1 0,0 0,-1 1,-1 0,0 0,-1 1,-1 0,-18-17,23 26,0 0,0 0,0 0,-1 0,0 1,0 1,0-1,0 1,0 0,0 0,0 1,-1 0,-12 0,-3 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10859.57">6983 1516,'-20'0,"8"-1,1 1,0-1,-1 2,1 0,0 0,0 1,0 0,0 1,0 0,0 1,1 0,-1 1,1 0,-13 9,-30 28,3 1,-77 87,-74 117,192-237,2 1,-1 0,1 0,1 1,0 0,1 0,0 0,1 1,0-1,1 1,0 0,1 0,1 0,0 0,0 1,2-1,2 22,-1-24,0 0,0 1,1-1,1 0,0 0,0-1,1 1,6 9,-9-16,0-1,1 1,-1-1,1 0,0 0,-1 0,1 0,1 0,-1 0,0-1,1 1,-1-1,1 0,0 0,-1-1,1 1,0-1,0 0,0 0,0 0,1 0,-1-1,0 1,0-1,6-1,1-1,1-1,-1-1,1 0,18-10,31-9,-53 21,1 0,-1-1,1 0,-1 0,0 0,0-1,0-1,7-4,-12 6,0 0,0-1,0 1,-1-1,1 1,-1-1,0 0,0 0,0 0,0 0,-1 0,0 0,0-1,0 1,0 0,-1-1,1 1,-1-5,0 4,0 0,0 1,-1-1,1 0,-1 0,0 1,0-1,-1 1,1-1,-1 1,0-1,0 1,0 0,-1 0,0 0,-3-4,0 2,1 1,-1 1,0-1,0 1,0 0,0 0,-1 0,0 1,-11-4,-8-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11776.58">7195 2204,'2'1,"1"-1,-1 0,1 1,0 0,-1-1,1 1,-1 0,0 0,1 0,-1 1,0-1,1 1,-1-1,0 1,0 0,0-1,-1 1,1 0,0 0,-1 1,2 2,26 56,-27-56,81 273,-47-144,-34-125,1-1,0 0,0 0,1 0,0 0,7 11,-10-18,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,1 1,-1-1,0 0,1 1,1-1,-1-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 1,0-2,0 1,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 1,2-4,29-42,-2-1,-3-1,24-59,-32 69,6-17,-6 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13203.57">6427 4718,'16'83,"-13"-36,3 0,2 0,1-1,3 0,18 45,-21-68,1-1,0 0,2-1,1 0,16 21,-24-37,-1 0,1 0,0 0,1 0,-1-1,1 0,0 0,0-1,0 0,0 0,0 0,1 0,0-1,-1 0,1-1,0 0,0 0,0 0,0-1,0 0,-1 0,11-2,-9 0,0-2,0 1,-1-1,1 0,-1 0,0-1,0 0,0 0,-1-1,0 0,0 0,0-1,6-9,8-6,35-36,262-290,-302 330,0-1,-2 0,20-35,-29 44,0 1,0-1,-1 0,0 0,-1 0,0-1,-1 1,0-1,0 1,-2-18,0 20,0-45,1 50,0 0,1 0,-1 1,1-1,0 0,0 1,0-1,0 0,0 1,0 0,1-1,-1 1,1 0,0-1,0 1,2-2,11-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13867.58">7512 5273,'4'5,"7"6,0 27,0 31,1 30,-1 12,2 5,4-8,-2-19,-3-9,2 2,-3-7,-3-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15401.58">4602 723,'4'5,"2"5,0 6,3 10,0 17,-1 52,2 14,0 1,-3-3,-1-12,-3-13,-1-15,3-11,1-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16081.57">4469 1199,'0'-4,"4"-2,7 0,5 1,5 2,3 1,2 1,1 0,1 1,0 0,-1 1,0 4,0 1,0 0,-5-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16986.58">4760 3183,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17840.58">4760 3183,'-5'0,"-5"0,-11 0,-5 0,-9 0,-1-4,0-2,1 1,8-5,7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18757.58">3914 3765,'0'14,"0"22,4 19,2 13,-1 4,5-1,-1-8,-1-10,2-10,0-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19485.59">3676 4003,'32'2,"60"10,-56-6,43 2,174 18,-225-25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20391.58">3914 5829,'9'0,"7"0,10 0,10 0,3 0,-1 0,-1 0,0 0,0 0,2 0,-1 0,2 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1419 566,'0'-36,"3"-2,2 1,0 1,3-1,1 1,19-47,-20 62,-5 13,-1 2,1-2,0 1,0 0,1 1,6-10,-7 13,1 2,-1-2,0 1,0-1,0 1,0 0,1 1,-1-1,1 0,0 1,0 0,-1 0,1 0,0 0,0 1,7-1,16 0,2 1,-1 1,34 6,20 2,1150 6,-793-18,-133 5,294-4,-507-4,0-4,127-29,63-8,-250 41,0-1,-1-2,43-15,-1-1,-64 24,-4-2,0 1,0 1,0-1,1 1,10-1,-15 2,0 0,0 1,0-1,-1 0,1 1,0-1,1 1,-1-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 0,0 1,1-1,-1 1,0 0,1 3,6 9,-2 2,-1-1,-1 0,0 2,2 23,6 101,-10-106,8 204,21 239,-17-374,3 0,52 160,-58-233</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2020.97">4836 1481,'1302'0,"-1296"0,-1 0,0 0,1 0,-1 1,0-1,1 1,-1 1,0-1,0 1,10 4,-12-4,-1 0,1-1,-1 2,0-1,0 1,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 2,0-1,0 0,0 0,-1 0,0 1,1-1,-1-1,0 5,-1 83,-3 1,-28 141,7-66,11-46,1 168,13-285,0-1,0 1,-1 0,1-1,-2 0,1 0,1 1,-1 0,0-1,0 0,-1 1,1-1,-1 0,1 1,-1-2,1 1,-1 0,0 0,0-1,0 1,0 0,-1-1,1 1,-1-1,0 0,1 0,0 0,-1 0,0 0,1 0,-1-1,1 1,-6-1,-12 2,-1-1,2 0,-37-3,26 1,-59-2,-98-14,62 2,54 8,1-2,-72-20,131 26,0-1,1 0,1 0,-2 0,2-1,0-1,-1 0,1 1,1-2,0 0,-1-1,2 1,0-1,0 0,1 0,-11-18,9 10,0-2,2 1,0-1,1-1,2 2,-1-1,2-1,0-28,8-238,-1 229,2 0,3 2,20-63,-22 94,-1 0,-2-1,-1 0,1-26,-5 29</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3162.96">5465 2472,'-3'57,"-2"-1,-22 88,11-67,-39 189,-28 171,62-238,11 259,10-388,1-36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5123.57">4453 4275,'13'-5,"-1"1,1 0,0 0,1 2,-2 0,22-1,87 1,-61 3,1027 42,-1069-41,-2-2,-1 2,2 0,-2 0,0 1,29 9,-42-11,-1 0,1 0,-1-1,1 1,0 0,-1 0,0 1,1-1,0 0,-1 0,0 1,1-1,-1 0,0 0,-1 1,1-1,0 1,0 0,-1-1,1 1,0 0,-1-1,0 1,1 0,-1 0,0 0,0-1,0 2,-2 5,1 1,-1-2,0 1,-1 0,-4 7,-5 17,-67 351,63-287,16-92,-1-1,1 0,-1 0,1 1,-1-1,0 1,0-1,0 1,-1-2,1 1,-1 1,0-1,-1 0,1 0,0-1,-1 1,1-1,-1 0,0 1,1-1,-1 0,0 0,0 0,-2 0,2 0,0-1,0 0,-1 1,1-1,-1-1,1 1,-1-1,-1 0,2 0,-1 1,1-2,-1 1,0 0,-3 0,-34-1,-60 5,3 2,-400 24,300-15,52-3,-178 7,322-18,-2-1,1 0,0 0,1 0,-1 0,0-1,0 1,1-1,-1 1,0-1,1 0,-2 0,2 0,-1 0,1-1,-1 1,1-1,0 1,0 0,0-1,-3-3,2 0,1 0,-1-1,1 2,1-1,0 0,0-1,0 1,0 0,1-11,-1-107,6-1,31-172,-35 292,-1-4,1 1,0-1,1 1,-1 0,1 0,1-1,0 2,0-1,0 0,1 0,0 1,1-1,7-8,7 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7912.57">4972 4910,'-13'30,"0"1,3 0,1-1,-9 57,9-36,-18 103,-6 213,28 160,6-400,-1-104,1 2,-2-1,0 1,-8 31,9-51,-1 0,0 0,0-1,-1 1,1-1,-1 1,0 0,-1-2,1 1,-1 1,1-1,-1 0,-2-1,2 0,0 1,-1-1,0 0,0 0,0 0,0 0,-1-1,0 0,-7 3,1-3,-2 0,1-1,-1 0,-12-1,-209-4,-906-34,-15-56,1151 93,-274-38,221 28,1-3,-90-32,22-10,75 32,-62-21,68 32,-84-12,10 3,-129-36,225 53,-1-2,-38-16,43 15,0 1,-1 1,0 0,-34-6,12 9,-73 2,-5 0,112 0,0-1,0 1,1-1,-2 0,1-1,1 0,0 0,-1 1,1-1,-9-8,-48-44,57 49,0-1,0-1,0 1,0-1,2 0,-1 1,1-1,1-1,-1 2,1-2,1 0,-1 1,1-10,0-15,7-65,-5 90,7-43,2 1,4 0,30-73,-21 63,22-102,-41 140,-2 0,-1-1,-1 1,-1 0,-1-1,-2 1,-9-37,9 43,-1 1,-1 0,-1 0,0 1,0 0,-1 0,-2 1,1-1,-1 2,-2-1,-18-16,24 26,0-1,0 0,0 0,-2 0,1 1,0 1,0 0,-1 0,1 0,0 0,0 1,-2 0,-11 0,-4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10859.57">7214 1455,'-21'0,"9"-1,0 1,1-1,-1 2,0 0,1 0,-1 1,1 0,0 1,-1 0,1 1,1 0,-2 0,2 1,-14 9,-30 26,2 1,-79 84,-77 112,199-227,1 0,0 1,1-1,1 2,0-1,0 1,1-1,1 2,0-2,1 2,0-1,1 1,1-1,0 1,0 0,2 0,2 20,-1-22,0 0,0 0,1 0,1-1,0 1,0-2,2 2,5 8,-9-15,0-1,1 1,-1-1,1-1,0 1,0 0,0 0,1 0,-1 0,0-1,1 1,-1-1,1-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,1 0,0-1,-1 1,0-1,6-1,1-1,2-1,-2-1,2 1,18-11,32-8,-55 20,1 0,-1-1,2 0,-2 1,0-1,1-1,-1-1,7-4,-12 7,1-1,-1-1,0 1,-1-1,1 1,-1-1,0 1,0-1,0 0,0 0,-1 0,0 0,0 0,0 0,0 0,-1-1,1 1,-1-4,0 3,0 0,0 1,-1-1,1 1,-1-1,0 1,0-1,-1 1,1-1,-1 2,0-2,0 1,0 0,-1 0,0 0,-3-3,-1 1,2 1,-1 1,0 0,0 0,-1 0,1 0,-1 0,0 1,-12-3,-8-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11776.58">7433 2116,'2'1,"1"-1,-1 0,1 1,0 0,-1-1,1 1,-1 0,0 0,2 0,-2 0,0 0,1 1,-1-1,0 1,0 0,0-1,-1 1,1 0,0 0,-1 1,2 2,27 53,-28-53,84 262,-49-139,-35-119,2-1,-1-1,0 1,1 0,0-1,7 12,-10-18,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,1 1,-1-1,0 0,1 1,1-1,-1-1,0 1,0-1,0 1,1-1,-2 0,1 0,0 1,0-2,0 1,-1 0,1 1,-1-1,1-1,-1 1,1-1,-1 1,2-4,30-40,-2-1,-3-1,25-57,-33 67,5-17,-5 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13203.57">6639 4529,'17'80,"-14"-35,3 0,2 0,2-1,2 1,19 42,-22-65,2-1,-1 0,3-1,0 1,17 19,-25-35,-1-1,1 1,1 0,0 0,-1-1,1 0,0-1,0 0,1 0,-1 0,0 0,1 0,1-1,-2 0,1-1,0 0,0 0,1-1,-1 0,0 0,-1 0,12-1,-10-1,0-2,1 1,-2-1,1 0,-1 0,1 0,-1-1,0 0,-1-1,1 0,-1 1,0-2,6-8,9-6,36-35,270-278,-311 316,-1 0,-1 0,20-34,-30 43,0 0,0-1,-1 1,0-1,-1 1,0-2,0 1,-1 0,0 0,-2-17,0 20,-1-44,2 48,0 0,2 0,-2 1,1-1,0 0,0 2,0-2,0 0,0 1,0 0,1-1,-1 1,1 0,0-1,0 1,2-1,12-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13867.58">7760 5062,'4'5,"8"5,-1 27,0 29,2 29,-2 12,3 4,3-7,-1-19,-4-8,3 2,-4-7,-3-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15401.58">4754 694,'4'5,"2"4,1 7,2 9,0 16,-1 50,3 14,-1 1,-3-4,0-11,-4-12,-1-15,3-10,1-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16081.57">4617 1151,'0'-4,"4"-2,7 1,6 0,4 2,4 1,2 1,1 0,1 1,0 0,-1 1,0 4,-1 1,1-1,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16986.58">4917 3056,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17840.58">4917 3056,'-5'0,"-5"0,-12 0,-5 0,-9 0,-1-4,0-2,1 1,8-4,7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18757.58">4043 3614,'0'14,"0"20,4 19,3 12,-2 5,5-2,-1-8,0-9,1-10,0-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19485.59">3797 3843,'34'2,"61"9,-58-5,44 2,181 17,-233-24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20391.58">4043 5596,'10'0,"6"0,11 0,10 0,3 0,0 0,-2 0,0 0,0 0,3 0,-2 0,2 0,-6 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -22977,15 +23026,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 347,'0'802,"0"-797,3 47,-2-50,-1 1,1-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,4 1,10 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1632.97">504 824,'5'-12,"-1"0,0 0,0-1,-1 0,-1 0,0 0,-1 0,0 0,-1 0,-1 0,0 0,-1 0,-3-16,4 28,1 0,0 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,-3-1,3 2,-1-1,1 1,0-1,-1 1,1 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,1 1,-1-1,-1 2,-4 7,1 1,0 0,1 0,-5 14,-16 85,5 1,4 0,-2 193,18-300,0 1,0-1,0 0,1 1,-1-1,1 0,0 0,0 0,0 1,1-1,0 0,-1 0,2-1,-1 1,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,1 0,-1-1,1 1,-1-1,1 0,0 0,0 0,0 0,0-1,0 0,0 0,1 0,-1 0,0 0,0-1,1 0,-1 0,0 0,1-1,-1 1,0-1,1 0,3-2,-2 2,-1-1,0-1,1 1,-1-1,0 0,-1 0,1 0,0-1,-1 0,0 1,0-2,0 1,0 0,-1-1,0 0,3-5,5-10,-1 0,12-40,-11 28,2-7,-2 0,-1-1,-2-1,4-61,-8-168,-5 173,1 91,0 0,-1 0,1 0,-1 0,0 1,0-1,-1 0,0 0,0 1,-3-8,3 11,0-1,0 0,-1 1,1 0,0-1,-1 1,0 0,1 0,-1 0,0 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 1,0-1,-6 0,-14-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3406.97">900 1220,'5'0,"0"0,0 0,0 0,0 1,0-1,0 1,0 0,0 1,0-1,-1 1,1 0,0 0,-1 0,0 1,1 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,1 0,-1 0,3 5,35 55,-24-37,0 0,28 31,-40-52,1 0,-1-1,1 1,1-1,-1-1,0 1,1-1,0 0,0-1,0 1,1-1,-1-1,1 0,9 2,-14-4,0 1,0-2,0 1,1 0,-1-1,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,0-1,-1 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1-1,0 1,-1-1,1 1,0-1,-1 0,1 1,1-6,4-10,0-1,-1 0,5-30,-1 10,15-38,-11 38,-2-1,7-45,-15 53</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4550.97">1853 665,'4'0,"6"0,7 0,8 0,9 0,9 0,5 0,-1 0,-4 0,0 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5561.97">2700 268,'7'151,"7"0,45 198,-51-304,-5-22,1 0,1-1,1 0,1 0,1 0,13 24,-20-43,0-1,0-1,1 1,-1 0,0 0,1 0,-1-1,1 1,0-1,-1 1,1-1,0 1,3 1,-4-3,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 1,2-2,2-4,-1 1,1-1,-1-1,0 1,-1 0,1-1,1-9,126-599,-69 293,-33 176,-21 125</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7396.97">3308 771,'87'-9,"-69"5,1 2,0 0,27 1,-42 1,0 1,-1 0,1 1,0-1,0 1,-1-1,1 1,-1 0,1 0,-1 1,0-1,0 1,0 0,0-1,0 1,0 1,-1-1,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,1 6,3 11,-1 2,0-1,1 29,-5-45,4 40,-1 0,-3 0,-1 1,-3-1,-1 0,-3-1,-1 1,-19 57,21-87,-37 95,38-101,0 0,-1 0,0-1,-1 1,1-1,-2-1,1 0,-12 10,15-15,-1 0,0 0,-1 0,1-1,0 0,-1 0,0 0,1-1,-1 1,0-1,0-1,1 1,-1-1,0 0,0 0,0-1,0 0,1 0,-1 0,0 0,1-1,-1 0,1-1,-1 1,-7-6,4 3,1 0,0 0,1-1,-1 0,1-1,0 1,1-2,0 1,0 0,0-1,1 0,0 0,1-1,-7-16,8 11,-1 0,2 0,0 0,1 0,0-1,1 1,1 0,0 0,4-20,-4 29,0 1,0-1,1 1,0-1,-1 1,1-1,1 1,-1 0,1 0,-1 0,1 0,0 1,1-1,-1 1,0-1,1 1,0 0,0 1,0-1,0 1,0 0,1 0,-1 0,0 0,1 1,0-1,-1 1,1 1,0-1,0 1,5-1,-3 1,1 1,0 0,0 0,-1 0,1 1,-1 0,1 1,-1 0,0 0,0 0,0 1,-1 0,8 5,3 6,0 0,-1 2,15 18,-15-16,1-1,27 24,-38-39,-1 1,1-1,-1 0,1 0,0-1,0 0,1 0,-1 0,0-1,0 0,10 1,73-5,-48 0,-12 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9233.97">4181 665,'4'0,"7"0,5 0,5 0,3 0,2 0,6 0,1 0,5 0,0-4,-6-7,-9 9,-8 21,-7 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9934.97">4181 1088,'9'0,"7"0,6 0,4 0,1 0,1 0,5 0,1 0,-1 0,-1 0,-2 0,-1 0,-2 0,5 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11759.97">5107 506,'-5'1,"0"-1,0 1,0 0,0 0,0 1,1-1,-1 1,0 0,1 0,0 1,-1-1,1 1,0 0,0 0,1 1,-1-1,1 1,-1-1,1 1,0 0,1 1,-1-1,1 0,-4 8,-3 10,0 1,2 0,-8 40,15-62,-11 65,3 1,3-1,4 1,10 113,-9-172,1-1,0 1,1-1,-1 1,1-1,1 0,-1 0,1 0,0 0,1 0,0-1,7 10,-7-12,1 0,-1 0,1 0,0-1,0 0,0 0,0 0,0 0,1-1,-1 0,1 0,0-1,0 1,-1-1,1-1,8 1,66 3,125-10,-201 6,-1 0,0 0,1 0,-1-1,0 1,0-1,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,3-3,-3 1,-1 1,0 0,0-1,-1 1,1 0,-1-1,0 1,0-1,-1 1,1-1,-1 1,0 0,0-1,0 1,-1 0,-2-6,-24-59,10 27,-17-60,-47-173,77 254,-1 1,-16-37,19 50,-1 0,1 1,-1-1,-1 1,1 0,-1 0,0 1,0 0,-1-1,0 2,-8-6,-10-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 334,'0'771,"0"-766,3 45,-2-48,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,2-1,-2 0,1 0,-1 0,1 0,0-1,-1 1,1-1,0 1,4 1,11 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1632.97">527 792,'6'-11,"-2"-1,0 1,0-2,-1 1,-1-1,1 1,-2-1,0 1,-1-1,-1 1,0-1,-2 1,-2-16,4 27,1 0,0 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 1,0 0,0-1,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,-3-1,3 2,-1-1,1 1,0-1,-1 1,1 0,-1 0,1 0,0-1,0 1,0 0,-2 0,2 0,0 0,0 0,1 1,-1-1,-1 2,-4 7,1 0,-1 1,2-1,-5 14,-17 82,5 1,4 0,-2 185,19-288,0 1,0-2,0 1,1 1,-1-1,1 0,0 0,0-1,0 2,1-1,1 0,-2 0,2-1,-1 1,0-1,1 0,-1 1,1-1,0 0,1 0,-1 0,1 0,-1-2,1 2,-1-1,2 0,-1 0,0 0,0 0,0-1,0 0,1 0,0 0,-1 0,0 0,0-1,2 0,-2 0,0 0,1-1,-1 1,1-1,0 0,3-2,-1 2,-2-1,0-1,1 1,0-1,-1 1,-1-1,1 0,0-1,0 0,-1 1,0-2,0 2,0-1,0-1,-1 0,3-5,5-9,0 0,12-39,-12 28,3-8,-2 1,-2-2,-2 0,5-59,-9-162,-5 167,1 87,0 0,-1 0,1 1,-1-1,0 1,0-1,-1 0,0 1,0 0,-4-8,4 11,0 0,0-1,-1 1,1 0,0-1,-1 1,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,-1 0,0 0,1 1,0-1,-6 0,-16-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3406.97">942 1173,'5'0,"0"0,1 0,-1 0,0 1,0-1,1 1,-1 0,0 1,0-1,-1 1,2 0,-1 0,-1 0,0 0,2 1,-2 0,0 0,0 0,-1 1,1-1,0 1,0-1,-1 1,3 5,37 52,-25-35,0 0,29 30,-42-50,1 0,0-2,0 2,1-1,-1-1,1 1,0-1,0-1,1 0,-1 1,1-1,0-1,0 0,10 2,-15-4,0 1,0-2,0 1,2 0,-2-1,0 1,0-1,0 0,0 0,-1 0,2 0,-1 0,0-1,-1 0,1 1,-1-1,1 0,-1 0,0 0,2 1,-2-2,0 1,-1-1,1 1,0-1,-1 0,1 1,1-5,5-11,-1 0,-1 0,6-29,-2 9,16-36,-11 37,-2-2,6-43,-14 52</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4550.96">1939 639,'5'0,"5"0,8 0,8 0,10 0,9 0,5 0,-1 0,-4 0,0 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5561.96">2826 258,'7'145,"8"0,47 191,-54-293,-5-21,1 0,2-1,0 0,1 1,2-1,13 23,-21-41,0-1,0-1,1 1,-1 0,0 0,1-1,-1 0,1 1,0-1,-1 1,1-1,0 1,4 1,-5-3,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,2-1,-2 1,2-2,2-3,-1 0,1-1,-1-1,0 1,0 1,0-2,1-8,132-577,-72 283,-35 168,-22 121</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7396.96">3462 741,'91'-8,"-72"4,1 2,0 0,28 1,-44 1,1 1,-2 0,1 1,0-1,0 1,-1-1,2 1,-2 0,1 0,-1 0,0 0,0 1,0 0,1-1,-1 1,0 1,-1-1,0 0,0 0,0 0,0 1,0-1,-1 1,2 0,0 5,3 11,-1 3,0-2,2 28,-6-43,4 38,-1 0,-3 0,-1 1,-3 0,-1-1,-3-1,-2 1,-19 55,22-83,-39 91,39-98,1 1,-1-1,0 0,-2 1,2-2,-2 0,0 0,-12 9,16-14,-1 0,0 0,-1 0,0-2,1 1,-1 0,-1 0,2-1,-1 1,0-1,-1-1,2 1,-1-1,0 0,-1 0,1-1,0 0,1 0,-2 0,1 0,1-1,-2 0,2 0,-1 0,-8-6,5 3,1 0,-1 0,2 0,-2-1,2-1,0 1,1-1,-1 0,1 0,0 0,0-1,1 0,1 0,-7-16,7 10,0 1,2-1,0 1,1-1,0 0,1 0,1 1,0-1,4-18,-4 27,0 1,0-1,1 1,1 0,-2 0,1-1,1 1,-1 0,1 0,-1 1,1-1,0 1,2-1,-2 1,0-1,1 1,0 0,0 2,1-2,-1 1,0 0,1 0,-1 0,1 0,0 1,0-1,-1 1,2 1,-1-1,0 1,5-1,-2 1,0 1,1 0,-1 0,-1 0,2 1,-2 0,1 1,0 0,-1 0,0 0,1 0,-2 1,9 5,2 5,1 1,-1 1,15 18,-15-16,1-1,28 24,-40-38,-1 0,2 0,-2 0,1 0,1-1,-1 0,1 0,-1 0,1-1,-1 0,11 1,76-5,-50 0,-13 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9233.96">4376 639,'4'0,"8"0,5 0,4 0,5 0,1 0,6 0,2 0,5 0,-1-3,-5-8,-10 9,-8 20,-8 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9934.96">4376 1046,'9'0,"8"0,6 0,4 0,2 0,0 0,6 0,0 0,0 0,-2 0,-1 0,-2 0,-2 0,6 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11759.97">5345 487,'-5'1,"0"-1,0 0,-1 1,1 0,0 1,1-1,-2 1,1 0,1 0,0 1,-1-1,0 1,1 0,0 0,1 0,-1 0,1 1,-2-1,2 1,0 0,1 0,-1 0,1 0,-4 8,-4 9,1 1,1 0,-7 39,15-60,-12 62,4 2,3-2,3 1,12 109,-10-165,1-1,0 1,1-2,-1 2,1-1,1-1,-1 1,2 0,-1 0,1-1,0 0,8 10,-8-13,1 1,-1 0,1 0,1-1,-1 0,0 0,0-1,1 1,0-1,-1 0,1 0,1-1,-1 1,-1-1,2-1,7 1,70 3,130-10,-209 6,-2 0,0 0,1 0,-1-1,0 1,1-1,0 0,-1 0,0 0,0 0,0-1,0 1,1-1,-1 1,-1-1,1 0,-1 0,1 0,-1-1,0 1,0-1,4-3,-4 2,-1 0,0 0,0-1,-1 1,1 0,-1 0,0 0,0-1,-1 1,1-1,-1 1,0 1,0-2,0 1,-1 0,-3-6,-24-56,10 26,-17-58,-50-167,81 245,-2 1,-16-36,20 48,-1 1,1 0,-1-1,-2 1,2 0,-1 1,0 0,0 0,-2-1,1 2,-9-5,-10-4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23012,14 +23061,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 238,'1'7,"0"0,1 0,0-1,0 1,0-1,1 0,0 0,5 8,4 10,48 124,30 61,-78-187,0-1,2 0,0-1,1-1,1 0,1-1,21 17,-28-27,-1-1,1-1,0 1,0-2,18 8,-25-11,1-1,0 0,-1 0,1 0,0 0,-1-1,1 1,0-1,0 0,-1 0,1-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1-1,0 0,4-2,2-3,-1-1,0 0,-1-1,0 1,0-2,0 1,-1-1,8-17,34-95,-33 81,25-86,-28 83,1 1,28-59,-29 83,0 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1425.99">848 741,'39'-19,"129"-58,-147 69,1 1,-1 1,1 1,0 1,1 1,23 0,-42 3,-1 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 1,-1-1,1 1,0 0,-1 0,0 0,1-1,-1 1,0 0,0 1,-1-1,1 0,-1 0,1 4,1 11,-1 0,-1 0,0 0,-5 30,-2 3,-2-1,-3 0,-34 91,44-136,0 0,-1 0,0 0,0 0,0-1,-1 1,1-1,-1 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0 0,0-1,-8 4,5-4,-1 1,0-2,0 1,0-1,0 0,0-1,0 0,0-1,0 0,-9-2,32 1,-1-1,0-1,0 0,16-7,28-9,-49 18,-1-1,1 2,-1-1,1 1,0 0,0 1,-1 0,1 0,0 0,0 1,-1 0,1 1,0 0,-1 0,0 1,1-1,-1 2,0-1,0 1,7 5,-7-4,-4-3,0 1,0-1,1 0,-1 0,1 0,-1-1,1 1,0-1,-1 0,1 0,5 1,9-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1933.99">1589 397,'4'0,"6"0,16 0,11 0,13 0,8 0,-3 0,0 0,3 0,-4 0,3 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2552.99">1774 635,'9'0,"7"0,10 0,6 0,1 0,0 0,-2 0,-1 0,-1 0,-1 0,3 0,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3763.99">2727 477,'4'0,"6"0,7 0,3 0,0-4,0-7,6 0,3 0,5 3,-2 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4541.99">3362 0,'0'27,"0"32,0 23,0 7,0 2,0-10,0-15,0-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5809.99">3891 27,'-18'21,"2"-1,1 2,1 0,0 1,2 0,-13 35,7-19,-3 5,-21 66,36-89,1 0,1 0,0 1,2-1,1 38,1-47,0 3,1-1,0 0,1 0,7 26,-8-36,0-1,1 1,0-1,-1 1,1-1,0 0,1 0,-1 0,0 0,1 0,0-1,0 1,-1-1,1 1,1-1,-1 0,0 0,1-1,-1 1,1-1,-1 1,1-1,5 1,4 0,1-1,0 0,-1-1,1 0,0-1,-1-1,1 0,-1-1,0 0,0-1,0-1,0 0,-1-1,1 0,-2 0,1-2,-1 1,0-2,0 1,-1-1,0-1,-1 0,0 0,0-1,-2 0,1 0,-1-1,-1 0,0 0,0-1,4-15,-4 3,0-1,-1 1,-1-1,-2 0,0 0,-2 0,-1 0,-1 0,-10-46,11 67,-1 0,0 1,0-1,0 1,0 0,-1-1,0 1,0 0,0 1,0-1,-1 0,1 1,-1 0,0 0,0 0,-6-3,-3-1,-1 1,0 1,0 1,-15-4,21 6,-14-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7157.99">4182 503,'4'6,"-1"1,1-1,-1 1,0-1,-1 1,1 0,-1 0,-1 0,1 0,0 11,3 11,10 41,-9-38,1 0,2 0,16 40,-24-70,-1 0,1 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0-1,0 1,3 0,-2-1,-1 0,0-1,1 0,-1 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,0-1,-1 1,1-1,2-2,8-11,0 0,-1 0,16-33,-24 44,18-36,-2 0,-1-1,-2-1,13-57,-20 55</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 225,'1'7,"0"-1,1 1,0-1,0 0,0 0,1 0,1-1,4 8,4 10,51 117,30 58,-81-177,1-2,1 1,1-1,0-1,2 0,1-1,21 16,-28-25,-2-2,1 0,1 1,-1-3,19 9,-26-11,1-1,0 0,0 0,0-1,0 1,-1-1,1 1,0-1,0 0,0 0,0-1,0 1,0-1,-1 1,1-1,0 0,0 0,0 0,-1-1,0 0,4-2,3-2,-2-2,0 0,-1 0,1 0,-1-1,0 0,-1 0,9-17,35-89,-35 76,27-81,-30 79,2 0,28-56,-29 79,-1 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1425.99">880 701,'40'-18,"135"-55,-154 65,2 2,-1 0,1 1,0 2,0 0,25 0,-44 3,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-2 1,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-2,0 2,-1-1,1 1,1 0,-2 0,0 0,1-2,-1 2,0 0,0 1,-1-1,1 0,-1-1,1 5,1 10,-1 0,-1 0,0 0,-5 28,-2 4,-3-2,-2 0,-36 87,46-130,0 1,-1 0,0 0,0-1,-1 0,0 1,1-1,-1-1,0 1,0 0,-1-1,0 1,0-2,0 1,0 0,0-1,-9 4,6-5,-1 2,-1-2,1 1,0-1,-1 0,1-1,-1 0,1-1,0 0,-10-2,34 1,-2 0,1-2,-1 0,17-6,29-9,-50 17,-2-1,1 2,-1-1,2 1,-1 0,0 1,0 0,0 0,0 0,1 1,-2 0,1 1,0 0,0 0,-1 1,1-1,-1 1,1 0,-1 1,8 4,-8-3,-4-3,0 1,0-1,1 0,-1 0,2-1,-2 0,1 1,0-1,-1 0,1 0,6 1,8-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1933.99">1649 375,'4'0,"6"0,17 0,11 0,14 0,9 0,-4 0,0 0,3 0,-4 0,3 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2552.99">1841 601,'9'0,"7"0,11 0,7 0,0 0,0 0,-2 0,-1 0,0 0,-2 0,3 0,-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3763.99">2829 451,'4'0,"7"0,6 0,4 0,0-4,0-6,6-1,3 1,5 3,-2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4541.99">3488 0,'0'26,"0"29,0 23,0 6,0 2,0-9,0-15,0-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5809.99">4037 26,'-19'19,"3"0,0 2,2 0,-1 1,3-1,-14 34,7-18,-3 5,-21 62,36-84,2-1,1 1,0 1,2-1,1 36,1-45,0 3,1 0,0-1,1 0,7 25,-8-34,0-1,1 0,1 0,-2 1,1-1,0 0,1-1,-1 1,0 0,1 0,0-1,0 1,-1-1,2 0,0 0,-1 0,0 0,1-1,-1 1,1-1,-1 1,2-1,4 1,4-1,2 0,-1 0,0-1,0 0,1-1,-2 0,2-1,-2-1,1 0,-1-1,1-1,-1 1,0-2,0 0,-1 1,0-3,0 2,-1-3,0 1,0 0,-1-2,0 1,-1 0,0-2,-1 1,0-1,-1 0,-1 0,1-1,-1 0,4-14,-4 2,1-1,-2 2,-1-2,-2 0,0 1,-2-1,-1 1,-1-1,-10-43,10 63,0 1,0 0,0-1,0 1,0 1,-1-2,0 1,0 0,0 1,0 0,-2-1,2 1,-1 0,0 0,0 0,-7-2,-2-2,-2 2,1 0,-1 1,-15-4,22 7,-15-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7157.99">4339 476,'4'5,"-1"2,1-1,-1 0,1 0,-2 1,1-1,-1 1,-1-1,1 1,0 10,3 10,11 40,-10-37,1 0,3 0,16 39,-25-68,-1 1,1 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1-1,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,0 0,-1 0,2 0,-1-1,0 1,3 0,-2-1,-1 0,0-1,1 0,-1 1,0-1,1 0,0 0,-1 0,0 0,1 0,-1-1,0 1,0-1,-1 2,1-2,2-2,9-10,-1-1,0 1,16-31,-25 41,19-34,-3 0,0 0,-2-2,13-54,-21 53</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23074,8 +23123,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">426 320,'0'-4,"1"1,-1-1,1 0,1 0,-1 0,0 1,1-1,0 1,0-1,0 1,0 0,0-1,1 1,-1 0,1 0,4-2,56-43,-46 36,98-82,-47 35,-62 54,-1 1,0 0,1 0,0 0,0 0,0 1,1 0,-1 0,1 1,0-1,-1 2,1-1,0 1,0 0,0 0,0 1,0 0,0 0,0 1,0-1,0 2,0-1,0 1,0 0,-1 0,1 1,-1 0,1 0,-1 1,0-1,-1 1,1 1,-1-1,1 1,5 7,6 9,-1 0,-1 0,-1 1,-1 1,20 48,34 133,-11-31,-38-130,-11-27,0 1,0 0,-2 0,0 1,-1-1,2 23,-4 419,-6-207,5 1164,-5-1332,-2 0,-30 133,36-212,-1 0,0-1,0 1,-1-1,1 1,-1-1,0 0,0 1,-1-1,1 0,-1 0,0-1,0 1,0-1,-1 1,1-1,-6 4,1-3,0-1,-1 1,0-1,1-1,-1 1,0-2,-18 2,23-2,-274 41,201-26,-1-4,-1-3,-104-2,176-7,-1 0,0 0,0-1,1 0,-1-1,1 1,-1-2,1 1,0-1,0 0,0 0,0-1,0 0,1 0,0-1,0 0,0 0,0 0,1-1,0 1,0-1,0-1,1 1,0-1,0 1,1-1,0 0,0-1,0 1,1 0,0-1,1 1,-1-1,2 0,-1 1,1-10,0 8,-1 1,0-1,-1 1,0 0,0 0,-1 0,0 0,0 0,-1 0,0 1,-1-1,1 1,-7-6,-16-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1140.99">214 2966,'-9'-2,"1"0,-1-1,1 0,0-1,0 1,0-2,0 1,1-1,-13-11,7 7,0 0,0 0,-23-9,35 17,-1 1,1-1,0 1,0-1,0 1,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,0 0,0-1,-2 2,2 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,1 1,0-1,-1 0,1 3,-1 12,2-1,0 1,4 21,-3-22,18 274,-19-257</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">426 307,'0'-4,"1"1,-1-1,1 0,1 0,-1 1,0 0,1-1,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,4-2,56-41,-46 35,98-79,-47 33,-62 52,-1 1,0 1,1-1,0 0,0 0,0 1,1 0,-1 1,1 0,0-1,-1 2,1-1,0 1,0 0,0 0,0 1,0 0,0 0,0 1,0-1,0 2,0-1,0 1,0 0,-1 0,1 0,-1 1,1 0,-1 1,0-1,-1 1,1 1,-1-2,1 2,5 7,6 8,-1 0,-1 0,-1 1,-1 1,20 46,34 128,-11-31,-38-124,-11-25,0 0,0 0,-2 1,0 0,-1-1,2 22,-4 402,-6-198,5 1114,-5-1275,-2-1,-30 128,36-203,-1-1,0 0,0 1,-1-1,1 1,-1-1,0-1,0 2,-1-1,1 0,-1 0,0-1,0 0,0 0,-1 1,1-1,-6 4,1-4,0 0,-1 1,0-1,1-1,-1 1,0-2,-18 2,23-2,-274 39,201-25,-1-3,-1-4,-104-1,176-7,-1 0,0 0,0-1,1 0,-1-1,1 1,-1-2,1 1,0 0,0-1,0 0,0-1,0 0,1 0,0 0,0-1,0 0,0 0,1-1,0 2,0-2,0-1,1 1,0 0,0 0,1-1,0 1,0-2,0 1,1 1,0-2,1 1,-1-1,2 1,-1 0,1-9,0 7,-1 2,0-2,-1 1,0 1,0-1,-1 0,0 1,0-1,-1 0,0 2,-1-2,1 1,-7-5,-16-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1140.99">214 2841,'-9'-2,"1"1,-1-2,1 0,0-1,0 1,0-2,0 1,1 0,-13-12,7 8,0-1,0 0,-23-8,35 16,-1 1,1-1,0 1,0-1,0 1,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,0 0,0-1,-2 2,2 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,0-1,-1 0,1 3,-1 11,2-1,0 2,4 19,-3-21,18 263,-19-246</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23103,7 +23152,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 423,'4'0,"20"0,15 5,9 6,11 0,3 0,2 5,-3 6,-6-1,-4-5,-6-4,-2-5,-3-3,-9-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1287.11">1324 0,'-19'21,"1"1,1 0,2 1,-26 49,17-27,-23 41,5 2,3 2,4 2,4 1,5 1,-16 102,39-181,1-1,1 1,0-1,1 1,0 0,4 20,-3-30,0 0,1 0,-1-1,1 1,1-1,-1 1,0-1,1 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,1-1,-1 0,1 0,5 2,2 0,1 0,-1-1,1 0,0-1,0 0,1-1,-1-1,0 0,0-1,0 0,1-1,15-4,-26 5,-1-1,0 1,1-1,-1 0,0 1,0-1,0 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,0-1,2-3,12-43,-10 29,-3 11,8-21,-3-1,0 1,3-43,-10 64,0 1,0 0,-1 0,0-1,0 1,-1 0,-5-14,6 18,-1 0,0 0,0 1,0-1,-1 1,1 0,-1 0,0 0,1 0,-2 0,1 0,0 1,0 0,-1-1,1 1,-7-2,-33-15,18 8,1 0,-2 2,1 0,-43-7,51 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1287.1">1324 0,'-19'21,"1"1,1 0,2 1,-26 49,17-27,-23 41,5 2,3 2,4 2,4 1,5 1,-16 102,39-181,1-1,1 1,0-1,1 1,0 0,4 20,-3-30,0 0,1 0,-1-1,1 1,1-1,-1 1,0-1,1 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,1-1,-1 0,1 0,5 2,2 0,1 0,-1-1,1 0,0-1,0 0,1-1,-1-1,0 0,0-1,0 0,1-1,15-4,-26 5,-1-1,0 1,1-1,-1 0,0 1,0-1,0 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,0-1,2-3,12-43,-10 29,-3 11,8-21,-3-1,0 1,3-43,-10 64,0 1,0 0,-1 0,0-1,0 1,-1 0,-5-14,6 18,-1 0,0 0,0 1,0-1,-1 1,1 0,-1 0,0 0,1 0,-2 0,1 0,0 1,0 0,-1-1,1 1,-7-2,-33-15,18 8,1 0,-2 2,1 0,-43-7,51 15</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2292.11">1536 635,'12'13,"-1"1,0 0,-1 0,0 1,-1 0,-1 1,-1 0,8 19,0 16,14 72,10 34,-36-147,1 0,1-1,0 1,0-1,1 0,0-1,10 11,-15-17,1 0,-1 0,1-1,0 1,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1-1,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,1-3,13-13,-1-1,0 0,-2-1,18-33,40-93,-46 92,109-266,-112 272,0 10</inkml:trace>
 </inkml:ink>
 </file>
@@ -23186,13 +23235,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">213 95,'0'9,"4"8,11 68,3 42,-3 13,-2 1,-5-10,-2-14,-4-23,4-22,0-19,-1-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="650.99">1 757,'0'-1,"1"0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,1 0,1-1,42-3,-38 3,364-4,-207 7,-142-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1408.99">1086 148,'4'15,"7"92,-6 162,7 80,0-290,-12-57,1 1,0-1,0 0,0 1,0-1,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,0-1,4 2,-5-3,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,-1-1,1 0,0 1,0-1,0 0,1-1,15-25,-15 22,225-457,-197 396,65-152,-78 174</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2604">1562 757,'17'0,"0"-1,0-1,-1-1,1 0,0-2,21-7,4-6,40-24,7-3,-76 39,0 1,1 0,-1 1,1 0,0 1,0 1,0 0,24 0,-35 3,-1-1,0 0,0 1,0 0,0 0,0-1,0 1,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,-1 1,1-1,-1 1,0 0,1 0,-1-1,0 1,0 0,0 0,-1 0,1 0,0 0,0 3,2 8,0 0,-1 0,1 17,-2-17,6 95,-8 146,1-243,-1 0,0 0,0-1,-1 1,-1-1,0 1,-6 13,6-18,-1-1,1 0,-1 1,0-2,0 1,-1 0,1-1,-1 0,0 0,0 0,0-1,-1 0,-10 5,-10 4,-19 11,-2-2,0-2,-85 21,129-39,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1-1,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,-1-1,1 0,0 0,-3-3,3 1,1 1,-1-1,1 0,0 0,0 0,1 0,-1 0,1 0,0 0,0-1,0 1,0 0,1-1,0 1,0 0,0-1,1-5,1-2,0 0,1 0,1 0,0 0,0 0,1 1,0-1,1 1,1 1,0-1,0 1,1 0,12-12,-16 18,-1 0,1 1,-1 0,1 0,0 0,0 1,0-1,1 1,-1 0,0 0,1 0,0 0,-1 1,1 0,0 0,0 0,0 1,-1 0,1 0,0 0,0 0,0 1,0 0,-1 0,1 0,0 0,-1 1,1 0,-1 0,1 0,-1 0,0 1,0 0,0-1,0 2,-1-1,4 4,4 6,-1 0,-1 0,0 1,-1 0,0 1,-1-1,-1 2,5 18,18 37,-20-51,-5-9,1-1,0 1,1-1,0 0,0 0,1-1,0 0,15 14,-10-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3192.99">2435 386,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,1 0,13 0,27 0,15 0,3 0,-5 0,-11 0,-18 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3811">2647 783,'4'0,"7"0,5 0,4 0,4 0,7 0,11 0,13 0,0 0,5 0,-3 0,-7 0,-7 0,-2 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5143">4182 16,'0'0,"0"-1,0 1,0-1,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 0,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-2 1,-20 2,-22 20,11 3,1 2,1 2,1 1,2 1,-30 42,9-3,-65 125,95-159,3 1,-14 43,25-65,1 1,0 0,1 0,1 0,1 1,0-1,1 0,2 19,-1-30,0 0,1 0,-1 1,1-1,1 0,-1-1,1 1,-1 0,1-1,1 1,-1-1,0 0,1 0,0 0,0-1,0 1,1-1,-1 0,1 0,8 4,8 2,0-1,1-1,38 7,-16-3,-40-10,23 7,1 0,0-2,0-2,1 0,45-1,-68-5,0 1,0-2,-1 1,1-1,-1 0,1 0,-1 0,0-1,0 0,0 0,-1 0,1 0,-1-1,0 0,0 0,5-9,-3 5,30-38,-3-2,-2-1,-2-1,43-108,-66 137,0 1,-2-1,0 0,1-41,-9-90,-1 59,6 87,-2 1,1 0,0-1,-1 1,-1 0,1 0,-1 0,0 0,-4-10,4 14,0-1,0 1,0 0,0-1,-1 1,1 0,-1 0,1 1,-1-1,0 0,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,-5 0,-17 0,1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">221 92,'0'9,"4"7,12 67,3 40,-4 13,-1 1,-6-10,-2-13,-4-23,4-21,1-19,-2-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="650.99">1 735,'0'-1,"1"0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 1,0-1,1 1,-1 0,0-1,0 1,0 0,1 0,1-1,44-2,-40 2,378-4,-214 7,-149-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1408.99">1128 144,'4'14,"7"90,-6 157,8 78,-1-282,-12-55,1 1,0-1,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0-1,0 0,0 1,0-1,0 1,0-1,5 2,-6-3,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,-1-1,1 0,0 1,1-1,-1 0,1-1,15-24,-15 21,234-443,-205 384,68-148,-81 169</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2604">1622 735,'18'0,"-1"-1,1-1,-2-1,2 0,0-2,21-6,5-7,41-23,7-2,-78 37,-1 1,2 0,-2 1,2 0,0 2,-1 0,1 0,24 0,-36 3,-1-1,0 0,0 1,0 0,1 0,-1-1,0 1,0 0,0-1,-1 2,1-1,0 0,-1 1,1-1,-1 1,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,0 0,-1 0,1 0,0 0,0 2,2 9,0 0,-1-1,1 17,-2-16,6 92,-8 142,1-237,-1 1,0 0,0-2,-1 2,-1-1,0 0,-6 14,6-19,-2 0,2 0,-1 1,0-2,0 1,-1 0,0-2,0 1,0 0,0 0,0-1,-2 0,-9 5,-11 3,-20 12,-2-3,1-1,-90 19,135-37,-1 0,1-1,-1 1,1-1,-1 0,1 0,-2 0,1 0,1 0,-1-1,1 0,-1 0,1 0,-2 0,2 0,0-1,0 2,-1-2,1 0,0 0,-4-3,4 1,1 1,-1-1,1 0,0 0,0 1,1-1,-1 0,1 0,0 0,0-1,0 1,0 0,1 0,0 0,0 0,0-1,1-5,1-1,0-1,1 0,1 1,0-1,0 0,2 2,-1-2,1 1,1 2,1-2,-1 1,1 0,13-11,-17 17,-1 0,1 1,-1 1,2-1,-1 0,0 1,0-1,1 1,-1 0,1 0,0 0,0 0,-1 1,1 0,0 0,1 0,-1 1,-1 0,1 0,0 0,1 0,-1 1,0 0,-1 0,1 0,0 0,0 1,0 0,-1 0,1 0,-1 0,0 1,1 0,-1-1,0 1,-1 0,4 4,5 6,-2-1,-1 1,1 1,-2-1,0 2,0-2,-2 3,5 17,19 36,-20-50,-6-8,1-1,0 0,2 0,-1 0,0-1,1 0,1 0,14 13,-9-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3192.99">2528 375,'5'0,"6"0,6 0,4 0,4 0,2 0,1 0,1 0,14 0,28 0,15 0,3 0,-5 0,-11 0,-19 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3811">2749 760,'4'0,"7"0,6 0,4 0,3 0,9 0,10 0,14 0,0 0,6 0,-4 0,-7 0,-7 0,-3 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5143">4342 16,'0'0,"0"-1,0 1,0-1,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 0,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-2 1,-21 2,-22 19,10 4,2 1,1 2,1 1,2 1,-32 41,11-3,-69 121,99-154,4 1,-15 42,25-64,2 2,0-1,1 1,1-1,1 2,0-1,1-1,2 19,-1-29,0 0,1 0,-1 0,1 0,1 0,-1-1,2 1,-2 0,1-1,1 0,-1 0,0 0,1 0,0 0,1-1,-1 1,1-1,-1 0,1 0,9 3,8 3,-1-1,2-1,40 6,-18-2,-41-10,24 7,1-1,1-1,-1-2,1 0,47-1,-71-5,0 1,0-2,-1 1,2-1,-2 0,1 0,-1 0,1 0,-1-1,0 0,-1 0,1 0,-1-1,1 0,-1 0,5-8,-3 4,32-36,-4-3,-2-1,-2 0,45-105,-69 132,0 2,-1-2,-1 1,1-40,-9-88,-1 58,6 84,-2 2,1-1,0-1,-1 1,-1 0,0 0,0 1,0-1,-4-10,4 14,0-1,0 1,0 1,0-2,-1 1,1 0,-2 0,2 1,-1-1,0 0,1 1,-1 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 1,-5 0,-18 0,1 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23275,33 +23324,33 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3917 661,'1'1,"0"-1,0 0,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,0 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 2,5 36,-5-35,2 395,-1-18,4-328,14 60,3 30,-13-37,64 874,-54-387,-6 380,-15-604,2 4653,0-4977</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1853">1 4921,'0'0,"0"-1,0 1,0 0,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,31 4,0 1,0 1,50 17,-22-6,94 25,1-8,167 16,580-8,5-42,-384-3,-410 2,223-34,626-68,-873 97,428-58,-96 9,123-14,206-15,-496 67,729-28,876 45,-797 2,-1032-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4085.06">3944 793,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5758.07">4393 291,'0'5,"-5"23,-5 17,-11 9,-1 0,3-5,5-5,4-7,9 0,9-7,7-8,11-8,9-6,4-5,-1-2,-2-2,-7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6473.06">4473 0,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33419.38">4923 4762,'0'9,"0"8,0 10,0 4,0 7,0 5,0 0,0-3,0-3,4-4,2-3,4-2,1-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34781.38">4949 5397,'-1'0,"1"1,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0-1,5-16,16-13,-20 30,-1-1,1 1,-1-1,1 1,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,0 0,-1 0,2 1,10 21,-6 33,-6-53,-3 125,1-78,2 0,8 73,2-83,1-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35826.38">6272 4630,'-5'0,"-5"0,-2 5,2 5,2 6,2 14,3 15,-7 14,-3 5,2 1,2-6,3-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37702.38">6087 5265,'-1'-21,"1"12,-1-1,1 1,1 0,0 0,3-13,-3 20,0-1,0 1,0-1,0 1,0 0,1 0,-1-1,1 1,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,0 1,1-1,-1 1,0 0,1 0,-1 0,1 0,4 0,-3 0,-1-1,1 2,0-1,0 0,-1 1,1 0,0 0,0 0,0 0,-1 1,1-1,0 1,0 0,-1 0,1 0,0 1,-1-1,0 1,1 0,3 3,-4-2,1 1,-2 0,1 0,0 0,-1 1,0-1,0 1,0-1,-1 1,1-1,-1 1,0 0,0 0,-1 0,0 8,1 3,-2 1,0-1,0 1,-2-1,0 0,-1 0,-10 27,3-17,-1 0,-1-1,-28 40,33-56,0-1,0 0,0 0,-1-1,0-1,-1 1,1-1,-1-1,0 0,-1 0,1-1,-1-1,0 1,0-2,0 1,0-2,0 1,-12-1,21-1,0 0,0-1,1 1,-1 0,0 0,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,0 0,0 0,-2-4,2 4,1-1,0 0,-1 0,1 1,0-1,0 0,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,-1 1,1-1,2-2,2-5,1 0,1 1,-1-1,1 2,16-14,-18 16,1 0,0 1,0 0,0 1,1-1,-1 1,1 0,0 1,0-1,0 1,0 1,0-1,0 1,1 1,-1-1,0 1,1 1,-1-1,14 4,-6 0,0 1,-1 0,0 1,0 1,-1 0,1 1,-2 0,19 17,13 4,-25-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38797.38">7463 4577,'0'5,"0"5,0 6,0 10,0 8,0 4,0 0,0-3,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41088.41">7383 5265,'-1'1,"1"-1,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1 0,-1 0,0-1,17-11,-1 9,0 0,0 1,0 1,21 0,-33 1,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 1,-1 0,1 0,-1 0,0 1,1-1,-1 1,0-1,0 1,0 0,0 1,0-1,-1 0,1 1,-1-1,1 1,-1 0,4 6,-6-8,1 1,-1 0,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 0,0 1,0-1,0 0,-1 1,-37 24,16-12,23-14,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 1,12 6,28 4,-24-7,-13-3,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,0 0,0 0,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0-1,-1 1,0 4,0-3,0-1,0 1,-1-1,1 1,-1-1,0 1,0-1,0 0,0 0,-1 0,0 0,1 0,-1 0,0-1,0 0,0 1,-1-1,1 0,0 0,-1-1,1 1,-1-1,0 0,-6 2,-50 4,40-5,0 1,-33 9,49-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42022.38">8653 4418,'0'9,"0"12,0 12,0 8,0 3,0-2,0-4,0 10,0 5,-5-1,-1 0,1-6,0-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42893.38">8600 5106,'-1'6,"-1"-1,1 0,-1 0,0-1,0 1,-4 7,-4 8,-67 144,49-108,1 1,-27 89,53-143,0 0,1 0,-1 0,0 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,0 0,-1 0,1 0,0 0,1 0,-1-1,3 6,-2-6,0-1,0 1,0-1,0 0,0 1,0-1,0 0,1 0,-1-1,0 1,1 0,-1-1,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1-1,0 0,3 0,113-29,-115 29,0 1,0-1,0 0,0 0,1 0,-1-1,-1 1,1-1,0 0,0 0,-1 0,1 0,-1 0,4-4,11-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43660.38">8680 5186,'0'743,"0"-721</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44826.38">9817 4418,'0'9,"0"17,9 17,3 6,-1 3,-2-2,-2-1,-3 1,-2-5,-1-4,3-6,2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46870.38">9923 5080,'-9'2,"0"-1,0 1,1 0,-1 1,-9 4,-7 1,-2 0,14-5,1 1,0 0,0 0,-21 12,30-14,-1 0,1 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,1-1,0 1,0 0,0 0,1-1,-1 1,1 0,0 1,-1 7,-4 75,5-82,1 1,1-1,-1 0,1 0,0 1,0-1,0 0,1 0,-1 0,1 0,1 0,-1-1,6 9,-6-11,0-1,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,0-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,3-1,44-8,-18 3,-26 5,11-1,0 1,1 0,-1 1,31 4,-43-3,-1-1,1 1,-1 0,1 1,-1-1,1 0,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0-1,1 7,-1-1,1 0,-1 0,-1-1,0 1,0 0,-1 0,0 0,0 0,-1-1,0 1,0-1,-1 1,-1-1,1 0,-1 0,0 0,-1-1,0 1,0-1,-1 0,0-1,0 1,0-1,-1-1,0 1,0-1,0 0,-1 0,0-1,0 0,0-1,0 0,-1 0,1 0,-1-1,1-1,-17 2,-55-4,57 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52057.4">3944 4260,'4'0,"6"0,7 0,3 0,9 0,-2 5,5 1,0-1,-4 4,-4 0,0-1,0-2,0-3,1-1,0-1,1-1,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53878.38">3706 4127,'0'5,"0"6,0 5,0 5,0 3,0 2,0 1,0 1,4-1,6-4,6-6,5-7,3-8,-2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54378.38">3706 3757,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55626.38">3970 3439,'4'0,"7"0,5 0,9 0,10 5,-2 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57352.38">3229 3254,'3'0,"0"-2,0 1,0 0,0 0,0-1,0 0,-1 0,1 1,3-5,14-8,-5 9,-1 0,1 1,0 0,1 1,-1 1,29-1,93 9,-127-5,-1 1,1 1,-1-1,0 2,0-1,0 1,0 1,-1-1,1 2,-1-1,0 1,-1 0,0 1,0-1,0 1,-1 1,1-1,-2 1,1 1,6 13,-11-20,0 0,-1 0,1 1,-1-1,1 0,-1 0,0 1,0-1,1 0,-2 1,1-1,0 0,0 0,-1 1,1-1,-1 0,0 0,0 0,0 0,0 0,-2 3,1-2,-1 1,0-1,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,-8 3,3-2,0 0,-1 0,1-1,-1 0,0-1,0 0,0 0,1-1,-14-2,15 1,1-1,0 0,0-1,0 1,1-1,-1-1,1 1,0-1,-9-7,13 10,0-1,-1 0,1 0,0 0,1 0,-1-1,0 1,1-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 0,0 0,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,-1 1,2-6,-1 6,1-1,-1 1,0 0,1 0,-1 0,1 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 1,1-1,2 2,11 2,0 0,-1 1,21 8,-35-12,10 5,0 0,0 1,0 1,-1-1,0 2,-1-1,0 1,9 12,-8-9,1-1,0 0,1-1,15 12,-16-19,-3-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58333.38">3785 2963,'0'9,"0"8,0 5,0 8,4 3,2 1,-1-1,5-7,-1 3,3-5,4-2,4-4,-1-10,-5-11,-4-9,-4-7,-3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58822.38">3785 2725,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="59529.39">3917 2328,'4'0,"7"0,5 0,5 0,7 5,4 1,1 0,-1-1,-5 2,-13 1,-8-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="61255.38">3071 2090,'66'-1,"-33"-1,0 2,0 1,0 2,0 1,33 8,-62-11,0 0,-1 1,1 0,-1-1,1 1,-1 1,0-1,1 0,-1 1,0-1,-1 1,1 0,0 0,-1 0,0 1,1-1,-1 0,-1 1,1-1,0 1,-1 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0-1,0 1,0 0,-1 0,1-1,-1 1,0-1,0 0,-1 1,1-1,-1 0,1 0,-1 0,0-1,0 1,-4 2,2-2,-18 14,23-16,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 1,-1-2,1 1,-1 0,2 2,2 5,0-1,-1 1,0 0,-1 0,0 0,0 1,-1-1,0 0,0 1,-1-1,-1 14,1-19,0-1,0 1,-1 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 1,-1-1,1 0,-1 0,1 1,-1-1,0 0,0 0,0-1,0 1,0 0,0-1,-1 1,1-1,0 0,-1 0,1 1,-1-2,0 1,1 0,-1 0,1-1,-1 0,0 1,0-1,1 0,-1 0,0-1,1 1,-5-1,3 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1-1,0 0,0 0,0-1,1 1,-1-1,0 0,-4-5,-4-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="62506.38">3679 1958,'-3'138,"6"149,-2-284,-1 0,0 0,1 0,0-1,-1 1,1 0,0 0,0-1,1 1,-1 0,1-1,2 4,7 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="63335.38">3653 1799</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4096 636,'1'0,"0"0,0 0,0 1,0-1,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,0 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 2,6 34,-6-33,2 380,-1-18,4-315,15 57,3 30,-14-36,68 840,-57-372,-7 366,-15-582,2 4475,0-4786</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1853">1 4731,'0'0,"0"-1,0 1,0 0,0-1,0 1,0-1,1 1,-1-1,0 1,0 0,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 0,2 0,-2 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 0,32 3,1 2,-1 1,53 16,-23-6,98 25,1-9,174 17,608-9,4-40,-401-3,-429 2,233-33,655-65,-913 94,448-57,-101 9,129-13,215-15,-518 65,761-27,917 43,-833 1,-1080-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4085.06">4124 762,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5758.07">4593 280,'0'5,"-5"22,-5 16,-12 9,-1 0,3-5,5-5,5-6,9-1,9-6,8-8,11-7,9-7,5-4,-1-2,-2-2,-8-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6473.06">4677 0,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="33419.38">5147 4578,'0'9,"0"7,0 10,0 4,0 7,0 4,0 0,0-2,0-4,5-3,1-3,4-2,2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34781.38">5175 5189,'-1'0,"1"1,-1-1,1 0,0 0,-1 0,1 0,-2 0,2 0,0-1,-1 1,1 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0-1,5-15,17-13,-21 29,-1-1,1 1,-1-1,1 1,1-1,-2 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,0 0,-1 0,2 1,11 20,-7 32,-6-51,-3 120,1-75,2 0,8 71,3-81,0-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35826.38">6558 4451,'-5'0,"-6"0,-1 5,1 5,3 5,2 14,3 14,-8 14,-2 5,1 0,3-5,2-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="37702.38">6365 5062,'-1'-20,"1"11,-2-1,2 2,2-1,-1 1,3-14,-3 20,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,1 1,-1 0,1 0,0 1,1-1,-1 1,0 0,0-1,0 1,1-1,-1 1,0 0,1 0,-1 0,2 0,3 0,-3 0,-1-1,1 2,1-1,-1 0,-1 1,1 0,0 0,1 0,-1 0,-1 1,1-1,0 1,0 0,0 0,0 0,0 1,-1-1,0 1,1 0,4 3,-5-3,1 2,-2 0,1 0,0 0,-1 1,1-2,-1 2,0-1,-1 1,1-1,-1 1,0-1,0 1,-1 0,0 7,1 4,-2 0,0 0,0 0,-2-1,0 1,-2-1,-9 26,2-16,0 0,-2-1,-29 39,35-54,0-2,-1 1,1 0,-2-2,1 0,-1 1,0-1,0-2,-1 1,0 0,0-1,0-1,-1 1,1-2,-1 0,1-1,-1 1,-12-1,22-1,0 0,0-1,1 1,-1 0,0 0,0-1,1 1,-2-1,1 0,1 1,-1 0,1-1,-1 0,1 0,-1 0,1 0,-1-1,1 1,0 0,0 0,-2-4,2 4,1-1,0 0,-2 0,2 1,0-1,0 1,0-1,0 1,2-1,-2 0,0 0,1 1,-1-1,1 0,-1 1,1-1,2-2,2-4,1-1,2 1,-2 0,1 1,17-13,-19 15,2 0,-1 1,0 1,1 0,0-1,-1 1,1 0,1 1,-1-1,0 1,1 1,-1-1,0 1,2 1,-2-1,0 1,2 1,-2-1,15 4,-6 0,-1 1,0 0,0 1,-1 0,0 1,1 1,-3-1,21 17,13 4,-27-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="38797.38">7803 4400,'0'5,"0"5,0 5,0 10,0 8,0 4,0-1,0-2,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41088.41">7720 5062,'-1'1,"1"-1,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,-2 0,2 0,0-1,0 1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1 0,-1 0,0-1,18-10,-1 8,0 0,-1 1,1 1,22 0,-35 1,-1 0,1 0,-1 0,1 0,0 1,0-1,0 1,-1 0,1 0,-1 0,1 1,0-1,-1 1,0-1,0 1,0 0,0 0,1 0,-2 0,1 1,-1-1,1 1,-1 0,4 6,-6-9,1 2,-1 0,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 1,1-1,-1 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 0,-1 1,-39 23,17-12,24-13,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 1,13 6,28 3,-24-6,-14-3,0 0,1 0,-2 0,1 0,0 0,-1 1,1-1,-1 1,0 0,1 0,0 0,-1 0,0 0,0-1,0 2,-1-1,1 0,-1 1,1-1,-1 1,0 0,0 0,0-1,0 0,-1 1,1 0,-1 0,1 0,-1 0,0 0,0-1,-1 1,0 3,0-2,0-1,0 1,-1-1,1 1,-1-2,0 2,0-1,0 0,0 0,-1 0,-1 0,2 0,-1-1,0 0,0 0,0 1,-1-1,0 0,1 0,-1-1,1 1,-1-1,0 0,-7 2,-52 3,43-4,-1 1,-35 9,52-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42022.38">9048 4248,'0'8,"0"12,0 12,0 8,0 2,0-2,0-3,0 9,0 5,-6-1,0 0,1-6,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="42893.38">8992 4909,'-1'6,"-1"-1,1-1,-1 1,0-1,0 1,-5 6,-3 9,-71 137,52-103,1 1,-28 85,54-137,1 0,1 0,-1 0,0 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,0 0,-1 0,1 0,1-1,0 1,-1-1,3 6,-2-6,0-1,0 1,0-1,0 0,0 1,0-1,1-1,0 1,-1-1,0 1,1 0,-1-1,1 1,-1-1,0 0,2 0,-2 0,1 0,-1 0,1 0,-1-1,1 1,-1-1,0 0,4 0,117-27,-120 27,0 1,0-1,1 0,-1 0,1 0,-1-1,-1 1,1-1,0 0,1 0,-2 0,1 0,-1 0,4-3,12-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43660.38">9076 4986,'0'714,"0"-693</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="44826.38">10265 4248,'0'8,"0"17,9 17,4 5,-2 3,-1-2,-3-1,-3 1,-2-5,-1-3,3-7,3-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="46870.38">10376 4884,'-10'2,"1"-1,-1 1,2 0,-1 1,-10 3,-7 2,-3 0,16-5,0 1,1-1,-1 1,-21 12,30-14,0-1,1 2,0 0,0 0,0 0,0 0,-1 0,2 0,-1 0,1 0,0 1,0 0,0 0,1-1,-1 1,1-1,0 2,-1 7,-5 71,6-78,1 1,1-1,-1 0,1-1,0 2,0-1,0 0,2 0,-2-1,1 1,1 0,-1-1,6 8,-6-10,0-1,1 0,-1 0,-1 0,1 0,0-1,0 1,0 0,0-1,1 0,-1 1,0-1,1 0,-1 0,0 0,0 0,3-1,46-8,-18 4,-28 4,12-1,-1 1,2 0,-1 1,32 4,-45-3,-1-1,2 1,-2 0,1 1,-1-2,1 1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 1,-1-1,1 1,-1 0,2-1,-2 1,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 0,0 0,1 7,-1-1,1-1,0 1,-2-1,0 0,0 1,-2 0,1-1,0 1,-1-1,0 0,0 0,-1 1,-1-2,1 1,-2 0,1-1,-1 0,0 1,0-2,-2 1,1-1,0 1,-1-2,0 0,0 1,0-1,-1 0,0-1,-1 0,1 0,0-1,-1 0,0 0,1 0,-2-1,2-1,-18 1,-58-3,60 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52057.4">4124 4096,'4'0,"6"0,8 0,3 0,9 0,-1 5,4 0,1 0,-5 4,-4-1,0 0,0-2,0-3,1-1,1-1,0-1,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="53878.38">3875 3968,'0'5,"0"5,0 6,0 4,0 3,0 2,0 1,0 1,4-1,7-4,5-6,6-6,3-8,-2-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54378.38">3875 3612,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="55626.38">4151 3306,'4'0,"8"0,4 0,11 0,9 5,-1 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57352.38">3376 3129,'3'0,"1"-2,-1 1,0 0,0 0,0-1,0 0,-1 0,1 1,4-5,14-7,-6 8,0 0,1 1,-1 0,2 2,-1 0,30-1,97 9,-133-6,0 2,0 1,0-1,-1 2,1-1,-1 1,0 1,0-2,0 3,-1-1,1 1,-2 0,0 0,1 0,-1 1,-1 0,2 0,-3 1,1 1,7 12,-12-19,0 0,-1-1,1 2,-1-1,1 0,-1 0,0 1,0-1,1 0,-2 1,1-1,0 0,0-1,-1 2,1-1,-1 0,0 0,0 0,0 0,0 0,-2 3,0-2,0 0,0 0,0 0,0-1,-1 1,1-1,-2 1,2-1,-1 0,-8 2,2-1,1 0,-2 0,2-1,-2 0,1-1,-1 0,1 0,1-1,-15-2,15 1,2-1,0 0,-1-1,1 1,1-1,-2 0,2 0,0-1,-10-7,14 10,0-1,-1 0,1 1,0-1,1 0,-2-1,1 1,1-1,-1 1,1-1,0 1,0-1,0 1,0 0,0-1,0 0,1 0,-1 1,1-1,0 0,0 0,0 0,0 1,1-1,-1 1,2-6,-1 6,1-1,-1 1,0 0,1 1,-1-1,1 1,-1-1,2 0,-1 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,2 0,-2 0,0 1,1-1,-1 1,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,2 2,12 2,0 0,-2 1,23 7,-37-11,11 5,-1 0,1 0,-1 2,-1-1,1 2,-2-2,1 2,9 11,-9-8,2-2,-1 1,2-2,15 13,-17-20,-2-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58333.38">3958 2849,'0'8,"0"9,0 4,0 8,4 2,2 2,-1-1,6-7,-2 3,4-5,3-2,5-4,-1-9,-5-11,-5-8,-3-8,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="58822.38">3958 2620,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="59529.39">4096 2238,'4'0,"7"0,6 0,5 0,7 5,5 1,0 0,0-2,-6 3,-13 1,-9-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="61255.38">3211 2009,'69'-1,"-34"0,-1 1,1 0,-1 3,1 1,34 8,-65-11,0 0,-1 1,1 0,-1-2,2 2,-2 1,0-1,1 0,-1 1,0-1,-1 1,2 0,-1 0,-1-1,0 2,1-1,-1 0,-1 1,1-1,0 1,-1 0,0-1,0 0,0 1,1 0,-2 0,1 0,-1-1,0 1,0 0,-1 0,1 0,-2 0,1 0,0-2,0 2,0 0,-1 0,1-1,-1 1,0-1,0-1,-1 2,1-1,-1 0,0 0,0 0,0-1,0 1,-4 1,1-1,-18 14,24-16,-1 0,1 0,0 0,-1-1,1 1,0 0,0 0,-1 1,1-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 1,-1-2,1 1,-1 0,3 2,1 4,0 0,-1 1,0-1,-1 1,0 0,0 0,0 0,-1 0,0 0,-1 0,-1 13,1-18,0-1,0 1,-1 0,-1-1,2 1,-1 0,0-1,0 0,0 0,0 1,-1-1,1 0,-1 0,1 1,-1-1,0 0,0 0,0-1,0 1,-1-1,1 0,-1 1,1-1,0 0,-1 0,1 1,-1-2,0 1,0 0,0 0,1-1,-1 0,0 1,0-1,1 0,-1 0,-1-1,2 1,-5-1,3 0,-1 0,0 0,0 0,1 0,0-1,-1 1,0-1,1 1,0-1,0-1,1 1,-1-1,-1 0,-3-5,-5-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="62506.38">3847 1882,'-3'133,"6"143,-2-273,-1 0,0 0,1 0,0-1,-1 0,1 1,0 0,0-1,1 1,-1 0,1-1,2 4,8 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="63335.38">3820 1730</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23356,14 +23405,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">351 420,'0'1,"1"-1,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,0 0,1-1,-1 1,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1 1,-11 45,11-41,-73 193,-100 191,113-261,54-114,0-3,1 1,1 1,0-1,1 1,-5 23,9-36,0 0,0 0,-1 1,1-1,0 0,1 0,-1 0,0 1,0-1,0 0,1 0,-1 0,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 0,0 1,0-1,2 1,5-1,-1 1,1-1,-1 0,1-1,7-1,2 0,244 4,12 0,-271-2,1-1,-1 1,1 0,-1-1,1 0,-1 1,1-1,-1 0,0 0,1 0,-1-1,0 1,0-1,0 1,0-1,0 0,0 1,-1-1,1 0,0 0,-1 0,0 0,1-1,-1 1,0 0,1-3,1-5,-1 0,0-1,0 1,-1 0,0-12,0 4,3-65</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="524.99">801 658,'0'23,"0"52,0 45,0 24,0 15,0-6,-9-6,-3-25,0-23,3-24,2-30,12-39,10-45,1-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1218.99">1172 1240,'2'2,"0"-1,1 1,-1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 1,-1-1,0 1,1-1,-1 1,0-1,0 1,0 2,4 6,19 44,17 58,9 22,-50-135,27 49,-26-48,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 0,0 1,0-1,0 0,-1 1,1-1,0 0,-1 0,1 0,0 1,0-2,32-52,-3-1,-1-1,33-99,-29 72,-13 29,21-100,-24 84,-16 63,1 1,0-1,0 1,1 0,0-1,0 1,0 1,6-9,6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1837.99">2018 923,'4'0,"7"0,5 0,9 0,5 0,2 0,0 0,3 0,5 0,1 0,1 0,-1 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2550.99">2971 552,'-1'181,"2"211,0-384,-1 10,1 0,6 33,-6-48,-1 0,0-1,1 1,0-1,-1 1,1-1,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,1 0,4 0,-5-1,0 0,-1 0,1-1,0 1,-1-1,1 0,0 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,1-1,-1 1,0-1,0 1,0-1,-1 1,1-1,0 1,0-1,-1 0,1-3,0 3,83-175,284-663,-319 726,-3 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3517.99">3685 1187,'0'5,"0"6,0 9,0 30,0 27,0 20,0 6,0-5,0-10,4-21,11-30,3-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4234.21">4320 870,'136'2,"156"-4,-280 2,0-1,0 0,0-1,0 0,0-1,0 0,-1-1,14-6,-8-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4826.21">4347 1346,'4'0,"6"0,24-4,20-2,18-9,7-1,-7 1,-15 0,-17 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">369 406,'0'0,"1"0,0 0,0 0,0 1,0-1,0 0,-1 1,2-1,-1 1,0-1,-1 1,1-1,0 1,-1-1,1 1,-1 0,1-1,0 1,-1 0,0 0,1-1,-1 1,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,-1 1,-12 43,12-39,-77 186,-105 184,119-251,57-111,0-2,0 1,2 0,0 0,1 0,-6 23,10-35,0 0,0 0,-1 1,1-1,0 0,1 0,-1 0,0 1,0-2,0 1,1 0,-1 0,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,1 0,-1 0,0 0,0-1,0 1,0 0,0-1,0 1,1-1,-1 0,0 1,0-1,2 1,6-1,-2 1,1-1,0 0,0-1,8-1,2 0,256 4,14 0,-286-2,1-1,-1 1,1 0,-1-1,1 0,-1 1,2-1,-2 0,0 0,1 0,-1-1,0 1,0-1,0 1,0-1,1 0,-1 1,-1-1,1 0,0 1,-1-1,0 0,1-1,-1 1,0 0,1-3,2-5,-2 1,0-2,0 2,-1-1,0-11,0 3,3-62</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="524.99">842 635,'0'23,"0"49,0 44,0 23,0 14,0-5,-9-6,-4-24,1-23,2-22,3-30,12-37,11-44,1-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1218.99">1233 1197,'2'2,"0"-1,1 1,-1 0,0 0,0 0,0 0,1 0,-2 0,1 0,0 1,-1-2,0 2,1-1,-1 1,0-1,0 1,0 2,4 5,21 44,17 55,9 21,-52-130,29 47,-28-46,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1-1,-1 1,0 0,0-1,0 0,0 1,0-1,0 0,-1 1,1-1,0 0,-1 0,1 0,0 1,0-2,34-50,-4-1,0-1,34-96,-30 70,-14 28,22-97,-25 82,-17 60,1 1,0-1,0 2,1-1,1-1,-1 1,0 1,6-8,7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1837.99">2122 891,'5'0,"6"0,6 0,9 0,6 0,2 0,-1 0,4 0,5 0,1 0,1 0,0 0,-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2550.99">3125 533,'-1'175,"2"203,0-370,-1 9,1 1,6 31,-6-46,-1 0,0-1,1 1,0-1,-1 0,2 0,-1 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 0,0 0,0-1,0 1,0-1,1 0,-1 1,0-1,0 0,1 1,-1-1,0 0,1 0,5 0,-6-1,0 0,-1 0,1-1,0 1,-1-1,1 0,1 0,-2 1,1-1,-1 0,1 0,-1 0,1 0,-1-1,0 2,0-1,1-1,-1 1,0-1,0 1,0-1,-1 1,2-1,-1 1,0-1,-1 0,1-3,0 3,87-169,299-640,-335 701,-4 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3517.99">3876 1146,'0'5,"0"6,0 8,0 29,0 26,0 20,0 6,0-6,0-9,4-20,12-29,3-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4234.21">4544 840,'143'2,"164"-4,-295 2,1-1,0 0,-1-1,1 0,0-1,-1 0,0 0,14-7,-8-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4826.21">4572 1300,'4'0,"7"0,25-4,20-2,20-9,7 0,-7 1,-16-1,-18 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23390,13 +23439,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 368,'8'104,"-1"-30,-3 45,9 109,-13-222,1 0,0 0,0 0,1-1,-1 1,1 0,1-1,-1 0,1 1,0-1,0 0,0 0,1-1,-1 1,1-1,0 1,5 2,-2-3,0 0,-1-1,1 0,0-1,1 1,-1-1,0-1,1 1,-1-1,1-1,-1 1,13-2,-12 0,0 0,0 0,0 0,0-1,-1 0,1-1,-1 0,1 0,-1 0,0-1,0 0,-1-1,1 0,-1 1,0-2,0 1,-1-1,8-10,5-9,0-2,-2 0,18-40,-34 65,32-63,-3-2,-3-1,-4-2,-2 0,-3-1,13-137,-19 85,-1 74</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="601">821 712,'4'5,"7"5,0 6,0 10,10 26,2 19,-3 10,-4 5,-6 2,-4-10,-4-9,-1-8,-1-9,-1-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1334.99">1297 474,'0'-4,"4"-2,7 0,5 1,5 2,3 1,2 1,1 0,1 1,4 0,6 1,1-1,-2 0,-3 0,-2 0,-2 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2019">1430 1056,'4'0,"7"0,9 0,7 0,7-4,16-2,18 1,15 0,2 2,-9 1,-7 1,-12 0,-20 1,-25 0,-15 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2833">2673 289,'-1'3,"1"0,0-1,-1 1,0-1,0 1,1-1,-1 1,-1-1,1 0,0 1,-1-1,-1 2,-8 14,-31 67,1-3,-45 125,85-203,-1-1,1 1,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,1 0,-1 0,1 0,0 0,1 5,0-7,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,1 1,-1-1,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 0,-1 0,1 0,2-1,231 7,-139-2,-53-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3529">3097 156,'-25'304,"3"-92,15 179,8-264,-1-105</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4588">3335 791,'5'0,"0"0,1 1,-1-1,0 1,1 0,-1 0,0 1,0-1,0 1,0 0,0 1,0-1,4 4,-1 1,0 0,-1 1,1 0,-2 0,11 16,29 49,-28-42,1-1,2-1,40 45,-61-74,1 1,0 0,0 0,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 0,1 0,28-38,-24 30,92-153,-60 94,4 2,2 1,63-70,-69 97</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 352,'8'100,"0"-29,-4 43,9 104,-13-213,1 1,0 0,0 0,2-2,-2 2,1 0,1-1,-1 0,1 0,0 0,0 0,0 0,2-2,-2 2,1-1,0 1,5 2,-1-4,-1 1,-1-1,2 0,-1-1,1 1,-1-1,1-1,0 1,-1-2,2 0,-2 1,14-2,-13 1,0-1,1 0,-1 0,0-1,0 0,0-1,-1 0,2 0,-2 0,0 0,1-1,-2-1,1 0,-1 1,1-1,-1 0,-1-1,9-9,4-9,1-2,-2 0,18-38,-35 62,34-60,-4-2,-3-1,-4-2,-2 0,-4-1,15-131,-21 81,-1 71</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="601">855 681,'4'5,"8"5,-1 5,1 10,10 25,2 18,-4 9,-3 6,-6 1,-5-10,-4-7,-1-9,-1-8,-1-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1334.99">1351 454,'0'-4,"4"-2,8 0,4 2,6 1,3 1,2 1,2 0,0 1,4 0,7 1,0-1,-1 0,-4 0,-1 0,-3 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2019">1490 1011,'4'0,"7"0,10 0,7 0,8-4,16-2,19 1,15 1,3 1,-10 1,-7 1,-13 0,-20 1,-27 0,-15 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2833">2785 277,'-1'3,"1"-1,0 0,-1 1,0-1,-1 1,2-1,-1 1,-1-1,1 0,0 0,-1 0,-1 2,-8 13,-33 65,1-4,-46 120,87-194,0-1,1 1,0 0,0 0,0-1,1 1,-1 0,1 0,0 0,0 0,1-1,-1 1,1 0,0 0,1 4,0-6,1 0,-2 0,1 0,0 0,0-1,0 1,0-1,1 1,-1-1,0 0,0 0,2 0,-2 0,1 0,-1-1,1 0,-1 0,1 1,0-1,-1 0,1 0,0 0,0 0,2-1,241 7,-145-2,-55-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3529">3226 149,'-26'291,"3"-88,16 171,8-252,-1-101</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4588">3474 757,'6'0,"-1"0,1 1,-1-1,0 1,2 0,-2 0,0 1,0-1,0 1,1 0,-1 1,0-2,4 5,0 1,-1 0,-1 0,2 1,-3 0,12 14,30 48,-30-40,2-1,2-1,42 42,-64-70,1 1,0 0,0 0,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,2 0,-2-1,0 1,0 0,0 0,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,0 0,1 0,29-36,-24 28,95-146,-63 90,5 2,2 1,65-67,-71 92</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23591,12 +23640,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 529,'110'-1,"122"3,-145 11,-58-7,43 2,-49-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="604.99">954 0,'4'9,"2"8,0 27,-2 30,-1 24,-1 8,-1 6,0-9,-1 11,0-11,-1-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2109">1483 106,'-2'1,"0"-1,0 1,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-1 3,-16 44,14-36,-81 269,76-242,2 0,2 1,1 0,2 0,5 52,-3-88,0-1,1 1,-1 0,1-1,1 1,-1-1,0 1,1-1,0 0,0 1,0-1,1 0,-1 0,1-1,0 1,0-1,0 1,6 4,-3-5,0 0,0 0,1-1,-1 0,1 0,-1 0,1-1,-1 0,1 0,0-1,0 0,8 0,31-1,-3 1,71-9,-102 8,1-2,-1 0,0 0,0-1,0-1,-1 0,1-1,-1 0,0 0,11-10,-5 3,-1-1,0 0,-1-1,-1-1,0 0,-2-1,1-1,-2 0,-1 0,0-1,-1 0,-1-1,7-24,-15 35,1 1,-1-1,0 0,-1 0,0 0,0 1,-1-1,0 0,0 1,-1-1,-1 1,-4-9,-3-5,-1 0,-30-40,30 48,1 1,-2 0,0 1,0 1,-1 0,0 0,-1 1,0 1,-1 1,-33-13,25 13,-1 1,0 1,0 1,-1 2,1 0,-49 2,52 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3515.99">2224 582,'-26'363,"4"-121,16-87,11-121,-5-33,0 0,0 0,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 0,1 1,0-1,-1 1,1-1,0 0,-1 0,1 1,0-1,2-1,0 0,0 0,0 0,0-1,0 1,0-1,-1 1,1-1,-1 0,1 0,-1 0,0-1,0 1,0 0,0-1,0 0,2-3,60-87,-4-2,-5-3,54-130,-88 167,-17 41</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6471.52">2938 424,'639'0,"-617"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7291.52">3070 794,'4'0,"7"0,5 0,5 0,7 0,4 0,1 0,4 0,4 0,5 0,-1 0,-4 0,-5 0,-3 0,-3 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 513,'115'-1,"128"3,-152 11,-60-8,44 3,-51-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="604.99">999 0,'4'9,"2"7,1 27,-3 29,-1 23,-1 7,-1 7,0-9,-1 11,0-12,-1-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2109">1553 103,'-2'1,"0"-1,0 1,1 0,-1-1,-1 1,2 0,-1 0,1 0,-1 0,1 0,0-1,-1 2,1-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-1 3,-17 42,14-34,-84 261,80-236,2 1,1 1,2 0,2-1,5 52,-3-87,0 0,1 1,-1 0,1-1,2 1,-2-1,0 0,1 0,0 0,0 1,0-1,1 0,-1 0,1-1,1 0,-1 0,0 1,6 4,-2-5,-1 0,0 0,1-1,0 0,0 0,-1 0,2-1,-2-1,1 1,1-1,-1 0,9 0,32-1,-3 1,74-8,-106 7,0-2,0 0,0 0,-1-1,1-1,-2 0,2 0,-2-1,1 0,11-10,-5 4,-2-2,1 1,-1-2,-1 0,-1-1,-1 0,0-2,-1 1,-2-1,1 0,-2-1,0 0,6-24,-15 35,1 0,-1-1,0 0,-1 1,0-1,0 1,-1-1,0 1,0 0,-1-1,-1 2,-5-10,-2-4,-2-1,-31-38,32 47,0 0,-2 0,1 2,-1 0,0 0,-1 1,-1 0,1 1,-2 2,-35-14,27 14,-1 0,0 1,0 1,-1 2,0 0,-50 2,54 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3515.99">2329 564,'-27'352,"4"-117,16-85,13-117,-6-32,0 0,0 0,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 0,1 1,0-1,-1 1,1-1,0 0,-1 0,1 1,0-1,2-1,1 0,-1 0,0 0,0-1,0 1,0-1,-1 1,1-1,0 0,0 1,-1-1,0-1,0 1,0 0,0-1,0 0,2-3,63-84,-4-2,-5-3,56-126,-92 162,-18 39</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6471.52">3077 411,'669'0,"-646"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7291.52">3215 770,'4'0,"8"0,4 0,6 0,8 0,3 0,2 0,4 0,3 0,7 0,-2 0,-4 0,-6 0,-2 0,-4 0,-7 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23650,19 +23699,19 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">612 238,'-32'1,"1"0,0 2,0 1,-31 9,57-11,1-1,0 1,0 0,0 0,0 0,1 1,-1-1,1 1,-1 0,1 0,0 0,0 0,0 1,1-1,-1 1,1 0,0 0,0-1,-3 9,2-3,0 1,0-1,1 1,0 0,1 0,0-1,1 19,1-25,-1 0,1-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,1-1,-1 1,0-1,0 1,1-1,-1 0,1 0,-1 0,1 0,-1-1,5 1,10 2,-1 0,2-2,29-1,8 2,-52-2,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 1,-1-1,1 1,0 0,-1 0,0-1,1 1,-1 0,1 6,0 5,0 0,0 0,-2 1,-1 25,-1-11,2-28,1 16,-2-1,0 1,-1-1,-6 21,7-32,0-1,-1 0,1 0,-1 0,0 0,0 0,-1 0,1-1,-1 1,0-1,0 1,0-1,0 0,-1 0,1-1,-1 1,0-1,0 0,0 0,0 0,-5 2,-17 1,1-1,-1-1,0-1,0-1,0-2,0 0,0-2,-32-7,46 8,1-1,-1 0,0 0,1-1,0-1,-18-10,7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1170.99">1723 265,'-10'0,"0"1,0 0,0 0,0 1,0 0,0 1,1 0,-1 0,1 1,0 0,0 1,0 0,1 0,0 1,0 0,0 1,-7 7,-217 186,227-196,0 0,0 0,1 0,-1 1,1-1,0 1,0 0,0 1,1-1,-3 7,5-10,0 1,1-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,1 1,-1 0,1-1,0 1,0-1,0 1,1-1,-1 0,0 0,1 1,0-1,-1 0,1 0,0 0,2 1,23 21,0-2,2 0,55 30,-54-34,0 0,-1 2,-1 1,28 28,-30-21,-4-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2792.99">2226 0,'0'0,"1"0,-1 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,-1-1,1 0,0 1,0-1,-1 1,1 0,-18 34,10-21,-105 197,-18 37,126-237,0 1,0-1,2 1,-1 0,1 0,1 1,0-1,1 0,0 1,1-1,0 1,1-1,0 0,1 1,1-1,0 0,0 0,1 0,1-1,0 1,1-1,11 18,-12-21,1-1,0 0,0 0,1 0,0-1,0 0,1 0,9 6,-13-10,1 1,0-1,0 0,0 0,0 0,0 0,0-1,0 0,1 0,-1-1,0 1,1-1,-1 0,0-1,1 1,5-2,-8 0,0 0,0 1,0-1,0-1,0 1,0 0,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,-1 0,1 0,0 0,-1-1,0 1,0-1,0 1,0-1,0-4,3-14,-1 0,0-28,-3 46,1-16,0 0,-6-38,4 51,-1 0,0 1,0-1,0 1,-1-1,0 1,0 0,-1 0,0 0,0 0,-9-9,7 8,0 0,0 1,0 0,-1 0,0 0,-1 1,1 0,-1 0,0 1,0 0,0 0,0 1,-1 0,0 1,1-1,-1 2,0-1,0 1,-15 1,-28 1,29 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15416.99">638 1376,'-5'0,"-5"0,-6 5,-14 23,-6 12,-1 9,5-1,4 1,2 2,1 0,4 6,7-3,-4 7,1-1,3-7,5-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16699.99">559 1402,'9'0,"1"1,-1 0,1 0,-1 0,1 1,-1 1,0 0,0 0,0 1,0 0,-1 0,0 1,0 0,0 0,0 1,-1 0,0 1,0 0,0 0,-1 0,0 0,-1 1,7 12,-1 2,-1 0,-2 0,0 1,-1 0,-1 0,-2 1,0 0,1 28,-4-25,2 0,1 0,11 38,-11-54,0 0,0 0,2 0,-1-1,1 0,1 0,0 0,0-1,1 0,12 11,-7-7,-3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17723">400 1667,'4'0,"11"0,8 0,3 0,3 0,0 0,0 0,0 0,-6 5,-1 1,-1-1,1 0,1-2,2-1,0 4,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19858.99">2438 1350,'0'5,"0"5,0 24,0 24,0 30,0 21,0 16,0 4,-5-2,-1-9,-4-20,-1-23,2-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22532.99">2305 1217,'0'-1,"0"0,1 0,-1 0,1 0,0 0,-1-1,1 1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,1 0,1 0,40-5,-38 5,10-1,1 0,-1 1,0 1,0 0,0 1,0 0,0 2,0 0,-1 0,1 1,-1 1,23 14,-1-2,-11-5,38 25,-58-35,0 1,-1 0,1-1,-1 1,0 1,0-1,0 1,-1 0,1-1,-1 1,0 1,-1-1,4 9,-5-9,-1 0,1 1,-1-1,-1 0,1 1,-1-1,1 0,-2 0,1 0,0 1,-1-1,0-1,0 1,-1 0,-5 8,-6 8,-1-1,-18 20,20-26,4-4,-2 0,1-1,-1 0,-1-1,0 0,0-1,0-1,-18 8,5-2,25-12,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,26 4,30-3,-31-1,0 2,0 0,-1 2,1 1,-1 0,32 13,131 65,-161-71,-16-8,-1 1,1 1,0 0,-1 0,0 1,-1-1,0 2,13 15,-18-20,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,0 1,0-1,0 1,-1 0,1 0,-1-1,0 1,0 0,0 0,-1-1,1 1,-1 0,0-1,0 1,0 0,-1-1,1 1,-1-1,-2 5,-110 177,36-56,74-121,-1-1,0 1,0-2,-1 1,1 0,-2-1,1 0,-1-1,0 1,0-1,-13 6,10-7,0-1,0 0,0-1,-1 0,1 0,-1-1,1-1,-1 0,-10-1,-219-5,212 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31451.99">30 1217,'-1'1,"0"-1,0 0,0 1,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,0 2,-4 35,4-30,-9 566,12-336,1-179,2-38</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32812.99">1062 1217,'2'1,"0"-1,1 1,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,-1-1,1 0,-1 1,0 2,3 14,-1 0,-1-1,-1 21,-1-16,1 492,-1-220,1-273</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34363.99">1988 1164,'-7'138,"-30"177,-2 12,36-307,0 1,-2-1,-8 26,7-28,0 0,2 1,0-1,1 1,0 18,3-7,1 0,1-1,2 1,1-1,11 40,-4-46,2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35510.99">3390 1138,'0'1353,"0"-1330</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52027.96">1697 1297,'-1'5,"0"0,0-1,-1 1,1-1,-1 0,0 0,0 1,0-1,-6 7,-3 6,-23 42,-2-2,-3-2,-89 96,122-145,0-1,0 0,0-1,-1 0,0 0,0 0,0 0,0-1,-1-1,1 1,-1-1,-8 1,-34 12,49-14,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 1,1-1,-1 0,1 0,0 0,-1 2,2-1,-1 0,1-1,-1 1,1 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,2 0,9 7,0 0,0-1,17 9,-24-14,39 20,-20-11,-1 2,24 16,-39-24,0 1,0 1,-1-1,0 1,0 0,-1 1,0 0,8 15,-5-5,-3-6,0-1,1 1,0-1,1-1,0 1,1-1,11 11,4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">643 230,'-34'1,"2"0,-1 2,0 1,-32 8,60-10,1-1,0 1,-1 0,1 0,0 0,1 1,-1-1,1 1,-2 0,2-1,0 1,0 0,0 1,1-1,-2 1,2 0,0 0,0-1,-3 8,2-2,0 1,-1-2,2 2,0 0,1-1,0 0,1 18,1-24,-1 0,1-1,-1 1,1-1,0 0,0 0,0 1,1-1,-1 1,0-1,1 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,1-2,0 2,-1-1,0 1,1-1,-1 0,1 0,-1 0,1 0,0-1,4 1,11 2,-1 0,1-2,32-1,8 2,-55-2,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,0-2,-1 2,1 0,-1 0,2 0,-2 0,0 0,1 1,-1-1,0 1,-1-1,1 1,0 0,-1-1,0 0,2 1,-2 0,1 6,0 4,0 1,0-1,-2 2,-1 24,-1-11,2-27,1 15,-2 0,0 0,-1-1,-7 21,8-31,0-1,-1 0,1 0,-1-1,0 1,0 0,-1 0,1-1,-2 1,1-1,0 1,0-1,0-1,-1 1,0-1,0 1,0-1,0 0,0 0,-1 0,-4 2,-18 1,0-2,0 0,0-1,0-1,-1-2,1 0,0-2,-34-6,48 7,2-1,-2 0,0 0,2-1,-1-1,-18-9,7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1170.99">1809 256,'-10'0,"-1"1,1 0,-1 0,1 1,-1 0,1 1,0 0,0 0,0 0,1 1,0 1,-1 0,2 0,-1 1,1-1,0 2,-8 7,-228 179,239-189,0 0,-1 0,2 0,-1 0,1 0,0 1,-1 0,1 1,1-1,-3 6,5-9,0 1,1-1,-1 1,1 0,0-1,0 1,0-1,0 0,0 1,1 0,-1-1,1 1,-1 0,1-1,0 1,0-1,0 1,1-2,-1 1,0 0,1 1,0-1,-1 0,1 0,0 0,3 1,23 20,0-2,3 1,57 28,-56-33,-1 1,0 1,-2 1,30 28,-32-21,-4-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2792.99">2338 0,'0'0,"1"0,-1 1,1-1,-1 0,1 0,-1 0,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,0-1,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 0,0 0,0 1,0-1,0 1,-1-1,1 0,0 1,0-1,-1 1,1 0,-19 33,11-20,-111 190,-19 35,133-228,0 1,0-2,2 2,-2-1,2 1,1 1,0-2,1 1,0 0,1 0,0 1,1-2,0 1,1 0,1 0,0-1,1 1,0 0,1-2,0 2,2-1,10 17,-11-21,0 0,0 0,1 0,0-1,0 0,1 0,0 0,10 5,-14-9,1 1,1-1,-1 0,0 0,0 0,1 0,-1-1,0 0,1 0,0-1,-1 1,1-1,-1 0,1-1,0 1,6-2,-9 0,0 0,0 1,0-1,0-1,0 1,1 0,-2-1,1 1,-1 0,1-1,-1 0,0 0,0 0,-1 0,2 0,-1 0,-1-1,0 2,0-2,0 1,0-1,0-4,3-13,-1 0,0-28,-3 45,1-15,1 0,-8-37,5 49,-1 0,0 1,0 0,0 0,-1-1,0 1,-1 0,0 1,0-1,0 0,-10-8,8 7,0 0,-1 1,1 0,-1 1,-1-1,0 1,0 0,0 0,0 1,-1 1,1-1,-1 1,0 0,0 1,0-1,0 2,-1-1,1 1,-16 1,-30 1,31 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15416.99">670 1330,'-5'0,"-6"0,-6 5,-14 22,-7 12,-1 8,6-1,3 2,3 1,1 0,4 6,7-2,-4 6,1-1,3-7,6-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16699.99">587 1355,'9'0,"2"1,-2 0,2 0,-2 0,2 1,-2 1,1 0,-1 0,1 1,-1-1,0 1,-1 1,0 0,1 0,-1 1,-1-1,1 2,-1 0,1 0,-2-1,0 1,-1 1,8 11,-1 3,-2-1,-2 0,1 1,-2 1,0-1,-3 1,0 0,1 27,-4-23,2-1,2 0,10 37,-10-53,-1 1,0-1,2 1,-1-1,2-1,0 1,0 0,1-2,0 1,13 10,-7-6,-4-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17723">420 1611,'4'0,"12"0,8 0,3 0,4 0,-1 0,1 0,-1 0,-6 5,0 1,-2-1,1 0,1-2,2-2,0 5,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19858.99">2560 1305,'0'5,"0"4,0 24,0 23,0 29,0 21,0 15,0 3,-5-1,-1-9,-5-19,0-23,1-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22532.99">2421 1176,'0'-1,"0"0,1 0,-1 0,1 1,0-1,-1-1,1 1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,2 1,-2 0,0-1,0 1,1 0,1 0,42-5,-40 5,11-1,1 0,-1 1,-1 1,1 0,0 1,0 0,-1 2,1 0,-1 0,1 0,-2 2,25 14,-1-3,-12-4,40 23,-60-33,-1 1,-1 0,1-1,0 1,-1 1,0-2,0 2,-1 0,2-1,-2 1,0 1,-1-2,4 10,-5-9,-1 0,1 0,-1 0,-1 0,1 1,-1-1,1 0,-2-1,1 1,0 1,-1-1,0-1,0 1,-1-1,-6 9,-6 7,0 0,-20 18,21-24,5-5,-3 1,2-1,-2-1,0 0,-1 0,1-1,-1-1,-19 7,6-1,26-12,0 0,0 0,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,27 4,32-3,-33-1,0 2,1 0,-2 2,1 1,-1 0,34 12,137 63,-168-68,-18-8,-1 1,2 0,-1 1,0 0,-1 1,-1-1,1 1,13 15,-19-19,0 0,0 0,0 0,0 0,0 1,-1-1,2 1,-2-1,0 0,0 0,0 1,-1 0,1 0,-1-1,0 1,0 0,0-1,-1 0,1 1,-1 0,0-1,0 1,0 0,-2-1,2 0,-1 0,-2 5,-116 171,38-54,78-118,-1 0,0 1,-1-2,0 0,1 1,-2-1,0 0,0-1,0 0,-1 0,-13 6,11-7,-1-1,1-1,-1 0,0 0,0 0,0-1,0-1,0 0,-11-1,-231-5,224 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="31451.99">32 1176,'-2'1,"1"-1,0 0,0 1,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1 0,0 2,-5 33,5-28,-9 547,12-325,1-173,3-37</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="32812.99">1115 1176,'2'1,"0"-1,2 1,-2-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 1,0 0,-1 0,1-1,-1 1,1 0,-1-1,0 1,0 0,0 1,0-1,1 0,-1 0,0 1,-1-1,1 0,-1 1,0 2,3 13,-1 0,-1 0,-1 19,-1-14,1 474,-1-211,1-265</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="34363.99">2088 1125,'-8'134,"-31"170,-1 12,36-297,1 2,-2-2,-9 25,8-26,0-1,1 2,1-2,1 1,0 18,3-7,1 0,1-1,2 1,2-1,10 39,-3-45,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="35510.99">3560 1100,'0'1308,"0"-1286</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52027.96">1782 1254,'-1'5,"0"-1,0 0,-1 1,1-1,-1 0,0 0,-1 0,1 0,-6 7,-4 5,-23 41,-3-1,-3-3,-93 93,127-141,1 0,0 0,-1-1,0 0,0 0,-1 0,1-1,0 0,-2-1,2 1,-2-1,-7 1,-37 12,52-15,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 1,1-1,-1 0,1 0,0 0,-1 2,2-1,-1 0,1-1,-1 1,1-1,0 0,-1 1,1 0,0-1,0 1,0-1,1 1,0-1,-1 0,0 1,2 0,9 7,1-1,0 0,17 8,-25-13,42 20,-22-12,-1 3,25 15,-40-23,-1 0,0 2,0-1,-1 1,1-1,-2 2,0 0,9 14,-6-5,-2-5,-1-2,1 2,1-1,0-2,0 2,2-2,11 12,4-3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23925,14 +23974,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 635,'4'0,"7"0,9 0,7 0,8 0,1 0,1 0,1 0,0 0,2 0,-1 0,-7-9,-10-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="510.99">292 159,'0'14,"0"13,0 11,0 12,0 8,0 6,0 7,0-5,0-5,0-7,0-5,0-6,0-5,0-6,0-2,0-3,0-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1777">769 265,'-4'63,"-2"-1,-27 116,0-9,33-164,-1 0,1-1,0 1,0 0,0 0,0 0,1 0,0 0,0 0,0-1,1 1,0 0,0-1,0 1,0-1,1 0,-1 0,5 5,-2-3,1-1,1 1,-1-1,1 0,0-1,0 0,0 0,0 0,1-1,8 3,5 0,1 0,0-2,0-1,0 0,0-2,0 0,30-4,-46 2,-1-1,1 0,-1 0,0 0,1-1,-1 0,0 1,0-2,-1 1,1-1,-1 0,1 0,-1 0,0 0,-1-1,1 1,-1-1,0 0,3-5,5-11,-1 0,-1 0,9-31,-11 29,-2-1,0 0,-1 0,-1 0,-1 0,-2-1,0 1,-2-1,-8-43,6 49,-2-1,0 1,-2 0,0 0,0 1,-2 0,0 1,-2 0,0 0,0 2,-1-1,-18-15,24 25,0 0,-1 1,1-1,-1 2,0-1,-1 1,1 0,-1 0,0 1,0 1,0-1,0 1,0 1,-1 0,1 0,0 1,-1 0,-9 1,-34 1,30-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2891">504 0,'0'1,"1"-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,1-1,-1 1,0 0,0-1,0 1,0-1,0 1,-1-1,1 2,9 63,-3 1,-3 0,-3 1,-10 80,-11-12,12-91,2 0,2 0,1 87,4-129,0 1,0-1,0 1,0-1,1 1,-1-1,1 0,-1 1,1-1,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,0 0,1-1,-1 1,0 0,1-1,2 1,15-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3750">1589 529,'-1'94,"2"100,0-186,0 0,0 0,1 0,-1 0,2-1,-1 1,5 8,-6-14,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0-1,1 0,-1 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1-1,1 0,-1 1,4-1,-4-1,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,0-1,-1 0,1 1,1-4,24-38,-13 18,97-128,33-49,-119 162</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4412.99">2330 106,'4'0,"6"0,11 0,10 0,14 0,17 0,20 9,6 3,-8 0,-4-3,-6-2,-11-3,-10-2,-13-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4921">2436 556,'4'0,"11"0,7 0,4 0,3 0,0 0,5 0,1 0,12 5,12 1,0 4,-5 1,-7-2,-12-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6310">3626 238,'-22'0,"12"-1,0 1,0 1,0-1,-14 4,21-3,0 0,-1 0,1 0,0 0,1 1,-1 0,0-1,0 1,1 0,-1 0,1 0,-1 1,1-1,0 1,0-1,0 1,0 0,-1 2,-13 28,1 0,1 1,-11 47,20-59,0 0,1 0,2 0,0 1,1-1,4 37,-3-55,1 0,0 1,0-1,0 0,0 0,1-1,0 1,0 0,0 0,0-1,0 1,1-1,-1 0,1 0,0 0,0 0,5 4,2-1,0 0,1-1,-1 0,21 5,15 8,-31-12,0-1,0-1,1 0,-1-1,1 0,0-2,0 0,18-1,-3-1,0-2,-1-1,37-10,-59 12,0-1,-1 1,1-1,-1 0,0-1,0 0,-1 0,1 0,-1-1,0 0,0 0,0-1,-1 0,1 0,-2 0,1 0,-1-1,0 0,0 0,0 0,-1 0,4-15,-2 0,-1 0,-1 0,0 0,-2-1,-1 1,-5-45,3 58,0-1,-1 1,0 0,-1 0,0 0,0 0,-1 0,0 1,0 0,-1 0,0 1,-1-1,1 1,-1 0,-1 1,1 0,-1 0,-11-6,-10-5,-1 1,-1 1,-62-21,74 30,-1 1,1 1,-39-3,30 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 605,'4'0,"8"0,8 0,9 0,7 0,2 0,0 0,2 0,-1 0,3 0,-1 0,-8-8,-10-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="510.98">304 152,'0'13,"0"13,0 10,0 12,0 7,0 6,0 7,0-5,0-5,0-7,0-4,0-6,0-5,0-5,0-3,0-2,0-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1777">802 253,'-5'60,"-1"-1,-28 111,-1-9,35-156,-1-1,1 0,0 1,0 0,0-1,0 1,1 0,0 0,0-1,0 0,2 1,-1 0,0-1,0 0,0 0,1 0,-1 0,5 4,-1-2,0-1,1 1,-1-2,2 1,-1-1,0 0,1 0,-1-1,1 0,9 3,5 0,1-1,0-1,0-1,0 0,0-2,-1 0,33-4,-49 2,-1-1,1 0,0 0,-1 0,1 0,-1-1,0 1,1-2,-2 1,1-1,-1 1,1-1,0 0,-1 0,-1-1,1 1,-1 0,0-1,4-5,4-10,-1 0,0 0,9-29,-12 27,-2-1,0 0,0 0,-2 0,-1 0,-2 0,0 0,-2-1,-9-41,7 47,-2-1,0 1,-3 0,1-1,0 2,-3 0,1 1,-3 0,1 0,-1 1,0 0,-20-15,26 25,0-1,-2 1,2-1,-1 3,-1-2,0 1,1 0,-2 0,1 2,0 0,-1-1,1 1,-1 1,0 0,1 0,-1 1,0 0,-10 1,-35 1,31-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2891">525 0,'0'1,"1"-1,-1 0,1 0,-1 0,1 0,-1 1,2-1,-2 0,1 1,-1-1,1 0,-1 1,1-1,-1 0,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 0,1 0,-1 1,0 0,0-1,0 1,0-1,0 1,-1-1,1 2,9 60,-3 1,-2 0,-4 1,-11 76,-11-11,13-87,2 0,1 0,2 83,4-123,0 0,0 0,0 1,0-1,1 1,-1-1,1 0,-1 1,1-2,0 2,0-1,0 0,0 0,2 0,-2 0,0 0,1 0,0 0,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,0 1,2-1,-2 0,0 0,1-1,-1 1,0 0,1-1,2 1,16-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3750">1656 504,'-1'90,"2"95,0-177,0-1,1 1,0 0,-1-1,2 0,-1 0,5 9,-6-14,0 0,0 0,1 0,-1 0,2 0,-2 0,1 0,0 0,0-1,-1 1,1 0,0-1,1 0,-1 0,0 0,0 0,2 0,-2 0,0 0,1 0,-1-1,1 1,-1-1,1 0,-1 1,5-1,-5-1,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-2,0 1,0-1,-1 0,1 1,1-4,25-36,-13 17,100-122,36-46,-125 154</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4412.99">2429 101,'4'0,"6"0,12 0,11 0,14 0,17 0,22 9,5 2,-7 1,-5-4,-6-1,-11-3,-11-2,-14-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4921">2539 530,'5'0,"10"0,8 0,4 0,3 0,1 0,4 0,2 0,12 5,12 1,1 3,-6 2,-7-3,-13-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6310">3780 227,'-23'0,"12"-1,1 1,0 1,-1-1,-14 4,22-3,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,1 0,-1 0,1 0,-1 1,1-1,-1 1,1-2,0 2,0 0,-1 2,-14 26,2 1,0 0,-11 46,21-57,0-1,1 1,1 0,1 1,1-1,4 36,-3-54,1 1,1 1,-1-1,0 0,0-1,1 0,0 1,0 0,0 0,0-1,0 0,1 0,-1 0,1 0,1 0,-1 0,5 3,3 0,-1 0,1-1,0-1,21 6,16 7,-32-11,-1-1,1-2,1 1,-2-1,2 0,0-2,-1 0,20-1,-4-1,0-2,0-1,38-9,-62 11,0-1,0 1,0-1,-1 0,0 0,1-1,-2 0,1 0,0-1,-1 1,0-1,0-1,0 0,0 1,-2-1,1 0,-1 0,1-1,-1 0,0 1,-1-1,4-14,-2 0,0 0,-2 0,0 0,-2-1,-1 1,-5-43,3 56,0-2,-2 2,1-1,-1 0,0 1,0-1,-1 1,-1 0,1 0,-1 1,0 0,-2-1,2 2,-1-1,-2 1,2 1,-1-1,-12-6,-10-4,-1 1,-2 1,-64-21,77 30,0 0,0 1,-41-3,32 6</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23959,17 +24008,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4579 26,'-8'1,"1"0,0 0,0 1,0 0,0 0,0 0,0 1,1 0,-1 1,1-1,0 1,0 0,0 1,0-1,1 1,0 1,0-1,0 0,-4 8,-8 12,1 0,1 1,-14 35,9-17,-26 87,40-106,0 0,2 0,1 0,1 1,1 34,2-52,1 0,0 0,0-1,0 1,1 0,0-1,1 0,-1 0,1 0,1 0,-1 0,1-1,1 0,-1 0,1 0,0-1,0 0,0 0,1-1,0 1,10 4,-1-1,0-1,0 0,1-1,-1-1,1-1,1 0,-1-1,35 1,-50-4,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 0,0 0,1 1,-1-1,0 0,0 0,0-1,1 1,-1 0,0 0,0 0,-1-1,1 1,0-1,0 1,-1 0,1-1,-1 1,1-1,-1 1,1-1,-1 0,0 1,0-1,0 1,0-1,0 0,-1-2,-2-8,0-1,-1 1,0 0,-12-22,1-1,7 5,2 0,1-1,-2-53,5 48,2 33,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,0 0,-3-3,0 1,0 1,0 0,0 1,0-1,0 1,-1 0,1 0,-10-1,-9 0,0 0,0 2,-36 2,38 0,-5 0,4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="982.84">4870 370,'2'1,"1"-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 0,1 1,-1-1,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,0 0,-1 1,0-1,1 0,-1 0,0 1,0-1,0 0,0 5,4 8,0 1,3 32,-6-37,5 42,-5-27,2 1,1-1,1 0,0 0,3-1,18 43,-26-66,1 1,-1-1,0 1,1-1,0 0,0 1,-1-1,1 0,1 0,-1 0,0-1,0 1,1 0,-1-1,1 1,-1-1,1 0,-1 0,1 0,0 0,0-1,0 1,-1-1,1 1,4-1,-4-1,1 0,-1 0,1 0,-1 0,0 0,0-1,1 0,-1 1,0-1,-1 0,1-1,0 1,0 0,-1-1,0 0,1 1,-1-1,0 0,3-6,17-36,-1 0,16-55,25-55,84-99,-106 193</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5832.99">689 582,'5'2,"0"0,0 0,0 0,0 1,0-1,-1 1,1 0,-1 0,1 1,6 7,2 0,166 151,-165-153,0 0,1-1,0-1,0 0,18 5,-3-1,-20-7,-1-1,1 0,-1 0,1-1,0 0,0-1,14 1,-20-3,-1 1,0 0,1-1,-1 1,1-1,-1 0,0 0,0-1,1 1,-1-1,0 1,0-1,0 0,-1 0,1 0,0-1,-1 1,1 0,-1-1,0 0,0 0,0 1,0-1,-1 0,3-7,77-168,108-175,-162 308</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4453.99">1536 952,'-1'-17,"2"0,0 0,2 0,-1 1,2-1,9-27,-9 34,1 0,0 0,1 1,0-1,0 1,1 0,1 1,-1 0,1 0,0 1,11-8,-11 10,-1 0,1 0,0 1,1 0,-1 1,0-1,1 2,0-1,0 1,0 1,0-1,0 2,0-1,9 2,-13-1,1 1,-1-1,0 1,0 1,0-1,0 1,0 0,0 0,-1 0,1 1,-1 0,1 0,-1 0,0 0,0 1,0-1,-1 1,1 0,-1 0,0 0,0 1,-1-1,1 1,-1 0,2 4,3 16,-2 0,-1 0,-1 1,-1-1,-1 1,-5 48,3-64,-4 55,-3 0,-2 0,-4-1,-31 93,43-151,0-1,0 0,0 0,-1 0,0 0,0 0,0 0,-1 0,0-1,1 0,-1 0,-1 0,1 0,-10 5,11-8,1 0,-1 0,1 0,-1-1,0 1,0-1,1 0,-1 0,0 0,0 0,1-1,-1 1,0-1,1 1,-1-1,0 0,1 0,-1 0,1-1,0 1,-1 0,1-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1-1,-1 1,-1-3,0-1,-1 1,1-1,0-1,0 1,1 0,0-1,0 1,0-1,1 0,0 1,0-1,1 0,0 0,1-8,-1 13,0-1,0 1,1-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,1 1,-1 0,0 0,1-1,-1 1,0 1,1-1,-1 0,1 1,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 1,3 0,8 2,0 1,-1 1,1 0,-1 0,-1 1,22 15,-18-11,1-1,0-1,20 8,31-1,-37-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3710.97">2250 476,'4'0,"7"0,5 0,5 0,3 0,2 0,1 0,1 0,-1 0,5 0,6 0,0 5,-1 1,-2-1,-12 0,-10-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3058">2330 820,'4'0,"6"0,11 0,6 0,7 0,16 0,27 0,13 0,1 0,2 0,-5 0,-13 0,-24 0,-21 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1314.01">3520 106,'0'5,"0"10,0 34,0 27,0 13,0 6,0-9,0-14,0-16,0-12,0-9,9-11,7-10,2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3892.95">1 2063,'62'3,"104"18,-33-2,188 10,133 15,699 57,311-102,-604-3,886 4,-1715 1,-14 0,1-1,0-1,-1-1,22-4,-34 5,-1 0,1-1,-1 0,1 0,-1 0,0 0,1-1,-1 1,0-1,-1 0,1-1,-1 1,1-1,-1 1,0-1,0 0,0 0,-1 0,4-7,10-35</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4710.95">6536 0,'-45'727,"17"-401,-30 476,58-799,0 66,1-64,0 1,1-1,0 0,0 0,0 0,0 0,1 0,0 0,0 0,3 4,0-2,-1 2,0-1,-1 0,0 1,-1 0,1 0,-2 0,3 11,8 80,-5-26,-2-43</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5344.95">6669 1084,'0'9,"-68"120,-44 79,-26 26,-12 0,-3-12,7-26,18-33,23-35,29-35,36-33,30-27,21-24,17-35,5-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5998.95">6854 1587,'-5'18,"-14"29,-18 28,-30 52,-21 30,-5 3,9-18,10-18,17-23,19-22,15-26</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4749 25,'-9'1,"2"0,0 0,0 1,-1 0,1-1,0 1,0 1,0 0,0 1,1-1,0 1,-1-1,1 2,0-1,1 1,0 0,-1 0,1 0,-4 7,-9 12,2 0,0 1,-14 33,9-16,-26 83,40-101,1 0,2 0,1 0,1 1,1 32,2-50,1 1,0 0,0-2,0 2,1 0,0-2,1 1,0 0,0-1,1 1,-1 0,1-1,1-1,0 1,0 0,0-1,0-1,1 1,0-1,0 1,11 3,-2 0,1-1,-1-1,2 0,-1-1,0-1,2-1,-1 0,36 1,-52-4,-1 1,1-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1-1,-1 1,1-1,-1 1,2-1,-2 0,0 0,1 1,-1-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,-1-1,1 1,0-1,0 1,-1 0,1-1,-1 1,1-1,-1 1,1-1,-1 0,0 2,0-2,0 1,0-1,0 0,-1-2,-2-7,0-2,-1 2,0-1,-13-20,2-2,6 6,3-1,1-1,-2-50,5 46,2 31,-2 0,2 0,-1 0,1 1,-1-1,0 0,0 1,0-1,-1 0,1 1,-1-1,1 2,-1-2,0 1,0 0,0 0,-3-3,-1 1,1 2,0-1,0 1,0-1,-1 1,0 0,1 0,-10-1,-10 0,0 1,0 1,-37 2,39 0,-5-1,4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="982.83">5050 353,'3'1,"0"-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 0,1 1,-1-1,0 1,1-1,-1 1,0-1,0 0,-1 1,1 0,0 0,-1 1,0-1,1 0,-1 0,0 1,0-1,0-1,0 6,4 7,1 2,2 30,-6-36,5 41,-5-27,3 2,0-1,1 0,0 0,3-1,19 40,-26-62,0 1,-1-1,0 1,1-1,0 0,0 1,-1-1,1 0,1-1,-1 1,0-1,0 1,1 0,0-1,0 1,-1-1,1 0,-1 0,1 0,0 0,0-1,0 1,-1-1,2 1,3-1,-4-1,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 0,-1 1,0-1,-1 0,1-1,0 2,0-1,-1-1,1 0,0 1,-1-1,0 0,3-5,18-35,-1 0,16-53,26-52,88-94,-111 184</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5832.99">714 556,'6'2,"-1"-1,0 1,0 0,0 1,1-1,-2 1,1 0,-1 0,1 0,7 8,1-1,173 145,-172-146,1-1,0 0,1-1,0-1,18 6,-3-2,-21-6,0-1,0 0,-1 0,2-1,-1-1,0 0,15 1,-21-3,0 1,-1 0,1-1,-1 1,1-1,-1 1,0-1,0-1,2 1,-2-1,0 1,0-1,0 0,-1 0,1 0,0-1,-1 1,1 1,0-2,-1 0,0 0,0 1,0-1,-1 0,3-6,80-161,112-167,-168 294</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4453.99">1593 909,'-1'-16,"2"-1,0 1,2 0,-1 1,2-2,10-25,-10 33,1-1,0 1,1 0,1 0,-1 0,1 0,1 2,0-1,0 1,0 0,12-7,-12 9,0 0,0 0,0 1,2 1,-2 0,0-1,1 2,1-1,-1 1,0 1,1-1,-1 2,0-1,10 2,-14-1,2 1,-2-1,0 1,0 1,0-1,0 1,1 0,-1 0,-1 0,1 1,-1 0,1-1,0 1,-1 0,0 1,0-1,-1 1,1-1,-1 1,1 0,-1 1,-1-1,1 0,-1 1,2 4,3 15,-1 0,-2-1,-1 2,-1-1,-1 1,-5 46,3-62,-4 53,-4 0,-1 0,-5-1,-31 89,44-144,0-1,-1 0,1-1,-1 1,0 0,0 0,0-1,-1 1,0-1,1 0,-2 0,0-1,1 1,-10 5,10-8,2 0,-1 0,1 0,-1-1,0 1,0-1,1 0,-1 0,0 0,-1 0,2-1,-1 1,0-1,1 1,-1-1,0 0,1 0,-1 0,1-1,-1 1,0 0,1-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,1-1,-1 1,-1-3,-1-1,0 2,1-2,0-1,0 2,1-1,0-1,0 1,0 0,1-1,0 1,0 0,1-1,0 0,1-7,-1 12,0-1,0 1,1-1,-1 2,1-2,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1 0,1 1,0-1,-1 0,1 0,0 0,0 0,0 1,1-1,0 1,-1 0,0 0,1-1,-1 1,0 1,1-1,-1 1,1 0,-1-1,2 1,-1 0,-1 0,1 0,-1 0,1 0,0 0,-1 1,3-1,9 3,-1 1,0 1,0 0,0-1,-2 2,23 14,-18-10,1-2,-1 0,21 7,33 0,-39-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3710.97">2333 454,'4'0,"8"0,4 0,6 0,3 0,2 0,1 0,1 0,-1 0,5 0,7 0,-1 5,0 1,-3-1,-12-1,-11-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3058">2416 783,'4'0,"7"0,11 0,6 0,7 0,17 0,28 0,13 0,1 0,3 0,-6 0,-13 0,-25 0,-22 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1314.01">3650 101,'0'5,"0"9,0 33,0 26,0 12,0 5,0-8,0-13,0-15,0-12,0-9,10-10,6-10,3-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3892.95">1 1970,'64'2,"108"18,-34-1,195 8,138 15,725 55,322-98,-626-3,919 4,-1779 1,-15 0,2-1,0-1,-2-1,24-4,-36 5,-1 0,1-1,0 1,0-1,-1 0,0 0,1-1,-1 1,0-1,0 0,0-1,-1 2,1-2,-1 1,0-1,0 0,0 0,0 1,3-8,10-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4710.95">6778 0,'-46'694,"16"-383,-30 455,60-763,0 63,1-62,0 2,1-1,1 0,-1 0,0-1,0 1,1 0,0 0,0-1,3 5,1-2,-2 1,0 0,-1 0,0 0,-1 1,1-1,-1 1,2 10,8 76,-4-24,-3-41</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5344.95">6916 1035,'0'8,"-70"116,-47 74,-26 26,-12-1,-4-11,8-25,18-31,24-34,30-33,38-32,30-26,23-22,17-34,5-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5998.95">7108 1515,'-5'17,"-15"28,-18 27,-32 49,-21 29,-5 3,8-18,12-16,17-23,19-21,16-24</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -23996,15 +24045,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3043 502,'0'-9,"0"0,-1-1,1 1,-2 0,1 0,-1-1,-4-8,5 15,-1-1,0 1,0 0,0 0,0 1,0-1,-1 0,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 1,0 0,-1-1,1 1,-1 0,-5 0,3-1,-1 1,0 0,1 0,-1 1,0 0,0 0,0 0,1 1,-1 0,0 0,0 1,1 0,0 0,-1 1,1-1,-7 5,7-2,0 0,0 0,0 1,1-1,0 1,0 0,0 1,1-1,0 1,0 0,0 0,1 1,-3 11,-8 23,3 0,1 1,3 0,1 1,2 0,3 53,1-85,2-1,-1 1,2-1,0 0,0 0,1 0,0 0,0 0,2-1,-1 0,1 0,1 0,-1-1,2 0,-1 0,1-1,1 0,18 14,-13-13,1 0,0-1,0-1,1 0,0-1,0 0,1-2,-1 0,1 0,0-2,0 0,20-1,-20-1,130-5,-144 5,0-1,-1 1,1-1,0 0,-1 1,1-1,0 0,-1-1,1 1,-1 0,0-1,4-2,5-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3500.01">583 317,'-5'6,"1"1,0-1,0 1,1-1,0 1,0 0,1 0,0 1,-2 11,-4 10,-74 249,74-251,-2-1,0 0,-2-1,-1 0,-23 34,-87 103,96-137,26-25,1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 0,-1-6,0-1,1 1,1-1,-1 0,1 1,3-12,14-69,55-155,55-82,-86 222,-39 98,4-14,1 0,1 0,0 1,1 0,21-25,-29 40,0 0,1 1,0-1,0 1,-1 0,2 0,-1 0,0 0,0 0,0 1,1 0,-1-1,1 1,-1 0,8 0,-7 1,0 0,1 1,-1 0,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0 0,-1 1,1-1,-1 1,1 0,4 5,4 5,0 1,-1-1,0 2,-1 0,-1 0,10 23,38 108,-42-105,63 172,141 403,-213-588,-11-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2783">397 661,'4'0,"7"0,9 0,7 0,8 0,1 0,5 0,-1 0,-2 0,-4 0,-2 0,-3 0,-1 0,-2 0,5 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2119">1482 661,'4'0,"7"0,5 0,5 0,7-4,4-6,1-2,4 1,0 4,-2 1,2 3,0 2,-2 0,-3 1,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1343.01">1535 952,'4'0,"7"0,5 0,5 0,7 0,9 0,2 0,-1 0,-3 0,-2 0,2 0,-1 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1012.99">2514 53,'-5'0,"-1"5,1 23,0 26,2 21,1 11,1 9,0 3,-3 15,-2-2,0-11,2-18,1-19,1-15,1-11,0-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1776.99">3625 106,'0'897,"-1"-878,2 0,0-1,1 1,1 0,1-1,0 0,1 0,12 25,-2-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2788.99">1 0,'0'1196,"0"-1174</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4088">1085 79,'5'1,"1"-1,0 1,-1-1,1 2,-1-1,1 1,-1-1,1 2,-1-1,0 0,0 1,0 0,7 6,-4-2,0 1,-1-1,1 1,-2 1,1-1,8 18,-1 0,-3 1,0 0,-1 1,8 40,35 262,-44-264,-1-26,2 0,2 0,28 64,1 3,-30-78,-1 1,11 44,-17-49</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3185 486,'0'-9,"0"0,-2 0,2 0,-2 0,1 0,-1 0,-4-9,5 15,-1 0,0 0,0 0,0 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,0 0,0 0,-1 1,1-1,0 0,0 1,0 0,-1-1,1 1,-2 0,-4 0,3-1,-2 1,1 0,1 0,-2 1,1 0,0 0,-1 0,2 1,-1 0,-1 0,1 1,1 0,0 0,-2 1,2-1,-8 4,8-1,0 0,0 0,-1 1,2-1,0 0,0 1,-1 1,2-1,0 0,0 1,0 0,0 1,-2 10,-8 23,2-1,2 2,2 0,2 0,2 1,3 51,1-83,2 0,-1 0,2 0,0 0,0-1,1 1,1 0,-1-1,2 0,-1 0,2-1,0 1,-1-1,3-1,-2 1,1-1,2-1,18 15,-13-14,0 1,1-1,0-1,0-1,1 0,0 0,1-2,-2 0,2 0,0-2,0 0,21-1,-22-1,137-5,-151 5,0-1,0 1,0-1,0 0,-1 1,1-1,0 0,-1-1,1 1,0 0,-1-1,4-2,5-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3500.01">610 307,'-5'5,"1"2,-1-1,1 1,1-1,0 0,0 1,1 0,0 1,-3 10,-3 10,-78 241,78-243,-3-1,1 0,-3 0,0-1,-25 33,-91 100,101-133,27-24,1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 0,-1-6,0-1,1 2,1-2,-1 0,1 1,3-11,15-67,57-150,58-80,-90 216,-41 94,4-13,2-1,0 1,1 0,0 1,23-25,-31 40,0-1,1 1,0-1,0 1,-1 0,2 0,0 0,-1 0,0 0,0 1,1 0,-1-1,1 1,0 0,7 0,-7 1,1 0,0 1,-1 0,0 0,0 0,0 0,1 1,-1-1,0 1,0 0,0 0,0 1,0-1,-1 1,1 0,4 4,5 6,0 0,-2 0,1 2,-2-1,-1 1,11 21,40 106,-44-103,65 167,149 390,-224-569,-11-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2783">415 639,'5'0,"6"0,10 0,7 0,9 0,1 0,5 0,-2 0,-1 0,-4 0,-3 0,-2 0,-2 0,-2 0,6 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2119">1551 639,'4'0,"8"0,4 0,6 0,8-3,3-7,2-2,3 2,1 3,-2 1,1 3,1 2,-2 0,-4 1,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1343.01">1606 921,'5'0,"6"0,6 0,5 0,7 0,10 0,2 0,-2 0,-2 0,-2 0,1 0,0 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1012.99">2631 51,'-5'0,"-2"5,2 22,0 25,2 21,1 10,1 9,0 3,-4 14,-1-1,0-12,2-16,1-19,0-15,2-10,0-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1776.99">3794 103,'0'867,"-1"-848,2-1,0-1,1 2,1-1,1 0,0-1,1 0,13 25,-2-16</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2788.99">1 0,'0'1157,"0"-1136</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4088">1135 76,'6'1,"0"-1,0 1,-1-1,2 2,-2-1,1 1,-1-1,2 2,-2-1,0 0,0 1,1 0,6 5,-3-1,-1 1,-1-1,2 0,-3 2,1-1,9 17,-1 0,-4 1,1 0,-2 2,9 37,36 255,-45-257,-2-24,3 0,1-1,30 63,1 3,-31-76,-2 1,12 42,-18-47</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -24256,7 +24305,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">191 192,'-3'28,"0"0,-2-1,-1 0,-1 0,-16 38,-1 9,10-18,11-39,-1-1,0 0,-1 0,-1 0,-11 21,17-36,0-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,0 0,1 1,-1-1,0 0,1 1,-1-1,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0-1,0 1,-1-2,0 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0-1,0-3,-14-67,6-25,5 0,9-116,-5 206,1 0,0 0,0 0,1 0,0 0,1 1,-1-1,2 1,-1 0,8-12,-8 15,0 1,0-1,1 1,-1-1,1 1,0 0,0 0,0 1,0-1,1 1,-1 0,1 0,-1 1,1-1,0 1,-1 0,1 0,8 0,14-1,-1 2,1 1,-1 0,0 2,43 11,-57-11,0 0,0 1,-1 1,0 0,0 0,0 1,-1 0,1 1,-1 0,-1 1,0 0,0 1,0 0,10 15,-15-17,0 0,-1 0,0 1,-1-1,0 1,0 0,-1 0,0 0,0 0,0 0,-1 0,-1 0,1 0,-1 0,-1 0,1-1,-1 1,-1 0,1-1,-5 9,-1 3,-1-1,-1-1,0 0,-1 0,-1-1,-26 28,31-37,0 0,-1-1,0 0,0 0,-1 0,0-1,0-1,0 0,0 0,0 0,-1-1,0-1,0 0,0 0,0-1,0 0,0 0,0-2,0 1,0-1,0 0,0-1,1 0,-1-1,0 0,1 0,-12-7,6-3,17 3,-1 10,0-1,1 1,-1-1,0 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 1,1-1,-1 0,0 0,1 1,-1-1,1 1,-1-1,0 1,3 1,41 22,-2 2,0 2,68 59,-91-70</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="635.3">641 642,'0'9,"0"17,0 8,0 3,0 3,0 1,0-3,0-3,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="635.29">641 642,'0'9,"0"17,0 8,0 3,0 3,0 1,0-3,0-3,0-8</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1638.3">932 60,'4'-4,"6"-2,7 1,3 0,4 2,3 1,-5 5,0 3,0-1,1 0,-4 3,0 0,1-1,6-1,3 1,-3 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2493.43">852 404,'4'0,"7"0,5 0,5 0,3 0,2 0,1 5,1 1,0-1,-1 0,0-2,-5-1</inkml:trace>
 </inkml:ink>
@@ -24422,7 +24471,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">56 168,'0'81,"2"-10,-3 0,-3 1,-25 128,6-58,23-535,2 178,-3 199,1 0,1-1,1 1,0 0,6-18,-7 30,1-1,-1 1,1 0,1 0,-1 0,0 0,1 0,0 1,0-1,0 1,0 0,1 0,-1 0,1 0,-1 0,1 1,0 0,0 0,1 0,-1 0,0 0,9-1,-4 1,1 0,0 0,0 1,1 0,-1 1,0 0,0 0,0 1,0 1,16 4,-21-5,-1 1,0 0,1 0,-1 0,0 1,0-1,-1 1,1 0,-1 0,1 0,-1 1,0-1,0 1,0-1,-1 1,1 0,-1 0,0 0,0 1,0-1,-1 0,0 1,0-1,0 1,1 8,4 57,-4-1,-2 1,-13 102,11-161,0 0,0 0,-1 0,0-1,-1 1,-8 17,10-25,0 1,0-1,-1 0,1-1,-1 1,1 0,-1-1,0 0,0 1,0-1,0 0,0 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,0-1,1 1,-1-1,-4-1,-2 1,1-1,-1 0,0-1,1 0,-1 0,1-1,0-1,0 1,0-1,-9-6,97 55,-46-23,2-2,1-1,0-2,71 24,-73-28,-3 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="583.97">664 645,'4'0,"2"5,0 14,-1 14,-6 27,-3 9,-1 1,1-6,0-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4509.97">770 671,'-9'88,"1"-29,-3 185,15-288,1 0,13-48,-13 73,0 1,1 0,1 0,1 1,0 0,1 0,20-27,-23 38,1 0,-1 1,1 0,0 0,0 1,1-1,0 2,-1-1,1 1,0 0,1 1,-1 0,0 0,1 1,-1 0,1 0,-1 1,1 0,-1 1,1-1,-1 2,1-1,-1 1,0 1,0-1,0 2,12 5,-17-6,0 0,0 0,0 1,0-1,-1 1,1 0,-1-1,0 1,0 0,0 1,-1-1,1 0,-1 0,0 1,0-1,0 6,3 80,-4-71,-4 255,4-229</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4509.96">770 671,'-9'88,"1"-29,-3 185,15-288,1 0,13-48,-13 73,0 1,1 0,1 0,1 1,0 0,1 0,20-27,-23 38,1 0,-1 1,1 0,0 0,0 1,1-1,0 2,-1-1,1 1,0 0,1 1,-1 0,0 0,1 1,-1 0,1 0,-1 1,1 0,-1 1,1-1,-1 2,1-1,-1 1,0 1,0-1,0 2,12 5,-17-6,0 0,0 0,0 1,0-1,-1 1,1 0,-1-1,0 1,0 0,0 1,-1-1,1 0,-1 0,0 1,0-1,0 6,3 80,-4-71,-4 255,4-229</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -24913,7 +24962,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">133 2,'58'-1,"-19"0,52 5,-88-4,1 1,0 0,-1 0,1 0,-1 0,0 0,1 1,-1 0,0-1,0 1,0 1,0-1,0 0,0 1,0-1,-1 1,0 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,0-1,0 1,-1 0,1-1,-1 1,0 0,0 6,-1 9,0 0,-1-1,-1 1,-1-1,-8 26,-41 98,-134 255,166-357,0 0,3-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="456.99">1 505,'4'0,"6"0,7 0,3 0,4 5,2 1,2-1,-1 0,10-2,2-1,22-1,10 9,-8 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="456.98">1 505,'4'0,"6"0,7 0,3 0,4 5,2 1,2-1,-1 0,10-2,2-1,22-1,10 9,-8 2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1920.95">1324 346,'-1'-2,"1"0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 1,-1 0,-3-2,-34-22,34 22,-12-7,0 0,-1 2,0 0,0 1,-1 0,1 2,-2 0,1 2,-36-4,49 8,0 0,1 0,-1 1,1 0,-1 0,1 0,0 1,-1-1,1 1,1 0,-1 1,0-1,1 1,0 0,-1 0,-3 6,-9 11,1 0,-16 30,22-35,-33 54,3 2,3 2,4 1,-30 100,59-163,1 1,1-1,0 1,0 18,2-29,0 0,0 0,0 1,1-1,-1 0,0 0,1 0,0 0,0 0,-1 0,1 0,0 0,1 0,0 2,-1-3,1 0,-1 0,0-1,0 1,0 0,1-1,-1 1,0-1,1 0,-1 1,0-1,1 0,-1 0,1 1,-1-1,0 0,1-1,-1 1,1 0,-1 0,0 0,1-1,-1 1,2-2,16-7,0-1,-1-1,-1-1,0 0,0-1,-1-1,16-18,-1 4,-9 7,-5 4,1 1,1 1,0 0,31-16,-46 28,1 0,0 1,0 0,0 0,0 1,1 0,-1 0,0 0,0 0,1 1,-1-1,1 2,-1-1,0 0,1 1,-1 0,0 0,0 1,0-1,0 1,0 0,0 1,0-1,0 1,6 5,-5-2,0 0,0 0,-1 1,0 0,0 0,-1 0,1 0,-2 1,1 0,-1 0,0 0,-1 0,0 0,0 0,-1 1,1 9,0 7,-1 0,-2-1,0 1,-7 35,2-32,-1 0,-12 31,14-46,0 0,-1-1,0 0,-1-1,0 1,-18 19,22-27,-1-1,0 0,0-1,0 1,0-1,-1 1,1-1,0 0,-1-1,0 1,1-1,-1 0,0 0,0-1,1 1,-1-1,-5 0,-4-1,0-1,0 0,1-1,-22-7,13 3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3664.95">1482 1060,'22'1,"-10"0,0-1,0 0,0 0,23-5,-33 4,0 1,1-1,-1 0,0 1,0-1,0 0,0 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1-1,-1 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,-1-1,1 1,-1 0,0 0,0 0,0-5,-20-135,0 0,19 123,1 0,0 1,2-1,0 0,1 1,0 0,2-1,10-26,-11 37,-1 0,1 0,1 1,-1 0,1 0,0 0,1 0,0 1,0 0,0 0,1 0,0 1,0 0,0 1,1-1,-1 1,1 1,0-1,0 1,15-3,-12 4,1 0,-1 1,1 1,-1 0,1 0,-1 1,1 0,-1 1,0 1,0-1,0 2,0 0,0 0,-1 1,15 8,-18-8,-1-1,1 1,-1 0,0 1,0 0,-1 0,0 0,0 0,0 1,-1 0,0 0,0 0,-1 0,0 1,0-1,0 1,-1 0,-1 0,1-1,-1 1,0 1,-1 11,-2 0,-1 0,0 0,-2 0,0 0,-8 19,-45 96,42-100,-29 44,32-58,1 0,-14 33,25-53,0 1,1 0,-1-1,0 1,1 0,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,1 0,-1 0,1-1,-1 1,1 0,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,0 1,0-1,-1 1,1-1,2 0,12 2,0 0,0-2,0 1,20-4,-11 2,97 3,-67 2</inkml:trace>
 </inkml:ink>
@@ -25034,7 +25083,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'1072'76,"-916"-60,535 25,7-39,-464-3,2837 26,-2096-23,-491-4,-459 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'1109'66,"-948"-52,554 21,7-33,-480-3,2934 22,-2167-19,-509-4,-474 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25209,16 +25258,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3237 1613,'-44'1,"-37"-1,-90-11,167 10,0 0,0 1,-1-1,1 1,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,0 0,0 0,1 1,-9 3,9-1,0-1,1 0,-1 1,1 0,-1-1,1 1,0 0,0 0,1 1,-1-1,1 0,0 0,0 1,0-1,0 9,-5 54,3 1,8 96,-5-157,0-1,1 0,0 1,0-1,1 0,0 1,0-1,0 0,1 0,0-1,0 1,6 9,-5-12,-1 0,1 0,-1 0,1 0,0-1,0 1,1-1,-1 0,0-1,1 1,-1-1,1 1,-1-1,1-1,0 1,-1-1,10 0,74-5,-72 3,1 0,0 0,-1 2,1 0,0 1,0 1,-1 0,1 1,31 11,-45-13,1 1,-1-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,1 5,-3-4,0 1,0-1,0 0,0 0,-1 0,0 0,0 1,0-1,-1 0,1-1,-1 1,0 0,-4 5,-2 3,-1 0,0 0,-1-1,0 0,-1 0,0-2,-1 1,-23 15,10-12,-1-2,0 0,-1-2,0-1,0-1,-1-1,0-1,-1-2,1-1,-1-1,-41-3,16-3,0-2,1-3,0-1,1-4,-52-19,68 18,18 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1223">4057 1375,'-5'3,"0"-1,1 1,0 0,0 0,0 0,0 0,0 1,0-1,1 1,0 0,-5 8,-2 0,-12 15,1 2,1 0,1 2,2 0,1 0,2 2,1 0,1 0,2 1,-7 43,5-9,4 1,3 1,2-1,9 91,-6-157,0 0,1 1,-1-1,1 0,-1 0,1 1,0-1,0 0,1 0,-1 0,1 0,-1 0,1-1,0 1,0 0,0-1,0 1,1-1,-1 0,1 0,-1 0,1 0,3 2,3-1,0 0,1 0,-1-1,1 0,-1 0,14-1,4 2,1 1,1-1,-1-1,1-1,53-7,-73 5,0-1,0-1,-1 1,1-1,-1-1,0 1,0-2,0 1,0-1,-1 0,0 0,0-1,0 0,-1-1,0 1,0-1,0 0,-1-1,6-10,-3 2,-1 0,-1-1,0 0,-1 0,4-26,6-94,-12 90,-2 32,0 0,-2 0,0 0,0 0,-2 0,0 0,0 0,-2 1,1-1,-2 1,0 0,-1 1,0 0,-1 0,0 0,-1 1,-1 0,0 1,0 0,-17-13,26 23,-26-20,0 1,-1 1,-42-19,69 37,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,1 0,-1-1,-1 3,-5 15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2819">4454 2301,'316'25,"-296"-23,-23-3,1 1,-1-1,0 0,0 0,1 0,-1-1,0 1,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,-2-5,-2-2,1 0,1-1,0 1,0-1,-3-12,-1-9,2 0,-4-58,7 54,2 0,2-1,1 1,2 0,1 0,14-50,-15 71,2 0,-1 0,2 1,0 0,0 0,1 0,1 1,0 0,1 1,0 0,0 0,1 1,1 1,0 0,0 0,1 1,26-12,-17 12,0 1,1 1,-1 1,1 1,0 1,0 1,0 1,0 1,36 5,-56-4,-1-1,1 1,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,0 0,-1-1,1 1,-1 0,1 1,-1-1,0 0,0 0,0 1,0-1,0 0,0 1,0 4,2 7,-1-1,-1 1,0 0,-2 14,1-5,0 3,2 37,-11 95,6-138,0 0,-1 0,-2-1,0 0,-1 0,0 0,-2-1,-21 33,10-24,14-20,1-1,-1 1,2 0,-1 0,1 1,0 0,0-1,-4 17,8-23,0 0,0 1,0-1,0 0,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 1,2-1,46 11,-39-9,210 51,-138-31,-48-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71432.06">168 688,'-45'-8,"-3"0,46 8,-1 0,1 1,0-1,0 0,0 1,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 3,-4 6,2 0,-1 1,1-1,1 1,0 0,0 0,1 0,1 0,-1 14,1 17,4 44,-3-82,0 1,0 0,1 0,0 0,0-1,0 1,0 0,1-1,0 1,0-1,0 0,1 1,-1-1,1 0,5 5,-5-6,1-1,0 1,0-1,0 0,0 0,0 0,1-1,-1 1,0-1,1 0,-1 0,1-1,-1 1,1-1,0 0,6-1,1 0,-1 1,1 1,0 0,-1 0,1 2,-1-1,14 5,-22-6,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,0 0,-1 0,0 0,1 0,-1 1,0-1,0 1,0 0,0-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,0 0,0 0,0 1,0 4,-1-6,1 0,0 0,-1 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1-1,0 1,1-1,-1 1,0-1,-2 2,-1 0,1-1,-1 1,0-1,0-1,-1 1,1-1,-10 2,-6-1,0-1,0-1,-23-4,42 4,-2 0,-1-1,0 1,1-1,-1 0,1 0,0-1,-1 0,1 1,0-2,-5-2,7 4,0-1,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,0-1,0 1,0 0,0-1,0 1,0 0,1-1,-1 1,1-1,0-4,1-24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71843.06">433 794,'4'0,"11"0,3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="72951.09">724 688,'0'-2,"0"0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,-1 1,1-1,1 0,2 1,8-3,0 1,1 1,23 0,-17 0,14-1,-12 0,0 1,1 1,38 4,-57-3,1 0,0 0,-1 0,0 0,1 0,-1 1,0 0,0 0,0 0,0 1,0-1,0 1,-1 0,1 0,-1 0,0 0,0 1,0-1,0 1,-1 0,0 0,1 0,-1 0,1 4,1 6,-1 0,-1 0,0 0,-1 1,0-1,-1 0,-1 0,0 1,-1-1,-1 0,0 0,-1-1,-10 26,7-21,-2-1,0 0,0 0,-2-1,0 0,-1-1,-1-1,0 1,-27 21,34-31,-1-1,0 1,-1-1,1-1,-1 1,0-1,1-1,-1 0,0 0,-1 0,1-1,0 0,0 0,-1-1,-12-2,19 2,1 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0-1,1 1,-1 0,0-1,1 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-3,1 1,-1 0,1 0,0 0,0 0,0 0,1 1,-1-1,1 0,-1 1,1-1,0 1,0 0,0-1,0 1,0 0,1 0,-1 0,5-2,-3 2,0-1,0 1,1 0,-1 1,1-1,0 1,-1 0,1 0,0 0,0 1,0-1,-1 1,1 0,0 1,0-1,0 1,-1 0,1 0,0 1,-1-1,1 1,-1 0,1 0,4 4,4 4,-1 1,0 0,0 1,-1 0,15 24,19 18,-28-41,-4-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="73336.07">1279 846,'4'0,"7"0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="74619.07">1491 608,'5'-3,"1"0,0 0,1 0,-1 1,0 0,1 0,0 1,-1-1,1 1,0 1,-1-1,10 2,0-2,-6 0,0 1,-1 0,1 0,0 1,0 0,0 1,0 0,18 7,-24-7,1 0,0 1,-1 0,0 0,1 0,-1 0,-1 1,1 0,0-1,-1 1,0 1,0-1,0 0,0 1,-1 0,1-1,-1 1,2 9,2 16,-1 1,-1-1,-2 1,-1 0,-1-1,-2 1,-1-1,-11 50,10-63,0-1,-2 1,0-1,-1 0,0-1,-1 1,-1-1,0-1,-15 17,18-24,0-1,0 1,0-2,-1 1,0 0,-1-1,1-1,-1 1,0-1,0-1,0 1,0-1,0-1,-1 1,0-1,1-1,-1 0,0 0,-16-1,22 0,0-1,0 1,0-1,1 0,-1 0,0 0,0 0,1-1,-1 1,0-1,1 1,0-1,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,1-1,-1 0,1 1,0-1,0 0,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,0 0,1-4,-1 3,0 0,0 0,1 0,-1 0,1 1,0-1,0 0,1 0,-1 1,1-1,-1 1,1 0,0-1,1 1,-1 0,1 0,-1 0,1 0,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,6-1,-2 1,1 1,-1 0,1 1,-1-1,1 2,-1-1,1 1,-1 0,1 0,-1 1,0 0,0 0,8 4,3 3,0 1,-1 1,27 22,-29-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="76089.06">3608 0,'0'5,"0"19,-5 28,-6 19,-14 24,-8 9,-2 10,-5-1,0-2,3-15,7-15,9-17,8-10,7-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="76802.06">4084 397,'0'23,"0"20,0 17,0 16,-5 13,-1 1,0-2,1-11,-7-10,-2-12,2-11,3-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3386 1544,'-46'1,"-38"-1,-95-10,175 9,-1 0,1 1,-1-1,1 1,0 0,-1 0,1 1,0-1,-1 1,1 0,0 0,-1 0,1 0,1 0,-10 4,10-1,0-1,1 0,-1 1,1-1,-1 0,1 1,0 0,-1 0,2 1,-1-2,1 1,0 0,0 1,0-1,0 8,-5 52,3 1,8 92,-5-150,0-1,1 0,0 0,0 0,1 0,0 0,0 0,0 0,2 0,-1-2,0 2,6 9,-5-13,0 1,0 0,-1 0,1 0,0-1,0 1,2-1,-2 0,0-1,1 0,-1 0,2 1,-2-1,1-1,0 1,0-1,9 0,78-5,-75 4,1-1,0 0,-2 2,2 0,0 1,0 1,-2-1,2 2,32 11,-47-13,2 1,-2-1,0 1,0-1,0 1,0 0,1 0,-1 1,0-1,-1 1,1 0,-1 0,0-1,0 1,0 0,0 0,1 1,-2-1,1 1,1 4,-3-3,0 1,0-1,0-1,0 1,-1 0,0 0,0 0,0 0,-1 0,1-1,-2 1,1-1,-4 6,-2 2,-2 1,1-1,-2 0,1-1,-2 1,1-3,-2 2,-23 14,10-12,-2-1,1-1,-1-1,0-2,-1 0,0-1,0-2,-1-1,0-1,0-1,-43-3,16-3,1-1,0-4,1-1,0-3,-53-19,70 18,19 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1223">4244 1316,'-5'3,"0"-1,1 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,1 0,-5 7,-2 1,-13 14,1 1,1 1,1 2,2 0,1-1,3 3,0-1,1 1,3 1,-8 40,6-8,3 1,4 1,2 0,9 86,-6-150,0-1,1 2,-1-1,1 0,-1 0,1 1,0-1,0-1,1 1,0 0,0 0,-1 0,1-1,0 1,0 0,0-1,0 0,1 0,-1 0,1 0,0 0,0 0,3 2,3-1,1 0,0-1,0 0,0 0,0 0,14-1,4 2,1 1,2-1,-2-1,1-1,56-7,-77 5,1-1,-1-1,0 1,0-1,-1-1,1 2,-1-3,0 1,1-1,-2 0,0 1,1-2,-1 0,-1-1,1 2,-1-2,0 0,-1 0,7-11,-4 3,0 0,-2-2,0 1,-1 0,5-25,6-90,-13 86,-2 30,0 1,-2 0,0-1,0 1,-2-1,-1 1,1 0,-2 0,1 0,-2 1,-1-1,0 2,0-1,-2 1,1-1,-2 2,0-1,0 2,-1-1,-17-12,27 22,-27-19,-1 1,0 1,-44-18,72 35,0 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0-1,1 1,-1-1,-1 3,-5 15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2819">4660 2203,'330'24,"-309"-22,-24-3,1 1,-1-1,0 0,0 0,1 0,-2-1,1 1,1-1,-1 1,1-1,0 0,-1 0,1 1,-1-1,1 0,0 0,-2-5,-2-2,1 1,0-2,1 2,0-2,-3-11,-2-9,3 1,-4-57,6 53,3-1,2 0,2 0,1 1,1-1,15-47,-16 68,2-1,0 1,1 0,0 1,1 0,0-1,1 2,1-1,0 2,1-1,-1 1,2 0,0 1,1 1,-1-1,2 1,27-11,-18 12,0 0,1 1,-1 1,1 2,0 0,0 1,0 1,0 1,38 5,-59-4,-1-1,1 1,-1-1,0 0,2 1,-2 0,0 0,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,1 0,-2-1,1 1,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 0,0 1,0 3,2 8,-1-2,-1 2,0-1,-2 14,1-5,0 3,3 35,-13 91,7-131,0-1,-1 0,-3-1,1 0,-1 0,-1 1,-1-2,-22 32,10-23,14-20,2 0,-1 1,2-1,-1 1,0 1,1-1,0 0,-4 16,8-22,0 0,0 1,0-1,0 0,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0-1,0 1,2-1,-2 1,2-1,48 10,-41-8,221 49,-146-30,-49-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71432.06">176 659,'-47'-8,"-4"0,49 8,-1 0,1 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 2,-5 7,3 0,-1 0,1 0,1 0,-1 1,1-1,1 1,1-1,-1 14,1 16,4 43,-3-79,0 0,0 1,1 0,0 0,0-1,0 0,0 1,1-1,1 1,-1-1,0-1,1 2,-1-1,1 0,5 4,-4-5,0-1,0 1,0-1,0 0,1 0,-1 0,1-1,-1 1,0-1,2 0,-2 0,1-1,-1 0,1 0,1 0,5 0,2-1,-2 1,2 1,-1-1,0 1,0 2,0-1,14 5,-23-6,0 0,0 1,1-1,-1 1,0-1,-1 0,1 1,0 0,-1 0,0 0,2 0,-2 1,0-1,0 1,0 0,0-1,-1 0,1 1,-1 0,0 0,0 0,0 0,0 0,0-1,0 2,-1-1,0 0,0 0,0 1,0 3,-1-5,1 0,0 0,-1 1,0-1,1 0,-1 0,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,-1-1,0 1,1-1,-1 1,0-1,-3 2,0 0,1-1,-1 0,-1 0,1-1,-1 1,1-1,-11 2,-6-1,0-1,0-1,-24-4,44 4,-2 0,-1-1,-1 1,2-1,-1 0,1 0,0-1,-2 0,2 1,0-1,-5-3,6 4,1-1,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 1,0-2,0 1,0 0,0-1,0 1,0 0,1-1,-2 1,2 0,0-5,2-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71843.06">453 760,'4'0,"12"0,3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="72951.09">757 659,'0'-2,"0"0,0 0,1 0,-1 0,1 0,-1 0,2 0,-1 0,0 1,0 0,0-1,0 0,0 0,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,-1 0,1 0,1 0,-1 0,0 0,0 0,-1 1,1 0,1-1,2 1,9-3,0 1,0 1,25 0,-18 0,14-1,-12 0,0 1,1 1,40 4,-60-3,2 0,-1 0,-1 0,0 0,2 0,-2 1,0 0,0-1,0 1,0 1,1-1,-1 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 1,-1 0,0 0,1 0,-1-1,1 5,2 5,-2 1,-1-1,0 1,-1 0,0-1,-1 1,-1-1,0 2,-1-2,-1 0,0 1,-2-2,-9 26,6-21,-1-1,0 0,-1 1,-1-2,-1 0,0 0,-2-2,0 1,-27 21,34-30,0-2,0 2,-2-1,2-1,-1 1,-1-1,2-1,-2-1,1 1,-1 0,0-1,1 0,0 0,-2-1,-12-2,20 2,1 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,0-1,-2 1,2-1,0 0,0 1,0-1,-1 1,1-1,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0-1,1 1,-1 0,0-1,1 1,0 0,-1-1,1 1,0-1,0 2,0-2,0 1,0-1,0 1,0-3,1 1,-1 0,1 0,0 0,0 1,0-1,1 1,-1-1,1 0,-1 1,1-1,0 1,0 0,1 0,-1 0,0 0,1 0,-1 0,5-2,-3 2,1-1,-1 1,1 0,-1 2,1-2,1 1,-2 0,1 0,0 0,1 1,-1-1,-1 1,1 0,0 1,1-1,-1 1,-1 0,1 0,1 1,-2-1,1 0,-1 1,1 0,5 4,3 4,0 0,0 1,-1 0,0 1,15 22,20 18,-29-40,-5-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="73336.07">1338 810,'4'0,"8"0,-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="74619.07">1560 582,'5'-3,"1"0,1 0,0 1,-1 0,0 0,2 0,-1 1,-1-1,2 1,-1 1,-1-1,11 2,0-2,-7 0,1 1,-2 0,2 0,-1 1,1 0,-1 1,0 0,20 6,-26-6,1 0,0 1,0 0,-1 0,1 0,-1 0,-1 0,2 1,-1-1,-1 1,0 1,0-1,0-1,0 2,-1 0,2-1,-2 1,2 8,2 16,-1 0,0 0,-3 1,-1 0,-1-2,-2 2,-1-1,-12 47,11-60,-1 0,-1 0,0-1,-1 1,-1-2,0 1,-1 0,-1-2,-15 17,19-23,-1-2,1 2,0-2,-1 1,-1-1,0 0,1-1,-2 1,1-1,-1-2,1 2,0-1,-1-1,0 1,-1-1,2-1,-1 0,-1 0,-16-1,23 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,1-1,-1 1,0-1,1 1,0-1,-2 0,2 0,0 1,0-1,0 0,0-1,0 1,1-1,-1 1,1-1,-1 0,0 1,1 0,0-1,0 0,1 0,-1 0,1 0,-1 0,1 1,0 0,0-1,1-4,-1 3,0 0,0 0,1 1,-1-1,1 1,0-1,0 0,2 0,-2 2,1-2,-1 1,1 0,0-1,1 1,-1 0,1 1,-1-1,2 0,-1 1,0-1,0 1,0 0,0 0,1 0,0 0,-1 1,6-2,-2 1,2 1,-2 0,2 1,-2-1,1 2,0-1,0 1,-1 0,2 0,-2 1,0 0,1-1,7 5,4 3,0 0,-1 2,28 21,-31-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="76089.06">3775 0,'0'5,"0"18,-6 27,-5 18,-15 22,-9 10,-1 9,-6-1,0-1,3-15,8-15,9-16,8-9,8-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="76802.06">4273 380,'0'22,"0"19,0 17,0 14,-6 14,0 0,0-2,1-10,-8-10,-2-11,3-11,2-12</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25273,29 +25322,29 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3282 265,'29'2,"0"0,0 2,0 0,-1 3,1 0,-1 2,-1 0,30 16,8 9,-2 3,63 47,-122-81,0 0,-1 0,1 1,-1-1,0 1,0 0,0-1,0 1,-1 1,0-1,0 0,0 1,0-1,-1 1,1-1,-1 1,0 0,-1-1,1 1,-1 0,0 0,0 0,0-1,-1 1,-1 8,-4 11,-1 0,-1-1,-22 44,10-24,-312 640,327-675,-15 33,19-40,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,1 1,10 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8525.99">81 2223,'79'0,"134"16,-139-8,149-4,-137-5,-58 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9158">477 2249,'0'5,"0"5,0 6,0 5,0 12,0 23,0 11,0 8,-5 0,-1 0,-4-7,-1-7,2-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9840">239 2910,'4'0,"7"0,5 0,5 0,3 0,7 0,2 0,4 0,2 0,-3 0,-2 0,-3 0,3 0,0 0,-2 0,-1 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6804.01">1 265,'1'35,"3"-1,8 39,3 24,8 582,-25-663,-1-19,-4-26,-4-76,4-160,7 192,0 51,1 1,1-1,0 1,2 0,0 0,2 0,0 1,1 0,1 0,1 0,1 1,0 0,1 1,2 1,0-1,0 2,29-27,-40 41,0 0,0 0,1 0,-1 1,0-1,0 1,1-1,-1 1,1 0,0 0,-1 0,1 1,-1-1,1 0,0 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 1,1 0,-1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 1,1 4,0-1,1 0,-1 1,0 0,-1 0,1-1,-2 2,1-1,-1 0,0 0,0 0,-1 1,0-1,0 0,-1 0,1 1,-3 7,-10 22,-1-1,-2 0,-22 38,32-65,0 0,0 0,-1 0,0-1,0 1,-1-2,0 1,0-1,-1-1,0 1,-1-1,1-1,-1 0,0 0,-19 6,29-12,-1 1,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 0,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,-1 0,1-1,0 1,0 0,17 17,51 19,-52-30,58 33,-1 4,76 59,-132-90</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5287">663 1058,'20'1,"-5"0,1-1,-1 0,1-1,18-4,-33 5,1 0,0-1,0 1,-1-1,1 1,0-1,0 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,0 0,1 0,-1 0,0-1,0 1,1-1,-1 1,0-1,0 1,-1-1,1 1,0-1,0 0,-1 1,1-1,-1 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 1,-1-1,1 0,-1 0,1 1,-1-1,0-2,-3-4,0 0,0 1,0 0,-1 0,0 0,0 0,-1 1,0 0,0 0,0 1,-11-8,11 9,1 0,-1 1,0 0,1 0,-1 0,-1 1,1 0,0 0,-1 0,1 1,-1 0,1 0,-1 1,1 0,-8 0,-4 3,1 0,0 1,0 1,0 0,-16 8,28-10,1-1,-1 1,1 0,0 0,0 0,0 0,0 1,0 0,1 0,0 0,0 0,0 0,0 1,1-1,-1 1,1 0,1-1,-1 1,0 0,1 0,-1 8,-1 17,1-1,1 1,1 0,2-1,8 47,-8-71,-1-1,0 0,1 0,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,0-1,0 0,0 1,1-2,-1 1,5 2,-2-1,1 0,0-1,1 0,-1-1,0 0,1 0,-1 0,13 0,8-1,-1-1,1-1,53-10,-58 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4480">1509 159,'0'7,"-1"-1,1 0,-1 0,0 0,0 0,-1 0,-2 7,-5 18,-53 227,-46 184,103-426,-34 151,34-141,2 0,1 1,0-1,5 38,-2-55,1-1,-1 1,2-1,-1 0,1 0,1 0,-1-1,1 1,1-1,0 0,-1 0,2 0,-1 0,1-1,12 10,-9-9,1 0,0-1,0 0,0 0,0-1,1-1,0 0,0 0,0-1,0 0,14 1,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3388.98">1880 370,'-3'74,"-2"0,-25 114,-50 137,74-302,-7 29,7-27,0 1,-2-1,-1-1,-16 34,25-58,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,0 0,0 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 1,0 0,-6-35,2-63,3 0,5 0,4 0,4 1,4 0,5 1,4 2,53-135,-75 222,0-1,0 1,0-1,1 1,0 0,5-6,-8 11,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,0 1,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,0 0,1 1,7 6,-1 2,0-1,0 1,-1 1,0-1,-1 1,0 0,-1 1,5 14,4 18,10 55,-15-57,114 417,-101-399</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2492.01">1694 820,'9'0,"7"0,11 0,4 0,7 0,1 0,-2 0,-2 0,-8 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1573">2171 0,'7'0,"1"0,-1 0,1 1,-1 0,0 0,1 1,-1 0,0 0,0 0,0 1,0 0,0 1,-1-1,1 1,-1 1,0-1,0 1,-1 0,0 0,1 1,-2 0,1-1,-1 2,0-1,0 0,3 9,1 6,0 1,-2 0,6 46,0-7,10 63,-6 1,-4 0,-6 1,-18 211,10-309,-2-1,-1 0,-1 0,-1 0,-1 0,-2-1,0-1,-26 45,2-8,19-32,-1-1,-26 34,40-61,1-1,0 1,-1 0,0 0,1-1,-1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,1-1,0 0,-1 1,1-1,0 0,-1 0,1-1,-3 1,-21-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11834">954 2540,'2'1,"1"-1,-1 1,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,1 4,2 8,0 0,-1 0,3 18,-5-25,7 78,-3 165,-5-347,-1 8,16-144,-13 225,-1 0,2 0,-1 0,1 1,0-1,1 1,0 0,0-1,1 2,-1-1,1 0,1 1,-1 0,1 0,1 1,-1 0,0 0,11-6,-13 9,0 1,-1-1,1 1,0-1,0 1,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 1,8 1,-8 0,1 0,-1 0,1 1,-1 0,0-1,0 1,0 1,0-1,-1 0,1 1,-1 0,0 0,0 0,0 0,3 8,0 0,-1 1,-1 0,0 0,0 0,-2 1,2 13,-2-13,1 1,0-1,0 0,7 15,-10-28,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0 0,1 0,-1 0,0 0,1 0,7-19,-2-28,-5 23,1 1,1-1,10-41,-11 58,1 0,-1 0,1 0,1 0,-1 0,1 1,0 0,1 0,0 0,-1 0,2 0,-1 1,1 0,0 0,0 1,6-4,-9 6,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,0 1,-1-1,1 1,-1-1,6 3,-5-1,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,2 5,1 6,-1 1,0-1,0 1,-2-1,0 1,0 18,-4 185,0-151,4-53,5-28,4-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12524">2224 1799,'-5'7,"1"-1,1 0,-1 1,1 0,0-1,1 1,0 0,0 1,0-1,1 0,-1 11,-1 4,-84 348,28-128,25-58,31-158,1 1,1-1,1 1,2 0,5 26,-3-36,2-2,0 1,0 0,1-1,1 0,1-1,0 0,1 0,0-1,1 0,1-1,0 0,0-1,15 9,1 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13727">2912 2223,'-26'107,"-4"-2,-4-1,-58 119,86-210,3-4,-1 0,0 0,-1 0,0 0,-1-1,1 0,-1 0,-10 9,16-17,0 1,-1-1,1 0,0 1,-1-1,1 0,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,-3-17,8-26,16-33,4 0,65-140,-55 139,2-10,-20 43,2 0,2 2,2 0,41-58,-59 95,0 0,1 0,0 0,0 1,0 0,0 0,1 0,8-5,-12 9,0-1,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 1,0-1,0 0,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,2 3,6 10,0 0,-1 0,-1 0,0 1,-1 0,8 32,15 104,-24-119,51 406,-43-382,-1-17</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14647">2700 2514,'477'0,"-454"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15625">3520 1826,'5'2,"0"0,0 0,1 0,-1 1,-1 0,1 0,0 0,-1 0,1 1,-1 0,0 0,0 0,3 5,7 4,64 59,-2 4,120 155,-191-224,-1-1,1 1,-1 0,-1 0,1 1,-1-1,0 1,2 9,-5-11,0 0,1-1,-2 1,1 0,-1-1,0 1,0-1,0 1,-1-1,0 1,0-1,-4 8,-186 321,108-196,31-54,44-72</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16940">2991 1773,'17'0,"0"0,1 1,-1 0,0 2,0 0,0 1,0 0,-1 1,0 1,0 1,0 0,-1 2,0-1,26 21,-25-14,0-1,-1 2,-1 0,-1 1,-1 0,0 1,-1 0,0 1,-2 0,-1 1,0 0,-1 0,7 36,-1 21,-3 0,1 110,-9-126,0 314,-2-226,0-112</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18590">4499 2037,'-6'145,"-5"-2,-53 245,63-379,-4 20,-2-2,0 1,-2-1,0 0,-17 32,27-65,0 0,1 0,-2 0,1-1,-1-11,1-8,3-44,4 0,24-104,47-58,-48 148,-21 56</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19175.99">4208 2011,'-5'0,"4"0,10 0,8 0,7 0,7 0,12 5,4 1,2-1,2 0,1-2,-3-1,-6-1,-6 4,-8 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19906.99">4314 2884,'0'5,"4"1,6-1,7 0,8-2,5-1,6-1,2 0,-1-1,-3-1,-7 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21223.99">4949 2619,'1'81,"-3"88,-1-151,-2-17,-2-30,6 3,1-1,1 1,2-1,0 1,2 0,1 0,15-40,-20 63,0 0,0 1,0-1,0 0,1 1,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1-1,-1 1,1 0,5-1,-5 2,1 0,-1 0,1 0,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 0,0 1,1-1,-1 1,0 0,-1 0,6 4,-7-5,1-1,0 1,-1 0,1 0,0-1,0 1,0-1,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,3 0,37-12,-15 4,-6 3,73-12,-89 17,1 0,0 1,0 0,0 0,0 0,0 1,-1-1,1 2,0-1,-1 1,1-1,9 6,-12-5,-1 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,-1 1,0-1,1 0,-1 0,0 1,0-1,-1 1,1-1,-1 1,0-1,0 5,-5 74,3-67,-4 22,-1-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21969">6298 1984,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,-10 9,-10 15,-1 23,2 1,-14 52,5-12,-8 10,-52 163,81-227,1-1,1 1,2 0,2 0,3 66,-1-96,1 0,-1 0,1 0,0 0,1 0,-1 0,1 0,0 0,0-1,0 1,1-1,0 1,-1-1,2 0,-1 0,4 3,-2-3,0-1,0 0,0 0,1 0,-1-1,1 0,-1 0,1 0,0-1,0 0,0 0,0 0,8-1,48 0,-36-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23853.99">6907 2143,'-1'12,"-1"-1,0 1,0-1,-1 0,-1 0,0 0,-6 12,-10 30,-113 439,128-473,-1 0,-1 0,-14 26,21-44,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1-1,-1 1,0 0,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0-1,0 1,1-1,-1 0,0 0,0 1,0-1,-1 0,1-1,0 1,0-1,1 1,-1-1,0 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-2,-9-57,7 1,3 1,2-1,3 1,2 0,3 0,2 1,3 0,31-76,-41 120,1-1,0 2,1-1,0 1,1 0,0 0,1 1,19-18,-19 22,0 0,0 0,1 1,0 1,0 0,1 0,-1 1,1 0,0 0,0 2,16-3,29-3,1 3,0 2,1 3,68 8,-111-5,1 1,-1 0,0 2,0-1,0 2,-1 0,21 13,92 72,-96-67,21 15,-1 2,63 68,-111-107,0-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,1 1,-1 0,0 0,-1 5,-1-5,1 0,-1-1,-1 1,1-1,0 0,-1 0,0 0,1 0,-1 0,0 0,-1-1,1 1,0-1,-1 0,1 0,-1 0,0-1,-4 2,-38 14,-1-3,-69 13,28-7,-8 3,-2-4,-140 10,188-25,18 0,61-10,43-6,-35 4,0 1,1 3,0 1,54 3,-89 0,0 1,-1 0,1 0,0 0,0 0,-1 1,1-1,-1 1,1 0,-1 0,0-1,1 2,-1-1,0 0,0 0,0 1,-1-1,1 0,-1 1,1 0,-1-1,0 1,0 0,1 5,3 10,0 0,2 36,-5-35,0-11,-2 0,1 1,-1-1,-1 0,1 1,-1-1,-1 0,0 0,0 0,0 0,-1 0,0 0,-1-1,-7 13,4-10,-1 0,0-1,0 0,-1-1,0 0,-1 0,0-1,0 0,-14 7,-2-2,0-1,0-1,-1-2,0 0,-1-2,1-1,-1-1,-34 0,58-4,-275-3,250-3,0-1,0-2,0 0,1-2,-49-26,75 36,-39-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24909">7727 1773,'2'1,"0"-1,1 1,-1 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,1 3,22 46,-15-16,-1 1,-2 0,-1 0,1 41,4 26,19 55,-15-85,12 141,-28-179,-1 1,-2-1,-1 0,-2 0,-1 0,-2-1,-1 0,-2-1,-1-1,-1 0,-24 35,22-43,0-1,-2-2,0 0,-2 0,0-2,-42 29,3-9,-97 48,142-81,1 0,-1 0,0-2,-1 0,1-1,-1 0,0-1,0-1,0 0,0-1,1-1,-1-1,0 0,-23-6,-27-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3423 255,'30'2,"0"0,0 2,1 0,-2 2,1 1,-1 2,-1-1,32 16,8 9,-3 3,67 45,-128-78,0-1,-1 1,1 1,-1-1,1 1,-1 0,0-1,0 0,-1 2,0-1,0 0,0 1,0-1,-1 0,1 0,0 1,-1 0,-1-1,1 1,-1-1,0 1,0 0,0-1,-1 1,-2 7,-3 11,-1 0,-1 0,-24 41,11-23,-325 617,341-651,-16 33,20-39,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,1 1,11 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8525.99">84 2139,'83'0,"139"16,-145-8,156-5,-144-4,-59 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9158">497 2164,'0'5,"0"5,0 5,0 6,0 10,0 23,0 11,0 7,-5 0,-1 0,-5-6,0-8,2-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9840">249 2801,'4'0,"8"0,5 0,4 0,4 0,8 0,1 0,5 0,1 0,-2 0,-3 0,-2 0,2 0,1 0,-3 0,-1 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6804.01">1 255,'1'34,"3"-2,9 39,2 22,9 561,-26-639,-1-18,-4-25,-5-73,5-154,7 185,0 49,1 0,1 0,0 1,2 0,1 0,1-1,0 2,1 0,2 0,0-1,2 2,-1 0,1 0,3 2,0-1,-1 1,31-25,-42 39,0 0,0 0,1 0,-1 1,1-1,-1 1,1 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,2 0,-1 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,1-1,-1 1,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 2,1-1,-1 1,1 0,-1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 1,1 3,1 0,0 0,-1 1,0-1,-1 1,1-1,-2 2,1-2,-1 1,0 0,0-1,-1 2,0-1,0 0,-1-1,1 2,-3 7,-10 20,-2 0,-2-1,-22 38,33-64,-1 1,1 0,-1-1,-1 0,1 1,-1-3,-1 2,1-1,-1-1,-1 0,0 0,1-1,-2 0,1 0,-21 5,31-11,-1 1,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,1 0,0 1,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 0,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,-1 0,1-1,0 1,0 0,18 16,53 19,-55-30,61 33,-1 3,80 57,-138-86</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5287">691 1018,'21'1,"-5"0,1-1,-2 0,2-1,18-4,-34 5,1 0,1-1,-1 1,-1-1,1 1,0-1,0 1,-1 0,1-1,-1 0,1 0,0 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,1-1,-1 1,0-1,0 1,-1-1,1 1,0-1,0 0,-1 1,1 0,-1-1,0 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 1,-1-1,1 0,-1 0,1 1,-1-1,0-1,-3-5,-1 0,1 1,0 1,-1-1,0 0,-1 1,0 0,0 0,0 0,-1 1,-10-7,10 8,2 0,-1 1,0 0,1 1,-2-1,0 1,1 0,-1 0,0 0,1 1,-1 0,0 0,0 1,1 0,-9 0,-4 3,2 0,-1 1,0 1,1-1,-18 9,30-10,1-1,-1 1,0-1,1 1,0 0,0 0,0 1,-1 0,2 0,0-1,0 1,0 0,0 1,1-1,-1 1,1-1,0 0,0 1,0 0,1 0,-1 7,-1 17,1-1,1 1,1 0,2-1,8 45,-7-68,-2-2,0 1,1 0,0 0,0 0,0 0,0 0,1-1,-1 0,1 1,1-1,-1 0,0 1,1-2,-1 1,5 1,-1 0,0 0,0-1,2 0,-2-1,0 0,2 0,-2 0,14 0,8-2,-1 0,1 0,56-11,-61 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4480">1574 153,'0'7,"-1"-1,1-1,-1 1,-1 0,1 0,-1-1,-2 8,-5 17,-56 218,-47 177,106-409,-34 145,34-136,3 0,1 1,0-1,5 36,-2-52,1-1,-1 0,3 0,-2 0,1-1,1 1,-1-1,1 0,1 0,1 0,-2 0,2-1,-1 1,2-1,11 9,-8-8,0 0,1-1,-1-1,0 1,1-1,0-1,1 0,-1-1,1 0,-1 0,15 1,2-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3388.98">1960 356,'-3'71,"-2"1,-26 108,-53 133,78-291,-7 28,6-26,1 2,-2-2,-2-1,-16 32,26-55,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,0 0,0 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 1,0-1,-7-32,3-62,3 1,5 0,5-1,3 2,5 0,5 0,4 3,55-131,-78 214,0 0,1 0,-1-1,1 1,0 1,5-7,-7 11,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0 0,2 0,-2 0,0 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,0 0,2 1,6 6,-1 1,1 0,-1 1,-1 0,1 0,-2 1,0-1,-1 2,6 13,3 17,11 53,-15-54,118 400,-105-383</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2492.02">1767 789,'9'0,"8"0,11 0,4 0,8 0,0 0,-1 0,-3 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1573">2264 0,'7'0,"2"0,-2 0,1 1,0 0,-1 0,1 1,-1 0,1 0,-1 0,0 0,1 1,-1 1,-1-1,2 1,-2 1,0-1,0 0,0 1,-1 0,1 1,-2 0,1-2,0 3,-1-1,0 0,3 8,2 6,-1 2,-2-1,7 44,-1-6,11 60,-6 1,-5 1,-5 0,-20 203,11-297,-2-1,-1 0,-2 0,0 0,-1 0,-3-1,1-1,-28 44,3-9,19-30,-1-1,-26 33,41-59,1-1,0 1,-2 0,1-1,1 0,-1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,-1-1,1 1,-1 0,1-1,0 0,-1 1,1-1,0 0,-1 0,1-1,-4 1,-21-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11834">995 2445,'2'0,"1"0,-1 1,0-1,1 1,-1 0,1 0,0 0,-1 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-1 0,2 0,-2 0,1 0,-1-1,0 1,0 0,0 1,0-1,1 4,2 7,0 1,-1-1,4 18,-6-24,7 75,-3 158,-5-333,-1 7,17-138,-14 216,-1 1,2-1,-1 0,1 1,0 0,2 0,-1 0,0 0,1 1,-1-1,2 0,0 2,-1-1,1 0,2 1,-2 0,0 1,12-7,-14 9,0 1,-1-1,2 1,-1-1,0 1,0 0,0 1,0-1,1 1,-1 0,0 0,0 0,0 0,0 1,9 1,-9 0,1 0,-1 0,2 1,-2 0,0-1,0 1,0 0,1 0,-2 0,1 1,-1 0,0 0,0 0,0 0,4 7,-1 1,-1 0,-1 1,0-1,1 1,-3 0,2 13,-2-12,1 0,0-1,0 1,8 14,-11-27,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 0,0 0,1 1,-1-1,0 0,0 0,0 1,1-1,-1 0,0 0,0 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0 0,1 0,-1 0,0 0,1 0,8-19,-3-26,-5 22,1 1,1-1,11-40,-12 56,1 1,-1-1,1 0,1 0,-1 1,2 0,-1 0,1 0,0 1,-1-1,3 0,-2 1,1 0,0 1,1 0,5-4,-9 6,-1 1,0 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,1 0,0 0,-1 0,2 0,-2 0,1 0,0 0,-1 0,1 1,-1-1,7 3,-6-1,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,1 0,-1-1,0 1,0 0,0 0,2 5,1 5,-1 2,1-2,-1 2,-2-2,0 2,0 16,-4 179,0-145,4-52,5-26,5-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12524">2319 1731,'-5'7,"1"-1,1 0,-1 0,0 1,1-1,1 1,0-1,0 2,0-1,1 0,-1 10,-1 4,-88 335,29-123,27-56,32-152,1 1,1-1,1 1,2 0,5 25,-3-35,3-1,-1 0,0 1,1-2,2 1,0-2,0 1,2-1,-1 0,2-1,0 0,1-1,-1 0,16 8,2 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13727">3037 2139,'-27'103,"-5"-2,-3 0,-61 113,90-201,3-5,-2 1,1 0,-1-1,0 1,-2-1,2-1,-1 1,-11 8,17-16,0 1,-1-1,1 0,0 1,-1-1,1 0,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,-3-16,8-25,17-33,4 1,67-135,-56 134,1-9,-20 40,2 1,2 1,2 1,42-56,-60 91,-1 0,1 0,0 1,0 0,1 0,-1 0,1 0,9-4,-13 8,0-1,0 0,0 0,0 1,0-1,0 1,0 0,0 0,1-1,-1 1,0 1,0-1,0 0,0 0,0 1,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,2 3,7 9,-1 1,-1-1,0 1,-1 0,-1 1,9 30,15 100,-25-114,54 391,-46-369,0-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14647">2816 2419,'497'0,"-473"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15625">3671 1757,'5'2,"0"0,0 0,2 0,-2 1,-1 0,1 0,0 0,0-1,0 2,-1 0,0 0,0 0,4 5,6 3,68 57,-3 5,125 148,-199-215,0-2,0 2,-1 0,-1 0,1 0,-1 0,1 1,1 8,-5-10,0 0,1-2,-2 2,1 0,-1-1,0 1,0-2,0 2,-1-1,-1 1,1-1,-4 7,-194 309,112-188,33-52,46-69</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16940">3119 1706,'18'0,"0"0,0 1,0 0,0 2,-1 0,1 1,0 0,-1 1,-1 0,1 2,0 0,-2 1,1 0,27 20,-27-13,1-2,-1 2,-2 1,0 0,-2 1,1 0,-2 0,1 1,-3 1,0 0,-1 0,-1 0,8 35,-2 20,-2 1,0 105,-9-122,0 303,-2-217,0-109</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18590">4692 1960,'-7'140,"-4"-2,-56 235,66-364,-4 19,-2-2,-1 1,-1-1,0-1,-19 32,30-63,-1 1,1-1,-2 0,1-1,-1-10,1-8,3-42,4-1,26-99,48-56,-50 142,-21 54</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19175.99">4388 1935,'-5'0,"4"0,10 0,9 0,7 0,7 0,13 5,4 1,2-1,3 0,0-2,-3-2,-6 0,-7 4,-7 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19906.99">4499 2776,'0'4,"4"2,6-1,8 0,8-2,5-1,7-1,2 0,-2-1,-2-1,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21223.99">5161 2521,'1'78,"-3"84,-1-145,-2-16,-3-28,7 2,1-1,1 0,2 1,1-1,1 1,1 0,16-38,-21 60,0 0,0 1,0-1,0 0,1 2,0-1,-1-1,1 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 1,1-1,-1 1,1-1,-1 2,2-1,4-1,-5 2,1 0,-1 0,2 0,-2 1,1-1,-1 1,0 0,1-1,-1 1,1 0,-1 1,1-1,-1 1,0 0,-1 0,7 4,-8-5,1-1,0 1,-1 0,1 0,0-1,0 1,0-1,-1 1,1-1,0 0,0 0,1 0,-1 0,0 0,-1 0,1-1,3 0,39-12,-16 5,-6 2,76-12,-93 17,1 0,1 1,-1 0,0 0,0 0,1 1,-2-1,1 2,0-1,0 1,0-1,9 6,-11-5,-2 1,1-1,-1 1,0-1,0 0,0 1,0 0,0 0,-1 1,0-1,2 0,-2 0,0 0,0 0,-1 1,1-1,-1 1,0-1,0 4,-6 72,4-64,-4 20,-1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21969">6568 1909,'0'0,"0"0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-2 0,-9 10,-11 14,-1 22,2 2,-14 49,5-12,-9 11,-54 156,85-218,1-2,0 2,3 0,2-1,3 64,-1-92,1 0,-1 0,1 0,0 0,1-1,-1 1,1 0,1 0,-1-1,0 0,1 0,0 1,-1-1,2 0,-1 0,5 2,-3-2,0-1,0 0,0 0,2 0,-2-1,1 0,-1 0,2-1,-1 0,0 0,0 0,1 0,7-1,51 0,-38-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23853.99">7203 2062,'-1'12,"-1"-1,0 0,0 0,-2-1,0 1,0-1,-6 13,-11 28,-118 422,134-455,-1 1,-2-1,-14 25,22-42,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1-1,-1 1,0 0,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0-1,0 1,1-1,-1 0,0 0,0 1,0-1,-1 0,1-1,0 1,-1-1,2 1,-1-1,0 0,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-2,-9-54,7 0,3 1,2-1,3 1,2 1,4-1,1 1,4 0,32-73,-43 116,1-2,0 3,2-2,-1 1,1 1,1-1,0 2,20-18,-19 21,-1 0,0 1,2 0,-1 1,1 0,0 0,0 2,0-1,1 0,-1 2,17-3,31-3,0 4,1 1,0 3,71 7,-115-4,1 1,-2 0,1 2,0-1,-1 1,0 1,21 12,97 70,-101-65,22 14,0 3,64 65,-114-103,-1-1,-1 0,1 1,-1 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 0,0 1,0-1,0 1,-1-1,1 1,-1-1,0 1,-1 5,-1-5,1 0,-2-1,0 0,1 0,0 0,-1 0,0 0,1 0,-1 0,0 0,-2-2,2 2,0-1,-1 0,1 0,-1 0,0-1,-5 2,-39 13,-1-2,-72 12,29-7,-8 3,-2-4,-146 10,196-24,18 0,65-10,44-5,-37 3,1 1,1 3,-1 2,57 2,-93 0,0 0,-1 1,2 0,-1 0,0 0,-1 1,1-1,-1 1,1 0,-1 0,0-1,2 2,-2-1,0 0,0 0,0 1,-1-2,1 1,-1 1,1 0,-1-1,0 1,0 0,1 5,4 9,-1 0,2 35,-5-34,0-10,-2 0,1 1,-1-2,-1 1,1 1,-1-2,-1 1,0 0,0-1,0 1,-1 0,0-1,-2 0,-6 12,4-9,-2 0,1-2,0 1,-2-1,1-1,-2 1,1-1,0 0,-15 6,-3-1,1-2,0 0,-1-2,0-1,-1-1,1-1,-2-1,-34 0,60-4,-287-3,260-3,1-1,0-2,0 1,0-3,-50-24,78 34,-41-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24909">8058 1706,'2'1,"0"-1,1 1,-1 0,0 0,1 0,0 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,-1-1,2 1,0 3,23 44,-16-15,0 1,-3-1,-1 1,1 39,5 25,19 53,-15-82,12 136,-29-172,-1 1,-2-2,-2 1,-1 0,-1 0,-3-2,0 1,-3-1,0-1,-2-1,-25 35,24-42,-1-1,-2-2,0 0,-2 1,1-3,-45 28,3-8,-100 45,147-77,1 0,0 0,-1-2,-1-1,2 0,-2 0,0-1,1-1,-1 0,0-1,2-1,-2-1,0 0,-23-5,-29-9</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25322,15 +25371,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 623,'0'-4,"9"-2,7 1,6 0,8 2,3 1,10 1,15 0,7 1,-3 0,-3 1,-7-1,-4 0,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="575.03">80 994,'13'0,"28"0,19 0,14 0,7 0,9 0,-8 0,-3 0,-7 0,-10 0,-12 0,-15 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2320.99">1615 226,'-1'-3,"1"0,0 0,1-1,-1 1,0 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,1 1,0-1,2-4,-1 4,1 1,-1 0,0-1,1 1,-1 1,1-1,-1 0,1 1,0 0,0 0,-1 0,8-1,10-2,1 1,-1 1,1 2,-1-1,1 2,-1 1,0 1,37 9,-52-9,-1 0,0 0,1 0,-1 0,0 1,-1 0,1 0,-1 0,0 1,0 0,0-1,0 1,-1 0,0 1,0-1,-1 1,1-1,-1 1,0 0,1 7,3 14,-1 0,-2 1,1 30,-3-46,0 22,0-1,-3 1,-1-1,-7 34,8-54,-1 0,-1-1,0 1,-1-1,0 1,-1-2,0 1,-1-1,0 1,-1-2,0 1,-1-1,-10 9,12-14,1-1,-1 0,1-1,-1 0,-1 0,1 0,0-1,0 0,-1 0,1-1,-1 0,0 0,1-1,-1 0,0 0,1-1,-1 0,1 0,-15-5,7-2,21 1,27 2,1 8,-1 1,-1 2,1 1,-1 2,0 1,50 23,-70-28,0 0,0-1,0 0,0-1,1-1,0 0,18 1,2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3577.02">2673 174,'-77'-41,"70"38,-3-2,0 1,-1 1,0-1,-19-2,28 6,-1-1,1 1,-1 0,0 0,1 1,-1-1,0 0,1 1,-1-1,1 1,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 1,0-1,0 1,0 0,0-1,0 1,1 0,-1 0,1 1,-2 1,-5 11,2-1,0 2,0-1,2 1,0-1,-4 32,-2 103,10-128,-1-16,0 13,1 0,1 0,0-1,7 30,-8-44,1-1,-1 0,1 0,0 0,1 0,-1 0,0 0,1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,0-1,-1 1,2-1,-1 0,0 0,0 0,0 0,0 0,1-1,-1 1,0-1,0 0,7-1,5-1,-1-2,1 1,13-7,-11 4,1 1,29-6,-43 10,1 1,-1 0,0 0,0 0,0 0,1 0,-1 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,-1 0,6 4,-6-3,0 1,0-1,0 1,0 0,-1 0,0 0,0 0,0 1,0-1,0 1,-1-1,0 1,0-1,0 1,0 6,1 79,-2-69,0 6,1-14,-1-1,0 1,-1 0,-1-1,-5 25,6-34,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,0 0,0 0,0 0,-1 0,1 0,0-1,-1 1,1 0,-1-1,0 0,1 0,-1 0,0 0,0 0,0 0,1-1,-1 0,0 1,0-1,0 0,0 0,-5-1,0-1,0 1,0-1,0 0,0-1,0 1,1-2,0 1,-1-1,1 0,0-1,1 1,-1-1,1-1,0 1,1-1,-1 0,1 0,0-1,0 0,1 0,0 0,0 0,1 0,-5-16,3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4051.99">2991 491,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6555.99">1482 1205,'1563'0,"-1372"-13,-28 1,-118 11,-1-3,1-1,71-18,-92 16,0 2,1 1,-1 1,1 1,26 1,-50 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 0,0 1,0-1,-1 1,1 0,0-1,0 1,-1 0,1-1,-1 1,1 0,0 0,-1-1,1 3,-1-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0 0,-1 2,-12 18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22852.68">3308 94,'-8'0,"1"0,0 0,0 1,0 0,0 0,0 0,0 1,-10 4,13-4,1 0,0 1,-1-1,1 1,0 0,1 0,-1 0,0 0,1 0,0 1,-1-1,1 1,1-1,-1 1,1 0,-2 4,-1 5,1-1,0 1,0 0,2 0,0 0,0 0,1 0,1 0,0 0,0-1,7 23,-7-30,0 1,1 0,0-1,0 0,1 1,0-1,0 0,0 0,0 0,1-1,0 1,0-1,0 0,0 0,1 0,-1 0,1-1,0 0,0 0,0 0,1-1,-1 0,1 0,-1 0,1 0,0-1,8 1,0-1,-1-1,1 0,0-1,-1-1,1 0,-1 0,1-2,-1 1,0-2,0 0,-1 0,0-1,0-1,0 0,-1-1,1 0,-2 0,0-1,0-1,0 0,-1 0,-1-1,1 0,-2 0,0-1,0 0,-1 0,-1-1,7-19,-10 27,-1 0,1-1,-1 1,0-1,-1 1,1-1,-1 1,0-1,0 1,-1-1,1 1,-1-1,-1 1,1 0,-1-1,0 1,0 0,0 0,-1 0,0 0,0 1,0-1,0 1,-1 0,0-1,1 2,-9-7,1 2,-1 0,0 1,0 0,-1 1,0 0,0 1,0 1,-1 0,-23-3,13 2,-18-1,24 8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24309.25">3414 412,'-1'0,"1"-1,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,0 1,1-1,-1 0,1 1,-1-1,0 0,0 1,1-1,-1 1,0 0,0-1,1 1,-1-1,0 1,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,-1 0,-29 1,22 1,0 0,0 1,1 0,-1 1,1 0,0 0,0 1,0 0,0 0,1 1,0 0,-6 7,3-2,0 1,2 0,-1 0,1 1,1 0,1 0,-6 15,4-5,0 1,2 0,1 1,1 0,1-1,1 1,1 0,5 45,-4-67,1-1,-1 0,1 1,0-1,-1 0,1 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,3 0,0 1,-1-1,2 0,-1 0,0-1,0 0,1 0,-1 0,10 0,0-1,0 0,0-2,0 0,0 0,27-10,-33 9,0 0,0-1,-1 0,1-1,-1 1,0-2,-1 1,1-1,-1-1,0 1,-1-1,0 0,0 0,0-1,-1 0,0 0,0 0,-1-1,0 1,-1-1,0 0,0 0,2-16,15-71,-13 70,-1-1,-1 0,1-35,-6 60,0-1,0 1,0-1,-1 0,1 1,-1 0,1-1,-1 1,0-1,0 1,0 0,0-1,-1 1,-1-2,-8-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26269.25">2726 1602,'-1'0,"0"-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,1 0,4-5,2 0,-1 1,0 0,11-6,0 1,-7 2,8-6,39-21,-53 33,1-1,-1 1,1 0,-1 0,1 1,0 0,0 0,-1 0,1 0,0 1,0 0,0 0,6 2,-9-1,0 0,0 0,-1 1,1-1,0 1,-1 0,1 0,-1 0,0 0,1 0,-1 1,0-1,0 1,0-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 0,0 0,-1 0,1 5,3 10,-2 1,0 34,-1-40,-1-3,1 0,-1 0,-1 0,0 0,0-1,-1 1,0-1,-1 1,0-1,0 1,-1-1,0-1,-1 1,0 0,-7 8,12-17,0 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 1,0-1,-1 0,1 1,0-1,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 0,1 1,-1-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,2 1,41 1,-17-1,-9 2,0 2,-1-1,1 2,-1 0,26 15,-38-19,1 1,-1 0,0 0,0 0,0 1,-1-1,1 1,-1 0,0 0,4 7,-6-8,0-1,0 1,0-1,0 1,-1 0,1-1,-1 1,0-1,0 1,0 0,0-1,0 1,0 0,-1-1,0 1,1-1,-1 1,0-1,0 1,0-1,-3 4,-1 2,0 0,0 0,-1-1,-1 0,1 0,-1 0,0-1,0 0,-1-1,0 0,0 0,0 0,-1-1,1 0,-1-1,0 0,0 0,-16 2,-10 0,-1-3,1 0,-61-7,8 1,56 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 598,'0'-4,"9"-2,8 2,6-1,8 2,4 1,10 1,15 0,8 1,-3 0,-3 1,-8-1,-4 0,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="575.03">84 954,'13'0,"30"0,20 0,14 0,7 0,10 0,-8 0,-3 0,-8 0,-10 0,-13 0,-16 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2320.99">1687 217,'-1'-3,"1"0,0 0,1-1,-1 2,0-1,1 0,0 0,0-1,0 1,0 0,0 0,0 1,1 0,0-1,2-4,0 4,0 1,-1 0,0-1,1 2,-1 0,1-1,0 0,0 1,0 0,0 0,-1 0,9-1,10-2,1 1,-1 1,1 2,-1-1,1 2,-2 1,1 1,39 9,-55-9,-1-1,1 1,0 0,-1 0,0 1,0 0,0 0,-1-1,0 2,0 0,1-1,-1 1,-1-1,0 2,0-1,-1 1,1-1,-1 0,0 1,2 7,2 12,-1 1,-2 1,1 29,-3-45,1 22,-1-1,-4 0,0 0,-7 32,8-51,-1-1,-2 0,1 0,-1 0,0 0,-1-1,-1 0,0 0,0 0,-2-1,1 1,-1-2,-11 9,12-13,2-1,-1 0,1-1,-2 0,0 0,1-1,-1 0,1 0,-1 0,0-1,0 0,0 0,0-1,0 0,0 0,0-1,0 0,1 0,-16-5,7-1,22 0,29 2,0 8,0 1,-2 2,2 0,-2 3,0 1,53 21,-73-26,-1 0,1-1,-1 0,1-2,0 0,1 0,18 1,3-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3577.02">2792 167,'-81'-39,"74"36,-3-2,-1 1,0 1,-1-1,-19-1,29 5,-1-1,1 1,-2 0,1 0,1 1,-1-1,0 0,1 1,-1-1,1 1,-2 0,2 0,-1-1,1 1,0 1,-1-1,1 1,0-1,0 1,0 0,0-1,-1 1,2 0,-1 0,1 1,-2 0,-5 12,1-2,1 3,0-2,2 1,0 0,-5 30,-1 99,10-123,-1-15,0 12,1 0,1 0,0 0,7 28,-8-42,1-1,-1-1,1 1,0 0,1 0,-1 0,0 0,2 0,-1 0,0-1,0 0,0 1,0-1,0 1,0-1,1 0,-1 0,2 0,-1 0,0 0,0-1,-1 0,2 0,-1 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0-1,0 0,8-1,5-1,-2-2,2 2,13-8,-11 4,1 1,30-5,-45 9,1 1,-1 0,0 0,1 0,-1 0,1 0,-1 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,5 4,-6-3,0 1,0-1,1 1,-1-1,-1 1,0 0,0 0,0 1,0-1,0 0,-1 0,0 1,0-1,0 1,0 5,2 77,-3-67,0 6,1-14,-1 0,0 0,-1 1,-2-2,-4 25,6-33,0-1,0 0,-1 1,1-1,-1 1,1-1,-1 1,0-1,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1-1,-1 0,2 0,-1 0,0 0,0 0,0 0,1-1,-1 0,0 1,-1-1,1 0,0 0,-5-1,-1-1,1 1,0-1,-1 0,1-1,0 1,0-2,1 2,-1-2,0 0,1-1,1 1,-2-1,2 0,0 0,1-1,-2 0,2 1,0-2,0 0,1 0,-1 1,1-1,1 0,-5-15,3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4051.99">3124 471,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6555.99">1548 1157,'1632'0,"-1432"-13,-30 2,-123 10,-1-3,1-1,74-17,-96 15,0 2,1 1,0 2,0 0,27 1,-52 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 1,1-1,-1 0,0 1,0-1,-1 1,1 0,0-1,0 0,-1 1,1-1,-1 1,1 0,0 0,-1-1,1 3,-1-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0-1,1 1,-1-1,0 1,0 0,-1 2,-13 17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22852.68">3455 90,'-8'0,"0"0,1 0,0 1,-1 0,1 0,0 0,0 1,-11 4,14-4,0 0,1 0,-1 0,1 1,0 0,1 0,-1 0,-1 0,2 0,0 1,-1-2,1 2,1-1,-1 1,1 0,-2 3,-1 6,0-2,1 2,0-1,2 1,0-1,0 1,1-1,1 1,0-1,0 0,8 21,-8-28,0 1,1 0,0-1,0-1,1 2,0-1,0 0,0-1,1 1,0-1,0 1,0-1,0 0,0-1,2 1,-2 0,1-1,0 0,1 0,-1 0,1-1,-1-1,2 1,-2 0,1 0,0-1,9 1,0-1,-2-1,2 0,-1-1,0-1,1 0,-2 0,2-2,-2 2,1-3,-1 0,0 0,0-1,-1 0,1-1,-2-1,2 1,-3-1,1-1,-1 0,0-1,0 1,-2-2,2 0,-3 1,0-2,1 1,-2-1,-1 0,8-19,-11 26,-1 1,1-2,-1 1,0-1,-1 1,1 0,-1 0,0-1,0 1,-1 0,1 0,-1-1,-1 1,1 0,-1 0,-1 0,1 0,0 0,-1 0,0 1,0 0,0-1,0 1,-2 0,1 0,1 1,-9-7,0 2,0 1,-1 0,1 0,-2 2,0-1,1 1,-1 1,0 0,-25-2,14 1,-19-1,25 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24309.25">3566 395,'-1'0,"1"-1,0 1,-1-1,1 0,0 0,-1 1,1-1,-1 0,0 1,1-1,-2 0,2 1,-1-1,0 0,0 1,1-1,-1 1,0 0,0-1,1 1,-1-1,0 1,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,-1 0,-31 1,24 1,0 0,-1 1,2 0,-2 0,2 1,0 0,-1 1,1 0,0 0,0 0,1 1,-7 7,4-3,0 2,1-1,0 1,0 0,2 1,1-1,-7 15,5-5,0 1,1 0,2 1,1 0,1-1,1 1,1 0,5 43,-4-64,1-1,-1 0,1 1,0-1,-1 0,1 1,0-2,1 1,-1 0,0 0,0 0,1 0,-1 0,2 0,-1-1,0 1,-1 0,1-1,0 1,3 0,0 0,0 0,1 0,-1 0,0-1,0 0,2 0,-2 0,11 0,-1-1,1 0,0-2,-1 0,1 0,28-9,-35 8,1 0,-1-1,-1 0,2-1,-2 2,1-3,-2 1,1-1,0 0,-1 0,-1-1,0 0,1 1,-1-2,-1 0,0 1,1-1,-2-1,0 2,-1-2,0 0,0 1,3-16,14-68,-12 67,-2-1,-1 0,1-34,-6 58,0 0,0 0,0-1,-1 0,1 1,-1 0,1-1,-1 1,0-1,0 1,0 0,0 0,-1 0,-1-2,-9-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26269.25">2847 1538,'-1'0,"0"-1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,1 0,4-5,3 1,-2 0,0 0,12-5,0 0,-7 2,7-5,42-21,-56 32,1-1,0 1,0 1,-1-1,1 1,1 0,-1 0,-1 0,1 0,1 1,-1 0,0 0,7 2,-10-1,0 0,0 0,-1 1,1-1,1 0,-2 1,1 0,-1 0,0 0,1 0,-1 1,0-1,0 1,0-1,-1 1,2-2,-2 2,1 0,-1 0,0 0,0 0,0 0,-1 0,1 4,3 11,-2 0,0 33,-1-39,-1-2,1-1,-1 1,-1 0,0-1,0 0,-1 0,0 0,-1 1,0-2,0 2,-2-2,1 0,-1 1,0-1,-8 9,13-17,0 1,-1-1,1 0,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 1,0-1,-1 0,1 1,0-1,0 0,0 0,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 0,1 1,-1-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,3 1,41 1,-16-1,-11 2,1 1,-1 0,1 2,-2 0,28 14,-40-18,2 1,-2 0,0-1,0 1,0 1,-1-1,2 1,-2 0,0 0,4 6,-6-7,0-1,0 1,0-1,0 1,-1-1,1 0,-1 1,0-1,0 1,0 0,0-1,0 1,0 0,-1-1,0 0,1 0,-1 1,0-1,0 1,0-1,-3 4,-1 1,0 1,-1 0,0-2,-1 1,0 0,0 0,0-2,0 1,-2-1,1 0,-1-1,1 1,-1-1,0 0,0-1,0 0,-1 0,-16 1,-11 1,0-3,0 0,-63-7,8 1,59 4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25357,13 +25406,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">133 397,'4'0,"7"0,5 0,9 0,6 0,5 0,11-4,1-2,-2 1,8-5,0 1,-5 1,-6 2,-10 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="525.61">1 794,'4'0,"7"0,5 0,13 0,25-9,17-3,0 1,-7 2,-10 2,-10 3,-7 2,-6 1,0 1,-4-4,-7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1687.73">1430 53,'-1'0,"1"-1,0 0,0 0,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,1-1,-1 0,0 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,-1 1,-36 8,1 7,2 3,0 0,1 3,1 1,1 1,1 1,1 2,-29 35,48-49,1 0,1 1,0 0,0 0,2 1,0 0,1 1,0-1,1 1,1 0,0 1,1-1,1 1,1-1,1 29,0-41,1-1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,0 1,0 0,0-1,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,-1-1,1 1,0-1,0 0,0 1,0-1,6 1,10 2,0-1,-1 0,30 0,-24-2,-18 0,0-2,0 1,-1-1,1 0,0 0,-1-1,1 1,-1-1,0-1,1 1,-1-1,0 1,0-2,-1 1,1 0,-1-1,1 0,-1 0,0 0,-1-1,1 1,-1-1,0 0,5-9,-5 8,0 0,0 0,-1 0,0-1,0 1,0-1,-1 1,0-1,0 0,-1 0,1 1,-2-1,1 0,-1 0,0 1,0-1,-1 0,0 1,0-1,0 1,-4-7,4 10,-1 0,1 0,-1 1,1-1,-1 0,0 1,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,0 1,1 0,-1 0,0 0,1 1,-1-1,0 1,1 0,-1 0,1 1,0-1,-7 4,-8 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2651.17">1774 132,'-5'3,"1"-1,0 1,-1 0,2 0,-1 0,0 1,-4 5,-16 18,1 0,2 2,1 1,2 0,0 2,2 0,2 1,1 0,1 1,-7 38,17-64,0 0,1 0,0 0,1 0,0 0,0 1,1-1,0 0,0 0,1 0,0 0,4 12,-4-16,1-1,-1 1,1 0,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,0 0,0-1,1 1,-1-1,0 0,1 0,-1 0,1-1,8 0,-7 1,0-1,0 0,0-1,0 1,0-1,0-1,0 1,0-1,-1 0,1 0,-1 0,1-1,-1 0,0 0,0-1,0 1,0-1,-1 0,1 0,-1-1,0 1,-1-1,1 0,-1 0,4-6,-2 0,-1 0,1 0,-2 0,0 0,0-1,-1 1,0-1,-1 0,0 0,-1 1,0-1,-3-12,3 21,-1 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,-1 0,1 1,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,1 1,-4-1,-20-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3097.83">2303 741,'-5'0,"-1"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4089.23">2779 0,'-3'1,"0"-1,0 1,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,1-1,-1 1,1 0,-4 4,-29 31,35-37,-18 24,0 0,3 1,0 1,1 1,1 0,2 0,1 1,-7 30,6-11,2 0,2 1,2 0,1 60,4-95,1 0,0 0,1-1,5 23,-6-32,0 1,1-1,-1 1,1-1,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,1 0,0-1,0 0,0 1,0-1,1 0,-1 0,6 2,4 0,0 1,0-2,0 1,0-2,0 0,1 0,17-1,-27-2,0 1,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,-1 0,0 0,0 0,0 0,0 0,0 0,-1-1,0 1,1 0,-1-1,0 1,0-7,2-10,0 0,-2 0,-1-1,-3-26,3 38,-1 1,-1 0,1 0,-1 0,-1 1,0-1,0 0,0 1,-1 0,0 0,0 0,-1 0,-8-9,7 12,0 0,0 1,0 0,-1 0,0 0,1 1,-1 0,0 0,0 1,0 0,0 0,0 0,-1 1,1 0,0 1,0 0,0 0,-13 3,-3 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5761.34">3123 397,'2'4,"0"-1,-1 0,1 0,-1 1,1-1,-1 1,0-1,0 1,-1 0,1-1,-1 8,3 5,6 35,-5-16,2-1,2 0,1 0,1-1,26 55,-34-85,-1 0,0 0,1-1,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 0,1 0,-1-1,1 1,-1 0,1-1,0 0,-1 1,1-1,0 0,0-1,0 1,0 0,0-1,0 0,0 1,0-1,0 0,0-1,0 1,0 0,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,4-5,5-3,1-2,-1 1,-1-2,0 1,-1-2,15-22,3-11,-3-1,-2-1,-2-1,-2-2,17-72,-33 114,-3 4,1 0,1 0,-1 0,1 0,0 0,0 1,0-1,0 1,1-1,0 1,0 0,0 0,1 0,4-4,6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">139 387,'4'0,"8"0,5 0,9 0,6 0,6 0,11-4,1-2,-1 1,7-5,1 2,-6 0,-6 2,-11 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="525.61">1 774,'4'0,"8"0,4 0,15 0,25-9,19-3,-1 1,-7 3,-11 1,-9 3,-9 2,-5 1,-1 1,-4-4,-7-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1687.73">1497 52,'-1'0,"1"-1,0 0,0 0,0 0,-1 0,1 1,0-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,1-1,-2 0,1 1,1-1,-1 1,0 0,0-1,1 1,-1 0,0-1,0 1,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,-1 1,-38 8,1 6,2 4,1-1,0 4,2 0,0 2,2 0,0 2,-29 35,49-49,2 1,0 1,1-1,-1 1,3 1,0-1,0 2,1-2,1 2,1 0,-1 0,2 0,1 0,1 0,1 28,0-40,1-1,0-1,0 1,0 0,0 0,0 0,2 0,-2 0,1-1,0 1,0 0,0-1,0 0,0 1,0-1,1 0,0-1,0 1,0 0,-1-1,1 1,0-1,0 0,0 1,1-1,5 1,11 2,0-1,-1 0,31 0,-25-2,-19 0,1-2,-1 1,-1-1,1 0,1 0,-2-1,1 1,-1-1,1-1,0 1,-1-1,0 1,1-2,-2 1,1 0,-1 0,1-1,0 0,-1 0,-1-1,1 1,-1-1,0 0,6-8,-6 7,0 0,0 0,-1 0,0 0,1 0,-1-1,-1 1,0-1,0 0,-1 1,1 0,-2-1,1 0,-1 0,0 1,0 0,-1-1,-1 1,1-1,0 1,-4-6,4 9,-1 0,1 0,-2 1,2-1,-1 0,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 1,1 0,-1 0,1 0,-2 1,1-1,1 1,-1-1,0 1,1 0,-2 0,1 0,1 1,-1-1,0 1,1-1,-2 1,2 1,0-1,-7 4,-9 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2651.17">1857 129,'-5'3,"1"-2,-1 2,0 0,2 0,-1 0,0 1,-5 5,-16 17,1 0,2 3,1 0,2 0,0 2,3 1,1 0,1 0,2 1,-8 37,18-62,0 0,1-1,0 1,1 0,0 0,0 1,1-2,0 1,0 0,1 0,0 0,4 11,-4-15,2-1,-2 1,1 0,0-1,0 1,0-2,0 1,1 0,0 0,0 0,0-1,0 1,0-1,1 0,-1 0,0-1,1 1,-1-1,1 0,0 0,-1 0,1-1,9 0,-8 1,0-1,1 0,-1-1,0 1,0-1,1-1,-1 1,0-1,0 0,0 0,-1 0,1-1,0 0,-1 0,0-1,0 1,1 0,-2-1,1 0,-1-1,0 1,-1-1,2 0,-2 0,4-5,-2-1,0 0,0 0,-2 1,0-1,0-1,-1 2,0-2,-1 0,0 1,-1 0,0-1,-3-11,3 20,-1 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1 1,-1-1,0 0,1 0,-1 0,-1 0,1 0,-1 0,1 1,0-1,0 1,-1 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,1 1,-4-1,-22-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3097.83">2411 722,'-6'0,"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4089.23">2909 0,'-3'1,"0"-1,0 1,-1 0,1 0,0 0,0 0,0 1,1-1,-1 1,1-1,-2 1,2 0,-4 3,-31 31,37-36,-18 24,-1-1,3 2,0 0,2 1,0 1,2-1,2 1,-8 30,7-12,1 1,3 1,2 0,1 58,4-92,1-1,0 1,1-1,5 22,-6-31,0 1,1-1,-1 0,1 0,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0-1,1 0,-1 1,0-2,1 1,-1 0,7 2,3 0,1 1,-1-2,1 1,0-2,-1 0,2 0,17-1,-27-2,-1 1,-1 0,1-1,-1 1,1-1,0 0,0 0,-1 0,1-1,-1 1,0-1,0 0,1 0,-1 0,0 0,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,0 0,0 0,0 0,-1-1,0 1,1 0,-1-1,0 1,0-6,2-11,1 1,-3-1,-1 0,-4-26,4 37,-1 1,-1 1,1-1,-1 0,-1 1,0-1,0 1,0 0,-2 0,1 0,0 0,-1 0,-9-8,8 11,0 0,-1 1,1 0,-1 0,-1 0,2 1,-1 0,-1 0,1 2,0-1,0 0,-1 0,0 1,0 0,1 1,0 0,0 0,-14 2,-4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5761.34">3269 387,'2'4,"0"-1,-1 0,1-1,-1 2,2-1,-2 1,0-1,0 1,-1 0,1-1,-1 8,3 4,6 35,-5-16,3-1,1 0,2 0,0-1,28 54,-36-83,-1 0,0 0,1-1,-1 1,1-1,0 1,0-1,0 0,0 1,1-2,-1 1,1 0,-1-1,1 1,-1 0,1-1,0 0,0 1,0-1,0 0,0-1,0 1,0 0,0-1,0 0,1 1,-1-1,0 0,0-1,0 1,0 0,0-1,1 0,-1 0,0 0,0 0,0 0,-1 0,1-1,1 1,3-5,5-2,2-3,-1 1,-2-1,1 0,-2-2,16-21,4-11,-4-1,-2 0,-2-2,-2-2,17-70,-33 112,-4 3,1 0,1 0,-1 0,1 0,0 0,0 2,0-2,0 1,1-1,0 1,1 0,-1 0,1 0,4-4,7 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25471,14 +25520,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">281 551,'-2'34,"-2"-2,-12 58,2-21,-2 28,-80 435,78-413,12-70,-16 60,10-81,12-28,0 0,-1 1,1-1,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,-3-4,1 0,1 1,-1-1,0 0,1 0,0 0,0 0,0 0,0 0,1-7,-6-80,5 0,3 0,4 1,25-125,107-353,-106 453,-12 37,-8 26,3 1,1 0,27-54,-41 101,0 0,0 0,1 0,0 0,0 0,0 1,0-1,1 1,-1 0,1 0,0 0,0 1,0-1,0 1,0 0,0 0,9-2,-6 2,0 1,0 0,0 1,0 0,0 0,0 0,0 1,0 0,0 0,0 1,7 2,-3 0,0 1,0 0,0 0,-1 1,0 0,0 1,0 0,-1 0,0 1,-1 1,0-1,0 1,-1 1,7 9,-5 1,-1 0,-1 0,-1 1,-1-1,0 1,-2 0,2 31,-3 10,-8 79,3-121,0 1,-2-1,0 0,-1 0,-1-1,-1 0,-1 0,-1-1,0 0,-1 0,-1-1,-16 17,13-16,-1-1,-1-1,0-1,-1 0,0-2,-1 0,-1 0,0-2,-1-1,-37 14,28-17,0-1,-56 4,56-8,1 1,0 2,-36 10,61-14,0 1,1-1,-1 1,0-1,1 1,-1 0,1 1,0-1,0 1,0-1,0 1,-3 3,5-5,1 1,-1-1,0 1,1 0,-1-1,1 1,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,0 1,0 0,0-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,0 1,0-1,0 0,0 0,0 1,3 1,26 25,2 0,49 32,-4-3,230 200,-274-227</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1065.72">599 1503,'0'-1,"0"0,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,2-1,34-4,-32 5,98-5,75-9,-160 12,1-2,-1 0,0-2,0 0,0 0,-1-2,18-10,-30 15,-1 1,0-1,0 0,0-1,0 1,-1-1,1 1,-1-1,0 0,0 0,0-1,-1 1,0-1,1 1,-2-1,1 0,0 1,-1-1,0 0,0 0,0 0,-1 0,0 0,0-1,0 1,0 0,-1 0,0 0,0 0,0 1,-1-1,-4-9,3 8,0 0,0-1,-1 2,0-1,0 0,0 1,-1 0,1 0,-1 0,-1 1,1-1,-1 1,1 1,-1-1,0 1,-1 0,1 0,0 1,-1 0,1 0,-1 0,0 1,-12-1,11 2,0 1,0 0,0 0,0 1,0 0,1 0,-1 1,1 0,-1 1,1-1,0 1,0 1,1-1,-1 1,1 0,0 1,1-1,-1 1,1 0,-5 8,-9 14,2 0,1 1,-19 48,25-53,-2 2,2 0,0 1,2 0,0 0,2 1,1 0,-2 54,8-78,-1 0,1 1,-1-1,1 0,0 0,1 0,-1 1,1-1,0-1,-1 1,2 0,-1 0,0-1,1 1,0-1,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,0-1,0 0,0 0,0-1,0 1,0-1,0 0,0 0,6 1,15 1,1 0,-1-2,0 0,34-5,-16 2,-26 1,55-4,-50-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1583.51">1525 1080,'4'0,"6"0,7-4,3-2,4 0,7 1,2-3,1 0,-2 2,-1 1,-2 2,-1 1,-6 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2123.37">1313 1635,'4'0,"7"-4,5-2,9 1,5 0,2 2,9 1,2 1,-2 0,-4 1,-2-4,-4-2,-3-4,0-5,-2 1,0-3,-5 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3606.91">3483 445,'-78'0,"1"-5,0-2,-142-33,201 35,0 0,1 2,-2 0,1 1,-36 2,47 0,0 2,0-1,-1 1,1 0,0 0,1 1,-1 0,0 0,1 1,-1 0,1 0,0 0,1 1,-1 0,1 0,0 1,-6 7,-6 10,1 2,1 0,2 0,0 1,2 1,1 0,1 0,1 1,1 0,-2 30,8-48,0 0,1 0,0 0,1 0,0-1,0 1,1 0,1 0,3 9,-4-15,-1 0,1 0,0-1,1 1,-1-1,1 0,-1 1,1-1,0 0,0 0,0-1,1 1,-1-1,1 0,-1 0,1 0,0 0,0 0,0-1,0 0,0 1,0-2,0 1,5 0,22 1,50-5,-65 1,-1 1,1 0,0 1,-1 1,1 0,0 1,-1 1,0 0,0 1,0 1,18 8,-22-7,1 0,0 0,-1 1,18 15,-25-19,-1 1,1-1,-1 1,0 0,-1 0,1 0,-1 1,1-1,-1 1,-1-1,1 1,-1 0,2 8,2 14,-2 1,-1-1,-1 1,-1 0,-1-1,-11 55,10-75,0 0,-1 0,0 0,-1 0,0 0,0-1,0 1,-1-1,1 0,-2 0,1-1,0 0,-1 0,0 0,-1 0,1-1,-1 0,1-1,-1 1,0-1,0-1,-1 1,1-1,-10 2,-17 1,-1-1,1-2,-1-1,-39-4,27 1,22 0,-1-1,1-1,0-1,1-2,-1 0,1-2,0 0,1-2,0 0,-32-23,20 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4182.68">4277 471,'-5'0,"-6"9,0 21,-4 19,-8 28,-9 33,-4 15,5 4,7-10,8-16,6-18,6-18,3-16,1-12,6-22,1-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5077.31">4568 551,'0'33,"-2"0,0 0,-3-1,0 1,-20 59,19-76,0 0,-2 0,0-1,0 0,-2 0,0-1,0 0,-2-1,1 0,-2-1,1 0,-29 19,16-16,-1-2,-53 21,-2 0,79-33,-1 0,0 1,1-1,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,-1 4,3-3,-1 0,1-1,0 1,0 0,0 0,0-1,1 1,-1 0,1-1,0 1,-1 0,1-1,0 1,1-1,-1 1,0-1,3 4,162 286,-163-287,0 0,0 1,0-2,1 1,-1 0,1-1,1 1,-1-1,0 0,1 0,0-1,0 0,0 0,0 0,1 0,-1-1,8 3,14 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6502.67">4594 1424,'58'1,"67"-2,-122 0,-1 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,0 0,0-1,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,0 0,0-1,-1 1,2-4,1-10,0 1,-1-1,0-16,-1 21,0-311,-5 140,4 179,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,0 0,0 0,0 1,0-1,1 0,-1 0,1 0,-1 1,1-1,0 1,0-1,0 1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,1-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,5 2,-2 0,1-1,-1 1,0 1,0-1,0 1,0 0,0 0,-1 1,0 0,0 0,0 0,0 0,-1 1,0-1,0 1,-1 1,1-1,-1 0,-1 1,1-1,-1 1,0 0,1 11,2 15,-2 0,-1 0,-5 61,0-40,3-6,-12 193,11-237,0 0,0 0,1 1,0-1,0 0,0 0,1 0,-1 0,1 0,0 1,0-1,0 0,1-1,-1 1,1 0,0 0,4 5,-3-6,1 0,-1-1,1 1,0-1,-1 0,1 0,0 0,0-1,1 0,-1 1,0-1,0-1,0 1,1 0,-1-1,8 0,20 0,-3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">295 532,'-2'33,"-3"-3,-11 57,1-20,-2 27,-84 419,83-398,11-68,-16 58,11-78,12-27,0 0,-1 1,1-1,0 0,0 0,0 0,-1 1,1-1,0 0,0 0,-2 0,2 0,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,-3-4,1 0,1 2,-1-2,0 0,1 0,-1 0,1 0,0 0,0 1,1-8,-6-77,5 0,3 1,4 0,27-121,112-340,-112 437,-12 36,-8 25,3 0,0 1,29-52,-42 97,-1 0,0 0,1 0,0 1,0-1,0 1,0-1,2 1,-2 0,1 0,0 0,0 1,1 0,-1 0,0 0,0 0,10-2,-7 2,1 1,-1 0,0 1,1 0,-1 0,0 0,1 1,-1 0,0 0,1 1,6 2,-2 0,-1 0,1 1,-1 0,0 1,-1 0,1 0,-1 1,0 0,-1 1,0 0,-1 0,0 1,0 0,6 10,-4 0,-2 0,0 1,-2 0,-1-1,0 1,-1 1,1 29,-3 10,-8 76,2-117,1 1,-2 0,0-1,-1 0,-2 0,0-1,-2 0,0 0,-1-1,0 0,-2 0,-16 16,13-16,-1-1,0 0,-1-2,-1 1,0-3,-1 1,-1-1,0-1,-1-1,-39 13,30-16,-1-2,-58 5,59-8,0 1,1 2,-38 9,63-13,1 1,1-1,-1 1,0-1,0 1,0 0,1 1,0-1,0 0,0 0,0 1,-4 3,6-5,1 1,-1-1,0 1,1 0,-1-1,1 1,-1-1,1 1,0 0,0-2,0 2,0 0,0-1,0 1,0 0,0-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,0 1,0-1,0-1,0 1,1 1,2 1,27 24,3 0,51 31,-4-3,241 193,-288-219</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1065.72">628 1450,'0'0,"0"-1,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,1 1,-2-1,1 0,0 0,-1 1,1-1,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,2-1,36-4,-34 5,103-5,79-8,-168 11,1-2,-1 0,0-1,0-1,-1 0,0-2,19-9,-32 14,-1 1,1-1,-1 0,0-1,0 1,-1 0,2 0,-2-1,0 0,0 0,0-1,-1 1,0 0,2 0,-3-1,1 0,0 1,-1-1,0 1,0-1,0 0,-1 0,0 0,0 0,0 0,0 0,-1 0,0 0,0 0,0 2,-1-2,-5-9,4 8,0 1,0-2,-1 2,0-1,-1 0,1 2,-1-1,1 0,-2 0,0 1,1-1,-1 2,0 0,0-1,0 1,-2 0,2 0,0 1,-1 0,0 0,0 0,0 1,-13 0,11 1,1 1,-1-1,1 1,0 1,-1 0,2 0,-1 1,0 0,0 1,0-1,1 1,0 0,0 0,0 1,1 0,0 1,0-1,0 0,1 1,-6 8,-9 13,3 0,0 1,-20 46,27-51,-3 2,2 0,1 1,2 0,-1 1,3 0,1 0,-3 52,9-75,-1-1,1 2,-1-1,1 0,0 0,2 0,-2 1,1-2,0 0,-1 1,2 0,-1 0,0-1,1 1,1-1,-1-1,0 1,0 0,0 0,1 0,-1-1,2 1,-1-1,0 0,0 0,0-1,1 0,-1 0,0 0,0 0,7 1,15 1,1 0,-1-2,1 0,35-5,-17 2,-28 1,59-4,-53 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1583.51">1600 1042,'4'0,"6"0,8-4,3-1,4-1,8 1,1-3,2 1,-2 1,-2 1,-1 2,-2 1,-6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2123.37">1377 1578,'4'0,"8"-4,5-2,9 1,5 1,3 1,9 1,2 1,-2 0,-4 1,-2-4,-5-2,-2-3,-1-6,-2 2,1-4,-6 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3606.91">3654 429,'-82'0,"1"-4,0-3,-149-32,212 34,-1 1,1 1,-2 0,1 1,-38 2,50 0,0 2,-1-1,0 1,1 0,-1 0,2 1,-1-1,-1 1,2 1,-1 0,0 0,1 0,1 1,-1-1,0 1,1 1,-6 7,-7 9,1 2,1 0,3 0,-1 1,2 1,2 0,0 0,2 1,1 0,-3 29,9-46,0 0,1-1,0 1,1 0,0-2,0 2,1 0,2-1,2 10,-4-16,-1 1,1 0,0-1,1 1,-1-1,2 0,-2 1,1-1,0-1,0 1,0-1,1 1,0-1,0 0,-1 0,1 0,0 0,1 0,-1-1,0 0,0 1,0-2,1 1,4-1,23 2,53-4,-68 0,-1 1,1 0,0 1,-2 1,2 0,0 1,-1 0,-1 1,1 1,0 1,18 8,-22-8,1 1,-1 0,0 1,18 14,-26-18,-1 1,2-1,-2 0,0 1,-1 0,1 0,-1 1,1-1,0 1,-2-2,1 2,-1 0,2 8,2 13,-2 1,-1-1,-1 1,-1 0,-1-1,-11 53,10-72,0-1,-2 1,1 0,-1 0,0-1,0 0,-1 1,0-1,1 0,-2-1,0 0,1 0,-1 0,0 0,-2-1,2 0,-1 0,0-1,0 1,0-1,-1-1,0 1,1-1,-11 1,-18 2,-1-1,2-2,-2-1,-41-4,29 1,23 0,-1-1,0 0,1-2,1-2,-1 0,1-1,-1-1,2-2,0 1,-34-23,22 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4182.68">4486 455,'-5'0,"-6"8,-1 21,-4 18,-8 28,-9 31,-5 15,5 3,8-9,8-16,7-17,6-17,3-16,1-11,6-22,1-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5077.31">4792 532,'0'32,"-2"-1,0 1,-4-1,1 1,-21 57,20-74,-1 1,-1-1,-1 0,1-1,-2 1,-1-2,1 1,-3-2,1 1,-1-2,0 1,-30 18,17-16,-1-1,-56 20,-2-1,83-31,-1 0,-1 1,2-1,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,1 0,-1 0,-1 4,3-3,-1 0,1-1,0 1,0 0,0 0,0-1,1 0,-1 1,1-1,0 1,-1 0,1-1,0 1,1-1,-1 1,0-1,4 3,169 277,-171-277,0 0,0 1,0-3,2 2,-2 0,1-1,1 1,-1-1,1 0,0-1,0 0,0 0,0 0,1 0,0 0,-1-1,9 3,14-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6502.67">4819 1374,'61'1,"70"-2,-128 0,-1 1,0-1,1 0,0 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0-1,-1 0,1 1,1-1,-2 0,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,0 1,0-2,-1 1,2-4,1-10,1 2,-2-1,0-16,-1 20,0-300,-5 136,4 172,0 0,0 0,0 0,0 0,1 0,-1-1,1 2,0-1,0 0,0 1,0-1,1 0,-1 0,1 0,-1 1,1-1,0 2,0-2,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,2-1,-1 1,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,0-1,0 1,0 0,1 0,0 1,-1-1,0 1,0-1,0 1,0 0,6 2,-3 0,1-1,0 1,-1 1,0-1,0 1,1-1,-1 1,-1 1,1 0,-1 0,0 0,0-1,-1 2,1-1,-1 1,-1 1,1-2,-1 1,-1 1,2-1,-2 0,0 1,1 11,2 13,-2 1,-1 0,-5 59,0-39,3-6,-12 187,11-229,-1 0,1-1,1 2,0-1,0 0,0 0,1 0,-1 0,2-1,-1 2,0-1,0 0,1-1,-1 1,1 0,0-1,4 6,-3-6,2 0,-2-1,1 1,0-1,-1 0,2 0,-1-1,0 0,1 0,-1 1,1-1,-1-1,0 1,1 0,-1-1,9 0,21 0,-4-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25560,11 +25609,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">28 404,'-5'0,"-1"5,1 24,0 29,2 23,1 15,1 6,0-2,1-8,1-11,-1-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1379.58">611 537,'-1'-1,"1"0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,-1-1,1 1,0 0,-1 0,1 0,0 0,-3 0,-1 0,-1-1,0 1,1 0,-1 1,0-1,-7 3,6 1,0-1,0 2,0-1,1 1,-1 0,1 0,0 1,1 0,-1 0,1 0,1 1,-1-1,1 1,0 0,0 1,-2 7,-6 16,1-1,-11 50,22-79,-6 21,2 0,0 0,-1 42,5-58,0 0,0-1,1 1,0-1,0 1,1-1,-1 1,1-1,0 0,0 0,1 0,0 0,0 0,0-1,0 1,1-1,-1 1,1-1,0-1,1 1,4 3,13 6,0-1,1 0,1-2,0-1,0-1,0-1,1-1,34 4,-16-6,0-2,1-2,-1-1,47-8,-82 7,-1 1,1-1,-1 0,0-1,0 0,0 0,0-1,0 1,-1-1,1-1,-1 1,0-1,-1 0,1-1,-1 1,0-1,0 0,-1-1,0 1,0-1,0 1,-1-1,0 0,0-1,1-7,1-3,-1 1,-1-1,-1 1,-1-1,0 0,-1 1,-1-1,0 0,-2 0,-4-17,3 21,-1 1,-1 0,0 0,-1 1,-12-18,11 17,0 0,1 0,0 0,-9-28,10 19,0-1,-2 1,0 1,-13-24,16 38,0 0,0 0,0 0,-1 1,0 0,0 0,-1 0,0 1,0 0,0 0,0 1,-1 0,1 0,-15-4,4 4,1 0,-1 0,0 2,0 0,0 2,-35 2,50 0,13 1,-3-1,10 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1976.72">1272 299,'4'0,"2"5,-1 5,0 11,-2 14,-1 12,-1 1,0 6,-1 8,0-3,-1-2,1-6,0-3,0-5,4-5,11-10,3-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2800.26">1801 325,'-19'16,"1"-1,-2-1,-23 13,4-2,-10 5,20-13,-36 27,59-40,0 1,0 0,1 0,0 1,0 0,0 0,1 0,0 0,0 1,0-1,-3 11,6-14,1-1,-1 0,1 1,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,1 1,-1-1,1 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1-1,3 3,5 4,0 0,1 0,14 8,-6-3,17 12,53 30,-63-42</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4282.84">2092 722,'155'-13,"-34"0,-92 7,-28 6,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,0-1,1 1,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 0,0 1,0-2,0-1,-1-1,-1 1,1 0,0-1,-1 1,0 0,0 0,1 0,-6-5,-7-12,7 7,0-1,1-1,0 1,1-1,0 0,2 0,-1 0,2 0,0-1,1 1,1-1,0 1,1-1,1 1,0-1,1 1,6-18,-3 13,1 0,1 1,0 0,2 0,0 1,1 0,1 1,1 0,0 1,2 0,-1 1,19-14,-18 17,0 1,1 0,0 1,1 1,0 1,1 0,23-7,-36 14,0-1,0 1,0 1,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0 1,0-1,-1 1,1 0,0 0,-1 1,0-1,1 1,-1 0,0 0,-1 1,1-1,0 1,-1 0,0-1,0 1,0 1,0-1,-1 0,3 6,6 15,-1 0,-1 0,-1 1,-1 0,6 47,-8-27,-3 0,-4 73,-1-101,0 0,-1 0,-1-1,-1 1,-12 25,-11 37,28-78,1-1,0 1,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,0-1,1 1,0 0,-1 0,1-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 0,1 0,-1 1,1-1,-1 0,1 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0-1,0 0,3 1,10 1,0 0,0-2,0 1,16-3,-16 1,157-3,-132 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">30 381,'-6'0,"0"5,1 23,-1 26,3 23,1 13,1 7,0-3,1-7,1-11,-1-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1379.58">644 507,'-1'-1,"1"0,-1 0,1-1,-1 1,0 0,1 0,-2 1,1-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,-2-1,2 1,0 0,-1 0,1 0,0 0,-3 0,-1 0,-2-1,1 1,1 0,-2 1,1-1,-8 3,7 1,0-1,-1 1,1 0,1 1,-2 0,2-1,0 2,0 0,0-1,1 1,0 1,0-2,1 2,0 0,0 0,-3 7,-5 15,0 0,-11 46,23-74,-7 20,3 0,0 0,-1 39,5-54,0-1,0 0,1 1,0-2,0 2,1-1,-1 1,1-2,0 1,0 0,2-1,-1 1,0 0,0-1,0 0,1 0,0 1,0-1,0-2,1 2,5 3,13 5,0-1,1 1,2-3,-1 0,0-2,1 0,0-1,36 3,-17-5,1-2,0-2,-1-1,50-8,-86 7,-2 1,1-1,0 1,-1-2,0 0,1 0,-1-1,1 1,-2 0,1-2,0 1,-1-1,-1 1,2-2,-2 1,0 0,0-1,0-1,-1 2,0-2,0 1,-1 0,1-1,-1 0,1-7,1-3,-1 1,0-1,-2 0,-1 0,0 0,-1 1,-1-1,0 0,-3 0,-3-16,3 20,-1 1,-2 0,1-1,-1 2,-13-17,11 15,1 1,0 0,1 0,-10-27,11 18,-1-1,-1 2,0 0,-14-23,16 37,1-1,0 1,-1-1,0 1,0 1,-1-1,0 0,0 2,-1-1,1 0,0 1,-2 1,2-1,-16-4,4 4,1 1,-1-1,0 2,0 0,0 2,-37 2,53 0,13 1,-2-1,10 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1976.72">1340 282,'4'0,"3"5,-2 5,0 9,-2 14,0 12,-2 0,0 6,-1 8,0-4,-1-1,1-6,0-2,0-6,4-4,12-10,3-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2800.26">1898 307,'-20'15,"1"-1,-2-1,-25 13,5-3,-11 6,22-13,-39 25,63-37,0 1,-1 0,2-1,0 2,0 0,-1-1,2 1,0 0,0 0,0 0,-4 10,7-13,1-1,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,1 0,-1 0,1 0,0 0,0 1,0-1,0 0,2-1,-2 1,0 0,1 0,-1-1,3 3,6 3,-1 1,2 0,14 7,-6-3,18 12,55 27,-65-38</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4282.84">2204 682,'163'-13,"-35"1,-97 6,-30 6,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0-1,1 1,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 0,0 1,0-2,0-1,-1 0,-1 0,1 0,0-1,-1 1,-1 0,1 1,1-1,-6-5,-8-11,8 7,-1-1,2-1,0 0,1 0,-1 0,3 0,-1 0,2 0,0-1,1 0,1 0,0 1,1-1,1 1,0-1,1 1,7-18,-4 14,1-1,2 1,-1 0,3 0,-1 1,2 0,0 1,2 0,0 1,2 0,-2 0,21-12,-19 16,0 0,1 1,-1 0,2 2,0 0,1 1,24-7,-37 13,-1-1,0 1,0 1,1-1,-1 1,0 0,1 0,-1 0,0 1,0-1,1 1,-1 0,0 1,0-1,0 1,0-1,0 1,-1 1,1-1,0 1,-1 0,0 0,-1 0,2 0,-1 1,-1 0,0-1,0 0,1 2,-1-1,-1 0,3 5,7 15,-2-1,0 1,-2 0,-1 1,7 44,-9-26,-2 1,-6 68,0-95,0 0,-1 0,-1-1,-2 1,-12 24,-11 34,29-73,1-1,0 1,-1 0,1 0,0 0,0-1,0 0,0 1,0 0,0 0,1 0,-1 0,0-1,1 1,0 0,-1-1,1 0,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 0,2 0,-2 1,1-2,-1 1,1 0,-1-1,1 1,0 0,0 0,-1-1,1 1,1-1,-1 0,3 1,11 1,0 0,-1-2,1 1,17-3,-17 1,165-3,-139 3</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25619,17 +25668,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">85 476,'-2'1,"1"-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 1,1-1,-1 1,-12 29,13-30,-13 44,1 1,2 0,3 0,-3 67,10 202,4-137,0-124,2-35</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2180.99">85 582,'-1'-24,"2"-1,1 1,1 0,0-1,2 1,12-34,-14 51,0 0,0 0,0 0,1 0,0 1,1 0,-1 0,1 0,0 0,1 1,-1 0,1 0,0 0,0 1,1-1,-1 2,1-1,0 1,0 0,0 0,0 1,1 0,-1 0,15-1,-10 2,0 0,0 1,-1 0,1 1,0 0,-1 1,1 0,-1 1,1 0,-1 1,20 10,-24-10,-1 0,0 0,-1 1,1 0,-1 0,0 0,0 1,-1-1,1 1,-1 0,-1 1,1-1,-1 1,0 0,-1-1,1 1,-1 0,-1 1,1-1,0 8,2 41,-7 106,-1-48,5-97,-2 0,0 0,-1 0,-1 0,0-1,-2 1,0-1,0 0,-9 16,10-24,0-1,-1 0,0-1,0 1,0-1,-1 0,0 0,0-1,-1 0,0 0,1 0,-2-1,1 0,0 0,-1-1,0 0,0 0,1-1,-2 0,-12 2,4-2,1 0,-1-2,0 0,0 0,0-2,-28-5,36 5,0-1,1 0,-1 0,1-1,0 0,0 0,0-1,1 0,-1 0,1-1,0 0,1 0,-11-13,12 13,1 0,0 0,0 0,0 0,1 0,-4-11,7 16,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,0-1,1 1,-1-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,1-1,0 0,2 1,-1-1,0 0,0 1,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 1,5 0,16 4,-1 1,1 2,-1 0,-1 1,0 1,27 17,114 89,-13-8,-93-68,-44-29,1-2,0 1,0-2,1 0,0 0,1-2,23 9,-15-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5249">1937 688,'-5'0,"-6"0,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11056.33">1805 582,'-35'1,"0"0,1 3,-65 14,80-13,0 1,0 1,1 1,0 0,1 1,0 1,0 1,-20 16,32-21,0 0,0 0,0 0,0 1,1-1,0 1,1 0,-1 1,1-1,1 0,-1 1,1 0,-1 8,-2 16,-1 60,5-63,-1-1,0-6,1 0,1 0,1 0,1 0,4 22,-4-38,0-1,0 1,0 0,0-1,1 0,0 0,0 1,0-2,1 1,-1 0,1-1,1 1,-1-1,0 0,1-1,0 1,0-1,0 0,0 0,1 0,-1-1,1 0,7 2,5 0,0-1,1-1,-1-1,0 0,26-4,-21 2,0 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12022.33">2149 635,'0'5,"0"24,0 20,0 20,0 11,0 7,0-4,0-6,0-7,0-11,0-12,0-40,0-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12403.33">2334 0,'0'5,"0"6,0 5,-5 0,-1 6,0 9,1-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14609.33">2784 556,'-38'0,"20"-2,0 2,-1 1,1 0,-28 5,42-5,0 1,-1-1,1 1,0-1,0 1,0 0,0 0,1 1,-1-1,0 1,1 0,0 0,0 0,0 1,0-1,0 1,1-1,-1 1,1 0,0 0,0 0,0 0,-1 7,-2 15,2 0,0 0,2 0,1 1,5 40,-5-63,0 0,1 1,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,0 0,0 0,1 0,-1-1,1 1,0-1,5 6,-3-6,0 1,0-2,0 1,0 0,0-1,1 0,-1 0,1-1,0 1,-1-1,1-1,7 1,4 1,-1 0,1 0,-1 2,0 0,29 11,-40-12,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,-1 1,0 1,0-1,0 0,0 1,0 0,-1 0,0 0,0 0,-1 1,1-1,1 9,-3-11,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,-1 0,1-1,-1 1,1-1,-1 1,-3 2,-5 5,0 0,0-1,-16 10,-5 5,-12 21,33-34,0 1,-1-2,0 1,0-2,-14 9,21-15,0-1,0 0,0-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1-1,-1 0,1 0,-1 0,1 0,0-1,-1 1,1-1,-1 0,1-1,0 1,-6-4,-2-1,0-2,0 1,1-1,0-1,1 0,0-1,-10-12,6 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15793.99">3154 371,'0'98,"-4"218,-2-228,-26 139,18-157,3 0,3 1,3 1,5 84,1-148,-1 0,1 0,1-1,0 1,0 0,0-1,1 1,0-1,0 0,1 0,0 0,0 0,1-1,-1 0,1 0,7 7,-4-7,0 0,0-1,1 1,-1-1,1-1,0 0,1 0,-1-1,1 0,-1 0,1-1,14 1,-2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17328.78">3868 529,'-9'0,"-1"1,1 0,0 0,0 0,1 1,-1 0,0 1,1 0,-1 1,1 0,0 0,0 0,0 1,-8 7,7-4,-1 2,2-1,-1 1,1 1,1-1,0 1,0 1,-9 22,0 11,2 2,2 0,2 0,-4 59,10-76,-4 22,4-33,1 1,0 0,2 0,0 0,3 28,-1-43,0 0,0 0,0 0,1 0,0 0,0 0,1 0,-1 0,1-1,0 1,0-1,0 0,1 0,0 0,-1 0,1-1,1 0,-1 1,0-1,1-1,0 1,-1-1,1 0,0 0,5 1,128 37,-133-38,5 2,0-1,0 1,0-2,19 4,-27-6,0 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,0 0,0 0,0 0,0 1,2-5,11-39,15-71,-15 54,-2-7,-3 0,-3-1,-6-133,-1 125,1 74,0-1,0 0,0 1,-1-1,1 0,-1 1,0-1,-1 1,1-1,-1 1,0 0,0-1,0 1,-1 0,1 0,-4-4,2 5,0 1,0-1,0 0,0 1,-1 0,1 0,-1 1,1-1,-1 1,0 0,1 0,-1 0,0 1,0-1,-7 2,-10-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18144.78">3630 953,'4'0,"7"0,9 0,7 0,3 0,1 0,-1 0,4 0,1 0,3 0,0 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19180.79">4054 265,'8'1,"0"-1,0 1,0 0,0 1,0 0,0 0,0 1,0 0,-1 0,1 1,-1 0,0 0,0 1,0 0,-1 0,0 0,0 1,0 0,-1 0,0 0,0 1,0 0,-1 0,6 13,5 15,-1 1,-2 0,-2 0,7 45,-2-11,0 8,-4 1,-3 1,-6 158,-3-159,0-58,-1-1,0 0,-1 0,-2 0,0 0,-1-1,0 0,-18 33,1-11,-2 0,-47 56,55-74</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">88 453,'-2'0,"1"0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,1 0,-1 1,1-1,-1 1,-13 27,14-28,-13 42,0 1,3-1,2 1,-2 63,10 193,4-131,0-118,3-32</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2180.99">88 553,'-1'-23,"2"0,1 0,1 0,1-1,1 2,12-34,-13 50,-1-1,0 0,0 1,1-1,0 1,1 1,0-1,0 0,0 1,1 0,-1 0,2 0,-1 1,0 0,1-1,0 2,0-1,0 1,0 1,1-1,-1 1,1 0,0 0,14-1,-9 2,-1 0,1 1,-2 0,2 1,-1 0,0 1,0 0,0 1,0 0,-1 1,22 9,-26-9,-1-1,0 1,0 1,0 0,-1 0,0-1,0 2,0-1,0 0,-1 1,-1 1,1-2,-1 2,0 0,0-1,0 0,-1 1,-1 0,1 0,0 7,2 40,-7 100,-1-46,5-92,-2 0,0 0,-1 1,-1-1,-1-1,-1 1,0-1,0 1,-10 14,11-22,0-2,-1 1,0-1,-1 0,1 0,-1 0,0-1,0 0,-2 0,1 0,1-1,-3 0,2 0,0 0,-1-1,-1 0,1-1,1 0,-3 0,-12 2,5-2,0 0,0-2,-1 0,0 0,1-2,-30-5,37 5,1-1,1 1,-2-1,2-1,0 0,-1 0,1 0,1-1,-1 0,0-1,1 1,1-1,-12-12,13 12,1 1,0-1,-1 0,1 0,1 1,-4-11,7 15,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,0-1,1 1,-1-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,1-1,0 0,2 1,-1-1,0 1,0 0,2-1,-2 1,0 0,1 0,-1 0,0 0,1 0,-1 1,6-1,15 5,0 1,1 2,-1-1,-1 2,0 0,28 17,118 84,-13-7,-97-65,-46-28,2-1,-1 0,1-1,0 0,1-1,1-1,23 8,-15-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5249">2013 654,'-5'0,"-7"0,1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11056.33">1876 553,'-37'1,"1"0,0 3,-66 13,82-12,0 1,0 0,2 2,-1-1,1 2,1 1,-1 0,-20 16,32-21,1 1,0 0,0-1,0 2,0-1,1 0,1 1,-1 1,1-2,1 1,-1 1,1-1,-2 8,-1 16,-1 56,5-59,-1-1,0-7,1 1,1 0,1 0,1 0,4 21,-4-36,0-2,0 2,0 0,1-1,0-1,0 1,0 1,0-2,1 0,-1 1,1-1,2 1,-2-2,0 1,1-1,0 1,1-1,-1 0,0-1,1 1,-1-1,2 0,6 2,6 0,0-1,0-2,0 0,0 0,26-3,-21 1,0 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12022.33">2233 604,'0'4,"0"24,0 19,0 18,0 11,0 7,0-4,0-6,0-6,0-11,0-12,0-37,0-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12403.33">2425 0,'0'5,"0"5,0 5,-5 1,-1 5,0 8,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14609.33">2893 529,'-40'0,"22"-2,-1 2,-1 1,2 0,-30 4,44-4,-1 1,0-1,1 1,0-1,0 1,0 0,-1 0,2 1,-1-2,0 2,1 0,0 0,0 0,0 1,-1-2,1 2,1-1,-1 1,1 0,0 0,0-1,0 1,-1 7,-3 13,3 1,0 0,2-1,1 2,5 38,-5-60,0-1,1 2,0-1,1 1,-1-1,0-1,1 1,-1 0,1 0,0 0,0-1,1 1,-1-1,1 1,0-1,6 5,-4-5,0 1,0-2,0 1,1-1,-1 0,1 0,-1 0,2-1,-1 1,-1-1,1-1,8 1,3 1,0 0,1 0,-2 1,1 1,30 11,-42-13,1 0,-1 1,0 0,1 0,-1 0,0 0,0 0,-1 1,1 1,-1-1,0-1,0 2,0 0,-1 0,0 0,1-1,-2 2,1-1,1 8,-3-10,-1 0,1 0,-1-1,0 1,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0 0,0-1,0 1,-1 0,1-1,-1 0,0 0,0 1,-3 2,-5 4,-1 1,1-1,-17 9,-5 4,-13 21,35-32,-1 0,0-1,-1 0,1-1,-15 8,22-14,0-2,0 1,-1-1,1 1,0-1,-1 0,1 0,0 0,-2 0,2-1,-1 0,1 0,-1 0,1 0,-1-1,0 1,1-1,-1 0,1-1,0 1,-7-3,-1-2,-1-2,1 2,0-2,1-1,1 1,-1-2,-10-11,7 7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15793.99">3277 353,'0'93,"-4"207,-2-216,-27 132,18-150,4 1,2 0,4 2,5 79,1-140,-1-1,1 1,1-1,0 0,1 1,-1-2,1 2,0-1,0-1,1 1,0 0,0-1,2 0,-2 0,1-1,7 8,-3-7,-1-1,0 0,2 1,-2-2,1 0,1 0,0 0,-1-1,2 0,-2-1,2 0,14 1,-3-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17328.78">4019 503,'-9'0,"-1"1,0 0,1 0,-1 0,2 1,-1 0,-1 0,2 1,-1 1,0 0,1 0,0-1,0 2,-9 7,8-5,-2 3,3-2,-2 2,2 0,1 0,0 0,-1 2,-8 20,-1 11,3 1,1 1,3 0,-5 56,11-73,-4 21,4-30,0 0,1 0,2 0,0 0,3 26,-1-40,0 0,0 0,0-1,2 1,-1 0,0 0,1-1,-1 1,1-1,0 1,0-2,0 1,2 0,-1 0,-1 0,1-2,1 1,-1 1,0-1,2-1,-1 1,-1-1,1 0,0-1,6 2,132 35,-138-36,6 2,-1-1,1 1,-1-2,20 3,-28-5,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,-1 0,1 0,1 0,-1-1,-1 1,1-1,0 1,-1-1,1 1,-1-1,0 0,0 0,0 1,0 0,2-5,12-37,15-67,-16 51,-1-7,-4 1,-2-2,-7-126,-2 119,2 70,0-1,0 1,0 0,-1-1,1 0,-1 2,0-2,-1 1,1-1,-1 1,0 1,0-2,0 1,-1 0,1 0,-5-3,3 4,0 1,0-1,0 0,0 2,-1-1,0 0,0 1,1-1,-1 1,0 0,0 0,0 0,0 1,0-1,-8 2,-9-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18144.78">3772 906,'4'0,"8"0,8 0,8 0,4 0,0 0,-1 0,4 0,2 0,2 0,1 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19180.79">4213 252,'8'1,"0"-1,0 1,1 0,-1 1,0 0,1-1,-1 2,0 0,0 0,0 1,-1 0,0-1,1 2,-1 0,-1 0,1-1,-1 2,0 0,-1 0,0-1,1 2,-1 0,-1-1,6 13,6 15,-2 0,-1 0,-3 0,8 43,-2-10,-1 7,-3 1,-4 1,-6 150,-3-151,0-55,-1-1,0 0,-1 0,-3 0,1 0,-1 0,0-1,-19 31,1-10,-2 0,-49 53,57-70</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25656,7 +25705,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 26,'276'11,"-55"-1,1831-1,-1196-12,110-22,-337 4,395 14,-777 7,-224 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 26,'287'11,"-57"-1,1905-1,-1245-12,115-22,-350 4,410 14,-808 7,-233 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25770,7 +25819,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1140 0,'3'2,"-1"0,1-1,0 1,0 0,-1 0,1 0,-1 1,0-1,1 1,-1-1,0 1,-1 0,1 0,0-1,1 6,1-2,21 39,-2 0,-2 1,-2 2,16 59,30 200,-4-72,-35-147,-17-63,2 1,1-2,1 0,1 0,16 21,-14-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="767.85">346 450,'-5'0,"-6"18,-9 38,-12 36,-8 20,-11 18,-2 1,9-13,11-22,11-23,10-20,3-9,2-30,2-63,3-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="767.84">346 450,'-5'0,"-6"18,-9 38,-12 36,-8 20,-11 18,-2 1,9-13,11-22,11-23,10-20,3-9,2-30,2-63,3-23</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25797,17 +25846,17 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">556 1561,'-26'52,"-3"1,2 2,3 1,2 1,-21 90,42-144,0 0,1 1,0-1,0 0,0 1,0-1,1 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0-1,1 1,-1-1,0 1,1-1,0 0,-1 0,5 2,7 4,0-1,1-1,0 0,25 6,-30-10,13 3,0-1,0-1,1-1,41-3,-43 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="518.47">927 1614,'0'9,"0"21,0 24,0 20,0 16,0 1,0-1,0-2,0-8,0-3,0-11,0-12,0-10,0-9,4-5,2-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1826.29">1350 1852,'-1'101,"2"249,0-334,0 0,1-1,1 1,0-1,1 1,11 28,-12-39,-1 0,1 0,0 0,0 0,0-1,1 1,0-1,0 0,0 0,0 0,1 0,-1-1,1 0,0 0,0 0,0 0,0-1,1 0,-1 0,1 0,-1-1,7 1,-1 0,1-1,0-1,0 0,0 0,-1-1,1-1,0 0,-1 0,1-1,-1-1,0 0,0 0,0-1,10-7,-12 6,-1 0,0-1,-1 0,1 0,-1 0,-1-1,0 0,0 0,0-1,-1 0,0 0,-1 0,0 0,0-1,-1 1,3-19,-1-11,-1 1,-2-1,-5-57,0 13,3 74,-1 0,1 0,-2 0,1 0,-1 0,0 0,-1 1,0-1,-1 1,1 0,-2 0,1 0,-1 0,0 1,-1-1,0 2,0-1,0 0,-1 1,0 0,0 1,0 0,-1 0,0 0,0 1,0 0,0 1,-1 0,0 0,1 1,-1 0,0 0,0 1,-18 0,22 1,-13-1,-1 0,1 2,-1 0,-25 6,24 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2652.07">2488 2170,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4640.04">3546 1694,'-11'1,"1"0,-1 1,1 0,-1 0,1 1,0 0,0 1,1 0,-1 1,1 0,0 0,-10 9,-10 9,0 1,-25 29,45-44,-15 14,2 0,0 1,2 2,1 0,1 1,1 1,2 0,-14 34,27-59,1 0,0 0,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,0 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,1-1,-1 1,1 0,0-1,-1 1,1-1,0 0,0 0,0 0,0 0,5 0,7 2,0-1,1 0,0-1,-1 0,1-2,-1 0,18-3,-13-1,-1 0,-1-2,34-15,-36 14,1 1,0 0,0 2,36-8,-48 12,-1 1,1 0,-1 0,1 0,0 0,-1 1,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 1,0 1,0-1,0 0,0 1,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 1,-1 0,1-1,-1 1,3 6,3 10,-1 0,0 1,-1-1,5 40,-6-30,12 42,-10-46,-1 0,-1 0,-1 0,0 37,-4-59,0-1,-1 1,1-1,-1 0,0 1,0-1,0 0,-1 0,1 0,-1 1,0-2,0 1,0 0,0 0,0 0,0-1,-4 3,0 0,0-1,0 0,-1 0,1 0,-1-1,0 0,-12 3,-6 0,-1-1,1-1,-42 0,50-3,-56 2,0-3,-110-13,161 9,0-1,1-1,0-2,0 0,0 0,1-2,-35-23,26 13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23746.37">1 450,'46'0,"-12"-1,0 2,43 5,-65-3,-1-1,1 1,-1 1,0 0,0 0,0 2,-1-1,1 1,-1 0,12 11,-15-11,-1-1,0 1,0 0,-1 0,0 1,0 0,0-1,-1 2,0-1,0 0,4 14,-4-6,-1 0,-1 1,0 0,-1 0,-2 18,1 8,-2 1,-15 81,14-109,-1 0,-1-1,0 0,-1 0,0 0,-1-1,0 0,-2 0,1 0,-1-1,-20 19,27-28,-1 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,0 0,0-1,1 0,-1 0,0 0,0 0,0 0,1-1,-1 0,0 0,0 0,1 0,-1 0,-6-4,5 1,0 0,0 0,0-1,1 0,0 0,0 0,0 0,0 0,1-1,0 0,0 0,0 0,1 0,0 0,0 0,-2-13,2 8,0 1,1-1,1 0,-1 0,2 0,-1 0,2 0,-1 0,6-17,-5 23,0 1,0-1,1 0,0 0,-1 1,2 0,-1-1,0 1,1 0,0 1,0-1,0 1,0-1,0 1,1 1,-1-1,1 0,0 1,0 0,0 0,10-2,6 1,-1 0,1 1,0 1,-1 1,1 0,0 2,-1 1,1 0,-1 1,0 2,0 0,23 10,23 14,-1 3,65 45,-123-74,113 67,-88-52</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24795.01">1323 556,'0'0,"0"-1,0 1,0 0,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0 0,-1-1,1 1,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,-1 0,1 1,-24 12,8 1,1 1,0 0,2 1,0 1,0 0,2 1,0 0,1 0,1 1,1 1,0 0,2 0,-8 38,13-47,1-1,0 1,1-1,0 1,1-1,0 1,1-1,0 0,0 0,1 0,1-1,0 1,0-1,10 13,-6-9,0-1,1 0,0-1,1 0,1-1,0 0,0 0,0-1,19 9,-24-15,-1 0,1 0,0-1,0 1,0-2,1 1,-1-1,0 0,1 0,-1-1,0 0,1-1,-1 1,0-1,1-1,7-2,-6 1,0-1,-1 0,1-1,-1 0,0 0,0-1,0 0,-1 0,0-1,0 0,6-8,-2 0,0-1,-1 1,-1-2,0 1,-2-1,0 0,0-1,-2 0,0 0,-1 0,-1-1,1-24,-4 37,1-11,-1 0,-1 0,0 0,-6-24,5 36,1 0,-1 1,0-1,0 0,0 1,-1 0,0-1,0 1,0 0,0 0,0 1,-1-1,0 1,0-1,0 1,0 0,0 1,0-1,-7-2,-20-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25184.37">1985 926,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26464.03">2064 741,'0'-2,"0"-1,1 1,-1-1,1 0,0 1,-1-1,1 1,0-1,1 1,-1 0,0 0,1-1,-1 1,1 0,0 0,0 0,0 1,0-1,0 0,0 1,5-3,5-3,1 1,0 0,15-4,3-2,28-17,-39 17,1 2,0 0,1 2,0 0,27-5,-46 12,-1 1,1-1,-1 1,1 0,-1 0,1 0,0 1,-1-1,1 0,-1 1,1 0,-1 0,1-1,-1 2,0-1,1 0,-1 0,0 1,0-1,0 1,3 2,-2 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,-1 1,1-1,-1 1,2 9,-1 5,0 0,-2 0,0 1,-5 32,2-19,-2-1,-2 0,-1-1,-1 1,-1-1,-2-1,-1 0,-2-1,-1 0,-1-1,-26 33,38-56,0 1,0-1,0-1,-1 1,0-1,0 0,0 0,0-1,0 1,-1-2,1 1,-1-1,0 1,-10 0,14-2,-1-1,1 0,0 0,0-1,-1 1,1-1,0 1,0-1,0 0,0 0,0-1,0 1,0 0,0-1,1 0,-1 0,0 0,1 0,0 0,-1 0,1 0,0-1,0 0,0 1,1-1,-1 0,0 0,1 1,0-1,0 0,0-1,0 1,0-4,-1 1,0 0,1 0,0 0,0 0,0 0,1 0,0 0,0-1,1 1,-1 0,1 0,1 0,-1 0,4-7,-3 10,0-1,0 1,0-1,1 1,0 0,-1 0,1 0,1 0,-1 1,0-1,0 1,1 0,0 0,-1 0,1 0,0 1,0-1,0 1,0 0,0 0,0 1,4-1,16-1,-1 2,0 0,0 2,0 0,42 11,-32-6,15-1,-27-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27396.69">2620 0,'-2'29,"-2"0,0-1,-14 47,3-13,-20 67,-87 211,25-84,1 63,94-311,0 1,-1-1,0 0,-1-1,-3 8,-6 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30248.59">3414 1244,'0'14,"0"67,0 38,0 34,0 14,0 6,0-4,0 0,0-10,-5-23,-1-22,0-25,1-23,-2-19,-1-13,1-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">581 1505,'-27'50,"-3"1,2 2,3 1,2 1,-22 87,44-139,0 0,1 1,0-1,0-1,0 2,0-1,1 1,-1-1,1 0,0 1,0-1,0-1,0 1,0 0,1 0,-1 0,1 0,0 0,0 0,0-1,1 1,0-2,-1 2,1-1,0 0,-1 0,5 2,8 4,0-2,0 0,1 0,26 6,-32-10,14 2,0 0,0-1,2-1,42-3,-45 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="518.47">969 1556,'0'9,"0"20,0 23,0 19,0 16,0 1,0-2,0-1,0-8,0-2,0-12,0-11,0-9,0-9,5-6,1-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1826.29">1412 1786,'-1'97,"2"240,0-321,0-1,1 0,1 0,0 0,2 0,10 28,-12-39,-1 1,2 0,-1 0,0 0,0-2,1 2,0-1,1 0,-1 0,0 0,1 0,-1-2,2 1,-1 0,0 0,0 0,0-1,2 0,-2 0,1 0,-1-1,8 1,-1 0,0-1,1-1,-1 0,1 0,-2-1,2-1,-1 0,0 0,0-1,0-1,-1 0,1 0,-1 0,11-8,-12 6,-2 0,1 0,-2-1,1 0,0 0,-2 0,0-1,0 0,1 0,-2-1,0 0,-1 1,0-1,1-1,-2 2,3-19,-1-11,-1 1,-1 0,-7-56,1 13,3 71,-1 1,1-1,-2 0,1 1,-1-1,0 0,-1 2,0-2,-2 1,2 1,-2-1,1 0,-1 0,-1 2,0-2,0 2,0-1,-1 1,0 0,0 0,-1 1,1 0,-1 1,-1-1,1 1,0 0,-1 1,0 0,-1 0,2 1,-1 1,-1-1,1 1,-19 0,22 1,-12-1,-2 0,1 2,-1 0,-26 5,25 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2652.07">2602 2092,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4640.04">3709 1633,'-12'1,"2"0,-2 1,2 0,-2 0,2 1,-1 0,1 1,0 0,0 0,1 1,-1 0,-10 8,-10 10,0 0,-27 28,48-42,-16 13,2 0,0 1,2 2,1 0,1 1,1 1,2 0,-14 33,28-57,1 0,0 0,0 0,1-1,-1 1,1 0,-1 0,1 1,0-1,0 0,0 0,1 0,-1-1,1 1,-1 0,1 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 0,1 0,-1 1,0-1,0 0,0 1,1-1,-1 0,1-1,-1 1,1 0,1-1,-2 1,1-1,0-1,0 1,0 0,0 0,6 0,6 2,1-1,1 0,0-1,-2 0,2-2,-1 0,18-3,-13-1,-1 1,-1-3,35-14,-37 13,1 1,0 0,-1 3,39-9,-51 12,-1 1,1 0,0 0,0 0,0 0,-1 1,1 0,0 0,0 0,-1 0,1 1,-1-1,1 1,-1 1,0-1,0-1,0 2,-1 0,2 0,-2 0,1 0,-1 1,0-1,0 1,0-1,0 0,-1 1,3 6,3 9,0 0,-1 2,-1-2,6 39,-7-29,13 40,-11-44,-1 0,0 0,-2 0,0 36,-4-57,0-1,-1 1,1-1,-1 0,0 0,0 0,0 0,-1 0,1 0,-2 1,1-2,0 1,0-1,0 1,0 0,0-1,-4 3,-1 0,1-1,0 0,-1-1,0 1,0-1,0 0,-13 3,-6 0,-2-2,2 0,-44 0,52-3,-58 2,0-3,-116-13,169 10,0-2,1-1,0-2,0 1,0-1,2-2,-38-22,28 13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23746.37">1 434,'48'0,"-12"-1,-1 2,46 5,-69-3,0-2,0 2,0 1,-1 0,1 0,-1 2,0-1,0 0,0 1,12 11,-16-12,-1 0,1 1,-1 0,-1-1,0 2,1 0,-1-1,-1 1,0 0,0 0,5 13,-5-5,-1-1,-1 2,0-1,-1 0,-2 18,1 8,-2 0,-16 79,15-106,-1 1,-1-2,0 1,-2-1,1 1,-1-2,-1 1,-1-1,1 1,-2-2,-20 19,28-27,-1 0,0-1,-1 1,1-1,0 1,0-1,0 0,-1-1,1 0,-2 1,2-1,-1 0,1 0,-1 0,0 0,-1 0,1-1,1 0,-1 0,0 0,-1 0,1 0,1-1,-1 0,0 0,0 0,0 0,0 0,-6-3,5 0,-1 0,1 0,0-1,1 0,0 0,-1 1,1-1,0 0,1-1,0 0,0 1,-1-1,2 0,0 0,0 1,-2-14,2 9,0 0,1-1,1 1,-1-1,2 1,-1-1,2 0,-1 1,6-17,-5 22,0 1,1-1,0 0,0 1,-1 0,2 0,-1-1,0 1,2 0,-1 1,0 0,0 0,0-1,0 1,2 1,-2-1,1 0,0 1,1 0,-1 0,10-1,7 0,-1 0,1 1,0 1,-1 1,1 0,0 2,-1 1,1 0,-1 0,0 3,0 0,24 9,24 14,-1 3,68 43,-129-71,119 65,-93-51</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24795.01">1384 536,'0'0,"0"-1,0 1,0 0,0-1,0 1,-1-1,1 1,0-1,0 1,0-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0 0,-2-1,2 1,-1 0,1-1,0 1,-1 0,1 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 1,-1-1,1 0,-1 0,1 1,-25 12,8 0,1 2,1-1,1 2,0 0,1 1,1 0,1 0,0 1,2 0,1 1,-1 1,3-1,-9 37,14-46,1 0,0 1,1-2,0 2,1-2,1 2,0-1,0-1,0 1,1 0,1-2,1 2,-1-1,10 12,-5-9,-1 0,2 0,-1-2,2 1,0-2,1 1,-1 0,1-2,19 10,-24-15,-2-1,1 1,1-1,-1 1,0-2,2 1,-2-1,0 0,2 0,-2-1,0 0,2-1,-2 1,0-1,2-1,6-2,-5 1,-1 0,0-1,0-1,-1 0,1 0,-1-1,0 1,0-1,-1-1,0 0,7-7,-3-1,1 0,-2 1,0-3,-1 2,-1-2,-1 1,0-1,-2-1,1 1,-2 0,-1-2,1-22,-4 35,1-10,-1-1,-1 1,0-1,-6-22,5 34,1 0,-1 1,-1 0,1-1,0 1,-1 0,0-1,0 1,0 0,0 1,-1 0,0-1,0 1,0-1,0 1,0 0,-1 1,1-1,-7-1,-22-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="25184.37">2076 893,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="26464.03">2159 714,'0'-1,"0"-2,1 1,-1-1,1 0,0 1,-1-1,1 1,0-1,1 1,-1 0,0 0,1 0,-1 0,1 0,0 0,0 0,1 1,-1-1,0 0,0 1,5-3,6-3,0 2,1-1,15-4,4-1,28-17,-40 16,1 3,0-1,1 2,0 0,28-4,-47 11,-2 1,1-1,-1 1,1 0,-1 0,1 0,0 1,-1-1,2 0,-2 1,1 0,-1 0,1-1,-1 2,0-1,1 0,-1 0,1 1,-1-1,0 1,3 1,-2 1,-1 0,1 0,-1 0,2 0,-2-1,0 1,-1 1,1-1,-1 1,2 8,-1 6,0-1,-2 0,0 2,-5 30,2-18,-2-2,-3 1,0-1,-1 1,-2-1,-1-1,-2 0,-2-1,0 0,-2-1,-27 31,40-53,-1 1,1-1,0-1,-1 1,-1-2,1 1,0 0,-1-1,1 1,-1-2,1 1,-2-1,1 1,-11-1,15-1,-1-1,1 0,0 0,-1-1,0 1,1-1,0 1,0-1,0 1,0-1,-1-1,1 1,0 0,0-1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,0-1,0 0,0 2,1-2,-1 0,0 0,1 1,0-1,0 0,0-1,0 1,-1-3,0 0,0 0,1 0,0 1,0-1,0 0,1 0,0 0,0 0,1 0,-1 0,1 0,1 1,-1-1,5-7,-4 10,0-1,0 2,0-2,1 1,0 0,-1 0,1 0,2 0,-2 1,0-1,0 1,1 1,0-1,0 0,0 0,0 1,0-1,0 1,0 0,1 0,-1 1,4-1,17-1,-1 2,0 0,0 2,1 0,42 10,-32-5,15-1,-28-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="27396.69">2740 0,'-2'28,"-2"0,0-1,-15 45,3-12,-20 64,-92 204,27-81,0 61,99-301,0 2,-1-1,0-1,-2 0,-2 8,-6 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="30248.59">3571 1199,'0'14,"0"64,0 37,0 32,0 14,0 6,0-4,0 0,0-10,-6-22,0-21,0-24,1-22,-3-19,0-12,1-11</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25888,14 +25937,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2674 317,'18'0,"21"2,0-3,0-1,0-2,75-18,-67 6,-34 11,0 0,0 0,1 1,0 1,0 0,0 1,0 1,20 0,-31 1,0 1,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 1,0-1,1 1,-2-1,1 1,0 0,0 0,-1 0,2 3,2 9,0 0,0 0,3 22,-4-17,12 53,-4 1,6 143,-17-213,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,0 0,0 0,0 0,0-1,-1 1,1 0,-1-1,0 1,0-1,-1 1,1-1,-1 0,1 0,-1 0,0 0,0-1,0 1,-7 3,-35 21,1 1,2 2,-53 49,30-25,-19 16,-100 76,178-141,-1 0,0-1,0 1,0-1,-1-1,-11 4,17-6,0-1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,0 1,-1-4,-3-13,1 0,1 0,0 0,1 0,1 0,1 0,0 0,2 0,0 0,1 1,1-1,0 1,1 0,1 0,1 1,0 0,1 0,1 1,0 0,19-20,-23 30,0 0,0 0,1 1,-1 0,1 0,0 1,0 0,1 0,-1 0,0 1,1 0,0 1,-1 0,1 0,0 0,0 1,0 0,-1 1,1 0,14 3,10 4,0 2,0 0,46 24,-57-24,16 6,0 3,44 29,-67-38,1 1,-2 1,0 0,0 1,-1 0,-1 1,18 26,-23-30,0 1,1-1,0 0,1-1,0 1,10 8,-16-17,0 1,1-1,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 0,1-1,0 1,-1-1,1 0,0 1,-1-1,1 0,-1-1,1 1,0 0,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,1-1,-1 1,0-1,0 1,0-1,0 0,4-3,15-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1344.47">4023 264,'-7'1,"0"0,0 0,0 0,0 1,0 0,0 1,1-1,-1 1,1 0,0 1,0 0,0 0,1 0,-1 0,1 1,0 0,-6 8,-9 11,1 2,-25 45,17-27,7-14,-22 47,36-63,0-1,2 1,-1 1,2-1,0 0,-1 21,1 28,3 1,3-1,3 0,16 72,-20-122,2 1,0-1,0 0,1-1,1 1,11 19,-14-28,0 1,1 0,0-1,0 0,0 1,0-2,1 1,0 0,-1-1,1 0,0 0,1-1,-1 1,0-1,1 0,-1 0,1-1,6 1,-1 0,1-1,-1 0,1-1,-1 0,1-1,-1 0,1-1,20-6,-27 6,1 0,-1-1,1 1,-1-1,0-1,0 1,-1-1,1 1,-1-2,0 1,0 0,0-1,0 0,-1 1,0-1,0-1,0 1,3-10,2-9,-2 1,0-1,-2 0,3-46,-8-103,-2 93,2 64,-1 1,0-1,-2 1,0 0,0 0,-1 0,-14-26,8 19,-1 2,-1 0,-1 1,-23-27,33 41,-1 1,1 1,-1-1,1 0,-1 1,0 0,0 0,-1 1,1-1,-8-1,-7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2635.45">4473 688,'2'1,"1"-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 1,0 0,0 0,0-1,-1 1,1 1,-1-1,1 0,-1 0,0 0,0 1,0-1,0 1,1 3,3 10,-1 0,4 33,-6-40,4 52,-4-30,12 58,-13-83,1 1,0 0,0-1,1 0,0 1,0-1,0 0,1-1,-1 1,2 0,-1-1,0 0,1 0,6 5,-8-9,-1 0,0 1,1-1,0 0,-1 0,1 0,-1-1,1 1,0-1,0 1,-1-1,1 0,0 0,0 0,-1 0,1-1,0 1,0-1,-1 0,1 0,0 1,-1-2,1 1,-1 0,0 0,1-1,-1 0,0 1,0-1,3-3,5-5,0 0,0 0,-2-1,15-22,-3 1,-2-1,-1 0,-1-1,-2-1,16-62,-26 71</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8686.75">1 0,'0'53,"27"627,-21-628,16 58,-18-95,1 1,0-1,1 0,1-1,0 1,1-1,0-1,11 14,-15-23,-1-1,1 1,0-1,0 0,0 0,0-1,0 1,1-1,-1 0,1 0,0 0,-1-1,1 1,0-1,0 0,0-1,0 1,0-1,0 0,0 0,0-1,-1 0,11-2,42 0,-51 4,0 1,0-1,0 1,0 0,0 0,0 1,-1-1,1 1,-1 0,10 8,49 47,-39-33,7 6,48 42,-73-67,0-1,0 0,1-1,0 1,0-1,0-1,0 0,1 0,11 2,-17-4,-1-1,1 0,0 0,0 0,0 0,0-1,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,-1 0,1-1,2-2,34-33,-37 34,27-33,-1-2,-2 0,-1-2,-3-1,-1-1,22-61,-7-9,30-158,-40 160,72-186,-93 283,-1 0,-1-1,0 1,-1-1,1-22,-2 14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10313.97">980 1270,'-18'0,"-9"0,0 0,0 2,0 1,-27 6,47-7,1-1,-1 2,1-1,-1 1,1 0,0 0,0 1,0-1,1 1,-1 1,1-1,0 1,0 0,0 0,1 0,0 1,0-1,0 1,1 0,-6 13,8-17,1 1,-1-1,0 1,0-1,1 0,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,1-1,0 1,-1-1,1 0,0 1,0-1,3 4,-1-3,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,-1 0,1 0,0 0,7 1,4 2,0-2,0 0,0-1,0-1,1 0,15-1,-23-1,-1 0,1-1,0 0,-1 0,1 0,-1-1,0 0,1 0,-2-1,1 0,0-1,-1 1,0-1,0 0,0-1,0 1,-1-1,0 0,-1-1,7-9,-1-2,-1 0,-1 0,-1 0,0-1,-1 0,6-38,-11 42,-6 25,-9 30,-9 52,-12 102,35-168,3-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11393.21">1351 741,'-13'293,"5"-231,-2-2,-31 105,28-126,-8 56,18-79,1 0,1 0,0 0,1 0,1 0,4 25,-5-39,1 0,-1 0,1 1,0-1,-1 0,1 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,1 0,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 1,4-2,-2 1,1 0,-1-1,0 0,0 0,0 0,1-1,-1 0,0 1,-1-1,1 0,0-1,-1 1,1-1,-1 0,1 0,2-4,10-16,-1-1,-1 0,-1-1,-2-1,0 0,12-46,-20 63,-1 0,0-1,0 0,0 1,-2-1,1 0,-1 0,-2-18,1 24,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,-1 1,1 0,-1-1,0 1,1 1,-1-1,0 0,0 0,0 1,0 0,-1 0,1 0,0 0,0 0,-1 0,-5 1,-16-3,1 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12019.83">1615 846,'4'0,"7"0,9 0,7 0,8 0,10 0,4 0,-4 0,-4 0,-4-4,-5-11,-7-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12884.31">1668 1085,'4'0,"2"5,5 1,8-1,7 0,2-2,2-1,0-1,-1 0,-1-1,0-1,-5 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2767 305,'19'0,"21"2,0-3,1-1,-1-2,78-17,-69 5,-36 11,1 1,-1-1,2 1,-1 1,1 0,-1 1,1 1,20 0,-32 1,0 1,0 0,0 0,0 0,0 1,0-1,1 1,-1-1,0 1,0 0,-1 0,1 0,-1 0,0 1,0-2,1 2,-2-1,1 1,1 0,-1 0,-1 0,2 3,2 8,0 0,0 1,4 20,-5-15,12 50,-3 1,5 137,-17-204,-1 0,0 0,0 0,0 0,0-1,0 1,-1 0,0 0,0 0,0 0,0-1,-1 0,1 1,-1-1,0 1,0-1,-1 1,1-1,-1-1,0 1,0 0,0 0,0-1,0 1,-7 3,-37 20,2 0,1 3,-54 47,31-24,-20 15,-104 74,185-137,-1 1,0-1,-1 1,1-1,-1-1,-12 3,18-5,0-1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1-1,-1 1,2-1,-1 1,1-1,-1 1,1 0,0-1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,0 1,-1-3,-4-14,2 1,1 0,0-1,1 1,1 0,1 0,0-1,2 1,0 0,2 0,0 0,0 1,1-1,1 1,2 1,-1-1,1 1,2 1,-1-1,20-19,-24 30,0-1,1 0,0 1,-1 0,1 1,0 0,1 0,0 0,-1 0,0 1,2 0,-1 1,-1 0,2 0,-1 0,0 1,0 0,0 1,0 0,15 3,10 4,0 1,0 1,48 23,-60-24,18 7,-1 2,46 28,-70-36,2 0,-3 2,1-1,-1 2,0-1,-2 2,19 24,-24-28,0 0,2 0,-1 0,1-2,1 2,9 7,-16-16,0 1,1-1,-1 1,1-1,0 0,-1 0,0 0,1 0,-1 0,1-1,0 1,-1-1,1 0,0 1,-1-1,2 0,-2-1,1 1,0 0,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,2-1,-2 1,0-1,0 1,0-1,0 0,4-3,16-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1344.47">4163 254,'-7'1,"0"0,-1 0,1 0,0 0,0 1,-1 1,2-1,-1 1,1 0,-1 1,1 0,0-1,1 1,-1 0,1 1,-1 0,-5 7,-10 11,2 2,-27 44,18-27,7-13,-22 45,37-61,0 0,1 0,0 1,2 0,0-1,-1 21,1 27,3 0,3 0,3-1,17 70,-21-118,2 2,0-2,0 1,2-2,0 2,11 18,-14-28,1 2,0 0,0-1,0 0,0 0,0-1,1 1,1 0,-2-1,1 0,0 0,1-1,-1 0,1 0,0 0,-1 0,1-1,7 1,-2 0,1-1,0 0,0-1,0 0,0-1,-1 0,2-1,20-6,-28 7,1-1,-1-1,2 1,-2-1,0-1,0 1,-1-1,2 1,-2-1,0 0,0 0,0-1,0 0,-1 2,0-2,1-1,-1 1,3-9,2-9,-2 1,1-1,-3-1,3-43,-8-99,-2 89,2 62,-1 0,0 0,-3 0,1 1,0 0,-1-1,-15-24,9 18,-1 1,-2 1,0 1,-25-26,35 39,-1 1,1 1,-1-1,1 1,-2 0,1 0,0 0,-1 1,1-1,-9-1,-6-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2635.45">4629 661,'2'1,"1"-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,1 1,0-1,-1 0,0 1,0-1,0 1,0-1,0 1,0-1,-1 1,1 1,-1-1,1 0,-1 0,0 0,0 1,0-1,0 1,1 2,4 11,-2-1,4 32,-6-38,4 49,-4-28,13 56,-14-81,1 2,0 0,0-1,1-1,0 2,0-1,1 0,0-1,-1 0,2 1,-1-1,0 0,1-1,7 6,-9-9,-1 0,0 1,1-1,0 0,-1 0,1 0,0-1,0 1,0-1,0 1,-1-1,1 0,0 0,0 0,-1 0,1-1,1 1,-1-1,-1 0,1 0,0 1,-1-2,1 1,-1 0,0 0,1-1,-1 0,0 1,1-1,2-3,5-4,0-1,1 1,-3-2,16-21,-3 2,-3-2,0 0,-2 0,-1-2,16-59,-27 68</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8686.75">1 0,'0'51,"28"602,-22-603,17 56,-19-92,1 2,0-2,2 1,0-2,0 2,1-2,1-1,10 14,-15-22,0-1,0 1,0-1,0 0,0 0,0-1,0 0,2 0,-2 0,1 0,0 0,-1-1,1 1,1-1,-1 0,0-1,0 1,0-1,0 0,1 0,-1-1,-1 0,11-2,44 0,-52 4,-1 1,0-1,0 1,0 0,1 0,-1 1,-1-1,1 0,-1 1,11 8,50 45,-40-32,7 5,50 42,-76-66,0 0,1 0,0-1,0 1,1-1,-1-2,0 1,1 0,12 2,-18-4,-1-1,1 0,0 0,1 0,-1 0,0-1,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,0-1,2-2,35-31,-38 32,28-32,-1-1,-2-1,-1-1,-3-1,-2-2,24-58,-8-8,32-153,-43 154,76-178,-97 272,-1-1,-1 0,0 0,-1 0,2-22,-3 14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10313.96">1014 1220,'-19'0,"-8"0,-1 0,0 2,0 1,-28 6,49-7,0-1,0 2,1-1,-1 0,0 1,1 0,0 1,0-1,1 1,-2 1,2-2,0 2,0 0,0 0,1 0,-1 0,1 0,0 1,1 0,-6 12,8-16,1 1,-1-1,0 1,0-2,1 1,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,1-2,0 2,-1-1,1 0,0 1,0-1,3 4,-1-3,0 0,0-1,0 1,0 0,2-1,-2 1,1-1,-1 0,1 0,0 0,8 1,3 1,1-1,-1 0,1-1,-1-1,2 0,15-1,-24-1,-1 0,2-1,-1 0,-1 0,1 0,0-1,-1 1,1-1,-2-1,2 0,-1-1,-1 1,0 0,1-1,-1-1,0 1,-1-1,0 1,-1-2,8-8,-2-3,0 1,-2 0,-1-1,0 0,-1 0,7-37,-12 41,-6 23,-10 30,-9 49,-12 99,36-162,3-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11393.21">1398 712,'-13'282,"4"-223,-1-1,-32 100,28-120,-8 53,19-75,1-1,1 0,0 1,1-1,1 0,4 25,-5-38,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,2 0,-2 0,0 0,1-1,-1 1,1 0,-1-1,1 1,0-2,0 1,0 1,0-1,0 0,0 0,0 0,0 0,1-1,-1 1,0-1,0 1,1-1,-1 0,0 1,4-2,-2 1,2 0,-2-1,0 0,0 0,0 0,1-1,-1 0,1 1,-2 0,1-1,0-1,-1 1,1-1,-1 0,1 0,3-4,9-15,0-1,-2 0,0-1,-3-1,0 0,13-44,-21 60,-1 1,0-2,1 0,-1 2,-2-2,1 1,-1-1,-2-17,1 23,-1 1,1 0,0 1,0-1,-1 0,1 0,-1 0,0 0,0 0,0 0,0 2,0-2,-1 1,1 0,-1-1,-1 1,2 1,-1-1,0 0,0 0,0 1,0 0,-1 0,1 0,0 0,-1 0,0 1,-5 0,-17-3,1 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12019.83">1671 813,'4'0,"8"0,8 0,8 0,9 0,9 0,5 0,-5 0,-3 0,-5-4,-5-10,-7-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12884.31">1726 1043,'4'0,"2"4,6 2,7-1,8 0,2-2,2-1,0-1,-1 0,-1-1,0-1,-5 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -25982,7 +26031,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">530 1304,'326'0,"-321"1,1-2,-1 1,0-1,1 1,-1-1,0-1,0 1,1-1,-1 0,0 0,-1-1,1 1,7-6,-10 6,0 0,0 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,0 1,0-1,0 0,0 1,0-1,0 0,-1 0,0 1,1-1,-1 0,0 0,0 0,-1 1,1-1,0 0,-1 0,0 1,0-1,-1-4,0 2,0-1,-1 1,1 0,-1 1,0-1,0 0,-1 1,1 0,-1 0,0 0,0 0,0 0,-1 1,1 0,-1 0,0 0,0 0,0 1,0 0,-6-2,-1 1,0 0,0 1,0 1,-1 0,1 0,0 2,-1-1,-13 3,22-2,0 0,0 0,1 0,-1 0,0 1,0-1,1 1,-1 0,1 0,-1 0,1 1,0-1,0 1,0 0,-4 5,2-1,1-1,-1 1,2 0,-1 1,1-1,0 1,-3 11,1 9,0 1,2 0,0 38,3-59,-1 9,1 0,1-1,0 1,1-1,6 22,-6-32,0-1,0 1,1-1,-1 1,1-1,1 0,-1 0,1 0,0-1,0 1,0-1,1 0,-1 0,1 0,0-1,0 1,9 3,4 0,0 0,0-1,0-1,1-1,0-1,0 0,0-2,32 0,-22-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1151.15">1350 1515,'10'-175,"-5"127,-5 46,0-1,1 0,-1 1,0-1,0 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,0 1,0-1,0 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0 0,-1-1,1 1,-5-1,-1 0,0 0,0 1,0 0,0 0,-1 1,1 0,0 1,-1 0,-8 2,10-1,0 0,0 0,1 1,0 0,-1 0,1 1,0 0,0 0,1 0,-1 1,1 0,0 0,0 0,1 0,0 1,-4 6,-8 13,2 1,-17 39,23-46,4-12,-4 10,0 1,0-1,2 1,0 1,1-1,1 1,1 0,-2 19,6-35,-1-1,0 1,0-1,1 1,-1-1,1 1,0-1,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,1 0,0 0,-1 0,1-1,0 1,0 0,0-1,2 2,1-1,1 1,-1-1,0-1,1 1,-1-1,1 1,-1-2,1 1,9 0,-3-1,0-1,0 0,0-1,-1 0,1-1,0 0,-1-1,0 0,14-7,-15 4,0-1,-1-1,1 1,-2-1,1-1,-1 1,-1-2,0 1,0-1,-1 0,0 0,-1-1,-1 1,0-1,0 0,-1 0,0-1,-1 1,-1-1,0 1,-1-1,-1-18,-8 7,3 25,1 18,-47 453,34-334,-29 186,39-273,11-37,5-16,11-22,-18 23,31-47</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1151.14">1350 1515,'10'-175,"-5"127,-5 46,0-1,1 0,-1 1,0-1,0 0,0 1,-1-1,1 0,-1 1,1-1,-1 1,0-1,0 1,0-1,0 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0 0,-1-1,1 1,-5-1,-1 0,0 0,0 1,0 0,0 0,-1 1,1 0,0 1,-1 0,-8 2,10-1,0 0,0 0,1 1,0 0,-1 0,1 1,0 0,0 0,1 0,-1 1,1 0,0 0,0 0,1 0,0 1,-4 6,-8 13,2 1,-17 39,23-46,4-12,-4 10,0 1,0-1,2 1,0 1,1-1,1 1,1 0,-2 19,6-35,-1-1,0 1,0-1,1 1,-1-1,1 1,0-1,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,1 0,0 0,-1 0,1-1,0 1,0 0,0-1,2 2,1-1,1 1,-1-1,0-1,1 1,-1-1,1 1,-1-2,1 1,9 0,-3-1,0-1,0 0,0-1,-1 0,1-1,0 0,-1-1,0 0,14-7,-15 4,0-1,-1-1,1 1,-2-1,1-1,-1 1,-1-2,0 1,0-1,-1 0,0 0,-1-1,-1 1,0-1,0 0,-1 0,0-1,-1 1,-1-1,0 1,-1-1,-1-18,-8 7,3 25,1 18,-47 453,34-334,-29 186,39-273,11-37,5-16,11-22,-18 23,31-47</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1666.6">1720 1145,'0'-4,"4"-7,7 0,14 0,12 3,9-1,1 0,-3 2,0 2,-3 2,-4 1,-3 2,-4 0,-6 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2296.63">1800 1489,'4'0,"11"0,11 0,11 0,8-4,1-7,-3 0,-5 0,-3 3,-4 3,-3 2,-1 2,-1 0,0 1,9-8,2-8,-4-1</inkml:trace>
 </inkml:ink>
@@ -26011,7 +26060,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'1110'0,"-1093"0,-1 0,0 1,0 1,0 1,0 0,0 0,0 2,-1 0,0 1,0 1,0 0,-1 1,15 10,5 5,-1 2,-1 1,-1 2,-2 1,0 1,-3 2,30 42,54 99,95 201,-194-344,0 0,7 37,13 34,-25-85,85 242,-77-209,-2 0,-2 0,4 72,20 138,-2-35,-18 549,-16-478,2-263,0-8,0 0,-4 26,2-42,0 1,0-1,0 1,-1-1,-1 0,1 0,-1-1,0 1,-8 9,-23 24,-2-1,-2-2,-69 52,-29 28,92-79,-94 63,56-45,-89 62,-51 38,202-142,-2 0,0-2,0-1,-1 0,-1-2,0-1,0 0,-1-2,1-1,-2-2,-47 4,-215 28,-41 2,176-35,124-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'1153'0,"-1135"0,-2 0,1 1,-1 1,1 1,0 0,-1 0,1 1,-2 1,1 1,0 1,-1-1,0 2,15 9,5 6,-1 1,0 1,-2 2,-2 0,0 2,-3 2,31 40,57 96,97 192,-200-330,-1 0,8 35,13 34,-26-83,89 233,-81-201,-1 0,-3 0,5 70,20 132,-2-34,-18 529,-17-460,2-254,0-7,0 1,-4 24,2-41,0 2,-1-1,1 0,-1 0,-1 0,1-1,-1 0,0 1,-9 8,-23 24,-3-2,-1-1,-72 49,-30 28,95-77,-98 61,59-43,-92 60,-54 36,210-137,-2 0,0-1,0-2,0 1,-2-2,0-2,0 1,-1-2,1-2,-2-1,-49 4,-223 27,-43 1,183-33,129-4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -26093,14 +26142,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">80 0,'0'5,"0"28,0 35,0 25,0 28,-5 38,-1 5,1-11,-9-23,-1-24,2-27,2-21,4-16,3-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1388.05">266 159,'0'-3,"1"0,0-1,0 1,0-1,0 1,1 0,0 0,-1 0,1 0,0 0,0 0,1 1,-1-1,0 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,1 1,3-2,9-4,1 0,0 2,18-5,-19 6,0 1,-1 0,1 1,0 0,0 2,27 1,-39 0,1 0,-1 0,0 0,0 0,1 1,-1-1,0 1,0 0,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 1,0-1,0 0,0 1,-1 0,1-1,-1 1,0 0,0 0,-1 0,1 1,-1-1,0 0,1 7,5 42,-2 0,-2 0,-3 0,-2 0,-15 87,15-127,-1-1,0 1,0-1,-1 0,-1 0,0 0,0 0,-13 18,13-23,-1-1,1 1,-2-1,1 0,0-1,-1 0,0 0,-1 0,1-1,-1 0,1 0,-1 0,-14 3,-14 0,0-1,0-1,0-3,-1 0,-40-5,69 3,8 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 1,14 12,40 23,-22-15,-17-9,0 1,-1 1,-1 0,0 1,-1 1,0 0,-1 0,-1 1,10 23,7 24,25 85,-29-75,29 80,-39-133,-13-21,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,0 0,1-1,-1 1,1-1,20-38,-21 39,20-47</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2120.25">795 926,'139'-2,"148"5,-273-1,-1 0,1 1,-1 0,1 1,19 10,-18-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2660.73">1086 979,'0'18,"0"24,0 23,0 14,0 11,-5 13,-1-2,0-14,1-12,2-15,1-13,1-10,5-25,20-54,6-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3188.62">1588 555,'4'-4,"7"-2,5 1,5 0,7 2,9 1,6 1,6 0,2 10,-2 3,-5 0,-5-2,-6-4,-7 3,-9 8,-7 11,-5 4,-4-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3799.37">1694 1111,'4'0,"7"0,5 0,5 0,7 0,18 0,5 0,3 0,-4 5,-5 1,-6-1,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12516.79">3732 238,'-11'1,"1"0,0 0,0 1,0 0,0 1,0 0,1 1,-16 7,-7 7,-34 25,25-15,-23 14,-414 258,452-285,0 2,-39 33,56-42,-1 2,1-1,1 1,-1 0,2 1,0 0,0 0,1 1,-6 13,0 15,1 0,2 1,2 0,-3 62,7 175,4-251,-1-18,-1 4,2 0,0 0,0 0,5 19,-4-28,-1-1,0 1,1 0,0-1,0 1,0-1,1 0,-1 1,1-1,-1 0,1-1,0 1,0 0,1-1,-1 0,0 1,1-2,5 4,38 12,1-2,0-2,92 12,-77-15,-54-8,22 4,0-1,0-2,53-1,-74-2,-1-2,1 1,0-1,-1-1,1 1,-1-2,0 1,0-1,0-1,-1 0,0 0,0 0,0-1,0 0,12-14,-7 4,-1-1,-1 1,-1-2,0 0,-1 0,-1 0,-1-1,-1 0,0-1,-2 1,0-1,-1 0,-1 0,0-34,-3 49,1-1,-1 1,1-1,-2 1,1 0,0 0,-1-1,0 1,-1 0,1 0,-1 1,1-1,-2 1,1-1,0 1,-1 0,0 0,0 0,0 1,-8-6,-5-2,-1 1,-1 1,1 1,-25-7,5 0,-49-21,28 11,-113-33,138 52,0 2,0 2,-1 1,-38 3,24 0,11-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14306.41">3917 1720,'0'-1,"0"1,1-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 1,-1-1,1 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,1 0,34-5,-29 4,219-14,-131 12,0-4,0-5,101-26,-192 37,0-1,-1 1,1-1,-1 0,0 0,1-1,-1 1,0-1,0 1,0-1,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,-1 1,1-1,-1 0,0 0,0 0,0 1,0-1,-1 0,1 0,-1-5,1-14,-1 0,-2 1,-5-36,4 38,-6-45,-3 0,-3 0,-3 2,-2 0,-34-71,43 110,0 0,2 0,1-1,1 0,2-1,0 0,-1-29,5 34,1 1,1 0,1-1,1 1,1 0,1 1,0-1,2 1,13-29,-6 17,2 1,0 1,38-48,-49 70,0 1,1 0,-1 0,1 1,1-1,-1 1,1 1,0-1,0 1,0 0,0 1,1 0,-1 0,1 0,0 1,0 0,0 1,0 0,0 0,1 0,9 2,-8 0,-1 1,0-1,0 2,0 0,0 0,-1 0,1 1,-1 0,0 1,0 0,0 0,-1 1,9 7,-6-2,-1-1,-1 1,1 1,-2-1,1 1,-2 1,0-1,5 15,1 11,-2 0,-1 1,-2 0,-2 0,0 55,-5-36,-2-1,-3 0,-2 0,-3-1,-2 0,-3 0,-2-1,-2-1,-3-1,-2-1,-2-1,-2-1,-36 46,61-92,0 0,0 0,0 1,1-1,-1 1,1-1,1 1,-1 0,-2 9,4-13,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,1 1,1 0,-1-1,0 1,1-1,-1 0,1 0,-1 0,1-1,-1 1,1 0,0-1,3 1,227 13,-143-2,143 37,-203-41,56 9,-56-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">84 0,'0'5,"0"26,0 34,0 24,0 26,-6 37,0 4,1-10,-10-22,0-23,1-26,2-20,5-15,3-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1388.05">278 152,'0'-3,"1"0,0-1,0 1,0-1,0 1,1 1,0-1,0 0,0 0,0 0,0 0,1 1,-1 0,0 0,1-1,0 1,-1 0,2 0,-1 0,0 0,0 0,1 1,4-1,8-5,2 0,0 2,18-4,-19 5,0 1,-1 0,0 1,1 1,0 1,28 1,-41-1,1 1,-1 0,0 0,1 0,0 1,-1-1,0 1,0 0,1 1,-2-1,1 1,-1-1,1 0,-1 1,0 1,1-1,-1 0,0 1,-1-1,1 0,-1 1,0 0,0 0,-1-1,1 2,0-1,-1 0,1 6,5 41,-2-1,-2 1,-3-1,-2 1,-16 82,16-120,-1-2,0 2,0-2,-1 1,-1-1,-1 0,1 1,-14 16,14-21,-1-1,1 0,-3 0,2 0,0-1,-2-1,1 1,-1 0,0-1,0 0,1-1,-2 1,-14 3,-14 0,-1-2,0 0,1-3,-2 0,-41-5,71 3,9 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,0 0,0 1,15 11,41 23,-22-15,-19-9,1 1,-1 2,-2-1,1 1,-2 2,1-1,-2 0,0 1,10 22,7 23,26 81,-30-71,31 76,-42-127,-13-20,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,2 0,-2 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1 0,0 0,1-1,-1 1,1-1,21-36,-22 37,21-45</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2120.25">831 883,'145'-2,"155"5,-285-1,-1-1,0 2,0 0,0 1,21 9,-19-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2660.73">1135 933,'0'17,"0"23,0 22,0 14,0 9,-5 14,-1-3,-1-13,2-12,2-13,1-14,1-8,5-25,21-51,7-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3188.62">1660 529,'4'-4,"8"-1,4 0,6 0,8 2,8 1,7 1,7 0,1 10,-2 2,-5 1,-5-3,-7-3,-7 3,-9 7,-7 10,-6 5,-4-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3799.37">1771 1059,'4'0,"8"0,4 0,6 0,7 0,20 0,4 0,3 0,-3 5,-6 1,-7-2,-8 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12516.79">3901 227,'-11'1,"0"0,1 0,-1 1,1 0,0 0,-1 1,2 1,-17 7,-8 6,-35 24,26-15,-24 14,-432 246,471-271,1 1,-41 32,59-41,-2 3,2-2,1 2,-2-1,3 2,0-1,-1 1,2 0,-6 13,-1 14,1 0,3 1,2 1,-4 58,8 167,4-240,-1-16,-1 3,2 1,0-1,0 1,6 17,-5-26,-1-1,0 1,1-1,0 0,0 1,0-1,1 0,-1 1,1-2,0 1,0-1,0 1,0 0,1-1,-1 0,0 1,2-2,4 3,40 13,1-3,0-2,97 12,-81-14,-57-9,24 5,-1-1,0-2,56-1,-77-2,-2-2,1 1,1-1,-2-1,2 1,-2-2,1 2,-1-2,0-1,0 0,-1 0,0 1,1-2,-1 0,13-13,-7 4,-2-1,0 0,-2-1,1 0,-2 0,-1 0,0-1,-2 0,0-1,-2 0,1 0,-2 0,-1 0,0-32,-3 46,1-1,-1 1,1 0,-2 0,1 0,0 0,-1 0,0 0,-2 0,2 0,-1 2,1-2,-2 1,1-1,0 1,-2 1,1-1,0 0,0 1,-9-5,-4-3,-2 2,-1 0,1 1,-26-6,5 0,-51-21,30 12,-119-33,144 51,1 1,-1 2,0 1,-41 3,26 0,12-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14306.41">4095 1640,'0'-1,"0"1,1-1,-1 0,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 0,0 1,-1-1,1 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,1 0,0 0,35-5,-29 5,228-15,-137 12,0-3,1-6,105-24,-201 35,0-1,-1 1,1-1,-1 0,1 1,0-2,-1 1,0-1,0 1,0-1,-1 0,2 0,-2 1,1-1,-1-1,0 1,0-1,-1 1,1 0,-1-1,0 0,0 0,0 1,0-1,-1 1,1-1,-1-5,1-13,-1 0,-2 1,-5-34,4 36,-6-43,-4 0,-3 0,-3 2,-1 0,-37-68,46 105,-1 1,3-1,0-1,2 0,2-1,0 0,-2-27,6 32,1 1,1 0,1-1,2 1,0 0,1 1,0-1,3 0,12-26,-5 15,2 2,0 0,39-45,-51 66,0 1,2 0,-2 1,1 0,1-1,0 1,0 2,0-2,1 1,-1 0,0 1,2 0,-2 1,1-1,1 1,-1 0,0 1,1 0,-1 0,2 0,8 2,-7 0,-2 1,1-1,-1 2,1 0,-1-1,-1 1,2 1,-2 0,0 1,1 0,-1-1,-1 2,10 6,-6-1,-2-2,-1 2,2 0,-3 0,2 0,-3 2,0-2,6 15,0 10,-1 0,-2 1,-2 1,-1-1,-1 52,-5-33,-2-2,-4 0,-1 1,-3-2,-3 0,-3 1,-1-2,-3 0,-3-2,-2 0,-2-2,-3 0,-37 44,64-89,0 1,0 0,0 1,1-1,-1 0,0 0,2 1,-1 0,-2 8,4-12,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 1,1 0,-1 0,1 0,0 0,-1-1,1 1,2 1,0 0,-1-1,0 1,1-1,-1 0,1 0,-1 0,1-1,0 1,0 0,0-1,3 1,238 12,-150-2,149 36,-211-39,58 8,-59-13</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -26130,7 +26179,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">245 159,'-8'1,"1"-1,-1 1,1 0,-1 0,1 1,0 0,0 1,0-1,0 1,0 1,0-1,1 1,-8 6,5-3,0 2,0-1,1 1,0 0,1 1,0 0,-9 17,5-5,1 1,1-1,2 1,0 1,1 0,1-1,-2 41,7-60,-2 148,3-137,0 0,1 0,1 0,1 0,0 0,0-1,14 26,-15-35,0-2,1 1,0 0,0-1,0 0,0 0,0 0,1 0,-1 0,1-1,0 0,0 0,0-1,0 1,0-1,0 0,0 0,0-1,0 1,8-2,1 2,0-1,0-1,0-1,0 0,0 0,21-8,-26 6,-1-1,1 0,-1-1,0 0,0 0,0-1,-1 1,0-2,-1 1,0-1,0 0,0 0,-1-1,0 1,-1-1,0-1,0 1,3-15,5-18,-3-1,8-79,-16 114,1-13,3-10,-2 0,-1-1,-2 1,-1-1,-7-46,2 58</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="379.62">694 794,'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="849.37">1065 238,'0'9,"0"26,0 20,0 41,0 18,0-2,0-14,0-21,0-27,0-22</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1715.67">1753 291,'-2'0,"-20"0,-1 1,0 0,-26 6,42-5,0 0,0 0,0 1,0 0,0 0,0 0,1 1,0 0,0 1,0-1,0 1,1 0,-8 9,0 4,0 1,1 0,2 1,0 0,1 1,1 0,0 0,2 1,1 0,0 0,2 0,1 0,0 1,2-1,0 1,4 24,-3-42,0-1,1 0,-1 1,1-1,0 0,0 0,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1-1,0 1,0-1,0 0,1 0,-1-1,0 1,1-1,-1 0,6 1,6 0,0-1,0 0,0-1,0 0,0-2,27-5,-38 6,0-1,0 0,0 0,0 0,-1-1,1 0,0 1,-1-2,0 1,0 0,0-1,0 0,-1 0,1 0,-1 0,0-1,0 1,-1-1,1 0,-1 0,0 0,-1 0,3-10,3-12,-2-1,-1 0,0-38,-2 46,1-198,-4 195,1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1715.66">1753 291,'-2'0,"-20"0,-1 1,0 0,-26 6,42-5,0 0,0 0,0 1,0 0,0 0,0 0,1 1,0 0,0 1,0-1,0 1,1 0,-8 9,0 4,0 1,1 0,2 1,0 0,1 1,1 0,0 0,2 1,1 0,0 0,2 0,1 0,0 1,2-1,0 1,4 24,-3-42,0-1,1 0,-1 1,1-1,0 0,0 0,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1-1,0 1,0-1,0 0,1 0,-1-1,0 1,1-1,-1 0,6 1,6 0,0-1,0 0,0-1,0 0,0-2,27-5,-38 6,0-1,0 0,0 0,0 0,-1-1,1 0,0 1,-1-2,0 1,0 0,0-1,0 0,-1 0,1 0,-1 0,0-1,0 1,-1-1,1 0,-1 0,0 0,-1 0,3-10,3-12,-2-1,-1 0,0-38,-2 46,1-198,-4 195,1-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2599.52">1567 529,'-10'10,"-17"18,-34 44,53-60,0 1,1 0,0 0,1 0,0 1,1 0,-3 15,2-6,-19 99,23-109,0 1,2-1,-1 1,2-1,-1 1,6 23,-5-34,0 0,1 0,-1-1,1 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 1,-1-1,1 0,0 0,0 0,-1 0,1-1,0 1,0-1,4 0,10 1,0 0,0-2,22-3,-31 3,-1 1,0-1,0 0,0-1,0 0,-1 0,1 0,-1-1,1 0,-1 0,0-1,0 0,0 0,-1 0,0 0,1-1,-1 0,-1 0,1-1,4-7,-3 3,-1 0,-1-1,0 1,0-1,-1 0,0 0,-1 0,0-1,-1 1,0-1,-1-13,-1 6,1-14,-9-62,2 65</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3155.16">2335 635,'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4167.46">2679 291,'8'0,"1"-2,-1 1,0-1,14-4,25-6,-43 12,0-1,0 1,0 0,0 0,0 1,0 0,0-1,0 1,-1 0,1 1,0-1,0 1,-1-1,1 1,-1 0,1 1,-1-1,4 4,-2 0,0-1,0 1,-1 0,0 0,0 1,-1-1,0 1,0 0,3 10,1 11,-2 0,0 0,-2 0,-1 36,0-6,-4 157,0-194,0-1,-2 1,0-1,-2 1,0-1,-1-1,-19 38,19-47,0 0,-1-1,-1 0,0 0,0-1,0 0,-1-1,0 0,0 0,-1-1,0-1,0 0,-1 0,1-1,-1 0,0-1,0 0,-19 1,29-4,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0-1,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,1 1,0 0,-1-1,1 1,-2-4,0 1,1-1,0 1,0-1,0 0,0 0,1 0,-2-10,1 1,1 1,1-1,0 0,1 0,3-18,-3 26,0-1,1 1,0 0,0 0,1 0,0 0,0 0,0 0,1 1,-1 0,1-1,0 1,1 1,0-1,-1 1,1-1,8-3,-8 5,0 0,0 1,0 0,1 1,-1-1,1 1,-1 0,1 0,0 0,-1 1,1 0,-1 0,1 1,0-1,-1 1,1 0,-1 1,1 0,-1-1,7 5,15 7,0 1,-1 2,41 31,-38-24</inkml:trace>
@@ -26188,35 +26237,35 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">12014 291,'35'1,"0"0,0 3,0 1,-1 1,0 2,0 1,0 2,-1 1,-1 2,0 1,53 34,-79-44,-1-1,1 1,-1-1,-1 1,1 1,-1-1,0 1,0-1,0 1,-1 0,0 1,0-1,-1 1,0-1,0 1,0 0,-1-1,0 1,0 0,-1 0,1 0,-2 0,1 0,-1 0,0 0,0-1,-1 1,0 0,-5 11,5-14,1-1,0 1,0 0,0 0,0 0,1 0,0 0,-1 0,1 0,1 0,-1 0,1 0,-1 0,3 6,-1-5,1 1,0-1,0 0,1 0,-1 0,1-1,0 1,0-1,7 5,0 3,-1-1,0 2,0 0,-2 0,1 0,-2 1,0 0,0 1,-1 0,-1 0,-1 0,0 0,2 19,0 12,-2 0,-2 0,-5 60,3-103,1 0,-1 0,-1 0,1 0,0 1,-1-1,1 0,-1 0,0 0,0 0,-1 0,1 0,0 0,-1-1,0 1,1 0,-1-1,0 1,-1-1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 0,0 1,0-1,0-1,0 1,0 0,0-1,0 0,-5 0,-89 5,-141-12,212 5,25 2,-97-11,91 10,-1 0,1-1,0 0,1-1,-1 0,0 0,1 0,-1-1,1 0,0 0,-6-5,2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1970.12">7833 1931,'3591'0,"-1860"0,-1584-9,1382-36,-1511 45,-26 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3088.51">10876 2328,'-9'2,"0"-1,0 2,0-1,1 1,0 0,-1 1,1 0,0 0,1 1,-1 0,-6 6,-11 5,8-6,-27 16,1 1,1 2,-74 69,105-87,2 0,-1 1,1 0,1 1,1-1,-1 1,-8 26,12-29,2 0,-1 0,2 1,-1-1,1 0,1 1,0-1,0 1,1-1,0 1,1-1,4 14,-4-16,1-1,-1 1,1-1,1 0,-1 0,1-1,0 1,1-1,0 0,0 0,0 0,0 0,1-1,0 0,0 0,1-1,-1 0,1 0,0 0,0-1,0 0,1 0,9 2,12 0,0-2,0 0,0-2,56-4,-19 0,-58 3,-1-1,1 0,0 0,-1-1,0 0,1 0,-1 0,0-1,0 0,0-1,-1 0,1 0,-1 0,0-1,0 0,0 0,-1 0,1-1,-1 1,-1-1,1-1,-1 1,0-1,-1 1,1-1,-1 0,-1-1,4-12,-5 18,0-1,-1 0,1 1,-1-1,0 0,1 0,-1 1,0-1,-1 0,1 0,0 1,-1-1,0 0,1 1,-1-1,0 0,0 1,-1-1,1 1,-3-4,0 2,1 0,-1 0,0 1,-1 0,1-1,-1 1,1 1,-1-1,0 1,-5-2,-13-4,0 2,-1 1,-41-4,65 8,-23-2,-1 1,1 1,-1 1,-46 7,46-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12238.04">12993 1481,'0'-1,"1"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 1,1-1,-1 1,0-1,1 1,-1 0,1 0,-1-1,0 1,3 0,2-1,218-55,-214 54,-1 0,0 0,0-1,0-1,16-7,-23 10,1-1,-1 0,0 0,0 1,0-1,1-1,-2 1,1 0,0 0,0-1,-1 1,1-1,-1 1,0-1,0 0,0 1,0-1,0 0,-1 0,1 0,-1 0,0 1,0-5,-20-315,19 269,-1 23,1 0,2 0,8-50,-9 76,1 1,0-1,1 0,-1 1,1 0,-1-1,1 1,0 0,0-1,1 1,-1 1,1-1,-1 0,1 0,0 1,0 0,0-1,0 1,5-2,-2 2,0-1,1 1,-1 1,1-1,0 1,-1 0,1 1,0-1,-1 1,10 2,-3-1,0 1,0 1,0 0,-1 1,0 0,0 1,0 0,0 1,-1 0,0 1,12 9,-15-8,0 0,-1 0,0 0,0 1,-1 0,0 0,0 1,-1-1,-1 1,1 1,-2-1,1 0,-2 1,1 0,-1 0,-1 0,0 0,0 0,-1 0,-2 12,-1 31,0-39,2 0,0 1,0-1,2 1,0-1,1 1,0-1,9 28,-9-39,0-1,1 1,-1-1,1 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,1 0,0 0,4 1,62 20,-52-18,200 53,-177-49</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13977.19">11564 3095,'0'-1,"0"0,1 1,0-1,-1 0,1 0,-1 0,1 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,2-1,28-7,-24 6,30-6,70-5,-77 11,0-2,0 0,-1-2,33-12,-57 17,0-1,0 0,-1 0,1 0,-1-1,0 0,0 0,0 0,0 0,0 0,0-1,-1 0,0 0,0 0,0 0,0 0,0-1,-1 1,3-8,-3 2,0 0,-1 0,0 0,0 0,-1-1,-1 1,0 0,-3-16,-11-58,7 48,2 1,2-1,-1-64,5 97,0 0,1 1,-1-1,1 0,0 1,-1-1,1 1,0-1,1 1,-1 0,0-1,1 1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,3-1,0 0,-1 1,1 0,0 0,0 0,0 0,0 1,1 0,-1 0,10-1,-6 2,1 0,-1 0,0 1,1 0,-1 1,0 0,0 0,0 1,-1 0,1 0,14 9,-18-6,0-1,-1 1,0 0,0 1,0-1,-1 1,0-1,0 1,-1 0,0 0,0 0,1 11,7 19,-3-17,-2 0,0 1,-1 0,-1 0,-1 0,-1 32,-5 5,-12 63,15-117,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0-1,1 1,-1 0,1 0,-1-1,1 1,0-1,4 6,-1-4,0 0,1 0,-1 0,1-1,0 0,0 0,0 0,0-1,9 4,8 1,0-1,0-1,0-2,1 0,27 1,288-2,-301-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5516.32">8733 211,'0'0,"1"-1,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,1 1,40 8,-31-5,0 0,0 0,0 1,-1 0,0 1,0 1,0-1,-1 1,11 11,-14-12,-1 0,0 0,0 0,0 1,-1 0,0 0,-1 0,1 1,-1-1,-1 1,1 0,-1 0,-1 0,2 10,1 27,-2 0,-3 1,-1-1,-8 51,8-88,-1 0,1-1,-1 1,-1-1,1 0,-8 10,-10 23,21-39,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0-1,1 1,36 19,-22-13,-6-3,-1 1,1 1,-1 0,0 0,0 0,-1 1,0 1,0-1,-1 1,0 1,0-1,-1 1,0 0,-1 1,0-1,0 1,-1 0,0 0,-1 1,0-1,-1 1,3 19,-1 19,-1 1,-3 0,-1-1,-12 71,12-116,0 0,1 0,-1 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,-1 1,1 0,0-1,-1 0,0 0,0 0,-4 4,2-5,1 0,-1 1,1-2,-1 1,0 0,0-1,0 0,0 0,1-1,-1 1,-1-1,1 0,-7-1,-15-3,0-1,1-1,0-1,-42-17,66 23,0 1,0-1,1 1,-1-1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 1,0-1,1 0,-1 0,1 0,-1 1,1-1,-1 0,1 1,0-1,0 1,0-1,0 1,0-1,2-1,7-10,0 0,0 1,1 0,14-10,-19 16,39-35</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4376.4">9897 211,'-1'3,"0"0,0 0,0 0,0 0,0 0,0 0,-1 0,0-1,1 1,-4 3,-5 8,-4 13,-104 202,106-199,2-1,0 1,2 1,1 0,2 0,-2 42,13 404,-5-468,0 0,0 0,0 0,1 0,0 0,1 0,0-1,1 1,-1-1,9 12,-9-16,0 1,1-1,0 0,0-1,0 1,0-1,0 0,1 0,-1 0,1 0,0-1,0 0,0 0,0 0,0-1,0 1,1-1,-1 0,6 0,35 0,-1-1,53-8,-94 8,-1-1,1 1,-1-1,1 1,-1-1,1 0,-1-1,0 1,0 0,0-1,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,-1-1,0 1,1-1,-1 0,0 0,-1 0,1 0,-1 0,3-6,-2-3,1-1,-2 0,0 0,0 0,-2-24,0 18,0 10,0 1,-1-1,0 1,-1 0,0 0,0 0,0 0,-1 0,0 1,-1-1,0 1,0 0,0 1,-1-1,0 1,0 0,-14-9,7 5,-1 0,0 1,-1 1,0 0,0 1,-1 0,0 2,-22-6,14 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3776.37">8415 1455,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2670.11">10320 820,'1'1,"1"-1,-1 1,1 0,0 0,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 1,-1 0,1-1,-1 1,1 2,2 3,54 139,47 185,-102-324,2 9,1 1,0-2,1 1,8 15,-13-29,0 1,1-1,-1 0,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1-1,0 0,4-1,3-3,-1 0,1-1,-1 0,0 0,0-1,-1 0,0-1,0 1,-1-1,0-1,0 1,7-15,7-17,22-63,-33 80,19-54,6-14,72-141,-94 212</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17566.42">8098 344,'-5'1,"0"0,0-1,0 2,0-1,0 0,0 1,1 0,-1 0,0 1,1-1,0 1,-5 3,-47 45,43-38,-32 30,2 3,2 1,-65 100,89-118,1 0,2 0,1 1,1 1,1 0,2 1,2 0,0 0,-2 41,9-65,-4 141,5-131,0 0,1-1,1 1,0 0,2-1,7 20,-10-32,0-1,1 1,-1-1,1 1,0-1,1 0,-1 0,1-1,-1 1,1-1,0 1,1-1,-1 0,0-1,1 1,0-1,-1 0,1 0,0 0,0-1,0 0,0 0,0 0,1 0,-1-1,9 0,-6-1,0 0,0 0,1 0,-1-1,0-1,0 1,0-1,-1-1,1 1,-1-1,0 0,0-1,0 0,0 0,10-12,5-9,-1-1,-1-2,-1 0,-2-1,-1 0,-1-2,-2 0,-1 0,-2-1,11-59,1-25,-12 67,-2 0,4-91,-13-172,1 289</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19273.99">8415 1455,'-1'-2,"1"-1,-1 1,0-1,0 0,0 1,0 0,0-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 0,0 1,0-1,0 0,0 1,-4-3,5 3,0 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 1,1-1,-1 1,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,-1 1,1-1,0 1,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,-1 0,1 0,1 0,-3 2,3-2,0-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 0,1 1,0-1,0 0,0 1,-1-1,1 0,1 0,34 9,-32-9,0 0,0 0,-1-1,1 0,0 1,0-1,0-1,0 1,-1-1,1 1,6-5,-10 6,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,0 1,-1-2,0 1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,-1 0,-46-6,25 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50444.79">10056 3545,'0'1,"1"0,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1-1,0 1,0-1,-1 0,1 1,0-1,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0-1,-1 1,3-1,40-11,-34 10,11-4,-1 0,-1 1,1 1,-1 0,1 1,27 1,-43 1,1 2,-1-1,1 0,-1 1,1 0,-1 0,0 0,1 0,-1 0,0 0,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,0 1,1 0,-1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 1,-1-1,1 1,-1-1,0 1,0 5,-1 3,0 1,-1 0,-1 0,0 0,-1-1,0 0,-1 0,0 0,-1 0,0-1,-8 12,5-9,0 1,1 1,1-1,1 1,-9 33,11-13,2 0,3 59,1-50,-1-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51963.75">10162 4127,'4'0,"2"5,4 1,5 4,4 5,0 5,-5 2,-4 4,-3 0,-4 1,-2 1,-1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52418.11">10664 4021,'0'-4,"0"-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54050.83">10876 3783,'43'-10,"-10"0,-17 7,0-2,0 0,16-8,-20 8,0 0,0 0,1 1,0 1,24-3,-33 6,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,-1 0,1 1,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,3 7,2 3,-1 1,0 0,-1 1,-1-1,0 1,-1 0,-1 0,0 0,-1 0,0 1,-2-1,-1 17,-2-3,-1 0,-2 0,0-1,-2 0,-15 35,18-49,0 1,-1-2,-1 1,0-1,0 0,-1 0,-1-1,0 0,-17 14,25-25,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,0-1,0 1,-1-1,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,-1-1,1 0,0 0,0 1,0-1,0 0,0 0,0-1,0 1,0 0,1-1,-1 1,0-1,1 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1 0,0 0,0-1,0-2,0 4,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,2 1,49 6,-41-4,26 5,1 2,-2 1,0 3,0 0,-1 2,33 22,-61-34,0 0,1-1,0 0,-1 0,1-1,14 3,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56029.5">10373 3492,'-5'-4,"-1"25,-4 50,-10 44,-9 25,-10 11,2 16,3-2,2-7,3-17,6-28,11-33,17-30,12-28,13-27,9-39,-2-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57001.71">12490 0,'0'757,"15"-575,-4-87,11 82,-17-153,0-1,2 1,1-1,0-1,16 28,-22-45,1 0,0-1,1 1,-1-1,1 0,0 0,8 7,5 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71359.59">3785 5397,'-36'2,"1"1,0 1,1 2,-1 2,1 1,0 1,1 2,1 2,-36 19,58-27,1 1,-1 0,1 0,1 0,0 1,0 1,0-1,1 1,1 1,-1-1,1 1,1 0,0 1,0-1,-3 15,2-6,2 0,0 0,1 0,1 0,1 0,1 1,0-1,5 25,-4-39,0 0,1 0,0 0,0 0,0 0,1-1,-1 1,1-1,0 1,1-1,-1 0,1 0,0-1,0 1,0-1,0 1,0-1,1-1,0 1,6 2,12 6,1-2,-1-1,27 5,-37-9,74 15,0-4,1-3,0-5,144-5,-224-2,1-1,-1 0,0 0,0-1,0 0,0 0,0-1,0 0,-1-1,1 1,-1-1,0-1,0 1,-1-1,1-1,-1 1,0-1,0 0,5-8,-3 1,0 0,0-1,-2 1,0-2,0 1,-1-1,-1 0,-1 0,3-19,2-16,-3 1,-2-1,-4-68,0 100,-1 1,-1 0,0 0,-2 1,0-1,0 1,-2 0,0 0,-1 1,0 0,-1 0,-1 1,-15-18,12 17,0 2,-1 0,-1 0,0 2,-1-1,0 2,-19-10,28 17,0 0,0 1,-1 0,1 0,0 0,-1 1,1 0,-1 1,1-1,-1 2,1-1,-1 1,1 0,-1 0,1 1,0 0,0 0,0 1,0 0,-12 7,10-4,0 0,0 1,1 0,0 1,0 0,-13 16,-1 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71768.63">4791 5900,'4'-4,"2"-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="72192.52">5187 5238,'4'0,"2"18,0 24,-1 32,-6 8,-3 3,-1 1,1-14</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="73185.24">5796 5212,'-4'-2,"0"-1,1 1,-1 0,0 0,0 0,0 0,-1 1,1-1,0 1,-1 0,1 1,0-1,-1 1,1 0,-1 0,1 0,-1 0,1 1,0 0,-1 0,1 0,0 0,0 1,-1 0,1-1,0 2,1-1,-1 0,0 1,1 0,-1-1,1 2,-3 3,-2 7,2 0,0 1,1 0,0 1,2-1,-1 1,0 22,-2 114,6-147,0 0,0-1,0 1,0-1,1 0,0 1,-1-1,1 0,1 1,-1-1,1 0,0 0,-1 0,5 5,-4-6,1-1,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 0,0-1,1 1,-1-1,1 1,-1-1,4 0,5 0,0 0,-1-1,1 0,0-1,-1 0,0-1,1 0,-1-1,-1 0,1-1,14-8,-18 9,0-1,-1 0,0-1,1 0,-2 0,1 0,-1 0,0-1,0 0,0 0,-1 0,-1-1,1 1,-1-1,0 0,3-14,3-45,-9 63,0-1,0 0,-1 1,1-1,-1 1,0 0,0-1,-1 1,1 0,-1-1,0 1,-3-5,-8-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="74274.98">5822 5609,'-9'1,"1"0,-1 1,1 0,0 0,0 1,0-1,0 2,0-1,1 1,0 1,-1-1,1 1,-7 7,4-4,1 0,0 1,1 0,0 1,1-1,0 2,0-1,-8 18,11-18,0 0,1 0,1 1,-1 0,2 0,-1-1,1 1,1 0,1 13,-1-19,1 0,0 0,0 0,0 0,0 0,1-1,0 1,0 0,0-1,0 1,1-1,0 0,0 0,0 0,0 0,1 0,0-1,-1 1,1-1,0 0,8 4,-2-2,0-1,0 0,0-1,0 0,0 0,1-1,0-1,-1 1,1-2,0 0,14-1,-18 0,0 0,0-1,0 1,-1-1,1-1,-1 0,1 1,-1-2,0 1,0-1,-1 0,1 0,-1-1,0 1,0-1,0-1,0 1,4-8,1-4,0-1,-2 0,0-1,-1 0,-1 0,7-39,7-123,-20 176,1 2,0 0,-1 0,0-1,1 1,-1 0,0 0,-1 0,1 0,0 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,0 1,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,-1 0,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,-4 0,-11-3,1 0,0 2,-1 0,0 1,1 1,-1 0,0 1,-28 6,-4 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="75541.64">6563 5159,'-3'195,"6"208,-2-399,-1 1,0 0,1 0,0-1,0 1,1-1,-1 1,1-1,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,0-1,7 6,-7-7,0 0,0 0,0-1,0 0,0 1,1-1,-1-1,0 1,1 0,-1-1,1 0,-1 1,1-1,-1-1,1 1,-1 0,0-1,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0-1,3-2,30-22,-1-1,-1-2,-2-2,44-52,-39 43,-2-2,-2-2,-2-1,-1-1,-3-1,33-79,-43 75</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="76780.62">55 4762,'-2'2,"1"-1,0 0,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,-1 0,1-1,0 1,0 0,1 2,-2 2,-40 663,39-622,2 153,0-197,0-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 0,0 1,0-1,0 0,0 0,1 0,2 4,-3-5,0 0,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 0,0 1,1-1,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,3-1,0-1,0 1,1-1,-1 0,0 0,0 0,0-1,0 0,-1 1,1-1,-1-1,1 1,-1 0,0-1,5-7,24-44,-1-1,35-95,32-128,-18-41,-56 209,57-167,-71 254,0 1,17-26,-16 31</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78160.91">769 5529,'-12'0,"0"0,0 0,0 1,-1 0,-18 4,27-3,0-1,0 1,0 0,0 0,0 0,0 0,1 1,-1 0,1 0,0 0,-1 0,1 0,1 0,-1 1,0 0,-2 5,-4 6,1 1,1 0,1 1,0-1,1 1,0 0,2 1,-3 32,5-44,1 1,0-1,1 0,-1 0,1 1,0-1,1 0,0 0,0 0,0 0,0 0,1-1,0 1,1-1,-1 0,1 0,0 0,0 0,0-1,1 1,-1-1,1 0,0 0,1-1,-1 0,0 0,1 0,8 3,9 0,-1-2,1 0,-1-1,1-2,0 0,44-5,-20 2,-34 2,4 0,-1-1,1 0,31-8,-43 8,-1 0,0-1,0 1,1-1,-1 0,-1-1,1 1,0-1,0 1,-1-1,0 0,1-1,-1 1,0 0,-1-1,1 0,-1 0,1 1,2-8,1-8,0-1,0 0,-2 0,-1 0,2-35,-8-110,0 91,4 63,-2 0,0 0,0 0,-1 1,0-1,-4-11,5 20,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 1,0-1,-1 1,1-1,-1 1,0 0,0 0,1-1,-1 1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-3 1,-14 8,0 0,0 1,1 1,1 1,0 1,-22 21,9-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78818.43">1139 5371,'0'5,"0"14,-5 23,-5 35,-2 9,2-1,2-10,2-14,3-12,2-11,0-7,1-3,1-4,4-4,2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="79968.63">1536 5159,'1'195,"-13"354,10-528,0-11,1 0,0 1,1-1,0 0,2 16,-1-24,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0-1,0 1,-1-1,1 0,0 0,0 0,0 1,1-2,-1 1,0 0,0 0,0-1,1 1,-1-1,4 0,8 0,1 0,-1-1,0-1,-1 0,1-1,0-1,-1 0,1 0,-1-2,0 0,-1 0,0-1,0 0,0-1,-1-1,19-18,-21 19,0 0,0-1,-1-1,0 0,-1 0,0 0,0-1,-1 1,-1-2,0 1,0-1,-1 1,-1-1,0 0,-1-1,0 1,0 0,-2-1,0-17,0 28,0-1,0 1,-1 0,1-1,-1 1,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 1,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 1,-2 0,-11 4,1 0,-1 1,1 1,-25 14,30-15,-113 47,90-39</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="80514.63">2039 5371,'4'0,"6"-4,7-2,3 0,4 1,3 2,4 1,12 1,7 0,22 1,25 0,20 1,2-1,-13 0,-17 0,-32 0,-26 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81184.7">2330 5662,'9'0,"7"0,6 0,3 0,7 0,11 0,8 0,3 0,-2 0,-6 0,-11 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">12494 279,'36'1,"1"0,-1 3,0 0,0 2,-1 2,0 0,1 3,-2 0,-1 3,1 0,54 33,-82-42,-1-1,2 1,-2-2,-1 2,1 1,-1-1,1 0,-1 0,0 1,-1 0,0 0,0 0,-1 1,0-1,1 0,-1 1,-1-1,0 0,0 1,-1 0,1 0,-2-1,1 1,-1 0,0-1,0 0,-1 1,-1 0,-4 10,5-13,1-1,0 0,0 1,0 0,0 0,1 0,0 0,-1-1,1 1,1 0,-1 0,1 0,-1 0,3 5,-1-4,1 1,0-2,0 1,2 0,-2 0,1-1,0 0,0 0,8 5,-1 2,0 0,-1 1,0 1,-1-1,0 1,-2 0,1 1,-1 0,-1 0,-1 1,-1-1,1 0,1 19,0 11,-2 0,-2 0,-5 58,3-99,1-1,-1 1,-1 0,1 0,0 1,-1-1,1 0,-1 0,0-1,0 1,-1 0,1 0,0 0,-1-1,0 1,1 0,-1-2,0 2,-2-1,2 0,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,-1-1,1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 0,-6 0,-92 5,-146-12,220 6,26 1,-101-11,95 10,-2 0,2-1,0 0,0-1,0 0,0 1,1-1,-2-1,2 0,0 0,-7-4,3-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1970.12">8146 1850,'3734'0,"-1934"0,-1647-9,1437-34,-1571 43,-27 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3088.51">11310 2230,'-9'2,"0"-1,-1 2,1-1,1 1,-1 0,0 0,1 1,-1 0,2 1,-1 0,-7 5,-11 6,8-7,-27 16,0 1,1 2,-76 66,108-84,3 1,-2 0,2 1,1 0,0 0,0 0,-9 25,13-27,2 0,-1-1,2 2,-1-2,1 1,1 0,0 0,0 0,1 0,0 1,1-2,4 14,-4-15,2-1,-2 0,1 0,1 0,-1-1,1 0,0 1,2-1,-1-1,0 1,0 0,0 0,2-2,-1 1,0 0,1-1,0 0,0-1,0 1,0-1,1 0,0 0,10 2,12-1,0-1,0 0,0-2,59-4,-21 0,-59 3,-2-1,1 0,1 0,-2 0,0-1,1 0,0 0,-1-1,0 0,1-1,-2 0,1 1,-1-1,1-1,-1 0,0 0,-1 1,2-2,-2 1,-1-1,1 0,-1 0,0-1,0 1,0 0,-1-1,-1-1,4-11,-5 17,0-1,-1 1,1 0,-1-1,0 0,1 0,-1 1,0-1,-1 0,1 0,0 2,-1-2,0 0,1 1,-1-1,0 0,0 1,-1-1,1 1,-3-3,0 1,0 0,0 0,0 1,-1 0,1 0,-1 0,0 1,0-1,0 1,-5-2,-14-4,0 3,-1 0,-43-4,68 8,-24-1,-1 0,1 1,0 1,-49 6,48 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12238.04">13512 1419,'0'-1,"1"0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 1,1-1,0 1,-1-1,1 1,-1 0,1 0,-1-1,0 1,3 0,2-1,227-52,-222 51,-2 0,0 0,1-1,-1-1,17-6,-24 9,1-1,-1 0,0 0,0 1,1-1,0-1,-2 1,1 1,0-1,0-1,-1 1,1-1,-1 1,0-1,0 0,0 1,0-1,0 1,-1-1,1 0,-1 0,0 1,0-5,-20-301,18 257,0 22,1 1,2-1,9-48,-10 73,1 2,0-2,1 0,-1 1,1 0,-1-1,1 1,0 1,0-2,1 1,0 1,0-1,-1 0,1 0,0 1,0 0,0 0,0 0,6-2,-3 2,0-1,1 1,0 1,0-1,0 1,-1 0,2 1,-1-1,-1 1,11 2,-4-1,1 1,-1 1,1 0,-2 1,1 0,-1 0,1 1,-1 1,0 0,-1 0,13 10,-16-9,1 1,-2 0,0-1,1 2,-2 0,0-1,0 2,0-2,-2 2,1 1,-2-2,1 1,-2 0,1 1,-1-1,0 1,-1-1,0 1,-1-1,-2 13,-2 28,1-36,2-1,0 1,0 0,2 0,0-1,1 2,0-2,10 27,-10-37,0-1,1 1,-1-1,1 0,0-1,1 1,-1 0,0-1,0 1,1-1,-1 0,1 0,1 0,3 1,65 19,-55-18,209 52,-184-47</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13977.19">12026 2965,'0'-1,"0"0,1 1,0-1,-1 0,1 0,-1 0,1 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,3-1,28-7,-25 6,32-6,72-4,-80 10,0-2,0 0,0-1,33-13,-59 17,0-1,1 1,-2-1,1 0,-1-1,0 0,0 0,1 0,-1 0,0 0,0 0,-1-1,0 0,0 0,1 0,-1 0,0 0,-1 0,3-8,-3 3,0-1,-1 1,0-1,0 0,-1 0,-1 0,0 1,-3-16,-11-56,6 47,3 0,2 0,-1-62,5 93,0 0,1 1,-1 0,1-1,0 1,-1-1,1 1,0-1,1 1,-1 0,0-1,1 1,-1 1,1-1,0 0,-1 0,1 0,0 0,1 0,2-1,0 0,-1 1,1 0,1 1,-1-1,0 0,0 1,1 0,0 0,9-1,-6 2,2 0,-2 0,1 1,0 0,-1 1,1 0,-1 0,0 0,0 1,0 0,15 9,-19-7,0 0,0 1,-1 0,0 0,0 0,-1 1,0-1,0 0,0 1,-1 0,0-1,1 12,7 17,-3-16,-1 0,-1 2,-1-1,-1 0,-1 0,-1 31,-5 4,-13 61,16-112,1 0,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,2 0,-1-2,1 2,-1 0,1 0,-1-1,1 1,0-2,4 7,-1-4,1 0,0-1,-1 1,1-1,1 0,-1 0,0 0,0-2,10 5,8 1,0-1,0-2,0-1,0 0,30 1,298-2,-312-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5516.33">9082 202,'0'0,"1"-1,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 1,1 0,0 0,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,1 1,42 7,-33-4,1 0,-1 0,0 1,0-1,-1 2,1 1,-1-2,-1 2,12 10,-15-11,0 0,-1 0,0-1,0 2,-1 0,1 0,-2-1,1 2,-1-1,-1 0,1 1,-1 0,-1-1,2 11,2 25,-3 0,-3 1,-2-1,-7 49,8-84,-1-1,1 0,-1 1,-1-2,0 1,-7 9,-11 23,22-38,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1-1,0 1,1-1,0 1,37 19,-22-14,-7-2,-1 1,2 1,-2-1,1 1,-1 0,-1 1,1 0,-1 0,-1 1,0 0,1 0,-2 1,0-1,-1 2,1-2,-1 2,-1-1,0 1,-1 1,0-2,-1 2,4 17,-2 19,-1 1,-3 0,-1-1,-13 68,13-111,0 0,1 0,-1-1,-1 1,1 0,-1 0,1 0,-1 0,0-2,-1 2,1 0,0-1,-2 0,1 0,0 0,-4 3,2-4,1 0,-2 1,2-2,-1 1,0 0,0-1,-1 0,1 0,1-1,-1 1,-1-1,0 0,-6-1,-16-3,0-1,1-1,0 0,-44-17,69 22,0 1,0-1,1 1,-1-1,0 0,1 0,-2 0,2 0,-1 0,1 0,0 0,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,0 0,0 0,1-1,-1 0,1 1,-1-1,1 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 1,0 0,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 1,0-1,0 1,0-1,0 1,0-1,2 0,8-11,-1 1,0 0,2 1,14-10,-20 15,41-33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4376.4">10292 202,'-1'3,"0"0,0 0,0 0,0 0,0-1,0 1,-1 0,0-1,1 1,-4 3,-6 7,-3 13,-109 193,110-190,3-1,0 1,1 0,2 1,2 0,-3 40,15 387,-6-449,0 1,0-1,0 1,1 0,0-1,1 1,0-1,1 0,0 0,8 11,-9-15,0 1,1-2,1 1,-1-1,0 1,0-1,0 0,1 0,0 0,0-1,0 0,0 0,0 0,1 0,-1-1,0 1,1-1,-1 0,7 0,36 0,-1-1,54-8,-96 8,-2-1,1 1,-1-1,1 1,-1-1,1 0,0-1,-1 1,0 0,0 0,0-1,0 0,0 0,0 0,1 0,-2-1,1 1,-1-1,0 1,1-1,-1 1,0-1,-1 0,1 0,-1 0,3-6,-1-2,0-1,-2-1,0 1,0-1,-2-22,0 17,0 9,0 1,-1 0,-1 0,0 0,0 1,0-1,0 0,-1 1,0 0,-2-1,1 2,0-1,0 1,-1-1,-1 2,1-1,-15-8,8 4,-2 0,1 2,-2 0,1 0,-1 2,-1-1,1 2,-24-5,15 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-3776.38">8751 1394,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2670.11">10732 786,'1'1,"1"-1,-1 0,1 1,0 0,-1-1,2 1,-2 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 0,0 1,0-1,0 1,-1-1,1 1,0-1,0 0,-1 1,1-1,-1 1,1 2,2 3,57 133,48 177,-106-311,2 10,1 0,0-2,2 2,7 13,-13-27,0 1,1-1,-1 0,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,0-2,0 2,0-1,0 1,0-1,0 0,0 0,1 0,0 0,-1 0,1-1,-1 1,0-1,1 1,-1-1,1 0,-1 0,2 0,-2 0,1 0,-1-1,1 1,-1-1,0 0,4-1,4-3,-2 1,1-2,0 0,-1 0,0 0,0-1,-1-1,0 2,-1-2,1-1,-1 2,7-15,8-17,23-59,-35 76,20-52,7-13,74-136,-98 204</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17566.42">8421 330,'-5'1,"0"-1,0 0,0 2,-1-1,1 0,0 1,1 0,-1 0,-1 1,2-1,0 1,-5 2,-50 44,46-36,-34 28,2 3,3 1,-68 96,92-113,1-1,3 1,0 1,2 1,0-1,3 2,2 0,-1-1,-1 40,9-62,-4 135,5-126,0 0,1-1,1 2,0-1,2-1,8 20,-11-32,0 0,1 1,-1-1,1 1,1-1,0-1,-1 1,1-1,-1 1,1-1,0 1,2-2,-2 1,0-1,1 1,0-1,-1 0,2 0,-1 0,0-1,0 0,0 0,1 0,0 0,-1-1,10 0,-7-1,0 0,1 0,0 0,-1-1,1-1,-1 1,0-1,0-1,0 1,-1 0,0-1,1-1,-1 0,0 0,11-11,5-9,-1-1,-2-1,0-1,-2-1,-1 0,-2-1,-1-1,-2 0,-1 0,10-57,2-24,-12 64,-3 0,4-87,-13-165,1 277</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19273.99">8751 1394,'-1'-2,"1"-1,-1 1,0-1,0 0,0 1,0 1,0-2,-1 1,1 0,-1-1,0 1,0 0,0 0,0 0,0 1,0-1,0 1,0 0,-4-3,5 3,0 0,0 1,0-1,-2 0,2 0,0 1,0-1,-1 1,1-1,-1 1,1 0,0-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 0,-2 1,2-1,0 1,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,-1 0,1 0,1 0,-3 2,3-3,0 0,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0-1,1 1,-1 0,0 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 1,0-1,-1 0,1 0,0 0,0 0,0 1,-1-1,1 0,1 0,36 9,-34-9,0 0,0 0,-1-1,2 0,-1 1,0-1,0-1,0 1,-1-1,2 1,5-4,-10 5,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,0-1,1 1,-1-1,0 1,0-1,1 1,-1-1,0 1,0-1,0 1,1-1,-1 1,0-1,0 0,0 1,0-1,0 1,-1-2,0 1,0 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,1-1,-2 1,2-1,-1 1,-1 0,-48-6,26 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="50444.78">10458 3396,'0'1,"1"0,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1-1,0 1,0-1,-1 0,1 1,0-1,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,1-1,-2 1,3-1,41-11,-34 10,11-3,-2-1,0 1,1 1,-2 0,2 2,28 0,-45 1,1 2,-1-1,2 0,-2 1,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,-1 0,1 1,-1 0,-1 0,1 0,0 0,-1 0,1 0,-1-1,0 2,0-1,0 1,-1-1,1 1,-1-1,0 0,0 6,-1 2,0 2,-1-1,-1 1,0-1,-1 0,0-1,-2 1,1-1,-1 1,0-2,-9 12,6-8,-1 0,2 1,1 0,1 0,-10 32,12-12,2-1,3 57,1-48,-1-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="51963.75">10568 3954,'4'0,"2"4,5 2,4 4,5 4,0 5,-6 2,-3 4,-4 0,-4 1,-2 1,-1-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="52418.11">11090 3852,'0'-4,"0"-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="54050.83">11310 3624,'45'-10,"-11"1,-17 6,0-2,-1 0,18-7,-22 7,0 0,1 1,0 0,1 1,24-3,-33 6,-1 0,0 0,0 1,0-1,-1 1,2 0,-1 0,-1 0,1 1,-1-1,1 1,-1 0,1 0,0-1,-1 1,0 1,0-1,-1 1,1 0,-1 0,1 0,0 0,-1-1,3 8,2 2,-1 2,1-1,-2 2,-1-2,0 1,-1 1,-1-1,0 1,-1-1,0 1,-2 0,-1 15,-2-2,-1 0,-2 0,-1-2,-1 1,-16 34,19-48,0 1,-2-1,0 0,0 0,-1-1,0 1,-1-2,-1 1,-17 13,26-25,0 1,0 0,0 0,0 0,0 0,-1-1,0 1,1-1,0 1,-1-1,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,-2-1,2 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,0-1,0 0,0 1,1-1,0 0,-1 0,1 0,0 0,0 0,0 1,1-1,-1 0,0-1,1 1,-1 0,1 0,0 0,0-1,0-1,0 3,0 0,0 0,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,0-1,-1 0,1 0,0 0,0 1,0-1,0 1,1-1,-1 1,0-1,0 1,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,2 1,51 5,-42-3,26 5,2 1,-3 2,1 2,-1 1,-1 1,35 21,-64-32,1 0,0-1,0 0,0 0,0-1,15 2,-2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="56029.5">10787 3345,'-5'-4,"-1"25,-5 47,-9 42,-11 24,-9 11,1 14,4 0,2-8,3-16,6-27,11-31,18-29,13-27,13-26,10-37,-3-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="57001.71">12989 0,'0'725,"15"-550,-3-84,11 78,-18-146,0-1,2 1,2-1,-1-1,17 27,-23-43,1 0,0-1,1 0,0 0,0 0,0 0,8 6,6 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71359.59">3936 5170,'-37'2,"0"1,1 1,1 2,-2 1,2 2,-1 0,2 3,1 1,-38 19,61-26,0 0,0 1,1 0,0 0,1 0,0 2,-1-1,2 0,1 2,-1-2,0 2,2-1,0 2,0-1,-4 14,3-6,2 0,0 0,1 0,1 1,1-1,1 1,0-1,5 24,-4-37,0 0,1 0,0-1,0 1,0 0,1-1,-1 1,1-2,1 2,0-1,-1 0,1 0,0-1,0 0,1 0,-1 1,0-1,1-1,0 1,7 2,12 5,1-1,-2-2,29 6,-38-9,76 14,1-4,0-2,1-5,149-6,-232-1,0-1,-1 1,1-1,-1-1,0 0,0 0,1-1,-1 0,-1-1,2 1,-2 0,0-2,1 1,-2-1,1-1,-1 2,1-2,-1 0,5-7,-2 0,-1 1,0-2,-2 2,1-2,-1 0,-1 0,-1-1,-1 1,4-19,1-14,-3 0,-2-1,-4-65,0 95,-1 2,-1 0,0 0,-2 0,-1 0,1 1,-2-1,0 1,-2 1,1-1,-1 1,-2 0,-15-16,13 15,-1 3,0-1,-2 1,1 1,-2 0,0 1,-19-9,29 16,-1 1,1 0,-1 0,0 0,1 0,-1 1,1 0,-2 1,2-1,-1 2,0-1,0 1,1 0,-2 0,2 1,0 0,0 0,-1 0,1 1,-13 7,11-4,0-1,-1 2,2 0,0 0,-1 1,-13 15,0 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="71768.63">4982 5652,'4'-4,"3"-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="72192.52">5394 5018,'4'0,"3"17,-1 23,-1 31,-6 8,-3 2,-1 2,0-14</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="73185.23">6027 4993,'-4'-2,"0"-1,1 1,-1 0,0 0,0 1,-1-1,0 1,1-1,0 1,-1 0,0 1,1-1,-1 1,1 0,-1 0,1 0,-2 0,2 1,0 0,-1 0,1 0,0 0,-1 1,0 0,1-2,0 3,1-1,-1 0,-1 1,2 0,-1-1,1 2,-3 2,-3 8,3-1,0 2,1-1,0 1,1 0,0 0,0 21,-2 110,6-141,0 0,0-2,0 2,0-1,1 0,0 1,-1-2,1 1,1 1,-1-1,1 0,0 0,-1-1,6 6,-5-6,1-1,-1 0,1 0,0 0,0-1,0 0,0 1,1-1,-1 1,0-1,1 0,-1 0,0-1,1 1,0-1,0 1,-1-1,4 0,6 0,-1 0,-1-1,2 0,-1-1,0 0,-1-1,2 1,-2-2,0 0,0-1,15-7,-19 8,1-1,-2 0,0-1,1 1,-1-1,0 0,-1 0,0 0,0-1,1 0,-2 1,-1-2,1 1,-1 0,0-1,4-13,2-43,-9 60,0-1,0 0,-1 1,1 0,-1 0,0 0,0-1,-1 1,1 1,-1-2,-1 1,-2-5,-8-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="74274.98">6054 5373,'-9'1,"1"0,-2 1,2 0,0 0,-1 1,1-1,0 2,0-2,0 2,1 1,-1-1,0 1,-6 6,3-3,2 0,0 0,0 1,1 0,1 0,-1 2,1-2,-8 18,10-17,1-1,1 1,1 0,-1 1,2-1,-1 0,1 0,1 1,1 12,-1-18,1 0,0-1,0 1,0 0,0 0,1-1,0 0,0 1,0-1,0 1,2-1,-1-1,0 1,0 0,0 0,1 0,0-1,-1 0,2 0,-1 0,8 4,-1-2,-1-2,0 1,1-1,-1 0,1 0,0-1,1-1,-2 1,1-2,1 0,14-1,-19 0,0 0,1-1,-1 1,-1-1,1-1,0 0,0 1,-1-1,0 0,1-1,-2 0,1 0,-1-1,1 2,-1-2,0-1,0 1,4-7,2-4,-1-2,-1 1,-1-1,-1 0,-1-1,8-36,7-119,-21 170,1 1,0 0,-1 0,0-1,1 1,-1 0,0 1,-1-1,1 0,0 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,-2 1,2-1,-1 0,0 1,0 0,0-1,0 2,0-1,-1 0,1 0,0 0,-1 0,-1 1,2-1,-1 1,0-1,0 1,0 0,0 0,-5 0,-10-2,0-1,0 2,0 0,-1 1,1 1,0 0,-1 1,-29 6,-4 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="75541.64">6825 4942,'-3'187,"6"199,-2-382,-1 1,0 0,1-1,0 0,0 1,1-1,-1 1,1-2,0 2,1-1,0 0,-1 0,1-1,0 1,0 0,0-1,8 6,-8-7,0-1,0 1,0-1,0 0,0 1,2-1,-2-1,0 1,1 0,-1-1,1 0,-1 1,1-1,0-1,0 1,-1 0,0-1,1 0,-1 0,0 0,2 0,-2 0,0-1,0 1,0 0,3-3,32-21,-2-1,-1-2,-1-2,45-49,-41 41,-1-3,-3-1,-2-1,-1-1,-2-1,33-76,-44 73</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="76780.62">57 4562,'-2'2,"1"-1,0 0,0 1,1-1,-1 1,0-2,0 2,1-1,-1 1,1-1,-1 1,1-1,0 1,-1 0,1-1,0 1,0 0,1 2,-2 1,-42 636,41-596,2 147,0-189,0-1,0 0,1 0,-1 1,1-1,-1 1,1-1,0 0,0 1,0-1,0 0,0 0,1-1,3 5,-4-5,0 0,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 0,0 1,1-1,-1 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,2-1,0-1,0 1,1-1,-1 0,1 0,-1 0,0-1,0 1,-1 0,1-1,-1-1,2 1,-2 0,0-1,5-6,25-43,0 0,35-92,34-122,-19-40,-58 201,60-161,-75 244,0 1,18-25,-16 30</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78160.9">800 5297,'-13'0,"1"0,-1 0,1 1,-2 0,-18 3,28-2,0-1,0 1,-1 0,1 0,0 0,0 0,1 1,-1 0,0-1,1 1,-1 0,1 0,1 0,-1 1,0 0,-2 4,-5 7,2 0,1 0,0 2,1-2,1 1,0 0,2 2,-4 30,6-43,1 2,0-1,1 0,-1-1,1 2,0-1,2-1,-1 1,0 0,0 0,0-1,1 0,0 1,1-1,-1 0,2-1,-1 1,0 0,0-1,1 1,-1-2,2 1,-1 0,1-1,-1 0,0 0,2 0,7 2,10 1,-1-2,1 0,-1-1,1-2,0 0,45-5,-20 2,-35 2,3 0,0-1,1 0,32-8,-45 8,-1 0,0-1,0 1,1 0,0-1,-2-1,1 1,0-1,0 1,-1-1,0 0,2-1,-2 2,0-1,-1-1,1 0,-1 0,1 1,2-7,2-8,-1-2,0 1,-2 0,-1 0,3-34,-9-105,-1 87,5 61,-2-1,0 1,0-1,-1 2,0-2,-4-10,5 19,0 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,0-1,-2 1,2-1,-1 1,0 0,0 0,1-1,-1 1,0 0,0 1,0-1,0 0,0 0,0 1,-1-1,1 1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,0 0,-3 1,-15 8,1-1,-1 2,1 0,1 2,1 0,-24 21,10-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="78818.42">1184 5145,'0'5,"0"13,-5 23,-5 32,-3 10,3-2,2-9,1-14,4-11,2-10,0-8,1-2,1-4,4-4,3-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="79968.63">1597 4942,'1'187,"-13"339,10-506,0-10,1-1,0 2,1-2,0 1,2 15,-1-23,0 0,-1 1,1-2,0 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1 0,0-1,1 0,-2 0,1 0,0 0,0 0,0 1,1-2,-1 1,0 0,0 0,0-1,1 1,0-1,3 0,8 0,2 0,-2-1,1-1,-1 0,0-1,1 0,-2-1,2 0,-2-2,1 0,-2 1,1-2,-1 0,1 0,-2-2,20-17,-21 18,-1 1,0-2,0 0,-1-1,-1 0,1 1,-1-2,-1 2,-1-3,1 2,-1-2,-1 2,-1-2,0 1,-1-2,0 2,0-1,-2 0,0-17,0 27,0-1,0 1,-1 0,1-1,-1 2,1-1,-1 0,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,1 2,-1-2,1 0,-1 1,0-1,-1 1,1-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,0 1,-1-1,0 1,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 1,-3 0,-10 4,0 0,0 0,0 2,-26 13,32-14,-118 45,94-38</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="80514.63">2120 5145,'5'0,"5"-4,8-1,2-1,5 1,3 2,5 1,11 1,8 0,23 1,26 0,21 1,2-1,-14 0,-18 0,-32 0,-28 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="81184.7">2423 5424,'9'0,"8"0,6 0,3 0,7 0,12 0,8 0,3 0,-2 0,-6 0,-12 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -26272,11 +26321,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">729 77,'-9'1,"1"1,0-1,0 1,0 0,0 1,0 0,1 0,-1 1,1 0,0 0,0 1,-11 10,-5 0,-54 40,3 4,2 2,3 4,-99 118,144-153,1 1,-36 65,55-89,0 0,0 1,1-1,0 1,1-1,0 1,0 0,0 0,1 0,0 0,1 0,0 0,0 0,1 0,0 0,0 0,1 0,0 0,0 0,6 12,-5-15,1-1,0 1,-1-1,1 0,0 0,1-1,-1 1,1-1,0 0,0 0,0-1,7 4,73 21,-50-18,14 5,1-2,89 10,-110-20,0-1,0-1,0-1,0-2,0-1,41-11,-60 12,0-1,0 0,0-1,0 0,-1 0,0-1,0 0,0-1,-1 0,0 0,8-9,-6 3,0-1,-1 1,0-1,-1-1,-1 0,10-24,-5-3,-2 0,-1 0,-2 0,2-74,-8 95,3-50,-3 0,-14-128,12 191,-1 1,1-1,-1 0,-1 1,1-1,-1 1,-1 0,1 0,-1 0,-1 0,1 0,-1 1,0 0,0 0,-1 1,0-1,0 1,0 0,-1 1,1-1,-1 1,0 1,0-1,-1 1,-8-2,-23-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="627.99">1178 898,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3214">1602 130,'176'-13,"-28"1,-140 12,3-1,0 1,-1 0,1 1,0 0,11 3,-20-4,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 1,-1-1,0 1,1-1,-3 3,-10 18,-1 0,-1 0,0-2,-2 0,-1 0,-29 24,18-15,-53 51,81-79,0 0,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 1,0-1,0 0,-1 1,1-1,0 0,0 1,0-1,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 1,0-1,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,0 0,1-1,-1 1,0-1,2 2,7 4,2 0,-1-1,17 6,-23-9,16 5,0 1,0 1,-1 1,19 13,-33-19,0 1,-1-1,1 1,-1 0,0 1,0 0,-1-1,0 1,0 1,0-1,-1 1,0-1,0 1,-1 0,1 0,1 11,-2-8,-1 0,0 0,0 0,-1 0,0-1,0 1,-1 0,-1 0,0 0,-5 18,5-24,0 0,-1 0,1 0,-1-1,0 1,0 0,0-1,0 0,0 0,-1 0,0 0,1 0,-1-1,0 1,0-1,0 0,-1-1,1 1,0-1,-1 1,1-1,-1-1,1 1,-1-1,0 1,-5-2,-270-8,216 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3215">2739 25,'-3'1,"1"-1,-1 1,1 0,-1 0,1-1,-1 1,1 1,0-1,0 0,-1 1,1-1,0 1,0-1,1 1,-1 0,0 0,-1 3,-28 39,25-33,-21 32,2 1,3 0,1 2,2 1,2 0,2 1,3 1,1 0,3 0,1 1,1 67,6-97,0-10,0 0,0 0,1 0,0 0,3 12,-3-19,0-1,0 1,0 0,1-1,-1 1,1-1,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 0,1-1,-1 1,1-1,-1 1,1-1,0 0,-1 0,6 1,36 12,-31-9,0-1,0 0,1-1,21 2,-30-5,1 0,-1-1,0 1,0-1,0 0,0 0,0-1,0 1,-1-1,1 0,0-1,-1 1,0-1,1 0,-1 0,6-5,-5 3,0 0,0 0,0 0,-1-1,1 0,-1 1,-1-1,1-1,-1 1,0-1,-1 1,1-1,-1 0,0 0,1-11,-3 12,0 0,-1 0,0 0,1-1,-2 1,1 0,-1 0,0 1,0-1,-1 0,1 1,-1-1,-1 1,1 0,-1 0,1 0,-2 0,-5-5,-17-13,0 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3216">3904 660,'0'5,"0"1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">761 75,'-10'1,"2"1,0-1,-1 1,1 0,0 1,-1 0,2 0,-1 1,0 0,1 0,0 1,-12 9,-5 1,-56 39,2 4,3 2,3 3,-103 117,150-151,1 1,-38 64,58-87,0 0,0 1,1-1,-1 1,2-2,0 2,0 0,0 0,1 0,0 0,1 0,0-1,0 1,1 0,0 0,0 0,1 0,0-1,0 1,7 12,-6-15,1-1,0 1,-1-2,2 1,-1 0,1-1,-1 1,1-1,1 0,-1 0,0-1,7 4,77 20,-52-17,14 5,1-2,93 9,-115-19,1-1,-1-1,0-1,0-2,1-1,42-11,-63 13,1-2,-1 0,0-1,1 0,-2 0,1-1,-1 0,0-1,0 1,-1-1,9-9,-7 3,1 0,-2 0,0-1,0-1,-2 1,11-24,-6-4,-1 1,-2 0,-1 0,1-73,-8 94,3-50,-3 1,-14-126,12 187,-2 1,2-1,-1 0,-1 1,1 0,-1 0,-1 0,1 0,-1 0,-2 0,2 0,-1 2,0-1,-1 0,0 1,0-1,0 1,-1 0,0 1,1-1,-1 1,-1 2,1-2,-1 1,-9-2,-24-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="627.99">1229 880,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3214">1672 127,'183'-12,"-28"0,-147 12,4-1,-1 1,0 0,0 1,1 0,10 3,-19-4,-2 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-2 0,1 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 1,-1-1,0 1,1-1,-4 3,-9 17,-2 1,0-1,-1-1,-2 0,-1-1,-30 24,19-14,-55 49,84-77,-1 0,2 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,1 1,0-1,0 0,-1 1,1-1,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 1,1-1,-1 0,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,0 0,1-1,-1 1,0-1,2 2,8 4,1 0,0-1,17 5,-24-8,17 5,0 1,0 1,-1 1,19 12,-33-18,-1 1,-1-1,1 1,0 0,-1 1,0 0,-1-2,0 2,1 1,-1-1,-1 1,0-1,0 1,-1 0,1-1,1 12,-1-8,-2 0,0-1,0 1,-1 0,0-1,0 1,-1-1,-1 1,-1 0,-4 17,5-23,0 0,-1 0,1 0,-1-1,0 1,-1 0,1-1,0 0,0 0,-1 0,0 0,1 0,-2-2,1 2,0-1,0 0,-1-1,0 1,1-1,-1 1,1-1,-1-1,0 1,0-1,0 1,-5-2,-283-8,227 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3215">2858 24,'-3'1,"1"-1,-1 1,1 0,-1 0,1-1,-2 1,2 1,0-1,0 0,-1 1,1-1,0 1,0-1,1 1,-1 0,0 0,-2 3,-28 38,26-32,-22 31,2 1,3 0,1 2,2 1,2 0,2 1,4 1,0 0,4 0,1 1,1 66,6-95,0-11,0 1,0 0,1 0,0 0,3 11,-3-18,0-1,0 1,0 0,1-1,-1 1,1-1,-1 1,1-1,0 0,1 0,-1 0,0 0,0-1,0 1,1-1,-1 1,1-1,-1 1,1-1,1 0,-2 0,6 1,38 12,-33-9,1-1,0 0,0-1,23 1,-32-4,1 0,-1 0,1 0,-1-1,0 0,0 0,1-1,-1 1,-1-1,1 0,0-1,0 1,-1-1,1 0,-1 0,7-5,-6 3,0 0,0 0,0 1,0-2,0 0,-1 1,-1-1,1-1,-1 1,1-1,-2 2,1-2,-1 0,0 0,1-11,-3 12,0 1,-1-1,0 0,1-1,-2 1,1 0,-1 0,0 1,0 0,-2-1,2 1,-1-1,-1 1,1 0,-1 0,1 0,-3 0,-4-4,-18-14,0 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3216">4074 647,'0'5,"0"0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -26303,15 +26352,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4896 72,'0'-1,"0"0,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,2-1,35-3,-33 3,688-8,-393 12,-277-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-9291.01">28 1633,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8411.01">107 1289,'0'975,"0"-1006</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6895.94">1 1474,'1'-7,"1"0,0-1,1 1,0 0,0 0,0 1,1-1,7-9,-2 1,0 2,0 0,0 0,2 1,-1 0,1 1,1 0,0 1,1 0,0 1,0 1,1 0,0 0,23-7,6-5,87-27,-112 43,0 0,1 1,-1 0,1 2,-1 0,1 1,0 1,19 3,-33-2,1-1,-1 1,0 0,0 0,0 0,-1 1,1 0,0 0,-1 0,0 0,0 1,0 0,0 0,0 0,-1 0,0 0,0 1,0 0,0-1,-1 1,0 0,0 0,0 0,-1 1,1-1,0 7,2 12,-1 1,-1 0,-1-1,-3 37,-2-24,-1 0,-1 0,-2 0,-2-1,-26 61,26-72,-2-1,-1 0,0-1,-2 0,0-2,-2 1,-1-2,-34 32,45-46,-1-1,1 0,-1-1,0 1,0-2,0 1,0-1,0 0,-1-1,0 0,1 0,-1-1,0 0,-12 0,8-2,-1 0,1-1,-1-1,1 0,0-1,0 0,1-1,-19-10,30 15,0 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,0-2,13-1,29 6,-17 3,1 1,-1 2,-1 0,0 2,36 21,111 81,-122-78,-40-28,1 1,1-2,-1 0,1 0,0 0,1-2,-1 1,18 3,-2-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5032.01">1192 1262,'0'1,"1"-1,0 1,-1-1,1 0,0 1,-1 0,1-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0-1,0 1,0 0,1 0,-1 0,0-1,0 2,4 29,-4-25,11 458,-10-146,-1-310,0-1,1 0,0 1,0-1,0 0,1 0,1 0,3 8,-5-12,0-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 0,1-1,-1 1,1 0,0-1,-1 0,1 1,0-1,4-1,289-14,-274 15,23 0,89-10,-105 4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2916">2727 1183,'-67'-1,"33"-1,1 2,-47 5,73-3,1 0,-1 1,0 0,1 0,0 0,-1 1,1 0,0 0,1 0,-1 1,1 0,0 0,0 1,1-1,-7 11,-3 5,0 2,-20 46,18-27,1 0,2 1,2 0,2 1,2 0,2 0,1 1,3-1,2 1,1 0,11 54,-10-87,1-1,0 1,1-1,0 1,0-1,1-1,1 1,0-1,1 0,-1-1,2 0,-1 0,1 0,1-1,0-1,0 0,0 0,1-1,12 6,-5-4,1 0,0-1,0 0,1-2,0 0,0-2,0 0,0-1,0-1,0-1,21-2,-37 1,0 0,-1 0,1-1,-1 1,0-1,0 0,1 0,-1 0,0 0,-1 0,1-1,0 0,-1 1,1-1,-1 0,0 0,0 0,0 0,0-1,1-3,6-13,-1 0,7-27,-6 18,5-11,-3-1,-1-1,-2 1,-2-1,-2-1,-2-77,-2 78,0 13,-1 1,-6-37,5 58,1-1,-1 1,0 0,-1 0,0-1,0 2,0-1,-1 0,0 1,0 0,-1 0,0 0,-8-8,3 8,0 0,0 0,-1 1,0 1,0 0,0 0,-20-3,-8-4,9 2,4 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2510">2568 1474,'0'9,"0"8,0 9,0 6,-5 1,-1-1,-4 0,-1-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1248.01">2409 1765,'0'5,"9"1,7 0,10-1,6-2,5-1,2-1,-2 0,-2-1,-3-1,-2 1,-2 0,-1 0,-1 0,0-1,0-3,-5 2,-5 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1580.99">3388 1950,'49'3,"-33"-2,-1 0,0 0,0-2,1 0,-1-1,0 0,20-6,65-33,184-106,-206 104,-47 26,17-8,0-2,-2-2,-2-2,65-57,181-164,-100 93,-186 155,301-243,-125 108,-35 24,98-59,-215 151,-1-1,-1-1,32-41,14-14,-54 59,-1 0,-1-1,-1 0,22-45,-30 49,-5 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5102 69,'0'-1,"0"0,1 1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 0,1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0 0,3-1,35-2,-34 2,717-8,-409 12,-289-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-9291.01">29 1558,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-8411.01">111 1230,'0'930,"0"-960</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-6895.94">1 1406,'1'-6,"1"-1,0-1,1 2,0-1,1 0,-1 2,1-2,7-8,-1 0,-1 3,0 0,1-1,1 2,0-1,0 2,2-1,-1 2,2-1,-1 2,1 0,0 0,1 1,24-8,5-4,92-26,-117 42,-1-1,2 1,-1 0,1 2,-2 0,2 1,0 1,20 3,-35-2,1-1,-1 1,1 0,-1 0,0-1,-1 2,1 0,1 0,-2 0,0 0,0 1,0-1,0 1,1 0,-2 0,0 0,0 0,0 1,0-1,-1 1,0 0,0-1,1 1,-2 1,1-1,0 6,2 12,-1 1,-1 0,-1-1,-3 35,-2-23,-1 0,-2 1,-1-1,-2-1,-28 59,28-69,-3-1,0-1,-1 0,-1 0,-1-2,-2 1,-1-2,-35 31,47-44,-1-1,0-1,0 0,0 1,-1-2,1 1,0-2,-1 1,0-1,0 0,0 0,0-1,-1 0,-11 0,7-2,-1 0,2-1,-2-1,2 0,-1 0,1-1,0-1,-19-9,31 14,0 0,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-2-1,2 1,0-1,-1 1,1-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,0-2,14-1,30 6,-18 3,1 1,-1 1,-1 1,0 1,37 21,117 77,-128-75,-42-26,1 0,2-1,-2 0,2-1,-1 1,2-2,-2 1,19 2,-1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-5032.01">1242 1204,'0'1,"1"-1,0 1,-1-1,1 0,0 1,-1 0,1-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1 0,0-1,0 0,0 1,1 0,-1 0,0-1,0 2,5 28,-5-24,11 436,-10-138,-1-297,0 0,1 0,0 0,0 0,0 0,1-1,2 1,2 7,-5-11,0-1,1 0,0 0,-1 0,1 0,0 0,0-1,0 1,1-1,0 1,-1-1,0 0,1 1,-1-1,1 0,-1 0,1-1,-1 1,2 0,-1-1,-1 0,1 1,0-1,4-1,302-13,-286 14,24 0,92-10,-109 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2916">2842 1129,'-70'-1,"34"-1,2 2,-49 5,75-3,2-1,-1 2,-1 0,2 0,0 0,-1 1,0 0,1-1,1 1,-1 1,0 0,1-1,0 2,1-1,-8 10,-2 5,-1 2,-20 44,18-26,1 0,3 1,1 0,3 1,2 0,2 0,0 1,4-1,2 1,1 0,12 51,-11-82,1-2,0 2,2-2,-1 2,0-2,1 0,2 0,-1 0,1-1,0 0,1-1,-1 1,2 0,0-2,1 0,-1 0,0-1,2 0,12 6,-5-5,0 1,1-2,0 1,1-2,0 0,-1-2,1-1,0 0,0-1,0-1,22-2,-39 1,0 0,-1 0,1 0,-1 0,0-1,1 0,0 0,-1 0,0 0,-1 0,1-1,0 0,-1 2,2-2,-2 0,0 0,0 0,0 0,0-1,1-2,6-13,0 0,6-26,-5 17,4-10,-2-1,-2-1,-1 1,-3-1,-2-1,-2-74,-2 75,0 12,-1 2,-6-36,5 55,1-1,-1 2,-1-1,0 0,0 0,0 1,0-1,-1 0,0 2,-1-1,0 0,0 1,-9-9,4 9,0-1,-1 0,0 1,-1 1,1 1,-1-1,-20-3,-9-3,10 1,4 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2510">2676 1406,'0'9,"0"7,0 9,0 5,-5 2,-2-2,-3 1,-2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1248.01">2510 1684,'0'5,"10"0,6 1,11-1,7-2,4-1,3-1,-3 0,-1-1,-4-1,-2 1,-1 0,-2 0,-1 0,0-1,0-3,-5 2,-5 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1580.99">3530 1860,'51'3,"-34"-2,-1 0,-1 0,1-2,1 0,-2-1,1 0,20-5,68-32,192-102,-214 100,-50 25,18-8,0-1,-2-3,-2-2,67-54,190-156,-105 88,-194 148,314-231,-131 102,-36 23,102-56,-223 145,-2-2,-1-1,33-39,15-13,-56 55,-1 1,-2-1,0 0,23-42,-32 45,-5 5</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -26367,7 +26416,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'177'0,"751"14,-519 9,391 35,1244 59,-41-112,-926-10,-1046 5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'183'0,"777"13,-538 7,406 33,1285 53,-42-102,-957-8,-1082 4</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -26475,14 +26524,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">217 189,'0'0,"0"-1,0 0,-1 0,1 1,0-1,0 0,0 1,-1-1,1 0,0 1,0-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 1,-1 0,-33 16,22-4,0 0,1 1,0 1,1 0,1 1,0-1,1 2,1-1,0 2,2-1,0 1,1-1,-4 26,-1 14,4 1,0 115,6-163,0 0,1-1,0 1,0 0,1-1,0 1,1-1,0 1,5 8,-6-14,1 0,-1-1,1 1,0-1,0 0,1 1,-1-2,0 1,1 0,0-1,0 1,-1-1,1 0,1-1,-1 1,0-1,0 1,1-1,-1 0,0-1,1 1,5-1,-6 1,0-1,0 0,0 1,1-2,-1 1,0 0,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,-1 0,1-1,-1 1,4-4,-4 1,1 0,-1 1,-1-2,1 1,-1 0,0-1,0 1,0-1,-1 1,1-1,-2 0,1 1,0-10,0-21,1 0,3 0,0 0,3 0,1 1,21-56,-3 32,20-71,-41 109,-1 0,0 0,-2-1,-1 0,0 0,-2 0,-3-28,3 46,0 1,-1-1,0 1,1 0,-2-1,1 1,0 0,0 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 0,0 1,0-1,-1 1,-4-2,-17-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="538.99">587 665,'0'5,"4"1,2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1192.09">1143 162,'0'18,"0"29,0 19,0 13,0-4,0 0,0-9,0-6,0-9,0-4,0-6,0-23,0-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13090.07">1963 189,'-11'0,"5"0,0 0,1 0,-1 0,0 1,1 0,-8 2,10-2,1 1,-1-1,1 1,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-2 6,-14 28,3 2,1 0,-15 71,-8 125,31-197,3-23,0 0,1 0,0 1,4 25,-3-36,2 1,-1 0,0-1,1 1,0-1,0 0,0 0,1 1,-1-1,1-1,0 1,0 0,0-1,1 1,-1-1,1 0,6 4,10 4,0-1,0-1,0-1,1 0,1-2,-1 0,1-2,0 0,0-2,0 0,0-1,1-2,-1 0,25-5,-45 6,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-1-1,1 1,0 0,-1-1,0 1,1-1,-1 1,0-1,0 1,0-4,-1-3,0 0,-1 1,-1-1,1 1,-1-1,-5-7,-2-10,-1-12,3-1,1 0,1-1,3 1,1-67,-1-11,3 110,-1-1,-1 1,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 1,-1 0,1-1,-1 1,0 0,0 0,0 1,-1-1,0 1,0 0,0 0,-10-5,-7-2,1 0,-1 2,0 0,-29-6,36 12,1 0,-1 0,-18 1,11 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14395.04">3101 242,'-132'-1,"-146"3,274-2,0 0,0 0,0 0,0 1,-1-1,1 1,0 0,0 0,0 0,0 1,1 0,-1-1,0 1,1 1,-1-1,1 0,0 1,-1 0,1 0,1 0,-1 0,0 0,1 0,-1 1,1-1,0 1,0 0,1 0,-1-1,1 1,0 0,0 0,0 1,0-1,1 0,-1 0,1 6,0 2,-1 0,2 0,-1 0,2 0,-1 0,7 22,-6-30,-1-1,0 0,1 1,0-1,0 0,0 1,0-1,0 0,1-1,0 1,-1 0,1-1,0 1,0-1,0 0,0 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 0,0-1,6 2,86-3,-77 0,0 0,0 1,0 1,-1 0,25 6,-37-5,0 0,0 0,-1 1,1-1,-1 1,0 1,0-1,0 1,0 0,0 0,-1 0,0 0,0 1,0 0,0 0,-1 0,0 0,0 0,0 1,3 10,-3-7,1 1,-2 0,0-1,0 1,0 0,-1 0,-1 0,0 0,0 0,-1 0,0 0,-1 0,-5 18,5-22,0-1,-1 0,0 1,1-1,-2-1,1 1,0 0,-1-1,0 0,0 1,0-2,-1 1,1 0,-1-1,0 0,0 0,0 0,-1-1,1 0,0 0,-1 0,1-1,-1 1,0-1,-8 0,-29 2,-1-2,1-2,-1-2,1-2,0-2,-47-13,55 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15295.04">3630 215,'-3'1,"1"-1,0 1,-1 0,1-1,0 1,0 0,-1 0,1 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 1,1 0,-1 0,1 0,0 0,-3 4,-22 52,18-40,7-15,-12 26,0 0,3 1,-10 38,18-61,1 1,0-1,0 1,0-1,1 1,0 0,0-1,1 1,0-1,1 1,0-1,0 0,0 1,1-1,0 0,0 0,1-1,0 1,6 8,-6-11,1-1,-1 0,0 0,1 0,-1 0,1-1,0 0,0 0,0 0,0 0,0-1,0 0,0 0,9 0,82-1,-69-1,0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15894.34">4000 242,'0'9,"0"21,-9 32,-17 38,-3 10,-2 0,5-14,6-19,7-18,6-15,3-10,8-10,7-11,2-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16701.34">4318 559,'0'1,"1"-1,0 0,0 0,0 0,-1 1,1-1,0 0,0 1,-1-1,1 1,0-1,-1 1,1-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0 0,0 1,17 49,-3 1,-1 0,8 89,19 82,-38-215,0 0,1-1,-1 1,2-1,-1 0,1 0,0 0,0 0,1-1,-1 0,9 8,-10-11,1-1,0 1,0-1,0 1,1-1,-1-1,1 1,-1 0,1-1,-1 0,1 0,0-1,-1 1,1-1,0 0,-1 0,1-1,0 1,7-3,-5 1,0-1,0 0,0 0,-1-1,0 0,1 0,-1 0,-1-1,1 0,-1 0,0-1,0 1,0-1,-1 0,0 0,5-9,13-17,211-257,60-79,-266 330</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">224 183,'0'0,"0"-1,0 0,-1 0,1 1,0-1,0 0,0 1,-1-1,1 0,0 1,0-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0 0,1 0,-2 0,1 0,1 0,-1 0,0 0,0 0,1 0,-1 1,0-1,0 0,1 0,-1 1,-1 0,-34 16,23-5,-1 1,2 0,-1 2,2-1,1 2,-1-2,2 3,1-2,0 2,1 0,1 0,1 0,-4 24,-2 14,5 1,0 111,6-157,0 0,1-2,0 2,0 0,1-1,0 0,1 0,0 1,6 7,-7-13,1 0,-1-1,1 0,0 0,0 0,1 1,-1-2,1 1,0 0,0-1,0 1,-1-1,1-1,1 0,-1 1,1-1,-1 1,1-1,-1 0,0-1,1 1,6-1,-7 1,0-1,0 0,0 1,1-2,-1 1,1 0,-1-1,0 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,-1-1,1-1,-1 1,4-4,-4 1,2 0,-2 1,-1-1,1 0,-1 0,0-1,0 1,0 0,-1 0,1-1,-2 0,1 1,0-9,0-21,1 0,3 0,1 1,2-1,1 1,22-54,-3 31,21-68,-43 104,-1 1,0 0,-2-2,-1 1,0 0,-2 0,-3-28,3 45,0 2,-1-2,0 1,1 0,-2-1,1 1,0 0,0 0,-1 0,0 1,0-1,0 0,0 0,0 1,0-1,-2 1,2-1,-1 1,1 0,-1 0,0 0,0 1,0 0,0-1,-1 1,-5-2,-17-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="538.99">606 643,'0'4,"4"2,2-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1192.08">1180 157,'0'17,"0"28,0 19,0 12,0-3,0-1,0-8,0-6,0-9,0-3,0-7,0-21,0-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13090.07">2027 183,'-12'0,"6"0,0 0,1 0,-1 0,-1 1,2 0,-8 1,10-1,1 1,-1-1,1 1,-2-1,2 1,0 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 1,1-1,-2 5,-15 28,4 2,0-1,-15 70,-8 120,32-190,3-23,0 1,1-1,0 2,4 23,-3-34,2 1,-1 0,0-1,1 1,0-2,0 1,0 0,1 1,0-1,0-1,0 1,0-1,0 0,1 1,-1-1,1 0,7 4,9 3,1 0,0-1,-1-1,2-1,1-1,-2 0,2-2,0 0,-1-2,1-1,0 0,1-2,-2 0,27-4,-47 5,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,0-1,2 0,-2 0,0 1,1-1,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-1-1,1 1,0 0,-1 0,0 0,1-1,-1 1,0-1,0 1,0-4,-1-3,0 0,-1 2,-1-2,1 1,-1-1,-6-6,-1-10,-1-12,3-1,0 1,2-2,3 1,1-64,-1-11,3 106,-1-1,-1 1,1 1,-1-1,0 0,0 0,-2 0,2 1,-1 0,-1 0,1-1,-1 1,0 0,0 1,0 0,-2-1,1 1,0 0,0 0,-11-4,-6-3,0 0,-1 3,1-1,-31-5,37 11,2 0,-2 0,-18 1,12 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14395.04">3202 234,'-137'-1,"-150"3,283-2,0 0,0 0,0 0,0 1,-1-1,0 1,1 0,0 0,0 0,0 1,1 0,-1-2,0 2,1 1,-2-1,2 0,0 1,-1 0,1 0,1 0,-1 0,0 0,1-1,-1 2,0-1,1 1,0 0,1 0,-1-1,1 1,0-1,0 1,0 1,0-1,1 0,-1 0,1 5,0 3,-1 0,2-1,-1 1,2-1,-1 1,7 21,-6-29,0-1,-1-1,1 2,0-1,0 0,0 1,0-1,0 0,1-1,0 1,-1 0,1-2,0 2,0-1,1 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 0,1-1,5 2,89-3,-79 0,-1 0,1 1,0 1,-2 0,27 6,-39-6,0 1,0 0,-1 1,1-1,0 1,-1 1,0-1,0 1,0 0,0-1,0 1,-1 0,0 1,0 0,0 0,-1-1,0 1,0 0,0 1,4 9,-4-6,1 1,-2-1,0 0,0 1,0-1,-1 1,-1 0,0-1,0 1,-1 0,0-1,-1 1,-5 17,5-21,0-1,-1 0,0 0,0 0,-1-1,1 1,0 0,-1-1,0-1,0 2,0-2,-2 1,2 0,-1-1,0 0,0 0,0 0,-2-2,2 1,0 0,-1 0,1-1,-1 1,-1-1,-7 0,-30 2,-2-2,2-2,-2-2,2-2,-1-1,-47-14,55 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15295.04">3748 208,'-3'1,"1"-1,0 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,0 0,0 0,0 1,1-1,-1 1,0-1,0 1,1 0,-1 0,1 0,0 0,-3 4,-23 50,18-39,8-14,-12 25,0 0,2 1,-9 37,18-59,1 0,-1 0,1 1,0-2,1 2,0 0,0-1,1 0,0 0,2 1,-1-1,0-1,0 2,1-1,0 0,0-1,1 0,0 1,7 8,-7-12,1 0,-1 0,0 0,1 0,-1 0,2-1,-1 0,0 0,0 0,0 0,0-1,1-1,-1 1,9 0,85-1,-71-1,0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15894.34">4130 234,'0'9,"0"20,-9 30,-18 38,-3 9,-2 1,5-15,6-17,8-18,6-15,3-9,8-10,7-10,3-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16701.34">4458 540,'0'1,"1"-1,0 0,0 0,0 0,-1 1,1-1,1 0,-1 1,-1-1,1 1,0-1,-1 1,1-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,0-1,1 1,-1 0,0 0,1-1,-1 1,0 0,0 0,0 0,17 49,-2 0,-2 0,9 86,19 80,-39-208,0-1,1 0,0 1,1-1,-1-1,1 1,0 0,0 0,1-1,-1-1,10 9,-11-11,1-1,0 1,0-1,0 0,2 0,-2-1,1 1,-1 0,1-1,-1 0,2 0,-1-1,-1 1,1-1,0 0,-1 0,1-1,1 1,6-3,-5 1,0-1,1 0,-1 1,-1-2,0 0,2 0,-2 0,-1-1,1 0,-1 1,0-2,1 1,-1-1,-1 0,0 1,5-10,14-16,218-248,61-77,-274 320</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -26567,14 +26616,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1936 0,'3'1,"1"-1,0 1,0 0,0 0,-1 0,1 0,0 1,-1-1,1 1,-1 0,0 0,0 1,1-1,-1 0,-1 1,1 0,0 0,-1 0,4 5,5 8,-1 1,14 32,-10-21,50 107,-6 2,-6 3,41 173,-75-237,-4 1,-3 0,-3 0,-3 106,-5-158,0-1,-2 1,-1-1,-1 1,-1-1,-1 0,-1-1,-1 0,-1 0,-18 33,2-15,-42 52,54-77,0-2,-1 1,0-2,-1 0,0-1,-21 12,12-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1068.01">110 0,'-1'20,"-1"-1,-8 35,1-3,-33 250,-4 358,51-288,-1-319,3 1,2-1,3 0,1 0,26 59,-35-104,0 1,0-1,1 0,0-1,0 1,0-1,1 0,0 0,1-1,-1 0,1 0,0-1,0 1,0-1,1-1,-1 0,13 4,5 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1730.99">533 106,'-2'186,"4"200,-1-373,1 35,-2-45,0-1,0 0,1 1,-1-1,1 0,-1 1,1-1,0 0,0 0,0 0,0 1,0-1,1 0,1 2,-2-5,0-1,0 1,0-1,-1 1,1-1,0 1,-1-1,1 0,-1 1,0-1,1 0,-1 1,0-1,0-3,5-191,2-18,-4 182,1 0,2 1,1-1,19-48,-24 76,-1 0,1 0,0 0,1 1,-1-1,1 1,-1-1,1 1,0 0,0 0,1 0,-1 1,1-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 1,0 0,0 0,0 0,0 1,1-1,-1 1,0 0,1 0,-1 0,0 1,0 0,1-1,-1 1,5 3,-1-2,0 0,-1 1,0 1,0-1,0 1,0 0,0 0,-1 1,1 0,-1 0,-1 1,1 0,-1 0,0 0,0 0,-1 1,8 14,-11-18,-1-1,0 1,1 0,-1-1,0 1,0 0,0-1,-1 1,1 0,-1-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,-1-1,1 0,-1 0,0 0,1 0,-5 4,-3 3,-1-1,0 0,-19 13,-31 11,-2-2,-93 31,125-50,-5 0,25-8,0 0,0 1,0-1,-14 9,59-8,-14-1,0 1,-1 1,1 1,-1 1,30 15,14 3,-39-16,-1 1,0 1,30 18,-27-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3034">1089 503,'0'370,"1"-382,1 0,1 0,0 0,1 0,0 0,1 1,0-1,1 2,9-15,80-112,-73 107,-21 28,3-4,1 0,-1-1,2 2,-1-1,0 1,13-10,-17 15,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,2 0,-1 0,1 1,-1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,-1-1,0 0,0 1,1 2,5 15,-1 0,-1 0,-1 0,0 1,0 25,-2 111,-2-127,-1 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3824">295 979,'13'0,"46"14,39 8,21 1,8 1,14-3,6-2,5 6,-15-1,-26-6,-32-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5652">666 1402,'-3'24,"0"0,-1 0,-1-1,-2 0,-13 36,-7 21,-6 64,20-80,-40 117,53-181,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-22,4-27,120-409,-116 436,0 0,1 1,12-21,-15 32,0 0,1 1,0 0,0 0,0 0,1 1,0 0,16-9,-1 2,0 1,1 1,0 1,1 1,0 2,1 0,0 1,0 2,29-2,-51 7,-1 0,0 0,0 0,0 1,0 0,0 0,0-1,0 2,0-1,-1 0,1 1,0-1,-1 1,1 0,-1-1,1 1,-1 1,0-1,0 0,0 0,0 1,0-1,0 1,-1 0,1 0,-1-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 6,0 0,-1 0,1 0,-2 1,1-1,-1 0,0 0,-1 0,0 0,-1 0,-6 15,-1-6,0 0,-2-1,0 0,-1-1,-1 0,0-1,-1-1,-1 0,0-1,-1-1,0 0,-20 9,-28 12,-1-3,-75 23,120-46,-2 5,23-12,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,37 10,-11-5,-12 0,-1 1,1 0,-1 1,22 15,-23-14,1 0,0 0,1-1,19 7,-14-6,-1 0,0 1,0 2,-1 0,-1 0,29 27,-28-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6748.99">983 1693,'789'0,"-713"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7920.99">1486 1720,'-5'5,"-1"5,0 6,1 14,2 10,6 8,2 9,0 4,4 6,0-1,-1-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2074 0,'3'1,"1"-1,1 1,-1 0,0 0,-1 0,2 0,-1 1,-1-1,1 1,0-1,-1 1,0 1,1-1,0 0,-2 1,1 0,0 0,-1 0,5 4,5 9,-2 0,16 31,-11-20,53 103,-5 2,-8 2,45 167,-81-228,-4 1,-3 0,-3 0,-4 102,-5-152,0-1,-2 1,-1-1,-2 1,0 0,-1-1,-2-1,-1 0,0 0,-20 32,2-15,-45 51,58-75,0-2,-1 2,0-3,-1 1,0-2,-22 13,12-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1068.01">118 0,'-1'19,"-1"-1,-9 34,1-3,-35 241,-4 343,54-276,0-307,2 1,3-1,3 0,1 0,27 57,-36-101,-1 2,0-1,2 0,-1-2,0 2,1-1,0 0,0-1,2 0,-2 0,2 0,-1-1,1 0,-1 0,2-1,-2 0,15 4,5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1730.99">571 102,'-2'179,"4"192,-1-359,1 34,-2-43,0-1,0 0,1 1,-1-1,1 0,-1 1,1-1,0 0,1 0,-1 0,0 0,0 0,1 0,1 2,-2-5,0-1,0 1,0-1,-1 1,1-1,1 1,-2 0,1-1,-1 1,0-1,1 0,-1 1,0-1,0-3,5-183,3-18,-5 175,1 0,2 2,2-2,20-46,-26 73,-1 0,1 0,0 1,1 0,0-1,0 1,-1-1,1 1,0 0,1 0,0 1,-1 0,1-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 1,1 0,-1 0,0 0,0 1,2-1,-2 1,0 0,2 0,-2 0,0 1,1 0,0-1,-1 1,6 3,-2-2,1 0,-1 1,-1 1,1-1,-1 0,1 1,-1 0,-1 1,2 0,-2 0,0 0,0 1,0 0,-1 0,0-1,0 2,7 13,-11-17,-1-1,0 1,2 0,-2-1,0 1,0 0,0-1,-2 0,2 1,-1-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,-1-2,1 1,-1 0,-1 0,2 0,-5 4,-4 3,0-2,-1 1,-20 12,-33 11,-3-2,-99 29,134-47,-6 0,28-9,-1 1,0 1,1-1,-16 9,63-9,-14 0,-1 1,0 1,0 1,0 0,31 16,16 2,-42-16,-2 2,1 0,32 18,-29-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3034">1167 484,'0'355,"1"-366,1-1,1 1,0-1,1 1,1-1,0 2,0-2,2 2,9-14,86-107,-79 102,-22 27,4-4,0 0,-1 0,3 1,-2-1,0 1,15-9,-19 14,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,1 0,0 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,2 0,0 0,0 1,-1 0,0 0,-1-1,1 1,0 0,1 0,-2 0,1 1,-1-1,0 0,0 1,1 2,6 14,-2 0,-1 0,0 0,-1 2,0 23,-2 107,-2-122,-1 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3824">316 941,'14'0,"49"14,42 7,23 1,8 1,15-3,6-2,6 6,-16 0,-28-7,-35-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5652">713 1348,'-3'23,"0"0,-1 0,-2-1,-1 0,-15 35,-6 20,-8 61,22-76,-43 112,57-174,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-21,5-26,127-394,-123 420,-1 0,2 1,13-21,-17 32,0-1,2 1,-1 1,1-1,-1 0,2 1,0 1,16-10,0 3,0 0,0 2,1 0,1 2,0 1,0 0,1 2,0 1,31-2,-55 7,0 0,-1 0,0 0,0 1,0 0,1 0,-1-1,0 2,0-1,-1 0,2 1,-1-1,-1 1,1-1,-1 0,2 1,-2 1,0-1,0 0,0 0,0 1,0-1,1 1,-2 0,1-1,-1 0,0 1,0 0,0 0,0 0,-1 0,1 0,0 5,0 1,-1 0,1-1,-2 2,1-1,-1-1,0 1,-1 0,0-1,-1 1,-7 14,-1-6,1 1,-3-2,0 0,-1 0,-1-1,0-1,-1 0,-1-1,0 0,-2-2,1 1,-21 8,-31 12,-1-3,-80 22,129-45,-3 6,25-12,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,40 9,-12-4,-13 0,-2 1,2-1,-1 2,24 14,-25-13,1 0,0-1,1 0,20 7,-15-7,0 1,-1 1,0 1,-1 1,-1-1,32 27,-31-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6748.99">1053 1628,'845'0,"-763"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7920.99">1592 1654,'-6'4,"0"6,0 5,0 14,3 10,6 7,3 9,-1 3,5 7,-1-2,0-10</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -26601,7 +26650,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1132 0,'-403'0,"392"0,0 0,0 1,0 0,0 1,0 0,-11 4,17-4,0 0,0 1,0 0,0 0,0 0,1 0,0 1,-1-1,1 1,1 0,-1 1,0-1,1 1,-3 4,-14 32,1 1,2 1,2 0,-14 68,5-21,6-29,-77 295,75-262,-16 177,36-263,0 1,0 0,0 0,1-1,1 1,-1-1,1 1,1-1,0 1,0-1,0 0,1-1,0 1,1 0,-1-1,2 0,-1 0,1-1,0 1,0-1,11 7,8 4,1-1,1-2,0 0,51 17,-53-22,-10-3,-1 0,0 1,-1 0,1 1,-1 1,16 13,-26-20,-1 0,1 0,-1 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 1,-1-1,0 0,0 1,0-1,0 0,-1 0,1 1,-1-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,0 0,-2 2,-11 11,0 0,-2-1,1-1,-28 18,-85 46,46-29,-8 7,-113 77,197-127,1-1,0 1,0 1,1-1,0 1,0 0,0 0,1 0,0 1,0 0,1 0,0 0,1 0,-1 0,-1 16,1 6,2 0,1 0,4 36,0-8,8 499,-12-551,0 1,1-1,-1 0,1 1,0-1,1 0,0 0,0 0,0 0,1 0,0 0,0 0,0-1,0 0,1 1,0-1,0-1,1 1,-1-1,1 1,0-1,0-1,1 1,-1-1,10 5,-6-4,-1 1,1 0,-1 1,-1 0,1 0,-1 0,0 1,0 0,-1 1,0 0,0 0,-1 0,0 0,0 1,-1 0,0 0,0 0,3 15,1 16,3 0,1-1,2-1,2 0,28 50,-33-67,0 1,-1 0,10 37,-12-33,2-1,15 31,-19-47,0 0,0-1,1 0,1-1,-1 1,1-1,0-1,0 0,1 0,0 0,0-1,0 0,15 4,17 6,82 17,-66-19,253 81,-253-77,-29-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1214 0,'-432'0,"420"0,0 0,0 1,1 0,-1 1,0 0,-12 4,19-5,0 1,-1 1,1 0,0 0,-1 0,2 0,0 1,-2-1,2 0,1 1,-1 1,-1-1,2 1,-3 3,-16 32,2 0,2 2,1-1,-14 66,6-20,5-28,-82 284,81-253,-18 171,39-253,0 1,0-1,0 1,1-1,2 0,-2 0,1 1,1-1,0 0,0 0,1 0,0-2,0 2,2 0,-2-2,2 1,0 0,0-1,1 1,-1-2,12 8,9 3,1 0,1-3,0 1,54 15,-56-20,-11-3,-1 0,0 0,-1 1,1 1,-1 1,17 12,-27-19,-2 0,1 0,-1 0,0 0,0 1,1-1,-1 1,0 0,-1 0,1 0,-1 0,0-1,0 1,0 0,0 0,1 0,-2 0,1 1,-1-1,0 0,0 0,0 0,0 0,-1 0,1 1,-2-1,1 0,0 0,0 0,0-1,-1 1,1 0,-1 0,0-1,0 1,-1 0,-1 2,-12 10,0 0,-2 0,1-2,-31 18,-90 44,49-27,-9 6,-120 74,210-123,2 0,-1 1,1 1,0-1,1 0,0 1,-1 0,2 0,0 0,-1 1,2 0,0-1,1 1,-1 0,-2 15,2 6,2 0,1 0,4 34,1-7,7 481,-12-532,0 2,2-1,-2 0,1 0,0 0,1 0,0 0,0 0,0-1,1 1,1 0,-1 0,0-1,0-1,2 2,-1-1,0-1,2 1,-2-2,1 2,1-1,-1-1,1 1,0-1,10 5,-7-5,0 2,1 0,-2 1,0 0,0-1,0 1,-1 1,1 0,-2 0,1 1,-1 0,0-1,-1 1,0 1,0-1,-1 1,0 0,4 14,0 15,4 1,1-1,2-2,2 1,30 48,-35-65,0 1,-1 0,10 36,-12-32,1-1,17 30,-20-45,-1-1,1 0,0 0,2-1,-2 0,2 0,-1-1,1 0,1-1,-1 1,1-1,-1 0,17 4,18 5,88 17,-71-19,272 79,-272-75,-31-10</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -26685,13 +26734,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">27 1096,'0'5,"0"5,0 6,0 14,0 33,0 15,0 3,0-3,0-2,0-8,0-8,0-9,0-9,0-6,0-6,4-8,2-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2113.02">1 1122,'0'-2,"1"0,-1-1,1 1,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,0 0,-1 1,5-3,5-5,105-98,206-147,-292 234,1 1,39-19,-61 34,0 0,1 1,-1 0,1 0,-1 1,1 0,0 1,-1 0,1 1,0-1,0 2,0 0,10 2,-16-2,0 0,0 1,0 0,-1 0,1 0,0 0,-1 0,0 1,1-1,-1 1,0 0,-1 0,1 0,0 1,-1-1,0 1,0-1,0 1,0 0,0-1,-1 1,0 0,0 0,0 0,0 1,0-1,-1 5,2 12,-2 0,0 0,-7 42,5-52,-5 32,-1-2,-3 1,-21 55,22-70,-2-1,-1-1,0 0,-2-1,-1-1,-22 26,33-44,-1 0,0 0,0-1,0 0,0 0,-1-1,1 1,-1-1,0-1,0 1,0-1,0-1,0 1,-1-1,-7 0,-16 1,-1-2,-40-6,-3 1,61 6,-27-1,39 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-2-1,4 1,-1 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 1,-1 0,1-1,0 1,-1 0,1-1,0 1,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,25-4,3 1,0 1,-1 2,1 1,55 9,-76-9,1 1,0 0,-1 1,1 0,-1 0,0 1,0 0,0 0,0 1,-1 0,0 0,0 1,0 0,-1 0,0 1,0-1,0 1,-1 1,9 14,-7-5,1-2,1 1,0-1,2 0,-1-1,2 0,0 0,0-2,1 1,1-2,0 0,23 14,-18-13,2 0,0 2,26 23,-40-30,-1-1,0 1,0 0,-1 0,0 0,-1 1,1-1,-1 1,-1 1,5 12,13 34,-6-26</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5130">1324 1413,'58'3,"1"3,59 13,-62-9,2-2,74 1,-107-9,-15 1,1-1,-1 0,0-1,0 0,0-1,13-3,-20 3,0 1,0 0,0-1,0 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 1,0-1,0 0,-1 0,1 1,-1-1,0 0,0-1,0 1,0 0,0 0,-1 0,1-5,1-6,-1 0,-1-1,0 1,0 0,-2 0,0-1,0 1,-2 0,0 0,0 1,-1-1,-1 1,0 0,0 1,-2-1,0 1,0 1,-14-15,-8-9,26 29,0 1,0-1,-1 1,1 0,-2 0,1 0,0 0,-1 1,0 0,0 0,0 1,0 0,0 0,-1 0,0 1,1 0,-1 0,0 1,-13-2,8 3,0 1,0 0,0 0,1 2,-1-1,1 1,-1 1,1 0,0 1,-10 6,13-7,1 0,-1 1,1 0,0 0,0 1,0 0,1 0,0 0,0 1,1 0,0 0,0 1,1-1,-5 11,-23 75,-38 184,68-265,0 1,0 0,2-1,-1 1,1 0,1 0,5 23,-5-32,0 1,1 0,0-1,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,1-1,-1 1,1-1,-1 0,1 0,0 0,0-1,1 1,-1-1,0 0,1 0,-1 0,9 1,15 3,52 4,-15-3,152 34,-116-22,-79-18</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6703">2117 461,'-3'48,"-2"0,-17 73,-4 37,24-136,1 0,1 0,1 0,1 0,5 26,-5-41,0 0,0-1,1 1,0 0,0-1,1 1,0-1,0 0,0 0,1-1,5 7,-8-10,0 0,0 0,1-1,-1 1,0-1,0 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1-1,0 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,3-2,9-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7638">2250 11,'0'-4,"0"-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10175">2488 381,'-2'21,"0"-1,-1 0,-1 0,-1 0,-9 24,-9 39,10-17,3 0,4 0,2 1,10 133,-6-198,0 0,1 1,-1-1,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,1-1,-1 1,1-1,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,1 1,-1-1,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,4-2,4 0,-1-1,0 0,0-1,0 0,0 0,-1-1,1 0,8-7,-10 6,0-1,0 1,0-1,-1-1,0 1,-1-1,0 0,0 0,7-16,-4 1,-1 0,6-35,0 1,10-16,-16 53,-1 0,0-1,-1 1,3-37,-6 29,0 11,-1 0,0 0,-2 0,0 0,0 0,-9-32,7 44,0 0,0 0,0 1,-1-1,0 1,0 0,0 0,0 1,0-1,-1 1,0 0,0 0,0 0,0 1,0 0,0 0,-1 0,1 0,-7 0,-2-1,0 0,0 2,0-1,-1 2,1 0,-21 3,12 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11393">2382 805,'4'0,"6"0,7 0,17 0,8 0,6-4,-1-2,-9 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">29 1047,'0'5,"0"4,0 7,0 12,0 33,0 13,0 3,0-2,0-2,0-9,0-6,0-9,0-9,0-6,0-5,4-8,2-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2113.02">1 1072,'0'-2,"1"0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,2 0,-2 0,1 0,-1 0,1 1,0-1,0 0,-1 1,6-2,4-6,113-93,218-141,-310 224,1 1,41-18,-65 32,1 0,1 1,-2 0,2 0,-2 1,2 1,0 0,-2 0,2 1,-1-1,1 2,0 0,10 1,-17-1,0 0,1 1,-1 0,-1 0,1 0,1 0,-2 0,0 1,1-1,-1 0,1 1,-2 0,1 0,0 1,-1-1,0 1,1-2,-1 2,0 0,0-1,-1 1,0 0,0-1,0 1,0 1,0-1,-1 4,2 12,-2 1,0-1,-7 40,5-50,-6 31,0-1,-4 0,-22 52,24-66,-3-1,-1-1,0 0,-2-1,-1-1,-23 24,35-41,-2 0,1 0,-1-1,1-1,0 1,-2-1,2 1,-2-1,1-1,0 1,-1-2,1 0,-1 1,0-1,-8 0,-17 1,-1-2,-43-6,-2 2,64 5,-29-1,42 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-2-1,2 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-3-1,6 1,-2 1,1-1,-1 0,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 1,-1 0,1-1,0 1,-1 0,1-1,0 1,0 0,0 0,-1 0,1 0,0 0,1 0,-1 0,26-3,4 0,0 1,-1 2,0 1,60 8,-82-8,2 1,-1 0,0 1,0 0,0 0,-1 1,1-1,-1 1,1 1,-2 0,1 0,-1 0,1 1,-2 0,0 0,1 0,-1 1,-1 0,10 15,-7-6,0-2,2 1,-1 0,3-1,-1-1,1 1,1-1,0-1,1 0,1-1,-1-1,26 14,-20-13,2 1,1 1,27 23,-43-30,-1 0,1 1,-1-1,-1 1,1 0,-2 0,1 0,0 1,-2 0,5 12,15 33,-7-25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5130">1407 1350,'61'3,"2"2,62 14,-65-10,2-1,78 0,-114-8,-15 1,1-1,-2 0,1-1,0 0,-1 0,15-4,-22 3,0 1,0 0,0-1,1 0,-2 0,1 0,-1 0,1 1,-1-2,1 1,-1-1,0 1,0-1,0 0,-1 0,1 1,-1 0,0-1,0-1,0 1,1 0,-1 0,-1 0,1-4,1-7,-1 1,-1-1,0 0,0 1,-2 0,0-2,-1 2,-1 0,0-1,0 2,-2-2,0 2,0-1,-1 2,-1-1,-1 0,1 2,-16-15,-7-9,26 29,1 0,0-1,-2 1,2 1,-2-1,0 0,1 0,-1 1,-1 1,1-1,0 1,-1 0,1 0,-2 0,1 1,1 0,-2 1,1 0,-14-2,8 3,0 1,0 0,1 0,0 1,-1 0,1 1,0 1,0 0,0 1,-10 5,13-6,2 0,-1 1,0-1,1 1,-1 1,1 0,0-1,1 1,0 1,0-1,1 1,0 1,0-2,-4 12,-25 71,-40 175,71-252,1 0,0 0,2 0,-1 0,1 1,1-1,6 23,-6-32,0 2,1 0,0-1,0 1,0-2,1 1,-1 0,2 0,-1 0,0-1,1 0,-1 1,2-1,-2 0,1 0,0 0,1-1,0 0,-1 0,0 0,2 0,-2 0,10 1,16 3,55 3,-16-2,161 32,-122-21,-85-17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6703">2249 440,'-3'46,"-2"0,-18 70,-5 35,26-130,1 0,1 0,1 0,1 0,5 25,-5-40,1 1,-1-1,1 0,0 1,0-1,2 1,-1-2,0 1,0 0,2-2,4 8,-8-10,0 0,1 0,0-1,-1 1,0-1,0 0,1 0,-1 0,2 0,-2 0,1 0,-1 0,1 0,0-1,0 1,0-1,0 0,0 0,-1 0,1 0,1 0,-2-1,1 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1 0,-1 0,4-3,8-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7638">2391 11,'0'-4,"0"-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10175">2644 364,'-3'20,"1"-1,-1 0,-1 0,-1 1,-10 22,-10 37,11-16,4 0,3 0,3 1,11 127,-7-189,0 0,1 1,-1-1,0 0,1-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,2-2,-2 2,1-1,0 1,-1-1,1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0-1,1 1,-1-1,1 0,-1 0,0 0,0 0,1 0,-1-1,0 1,5-2,3 0,0-1,0 0,-1-1,1 1,-1-1,0-1,0 0,9-6,-10 5,-1-1,1 2,-1-2,-1-1,1 2,-2-2,0 0,1 1,7-16,-5 1,-1 0,7-34,0 2,11-16,-18 51,-1 0,1-1,-2 1,4-36,-7 29,0 9,-1 1,0 0,-2 0,0-1,0 1,-10-31,8 43,0-1,0 0,-1 1,0-1,0 2,0-1,-1 0,1 1,0-1,-1 1,-1 1,1-1,0 0,-1 1,1 0,0 0,-2 0,2 0,-8 0,-2 0,0-1,1 2,-1-1,-1 2,1 0,-22 3,12 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11393">2531 769,'4'0,"7"0,7 0,18 0,9 0,6-4,-1-1,-10-1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -26924,19 +26973,19 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 582,'4'-3,"0"0,0 1,1-1,-1 1,1 0,0 0,-1 0,1 1,0 0,0 0,0 0,0 0,1 1,-1 0,8 0,-7 0,1 0,0 0,-1-1,1 0,0 0,-1-1,1 0,-1 0,8-3,-5-2,-1 1,0-1,0-1,-1 1,1-1,-2 0,1-1,-1 0,0 0,5-13,45-109,-42 94,-12 32,2-5,0 0,-1 0,0 0,2-20,-4 28,-1 0,0 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 0,-1 1,0-1,0 1,0-1,0 1,-1-1,1 1,0 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 1,-3-1,-20-1,1 1,-1 1,0 1,-40 8,63-9,0 0,-1 0,1 1,0-1,-1 1,1-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0 0,1-1,-1 1,0 0,1 0,0 0,-1 0,1 0,-1 3,1-1,0 1,0-1,1 1,-1-1,1 1,0-1,1 0,-1 1,1-1,0 1,0-1,2 5,4 10,1-1,1 0,0 0,21 28,-23-39,0 1,0-1,0 0,1-1,0 1,1-2,-1 1,1-1,0 0,10 3,14 5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="632.99">847 212,'0'5,"-14"24,-13 15,-15 10,-6 5,2-3,8-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1701.03">689 212,'4'0,"7"0,5 5,9 6,5 18,-3 10,3 11,-3 7,-2-3,-6-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2411.95">1112 318,'0'1,"1"-1,0 0,0 1,0-1,0 1,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 1,5 28,-4-26,4 46,-2 1,-5 74,2-124,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0 0,1-1,-1 1,0 0,0 0,0-1,0 1,0-1,0 1,0-1,-1 1,1-1,-1 0,1 1,-1-1,1 0,-4 1,4-2,-1 0,1 0,-1 0,0-1,1 1,-1 0,1-1,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,1-1,0 1,-1-1,1-2,-8-25,2 0,1 0,1-1,2 1,1-1,1 0,2 0,5-30,-7 55,1 0,0 0,0 0,1 1,-1-1,1 0,0 1,0-1,0 1,1 0,0 0,0 0,0 0,0 0,0 1,1-1,7-4,-1 2,0 1,1 1,0-1,0 2,0 0,17-3,172-48,-197 53,1 0,-1 1,1-1,-1 1,0-1,1 1,-1 0,1 0,-1 0,0 1,1-1,-1 1,0 0,1 0,-1 0,0 1,0-1,4 3,-4-1,0 0,0 0,0 0,0 1,0-1,-1 1,0 0,1-1,-1 1,-1 0,1 1,-1-1,2 8,1 1,-2 0,1 0,-2 0,0 1,0-1,-1 0,-1 1,0-1,-4 17,4-25,-1 0,1 0,-1 0,0 0,0-1,0 1,-1-1,0 1,1-1,-2 0,1 0,0 0,-1-1,0 1,0-1,0 0,0 0,0 0,-1 0,1-1,-1 0,0 0,1 0,-1-1,0 1,-10 0,-42 1,28-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3087.95">1535 450,'4'0,"2"9,0 8,-1 14,-6 6,-12 15,-13 4,-6 0,-7 5,-1-4,6-6,9-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4754.47">2012 159,'5'1,"1"0,0 0,-1 1,1 0,-1 0,1 0,-1 0,0 1,0 0,0 0,0 0,-1 1,1 0,-1 0,0 0,0 0,0 0,-1 1,1 0,-1 0,0 0,4 9,2 6,0-1,-2 1,0 1,8 38,-11-27,-2 1,0-1,-5 44,3-76,0 0,1 1,-1-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,-1 1,1-1,0 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,0 1,-6-19,-5-32,8 12,2-72,3 93,1-1,1 1,0 0,1 0,1 0,9-23,-9 31,0 1,1 0,0 0,0 0,0 1,1 0,0 1,1-1,0 1,-1 1,2-1,-1 1,1 1,-1 0,11-4,-4 2,0 1,0 1,0 0,1 1,-1 1,1 0,-1 1,27 2,-38-1,-1 1,1-1,0 1,-1-1,1 1,-1 0,0 1,1-1,-1 1,0-1,0 1,1 0,-2 0,1 0,0 1,0-1,-1 0,1 1,2 4,-3-3,0 0,0 0,0 1,-1-1,0 0,0 1,0-1,0 1,-1-1,0 1,0-1,0 1,-1 6,-2 5,-1 0,0 0,-1 0,-1-1,0 1,-1-2,-13 21,-2-3,-1-2,-1 0,-2-2,-1-1,-1-1,-39 28,48-39</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5600.47">2673 530,'0'5,"4"5,2 6,0 14,-2 6,-1 6,-1-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6088.47">2779 265,'4'0,"2"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6823.52">2991 582,'3'3,"1"0,0-1,-1 1,0 1,0-1,0 0,0 1,0-1,-1 1,1 0,-1 0,0 0,3 8,16 62,-17-59,12 61,-10-42,2 0,1 0,17 40,-26-73,1 1,-1-1,1 0,-1 0,1 0,0 1,0-1,0 0,-1 0,1 0,0 0,0 0,0-1,1 1,-1 0,0 0,0-1,0 1,1-1,-1 1,0-1,0 1,1-1,-1 0,0 0,1 0,1 1,0-2,1 0,-1 1,1-1,-1-1,0 1,0 0,1-1,-1 1,0-1,4-4,8-6,-1 0,-1-1,13-16,-25 28,12-14,-1 0,-1-1,0-1,-1 1,-1-2,0 1,10-34,-11 21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7652.48">3705 768,'0'5,"0"19,-5 23,-33 45,-23 24,-6-2,0-4,6-15,9-20,14-26,22-41,18-29,9-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8264.48">4393 0,'-5'0,"-10"18,-7 24,-9 19,-8 20,-2 11,-3 12,-3-2,6-6,11-14,10-17,8-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9678.22">4366 768,'5'0,"0"-2,1 1,-1-1,0 1,1-1,-1-1,-1 1,1-1,0 0,0 0,4-4,11-6,4-2,68-43,-83 51,-1 0,0 0,0-1,0 0,-1 0,-1 0,11-18,-16 25,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0 0,1 0,-3-2,1 1,0 0,0 1,-1-1,0 1,1-1,-1 1,0 0,0 0,0 1,0-1,0 1,-6-3,-7 0,1 0,-1 0,0 2,-30-2,32 4,-1 0,1 1,-1 1,1 0,0 0,0 2,-18 6,26-8,0 1,1-1,0 1,-1 0,1 0,0 1,1-1,-1 1,1 1,-1-1,1 0,1 1,-1 0,0 0,1 0,0 0,1 1,-1-1,1 1,-2 6,-2 17,1 1,2 0,1 0,2 0,5 51,-5-78,0-1,0 0,1 1,-1-1,1 0,-1 1,1-1,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,0-1,0 1,0-1,3 3,-2-3,0 0,1 0,-1 0,0 0,1-1,-1 1,1-1,-1 0,1 0,-1 0,1-1,-1 1,5-2,4-2,1 0,-1-1,0 0,-1 0,1-2,19-13,-14 7,-1-1,-1-1,0 0,-1-1,0 0,14-24,-21 29,-1-1,0 0,0 0,-2 0,1-1,-1 1,-1-1,0 0,-1 0,-1 0,1-17,-3 19,2 6,-1 0,0 0,0 0,0 0,-1 0,0 0,0 0,0 1,-1-1,1 0,-1 1,0-1,0 1,-4-6,-6-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11866.95">4896 371,'-110'322,"107"-313,1-1,0 0,0 0,1 1,1-1,-1 1,2 10,-1-18,0 1,0 0,0-1,1 1,-1-1,1 1,-1 0,1-1,0 1,0-1,-1 0,1 1,0-1,0 0,0 1,1-1,-1 0,2 1,-2-1,1 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,0 1,0-1,0 0,0 1,3-3,11-5,0-1,0 0,0-1,-1-1,-1-1,0 0,-1-1,0 0,-1-1,16-23,-22 26,-2 1,1-1,-1 1,-1-1,0 0,-1-1,0 1,0 0,-1-15,-1 18,0 0,0 0,-1 0,0 0,0 1,-1-1,0 0,0 1,-1 0,0-1,0 1,-1 0,-8-13,12 21,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,-1-1,1 25,0-20,2 77,4 1,20 97,-17-122,2 64,-1-9,11 0,-11-72,4 47,-10-42,-1 0,-2 0,-3 1,-10 66,9-96,0-1,-1 0,-1 1,-1-1,0-1,-1 1,0-1,-1 0,0-1,-2 0,1 0,-2-1,1-1,-2 1,1-2,-21 15,7-8,-1-2,0 0,-1-2,-1-1,-39 12,63-23,1 0,-1 0,0 0,1-1,-1 1,0-1,1 0,-1 0,0 0,1-1,-1 1,0-1,1 0,-1 0,1 0,-1 0,1-1,0 1,-7-5,7 3,0 0,0-1,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,0 0,1-1,-1 1,-1-9,1-3,1-1,0 1,1 0,1-1,0 1,1 0,8-32,-4 29,1 0,1 0,0 1,1 0,1 1,1 0,1 0,0 1,20-20,-12 17,0 2,0 0,2 2,0 0,1 1,41-18,-18 10,-1-2,82-60,-65 41,-35 25</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 557,'4'-3,"0"0,1 1,0-1,-1 1,1 1,0-1,0 0,0 1,0 0,0 0,1 0,-1 0,1 1,-1 0,9 0,-8 0,2 0,-1 0,-1-1,2 0,-1 0,-1-1,2 0,-2 0,9-2,-6-3,-1 1,1-1,-1 0,0 0,0-1,-2 1,2-2,-2 1,0-1,6-12,46-105,-43 91,-13 30,2-4,1-1,-2 1,0-1,2-19,-4 27,-1 1,0-1,0 0,0 1,0-1,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 1,0-1,1 0,-1 2,0-2,0 1,0-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 1,-4-1,-20 0,1 0,-1 1,0 1,-43 7,67-8,0 0,-1 0,1 1,0-1,-1 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,1 0,-2 1,1 0,1 0,0 0,-1 0,1 0,-1 3,1-1,0 0,0 0,1 1,-1-1,1 1,0-2,1 1,-1 1,1-1,0 1,0-2,2 6,5 9,0-1,1 1,1-1,21 27,-23-37,-1 0,0 0,1 0,0-2,0 2,2-2,-2 1,2-2,-1 1,11 3,15 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="632.99">888 203,'0'5,"-15"22,-13 15,-16 10,-6 5,1-4,9-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1701.03">722 203,'4'0,"8"0,5 5,9 5,5 18,-2 9,2 11,-3 7,-1-4,-7-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2411.95">1166 304,'0'1,"1"-1,0 0,0 1,0-1,0 1,-1-1,1 1,0 0,-1-1,1 1,0-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,0-1,0 1,1 0,-1 0,0 0,6 28,-5-25,4 44,-2 1,-5 70,2-118,0 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 0,0-1,1 0,-1 1,0 0,0 0,0-1,0 1,0-1,-1 1,1-1,-1 1,1-1,-1 0,1 1,-1-1,1-1,-4 2,4-2,-1 0,1 0,-2 0,1-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,1 0,0 0,-1-1,1-2,-8-24,1 0,2 1,1-2,2 1,1-1,1 1,2-1,5-28,-7 52,1 0,0 0,0 0,1 2,0-2,0 0,0 1,0-1,0 2,1-1,0 0,0 0,0 0,1 0,-1 2,1-2,7-4,0 2,-1 2,2 0,0-1,-1 2,1 0,17-2,181-47,-207 51,1 0,-1 1,1-1,-1 1,1-1,0 1,-1 0,1 0,-1 0,0 1,2-1,-2 1,0 0,1 0,-1 0,0 1,1-1,3 2,-4 0,0 0,0 0,0 0,1 1,-1-1,-1 0,0 1,1-1,-1 1,-1 0,1 1,-1-2,2 9,2 0,-3 1,1-1,-2 1,0 0,0 0,-1-1,-1 1,0 0,-4 16,4-25,-1 1,1 0,-2 0,1-1,0 0,0 1,-1-1,0 1,1-2,-2 1,0 0,1 0,-1-1,0 1,0-1,0-1,-1 1,1 0,-1 0,1-1,-2 0,1 0,1 0,-1-1,0 1,-11-1,-44 2,30-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3087.95">1609 431,'4'0,"3"8,-1 8,-1 14,-6 6,-13 13,-13 5,-6-1,-8 6,-1-5,6-5,10-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4754.46">2109 152,'5'1,"2"0,-1 0,-1 1,2 0,-2 0,1 0,-1 0,1 0,-1 1,0 0,0 0,-1 1,2 0,-2 0,0-1,0 1,0 0,0 1,0 0,-1-1,0 1,4 9,3 5,-1-1,-1 1,-1 1,9 37,-12-27,-2 2,0-2,-5 43,3-73,0 0,1 1,-1-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,-1 1,1-1,0 0,0 1,0-1,-1 0,1 0,0 1,0-1,-1 0,1 0,0 1,-1-1,1 0,0 0,-1 0,0 1,-7-19,-4-30,8 12,2-69,3 89,1-2,1 2,0 0,1 0,1-1,10-21,-10 29,1 2,0-1,0 0,0 1,1 0,0 0,0 2,2-2,-1 1,-1 1,3 0,-2 0,2 1,-2 0,12-3,-4 1,0 1,-1 1,1 0,1 2,-2 0,2 0,-1 1,28 2,-40-1,-1 1,2-1,-1 1,-1-1,1 1,-1 0,0 0,2 0,-2 1,0-1,0 1,1 0,-2 0,1 0,1 1,-1-1,-1 0,1 1,2 3,-3-2,0 0,0 0,1 0,-2 0,0 0,0 1,0-1,0 1,-1-2,0 2,0-1,0 1,-1 5,-2 6,-2-1,1 0,-1 1,-1-2,-1 1,0-1,-14 19,-2-2,-1-3,-1 1,-3-2,0-1,-1-1,-41 26,50-36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5600.46">2802 507,'0'5,"4"4,3 7,-1 13,-2 5,-1 6,-1-4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6088.46">2913 254,'4'0,"3"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6823.52">3135 557,'4'3,"0"0,0-1,-1 0,0 2,0-1,1 0,-1 1,0-1,-1 1,1-1,-1 1,0 0,4 7,16 60,-18-56,13 57,-11-39,2-1,2 1,17 38,-27-70,1 1,-1-1,1 0,-1 0,1-1,0 2,0-1,0 0,-1 0,1 0,0 0,0 0,0-1,2 1,-2 0,0 0,0-1,0 1,1-1,-1 1,0-1,0 1,1-1,-1 0,0 0,1 0,1 1,1-2,0 0,-1 1,1-1,-1-1,0 1,0 0,2-1,-2 1,0-1,4-3,9-7,-1 1,-2-2,15-15,-27 27,12-13,0 0,-2-2,1 0,-2 1,0-2,-1 0,11-31,-11 19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7652.48">3884 735,'0'5,"0"18,-5 22,-35 43,-24 23,-6-2,-1-4,8-14,8-19,15-25,23-40,20-27,8-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8264.48">4605 0,'-5'0,"-11"17,-7 23,-9 19,-9 18,-2 11,-3 12,-4-3,7-5,12-13,10-17,8-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9678.22">4577 735,'5'0,"0"-2,2 1,-2-1,0 1,1-1,0-1,-2 1,1 0,0-1,1 0,3-4,12-5,4-3,72-40,-88 48,-1 0,1 1,-1-2,1 0,-2 1,-1-1,12-17,-17 24,0-1,0 0,0 1,0-1,0 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,-1 0,0 0,1 0,-3-2,1 1,0 1,0 0,-1-1,0 1,1-1,-2 1,1 0,0 0,0 1,0-1,0 1,-7-2,-7-1,2 0,-2 0,0 2,-31-2,33 4,0 0,0 1,-1 1,1 0,1 0,-1 2,-18 6,26-9,1 2,1-1,-1 1,0 0,1 0,0 1,1-1,-2 0,2 2,-1-1,1 0,1 1,-2-1,1 1,1 0,0 0,1 0,-1 0,0 1,-1 5,-2 17,1 1,2 0,1-1,2 1,5 49,-5-76,0 0,0 0,1 1,-1-1,1 0,-1 1,1-1,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,1 0,-1 0,2 0,-1-1,0 1,0-1,3 3,-2-4,0 1,2 0,-2 0,0 0,1-1,-1 1,1-1,0 0,0 0,-1 0,1-1,-1 1,6-2,3-1,2-1,-2-1,1 0,-2 0,2-1,20-13,-16 6,0 0,-1-2,0 1,-2-1,1-1,14-22,-21 28,-2-2,0 1,1-1,-3 1,1-2,-1 2,-1-2,0 1,0-1,-2 1,1-17,-3 19,2 5,-1 0,0 0,0 1,0-1,-1 0,0 0,0 0,-1 2,0-2,1 0,-1 1,0-1,0 2,-4-7,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11866.95">5133 355,'-116'308,"113"-299,1-2,0 1,0 0,1 0,1 0,-1 1,2 9,-1-17,0 1,0 0,0-2,1 2,-1-1,1 1,-1 0,1-1,0 1,0-1,-1 0,1 1,0-1,0 0,0 1,1-1,-1 0,2 1,-1-2,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,-1 0,1-1,0 1,0-1,0 0,0 1,3-2,12-6,0-1,0 1,0-2,-2 0,0-2,0 1,-2-2,1 1,-2-2,18-21,-24 24,-2 2,2-2,-2 2,-1-2,0 1,-1-2,0 2,0-1,-1-14,-1 18,0-1,0 0,-1 1,0-1,0 1,-1 0,0-1,0 1,-1 1,0-2,-1 1,0 1,-8-14,12 21,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,-1 0,1 1,0-1,0 0,0 0,-1 0,1 0,0 0,0 0,-2 0,2 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1-1,0 1,0 0,0 0,0 0,0 0,-1-1,1 24,0-19,2 74,5 0,20 93,-18-116,3 61,-2-9,12 0,-11-69,4 46,-11-41,-1 0,-2 0,-3 1,-11 63,10-92,0 0,-1-1,-2 1,0 0,0-2,-1 1,-1 0,0-1,-1 0,-1-1,1 0,-3 0,2-2,-3 2,1-3,-21 15,7-7,-2-3,1 0,-1-1,-2-2,-40 12,66-22,1 0,-1 0,0 0,0-1,0 1,0-1,1 0,-1 0,-1 0,2-1,-1 1,0-1,1 0,-1 0,0 0,0 0,1-1,0 1,-8-4,8 2,0 0,0-1,0 1,0-1,1 1,-1-1,0 0,1 0,0 0,0 0,1 0,-1 0,-1-9,1-2,1-1,0 1,1-1,1 0,0 1,1-1,8-30,-3 28,0 0,1 0,1 1,0-1,2 2,0 0,2 0,-1 0,22-18,-13 16,0 1,0 1,2 2,0-1,1 2,43-18,-19 10,0-2,85-57,-68 39,-37 24</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -26990,15 +27039,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">890 502,'-22'0,"-1"0,0 0,-1 1,-34 7,54-7,0-1,-1 1,1 1,0-1,0 1,0-1,0 1,0 0,0 1,0-1,1 0,-1 1,1 0,-1 0,1 0,0 1,1-1,-1 1,0-1,1 1,0 0,0 0,0 0,0 0,-1 4,3-5,-1-1,1 1,0-1,-1 0,1 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,1 1,0-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,1-1,-1 1,1 0,0-1,0 1,0 0,0-1,0 0,0 0,0 1,0-1,0-1,1 1,-1 0,3 0,11 3,0-1,0 0,0-1,25-1,-2 1,-26 0,0-1,-1 1,1 1,0 0,-1 1,0 1,0 0,0 0,-1 1,1 0,-1 1,-1 1,1 0,-2 0,1 1,-1 0,11 14,-19-22,0 0,1 1,-1-1,0 0,-1 1,1 0,0-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,-1 0,1-1,-1 1,1 0,-1-1,0 1,1 0,-1-1,0 0,0 1,0-1,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,-1 0,1-1,-1 1,1 0,-3 0,-10 5,1-1,-1 0,0-1,-21 2,23-3,-435 55,-3-38,410-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1501.03">1049 582,'5'7,"0"-1,-1 1,1 0,-1 0,-1 0,1 0,-1 1,0 0,-1-1,0 1,0 0,0 8,2 20,0 50,-3-49,-1-22,0 7,1 0,1 0,1 0,11 38,-13-56,0-1,0 0,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,1 0,-1-1,1 0,-1 0,1 1,0-2,0 1,0 0,0 0,0-1,0 0,0 1,1-1,-1-1,0 1,1 0,-1-1,1 0,-1 1,1-1,-1-1,1 1,-1 0,0-1,1 0,-1 0,6-2,-1 0,0-1,-1 0,0 0,1 0,-1-1,-1 0,1-1,-1 1,0-1,0 0,-1-1,0 0,0 1,0-2,-1 1,0 0,5-13,1-5,-1-1,-2-1,0 1,3-32,17-115,-23 143</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2788">1684 555,'1'207,"-3"215,-5-369,3-36,0-33,4-55,4 1,3-1,2 1,29-105,-35 163,11-40,-14 50,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,0 0,2-1,-3 2,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0 1,8 21,-7-22,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 1,-1-1,1 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1-1,6-4,0 0,-1-1,0 0,0 0,-1-1,0 1,0-1,0 0,-1-1,0 1,4-12,6-8,22-44,-23 44,0 0,2 1,20-26,-34 50,1-1,0 0,1 1,-1 0,0 0,1-1,-1 1,1 1,-1-1,1 0,0 1,0-1,0 1,0 0,0 0,3-1,-4 2,0 0,0 0,0 0,0 1,-1-1,1 1,0-1,0 1,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 1,1-1,0 2,3 5,0-1,-1 1,0-1,0 1,-1 0,0 1,0-1,-1 1,2 15,3 58,-6 132,-1-200,-1 25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3304.99">2372 846,'4'0,"2"14,0 22,-2 23,-5 24,-8 21,-6 10,-19 31,-7-5,2-17,8-25,10-29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4912">2980 582,'-4'57,"-1"-2,-4 1,-16 60,-9 54,32-153,-1-1,0 1,-9 22,0-23,4-25,0-32,7 23,1 0,1 0,1 0,1 0,0 0,12-34,-12 42,0 0,1 1,1 0,-1-1,2 2,-1-1,1 0,0 1,1 0,0 1,0 0,1 0,14-11,-21 17,0 0,1 0,-1 0,0 0,0 1,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,0-1,0 1,1 0,0 1,1 3,-1 0,0 0,0 0,0 0,0 0,-1 1,1 9,9 27,-11-40,1-1,-1 0,1 1,0-1,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,0 1,0-1,1 1,2 0,1-1,-1 0,1-1,0 1,0-1,-1 0,1-1,0 1,-1-1,1 0,-1 0,0 0,1-1,-1 1,0-1,0 0,4-4,11-11,30-33,-39 40,31-37,-24 27,0 0,2 1,0 1,39-28,-57 46,0 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,-1 1,2 0,-1 1,0-1,-1 1,1 0,0 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,-1-1,2 4,1 11,-1 1,0-1,-2 28,0-34,1 24,0 3,-1 1,-2-1,-10 58,6-74</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5875.99">3457 687,'-2'117,"4"123,-2-235,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,0-1,0 1,1 0,-1-1,1 0,4 5,-4-6,0 0,0-1,1 1,0-1,-1 0,1 0,0 0,0-1,0 1,0-1,0 0,0 0,1 0,-1-1,0 0,0 0,5 0,-1 0,0 0,-1-1,1 0,-1 0,1 0,-1-1,0-1,1 1,-1-1,0 0,-1-1,9-4,-7 1,0 1,-1-1,1-1,-1 0,-1 1,0-2,0 1,7-15,0-5,-2 1,-1-2,-1 1,-2-2,0 1,3-53,-2 26,11-5,-8 35</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6456.99">4118 185,'0'1,"1"-1,0 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,0 0,1 0,-1-1,0 1,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 1,0 2,7 45,-3 1,-2 0,-4 60,-26 154,24-235,-53 289,56-312,0 1,1 0,0-1,1 1,-1 0,1-1,0 1,3 8,-4-14,1 1,-1-1,1 1,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,0 0,1-1,-1 0,1 1,-1-1,1 0,-1 1,1-1,0 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1-1,1 1,-1-1,2-1,0 1,-1 0,0 0,0 0,0-1,0 1,0-1,-1 0,1 1,0-1,-1 0,1 0,-1 0,0 0,2-4,6-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7363.99">4594 0,'-21'787,"21"-773,-2 2,1-1,1 1,0-1,1 1,5 22,-4-33,-1 0,1-1,0 1,1-1,-1 1,1-1,0 0,0 0,0 0,0-1,1 1,-1-1,1 0,0 1,0-2,0 1,1 0,-1-1,1 0,-1 0,7 2,-6-3,0 1,0 0,0-1,1 0,-1 0,1-1,-1 0,0 0,1 0,-1 0,10-2,-12 1,0 0,0 0,0-1,-1 1,1-1,0 1,0-1,-1 0,1 0,-1 0,0 0,1 0,-1-1,0 1,0-1,-1 0,1 1,0-1,-1 0,0 0,2-3,16-41,-13 34,0 0,-1-1,-1 0,0 0,0 0,1-17,-4 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8246">4515 502,'4'0,"6"0,7 0,3 0,4 0,3 0,0 0,0 0,1-4,0-2,-1 1,0 0,-5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">921 479,'-23'0,"0"0,-1 0,-1 1,-35 6,56-6,0-1,-1 1,0 1,1-1,0 1,0-1,0 1,0 0,0 1,-1-1,2-1,-1 2,1 0,-1 0,1 0,0 1,1-1,-1 0,-1 0,2 1,0 0,0 0,0-1,0 1,-1 4,3-5,-1-1,1 1,0-2,-1 1,1 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1-1,1 2,0-1,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,1-2,-1 2,1 0,1-1,-1 1,0 0,0-1,0 0,0 0,0 1,0-1,0-1,1 1,-1 0,3 0,12 2,0 0,-1 0,1-1,25-1,-1 1,-28 0,0-1,0 1,0 1,1-1,-2 2,1 1,-1 0,0 0,0 0,0 1,0 1,-2 0,1 1,-1 0,0 0,-1 1,12 13,-20-21,0 0,1 0,-1 0,0 0,-1 1,1 0,0-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,0 0,0 0,0-2,0 2,0 0,0 0,0-1,0 1,-1 0,1-1,-1 1,1 0,-1-1,0 1,1-1,-1 0,0 0,0 1,0-1,0 1,-1-1,1 0,0 0,0 1,-1-1,1 0,-1 0,1-1,-1 1,1 0,-3 0,-11 4,2 0,-2 0,1-1,-23 1,25-2,-451 53,-3-37,425-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1501.03">1086 555,'5'7,"0"-2,-1 2,2 0,-2-1,-1 1,1 0,-1 0,0 1,-1-1,0 0,0 1,0 7,3 20,-1 47,-3-47,-1-21,0 7,1 0,1 0,1 0,11 36,-13-53,0-1,1 0,-1 1,0-2,1 1,-1 0,1 0,0 0,0 0,0-1,0 1,1-1,-1 0,1 0,-1 0,2 1,-1-2,0 1,0 0,0 0,0-1,0 0,0 0,1 0,-1-1,1 1,0 0,-1-1,1 0,-1 1,1-1,-1-1,1 1,0 0,-1-1,1 0,-1 0,6-1,0-1,-1-1,-1 0,0 0,2 1,-2-2,-1 0,1-1,0 1,-1 0,0-1,-1-1,0 1,0 0,1-2,-2 2,0-1,5-12,2-5,-2-1,-2 0,0 0,4-31,17-109,-24 137</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2788">1743 529,'1'198,"-3"204,-5-351,3-35,0-31,4-53,4 1,3-1,2 2,31-101,-37 155,11-37,-14 47,1 0,0 0,-1 0,1 0,0 0,0 0,0 1,1 0,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,0 0,2-1,-3 2,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,1-1,-2 1,1-1,0 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1-1,0 0,0 1,0 0,0 0,0 0,0 1,8 20,-7-21,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 1,-1-1,1 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1 0,0 0,-1 0,2 0,-1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,0-1,-1 1,1-1,6-4,0 1,0-2,-1 0,0 0,-1 0,0 0,0-1,1 1,-2-2,0 1,4-11,7-8,22-41,-24 41,1 0,1 1,22-24,-36 47,1-1,0 0,1 1,-1 0,0 0,1 0,-1 0,1 1,-1-1,2 0,-1 1,0-1,0 1,0 0,0 0,3-1,-4 2,0 0,0 0,1 0,-1 1,-1-1,1 1,0-1,0 1,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,0 1,1-1,1 2,2 4,0 0,-1 0,0 0,0 1,-1-1,1 2,-1-1,-1 0,2 15,3 55,-6 126,-1-190,-1 23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3304.99">2455 807,'5'0,"1"13,0 21,-2 23,-5 22,-8 20,-7 10,-19 29,-7-4,1-17,9-24,10-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4912">3085 555,'-4'54,"-2"-1,-3 0,-17 58,-9 51,33-146,-1-1,0 2,-10 20,1-22,4-24,-1-30,8 22,1 0,1 0,1 0,2 0,-1-1,12-31,-12 39,0 1,2 0,0 1,-1-2,2 2,-1 0,1-1,1 2,0-1,0 1,0 1,2-1,13-10,-21 16,1 0,0 0,-1 0,0 0,0 1,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,0 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,0-1,0 1,1 0,0 1,1 3,-1-1,0 1,0 0,0 0,1-1,-2 2,1 8,9 27,-11-40,1 0,-1 0,1 1,0-1,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,-1-1,0 1,0-1,1 1,2-1,1 0,-1 0,1 0,1 0,-1-1,-1 0,1-1,0 1,-1-1,2 0,-2 0,0 0,1-1,-1 1,0-1,0 1,5-5,10-10,32-32,-41 39,33-36,-25 26,-1 0,3 1,-1 1,41-27,-58 44,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 1,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 1,-1-1,1 0,-1 1,2 0,-1 1,0-1,-1 1,1 0,0 0,-1 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 1,-1-1,3 4,0 10,-1 1,0-1,-2 27,0-32,1 22,0 3,-1 1,-2 0,-11 54,7-70</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5875.99">3579 655,'-3'112,"6"117,-3-225,1 1,-1 0,1 0,0-1,0 1,0 0,0 0,1-1,0 0,0 1,1 0,-1-1,1-1,4 6,-3-6,-1 0,0-1,1 1,0-2,-1 1,1 0,0 0,1-1,-1 1,0-1,0 0,0 0,1 0,-1-1,1 0,-1 0,5 0,-1 0,1 0,-2-1,1 0,-1 0,2 0,-2-1,0-1,1 1,0-1,-1 1,-1-2,10-4,-8 1,0 2,0-2,0-1,-1 1,-1 0,0-1,1 0,6-14,1-5,-3 2,-1-3,0 1,-3-1,0 0,3-50,-1 24,10-4,-7 33</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6456.99">4263 176,'0'1,"1"-1,0 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,0 0,1 0,-1-1,0 1,0 0,1 0,-1-1,0 1,0 0,0 0,0 0,0 0,0 3,7 43,-2 1,-3-1,-4 58,-27 147,24-224,-54 275,58-297,0 0,1 1,0-1,1 0,-1 1,1-1,0 0,4 9,-5-14,1 1,-1-1,1 1,-1-2,1 2,0-1,0 0,-1 1,1-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,1-1,-1 1,0 0,1-1,-1 0,2 1,-2-1,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,-1-1,2-1,0 1,0 0,-1 0,0 0,0-1,0 1,0-1,-1 0,1 1,0-1,-1 0,1 1,-1-1,0 0,2-4,7-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7363.99">4756 0,'-22'750,"22"-736,-2 1,1-1,1 2,0-2,1 1,5 21,-4-31,-1 0,1-1,0 1,1-2,-1 2,1-1,1 0,-1 0,0-1,0 0,1 1,-1-1,1 0,0 1,1-2,-1 0,1 1,-1-1,1 0,-1 0,8 2,-7-3,0 1,0 0,0-1,2-1,-2 1,1-1,-1 0,0 0,2 0,-2 0,10-1,-12 0,0 0,1 0,-1-1,-1 1,1-1,0 1,0-1,-1 0,1 0,-1 0,0 0,2 0,-2 0,0 0,0-1,-1 0,1 1,0-1,-1 0,0 1,2-4,17-39,-14 33,0-1,-1 0,-1-1,1 1,-1 0,1-17,-4 9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8246">4674 479,'4'0,"6"0,8 0,3 0,3 0,4 0,0 0,0 0,1-4,0-2,-1 1,0 1,-5 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -27086,15 +27135,15 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1217 904,'14'5,"17"5,22 6,29 1,45-4,38-7,-1-6,-10-6,-9-4,-25 2,-27 1,-26 2,-15 2,-17 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="842">1799 1222,'5'0,"5"0,7 0,3 0,4 0,7 4,11 7,17 5,11 5,-1-2,-3-3,-14 0,-10-4,-9-3,-4 2,1-2,0-2,-5-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1504.99">0 719,'9'0,"17"0,21 0,21 0,17 0,8 0,-4 0,-7 0,-14 0,-13 0,-12 0,-13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2088.99">370 613,'0'5,"0"10,0 25,0 19,0 18,0 9,0 8,0 6,0 0,0 0,0-12,0-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2698">79 1592,'5'0,"10"0,12 0,10 0,17 0,30 0,20 0,5 0,-3 0,-14 0,-19 0,-16 0,-11 5,2 1,-8-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5235.99">4048 613,'-6'150,"-29"167,30-277,0-16,2-36,2-45,1 53,9-320,-4 267,2 1,3 1,29-95,-35 139,1 0,1 0,0 1,0 0,1 0,0 0,1 1,0 0,0 1,1 0,0 0,1 1,-1 0,1 0,1 1,-1 1,1-1,21-6,-11 6,-1 0,1 1,1 2,-1 0,0 1,1 0,-1 2,1 1,33 6,-50-7,0 1,-1 0,1 0,-1 1,0-1,1 1,-1 0,0 0,0 0,0 1,0-1,0 1,-1 0,1 0,-1 0,0 1,0-1,0 1,0 0,-1 0,0 0,3 5,-1 2,-1 1,0 0,-1 0,-1 0,1 0,-2 0,0 16,0 1,-1-1,-1 0,-2 1,-1-1,-9 30,12-50,0-1,-1 0,0 0,-1 0,0 0,0-1,0 1,-1-1,0 0,0 0,0-1,-1 0,0 0,0 0,0 0,0-1,-1 0,0 0,0-1,0 0,0 0,0-1,-16 3,11-3,-1-2,0 1,0-1,1-1,-1-1,0 0,1 0,-15-5,-35-6,41 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5970">3678 1222,'475'13,"-86"-1,-13 11,-372-23,-2 0,0 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,2 1,2 10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7735.1">4022 1672,'-1'0,"0"1,1 0,-1-1,0 1,1-1,-1 1,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,0 2,-5 32,4-26,-37 243,-76 261,101-476,20-77,120-387,-116 391,1-1,2 2,2 0,1 0,23-34,-32 57,0 0,0 1,1 0,0 0,1 1,0 1,1 0,-1 0,2 1,0 0,0 1,0 0,0 1,1 0,0 1,26-6,-36 10,0 1,-1 0,1-1,-1 1,1 0,-1 0,1 1,0-1,-1 0,1 1,-1 0,1-1,-1 1,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,0 1,-1 0,1 0,0 0,0-1,-1 2,1-1,-1 0,0 0,1 0,-1 1,0-1,0 1,-1-1,1 0,0 1,-1 2,3 10,-2-1,0 1,0 0,-2-1,-1 17,-2-1,-12 56,13-74,-1-1,0 0,0-1,-1 1,0-1,-1 0,0 0,-9 10,11-16,-1-1,0 0,0 0,0 0,0-1,0 0,-1 0,1 0,-1 0,1-1,-1 0,0 0,1-1,-11 0,-62-3,74 3,34 14,-1 1,0 2,-2 1,43 36,-54-42,-10-6,1 1,-1-1,0 1,-1 0,0 0,0 0,0 1,-1 0,5 14,0 0,-2 1,5 30,-6-19</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9755.1">3069 1857,'5'80,"3"0,31 134,6 41,-41-195,-3-42,-1 1,2-1,0 0,2 0,0-1,11 32,-15-49,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,1 1,-1-1,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,1 1,-1 0,0 0,1 0,-1-1,0 1,0 0,1-1,-1 1,13-26,1-21,-3-1,-1 0,7-93,1-8,12 8,72-202,-1 6,-28-17,49-178,-92 341,-24 132,25-98,-24 127,-5 21,0 0,1 0,0 0,0 1,1-1,5-9,-7 15,1 1,-1-1,1 0,0 1,-1-1,1 1,0 0,1 0,-1 0,0 1,0-1,1 1,-1-1,1 1,-1 0,1 1,-1-1,1 1,6-1,223 2,-81 3,1066-4,-1128 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1272 869,'15'5,"17"4,24 7,30 0,46-3,41-8,-2-5,-10-5,-9-5,-27 2,-27 2,-28 1,-16 2,-17 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="842">1881 1175,'5'0,"5"0,8 0,3 0,4 0,8 4,11 6,17 6,12 4,0-2,-4-3,-15 1,-10-5,-10-2,-3 1,0-1,0-2,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1504.99">0 691,'9'0,"19"0,21 0,22 0,18 0,8 0,-4 0,-7 0,-15 0,-14 0,-12 0,-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2088.99">387 589,'0'5,"0"10,0 23,0 19,0 17,0 8,0 9,0 5,0 0,0 0,0-11,0-21</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2698">83 1530,'5'0,"11"0,12 0,10 0,19 0,31 0,20 0,6 0,-3 0,-15 0,-19 0,-18 0,-11 5,3 1,-10-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5235.99">4232 589,'-6'144,"-31"161,32-266,0-16,2-35,2-43,1 52,9-309,-4 257,2 1,4 2,30-93,-37 135,1-1,1 1,1 0,-1 0,1 1,1-1,0 2,0-1,1 1,0 1,0-1,2 1,-2 0,2 1,0 0,0 1,0-1,23-5,-12 5,-1 0,1 1,1 3,-2-1,1 1,1 0,-1 2,1 1,35 6,-53-7,0 0,0 1,0 0,-1 1,0-1,1 1,0 0,-1 0,0 0,0 1,0-1,0 1,0 0,0-1,-1 1,0 1,0-1,0 1,0 0,0 0,-1-1,3 6,-1 2,-1 0,0 1,-1-1,-1 1,2-1,-3 1,0 15,0 1,-2-1,0-1,-2 2,-1-1,-10 29,13-48,0-2,-1 1,0 0,-1 0,0-1,-1 0,1 1,-1-1,0-1,-1 1,1-1,-1 0,0 0,-1-1,1 1,0-1,-1 0,-1 0,1-1,0 0,-1-1,1 0,-17 3,11-3,0-2,-1 1,1-1,0-1,-1-1,1 0,0 0,-15-4,-37-7,43 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5970">3845 1175,'497'12,"-91"0,-12 10,-390-22,-2 0,0 0,1 0,-1 1,0-1,0 0,0 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0-1,0 2,2 1,3 10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7735.1">4205 1607,'-1'0,"0"1,1 0,-1-1,0 1,1-1,-1 1,0 0,1 0,-1-1,-1 1,2 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,0 2,-5 30,4-24,-39 233,-79 251,106-457,20-75,126-371,-122 375,2 0,1 1,3 0,1 1,24-34,-34 56,0-1,1 2,0-1,1 1,0 0,0 1,2 1,-2-1,3 1,0 1,-1 0,1 0,-1 1,2 1,-1 0,28-6,-38 10,0 1,-1 0,2-1,-2 1,1 0,-1 0,1 1,0-1,-1 0,1 1,0 0,0-1,-1 1,0 0,1 0,-1 1,0-1,0 0,1 1,-1-1,1 1,-2 0,1 0,0 0,0-1,-1 1,1 0,-1 0,0 0,1 0,-1 1,0-1,0 1,-1-1,1 0,0 1,-1 1,4 11,-3-2,0 2,0-1,-2-1,-1 17,-3-1,-11 54,13-72,-2 0,1-1,0 0,-1 1,0-2,-2 1,1 0,-10 9,12-15,-1-2,0 1,-1 0,1 0,0-1,0 0,-2 0,2 0,-1 0,1-1,-2 0,1 0,1-1,-12 0,-64-3,77 3,35 13,-1 2,1 1,-3 1,45 35,-56-40,-11-7,1 2,0-1,-1 1,-1-1,0 1,0 0,1 1,-2-1,5 14,1 1,-3 0,6 29,-7-19</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9755.1">3209 1785,'5'77,"3"0,33 129,6 39,-43-188,-3-39,-1 0,2-1,0 1,3-1,-1-1,11 31,-15-47,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,0 1,0-1,0 0,1 1,-1-1,0 0,0 0,2 1,-2-1,0 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 0,0 0,1 0,-1 0,0 0,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,1 1,-1 0,0 0,1 0,-1-1,0 1,0 0,1-1,-1 1,14-25,0-20,-2-1,-2 0,8-90,1-7,12 7,76-193,-2 5,-28-17,50-170,-95 327,-26 128,26-95,-24 122,-6 20,0 1,1-1,0 0,0 2,1-2,6-8,-8 14,1 1,-1-1,1 0,0 1,0-1,0 1,0 0,1 1,-1-1,0 1,0-1,2 1,-2-1,1 1,-1 0,1 1,-1-1,2 1,5-1,234 2,-86 3,1116-4,-1180 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -27148,20 +27197,20 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 655,'1'3,"-1"0,1 0,-1 0,1-1,0 1,1 0,-1-1,0 1,1 0,-1-1,1 1,0-1,3 3,31 31,-24-26,42 46,-3 2,59 86,-103-134,1 0,0-1,1 0,0 0,1-1,10 7,-16-12,-1-1,0 0,1 0,0 0,-1 0,1-1,0 1,0-1,0 0,0 0,0-1,0 1,1-1,-1 0,0 0,0 0,0 0,0-1,0 0,0 0,8-2,-8-1,0 0,0 0,0 0,-1-1,1 1,-1-1,0 0,0 1,-1-2,1 1,-1 0,0 0,-1-1,1 1,0-7,3-5,35-137,0-5,-33 139,1-1,0 2,1-1,2 1,17-25,-12 24</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="383">953 549,'5'5,"5"1,6-1,5 0,8-1,3 2,-4 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="384">794 867,'0'4,"5"2,5 0,6-2,5 0,3-2,2-1,1-1,1 0,4 0,2 0,3-1,0 1,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="736.66">1720 337,'-3'64,"-4"1,-2-1,-23 84,16-79,14-57,-1 0,1 0,1 0,0 1,1-1,1 1,-1-1,2 0,3 15,-4-22,1 0,0 0,0 0,0-1,1 1,0-1,0 1,0-1,0 0,0 0,1 0,0-1,0 1,0-1,0 0,0 0,1 0,0-1,-1 0,1 0,0 0,0 0,0-1,7 2,-9-2,-1-1,0 1,1-1,-1 1,0-1,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,0-1,1 0,-1 1,0-1,0 0,0 0,1 0,-1-1,0 1,-1-1,1 1,0-1,0 1,-1-1,3-3,-1 0,0-1,-1 0,0 1,0-1,0 0,-1 0,0 0,0-1,0-9,0-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1112.67">1826 126,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3283.68">2249 337,'3'0,"0"1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,1 0,-1-1,0 1,0 0,0 0,0 1,0-1,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,0-1,0 1,0 4,4 13,-1 0,4 35,-7-41,5 32,-2 0,-2 0,-7 83,-3-152,-1-25,3-22,6-117,3 157,0 0,2 0,1 0,1 1,2-1,18-41,-20 59,0 1,1-1,0 2,0-1,1 1,1 0,0 1,18-13,-4 4,1 2,49-24,-72 39,1 0,0-1,-1 1,1 0,-1 0,1 1,0-1,0 0,0 1,-1 0,1 0,0-1,0 2,0-1,0 0,-1 1,1-1,0 1,4 1,-5 0,0-1,0 1,1 0,-1 0,-1 0,1 0,0 0,0 1,-1-1,1 0,-1 1,0-1,0 1,0-1,0 1,1 4,1 12,0 0,-2 0,0 0,-3 33,1-31,-1 40,-4-1,-2 1,-2-1,-3-1,-3 0,-2-1,-35 75,51-127,-1 0,0 0,-1-1,1 1,-1-1,0 0,0 0,-1 0,1-1,-1 0,0 1,-8 4,10-8,0 0,1-1,-1 1,0 0,0-1,1 1,-1-1,0 0,0 0,0 0,1 0,-1-1,0 1,0-1,0 1,1-1,-1 0,1 0,-1 0,0-1,1 1,0 0,-1-1,1 0,0 0,0 1,0-1,0-1,0 1,-2-3,-1-1,-1-2,1 1,1-1,-1 1,1-1,-4-13,7 20,1 0,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,0-1,1 1,1-3,-1 3,0 0,0 1,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 1,2 0,8 3,0 1,0 0,0 1,-1 0,1 1,-2-1,15 14,33 21,-7-12,2 1,73 55,-109-72</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4287.66">2276 390,'0'5,"0"5,0 11,0 10,0 18,0 15,0 4,0 1,0-3,0-8,0-5,0-7,0-3,0-3,0 5,0 3,0-2,0-8</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6083.66">133 1951,'1'0,"0"1,0-1,0 1,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 2,4 39,-4-35,8 128,-10 151,-1-264,-1-19,-4-37,-5-169,13 166,2 1,2 0,12-60,-15 91,1 1,-1-1,1 0,0 1,0-1,0 1,0-1,1 1,0 0,0 0,0 0,0 1,1-1,0 1,-1 0,1 0,0 0,0 0,8-3,-8 5,0-1,0 1,1 1,-1-1,0 0,1 1,-1 0,1 0,-1 1,0-1,1 1,-1 0,0 0,0 0,1 1,-1-1,0 1,0 0,-1 0,1 0,6 6,-4-3,0 0,-1 1,1 0,-1 0,0 0,-1 1,0-1,0 1,0 0,-1 1,0-1,0 0,-1 1,0 0,0-1,-1 1,0 0,-1 0,1 0,-1 0,-1 0,0-1,0 1,-3 11,1-3,-1 0,-1 0,0 0,-1-1,-1 0,-1 0,0 0,0-1,-2-1,-18 22,12-14,29-17,29 4,42 34,-61-27</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6743.66">635 2057,'5'0,"5"0,11 0,10 0,5 0,1 0,2 5,0 1,-7 4,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7500.69">635 2428,'5'0,"5"0,7 0,3 0,4 0,3 0,0 0,5 0,6 0,1 0,-2 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8453.66">1747 1634,'-2'149,"5"157,-3-302,0 0,1 0,0 0,0 0,0 0,0 0,0 0,1-1,0 1,0 0,0-1,0 0,4 6,-4-8,0 1,-1-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 1,1-1,2-2,11-5,-1-2,0 0,0-1,-1 0,0-1,-1 0,-1-1,18-24,2-11,35-69,166-314,-213 393,-6 9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9407.66">1270 2242,'5'0,"5"0,7 0,8 0,10 5,-2 5,-1 2,11-2,12-2,10-3,17-2,21-1,79 7,26 3,-4-1,-33 2,-40 0,-43-4</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10527.66">1879 2560,'-9'9,"-7"21,-2 10,-1 2,6-1,6-3,8-8,9-9,7-9,5-5,-1-10,-4-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11018.66">1932 2507,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 630,'1'3,"-1"0,1 0,-1 0,1-1,0 1,1 0,-1-1,0 1,2-1,-2 0,1 1,0-1,3 3,33 30,-25-26,44 45,-3 2,63 83,-109-130,0 1,1-1,0-1,1 1,0-1,11 6,-16-11,-2-1,0 0,1 0,1 0,-2-1,1 0,0 1,0-1,1 0,-1 0,0-1,0 1,2-1,-2 0,0 0,0 0,1 0,-1-1,0 0,0 0,9-2,-9 0,1-1,-1 0,0 0,-1-1,2 1,-2 0,0-1,0 1,-1-2,1 1,-1 1,1-1,-2-1,1 1,0-6,3-6,38-131,-1-5,-35 134,2-2,-1 3,2-1,2 1,17-25,-12 24</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="383">1011 528,'5'5,"6"1,6-1,5 0,9-1,3 1,-5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="384">842 835,'0'3,"5"3,6 0,6-2,5 0,4-2,1-1,2-1,1 0,3 0,4 0,2-1,0 1,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="736.66">1824 324,'-3'62,"-5"1,-1-2,-25 82,17-77,15-54,-1-1,1 1,1-1,-1 2,2-2,2 2,-2-2,2 1,3 14,-4-21,1 0,0-1,0 1,1-1,0 1,0-1,0 0,0 0,0 0,1 0,0 0,0-1,0 1,1-1,-1-1,0 1,1 0,1-1,-2 0,1 0,1 0,-1 0,0-1,8 2,-10-2,-1-1,0 1,1-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,2-1,-2 1,0-1,1 0,-1 1,0-1,0 0,1 0,0 0,-1-1,0 1,-1-1,1 1,0-1,0 1,-1-1,4-3,-2 1,0-2,-1 0,0 1,0-1,1 1,-2-1,0 0,0-1,0-8,0-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1112.66">1937 121,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3283.68">2385 324,'3'0,"0"1,1 0,-2 0,1 0,0 0,-1 0,1 0,0 1,0-1,-1 1,1 0,-1-1,0 1,0 0,1 0,-1 0,0 0,-1 0,1 1,-1-1,1 1,-1-1,0 1,0 0,0-1,0 1,0 3,5 14,-2-1,5 34,-8-40,5 31,-2 1,-2-1,-7 80,-3-146,-2-24,4-22,6-112,3 152,0-1,2 0,2 0,0 1,3-1,18-39,-20 56,-1 2,2-2,-1 3,1-2,0 1,2 1,-1 0,20-12,-5 4,2 1,51-22,-75 37,0 0,0-1,-1 1,1 0,-1 0,2 1,-1-1,0 0,0 1,-1 0,1 0,1-1,-1 2,0-1,0 0,-1 1,1-1,1 1,3 1,-5 0,0-1,0 1,2 0,-2-1,-1 1,1 0,0 0,0 1,-1-1,1 0,-1 1,0-1,0 1,1-1,-1 1,1 3,1 13,0-1,-2 0,0 0,-3 32,1-29,-1 37,-4 0,-3 1,-2-1,-2-2,-4 1,-2-1,-38 72,55-122,-1 0,0-1,-1 0,0 1,0-1,0 0,0-1,-2 1,2-1,-1 0,0 1,-9 3,11-7,-1 0,2-1,-1 1,0 0,0-1,1 1,-2-1,1 0,0 0,0 0,1 0,-1-1,-1 1,1-1,0 1,1-1,-1 0,1 0,-2 0,1-1,1 2,0-1,-1-1,1 0,0 0,0 1,-1-1,1-1,0 1,-2-3,-1-1,-2-1,2 0,1-1,-2 2,2-2,-4-12,7 19,1 0,-1-1,1 1,0 0,-2-1,2 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,2-1,-2 2,0-2,1 1,1-3,-1 3,0 0,0 1,0-1,1 0,-1 1,0-1,1 1,-1-1,0 1,2-1,-2 1,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 1,-1-1,2 0,-2 1,2 0,9 3,-1 1,1-1,0 2,-2 0,2 1,-3-2,17 15,34 19,-7-11,2 1,78 53,-116-70</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4287.66">2414 375,'0'5,"0"5,0 10,0 10,0 17,0 15,0 3,0 2,0-4,0-7,0-5,0-7,0-2,0-4,0 5,0 4,0-3,0-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6083.66">141 1878,'1'0,"0"1,0-1,0 1,0 0,0-1,0 1,1 0,-2-1,1 1,0 0,0 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 2,4 37,-4-33,9 123,-11 145,-2-253,0-20,-4-34,-6-164,14 161,2 0,2 0,13-57,-16 87,1 1,0 0,0-1,0 1,0-1,0 1,0-1,1 2,0-1,1 0,-1 0,0 1,1-1,0 1,0 1,0-1,0 0,0 0,9-3,-9 5,1-1,-1 1,1 1,-1-1,1 0,0 1,-1 0,1 0,0 1,-1-1,1 1,0 0,-1 0,0 0,1 1,0-1,-1 1,0 0,-1 0,1 0,7 5,-5-2,1 0,-2 1,1 0,0-1,-1 1,-1 1,1-1,-1 0,0 1,-1 1,0-1,1-1,-2 2,0 0,0-2,-1 2,0 0,-1 0,1-1,-1 1,-1 0,0-2,0 2,-3 10,1-2,-2-1,0 1,0-1,-2-1,0 1,-2-1,1 1,-1-2,-1 0,-20 20,13-12,31-18,30 5,46 33,-66-27</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6743.66">673 1980,'6'0,"4"0,13 0,9 0,7 0,0 0,2 5,1 1,-8 3,-10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7500.69">673 2337,'6'0,"4"0,8 0,4 0,3 0,4 0,-1 0,6 0,7 0,0 0,-2 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8453.66">1853 1573,'-2'143,"5"152,-3-291,0-1,1 1,0 0,0 0,0 0,0 0,0 0,1-2,0 2,1 0,-1-1,0 0,4 6,-4-8,0 0,-1 0,2 0,-1 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,0 1,0-1,0 1,0-1,0 0,-1 1,1-1,3-2,11-4,-2-3,1 0,0 0,-1-1,0 0,-2-1,0 0,19-24,2-10,37-67,176-302,-226 379,-6 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9407.66">1347 2158,'5'0,"6"0,7 0,8 0,11 5,-2 4,-1 3,12-2,12-3,11-2,18-2,22-1,84 7,28 2,-5 0,-34 1,-43 1,-46-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10527.66">1993 2464,'-10'9,"-7"20,-2 9,-1 3,6-2,7-2,8-8,9-9,8-9,6-4,-2-10,-4-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11018.66">2049 2413,'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -27217,20 +27266,20 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">609 1,'-11'1,"1"0,-1 1,1 0,-1 1,1 0,0 0,0 1,0 1,0-1,1 2,0-1,0 1,-11 10,6-4,1 0,0 1,0 1,2 0,0 1,0 0,-8 17,12-18,0 2,1-1,-8 31,12-41,1 0,0 0,0 0,1 0,0 0,0 0,0 1,0-1,1 0,-1 0,1 0,1 0,-1 0,1 0,0 0,3 6,-3-9,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,0-1,0 0,0 1,0-1,1 0,-1 0,0 0,0 0,1-1,-1 1,0-1,1 1,3-1,-2 0,0-1,1 1,-1-1,0 0,0 0,0 0,0-1,0 0,0 0,7-4,-2 0,-1 0,0-1,0 0,0 0,-1-1,0 1,-1-2,11-17,-11 13,-2 0,1 0,-2-1,0 0,-1 0,0 0,-1 0,-1 0,-2-27,3-35,-4 358,5-153,-2 41,0-138</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="602.02">0 847,'5'0,"5"0,11 0,24 0,17 0,8 0,15 0,23 5,44 5,31 6,8 10,-16-1,-28-3,-39-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2936.99">424 1165,'-5'1,"-1"0,1 1,-1-1,1 1,0 0,-1 1,1-1,1 1,-1 0,0 0,-6 6,-11 7,2-5,1 2,0 0,1 1,1 1,-26 27,35-32,1 0,0 1,0 0,1 0,0 0,1 1,1 0,0 0,0 0,1 1,-3 21,-1 61,7-85,0 0,0 0,1 0,1 1,0-1,0 0,4 10,-5-18,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 0,0 0,1 1,-1-1,0 0,1-1,-1 1,1 0,-1-1,1 0,-1 1,1-1,-1 0,1 0,0 0,-1-1,1 1,-1-1,1 1,-1-1,0 0,1 0,2-1,4-2,-1 1,0-1,-1-1,1 1,-1-1,0-1,0 1,0-1,6-8,-8 8,0 0,-1 0,0-1,0 1,-1-1,0 0,0 0,-1 0,1 0,-1-1,-1 1,0-1,0 1,0-11,-1 14,-1-1,1 1,-1 0,0 0,0 0,-1 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,0 0,0 0,0 0,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 0,-7-2,-15-3,2 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4085">450 1482,'-1'23,"2"36,-1-56,1 0,-1 0,1 0,0 0,-1 0,1 0,1 0,-1-1,0 1,1 0,-1-1,1 1,0-1,0 1,3 2,-4-4,0-1,0 1,0-1,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,1-1,-1 0,0 1,1-3,32-26,-26 22,5-7,31-25,-41 37,-1 0,1 0,0 1,-1-1,1 1,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 1,6 0,-7 1,1-1,-1 2,0-1,0 0,0 0,0 1,0-1,0 1,-1-1,1 1,0 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 1,1-1,-1 0,0 1,0-1,0 1,0 2,1 7,0 0,-2 1,-2 23,3-34,0-1,0 1,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 0,0 1,1-1,-1 1,0-1,0 0,-1 2,-6-16,0-42,8 51,0-1,1 1,-1 0,1-1,0 1,0 0,0 0,1 0,0 0,-1 0,2 0,-1 0,0 0,1 1,-1-1,1 1,0 0,0 0,0 0,1 0,-1 0,1 1,-1-1,1 1,0 0,0 0,0 1,0-1,0 1,1 0,-1 0,0 0,0 1,1-1,-1 1,1 0,-1 0,0 1,1-1,-1 1,0 0,0 0,0 0,1 1,-1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,0 0,1 0,-2 0,1 1,0-1,-1 1,4 6,-1-1,-2 0,1 0,-1 1,0-1,2 17,-1 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5191.99">1112 1191,'1'2,"0"-1,1 1,-1 0,-1 0,1 0,0-1,0 1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0 4,0-1,8 63,-1 79,-8-123,0 0,-1 0,-2 0,0 0,-2-1,-15 44,9-50,12-17,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,0-1,-7-37,9-21,3 0,2 0,3 0,25-86,-31 133,-1 0,2 0,-1 1,1 0,12-19,-16 28,1 0,-1 0,0 0,1 1,0-1,-1 0,1 1,0-1,-1 1,1 0,0-1,0 1,0 0,0 0,1 0,-1 1,0-1,0 0,0 1,1 0,-1-1,0 1,1 0,-1 0,0 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,3 3,-2-1,1 1,0-1,-1 1,0 0,1 0,-2 0,1 0,0 0,-1 0,0 1,0 0,0-1,0 1,0 5,13 82,-7-31,52 224,-47-235</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6124">1191 1509,'5'0,"5"0,6 0,5 0,3 0,2 0,1 0,-4 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6791.03">1535 847,'9'0,"8"0,4 0,5 0,1 0,6 0,1 5,4 1,0 4,-6 5,-9 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7458">1588 1033,'0'4,"5"2,5 0,6-2,5 0,8 2,3 1,-4-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8254.21">2302 556,'0'5,"0"10,0 20,0 23,0 10,0-1,0-9,0-8,0-10,0-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8764.19">2593 1006,'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10477.38">2990 741,'1'0,"-1"0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 0,0-1,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,1-1,-1 1,1 0,-3-1,3 2,-1-1,1 0,-1 1,1 0,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,0-1,1 1,-1-1,1 1,-1-1,1 1,0 0,-3 2,1-1,1 1,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,1 0,-2 7,-1 10,0-1,2 0,-1 27,2-33,1-2,-1 0,2 0,-1 0,2 0,-1 0,4 11,-4-21,-1 1,1 0,0-1,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,0 0,1 0,-1-1,2 2,0-2,-1 1,0-1,0 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0-1,2-1,5-4,0 1,1 0,0 0,0 1,0 1,0 0,1 0,0 1,15-3,-23 6,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 1,0 0,0-1,-1 1,1 1,0-1,0 0,-1 1,1-1,0 1,-1 0,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,1 0,-1-1,0 1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 6,3 28,-2 1,-7 66,6-100,0-1,-1 1,1 0,-1-1,0 1,0-1,0 1,0-1,-1 1,1-1,-1 0,0 0,0 1,0-1,0-1,-1 1,1 0,-1-1,1 1,-1-1,0 1,0-1,0 0,-1-1,1 1,0 0,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 0,1 0,-8 0,-3-1,-1-1,1-1,0 0,0 0,0-2,1 0,-1 0,-14-9,-6-4,14 9,0-2,0 0,-30-25,36 23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11289.38">3069 583,'5'0,"5"0,2 4,-2 7,3 10,-2 10,-2 36,-3 16,-2 6,-2 3,-1-6,-2-8,1-13,-1-14,1-10,0-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12297.38">3440 741,'0'0,"1"0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,1 1,-1 0,-7 11,-15 12,6-14,-1 0,0-1,0-1,-1 0,1-2,-38 10,28-9,-49 21,54-11,22-16,-1 0,1-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,1-1,-1 1,0-1,0 1,1 0,3 3,1 0,-1-1,0 1,1-1,0 0,9 4,-4-2,56 34,-1 2,68 58,106 111,-144-124,-69-64,-17-15,0 0,0 0,-1 1,0 0,0 1,-1 0,0 0,0 0,9 19,-14-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14076.58">3810 1350,'0'-1,"1"0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,0 0,2 0,34-4,26 12,-46-5,-19-9,-12-9,-19-15,6 6,-23-19,-71-78,114 111,1 1,0-2,1 1,0 0,1-1,0 0,0 0,1-1,0 1,-1-20,1-1,2 0,4-52,-2 65,1 0,1 1,1-1,1 1,1 0,0 0,1 1,10-17,-13 26,0 1,1 0,0 0,0 1,1-1,0 1,0 1,1-1,-1 1,1 0,0 0,1 1,-1 0,1 0,-1 1,1 0,0 0,1 1,-1 0,9-1,3 1,0 0,0 1,0 1,0 0,-1 2,1 0,21 6,-35-6,1 0,-1 0,0 1,-1 0,1 0,0 0,-1 1,1 0,-1 0,0 0,-1 0,1 1,-1 0,0 0,0 0,0 1,-1-1,1 1,-2 0,1 0,0 0,-1 0,0 0,-1 1,2 10,3 25,-1 1,-3 0,-1 0,-2 0,-2 0,-2 0,-2-1,-1 0,-3 0,-1-1,-33 74,-76 140,120-253,-16 44,17-45,0 1,0-1,0 0,-1 0,1 0,1 0,-1 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 0,0 1,1-1,-1 0,0 1,2-1,15 1,0-1,0-1,0-1,0 0,-1-1,1-1,19-7,39-7,63 7,-28 3,-78 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">632 1,'-11'1,"0"0,0 1,1 0,-2 1,2-1,-1 1,1 1,0 1,-1-1,2 1,0 0,-1 1,-11 9,7-4,0 1,1 0,-1 1,3 1,0 0,-1 0,-8 17,13-18,0 2,1 0,-9 28,13-38,1 0,0-1,0 1,1 0,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,1 0,-1 0,1-1,0 1,4 6,-4-9,-1-1,1 1,-1 0,1 0,0 0,-1-1,1 1,0-1,0 0,0 1,0-1,1 0,-1 0,1 0,-1 0,1-1,-1 0,0 0,1 1,3-1,-2 0,1-1,0 1,-1 0,0-1,0 0,0 0,1-1,-1 0,0 0,7-4,-1 1,-2-1,0-1,0 1,1-1,-2-1,0 2,0-3,10-16,-11 13,-1 0,0-1,-2 0,0 0,-1-1,0 1,-1 0,-1-1,-2-25,3-33,-4 340,5-145,-2 39,0-132</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="602.02">0 805,'5'0,"6"0,10 0,26 0,17 0,9 0,15 0,24 5,46 5,32 5,8 9,-16 0,-29-3,-41-6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2936.99">440 1108,'-5'1,"-1"-1,1 2,-2-1,2 1,0 0,-1 1,0-1,2 1,-1 0,0-1,-6 7,-12 6,2-4,1 1,0 0,2 2,0 0,-26 26,35-31,2 1,0 0,-1 1,2-1,0 1,1 0,1 1,-1-1,1 0,1 2,-3 19,-1 58,7-80,0-1,0 1,1-1,1 2,0-2,0 1,4 9,-5-17,0 1,1-2,-1 1,0 0,2 0,-2 0,1 0,0 0,0 0,0-1,0 1,0 0,0-2,0 1,0 0,1 1,-1-1,0 0,2-1,-2 1,1 0,-1-1,1 0,-1 1,1-1,-1 0,1 0,0 0,0-1,0 1,-1-1,1 1,-1-1,0 0,1 0,2-1,5-1,-2 0,0-1,0-1,0 1,-1 0,0-2,1 1,-1-1,6-7,-7 7,-1 1,-1-1,0-1,0 2,-1-2,0 0,1 1,-2-1,1 0,-1 0,-1 0,0 0,0 0,0-10,-1 13,-1-1,1 1,-1 1,0-1,0 0,-1 0,1 0,-1 1,0-1,0 0,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 0,0 0,-1 1,0 0,0 0,1 0,-1 0,0 0,0 0,-8-2,-15-2,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4085">467 1409,'-1'22,"2"34,-1-53,1 0,-1-1,1 1,0 0,-1 0,1 0,1 0,-1-1,0 0,1 1,0-1,0 1,0-1,0 1,3 2,-4-5,0 0,0 1,0-1,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,0 0,2 0,-2 0,0 0,1 0,-1 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,1 0,-1-1,0 1,1-3,34-25,-28 22,5-8,33-23,-43 35,-1 0,1 0,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,1 1,5 0,-7 1,1-1,-1 2,0-1,0 0,0 0,0 1,1-1,-1 0,-1 0,1 1,0 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0-1,0 2,0-1,0 0,-1 1,1-1,-1 0,0 1,0-1,0 0,0 3,1 7,0-1,-2 1,-2 23,3-34,0 0,0 1,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 0,0 1,1-1,-1 1,0-1,0-1,-1 3,-6-15,-1-40,9 48,0-1,1 1,-1 1,1-2,0 1,0 0,0 0,1 1,1-1,-2 0,2 0,-1 0,0 1,1 0,-1-1,1 1,0 0,0 0,1 0,0 1,-1-1,1 1,-1-1,1 1,0 0,1 0,-1 1,0-1,0 2,1-1,-1 0,0 0,1 1,0-1,-1 1,1 0,-1 0,0 1,2-1,-2 1,0 0,0 0,0-1,1 2,0 0,-1 0,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 1,1 0,-2 0,1 1,0-1,-1 0,4 7,0-1,-3-1,1 1,-1 0,0 0,2 15,-1 8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5191.99">1154 1132,'1'2,"0"-1,1 1,-1 0,-1 0,1 0,1-1,-1 1,-1-1,1 1,-1 0,1 0,-1 0,0 0,0 0,0 4,0-2,8 61,-1 75,-8-117,0-1,-1 1,-2 0,0 0,-2-1,-16 41,9-46,13-17,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 0,-1 0,1-1,0 1,0 0,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,-1 0,1 0,0-1,-7-35,9-20,3-1,2 1,4 0,25-82,-32 127,-1 0,2-1,0 2,0-1,12-17,-16 26,1 0,-1 0,1 0,0 1,0-1,-1 0,1 1,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,1 0,-1 1,1-1,-1 0,0 1,1 0,-1-1,0 1,1 0,-1 0,0 0,0 1,1-1,0 0,-1 1,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,3 2,-1 0,0 1,0-1,-1 1,0 0,1-1,-2 1,1 0,1 0,-2 0,0 0,0 1,0-1,0 1,0 4,14 79,-8-30,54 213,-48-224</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6124">1236 1435,'5'0,"6"0,5 0,6 0,3 0,2 0,1 0,-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6791.03">1593 805,'10'0,"7"0,5 0,5 0,1 0,6 0,2 5,3 1,1 3,-7 5,-9 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7458">1648 982,'0'4,"6"2,4-1,7-1,4 0,9 2,4 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8254.21">2389 529,'0'4,"0"11,0 18,0 22,0 10,0-2,0-7,0-9,0-9,0-9</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8764.19">2692 956,'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10477.37">3104 704,'1'0,"-1"0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 1,0-1,-1 0,0 0,1-1,-1 1,0-1,0 0,0 1,0-1,0 1,0 0,0-1,0 1,0 0,-1 0,1-1,-1 2,1-1,-4-1,4 2,-1-1,1 0,-1 1,1 0,-1-1,1 1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-2 1,1-1,1 1,-1-1,1 1,-1-1,1 1,0 0,-3 1,1 0,1 1,0-1,0 1,-1 0,1 0,0-1,1 1,-1 0,1 0,-2 7,-1 9,0-1,2 0,-1 25,2-30,1-3,-2 1,4-1,-2 1,2-1,-1 0,4 11,-4-20,-1 1,1 0,0-1,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,2 0,-2-1,2 2,0-2,-1 1,0-1,0 0,0 0,0-1,0 1,0 0,0-1,2 1,-2-1,0 1,0-1,-1 0,1 0,0 0,0 0,0 1,0-2,2-1,6-4,-1 1,1 1,1-1,-1 1,1 1,-1 1,1-1,1 1,15-3,-24 6,0-1,0 1,0 0,0 0,0 0,1 1,-1-1,0 1,0 0,0-1,-1 1,1 1,0-1,0 0,-1 1,2-1,-1 1,-1 0,0-1,1 1,-1 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 0,2 1,-2-1,0 1,0 0,0 0,0 0,-1-1,1 1,-1 0,0 6,3 26,-2 1,-7 63,6-95,0-1,-1 0,1 1,-1-1,0 1,0-1,0 0,-1 0,0 1,1-1,-1 0,0 0,0 0,0 0,0-1,-1 1,1 0,-1-1,1 1,-1-1,-1 0,1 0,0 0,-1-1,1 1,0 0,-1-1,1 0,-2 0,2 0,-1 0,1 0,-1-1,0 0,1 0,-9 0,-2-1,-2-1,2-1,-1 0,0 0,1-1,0-1,0 0,-15-8,-6-4,14 8,0-1,0-1,-31-23,38 22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="11289.38">3186 554,'5'0,"5"0,3 4,-3 7,4 8,-3 11,-2 34,-2 15,-3 5,-2 4,-1-7,-2-6,1-14,-1-12,1-10,0-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12297.38">3571 704,'0'0,"1"0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,1 1,-1-1,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,1 1,-1 0,-7 11,-16 10,6-12,0-1,-1 0,0-1,0-1,0-1,-39 9,29-8,-51 19,56-9,23-17,-1 1,1-1,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,1 1,-1 0,0-1,0 1,1-1,-1 1,0-1,0 1,1 0,3 3,2-1,-2 0,0 1,1-1,0 0,10 3,-5-1,59 32,-2 2,71 55,110 106,-149-118,-72-61,-18-15,1 1,-1 0,-1 0,1 1,-1 0,-1 1,0-1,1 1,8 18,-14-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14076.58">3955 1283,'0'-1,"1"1,-1-1,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,2-1,-2 1,0 0,2 0,35-3,28 10,-49-4,-19-9,-12-8,-21-14,7 5,-24-18,-73-74,118 105,0 2,1-3,1 2,0-1,1 0,-1-1,1 1,1-2,0 2,-1-19,1-2,2 1,4-50,-2 62,1 0,1 1,1-1,1 0,2 1,-1 0,1 1,11-16,-14 24,0 1,1 1,0-1,1 1,0 0,0 0,0 1,2 0,-2 0,1 0,0 0,2 2,-2-1,1 0,0 1,0 0,0 0,1 2,0-1,8-1,4 1,0 0,0 1,-1 1,1 0,-1 2,1 0,21 5,-36-5,2 0,-2 0,0 1,-1 0,2 0,-1 0,-1 0,1 1,-1 0,1 0,-2 0,1 0,-1 1,0 0,0 0,1 0,-2 0,1 1,-2-1,1 1,0 0,-1 0,0-1,-1 2,2 9,4 24,-2 1,-3 0,-1 0,-2 0,-2-1,-2 1,-3-1,0 0,-3 0,-2-1,-34 70,-78 134,124-241,-17 41,18-42,0 1,0-1,0 0,-1 0,1 0,1 0,-1 1,0-1,0 0,0 0,0 0,1 0,-1 0,1 1,-1-2,1 1,-1 0,1 0,-1 0,1 0,0-1,0 1,-1 0,2 0,-1 0,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 0,0 1,1-1,-1 0,0 1,2-1,16 1,0-1,-1-1,1-1,0 0,-2-1,2-1,19-6,41-7,65 6,-28 4,-82 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -27259,7 +27308,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">323 787,'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2010.76">138 125,'2'203,"-16"351,-53-216,65-330,0 0,-1 0,0 0,0 0,-5 8,8-16,0 0,0 1,0-1,-1 0,1 1,0-1,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,-1 1,1-1,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,-1 0,-9-33,0-59,5 0,6-107,1 82,-1 77,2 0,2 0,2 0,1 1,2 0,28-71,-17 62,3 1,2 0,2 2,56-70,-78 107,1 1,0 0,0 0,0 1,0 0,1 0,0 0,1 1,9-4,-4 3,0 2,1 0,-1 0,1 2,18-2,-16 2,-1 1,1 0,0 1,0 1,0 1,33 7,-45-8,1 1,-1 0,0 1,1-1,-1 1,0 0,0 0,-1 1,1-1,-1 1,0 0,0 0,0 1,0-1,-1 1,1 0,-1 0,-1 0,1 0,-1 0,1 1,-2-1,1 1,1 8,2 26,-2 0,-2 1,-5 57,1-24,2-31,2-11,-1-1,-2 0,-1 1,-1-1,-18 59,21-87,0 0,-1-1,1 1,-1-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 0,-1-1,0 1,1 0,-1-1,0 0,0 1,1-1,-1 0,0-1,0 1,0 0,-6-1,-6 1,0 0,-1-2,-24-3,5 0,1 3,1-2,-1-1,1-1,0-2,-50-18,60 12,23 13,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,1 0,4-1,0 1,0 0,0 0,0 1,0-1,0 1,8 2,62 21,-1 4,-1 2,136 80,-198-104,1 2,-1-1,-1 1,19 18,-25-21,0 0,0 1,0 0,-1-1,1 1,-1 0,-1 1,1-1,-1 0,0 1,1 8,-2-4,2 0,-1-1,1 1,8 18,-1-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2594.76">985 839,'5'-4,"5"-7,6 0,5 1,7 2,4 3,1 2,-1 1,-1 2,3 0,0 0,0 1,-3-1,-2 1,4-1,0 0,-5 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2594.75">985 839,'5'-4,"5"-7,6 0,5 1,7 2,4 3,1 2,-1 1,-1 2,3 0,0 0,0 1,-3-1,-2 1,4-1,0 0,-5 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3103.75">1196 839,'-4'5,"-2"5,0 20,2 18,0 23,2 9,1-5,1-6,0-11,5-10,5-13,7-13,-1-15,-2-8</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3672.76">1911 337,'5'0,"5"0,6 0,9 0,5 0,2 0,4-5,-3-5,-4-2,-1 2,2 2,7 3,0 2,-1 1,-3 2,-1 0,-8 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4405.76">2069 601,'0'5,"5"1,10-1,7 0,9-1,-1-7,-1-2,4 0,0 0,4 1,0 2,3 1,-1-4,-7-1</inkml:trace>
@@ -27290,7 +27339,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'136'7,"207"37,-315-40,-25-3,11 0,-1 1,1 1,0 1,-1 0,26 11,-35-13,-1 1,1-1,-1 1,1 0,-1 0,0 0,0 0,0 1,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,-1 0,0 0,1 0,-2 1,1-1,0 1,-1-1,0 7,-1 42,-3-1,-2 0,-22 91,-60 150,-147 305,204-525,4-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="601.82">212 980,'5'0,"9"0,8 0,5 0,1 0,2 0,4 0,5 0,5 0,4 0,-1 0,-5 0,-5 0,-3 0,-5 0,-1 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="601.81">212 980,'5'0,"9"0,8 0,5 0,1 0,2 0,4 0,5 0,5 0,4 0,-1 0,-5 0,-5 0,-3 0,-5 0,-1 0,-6 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1126.58">1164 530,'5'0,"5"0,2 4,-2 25,3 33,-2 25,-3 29,-2 22,-2 14,-2-1,-2-7,0 2,0-18,-5-32,-1-36,0-42,1-24</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1916.91">1667 794,'-27'47,"-2"-2,-62 76,19-28,-47 57,118-149,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,1 1,-1 0,1-1,0 1,0 0,-1-1,1 1,0-1,0 1,1-1,-1 0,0 1,0-1,1 0,1 2,7 3,0 1,0-2,0 1,20 6,-12-4,118 49,58 27,-180-76,1 1,-2 0,1 1,-1 1,21 21,-10-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3683.81">1905 1562,'0'-1,"1"0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,2-1,32-4,-29 5,44-3,54 5,-62 0,1-2,42-5,-84 5,-1 0,0 0,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,1 0,-1 0,0 0,0-1,0 1,0 0,0 0,1 0,-1-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,0-1,0 1,0 0,-1 0,-12-20,-19-13,12 15,0-1,2-1,0 0,1-1,2-1,0-1,1 0,1-1,1 0,2-1,0 0,2-1,-9-41,-12-114,22 155,2-1,2 0,0 1,2-54,2 63,2 0,0 0,1 1,0-1,1 1,1 0,1 1,0-1,10-14,-6 12,0 1,1 0,1 1,1 0,0 1,2 0,17-13,-22 20,1 1,0 0,0 1,1 0,-1 1,1 0,0 1,0 0,1 1,-1 1,25-2,-26 3,0 1,0 0,0 1,0 0,0 1,-1 0,1 1,-1 0,1 1,-1 0,0 1,-1 0,1 0,-1 2,0-1,0 1,-1 0,0 1,0 0,-1 1,0 0,-1 0,1 0,-2 1,10 19,-5 0,-1 0,-2 1,-1 0,-1 0,2 43,-4 159,-5-198,0-11,-2 0,0-1,-2 1,0-1,-1 0,-1-1,-2 1,0-1,-17 28,23-43,0 1,0-1,0 1,1 0,0 0,-2 11,4-17,0 1,0-1,0 1,0 0,0-1,0 1,1-1,-1 1,0-1,1 1,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1 0,1-1,-1 0,1 1,-1-1,4 1,21 2,0-1,0-1,1-2,27-3,25-1,-20 5,-55 0,-7 0,-32 0,-26 0,34 0</inkml:trace>
@@ -27407,13 +27456,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 830,'5'0,"5"0,16 4,6 2,13 0,2-2,-2 0,-4-2,0-1,11-32,14-34,19-32,0-17,-7-13,-6-2,-12 11,-11 18,-15 25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4226.01">2329 36,'0'0,"0"-1,0 1,1-1,-1 1,0 0,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0-1,0 1,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,-1 1,1 0,0-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,-1 1,-2 1,0 0,0 1,0 0,1-1,-1 1,1 1,-1-1,-1 4,-136 220,-20 33,127-200,3 1,-32 93,56-131,0 0,1 0,2 0,0 0,1 27,2-36,0 1,1-1,1 0,1 1,0-1,0 0,2-1,-1 1,10 17,-8-23,0 0,0 0,1-1,0 1,1-2,-1 1,1-1,0 0,1-1,-1 0,1 0,0-1,0 0,1-1,-1 0,13 3,4-1,-1 0,1-2,0-1,0 0,27-4,-49 2,-1 0,1 0,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,-1 1,1-1,-1 1,0-1,0 0,0 0,0 0,0 0,-1-1,1 1,-1 0,0-1,0 1,1-7,1-9,-2 0,0-1,-1 1,-4-34,1 10,2 8,1 12,0 0,-2 1,-1-1,-8-30,10 47,-1 0,0 0,-1 1,1 0,-1-1,0 1,-1 0,1 0,-1 1,0-1,0 1,0 0,-1 0,1 0,-1 0,0 1,0 0,-1 0,1 0,0 1,-10-4,-139-38,137 39,0 0,0 2,0-1,-25 0,19 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2889.01">2514 909,'1'0,"0"0,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 1,5 32,-4-30,0 10,-1-10,0 1,0-1,1 0,-1 1,1-1,0 0,0 0,4 8,-4-11,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,1 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,1 0,27-12,-2-8,0-2,-2-1,45-52,31-27,-99 100,1-1,0 1,0 0,-1 0,1 0,1 0,-1 1,0-1,0 1,0 0,1 0,-1 0,1 0,3 0,-4 1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0 1,0-1,0 0,0 1,0-1,0 1,-1 0,1-1,0 1,-1 0,0 0,1 0,0 3,7 10,-1 1,-1 0,-1 0,-1 0,0 1,0 0,2 28,-3-7,-1 0,-4 55,2-107,0-22,13-67,-3 59,24-62,-31 95,1-1,0 1,1 0,0 1,1-1,0 1,1 0,0 1,0 0,16-13,-22 20,1 0,-1 1,0-1,1 1,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 1,1-1,0 1,0-1,0 1,0 0,-1 0,1 0,0 1,0-1,0 1,0 0,-1-1,1 1,0 0,-1 1,1-1,-1 0,1 1,-1-1,0 1,0 0,1 0,-1 0,2 3,1 1,-1 1,1-1,-1 1,0 1,-1-1,0 0,0 1,-1 0,1-1,-2 1,2 14,4 105,-11 133,4-258,0 9,-1 0,0 0,0 0,-1 0,0 0,-7 18,-3-18,1-15</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2333.01">3863 63,'5'0,"1"13,0 32,-2 31,0 20,-2 7,-1 0,-1-4,-13-1,-6-9,-3-5,-7 6,-3-9,4-13,6-32,8-44,5-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1538.01">3784 169,'1'-2,"1"1,-1-1,1 1,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,0 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,1-1,-1 1,1-1,1 3,6 8,1-1,-2 1,0 1,10 18,-17-28,45 93,35 108,-43-102,55 105,-72-162,-3 0,-1 1,11 56,-8-29,-4-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-899">3784 883,'0'-9,"14"-3,12 1,8 1,2 4,-1 2,-2 2,3 1,4 1,5 0,-2 1,6-5,3-11,3-2,4-8,-2-4,-12 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1059.99">2726 1095,'9'0,"7"0,6 0,3-5,-2-5,4-24,6-25,11-33,7-5,0 4,-10 14,-11 16,-6 18,-8 13,-6 11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 804,'5'0,"6"0,16 4,6 1,14 1,1-2,-1 0,-4-2,-1-1,12-31,15-33,19-31,0-16,-7-13,-6-2,-13 10,-11 19,-16 23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-4226.01">2418 35,'0'0,"0"-1,0 1,1-1,-1 1,0 0,0-1,0 1,0-1,0 1,0 0,-1-1,1 1,0-1,0 1,0 0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,-1 1,1 0,0-1,0 1,-1 0,1 0,0-1,-1 1,1 0,0 0,-1 0,1-1,0 1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 0,1 0,0 0,-1 1,1-1,0 0,-1 0,1 1,0-1,-2 1,-1 1,0 0,0 1,0 0,1-1,-1 1,1 1,-1-2,-2 5,-140 213,-21 32,132-194,3 1,-34 90,59-127,0 1,1-1,1 0,1 0,1 27,2-36,0 2,1-2,1 1,2 0,-1 0,0 0,2-2,-1 2,11 16,-9-23,0 1,0 0,2-1,-1 0,1-1,-1 1,2-1,-1 0,1-1,0-1,0 1,0-1,1 0,0-1,-1 0,14 3,4-2,-1 1,1-2,0-1,0 0,28-4,-51 2,0 0,0 0,-1-1,1 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,0-1,0 0,0 1,0-1,0 0,0-1,-1 1,2-1,-2 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,-1 0,0-1,0 1,1-7,1-8,-2 0,1-2,-2 2,-5-34,2 11,2 7,1 12,0-1,-2 2,-1-1,-8-29,10 45,-2 0,1 0,-1 1,1 0,-1 0,0 0,-1 0,1 0,-1 1,-1-1,1 2,0-1,-1 0,1 0,-1 0,-1 1,1 0,-1 0,1 0,0 1,-11-3,-144-38,142 38,1 0,-1 2,1 0,-27-1,20 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2889.01">2610 880,'1'0,"0"0,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,1 1,-1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,5 32,-4-29,0 10,-1-10,0 1,0-2,1 1,-1 1,1-1,0 0,0 0,4 7,-3-10,-2-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 1,-1-1,1 0,0 1,-1-1,1 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,1 0,28-11,-2-9,0-1,-2-1,47-51,32-26,-103 97,1-1,0 1,0 1,-1-1,1 0,2 0,-2 1,0-1,0 1,0 0,1 0,-1 0,1 0,4 0,-5 1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 1,-1-1,1 0,0 1,-1 0,0 0,1 0,0 3,8 10,-2 0,-1 1,-1-1,0 0,-1 2,0-1,2 28,-3-7,0 0,-5 53,2-104,0-21,13-65,-2 58,24-61,-32 93,1-2,0 1,2 1,-1 0,1-1,0 2,2-1,-1 1,0 1,17-14,-23 20,1 0,0 1,-1-1,1 1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,2-1,-1 1,0-1,0 1,0 0,-1 0,1 0,0 1,0-1,1 1,-1 0,-1-1,1 1,0 0,-1 1,1-1,-1-1,1 2,-1-1,1 1,-1 0,1 0,-1 0,2 3,1 1,-1 1,1-2,0 2,-1 1,-1-1,0-1,0 2,-1 0,1-1,-2 0,2 15,5 101,-12 128,4-249,0 9,-1 0,0-1,-1 1,0 0,0-1,-7 18,-3-17,0-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-2333.02">4011 61,'5'0,"1"13,0 30,-1 31,-1 19,-2 6,-1 1,-1-4,-14-1,-5-9,-4-5,-7 7,-4-10,5-12,7-31,7-43,6-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-1538.01">3929 164,'1'-2,"1"1,-1-1,1 1,0 0,-1-1,1 1,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 1,0 0,0-1,0 1,0 0,0 0,0 0,1 1,0-1,-1 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 1,2-1,-2 1,1-1,1 3,6 7,1 0,-1 0,-1 2,11 17,-18-27,47 90,36 104,-45-98,58 102,-76-158,-2 1,-1 0,11 55,-8-28,-5-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-899">3929 855,'0'-9,"14"-2,13 0,9 1,1 4,-1 3,-1 1,2 1,4 1,6 0,-2 1,6-5,3-11,3-1,4-8,-2-4,-12 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1059.99">2830 1060,'10'0,"6"0,7 0,3-5,-2-4,4-24,6-24,12-32,7-5,0 4,-11 13,-10 16,-8 18,-7 12,-7 10</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -27440,12 +27489,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 265,'5'0,"9"0,17 0,21 0,15 0,6 0,3 5,-3 1,-8-1,-11 0,-1 3,-1 0,-5 3,-10 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="632">79 583,'9'4,"12"2,16 4,6 1,9 7,10 1,7-3,-3-5,-9 1,-4-1,-8-4,-1-2,-5-2,1-2,-7-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1524.99">1376 27,'-2'27,"-1"1,-1-1,-1 0,-2-1,-14 39,5-18,-108 319,123-362,0 0,0 0,0 0,0 0,1-1,-1 1,1 0,0 0,0 0,1 0,-1 0,1 0,0 0,2 7,-2-9,1 0,-1 0,1 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 0,0 0,1 0,-1 0,1-1,-1 1,1-1,-1 1,0-1,1 0,3 0,60-1,89-10,-126 8,11-3,-9-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2152">1561 1,'1'0,"0"0,0 1,0-1,0 0,-1 1,1-1,0 0,0 1,0-1,-1 1,1-1,0 1,0 0,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1-1,1 1,-1 0,0 1,8 28,-7-24,12 66,-3 0,-1 78,-11 154,-1-120,2-149,0-14,1 1,1 0,5 24,-1-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3346.99">1905 212,'17'-16,"0"1,1 1,0 0,1 1,30-14,-39 21,1 1,0 1,0 0,1 0,0 2,-1-1,1 1,0 1,0 0,0 0,0 1,13 3,-20-2,-1 0,0 0,0 1,0 0,0 0,0 0,0 0,-1 1,1 0,-1-1,0 1,0 0,0 1,0-1,0 0,-1 1,1 0,-1-1,0 1,0 0,0 0,-1 0,0 1,1-1,-1 5,5 15,-2 0,-2 0,1 33,-1-27,4 70,-8 144,-1-221,-1 0,-1-1,0 0,-2 0,0 0,-18 33,19-42,-1-1,-1 0,0 0,0 0,-1-1,-1 0,0-1,0 0,-1-1,0 0,-22 12,30-18,-1-1,-1 0,1-1,0 1,0-1,-1 0,1 0,-1 0,1 0,-1-1,1 0,-1 0,1 0,-1 0,1-1,0 0,-1 0,1 0,-1 0,1-1,-5-2,3 0,1 1,-1-1,1-1,0 1,0-1,0 0,1 0,-1 0,1-1,0 0,1 1,0-1,-3-7,2 4,1 0,0 0,0-1,1 1,0 0,1-1,0 1,0-1,2-14,-1 18,1 0,0 1,0-1,1 0,-1 1,1 0,0-1,1 1,-1 0,1 0,0 0,0 0,1 1,-1-1,1 1,4-4,8-4,0 2,0 0,1 0,1 2,-1 0,1 1,0 1,1 0,0 2,0 0,38-3,-51 8,0 0,-1 0,1 0,0 1,0-1,0 1,-1 1,1-1,-1 1,0 0,0 0,6 5,55 52,-46-40,-19-20,89 81,-79-72,1-1,0 0,1 0,-1-1,1-1,18 6,-27-11,0 0,0 0,0 0,1-1,-1 0,0 0,0 0,1 0,-1-1,0 1,0-1,0 0,0-1,4-1,23-11</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4218.46">2857 503,'1'-1,"0"1,0-1,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,2 1,26 17,17 34,-45-51,57 90,0 2,-52-85,0 0,1-1,1 1,-1-1,1-1,0 1,1-1,10 6,-18-12,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,0 0,0 0,0 0,0-1,0 1,0 0,1-2,28-51,-25 42,58-125,99-188,-133 276</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 254,'5'0,"10"0,17 0,23 0,15 0,7 0,2 5,-2 1,-9-1,-11-1,-2 4,0 0,-6 2,-10 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="632">83 559,'9'4,"13"2,17 4,6 0,10 7,10 2,7-4,-3-4,-9 0,-4 0,-9-5,-1-1,-5-2,1-2,-8-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1524.99">1443 26,'-2'26,"-1"1,-1-1,-2 0,-1-2,-15 39,5-18,-113 306,129-347,0 0,0 0,0 0,0-1,1 0,-1 1,1 0,0 0,0 0,1-1,-1 1,1 0,0 0,2 6,-2-8,1 0,-1 0,1 0,1-1,-2 1,1 0,0-1,0 1,0-1,0 1,1-1,-1 0,0 0,1 0,0 0,-1-1,1 0,-1 1,1-1,-1 1,0-1,2 0,2 0,63-1,94-9,-133 7,12-3,-10 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2152">1637 1,'1'0,"0"0,0 1,0-1,0 0,-1 1,1-1,0 0,0 1,0-1,-1 1,2-1,-1 1,0 0,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1-1,1 0,-1 1,0 1,8 27,-7-23,13 63,-4 0,0 75,-12 148,-1-116,2-142,0-14,1 1,1 0,5 23,-1-22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3346.99">1998 203,'18'-15,"-1"1,2 0,0 1,1 0,32-13,-42 21,2 0,-1 1,1 0,0 0,1 2,-2 0,2 0,0 1,-1 0,1 0,-1 1,14 3,-20-2,-2 0,0 0,0 0,1 1,-1 0,0 0,0 0,-1 1,1 0,0-1,-1 1,0 0,0 0,0 0,0 0,-1 1,2 0,-2-1,0 1,0-1,0 1,-1 0,0 1,1-1,-1 4,5 15,-1 0,-3 0,1 32,-1-26,4 67,-8 138,-1-212,-1 0,-1-1,-1 0,-1 1,0-1,-20 31,21-39,-1-2,-2 1,1-1,0 1,-2-2,0 1,-1-1,1-1,-2 0,1-1,-24 13,32-18,-1-2,-1 1,0-1,1 1,0-1,-1 0,0 0,0 0,1 0,-1-1,1 0,-2 0,2 0,-1 0,1-1,0 0,-2 0,2 0,-1 0,1-1,-6-2,4 1,1 0,-2-1,2-1,0 1,0-1,-1 1,2-1,-1 0,1-1,0 1,0 0,1-1,-3-6,2 3,1 0,0 1,-1-2,2 1,0 1,1-2,0 2,0-2,2-13,-1 17,1 0,0 2,0-2,1 0,-1 1,1 1,1-2,0 1,-1 0,1 0,0 1,0-1,1 1,0-1,0 1,4-3,9-5,0 2,0 1,0-1,2 3,-1-1,1 1,0 1,1 1,0 1,0 0,39-3,-52 8,-1 0,-1 0,1 0,1 1,-1-1,0 1,0 1,0-1,-1 1,0 0,1-1,5 6,58 50,-48-39,-20-19,94 78,-84-70,2 0,-1 0,2-1,-1 0,0-1,20 5,-29-10,0 0,0 0,1 0,0-1,-1 0,0 0,0 0,2 0,-2-1,0 1,0-1,0 0,1-1,3-1,25-10</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4218.46">2996 483,'1'-1,"0"1,0-1,-1 0,1 1,0-1,0 1,1-1,-1 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,2 1,28 16,17 33,-47-49,60 86,0 3,-55-83,0 1,2-1,0 0,-1 0,2-1,-1 1,2-2,10 7,-19-12,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,-1 0,1 0,-1 0,2 0,-1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,-1 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,-1 0,0 0,0-1,0 1,0 0,1-2,29-48,-25 39,60-119,104-181,-140 265</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -27526,8 +27575,8 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 428,'19'-1,"1"-1,0-1,-1 0,0-2,0 0,0-1,-1-1,1-1,23-14,18-15,72-56,-84 57,-9 8,162-110,-190 133,-1 0,1 1,0 0,0 0,1 1,-1 1,16-2,86 1,-72 3,835 2,-295 1,-409-4,193 3,-344 1,0 0,-1 1,0 1,1 1,-2 1,1 1,-1 0,0 1,-1 2,30 21,-10-3,-2 1,0 2,50 61,-65-69,-2 1,-1 0,-1 2,-1 0,19 45,-27-49,0 1,-2-1,0 1,-2 0,-1 0,0 1,-3 42,-7 16,-19 86,0-1,19-136,0-1,-3-1,0 1,-2-2,-22 41,3-3,-24 42,-5-2,-124 166,157-239,-1-1,-1-1,-2-1,-1-2,-1-2,-60 39,14-19,-2-3,-92 35,80-42,-1-4,-2-4,-1-4,-1-5,0-4,-1-4,-189-3,244-10,-3 1,-80-12,110 8,0 0,1 0,0-2,0 0,1 0,0-2,0 0,-20-14,-5-8,-82-54,80 57,0-2,2-2,2-1,-60-64,63 61,18 20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1505">1060 1857,'-1'2,"1"-1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 0,-1 1,1-1,0 0,0 1,0-1,-3 0,-40 5,39-5,-265 0,250-3,-1-1,0-1,1-1,-29-12,23 8,-48-12,23 6,44 12,-1 1,0 0,-1 1,1 0,0 0,-1 1,-12-1,20 3,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,1 0,-1 0,0 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,4 40,-4-33,15 158,-11-86,30 148,-30-212,1-1,1 1,0-2,2 1,15 23,-8-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 410,'20'-1,"1"-1,0-1,-1 1,0-3,0 0,-1-1,0 0,1-2,24-13,19-15,76-53,-89 55,-9 7,169-105,-198 127,-2 0,2 1,-1 0,1 1,1 0,-2 1,17-2,91 1,-76 3,875 2,-309 1,-429-4,203 3,-361 1,0 0,-1 0,0 2,1 1,-2 1,1 0,-1 1,-1 1,0 1,32 21,-12-3,-1 0,0 3,52 58,-68-66,-2 1,-1 0,-1 2,-2 0,21 43,-28-47,-1 1,-2-1,0 1,-1 0,-2 0,0 1,-3 40,-7 16,-21 82,1-1,20-131,-1 0,-2-1,-1 0,-1-1,-24 39,4-3,-26 41,-5-3,-130 160,165-229,-1-2,-2 0,-1-1,-2-2,0-3,-64 39,15-19,-1-3,-98 34,85-41,-2-3,-1-5,-2-3,-1-4,0-5,0-4,-199-2,256-10,-4 1,-83-11,116 7,-1 0,1 0,0-2,0 1,2-1,-1-2,0 0,-20-13,-6-7,-86-53,84 55,0-2,2-1,2-2,-63-61,67 59,18 18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1505">1111 1780,'-1'2,"1"-1,-1 0,1 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,1 0,-1 0,-1 0,1 0,0-1,-1 1,1 0,0-1,0 1,0-1,0 0,-1 1,1-1,0 0,0 1,0-1,-3 0,-43 5,42-5,-278 0,262-3,-1-1,0-1,1-1,-30-11,24 8,-51-13,25 7,45 11,0 1,0 1,-2 0,2 0,-1 0,0 1,-13-1,21 3,0-1,0 1,0-1,0 1,1 0,-1-1,0 1,1 0,-1 0,-1 0,2-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 1,5 38,-5-31,15 151,-10-83,30 143,-30-204,0-1,1 2,1-3,1 1,16 23,-8-15</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -27870,14 +27919,14 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">54 106,'-25'370,"5"-143,11 279,10-442,4-13,0-35</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1439">504 186,'-2'12,"1"0,-1 0,-1-1,0 1,-1-1,0 0,-6 12,-4 11,-35 97,-54 156,81-217,4 0,-10 84,23-110,2 0,1 0,8 76,-5-124,0-1,0 0,0 1,0-1,1 1,0-1,0 1,2-5,3-5,24-60,2-2,-3-1,34-135,-63 206,0-1,0 1,0-1,-1 1,0-1,0 1,0-1,-1 1,0-1,-4-12,4 16,-1 0,1 0,-1 1,0-1,0 0,0 1,-1-1,1 1,0 0,-1-1,0 1,1 0,-1 1,0-1,0 0,0 1,0 0,0-1,-1 1,1 1,0-1,0 0,-4 1,-10-3,1 1,0 1,-1 0,-23 3,36-1,0-1,0 0,0 1,0 0,1 0,-1 0,0 1,1-1,-1 1,1 0,-1 0,1 0,0 0,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,0 0,-3 6,-1 13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2723">742 873,'15'56,"-2"1,6 59,12 57,-29-167,0 0,0 0,0 0,1 0,0 0,0 0,0-1,1 0,0 1,0-1,5 4,-7-7,0-1,0 1,0-1,0 1,0-1,0 0,1 0,-1 0,0 0,1-1,-1 1,1 0,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,0 1,1-1,-1 0,1 0,-1 0,0 0,0 0,0 0,1-1,2-2,19-14,-1-2,-1 0,-1-2,28-37,64-105,-83 111,-2-1,-2-2,31-98,-46 121</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5279">1933 371,'0'-4,"4"-2,6 4,6 13,14 53,6 34,-3 18,-7 7,-8 1,-3-11,-3-17,0-15,3-21,3-21,-1-13,1-11,-3-7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6136">1747 847,'4'0,"7"0,5 0,5 0,7 0,5 0,13 0,13 0,6 0,0 0,-2 0,-6 0,-10 0,-7 0,-7 0,-4 0,-7 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7450">3176 0,'-3'26,"-1"0,-1-1,-1 0,-1 0,-1-1,-22 45,11-23,-3 6,6-15,1 0,2 2,1-1,-11 69,23-105,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 0,1 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,0-1,-1 0,1 1,0-1,0 0,1 0,-1 0,0 0,0 0,4 1,7 0,1-1,-1 0,0 0,1-1,17-3,27 2,-3 8,-18-1,0-2,0-1,1-2,61-6,-71-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8145.03">3467 159,'0'5,"0"15,0 12,0 33,0 37,0 19,-5 7,-10 31,-2-7,1-25,-1-25,2-25,4-21,4-16,3-10,6-10,4-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9131">3732 953,'14'34,"0"0,-3 0,10 45,13 107,-34-180,5 41,-4-28,1-1,1 0,8 32,-9-47,-1 1,0-1,1 1,-1-1,1 1,0-1,0 0,1 0,-1 0,0 0,1 0,0 0,0-1,0 0,0 1,0-1,0 0,1 0,-1-1,1 1,-1-1,1 0,4 2,-4-3,0 0,0 0,1 0,-1 0,0 0,0-1,0 0,0 0,0 0,0 0,0-1,-1 0,1 0,0 0,-1 0,1 0,-1 0,6-7,3-2,0-1,-1-1,13-18,20-33,-2-2,-4-2,-2-1,-4-2,-2-1,22-88,-37 81,-13 59,1 0,9-27,-2 17</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">56 102,'-26'355,"5"-138,12 269,10-425,4-12,0-34</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1439">524 178,'-2'12,"0"-1,0 1,-1-2,0 2,-1-1,0-1,-7 12,-3 11,-37 92,-56 151,84-209,4 0,-10 81,24-106,2 0,1 0,8 73,-5-118,0-2,0 0,0 1,0-1,1 1,1 0,-1 0,2-5,3-4,25-58,3-2,-4-1,35-129,-65 197,0-1,0 2,0-2,-1 1,0-1,0 2,0-2,-1 1,0-1,-4-11,4 15,-1 0,1 1,-1 0,0-1,0 0,0 1,-1-1,0 1,1 0,-1-1,0 1,1 1,-1 0,0-1,0 0,0 1,-1 0,1-1,-1 1,1 1,0-1,0 0,-4 1,-11-3,1 1,1 1,-2 0,-24 3,38-1,0-1,0 0,0 1,0 0,1 0,-2 0,1 1,1-1,-1 1,1 0,-1 0,1 0,-1-1,1 2,0-1,0 1,0 0,0 0,1 0,-1 0,1 0,0-1,-4 7,0 12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2723">771 837,'15'54,"-1"1,6 56,12 55,-30-160,0-1,0 1,0 0,1 0,0-1,1 1,-1-1,1 0,0 1,0-2,5 5,-6-7,-1-1,0 1,0-1,0 1,0-1,0 0,1 0,-1-1,0 1,1-1,0 1,0 0,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1-1,1 1,0-1,-1 0,1 1,-1-1,0 0,0 0,0 0,1-1,2-2,20-13,-1-3,-1 1,-1-2,29-35,66-102,-86 107,-1 0,-3-3,32-94,-48 117</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5279">2008 356,'0'-4,"4"-2,7 4,5 13,16 50,5 33,-3 18,-7 6,-8 0,-3-9,-4-17,0-14,4-21,3-19,-2-14,2-9,-3-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6136">1815 812,'4'0,"8"0,4 0,6 0,7 0,5 0,14 0,13 0,7 0,-1 0,-1 0,-7 0,-10 0,-7 0,-8 0,-4 0,-7 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7450">3300 0,'-4'25,"0"0,-1-1,-1 0,-1 0,-2-1,-22 43,11-22,-2 6,5-15,1 1,3 1,0 0,-11 65,24-100,-1 1,1-1,0 1,0-1,0 0,0 1,0-1,0 0,1 0,-1 0,1 0,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,1-1,-1 0,1 1,0 0,0-1,-1 0,1 1,0-1,0 0,2 0,-2 0,0 0,0 0,4 1,8 0,0-1,0 0,-1 0,2-1,17-3,28 2,-3 7,-18 0,-1-2,1-1,0-2,64-6,-74-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8145.03">3602 153,'0'4,"0"15,0 12,0 32,0 34,0 19,-5 7,-11 30,-2-8,2-23,-2-24,3-24,3-20,5-16,3-9,6-10,4-8</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9131">3877 914,'15'33,"-1"-1,-2 1,10 43,13 102,-35-172,5 39,-4-27,1-1,1 1,9 30,-10-46,-1 2,0-1,1 1,-1-1,1 1,0-1,0 0,1-1,-1 1,0 0,2 0,-1 0,0-1,0 0,0 1,0-1,0-1,1 1,0-1,0 1,-1-1,1 0,4 2,-4-3,1 0,-1 0,1 0,-1 0,0 0,0-1,1 0,-1 0,0 0,0 0,0-1,-1 0,1 0,1 1,-2-1,1 0,-1 0,6-7,4-1,-1-2,0 0,13-18,20-31,-1-3,-5-1,-1-1,-5-2,-2-1,23-85,-38 78,-14 57,1 0,10-26,-3 16</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -27904,11 +27953,11 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 961,'4'0,"7"0,9 0,7 0,8 0,1 0,10 0,9-8,5-4,5-4,10-4,-3 2,-5 4,-1 4,-6 4,-10-2,-8 1,-12 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2045.99">1430 274,'7'0,"0"0,0 1,0 0,0 0,0 0,0 1,0 0,0 0,-1 0,1 1,-1 0,0 1,1-1,-1 1,9 8,-8-4,0 0,-1 0,0 0,0 1,-1 0,0 0,0 1,-1-1,0 1,2 13,20 85,19 163,-1 3,-44-272,2 9,1 0,0 0,0 0,10 19,-12-28,-1 0,2-1,-1 1,0 0,0 0,0-1,1 1,-1-1,1 1,0-1,-1 0,1 1,0-1,0 0,-1 0,1 0,0 0,0-1,0 1,0-1,0 1,0-1,1 1,-1-1,0 0,0 0,0 0,0 0,0-1,0 1,0 0,4-2,-3 1,-1-1,1 1,0-1,-1 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,0-1,-1 1,1-1,-1 0,1 1,-1-1,1-5,4-5,45-109,64-233,-84 249,14-65,31-93,-51 194,-13 38</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3438.99">2303 803,'-15'200,"5"-98,7-55,-3 0,-1-1,-3 0,-1-1,-21 51,32-96,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,-4-20,0-29,3-14,-3-26,5 1,17-128,-14 196,1 0,1 0,1 1,1 0,0 0,1 0,2 1,-1 1,16-19,-19 28,-1 1,1 0,0 0,1 1,-1 0,1 0,1 1,-1 0,13-6,-14 9,-1 0,0 0,1 1,-1 0,1 0,-1 0,1 1,-1 0,1 0,-1 1,1-1,-1 1,1 1,-1 0,8 2,-9-1,0 0,-1 0,1 0,-1 0,1 1,-1 0,0 0,-1 0,1 0,-1 0,1 1,-1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,-1 1,0-1,0 1,1 8,1 15,-2-1,-3 56,2-80,0 2,0 0,0 0,-1 0,0 0,0 0,0 0,-1-1,0 1,0 0,0-1,-1 1,1-1,-2 0,1 1,0-2,-1 1,0 0,0-1,0 1,-1-1,1-1,-1 1,0 0,0-1,-1 0,1 0,-1-1,-9 4,-24 7,-68 15,107-28,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0-1,1 0,-1 1,0 0,12 20,29 19,-39-37,69 55,-52-44</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4408.99">2700 1253,'0'5,"0"14,0 18,0 21,0 4,0-3,0-3,0-6,0-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6508">3018 670,'4'0,"7"0,9 0,7 0,3 0,0 0,1 0,3 0,0 0,4 0,5 0,-1 0,-4 0,-2 0,-4 0,-8 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 924,'4'0,"8"0,9 0,7 0,9 0,1 0,10 0,9-8,6-3,6-5,9-3,-2 2,-6 3,-1 5,-6 3,-10-2,-9 2,-13 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2045.99">1500 263,'7'0,"1"0,-1 1,0 0,1 0,-1 0,0 1,1 0,-1 0,-1 0,2 1,-2 0,0 1,2-1,-2 0,10 9,-9-4,0-1,0 1,-1 0,0 0,-1 1,1 0,-1 0,-1 0,0 1,3 12,20 81,20 158,-1 3,-46-263,2 10,2 0,-1-1,0 1,10 18,-11-27,-2-1,2 0,-1 1,0 0,0 0,0-1,1 1,-1-1,1 1,0-1,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,1 0,-1 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,4-2,-2 1,-2-1,1 1,0-1,-1 0,1 0,-1 0,0 0,1 0,-1 0,0-1,0 1,0 0,-1 0,1-1,-1 0,1 1,-1-1,1-5,5-4,46-105,68-225,-89 240,15-62,33-90,-54 187,-13 36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3438.99">2416 772,'-16'192,"6"-93,6-54,-2 0,-1-1,-4 0,0 0,-23 48,34-92,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,-4-19,-1-28,4-14,-3-25,5 2,18-124,-15 189,2 0,0-1,1 2,2 0,-1 0,1-1,3 2,-2 1,18-19,-21 27,-1 2,2-1,-1 0,1 1,0 1,0-1,2 1,-2 0,14-5,-15 8,0 0,-1 0,1 1,0 0,0 0,-1 0,2 1,-2 0,1 0,0 1,0-1,-1 1,1 1,0 0,7 2,-8-1,-1-1,-1 1,1 0,0 0,0 1,-1 0,0 0,-1 0,2-1,-2 1,1 1,-1 0,-1 0,1-1,-1 1,1 0,-1 0,0 0,-1 0,0 0,0 1,1 7,1 15,-2-1,-3 54,2-77,0 2,0-1,0 1,-1 0,0 0,0 0,0-1,-1 0,0 1,0 0,-1-2,0 2,1-1,-2 0,1 1,0-3,-1 2,-1 0,1-1,0 1,-1-1,0-2,0 2,0 0,0-1,-2 0,2 0,-1-1,-10 3,-25 8,-71 14,112-27,0 0,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 0,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,-1 1,1-1,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0-1,1 0,-1 0,0 1,12 20,31 17,-41-35,73 53,-55-43</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4408.99">2832 1205,'0'5,"0"13,0 17,0 21,0 4,0-3,0-4,0-4,0-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6508">3166 644,'4'0,"7"0,10 0,8 0,2 0,1 0,0 0,4 0,0 0,3 0,7 0,-2 0,-5 0,-1 0,-4 0,-9 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -27935,12 +27984,12 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6 300,'-2'139,"-2"-52,5 0,3 1,18 94,-21-176,0-1,0 1,1-1,0 1,0-1,1 0,-1 0,1 0,0 0,0 0,1-1,-1 1,1-1,0 0,0 0,8 5,-9-7,1 0,-1-1,1 0,0 0,-1 0,1 0,0 0,0-1,0 0,-1 1,1-1,0-1,0 1,0-1,0 1,-1-1,1 0,0-1,-1 1,1 0,-1-1,1 0,-1 0,0 0,4-4,10-6,-1-2,-1 0,-1 0,24-32,43-70,-55 76,-2-1,-2-1,-1-1,-2-1,-3-1,-1 0,-2-1,8-59,-17 77,-3 11,1 1,1 0,0 0,7-18,-10 34,0-1,0 1,0 0,1-1,-1 1,0 0,0-1,1 1,-1 0,0-1,0 1,1 0,-1 0,0-1,1 1,-1 0,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,12 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1485.99">879 961,'-1'11,"0"-1,-1 0,0 1,-1-1,-5 13,-1 6,-17 71,-72 173,105-310,170-355,-162 362,0-2,2 1,32-45,-48 74,0 0,1 0,-1 1,0-1,1 0,-1 1,1-1,0 1,-1-1,1 1,0 0,0-1,0 1,0 0,0 0,0 1,0-1,0 0,0 1,1-1,2 1,-3 0,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1 1,0-1,1 0,-1 0,0 0,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0-1,0 4,4 11,-1 0,-1 0,-1 0,1 18,-1-11,-2-1,-1 1,0 0,-9 42,8-56,0 0,-1-1,0 1,0-1,-1 0,0 0,-1 0,1 0,-2-1,1 0,-1 0,0 0,0-1,0 1,-12 7,12-11,1 0,0 0,0 1,0-1,0 1,1 0,0 0,-6 8,9-11,0 1,0 0,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1-1,1 1,0 0,0 0,0 0,0-1,0 1,0 0,0-1,2 3,68 90,39 59,-93-125</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2517">1197 1464,'1'-3,"0"-1,0 1,1-1,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,6-4,1-3,69-74,-70 77,1-1,0 1,0 0,0 1,1 0,0 1,0 0,12-4,-20 9,0-1,1 0,-1 1,0-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,1 1,-1 0,0-1,1 1,-1 0,0 1,0-1,0 0,0 0,0 1,0 0,0-1,0 1,-1 0,1 0,0 0,-1 0,0 0,0 0,1 0,-1 0,0 1,-1-1,1 0,0 1,0 2,3 11,-2 0,1 1,-2-1,0 27,-1-34,-1 36,-1 0,-3 0,-1 0,-15 53,13-70,-1-1,-1 0,-2 0,0-1,-2-1,-1 0,-31 39,45-62,-1 0,1 0,-1 0,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,1 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,-4 0,3-1,0-1,0 1,1 0,-1-1,1 1,0-1,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0-1,0 1,0 0,0-1,1 1,-1-1,1 1,0-7,0 5,0-1,0 1,0 0,1 0,-1 0,1-1,1 1,-1 0,1 0,-1 0,1 1,1-1,-1 0,1 1,0-1,0 1,0 0,0 0,1 0,0 1,0-1,4-3,-3 5,0-1,0 1,0 1,0-1,0 1,0-1,1 1,-1 1,0-1,1 1,-1 0,0 0,0 1,1-1,-1 1,0 0,0 1,0-1,0 1,0 0,9 5,54 39,-37-24,-2-2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3390.99">1646 432,'4'-4,"7"-2,5 0,14 1,42 2,18 1,7 1,-4-4,-13-1,-16 1,-19 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3909.04">1832 644,'17'14,"12"4,13-1,27-4,15 2,2-3,1-4,-7-2,-15-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5423">3102 9,'0'0,"0"0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,-20 5,-21 15,41-19,-18 10,1 1,0 1,0 0,2 2,0 0,0 1,2 0,-22 31,19-20,1 0,2 0,0 1,2 1,-13 49,16-45,-4 9,2 0,2 1,-6 86,15-118,0 0,0 0,1 0,0 0,1-1,0 1,1-1,8 20,-8-23,1-1,0 0,1 0,-1 0,1-1,0 1,1-1,-1 0,1-1,0 1,0-1,0-1,1 1,6 2,14 8,1-2,0-1,1-1,0-1,1-2,-1-1,1-1,59 1,-83-7,-1 0,0 0,0 0,0-1,0 0,0 0,0 0,0-1,0 1,-1-1,1 0,-1-1,0 1,0-1,0 0,-1 0,1 0,-1 0,0 0,4-7,5-11,-1 0,-1 0,8-28,-12 33,4-14,-2 1,-1-2,-2 1,3-55,1 7,-5 57,-1-1,-1 0,-2-39,-1 54,0 0,-1 0,1 1,-2-1,1 1,-1-1,0 1,-1 0,0 0,0 1,0-1,-1 1,0 0,-11-11,8 9,-1 1,0 0,0 1,0 0,-1 0,0 1,-16-6,0 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6 291,'-2'134,"-2"-49,5-1,3 1,19 91,-22-170,0-1,1 1,0-1,0 1,0-2,1 1,-1 0,1 0,0 0,1 0,0-1,-1 0,1 0,0 0,1 0,7 5,-9-7,1 0,0-1,0 0,0-1,-1 1,1 0,1 0,-1-1,0 0,-1 1,1-1,1-1,-1 1,0-1,0 1,-1-1,2 0,-1 0,-1 0,1 0,-1-1,1 0,0 0,-1 0,4-4,11-6,-1-1,-1-1,-2 1,26-32,45-67,-57 73,-3-1,-2 0,-1-2,-2-1,-3 0,-1-1,-3 0,9-58,-17 75,-4 10,1 2,1-1,0 1,8-18,-11 33,0-1,0 1,0 0,1-1,-1 1,0 0,0-1,1 1,-1 0,0-1,0 1,1 0,-1 0,0-1,1 1,-1 0,0 0,1 0,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,13 6</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1485.99">924 931,'-1'11,"0"-2,-1 1,-1 1,0-2,-5 14,-2 5,-17 69,-76 167,111-300,178-343,-171 349,1-1,2 1,33-43,-50 71,1 0,0 0,-1 1,0-1,1 0,-1 1,1-1,0 1,-1-1,1 1,0 0,0-1,1 1,-1 1,0-1,0 1,0-1,0 0,0 1,1-1,3 1,-4 0,-1 1,1 0,-1 0,1-1,-1 1,1-1,-1 2,0-1,1 0,-1 0,0 0,0 1,1-1,-1 1,0-1,0 1,-1-1,1 1,0-1,0 4,4 10,-1 1,-1-1,0 1,0 17,-1-11,-2-1,-1 2,0-1,-10 41,9-54,0-1,-1 0,0 1,0-1,-2-1,1 1,-1 0,1 0,-3-2,2 1,-1 0,-1 0,1-2,0 2,-13 7,13-11,0 0,1 0,0 0,0 0,-1 1,2 0,0 0,-7 8,10-11,0 0,0 1,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,0 0,1-1,-1 0,1 1,0 0,0 0,0 0,1-1,-1 1,0 0,0-1,2 3,71 87,42 57,-98-121</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2517">1258 1418,'1'-3,"0"0,0 0,1-1,0 1,0-1,1 1,-1 0,0 0,1 0,-1 0,6-3,2-4,72-71,-74 74,2-1,-1 1,1 1,-1 0,2 0,-1 1,1 0,12-4,-21 9,0 0,1-1,-1 1,0-1,1 1,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,2 1,-2-1,0 0,1 1,-1 0,0 1,0-1,0 0,0 0,1 1,-1 0,0-1,0 1,-1 0,1 0,0 0,-1 0,0 0,0 0,1 0,-1 0,0 0,-1 0,2 0,-1 1,0 2,3 11,-2-1,1 2,-2-2,0 27,-1-34,-1 36,-1 0,-3-1,-2 1,-15 51,14-68,-1-1,-2 0,-2 0,1 0,-3-2,-1 0,-32 38,47-60,-1 0,1 0,-1 0,1 0,-1 0,-1 0,1-1,0 0,0 1,0-1,0 1,0-1,-1 0,1 0,-1 0,0 0,1 0,-1-1,1 1,-1-1,1 1,-1-1,0 0,0 0,1 0,-1 0,1-1,-1 1,1-1,-5 0,4-1,0-1,0 1,1 0,-1-1,1 2,-1-2,1 0,0 0,0 0,0 0,1 0,-1 0,1 0,0-1,0 2,0-1,0-1,1 1,-1-1,1 1,0-7,0 6,0-2,0 1,0 0,1 0,-1 0,1 0,1 0,-1 0,1 0,-1 0,1 1,1-1,-1 1,1 0,1-1,-1 1,0 0,0 0,1 0,1 1,-1 0,4-4,-3 5,1-1,-1 1,0 1,0-1,1 1,-1-1,1 1,-1 1,1-1,0 1,-1 0,1 0,-1 1,1-1,-1 1,1 0,-1 1,0-1,0 1,1 0,8 5,58 37,-40-22,-1-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3390.99">1730 419,'4'-4,"8"-2,4 0,16 1,44 2,18 1,8 1,-4-3,-14-2,-17 1,-19 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3909.04">1925 624,'18'13,"13"5,13-2,28-3,17 2,1-4,1-3,-6-2,-17-3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5423">3260 9,'0'0,"0"0,0-1,0 1,0 0,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,0 1,-1 0,1-1,0 1,0 0,0 0,-1-1,1 1,0 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,-22 5,-21 14,43-18,-19 10,1 0,1 2,-1 0,2 1,0 1,0 0,2 1,-22 29,19-19,1 1,2-1,0 1,3 1,-14 48,16-45,-4 10,3 0,1 1,-5 82,15-113,0 0,0-1,1 1,0 0,1-2,0 2,1-1,9 19,-9-22,1-2,0 1,2 0,-2 0,1-1,0 1,2-2,-2 1,1-1,0 1,1-1,-1-1,1 1,7 1,14 9,2-2,-1-2,2 0,-1-1,2-3,-2 0,2-1,61 1,-86-7,-2 0,0 0,0 0,1-1,-1 0,0 0,0 0,1-1,-1 1,-1 0,1-1,0-1,-1 1,0-1,0 0,-1 0,2 0,-2 0,0 1,4-8,6-10,-2-1,0 1,8-27,-13 31,5-13,-3 1,-1-2,-1 1,2-53,1 6,-4 56,-2-1,-1-1,-2-37,-1 52,0 1,-1-1,1 1,-2-1,0 2,0-2,0 1,-1 0,0 1,0 0,-1-1,0 1,0 0,-12-10,9 8,-2 1,1 1,-1 0,1 0,-2 0,1 1,-18-5,1 2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -28056,13 +28105,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 828,'4'0,"7"0,5 0,14 0,15 5,5 1,6 0,18-1,4-2,-7-1,-10-1,-11 0,-10-1,-12-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1101">822 405,'0'0,"-1"-1,1 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,2-1,18 5,18 20,-29-14,1 0,-2 1,1 0,-2 1,1 0,-2 0,0 1,0-1,6 23,3 18,9 62,-8-34,1-4,-1 4,4-2,41 105,-58-175,1-1,0 0,0 0,1-1,-1 1,2-1,-1 0,1 0,7 6,-12-13,-1 1,1 0,0-1,0 1,-1 0,1-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0-1,1 1,0-1,0 0,-1-1,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 0,0 0,0 0,0 0,1-2,31-69,-4-1,25-92,27-163,-77 310,43-254,13-50,-51 291</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2706">1748 881,'-2'19,"0"-1,0 1,-2-1,0 0,-10 24,1 1,-95 377,101-397,7-23,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,6-40,19-55,4 1,45-101,-47 128,-16 36,-4 10,1 1,0 0,21-34,-28 51,1 0,-1 0,1 1,0-1,0 0,1 1,-1 0,0-1,1 1,-1 0,1 0,0 1,0-1,0 0,0 1,0 0,0-1,0 1,0 1,0-1,1 0,-1 1,0-1,0 1,1 0,-1 0,0 1,1-1,-1 1,0-1,4 2,-3 0,-1 0,1 0,-1 0,0 1,1-1,-1 1,0 0,-1 0,1 0,0 0,-1 0,0 1,0-1,0 1,0-1,0 1,-1 0,0-1,1 1,-1 0,-1 0,2 6,0 12,0 0,-2 42,-1-33,1 35,-10 87,6-129,-1-1,0 1,-2-1,0 0,-2-1,0 0,-15 24,23-43,-1 0,1-1,-1 1,1 0,-1-1,0 1,0-1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1-1,0 1,1-1,-1 0,0 1,0-1,0-1,0 1,-5 1,4-3,1 0,-1 0,0 0,0 0,1-1,-1 0,1 1,0-1,-1 0,1 0,0-1,0 1,0-1,1 0,-1 1,0-1,-3-6,-3-3,1-1,1 0,0 0,0-1,1 1,1-1,1-1,0 1,0-1,2 1,-1-1,2 0,0 0,2-19,-1 33,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,1 1,-1-1,0 0,0 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,1 1,0 0,-1-1,1 1,0 0,14 10,11 32,-24-38,37 62,-13-24,-2 0,24 62,-27-50,32 59,-41-89</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4277.99">2356 1384,'4'-3,"1"0,0 1,1-1,-1 1,0 0,1 0,-1 0,1 1,0 0,-1 0,1 1,0-1,0 1,-1 0,1 1,0 0,-1 0,1 0,11 4,-13-1,0 0,0 1,-1 0,1 0,-1 0,0 0,-1 0,1 0,-1 1,0 0,0-1,-1 1,1 0,-1 0,-1 0,1 10,0 10,-1 0,-4 36,-1-29,0-1,-2 1,-2-1,-20 50,23-66,-2-1,0 0,0 0,-1 0,-1-1,-1-1,0 0,0 0,-1-1,-25 19,33-28,-1 0,0-1,1 0,-1 0,0 0,0 0,0-1,0 0,0 0,0 0,0 0,0-1,-10 0,14-1,-1 1,1 0,0 0,-1-1,1 1,0-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-2,0 1,0 0,0 0,0-1,0-1,1 1,-1 0,1-1,0 1,-1-1,1 1,0 0,0-1,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,2-3,-1 0,-1 0,2 0,-1 0,1 0,-1 1,1-1,0 1,1 0,-1 0,1 0,0 0,0 1,0-1,0 1,1 0,-1 0,1 1,0 0,0-1,0 1,0 1,0-1,0 1,0 0,1 0,-1 1,0-1,1 1,-1 0,0 1,1-1,-1 1,0 0,0 0,0 1,0-1,0 1,0 1,5 2,84 42,-63-33,-1 1,-1 2,46 32,31 30,-95-68</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5012.99">3097 537,'0'-4,"9"-2,12 1,15 0,21 2,13 1,0 1,-8 0,-10 1,-13 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5740">3150 960,'4'0,"11"0,25 5,11 1,0 0,-3-1,-6-2,-9 3,-11 1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7544.99">4261 352,'-4'0,"-12"-1,1 1,-1 0,1 1,0 0,0 1,-1 1,1 1,1 0,-1 1,1 0,-17 9,11-2,-1 1,2 1,0 1,1 0,0 2,-17 20,27-26,-1 0,2 0,-1 1,2 1,-1-1,2 1,0 0,0 0,1 0,1 1,0 0,0 14,-2 73,11 138,-4-225,0 0,1 0,1-1,0 1,1-1,1 0,0 0,0-1,1 1,1-2,0 1,10 10,-8-10,1 0,0-1,0-1,1 0,1 0,0-1,0-1,0 0,1 0,25 8,-29-13,-1 0,1-1,0 0,0 0,0-1,0-1,0 1,0-2,0 1,0-2,0 1,11-4,-16 3,1 0,-1-1,1 1,-1-1,0-1,0 1,-1-1,1 0,-1 0,0 0,0 0,0-1,0 0,-1 1,0-1,0-1,0 1,0 0,-1-1,0 1,2-9,22-148,-14 105,-2 0,-3-1,-3 0,-2-59,-1 41,-3-58,1 129,1 1,-1-1,0 1,0 0,-1-1,1 1,-1 0,0 0,0 0,0 0,-1 1,0-1,1 0,-1 1,0 0,0 0,-1 0,-5-4,3 3,-1 0,0 0,1 1,-1 0,0 1,-1-1,1 1,0 1,-1-1,-9 0,-4 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 795,'4'0,"8"0,5 0,15 0,15 5,6 1,6 0,20-2,3-1,-7-1,-10-1,-12 0,-11-1,-12-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1101">870 389,'0'0,"-1"-1,1 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,0-1,0 1,1-1,-1 1,0-1,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,2-1,19 4,20 20,-32-13,2 0,-3 0,2 1,-3 0,2 1,-3-1,0 2,1-2,5 23,4 17,10 59,-9-32,1-4,-2 4,6-2,42 100,-61-167,2-1,-1-1,0 1,1-1,0 0,1 0,-1 0,2 0,6 5,-12-12,-1 1,1 0,0-1,1 1,-2 0,1-1,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0-1,2 1,-1-1,0 0,-1-1,1 1,-1-1,1 1,-1-1,0 1,1-1,-1 0,1 1,-1-1,0 0,1-2,33-66,-5-1,28-89,27-156,-81 298,46-244,14-48,-55 279</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2706">1850 846,'-3'18,"1"0,0 0,-2-1,0 0,-11 24,1 0,-100 362,107-381,7-22,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-2 0,2 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,7-38,19-53,5 1,47-98,-49 124,-18 34,-3 10,0 1,1 0,21-33,-29 49,2 0,-2 0,1 1,0-1,0 0,1 2,-1-1,0-1,2 1,-2 0,1 0,0 1,0-1,0 0,1 1,-1 0,0-1,0 1,0 1,0-1,2 0,-2 1,0-1,0 1,1 0,0 0,-1 1,1-1,-1 1,0-1,5 2,-4 0,-1 0,1 0,0 0,-1 1,1-1,-1 1,0 0,-1-1,2 1,-1 0,-1 0,0 1,0-1,0 1,0-1,1 0,-2 1,0-1,1 1,-1 0,-1 0,2 5,0 12,0 0,-2 41,-1-32,1 33,-10 84,5-124,0-1,0 1,-3-1,1 0,-3-1,1 1,-17 22,25-41,-1 0,1-2,-1 2,1 0,-1-1,0 1,0-1,0 0,-2 0,2 0,0 0,-1 0,1-1,-1 0,0 1,0-1,0 0,0 1,0-1,0-1,0 1,-6 1,5-3,1 0,-2 0,1 0,0 0,1-1,-1 0,0 1,1 0,-1-1,1 0,0-1,-1 1,1-1,1 0,-1 1,0-1,-4-5,-2-4,0 0,2-1,0 1,-1-2,2 2,1-2,0 0,1 0,0 0,2 1,-1-2,2 1,0-1,2-17,-1 31,0 1,0-1,0 0,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,1 1,-1-1,0 0,0 1,1 0,-1-1,1 1,-1-1,1 1,-1-1,0 1,1 0,-1-1,1 1,0 0,-1-1,1 1,0 0,15 10,12 30,-26-36,39 60,-14-24,-1 0,25 60,-29-48,34 56,-43-85</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4277.99">2493 1329,'4'-3,"1"0,1 1,0 0,-1 0,1 0,0 0,-1 0,2 1,-1 0,-1 0,2 1,-1-1,0 1,0 0,0 1,0 0,0 0,0 0,12 4,-14-1,0-1,1 2,-2 0,1 0,-1 0,0-1,0 1,0 0,-1 1,0 0,0-2,-1 2,1 0,-1 0,-1-1,1 11,0 9,-1 0,-4 34,-1-27,0-1,-3 0,-1 0,-22 48,25-64,-3 0,1-1,-1 0,0 1,-2-2,0 0,-1-1,0 1,0-2,-28 19,36-27,-1 0,0-1,0 0,0-1,0 1,-1 0,1-1,0 0,0 0,-1 0,1 0,0-1,-11 0,15-1,-1 1,1 0,0 0,-2-1,2 1,0-1,0 1,-1-1,1 0,0 1,0-1,0 0,0 0,0 0,0 1,0 0,0-2,0 1,0 0,-1 0,1-1,0-1,1 1,-1 0,1-1,0 1,-1-1,1 1,0 1,0-2,1 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,3-2,-2-1,-1 0,2 0,-1 0,1 0,-1 2,2-2,-1 1,1 0,-1 0,1 0,1 1,-1 0,0-1,0 1,2 0,-2 0,1 1,0 0,1 0,-1 0,0 1,1-1,-1 1,0 0,1 0,0 1,-1-1,1 1,0 0,-1 1,1-1,0 1,-1 0,0 0,1 1,-1-1,0 1,0 0,6 3,88 40,-66-31,-1 0,-1 3,48 30,33 28,-100-64</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5012.99">3277 516,'0'-4,"10"-2,12 1,16 1,22 1,14 1,0 1,-8 0,-11 1,-14 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5740">3333 922,'4'0,"12"0,27 5,11 1,-1-1,-2 0,-6-2,-10 3,-12 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7544.99">4509 338,'-5'0,"-11"-1,0 1,-1 0,1 1,0 0,0 1,-1 1,1 1,2 0,-2 0,1 1,-18 9,12-3,-1 2,2 0,-1 1,2 1,0 1,-18 20,29-26,-2 1,3-1,-2 2,3 0,-1 0,1 0,1 1,0-1,1 1,0 0,1 1,0 13,-2 70,11 132,-4-215,0-1,2 0,0 0,0 0,1 0,2-1,-1 1,0-2,2 2,0-3,1 2,10 9,-9-9,2-1,0 0,-1-2,2 1,1-1,-1 0,1-1,0 0,1-1,26 9,-30-14,-2 1,2-1,-1 0,1 0,-1-1,1-1,0 1,-1-2,1 1,-1-2,1 1,11-4,-17 3,2 1,-2-2,1 1,0-1,-1-1,0 1,0-1,0 0,-1 1,0-1,1 0,-1-1,0 0,-1 1,0 0,1-2,-1 1,0 0,-1 0,0 0,2-9,24-141,-15 100,-3 0,-2 0,-4-1,-2-57,-1 40,-3-55,1 123,1 1,-1-1,0 2,0-1,-2-1,2 1,-1 0,0 0,0 1,0-1,-1 1,0-1,0 0,0 1,0 0,0 0,-1 1,-6-5,4 3,-2 0,1 0,1 1,-2 1,1 0,-2-1,2 1,0 1,-2-1,-9 0,-4 1</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -28239,7 +28288,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">111 397,'-1'16,"-1"-1,-1 1,0-1,0 0,-7 16,-1 4,-17 54,-9 34,33-107,1 0,0 0,2 0,0 0,1 25,2-35,-1 0,1 0,0-1,0 1,0 0,1-1,-1 0,2 1,-1-1,0-1,1 1,0 0,0-1,1 0,-1 0,1 0,0 0,0-1,0 1,9 3,-4-2,1 0,-1-1,1-1,-1 1,1-2,0 1,0-2,0 1,0-2,17 0,-22 0,-1-1,0-1,0 1,1-1,-1 0,0 0,-1 0,1-1,0 0,-1 0,1 0,-1 0,0-1,0 1,5-8,7-10</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="427.99">375 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="427.98">375 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1834">693 212,'-4'9,"1"-1,1 1,0-1,0 1,0 0,1 0,1-1,-1 1,2 10,-2 13,-10 669,12-674,0 0,8 36,-6-59,0-11,1-20,14-145,8 0,6 2,75-225,-101 376,1-4,1 1,1 0,16-31,-21 48,0-1,0 0,0 1,0 0,1 0,0 0,0 1,0 0,1 0,-1 0,1 0,0 1,0 0,0 0,1 1,9-3,-10 3,0 0,1 1,-1 0,1 0,-1 1,1-1,0 1,-1 1,1-1,8 3,-12-2,0 0,-1 1,1-1,-1 1,1-1,-1 1,0 0,0 0,1 0,-2 0,1 1,0-1,0 0,-1 1,1-1,-1 1,0 0,1-1,-1 1,-1 0,1 0,0-1,-1 1,1 0,-1 6,1 9,-1 1,-1 0,-1-1,0 1,-2-1,0 0,-1 0,0 0,-2-1,0 0,-1 0,-1 0,0-1,-1-1,-24 29,12-17,-2-1,-1-1,-1-1,-1-2,-1 0,-1-2,-51 27,78-45,-3 0,0 0,0 1,1-1,-1 1,1 1,-1-1,-4 6,8-8,0 0,1 0,-1 1,1-1,-1 0,1 0,0 1,-1-1,1 0,0 0,0 1,0-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,0 1,0-1,0 0,0 0,-1-1,1 1,0 0,1 0,-1 0,2 1,100 81,-56-47,43 42,-27-11,-13-8</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2406.99">1354 820,'0'5,"0"24,0 15,0 6,0 3,0-4,9-9,3-12</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2991">1725 609,'4'0,"6"0,7 0,3 0,9 0,12 0,18 0,11 0,4 0,-12 0</inkml:trace>
@@ -28608,16 +28657,16 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">107 291,'1'-3,"1"-1,0 1,0 0,1-1,-1 1,1 0,-1 1,1-1,0 0,0 1,1-1,-1 1,5-3,8-7,26-35,-35 38,0 0,0 0,1 1,1 0,-1 0,1 1,17-11,-25 18,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,0 1,-1-1,1 1,0-1,-1 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 1,11 35,-10-30,11 81,-4 2,-5 142,-2-65,-1-157,0-1,1 1,1-1,-1 1,1-1,5 11,4 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="508.99">768 609,'4'0,"2"23,0 16,-1 10,-2 11,-1 8,-5-2,-3 0,-4-6,8-18,5-16</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1648.99">1112 185,'0'-4,"1"1,0-1,0 0,0 0,1 0,-1 1,1-1,0 1,0-1,0 1,0 0,1 0,-1 0,1 0,6-5,52-38,-49 37,5-2,0 0,1 1,28-11,-38 18,1 0,0 0,0 1,0 0,1 0,-1 1,0 1,1-1,15 2,-22 0,0 0,1 1,-1-1,0 0,0 1,0 0,0-1,0 1,0 0,-1 1,1-1,-1 0,1 1,-1 0,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 0,0 1,0-1,-1 5,3 14,-1 0,-1 0,-2 27,0-26,-1 22,-2 0,-2 1,-3-2,-19 64,17-74,-1 0,-2-1,-1-1,-2-1,-1 0,-29 37,40-59,-1 0,-1-1,0 0,0 0,0-1,-1 0,0-1,-1 0,-12 5,20-9,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,-1 1,1-1,0 0,0 0,0-1,0 1,0-1,-1 0,1 1,0-1,0-1,0 1,1 0,-1-1,0 1,0-1,1 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,1 1,-1-1,0 0,1 0,0 1,-2-7,-1-2,0 0,1-1,0 0,1 1,1-1,0 0,0 0,1 0,1 0,0 0,1 0,5-22,-5 28,-1 1,1 0,0-1,1 1,-1 0,1 0,0 0,1 0,-1 1,1-1,0 1,0 0,0 0,0 0,1 1,0-1,-1 1,1 0,1 0,-1 1,0 0,1 0,-1 0,1 0,-1 1,1 0,0 0,6 0,-2 2,0-1,0 1,-1 1,1 0,0 0,-1 1,0 0,0 1,0 0,0 0,16 11,3 5,51 48,-42-34,-8-10,137 114,-160-133,1 0,0-1,0 1,0-2,11 5,1-3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2910.99">1 1746,'40'-42,"-27"27,1 0,0 1,1 1,0 0,1 1,18-10,22-8,0 3,116-38,-166 63,-1 0,1 1,0-1,1 1,-1 1,0-1,0 1,0 1,0-1,0 1,0 0,7 2,-9-1,0-1,-1 1,0 1,1-1,-1 0,0 1,0 0,-1 0,1 0,0 0,-1 0,0 0,0 1,0-1,0 1,0-1,-1 1,1 0,0 7,13 39,-3 0,-2 1,-2 0,-2 1,-3 0,-1 0,-8 65,4-104,-1 1,0-1,-1 0,0 0,-1 0,-1 0,0-1,0 0,-1 0,-1-1,-9 12,13-18,-1-1,1 1,-1-1,0 0,0 0,0 0,0-1,-1 0,1 0,-1 0,0-1,0 0,0 0,0 0,0-1,0 0,-1 0,1-1,0 1,0-1,-1-1,1 1,0-1,-1 0,-10-4,15 5,-1-1,1 0,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0-1,0 0,0 1,-2-4,4 4,-1 1,1-1,0 0,-1 0,1 1,0-1,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,2-2,1-1,0-1,1 1,-1 1,1-1,0 0,-1 1,1 0,1 0,-1 0,0 0,0 1,1-1,4 0,18-1,-1 0,1 2,0 1,0 1,0 1,0 2,37 9,-53-11,11 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3685">1059 2143,'0'5,"0"15,-5 3,-1 3,-4 2,-1-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4550.99">1244 1826,'2'-22,"1"-1,2 0,0 1,2 0,0 0,20-40,2-8,-20 43,13-37,54-108,-63 159,-6 21,-2 32,-5-39,0 183,-1-104,2 1,14 83,-12-143</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6309.99">1430 1588,'4'5,"2"10,-1 16,0 12,-2 7,-1 9,-1 13,0-2,-1-4,0-8,-1-10,1-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7888.99">424 2831,'9'-1,"1"-1,-1 0,1-1,-1 0,0-1,0 0,0 0,-1-1,10-6,17-9,-15 10,-4 2,-1 1,2 0,-1 0,34-7,-48 14,-1 0,1 0,0-1,0 1,0 1,-1-1,1 0,0 0,0 0,-1 1,1-1,0 1,0 0,-1-1,1 1,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0-1,-1 1,1 0,0 1,1 7,0 1,0-1,-1 1,0 17,0-19,-1-6,2 67,-2 0,-11 73,9-125,-1 1,-1-1,0-1,-1 1,-1-1,-1 0,-1 0,0 0,-1-1,0-1,-2 1,0-2,-16 18,20-26,0-1,0 0,0-1,-1 1,1-1,-1-1,0 0,-14 4,20-6,0 0,0-1,1 1,-1-1,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,1 0,-1 0,0 1,1-1,-1 0,1 0,0 0,-1 0,1 1,0-4,1 0,-1 0,1 0,0 0,1 0,-1 0,1 0,0 1,0-1,0 0,1 1,-1 0,1 0,0-1,0 2,1-1,-1 0,1 1,0-1,0 1,0 0,0 0,1 1,-1-1,9-2,0-1,-1 1,1 0,0 1,0 0,0 1,1 0,-1 2,17-2,-19 5,0-1,1 1,-1 1,0 0,0 0,-1 1,1 1,19 11,-19-10,0 0,0-1,0 0,1-1,0 0,0-1,19 3,-8-5</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8454.99">1244 3228,'0'5,"0"14,0 14,-9 10,-8 11,0 1,2-5,-5 3,-4-7,7-12,6-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10107.99">1562 2805,'0'-4,"2"0,-1 0,0 0,1 0,-1 1,1-1,0 0,1 1,-1-1,4-3,2-4,27-49,39-58,-65 105,1 1,0 0,1 1,0 0,1 1,21-15,-30 23,0 0,-1 0,1 1,0-1,0 0,0 1,0 0,0 0,0 0,0 0,1 1,-1-1,0 1,0-1,1 1,-1 0,0 1,1-1,-1 0,0 1,0 0,0 0,1 0,-1 0,0 0,0 1,-1-1,1 1,0 0,0 0,2 2,0 2,-1-1,0 1,0 0,-1 0,0 0,0 0,0 0,-1 1,0-1,0 1,-1 0,0 0,0-1,0 10,-1 314,-4-167,4-142,-1 1,-6 35,6-50,-1 0,0-1,0 1,-1-1,0 0,0 1,0-1,-1-1,0 1,0 0,0-1,-8 7,-2 1,3-2,-1 0,0-1,0-1,-25 15,35-23,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,0-1,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 0,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 0,1 0,0 1,0-1,0 0,0 0,1 0,-2-4,2 5,-1-1,1 1,-1 0,1 0,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,1-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,2-2,0 1,0 0,0 0,0 0,0 0,0 1,1 0,-1-1,1 1,-1 0,6 0,3-1,-1 1,1 1,0 0,-1 1,24 3,-8 5,45 20,-14-4,-3 0,-40-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">111 279,'1'-3,"1"-1,1 2,-1-1,1-1,-1 1,1 0,-1 1,1-1,0 0,0 2,2-2,-2 1,5-3,9-7,26-33,-35 37,-1-1,0 0,2 2,0-1,-1 0,2 2,17-12,-26 18,-1 0,1-1,0 1,0 0,-1 0,1 0,0 0,0-1,-1 1,1 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,0 1,-1-1,1 1,1-1,-2 1,1-1,-1 1,1-1,-1 1,1-1,-1 1,1 0,-1-1,1 1,-1 0,0-1,1 1,-1 1,11 33,-10-28,12 78,-5 1,-5 136,-2-61,-1-152,0 0,1 1,1-2,-1 2,1-2,6 12,3 1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="508.98">799 584,'5'0,"1"22,0 16,-1 9,-2 10,0 9,-7-3,-2 0,-4-5,8-18,5-15</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1648.99">1158 177,'0'-3,"1"0,0-1,0 0,0 0,1 0,-1 2,1-2,0 1,0-1,0 1,0 0,1 0,-1 0,2 1,5-6,54-36,-50 35,5-1,-1-1,2 1,29-10,-40 17,2 1,-1-1,0 1,1 0,0 0,0 1,-1 1,1-1,16 2,-23 0,1 0,0 1,-1-1,0 0,0 1,0 0,0-1,1 0,-1 1,-1 1,1-1,-1 0,1 1,-1 0,0-1,0 1,0-1,0 1,0 0,0 0,-1 0,0 1,0-1,0 0,0 0,0 0,-1 5,3 13,-1 0,-1 0,-2 26,0-25,-1 22,-2-1,-2 1,-4-2,-19 62,18-72,-2 1,-2-1,0-2,-3 0,-1 0,-30 35,42-56,-1-1,-1 0,-1 0,1-1,-1 0,0 0,0-2,-2 1,-12 5,21-9,0-1,0 0,0 0,0 0,-1 0,1-1,0 0,0 0,-1 1,1-1,0 0,0 0,-1-1,1 1,0 0,-1-1,1 1,0-1,0-1,0 1,0 0,0-1,0 1,0-1,1 0,-1 0,1 0,0 0,-1 0,0-1,1 2,0-2,1 1,-1-1,0 0,1 0,0 1,-2-6,-1-3,0 0,0 0,1-1,1 2,1-2,0 1,0-1,1 1,1-1,0 1,1-1,6-20,-6 26,-1 1,1 0,0 0,1 0,-1 0,1 0,0 0,1 1,0 0,0-1,0 1,0 0,0 0,0 1,2 0,-1-1,-1 1,1 0,1 0,0 1,-1 0,1 1,-1-1,2 0,-2 1,1 0,0 0,7 0,-3 2,1-1,-1 1,-1 1,2 0,-1 0,0 0,-1 1,0 1,1 0,-1 0,17 10,3 5,53 47,-43-34,-9-9,143 110,-167-129,1 1,1-1,-1 1,0-2,12 4,1-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2910.99">1 1675,'42'-40,"-29"25,2 1,-1 1,2 0,0 1,0 0,20-9,22-8,0 3,121-36,-172 60,-2 0,1 1,0-1,1 1,0 1,-1-1,0 1,0 1,1-1,-1 1,0 0,8 2,-10-1,0-1,-1 1,0 1,1-1,0 0,-1 0,0 1,-1 0,1 0,0 0,-1 0,0 0,0 1,1-2,-1 2,0-1,-1 1,1 0,0 6,13 38,-2 0,-3 1,-1 0,-3 1,-3 0,-1 0,-8 62,4-99,-1 0,0-1,-2 1,1-1,-1 1,-1-1,0 0,-1-1,0 1,-1-2,-10 13,14-19,-1 0,0 1,0-1,0 0,0-1,0 1,-1-1,0 0,1 0,-1 0,0-1,-1 0,1 0,0-1,0 0,-1 0,0 0,1-1,0 1,-1-1,0-1,1 1,-1-1,0 0,-11-3,16 4,-1-1,1 0,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1-1,1 0,0 1,-2-4,4 5,-1 0,1-1,0 0,-1 0,1 1,0-1,0 0,-1 0,1 0,0 1,0-1,0 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 0,1 0,-1 1,0-1,1 0,-1 0,0 1,2-2,1-1,0 0,2 0,-2 1,1-1,0 0,-1 1,1 0,2 0,-2 0,0 0,0 2,1-2,5 0,18-1,-1 0,1 2,0 1,0 1,0 1,0 2,39 8,-56-10,12 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3685">1102 2056,'0'5,"0"14,-5 3,-1 3,-4 2,-2-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4550.99">1295 1752,'2'-21,"1"-1,2 0,1 0,1 1,0 0,21-38,2-8,-20 41,13-36,56-103,-66 153,-5 20,-3 30,-5-37,0 175,-1-99,2 1,15 79,-13-137</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6309.99">1489 1523,'4'5,"2"10,-1 14,0 13,-1 6,-2 8,-1 13,0-2,-1-3,0-9,-1-9,1-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7888.99">441 2716,'10'-1,"0"-1,0 0,0-1,-1 0,1 0,-1-1,0 0,0-1,9-5,19-10,-16 11,-5 1,0 1,2 1,-2-1,36-6,-50 13,0 0,0 0,0-1,0 1,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 1,0 0,-1-1,2 1,-2 0,1 0,-1 0,1 0,-1 0,1 0,-1 1,0-1,0 0,0 1,0-1,0 1,0-1,0 1,0 0,0-1,-1 0,1 1,0 1,1 7,1 0,-1 0,-1 1,0 15,0-17,-1-6,2 64,-2 0,-12 70,10-119,-1 0,-1-1,0-1,-1 2,-2-2,0 0,-1 1,-1-1,0-1,0 0,-3 0,1-1,-17 16,20-24,1-1,0 0,0-2,-2 2,2-1,-1-1,-1 0,-14 4,21-7,0 1,0-1,1 1,-1-1,0 1,0-1,0 0,0 0,0 0,1 0,-2 0,1 0,0 0,0 0,0-1,1 1,-1-1,0 0,0 1,1 0,-1-1,0 0,1 0,-1 0,1 0,-2-1,2 1,0 0,-1-1,1 1,0-1,0 1,0-1,0 1,0-1,1 0,-1 0,0 2,1-2,-1 0,1 0,0 0,-1 0,1 1,0-4,1 0,-1 1,1-1,0 0,1 0,-1 0,1 1,0 0,0-1,0 0,2 1,-2 0,1 1,0-2,0 2,1-1,-1 0,1 1,1 0,-1 0,0 0,0 0,1 1,-1-1,10-2,0 0,-2 0,2 0,-1 1,1 0,-1 1,2 1,-2 1,19-2,-21 5,0-1,2 1,-2 0,1 1,-1 0,0 1,0 1,20 10,-19-9,-1 0,1-2,-1 1,2-1,-1 0,1-1,19 3,-8-5</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8454.99">1295 3097,'0'5,"0"13,0 14,-9 9,-9 11,0 0,3-4,-6 3,-4-7,7-11,7-12</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10107.99">1626 2691,'0'-4,"2"0,-1 1,0-1,1 0,-1 1,1-1,0 0,2 1,-2 0,4-4,2-4,29-46,40-56,-68 100,2 2,-1-1,1 2,1-1,0 1,23-14,-32 22,0 1,-1-1,1 1,0-1,0 0,0 1,1 0,-1 0,0 0,0 0,1 1,-1-1,0 1,1-1,0 1,-1 0,0 1,1-1,-1 0,0 1,0 0,1 0,0 0,-1 0,0 0,0 1,-1-1,1 1,0 0,1-1,1 3,0 2,-1-1,0 1,0-1,0 1,-1 0,0 0,0-1,-1 2,0-1,0 1,-1-1,0 1,0-1,0 9,-1 302,-4-161,4-136,-1 1,-6 34,6-48,-1-1,0 0,0 1,-2-1,1-1,0 2,0-1,-1-1,0 0,0 1,-1-1,-7 7,-3 0,4-1,-2-1,1 0,-1-2,-25 15,36-22,1 0,-1 0,0 0,0 0,-1 0,1-1,0 1,0-1,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 0,-2-1,2 1,0-1,0 0,0 1,0-1,0 0,0 0,1 0,-1 0,0 0,0-1,1 2,-2-2,2 1,-1-1,1 1,0-1,-1 0,1 0,0 1,0-1,0 0,0 0,1 0,-2-3,2 4,-1-1,1 1,-1 0,1 0,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,0 1,0-1,0 1,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,0 0,-1 0,1 0,0 0,2-2,0 1,0 0,1 0,-1 0,0 1,0 0,1 0,-1-1,1 1,-1 0,7 0,2-1,0 1,0 1,1 0,-2 1,26 3,-9 4,47 20,-15-4,-3 0,-41-17</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -28644,7 +28693,7 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">533 0,'-4'1,"0"-1,1 1,-1 0,1 0,0 0,-1 0,1 0,0 1,-1 0,1 0,0-1,0 2,1-1,-1 0,0 1,1-1,-4 5,-36 55,30-43,-28 49,2 1,-43 110,40-83,27-68,1 1,1 1,2 0,1 0,-6 33,-43 286,51-277,5-41,-10 51,-9 1,5 1,3 1,-3 113,16-164,5 109,-4-130,1 1,1-1,0 0,1 1,0-2,1 1,1 0,7 12,-8-18,0-1,1 1,0-1,1 0,-1-1,1 0,0 0,0 0,14 5,3 2,44 13,-13-6,-20-6,0-2,1-1,70 9,-83-18</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">618 0,'-5'1,"1"-1,0 1,-1 0,2 0,-1 0,0 0,0 0,1 1,-2-1,2 1,-1-1,1 2,1-1,-2 0,1 1,0-1,-4 4,-41 53,34-40,-33 45,3 2,-50 104,47-78,31-65,0 0,3 2,1-1,2 1,-8 31,-49 272,59-263,5-40,-10 49,-12 1,7 1,3 1,-4 108,19-157,6 104,-5-123,1 0,2 0,-1-1,2 1,0-1,0 0,2 0,8 12,-9-17,0-1,1 0,0 0,1 0,-1-2,1 1,0 0,0 0,17 4,2 3,52 12,-15-6,-23-6,-1-2,2 0,81 8,-96-17</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -28754,7 +28803,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">249 354,'-1'8,"1"-1,-1 1,0-1,0 0,-1 1,-4 8,-3 17,-44 176,-40 189,28-116,60-268,2-1,0 1,1 0,0 0,1 0,0 15,1-25,1-1,-1 0,1 1,0-1,-1 0,1 1,1-1,-1 0,0 0,1 0,-1 0,1 0,0 0,0-1,0 1,1-1,-1 1,1-1,-1 0,1 0,0 0,-1 0,1 0,0-1,0 1,1-1,-1 0,0 0,0 0,6 1,17 1,-1-1,1-1,0-2,34-4,15 0,-68 5,1 0,-1-1,0 0,0 0,0 0,12-5,3-6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="594.56">434 11,'-5'-4,"-1"-2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="594.55">434 11,'-5'-4,"-1"-2</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -28810,13 +28859,13 @@
       <inkml:brushProperty name="ignorePressure" value="1"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">318 110,'2035'-91,"-1334"73,-477 21,103-2,-291-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="933.15">1 666,'4'5,"11"1,7-1,9 0,3-2,1-1,-1-1,-2 0,-2-1,-1-1,-2 1,0 0,4 0,1 0,0-1,-2 1,0 0,-6 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1941.98">953 322,'1'115,"1"-28,-3 0,-17 110,16-188,1 0,0 1,0-1,1 0,0 0,0 1,1-1,1 0,0 0,0 0,0 0,1 0,0-1,1 1,0-1,1 0,-1 0,2 0,-1-1,1 1,0-1,0-1,1 1,0-1,8 5,7 9,-10-9,0 0,1 0,0-1,1-1,0 0,0-1,1-1,27 10,-19-12</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4028.89">1403 586,'0'569,"-2"-711,-2 30,21-190,-12 273,1 0,1 0,2 0,1 1,1 0,2 1,0 1,2 0,28-37,-40 59,0 0,0 0,1 0,0 1,-1 0,1 0,1 0,-1 0,0 0,1 1,-1 0,1 0,0 0,-1 1,1-1,0 1,0 0,8 0,-10 1,0 1,0-1,1 1,-1-1,0 1,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,-1 0,1 0,-1 1,0-1,1 0,-1 1,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,0 0,1 5,6 26,-2 1,-2-1,-1 1,-2-1,-4 55,1-19,2-63,0-1,-1 1,0-1,0 1,-1-1,1 1,-1-1,-1 0,1 0,-1 0,0 0,0 0,-1-1,0 1,0-1,-8 9,4-8,-1 1,1-1,-1 0,0-1,-1 1,1-2,-1 0,0 0,-19 4,14-4,1-1,-1 0,0-1,0-1,0 0,0-1,0-1,0-1,0 0,-24-6,39 8,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,18-7,28 2,-36 6,1 0,0 1,-1 0,1 0,-1 1,0 1,0-1,1 2,-2-1,1 1,0 1,-1 0,0 0,0 1,0 0,-1 1,0 0,0 0,-1 1,0-1,10 15,-5-6,0-1,2-1,0 0,0 0,30 20,16 14,-17-13,-23-23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4758">2011 639,'9'-4,"7"-2,6 1,4-5,1 1,6 1,1 3,-5-4,2 1,-1 2,0 1,-5 2</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5563.42">2117 613,'0'485,"0"-464,2-1,1 1,0-1,1 0,9 25,-4-20</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6944.09">2541 216,'-1'-1,"1"0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,0 1,1 0,-1 0,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,1-1,-1 2,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 2,5 4,-1 0,-1 0,1 0,-1 1,0-1,5 13,1 18,-1 1,-1 0,3 71,-9 121,-3-133,-1-71,-1 1,-1 0,-13 43,-5 32,18-87,1 0,-2 0,0 0,-1 0,0-1,-10 17,12-24,-11 22</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">333 106,'2130'-88,"-1396"71,-500 20,108-2,-304-1</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="933.15">1 644,'4'5,"12"1,7-2,9 1,4-2,1-1,-2-1,-1 0,-3-1,-1-1,-1 1,-1 0,4 0,2 0,-1-1,-1 1,-1 0,-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1941.98">997 311,'1'112,"2"-28,-4 0,-18 106,17-181,1 0,0 0,-1 0,2 0,0-1,0 2,2-1,0 0,0-1,0 1,0 0,1-1,0 0,1 1,1-1,0-1,-1 1,2 0,-1-1,2 0,-1 0,0-1,2 1,-1-2,9 6,7 8,-11-8,1 0,0-1,1 0,1-1,-1-1,1 0,1-1,28 9,-20-11</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4028.89">1468 567,'0'550,"-2"-687,-2 28,22-183,-13 264,1 0,2 0,1 0,2 1,0 0,3 1,-1 1,3 0,29-36,-42 57,0 0,1 0,0 0,0 1,-1 0,1 0,1 1,0-1,-1 0,1 1,-1 0,2 0,-1 0,-1 1,1-1,0 1,1 0,7 0,-10 1,1 1,-1-1,1 1,-1-1,0 1,0 0,0 0,1 1,-1-1,0 1,0-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 1,0 0,-1-1,1 1,0 0,-1 0,1 0,-1 0,0-1,2 6,5 25,-2 1,-2-1,0 1,-3-1,-5 53,2-19,2-60,0-1,-1 1,0-2,0 2,-1-1,1 1,-1-1,-1-1,1 1,-1 0,-1 0,1 0,-1-2,0 2,0-1,-9 9,5-9,-2 2,2-1,-1 0,-1-1,0 0,0-1,0 0,-1 0,-19 4,14-4,2-2,-2 1,0-1,1-1,-1 0,0-1,0-1,1-1,-1 0,-25-5,41 7,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,0-1,-1 1,1 0,-1 0,1 0,0 0,-1-1,1 1,0 0,-1 0,1-1,0 1,-1 0,1 0,0-1,0 1,-1 0,1-1,0 1,0 0,0-1,0 1,-1-1,1 1,0 0,0-1,0 1,0-1,0 1,0 0,0-1,0 1,0-1,19-7,29 3,-38 5,2 0,-1 0,0 1,0 0,0 1,-1 1,1-1,0 2,-1-1,0 1,1 1,-2-1,0 1,1 1,-1 0,0 1,-1-1,0 1,0 1,-1-1,11 14,-6-6,1 0,2-1,-1-1,1 1,31 18,17 15,-18-13,-24-23</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4758">2105 618,'9'-4,"8"-2,6 1,4-4,2 0,5 1,2 3,-6-3,2 0,0 2,-1 1,-5 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5563.42">2216 593,'0'469,"0"-449,2-1,1 2,0-2,1 0,10 25,-5-20</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6944.09">2660 209,'-1'-1,"1"0,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,1 0,-1-1,0 1,1 0,-1 0,1 1,-1-1,1-1,0 1,-1 0,1 0,0 0,0 0,1-1,-1 2,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,1 0,-1 1,0-1,-1 1,1-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 2,5 3,-1 1,0 0,0 0,-1 0,0 0,6 13,0 16,0 2,-2 0,3 68,-8 118,-5-129,0-69,-1 1,-1 0,-14 42,-5 30,19-83,1-1,-2 1,-1-1,0 1,0-2,-11 17,13-23,-12 21</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -29203,25 +29252,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B6502C-1391-495C-BE64-C73546A10741}">
   <dimension ref="D44:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44">
         <f>0.0792</f>
         <v>7.9200000000000007E-2</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45">
         <f>2200</f>
         <v>2200</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46">
         <f>SQRT(D44/D45)</f>
         <v>6.0000000000000001E-3</v>
@@ -29237,11 +29286,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC72DE6F-9673-4804-B3FE-F2B653D1992D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29252,11 +29301,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF11631-071E-474B-BC09-398294D9E112}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29271,7 +29320,7 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29282,11 +29331,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC8A6A81-9063-4713-9CA1-D7D279276C6E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -29298,10 +29347,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
